--- a/vs-x64/Scattered unsuccessful looukp.xlsx
+++ b/vs-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.330214</v>
+        <v>0.337624</v>
       </c>
       <c r="C2" t="n">
-        <v>0.371808</v>
+        <v>0.37082</v>
       </c>
       <c r="D2" t="n">
-        <v>0.328534</v>
+        <v>0.336159</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.337425</v>
+        <v>0.343313</v>
       </c>
       <c r="C3" t="n">
-        <v>0.377801</v>
+        <v>0.377533</v>
       </c>
       <c r="D3" t="n">
-        <v>0.331773</v>
+        <v>0.327671</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.334351</v>
+        <v>0.336772</v>
       </c>
       <c r="C4" t="n">
-        <v>0.38176</v>
+        <v>0.375412</v>
       </c>
       <c r="D4" t="n">
-        <v>0.334664</v>
+        <v>0.335896</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.34829</v>
+        <v>0.348765</v>
       </c>
       <c r="C5" t="n">
-        <v>0.388594</v>
+        <v>0.395405</v>
       </c>
       <c r="D5" t="n">
-        <v>0.349215</v>
+        <v>0.340722</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.356274</v>
+        <v>0.370966</v>
       </c>
       <c r="C6" t="n">
-        <v>0.402504</v>
+        <v>0.401392</v>
       </c>
       <c r="D6" t="n">
-        <v>0.368535</v>
+        <v>0.357154</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.373075</v>
+        <v>0.373621</v>
       </c>
       <c r="C7" t="n">
-        <v>0.423164</v>
+        <v>0.426209</v>
       </c>
       <c r="D7" t="n">
-        <v>0.378243</v>
+        <v>0.37437</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.402313</v>
+        <v>0.393251</v>
       </c>
       <c r="C8" t="n">
-        <v>0.45332</v>
+        <v>0.452671</v>
       </c>
       <c r="D8" t="n">
-        <v>0.413578</v>
+        <v>0.406071</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.436064</v>
+        <v>0.441782</v>
       </c>
       <c r="C9" t="n">
-        <v>0.510754</v>
+        <v>0.517086</v>
       </c>
       <c r="D9" t="n">
-        <v>0.32112</v>
+        <v>0.321484</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.326576</v>
+        <v>0.327514</v>
       </c>
       <c r="C10" t="n">
-        <v>0.373494</v>
+        <v>0.373085</v>
       </c>
       <c r="D10" t="n">
-        <v>0.331662</v>
+        <v>0.316637</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.32749</v>
+        <v>0.326412</v>
       </c>
       <c r="C11" t="n">
-        <v>0.36812</v>
+        <v>0.364194</v>
       </c>
       <c r="D11" t="n">
-        <v>0.321567</v>
+        <v>0.321151</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.330693</v>
+        <v>0.327627</v>
       </c>
       <c r="C12" t="n">
-        <v>0.368308</v>
+        <v>0.361989</v>
       </c>
       <c r="D12" t="n">
-        <v>0.320209</v>
+        <v>0.312092</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.325845</v>
+        <v>0.329619</v>
       </c>
       <c r="C13" t="n">
-        <v>0.362843</v>
+        <v>0.364555</v>
       </c>
       <c r="D13" t="n">
-        <v>0.316157</v>
+        <v>0.318687</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.328638</v>
+        <v>0.328128</v>
       </c>
       <c r="C14" t="n">
-        <v>0.386652</v>
+        <v>0.366323</v>
       </c>
       <c r="D14" t="n">
-        <v>0.334386</v>
+        <v>0.322317</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.352596</v>
+        <v>0.337278</v>
       </c>
       <c r="C15" t="n">
-        <v>0.38715</v>
+        <v>0.385705</v>
       </c>
       <c r="D15" t="n">
-        <v>0.328369</v>
+        <v>0.332906</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.35212</v>
+        <v>0.331826</v>
       </c>
       <c r="C16" t="n">
-        <v>0.371335</v>
+        <v>0.380161</v>
       </c>
       <c r="D16" t="n">
-        <v>0.322704</v>
+        <v>0.322491</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.343073</v>
+        <v>0.338964</v>
       </c>
       <c r="C17" t="n">
-        <v>0.388821</v>
+        <v>0.377692</v>
       </c>
       <c r="D17" t="n">
-        <v>0.329225</v>
+        <v>0.337808</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.338352</v>
+        <v>0.355122</v>
       </c>
       <c r="C18" t="n">
-        <v>0.387425</v>
+        <v>0.375549</v>
       </c>
       <c r="D18" t="n">
-        <v>0.348499</v>
+        <v>0.337031</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.352108</v>
+        <v>0.345126</v>
       </c>
       <c r="C19" t="n">
-        <v>0.386443</v>
+        <v>0.383419</v>
       </c>
       <c r="D19" t="n">
-        <v>0.335548</v>
+        <v>0.34715</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.362989</v>
+        <v>0.355876</v>
       </c>
       <c r="C20" t="n">
-        <v>0.39766</v>
+        <v>0.391558</v>
       </c>
       <c r="D20" t="n">
-        <v>0.356519</v>
+        <v>0.349031</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.378375</v>
+        <v>0.369587</v>
       </c>
       <c r="C21" t="n">
-        <v>0.420083</v>
+        <v>0.415421</v>
       </c>
       <c r="D21" t="n">
-        <v>0.379624</v>
+        <v>0.374616</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.399083</v>
+        <v>0.393872</v>
       </c>
       <c r="C22" t="n">
-        <v>0.435312</v>
+        <v>0.445662</v>
       </c>
       <c r="D22" t="n">
-        <v>0.400008</v>
+        <v>0.408438</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.434295</v>
+        <v>0.459237</v>
       </c>
       <c r="C23" t="n">
-        <v>0.473744</v>
+        <v>0.476926</v>
       </c>
       <c r="D23" t="n">
-        <v>0.323382</v>
+        <v>0.32067</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.338352</v>
+        <v>0.325805</v>
       </c>
       <c r="C24" t="n">
-        <v>0.361187</v>
+        <v>0.366946</v>
       </c>
       <c r="D24" t="n">
-        <v>0.326922</v>
+        <v>0.319973</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.326214</v>
+        <v>0.327683</v>
       </c>
       <c r="C25" t="n">
-        <v>0.369143</v>
+        <v>0.367936</v>
       </c>
       <c r="D25" t="n">
-        <v>0.331389</v>
+        <v>0.312744</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.350896</v>
+        <v>0.33395</v>
       </c>
       <c r="C26" t="n">
-        <v>0.361869</v>
+        <v>0.366832</v>
       </c>
       <c r="D26" t="n">
-        <v>0.32143</v>
+        <v>0.321342</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.326997</v>
+        <v>0.333625</v>
       </c>
       <c r="C27" t="n">
-        <v>0.359289</v>
+        <v>0.371103</v>
       </c>
       <c r="D27" t="n">
-        <v>0.328721</v>
+        <v>0.326845</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.331957</v>
+        <v>0.334838</v>
       </c>
       <c r="C28" t="n">
-        <v>0.386039</v>
+        <v>0.367178</v>
       </c>
       <c r="D28" t="n">
-        <v>0.321113</v>
+        <v>0.316516</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.332643</v>
+        <v>0.330125</v>
       </c>
       <c r="C29" t="n">
-        <v>0.37468</v>
+        <v>0.369059</v>
       </c>
       <c r="D29" t="n">
-        <v>0.32313</v>
+        <v>0.32248</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.336133</v>
+        <v>0.333394</v>
       </c>
       <c r="C30" t="n">
-        <v>0.377448</v>
+        <v>0.378022</v>
       </c>
       <c r="D30" t="n">
-        <v>0.320551</v>
+        <v>0.328915</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.336781</v>
+        <v>0.340658</v>
       </c>
       <c r="C31" t="n">
-        <v>0.38381</v>
+        <v>0.382321</v>
       </c>
       <c r="D31" t="n">
-        <v>0.331278</v>
+        <v>0.327278</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.346576</v>
+        <v>0.345248</v>
       </c>
       <c r="C32" t="n">
-        <v>0.379585</v>
+        <v>0.387405</v>
       </c>
       <c r="D32" t="n">
-        <v>0.342452</v>
+        <v>0.340878</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.346619</v>
+        <v>0.343257</v>
       </c>
       <c r="C33" t="n">
-        <v>0.392084</v>
+        <v>0.385068</v>
       </c>
       <c r="D33" t="n">
-        <v>0.351189</v>
+        <v>0.336971</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.368611</v>
+        <v>0.36266</v>
       </c>
       <c r="C34" t="n">
-        <v>0.396526</v>
+        <v>0.38712</v>
       </c>
       <c r="D34" t="n">
-        <v>0.348216</v>
+        <v>0.347519</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.37505</v>
+        <v>0.366699</v>
       </c>
       <c r="C35" t="n">
-        <v>0.406757</v>
+        <v>0.398794</v>
       </c>
       <c r="D35" t="n">
-        <v>0.36101</v>
+        <v>0.362505</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.4017</v>
+        <v>0.397408</v>
       </c>
       <c r="C36" t="n">
-        <v>0.430705</v>
+        <v>0.423542</v>
       </c>
       <c r="D36" t="n">
-        <v>0.398976</v>
+        <v>0.382443</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.434074</v>
+        <v>0.431495</v>
       </c>
       <c r="C37" t="n">
-        <v>0.491246</v>
+        <v>0.465828</v>
       </c>
       <c r="D37" t="n">
-        <v>0.324747</v>
+        <v>0.322915</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.341103</v>
+        <v>0.327627</v>
       </c>
       <c r="C38" t="n">
-        <v>0.364835</v>
+        <v>0.37791</v>
       </c>
       <c r="D38" t="n">
-        <v>0.320666</v>
+        <v>0.316568</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.335932</v>
+        <v>0.323397</v>
       </c>
       <c r="C39" t="n">
-        <v>0.376587</v>
+        <v>0.365207</v>
       </c>
       <c r="D39" t="n">
-        <v>0.319483</v>
+        <v>0.322449</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.341727</v>
+        <v>0.327258</v>
       </c>
       <c r="C40" t="n">
-        <v>0.375166</v>
+        <v>0.386942</v>
       </c>
       <c r="D40" t="n">
-        <v>0.336292</v>
+        <v>0.322413</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.348562</v>
+        <v>0.3471</v>
       </c>
       <c r="C41" t="n">
-        <v>0.366119</v>
+        <v>0.36973</v>
       </c>
       <c r="D41" t="n">
-        <v>0.319828</v>
+        <v>0.339761</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.337317</v>
+        <v>0.34693</v>
       </c>
       <c r="C42" t="n">
-        <v>0.367421</v>
+        <v>0.368361</v>
       </c>
       <c r="D42" t="n">
-        <v>0.323698</v>
+        <v>0.319803</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.332193</v>
+        <v>0.332682</v>
       </c>
       <c r="C43" t="n">
-        <v>0.36841</v>
+        <v>0.377534</v>
       </c>
       <c r="D43" t="n">
-        <v>0.329297</v>
+        <v>0.317848</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.338744</v>
+        <v>0.333713</v>
       </c>
       <c r="C44" t="n">
-        <v>0.393941</v>
+        <v>0.380184</v>
       </c>
       <c r="D44" t="n">
-        <v>0.326672</v>
+        <v>0.325213</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.337063</v>
+        <v>0.340222</v>
       </c>
       <c r="C45" t="n">
-        <v>0.379643</v>
+        <v>0.383868</v>
       </c>
       <c r="D45" t="n">
-        <v>0.331097</v>
+        <v>0.331748</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.35745</v>
+        <v>0.34668</v>
       </c>
       <c r="C46" t="n">
-        <v>0.374738</v>
+        <v>0.381549</v>
       </c>
       <c r="D46" t="n">
-        <v>0.338879</v>
+        <v>0.3309</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.354225</v>
+        <v>0.346446</v>
       </c>
       <c r="C47" t="n">
-        <v>0.384285</v>
+        <v>0.385444</v>
       </c>
       <c r="D47" t="n">
-        <v>0.338209</v>
+        <v>0.338155</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.362393</v>
+        <v>0.370123</v>
       </c>
       <c r="C48" t="n">
-        <v>0.396528</v>
+        <v>0.396012</v>
       </c>
       <c r="D48" t="n">
-        <v>0.342864</v>
+        <v>0.352941</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.368212</v>
+        <v>0.372691</v>
       </c>
       <c r="C49" t="n">
-        <v>0.398964</v>
+        <v>0.403919</v>
       </c>
       <c r="D49" t="n">
-        <v>0.361602</v>
+        <v>0.361377</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.395236</v>
+        <v>0.407294</v>
       </c>
       <c r="C50" t="n">
-        <v>0.423039</v>
+        <v>0.435826</v>
       </c>
       <c r="D50" t="n">
-        <v>0.386085</v>
+        <v>0.394221</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.438317</v>
+        <v>0.424938</v>
       </c>
       <c r="C51" t="n">
-        <v>0.469783</v>
+        <v>0.457301</v>
       </c>
       <c r="D51" t="n">
-        <v>0.324892</v>
+        <v>0.317554</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.488517</v>
+        <v>0.476726</v>
       </c>
       <c r="C52" t="n">
-        <v>0.522178</v>
+        <v>0.512081</v>
       </c>
       <c r="D52" t="n">
-        <v>0.323062</v>
+        <v>0.325402</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.333959</v>
+        <v>0.343071</v>
       </c>
       <c r="C53" t="n">
-        <v>0.375351</v>
+        <v>0.380383</v>
       </c>
       <c r="D53" t="n">
-        <v>0.337415</v>
+        <v>0.318715</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.336806</v>
+        <v>0.353651</v>
       </c>
       <c r="C54" t="n">
-        <v>0.384776</v>
+        <v>0.376375</v>
       </c>
       <c r="D54" t="n">
-        <v>0.332946</v>
+        <v>0.316271</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.358505</v>
+        <v>0.338613</v>
       </c>
       <c r="C55" t="n">
-        <v>0.37478</v>
+        <v>0.366624</v>
       </c>
       <c r="D55" t="n">
-        <v>0.331063</v>
+        <v>0.325223</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.335862</v>
+        <v>0.341068</v>
       </c>
       <c r="C56" t="n">
-        <v>0.385564</v>
+        <v>0.375967</v>
       </c>
       <c r="D56" t="n">
-        <v>0.320746</v>
+        <v>0.331707</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.357819</v>
+        <v>0.345621</v>
       </c>
       <c r="C57" t="n">
-        <v>0.378889</v>
+        <v>0.378978</v>
       </c>
       <c r="D57" t="n">
-        <v>0.321334</v>
+        <v>0.33441</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.349896</v>
+        <v>0.347037</v>
       </c>
       <c r="C58" t="n">
-        <v>0.399171</v>
+        <v>0.384398</v>
       </c>
       <c r="D58" t="n">
-        <v>0.342348</v>
+        <v>0.32239</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.354008</v>
+        <v>0.346346</v>
       </c>
       <c r="C59" t="n">
-        <v>0.376283</v>
+        <v>0.392428</v>
       </c>
       <c r="D59" t="n">
-        <v>0.336856</v>
+        <v>0.331424</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.357853</v>
+        <v>0.345032</v>
       </c>
       <c r="C60" t="n">
-        <v>0.392186</v>
+        <v>0.388112</v>
       </c>
       <c r="D60" t="n">
-        <v>0.340761</v>
+        <v>0.33252</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.364022</v>
+        <v>0.367012</v>
       </c>
       <c r="C61" t="n">
-        <v>0.398086</v>
+        <v>0.386658</v>
       </c>
       <c r="D61" t="n">
-        <v>0.338608</v>
+        <v>0.336937</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.364776</v>
+        <v>0.369267</v>
       </c>
       <c r="C62" t="n">
-        <v>0.421768</v>
+        <v>0.390074</v>
       </c>
       <c r="D62" t="n">
-        <v>0.357065</v>
+        <v>0.348185</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.391438</v>
+        <v>0.388897</v>
       </c>
       <c r="C63" t="n">
-        <v>0.427068</v>
+        <v>0.416032</v>
       </c>
       <c r="D63" t="n">
-        <v>0.359191</v>
+        <v>0.37045</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.412375</v>
+        <v>0.413146</v>
       </c>
       <c r="C64" t="n">
-        <v>0.43774</v>
+        <v>0.44056</v>
       </c>
       <c r="D64" t="n">
-        <v>0.379996</v>
+        <v>0.3843</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.448361</v>
+        <v>0.446525</v>
       </c>
       <c r="C65" t="n">
-        <v>0.464892</v>
+        <v>0.47108</v>
       </c>
       <c r="D65" t="n">
-        <v>0.41524</v>
+        <v>0.423018</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.49897</v>
+        <v>0.509601</v>
       </c>
       <c r="C66" t="n">
-        <v>0.530896</v>
+        <v>0.516395</v>
       </c>
       <c r="D66" t="n">
-        <v>0.334851</v>
+        <v>0.320454</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.356309</v>
+        <v>0.351727</v>
       </c>
       <c r="C67" t="n">
-        <v>0.384827</v>
+        <v>0.382873</v>
       </c>
       <c r="D67" t="n">
-        <v>0.33011</v>
+        <v>0.326779</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.376012</v>
+        <v>0.356552</v>
       </c>
       <c r="C68" t="n">
-        <v>0.377071</v>
+        <v>0.379469</v>
       </c>
       <c r="D68" t="n">
-        <v>0.32359</v>
+        <v>0.328916</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.357901</v>
+        <v>0.349129</v>
       </c>
       <c r="C69" t="n">
-        <v>0.376978</v>
+        <v>0.377511</v>
       </c>
       <c r="D69" t="n">
-        <v>0.326249</v>
+        <v>0.32541</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.358669</v>
+        <v>0.360213</v>
       </c>
       <c r="C70" t="n">
-        <v>0.387927</v>
+        <v>0.385222</v>
       </c>
       <c r="D70" t="n">
-        <v>0.330466</v>
+        <v>0.32958</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.368346</v>
+        <v>0.35475</v>
       </c>
       <c r="C71" t="n">
-        <v>0.387718</v>
+        <v>0.376836</v>
       </c>
       <c r="D71" t="n">
-        <v>0.344175</v>
+        <v>0.329819</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.363104</v>
+        <v>0.377385</v>
       </c>
       <c r="C72" t="n">
-        <v>0.389476</v>
+        <v>0.390258</v>
       </c>
       <c r="D72" t="n">
-        <v>0.337148</v>
+        <v>0.338691</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.373742</v>
+        <v>0.362847</v>
       </c>
       <c r="C73" t="n">
-        <v>0.397278</v>
+        <v>0.406636</v>
       </c>
       <c r="D73" t="n">
-        <v>0.335899</v>
+        <v>0.346484</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.371287</v>
+        <v>0.369137</v>
       </c>
       <c r="C74" t="n">
-        <v>0.411114</v>
+        <v>0.402454</v>
       </c>
       <c r="D74" t="n">
-        <v>0.345314</v>
+        <v>0.336857</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.386737</v>
+        <v>0.369695</v>
       </c>
       <c r="C75" t="n">
-        <v>0.409136</v>
+        <v>0.400883</v>
       </c>
       <c r="D75" t="n">
-        <v>0.346631</v>
+        <v>0.353</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.382488</v>
+        <v>0.386635</v>
       </c>
       <c r="C76" t="n">
-        <v>0.413092</v>
+        <v>0.414954</v>
       </c>
       <c r="D76" t="n">
-        <v>0.357789</v>
+        <v>0.357621</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.423859</v>
+        <v>0.41744</v>
       </c>
       <c r="C77" t="n">
-        <v>0.425346</v>
+        <v>0.444225</v>
       </c>
       <c r="D77" t="n">
-        <v>0.3898</v>
+        <v>0.376761</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.443907</v>
+        <v>0.419091</v>
       </c>
       <c r="C78" t="n">
-        <v>0.454278</v>
+        <v>0.456411</v>
       </c>
       <c r="D78" t="n">
-        <v>0.394321</v>
+        <v>0.396749</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.463958</v>
+        <v>0.446295</v>
       </c>
       <c r="C79" t="n">
-        <v>0.501201</v>
+        <v>0.487189</v>
       </c>
       <c r="D79" t="n">
-        <v>0.435783</v>
+        <v>0.433696</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.524125</v>
+        <v>0.505455</v>
       </c>
       <c r="C80" t="n">
-        <v>0.550128</v>
+        <v>0.538866</v>
       </c>
       <c r="D80" t="n">
-        <v>0.325276</v>
+        <v>0.332035</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.371335</v>
+        <v>0.375908</v>
       </c>
       <c r="C81" t="n">
-        <v>0.38767</v>
+        <v>0.388959</v>
       </c>
       <c r="D81" t="n">
-        <v>0.332762</v>
+        <v>0.333389</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.375686</v>
+        <v>0.369779</v>
       </c>
       <c r="C82" t="n">
-        <v>0.401559</v>
+        <v>0.396263</v>
       </c>
       <c r="D82" t="n">
-        <v>0.331178</v>
+        <v>0.330135</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.387193</v>
+        <v>0.367301</v>
       </c>
       <c r="C83" t="n">
-        <v>0.395332</v>
+        <v>0.407213</v>
       </c>
       <c r="D83" t="n">
-        <v>0.327429</v>
+        <v>0.331036</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.382775</v>
+        <v>0.388733</v>
       </c>
       <c r="C84" t="n">
-        <v>0.399676</v>
+        <v>0.398289</v>
       </c>
       <c r="D84" t="n">
-        <v>0.345419</v>
+        <v>0.335376</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.394943</v>
+        <v>0.390974</v>
       </c>
       <c r="C85" t="n">
-        <v>0.407895</v>
+        <v>0.401428</v>
       </c>
       <c r="D85" t="n">
-        <v>0.33467</v>
+        <v>0.334003</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.39001</v>
+        <v>0.382199</v>
       </c>
       <c r="C86" t="n">
-        <v>0.412117</v>
+        <v>0.412632</v>
       </c>
       <c r="D86" t="n">
-        <v>0.340761</v>
+        <v>0.346653</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.409378</v>
+        <v>0.381453</v>
       </c>
       <c r="C87" t="n">
-        <v>0.417199</v>
+        <v>0.419156</v>
       </c>
       <c r="D87" t="n">
-        <v>0.361905</v>
+        <v>0.345496</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.415171</v>
+        <v>0.40128</v>
       </c>
       <c r="C88" t="n">
-        <v>0.425674</v>
+        <v>0.418021</v>
       </c>
       <c r="D88" t="n">
-        <v>0.351377</v>
+        <v>0.355519</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.412028</v>
+        <v>0.405974</v>
       </c>
       <c r="C89" t="n">
-        <v>0.437283</v>
+        <v>0.427767</v>
       </c>
       <c r="D89" t="n">
-        <v>0.365257</v>
+        <v>0.364746</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.43227</v>
+        <v>0.423515</v>
       </c>
       <c r="C90" t="n">
-        <v>0.437727</v>
+        <v>0.443514</v>
       </c>
       <c r="D90" t="n">
-        <v>0.382081</v>
+        <v>0.373946</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.447879</v>
+        <v>0.435288</v>
       </c>
       <c r="C91" t="n">
-        <v>0.47078</v>
+        <v>0.462528</v>
       </c>
       <c r="D91" t="n">
-        <v>0.395761</v>
+        <v>0.389043</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.45914</v>
+        <v>0.460772</v>
       </c>
       <c r="C92" t="n">
-        <v>0.482647</v>
+        <v>0.472218</v>
       </c>
       <c r="D92" t="n">
-        <v>0.420257</v>
+        <v>0.405874</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.491125</v>
+        <v>0.509192</v>
       </c>
       <c r="C93" t="n">
-        <v>0.51479</v>
+        <v>0.505691</v>
       </c>
       <c r="D93" t="n">
-        <v>0.449818</v>
+        <v>0.464485</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.555231</v>
+        <v>0.548909</v>
       </c>
       <c r="C94" t="n">
-        <v>0.594688</v>
+        <v>0.5799</v>
       </c>
       <c r="D94" t="n">
-        <v>0.362125</v>
+        <v>0.359145</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.43097</v>
+        <v>0.412969</v>
       </c>
       <c r="C95" t="n">
-        <v>0.433327</v>
+        <v>0.435692</v>
       </c>
       <c r="D95" t="n">
-        <v>0.371721</v>
+        <v>0.359527</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.434364</v>
+        <v>0.424233</v>
       </c>
       <c r="C96" t="n">
-        <v>0.446229</v>
+        <v>0.422798</v>
       </c>
       <c r="D96" t="n">
-        <v>0.361959</v>
+        <v>0.363016</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.433134</v>
+        <v>0.426233</v>
       </c>
       <c r="C97" t="n">
-        <v>0.445209</v>
+        <v>0.429304</v>
       </c>
       <c r="D97" t="n">
-        <v>0.381522</v>
+        <v>0.361897</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.437143</v>
+        <v>0.424286</v>
       </c>
       <c r="C98" t="n">
-        <v>0.453028</v>
+        <v>0.443222</v>
       </c>
       <c r="D98" t="n">
-        <v>0.392308</v>
+        <v>0.368687</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.449548</v>
+        <v>0.444559</v>
       </c>
       <c r="C99" t="n">
-        <v>0.451393</v>
+        <v>0.446368</v>
       </c>
       <c r="D99" t="n">
-        <v>0.36791</v>
+        <v>0.380142</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.449934</v>
+        <v>0.440696</v>
       </c>
       <c r="C100" t="n">
-        <v>0.461602</v>
+        <v>0.456927</v>
       </c>
       <c r="D100" t="n">
-        <v>0.387793</v>
+        <v>0.378374</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.456654</v>
+        <v>0.443217</v>
       </c>
       <c r="C101" t="n">
-        <v>0.472485</v>
+        <v>0.475396</v>
       </c>
       <c r="D101" t="n">
-        <v>0.38303</v>
+        <v>0.381974</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.459113</v>
+        <v>0.461053</v>
       </c>
       <c r="C102" t="n">
-        <v>0.468029</v>
+        <v>0.454947</v>
       </c>
       <c r="D102" t="n">
-        <v>0.393451</v>
+        <v>0.382953</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.484077</v>
+        <v>0.464878</v>
       </c>
       <c r="C103" t="n">
-        <v>0.476374</v>
+        <v>0.474853</v>
       </c>
       <c r="D103" t="n">
-        <v>0.39679</v>
+        <v>0.383675</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.498668</v>
+        <v>0.472816</v>
       </c>
       <c r="C104" t="n">
-        <v>0.492478</v>
+        <v>0.481771</v>
       </c>
       <c r="D104" t="n">
-        <v>0.428537</v>
+        <v>0.400813</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.503062</v>
+        <v>0.493905</v>
       </c>
       <c r="C105" t="n">
-        <v>0.529111</v>
+        <v>0.505355</v>
       </c>
       <c r="D105" t="n">
-        <v>0.432049</v>
+        <v>0.418415</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.529635</v>
+        <v>0.516082</v>
       </c>
       <c r="C106" t="n">
-        <v>0.539839</v>
+        <v>0.536344</v>
       </c>
       <c r="D106" t="n">
-        <v>0.44009</v>
+        <v>0.439541</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.568371</v>
+        <v>0.561322</v>
       </c>
       <c r="C107" t="n">
-        <v>0.57292</v>
+        <v>0.5689070000000001</v>
       </c>
       <c r="D107" t="n">
-        <v>0.479136</v>
+        <v>0.472766</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.619401</v>
+        <v>0.627668</v>
       </c>
       <c r="C108" t="n">
-        <v>0.661345</v>
+        <v>0.631246</v>
       </c>
       <c r="D108" t="n">
-        <v>0.50818</v>
+        <v>0.488507</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.726735</v>
+        <v>0.71272</v>
       </c>
       <c r="C109" t="n">
-        <v>0.741791</v>
+        <v>0.753023</v>
       </c>
       <c r="D109" t="n">
-        <v>0.467799</v>
+        <v>0.472094</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.561273</v>
+        <v>0.565477</v>
       </c>
       <c r="C110" t="n">
-        <v>0.542987</v>
+        <v>0.554952</v>
       </c>
       <c r="D110" t="n">
-        <v>0.479644</v>
+        <v>0.471862</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.575896</v>
+        <v>0.555283</v>
       </c>
       <c r="C111" t="n">
-        <v>0.546542</v>
+        <v>0.554487</v>
       </c>
       <c r="D111" t="n">
-        <v>0.503296</v>
+        <v>0.483423</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.560274</v>
+        <v>0.576402</v>
       </c>
       <c r="C112" t="n">
-        <v>0.544431</v>
+        <v>0.549326</v>
       </c>
       <c r="D112" t="n">
-        <v>0.486295</v>
+        <v>0.484158</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.572106</v>
+        <v>0.573873</v>
       </c>
       <c r="C113" t="n">
-        <v>0.583106</v>
+        <v>0.559094</v>
       </c>
       <c r="D113" t="n">
-        <v>0.490006</v>
+        <v>0.492395</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.578202</v>
+        <v>0.580199</v>
       </c>
       <c r="C114" t="n">
-        <v>0.5635599999999999</v>
+        <v>0.557788</v>
       </c>
       <c r="D114" t="n">
-        <v>0.497216</v>
+        <v>0.493624</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.582609</v>
+        <v>0.579216</v>
       </c>
       <c r="C115" t="n">
-        <v>0.578365</v>
+        <v>0.576816</v>
       </c>
       <c r="D115" t="n">
-        <v>0.501165</v>
+        <v>0.492893</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.598153</v>
+        <v>0.601465</v>
       </c>
       <c r="C116" t="n">
-        <v>0.596425</v>
+        <v>0.581403</v>
       </c>
       <c r="D116" t="n">
-        <v>0.514567</v>
+        <v>0.511339</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.623274</v>
+        <v>0.592078</v>
       </c>
       <c r="C117" t="n">
-        <v>0.613537</v>
+        <v>0.588244</v>
       </c>
       <c r="D117" t="n">
-        <v>0.537734</v>
+        <v>0.524937</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.628548</v>
+        <v>0.5926090000000001</v>
       </c>
       <c r="C118" t="n">
-        <v>0.614563</v>
+        <v>0.603494</v>
       </c>
       <c r="D118" t="n">
-        <v>0.529047</v>
+        <v>0.525473</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.64281</v>
+        <v>0.630084</v>
       </c>
       <c r="C119" t="n">
-        <v>0.674778</v>
+        <v>0.621551</v>
       </c>
       <c r="D119" t="n">
-        <v>0.565492</v>
+        <v>0.548059</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.676619</v>
+        <v>0.656715</v>
       </c>
       <c r="C120" t="n">
-        <v>0.663016</v>
+        <v>0.648282</v>
       </c>
       <c r="D120" t="n">
-        <v>0.58113</v>
+        <v>0.568737</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.723966</v>
+        <v>0.6921079999999999</v>
       </c>
       <c r="C121" t="n">
-        <v>0.704745</v>
+        <v>0.691429</v>
       </c>
       <c r="D121" t="n">
-        <v>0.606272</v>
+        <v>0.616743</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.779258</v>
+        <v>0.747735</v>
       </c>
       <c r="C122" t="n">
-        <v>0.789605</v>
+        <v>0.781982</v>
       </c>
       <c r="D122" t="n">
-        <v>0.665801</v>
+        <v>0.64317</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.854446</v>
+        <v>0.835554</v>
       </c>
       <c r="C123" t="n">
-        <v>0.897026</v>
+        <v>0.864028</v>
       </c>
       <c r="D123" t="n">
-        <v>0.788731</v>
+        <v>0.759601</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.893583</v>
+        <v>0.877184</v>
       </c>
       <c r="C124" t="n">
-        <v>0.840042</v>
+        <v>0.812851</v>
       </c>
       <c r="D124" t="n">
-        <v>0.765143</v>
+        <v>0.7692639999999999</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.887702</v>
+        <v>0.880431</v>
       </c>
       <c r="C125" t="n">
-        <v>0.824503</v>
+        <v>0.8168570000000001</v>
       </c>
       <c r="D125" t="n">
-        <v>0.774404</v>
+        <v>0.740011</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.911571</v>
+        <v>0.89059</v>
       </c>
       <c r="C126" t="n">
-        <v>0.848559</v>
+        <v>0.836978</v>
       </c>
       <c r="D126" t="n">
-        <v>0.787052</v>
+        <v>0.742124</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.963</v>
+        <v>0.944352</v>
       </c>
       <c r="C127" t="n">
-        <v>0.906491</v>
+        <v>0.875003</v>
       </c>
       <c r="D127" t="n">
-        <v>0.757317</v>
+        <v>0.788198</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.91788</v>
+        <v>0.932931</v>
       </c>
       <c r="C128" t="n">
-        <v>0.875297</v>
+        <v>0.851409</v>
       </c>
       <c r="D128" t="n">
-        <v>0.771788</v>
+        <v>0.788855</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.935555</v>
+        <v>0.925567</v>
       </c>
       <c r="C129" t="n">
-        <v>0.894085</v>
+        <v>0.900062</v>
       </c>
       <c r="D129" t="n">
-        <v>0.792638</v>
+        <v>0.7760550000000001</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.944085</v>
+        <v>0.941307</v>
       </c>
       <c r="C130" t="n">
-        <v>0.888656</v>
+        <v>0.878393</v>
       </c>
       <c r="D130" t="n">
-        <v>0.795868</v>
+        <v>0.807768</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.999535</v>
+        <v>0.982754</v>
       </c>
       <c r="C131" t="n">
-        <v>0.906914</v>
+        <v>0.876015</v>
       </c>
       <c r="D131" t="n">
-        <v>0.789986</v>
+        <v>0.817238</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.991636</v>
+        <v>0.941313</v>
       </c>
       <c r="C132" t="n">
-        <v>0.95459</v>
+        <v>0.90733</v>
       </c>
       <c r="D132" t="n">
-        <v>0.836684</v>
+        <v>0.837901</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.979308</v>
+        <v>0.99253</v>
       </c>
       <c r="C133" t="n">
-        <v>0.964174</v>
+        <v>0.929631</v>
       </c>
       <c r="D133" t="n">
-        <v>0.845516</v>
+        <v>0.818696</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.01962</v>
+        <v>0.9960020000000001</v>
       </c>
       <c r="C134" t="n">
-        <v>1.00109</v>
+        <v>0.975287</v>
       </c>
       <c r="D134" t="n">
-        <v>0.868117</v>
+        <v>0.846074</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.11719</v>
+        <v>1.06476</v>
       </c>
       <c r="C135" t="n">
-        <v>1.04001</v>
+        <v>1.05204</v>
       </c>
       <c r="D135" t="n">
-        <v>0.913403</v>
+        <v>0.884399</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.19326</v>
+        <v>1.1554</v>
       </c>
       <c r="C136" t="n">
-        <v>1.15266</v>
+        <v>1.1279</v>
       </c>
       <c r="D136" t="n">
-        <v>0.9539530000000001</v>
+        <v>0.9691070000000001</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.24248</v>
+        <v>1.24164</v>
       </c>
       <c r="C137" t="n">
-        <v>1.19607</v>
+        <v>1.24038</v>
       </c>
       <c r="D137" t="n">
-        <v>1.00197</v>
+        <v>0.996263</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.22381</v>
+        <v>1.17283</v>
       </c>
       <c r="C138" t="n">
-        <v>1.06166</v>
+        <v>1.04711</v>
       </c>
       <c r="D138" t="n">
-        <v>1.03801</v>
+        <v>1.04271</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.19235</v>
+        <v>1.21838</v>
       </c>
       <c r="C139" t="n">
-        <v>1.05867</v>
+        <v>1.08721</v>
       </c>
       <c r="D139" t="n">
-        <v>1.01013</v>
+        <v>1.03985</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.20228</v>
+        <v>1.19011</v>
       </c>
       <c r="C140" t="n">
-        <v>1.07254</v>
+        <v>1.06881</v>
       </c>
       <c r="D140" t="n">
-        <v>1.04825</v>
+        <v>0.996823</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.20664</v>
+        <v>1.25377</v>
       </c>
       <c r="C141" t="n">
-        <v>1.08158</v>
+        <v>1.10239</v>
       </c>
       <c r="D141" t="n">
-        <v>1.03304</v>
+        <v>1.03887</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.22786</v>
+        <v>1.25155</v>
       </c>
       <c r="C142" t="n">
-        <v>1.08585</v>
+        <v>1.07796</v>
       </c>
       <c r="D142" t="n">
-        <v>1.02142</v>
+        <v>1.06455</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.26795</v>
+        <v>1.24978</v>
       </c>
       <c r="C143" t="n">
-        <v>1.09375</v>
+        <v>1.07359</v>
       </c>
       <c r="D143" t="n">
-        <v>1.027</v>
+        <v>1.00343</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered unsuccessful looukp.xlsx
+++ b/vs-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.337624</v>
+        <v>0.33329</v>
       </c>
       <c r="C2" t="n">
-        <v>0.37082</v>
+        <v>0.391522</v>
       </c>
       <c r="D2" t="n">
-        <v>0.336159</v>
+        <v>0.328686</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.343313</v>
+        <v>0.342704</v>
       </c>
       <c r="C3" t="n">
-        <v>0.377533</v>
+        <v>0.373023</v>
       </c>
       <c r="D3" t="n">
-        <v>0.327671</v>
+        <v>0.337346</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.336772</v>
+        <v>0.344536</v>
       </c>
       <c r="C4" t="n">
-        <v>0.375412</v>
+        <v>0.387481</v>
       </c>
       <c r="D4" t="n">
-        <v>0.335896</v>
+        <v>0.337943</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.348765</v>
+        <v>0.352332</v>
       </c>
       <c r="C5" t="n">
-        <v>0.395405</v>
+        <v>0.391233</v>
       </c>
       <c r="D5" t="n">
-        <v>0.340722</v>
+        <v>0.344648</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.370966</v>
+        <v>0.361966</v>
       </c>
       <c r="C6" t="n">
-        <v>0.401392</v>
+        <v>0.40598</v>
       </c>
       <c r="D6" t="n">
-        <v>0.357154</v>
+        <v>0.370098</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.373621</v>
+        <v>0.376276</v>
       </c>
       <c r="C7" t="n">
-        <v>0.426209</v>
+        <v>0.428615</v>
       </c>
       <c r="D7" t="n">
-        <v>0.37437</v>
+        <v>0.374345</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.393251</v>
+        <v>0.405562</v>
       </c>
       <c r="C8" t="n">
-        <v>0.452671</v>
+        <v>0.45499</v>
       </c>
       <c r="D8" t="n">
-        <v>0.406071</v>
+        <v>0.412774</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.441782</v>
+        <v>0.46239</v>
       </c>
       <c r="C9" t="n">
-        <v>0.517086</v>
+        <v>0.509991</v>
       </c>
       <c r="D9" t="n">
-        <v>0.321484</v>
+        <v>0.316894</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.327514</v>
+        <v>0.330071</v>
       </c>
       <c r="C10" t="n">
-        <v>0.373085</v>
+        <v>0.372195</v>
       </c>
       <c r="D10" t="n">
-        <v>0.316637</v>
+        <v>0.321077</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.326412</v>
+        <v>0.332536</v>
       </c>
       <c r="C11" t="n">
-        <v>0.364194</v>
+        <v>0.381672</v>
       </c>
       <c r="D11" t="n">
-        <v>0.321151</v>
+        <v>0.318661</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.327627</v>
+        <v>0.349804</v>
       </c>
       <c r="C12" t="n">
-        <v>0.361989</v>
+        <v>0.375755</v>
       </c>
       <c r="D12" t="n">
-        <v>0.312092</v>
+        <v>0.318436</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.329619</v>
+        <v>0.335259</v>
       </c>
       <c r="C13" t="n">
-        <v>0.364555</v>
+        <v>0.378017</v>
       </c>
       <c r="D13" t="n">
-        <v>0.318687</v>
+        <v>0.320737</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.328128</v>
+        <v>0.330226</v>
       </c>
       <c r="C14" t="n">
-        <v>0.366323</v>
+        <v>0.366202</v>
       </c>
       <c r="D14" t="n">
-        <v>0.322317</v>
+        <v>0.314808</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.337278</v>
+        <v>0.334206</v>
       </c>
       <c r="C15" t="n">
-        <v>0.385705</v>
+        <v>0.373172</v>
       </c>
       <c r="D15" t="n">
-        <v>0.332906</v>
+        <v>0.322585</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.331826</v>
+        <v>0.336792</v>
       </c>
       <c r="C16" t="n">
-        <v>0.380161</v>
+        <v>0.386041</v>
       </c>
       <c r="D16" t="n">
-        <v>0.322491</v>
+        <v>0.323979</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.338964</v>
+        <v>0.329406</v>
       </c>
       <c r="C17" t="n">
-        <v>0.377692</v>
+        <v>0.385506</v>
       </c>
       <c r="D17" t="n">
-        <v>0.337808</v>
+        <v>0.333281</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.355122</v>
+        <v>0.340914</v>
       </c>
       <c r="C18" t="n">
-        <v>0.375549</v>
+        <v>0.383397</v>
       </c>
       <c r="D18" t="n">
-        <v>0.337031</v>
+        <v>0.33117</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.345126</v>
+        <v>0.358496</v>
       </c>
       <c r="C19" t="n">
-        <v>0.383419</v>
+        <v>0.386738</v>
       </c>
       <c r="D19" t="n">
-        <v>0.34715</v>
+        <v>0.335737</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.355876</v>
+        <v>0.349952</v>
       </c>
       <c r="C20" t="n">
-        <v>0.391558</v>
+        <v>0.38828</v>
       </c>
       <c r="D20" t="n">
-        <v>0.349031</v>
+        <v>0.353947</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.369587</v>
+        <v>0.375288</v>
       </c>
       <c r="C21" t="n">
-        <v>0.415421</v>
+        <v>0.401731</v>
       </c>
       <c r="D21" t="n">
-        <v>0.374616</v>
+        <v>0.369369</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.393872</v>
+        <v>0.407035</v>
       </c>
       <c r="C22" t="n">
-        <v>0.445662</v>
+        <v>0.443292</v>
       </c>
       <c r="D22" t="n">
-        <v>0.408438</v>
+        <v>0.391922</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.459237</v>
+        <v>0.453277</v>
       </c>
       <c r="C23" t="n">
-        <v>0.476926</v>
+        <v>0.486567</v>
       </c>
       <c r="D23" t="n">
-        <v>0.32067</v>
+        <v>0.317092</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.325805</v>
+        <v>0.326955</v>
       </c>
       <c r="C24" t="n">
-        <v>0.366946</v>
+        <v>0.371771</v>
       </c>
       <c r="D24" t="n">
-        <v>0.319973</v>
+        <v>0.318839</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.327683</v>
+        <v>0.334287</v>
       </c>
       <c r="C25" t="n">
-        <v>0.367936</v>
+        <v>0.381314</v>
       </c>
       <c r="D25" t="n">
-        <v>0.312744</v>
+        <v>0.324869</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.33395</v>
+        <v>0.328919</v>
       </c>
       <c r="C26" t="n">
-        <v>0.366832</v>
+        <v>0.369531</v>
       </c>
       <c r="D26" t="n">
-        <v>0.321342</v>
+        <v>0.318648</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.333625</v>
+        <v>0.327034</v>
       </c>
       <c r="C27" t="n">
-        <v>0.371103</v>
+        <v>0.364879</v>
       </c>
       <c r="D27" t="n">
-        <v>0.326845</v>
+        <v>0.322738</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.334838</v>
+        <v>0.328956</v>
       </c>
       <c r="C28" t="n">
-        <v>0.367178</v>
+        <v>0.3602</v>
       </c>
       <c r="D28" t="n">
-        <v>0.316516</v>
+        <v>0.32539</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.330125</v>
+        <v>0.331524</v>
       </c>
       <c r="C29" t="n">
-        <v>0.369059</v>
+        <v>0.371098</v>
       </c>
       <c r="D29" t="n">
-        <v>0.32248</v>
+        <v>0.330332</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.333394</v>
+        <v>0.334367</v>
       </c>
       <c r="C30" t="n">
-        <v>0.378022</v>
+        <v>0.3833</v>
       </c>
       <c r="D30" t="n">
-        <v>0.328915</v>
+        <v>0.320576</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.340658</v>
+        <v>0.335421</v>
       </c>
       <c r="C31" t="n">
-        <v>0.382321</v>
+        <v>0.369976</v>
       </c>
       <c r="D31" t="n">
-        <v>0.327278</v>
+        <v>0.333716</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.345248</v>
+        <v>0.347247</v>
       </c>
       <c r="C32" t="n">
-        <v>0.387405</v>
+        <v>0.382099</v>
       </c>
       <c r="D32" t="n">
-        <v>0.340878</v>
+        <v>0.331086</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.343257</v>
+        <v>0.346445</v>
       </c>
       <c r="C33" t="n">
-        <v>0.385068</v>
+        <v>0.37997</v>
       </c>
       <c r="D33" t="n">
-        <v>0.336971</v>
+        <v>0.344144</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.36266</v>
+        <v>0.362027</v>
       </c>
       <c r="C34" t="n">
-        <v>0.38712</v>
+        <v>0.395103</v>
       </c>
       <c r="D34" t="n">
-        <v>0.347519</v>
+        <v>0.3515</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.366699</v>
+        <v>0.382628</v>
       </c>
       <c r="C35" t="n">
-        <v>0.398794</v>
+        <v>0.410386</v>
       </c>
       <c r="D35" t="n">
-        <v>0.362505</v>
+        <v>0.367677</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.397408</v>
+        <v>0.39871</v>
       </c>
       <c r="C36" t="n">
-        <v>0.423542</v>
+        <v>0.443492</v>
       </c>
       <c r="D36" t="n">
-        <v>0.382443</v>
+        <v>0.381049</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.431495</v>
+        <v>0.432766</v>
       </c>
       <c r="C37" t="n">
-        <v>0.465828</v>
+        <v>0.461291</v>
       </c>
       <c r="D37" t="n">
-        <v>0.322915</v>
+        <v>0.317327</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.327627</v>
+        <v>0.334309</v>
       </c>
       <c r="C38" t="n">
-        <v>0.37791</v>
+        <v>0.372675</v>
       </c>
       <c r="D38" t="n">
-        <v>0.316568</v>
+        <v>0.322995</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.323397</v>
+        <v>0.332046</v>
       </c>
       <c r="C39" t="n">
-        <v>0.365207</v>
+        <v>0.36628</v>
       </c>
       <c r="D39" t="n">
-        <v>0.322449</v>
+        <v>0.319587</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.327258</v>
+        <v>0.330707</v>
       </c>
       <c r="C40" t="n">
-        <v>0.386942</v>
+        <v>0.360783</v>
       </c>
       <c r="D40" t="n">
-        <v>0.322413</v>
+        <v>0.322372</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.3471</v>
+        <v>0.344819</v>
       </c>
       <c r="C41" t="n">
-        <v>0.36973</v>
+        <v>0.364252</v>
       </c>
       <c r="D41" t="n">
-        <v>0.339761</v>
+        <v>0.314503</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.34693</v>
+        <v>0.329081</v>
       </c>
       <c r="C42" t="n">
-        <v>0.368361</v>
+        <v>0.379143</v>
       </c>
       <c r="D42" t="n">
-        <v>0.319803</v>
+        <v>0.324612</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.332682</v>
+        <v>0.338114</v>
       </c>
       <c r="C43" t="n">
-        <v>0.377534</v>
+        <v>0.3728</v>
       </c>
       <c r="D43" t="n">
-        <v>0.317848</v>
+        <v>0.32585</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.333713</v>
+        <v>0.334427</v>
       </c>
       <c r="C44" t="n">
-        <v>0.380184</v>
+        <v>0.396659</v>
       </c>
       <c r="D44" t="n">
-        <v>0.325213</v>
+        <v>0.323951</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.340222</v>
+        <v>0.341772</v>
       </c>
       <c r="C45" t="n">
-        <v>0.383868</v>
+        <v>0.370983</v>
       </c>
       <c r="D45" t="n">
-        <v>0.331748</v>
+        <v>0.325747</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.34668</v>
+        <v>0.340437</v>
       </c>
       <c r="C46" t="n">
-        <v>0.381549</v>
+        <v>0.380349</v>
       </c>
       <c r="D46" t="n">
-        <v>0.3309</v>
+        <v>0.340679</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.346446</v>
+        <v>0.366058</v>
       </c>
       <c r="C47" t="n">
-        <v>0.385444</v>
+        <v>0.37973</v>
       </c>
       <c r="D47" t="n">
-        <v>0.338155</v>
+        <v>0.344033</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.370123</v>
+        <v>0.371303</v>
       </c>
       <c r="C48" t="n">
-        <v>0.396012</v>
+        <v>0.387015</v>
       </c>
       <c r="D48" t="n">
-        <v>0.352941</v>
+        <v>0.353491</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.372691</v>
+        <v>0.376151</v>
       </c>
       <c r="C49" t="n">
-        <v>0.403919</v>
+        <v>0.41391</v>
       </c>
       <c r="D49" t="n">
-        <v>0.361377</v>
+        <v>0.37379</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.407294</v>
+        <v>0.395807</v>
       </c>
       <c r="C50" t="n">
-        <v>0.435826</v>
+        <v>0.437264</v>
       </c>
       <c r="D50" t="n">
-        <v>0.394221</v>
+        <v>0.386094</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.424938</v>
+        <v>0.430265</v>
       </c>
       <c r="C51" t="n">
-        <v>0.457301</v>
+        <v>0.460855</v>
       </c>
       <c r="D51" t="n">
-        <v>0.317554</v>
+        <v>0.322682</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.476726</v>
+        <v>0.480734</v>
       </c>
       <c r="C52" t="n">
-        <v>0.512081</v>
+        <v>0.525161</v>
       </c>
       <c r="D52" t="n">
-        <v>0.325402</v>
+        <v>0.321309</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.343071</v>
+        <v>0.337656</v>
       </c>
       <c r="C53" t="n">
-        <v>0.380383</v>
+        <v>0.38043</v>
       </c>
       <c r="D53" t="n">
-        <v>0.318715</v>
+        <v>0.322544</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.353651</v>
+        <v>0.335197</v>
       </c>
       <c r="C54" t="n">
-        <v>0.376375</v>
+        <v>0.372717</v>
       </c>
       <c r="D54" t="n">
-        <v>0.316271</v>
+        <v>0.322837</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.338613</v>
+        <v>0.341878</v>
       </c>
       <c r="C55" t="n">
-        <v>0.366624</v>
+        <v>0.371745</v>
       </c>
       <c r="D55" t="n">
-        <v>0.325223</v>
+        <v>0.318018</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.341068</v>
+        <v>0.340216</v>
       </c>
       <c r="C56" t="n">
-        <v>0.375967</v>
+        <v>0.376991</v>
       </c>
       <c r="D56" t="n">
-        <v>0.331707</v>
+        <v>0.320124</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.345621</v>
+        <v>0.345615</v>
       </c>
       <c r="C57" t="n">
-        <v>0.378978</v>
+        <v>0.39145</v>
       </c>
       <c r="D57" t="n">
-        <v>0.33441</v>
+        <v>0.32701</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.347037</v>
+        <v>0.348511</v>
       </c>
       <c r="C58" t="n">
-        <v>0.384398</v>
+        <v>0.375775</v>
       </c>
       <c r="D58" t="n">
-        <v>0.32239</v>
+        <v>0.335407</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.346346</v>
+        <v>0.360416</v>
       </c>
       <c r="C59" t="n">
-        <v>0.392428</v>
+        <v>0.372279</v>
       </c>
       <c r="D59" t="n">
-        <v>0.331424</v>
+        <v>0.327893</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.345032</v>
+        <v>0.348493</v>
       </c>
       <c r="C60" t="n">
-        <v>0.388112</v>
+        <v>0.37991</v>
       </c>
       <c r="D60" t="n">
-        <v>0.33252</v>
+        <v>0.332654</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.367012</v>
+        <v>0.358621</v>
       </c>
       <c r="C61" t="n">
-        <v>0.386658</v>
+        <v>0.390389</v>
       </c>
       <c r="D61" t="n">
-        <v>0.336937</v>
+        <v>0.342718</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.369267</v>
+        <v>0.363056</v>
       </c>
       <c r="C62" t="n">
-        <v>0.390074</v>
+        <v>0.395856</v>
       </c>
       <c r="D62" t="n">
-        <v>0.348185</v>
+        <v>0.353239</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.388897</v>
+        <v>0.402866</v>
       </c>
       <c r="C63" t="n">
-        <v>0.416032</v>
+        <v>0.409012</v>
       </c>
       <c r="D63" t="n">
-        <v>0.37045</v>
+        <v>0.359173</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.413146</v>
+        <v>0.410884</v>
       </c>
       <c r="C64" t="n">
-        <v>0.44056</v>
+        <v>0.431121</v>
       </c>
       <c r="D64" t="n">
-        <v>0.3843</v>
+        <v>0.391259</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.446525</v>
+        <v>0.441827</v>
       </c>
       <c r="C65" t="n">
-        <v>0.47108</v>
+        <v>0.454895</v>
       </c>
       <c r="D65" t="n">
-        <v>0.423018</v>
+        <v>0.432416</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.509601</v>
+        <v>0.503505</v>
       </c>
       <c r="C66" t="n">
-        <v>0.516395</v>
+        <v>0.526591</v>
       </c>
       <c r="D66" t="n">
-        <v>0.320454</v>
+        <v>0.332061</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.351727</v>
+        <v>0.353454</v>
       </c>
       <c r="C67" t="n">
-        <v>0.382873</v>
+        <v>0.387473</v>
       </c>
       <c r="D67" t="n">
-        <v>0.326779</v>
+        <v>0.329212</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.356552</v>
+        <v>0.366686</v>
       </c>
       <c r="C68" t="n">
-        <v>0.379469</v>
+        <v>0.389199</v>
       </c>
       <c r="D68" t="n">
-        <v>0.328916</v>
+        <v>0.33012</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.349129</v>
+        <v>0.356078</v>
       </c>
       <c r="C69" t="n">
-        <v>0.377511</v>
+        <v>0.386393</v>
       </c>
       <c r="D69" t="n">
-        <v>0.32541</v>
+        <v>0.325152</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.360213</v>
+        <v>0.355392</v>
       </c>
       <c r="C70" t="n">
-        <v>0.385222</v>
+        <v>0.395255</v>
       </c>
       <c r="D70" t="n">
-        <v>0.32958</v>
+        <v>0.333562</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.35475</v>
+        <v>0.362772</v>
       </c>
       <c r="C71" t="n">
-        <v>0.376836</v>
+        <v>0.397282</v>
       </c>
       <c r="D71" t="n">
-        <v>0.329819</v>
+        <v>0.331081</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.377385</v>
+        <v>0.364782</v>
       </c>
       <c r="C72" t="n">
-        <v>0.390258</v>
+        <v>0.402876</v>
       </c>
       <c r="D72" t="n">
-        <v>0.338691</v>
+        <v>0.329969</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.362847</v>
+        <v>0.379872</v>
       </c>
       <c r="C73" t="n">
-        <v>0.406636</v>
+        <v>0.395221</v>
       </c>
       <c r="D73" t="n">
-        <v>0.346484</v>
+        <v>0.336416</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.369137</v>
+        <v>0.368197</v>
       </c>
       <c r="C74" t="n">
-        <v>0.402454</v>
+        <v>0.401566</v>
       </c>
       <c r="D74" t="n">
-        <v>0.336857</v>
+        <v>0.335537</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.369695</v>
+        <v>0.375701</v>
       </c>
       <c r="C75" t="n">
-        <v>0.400883</v>
+        <v>0.410483</v>
       </c>
       <c r="D75" t="n">
-        <v>0.353</v>
+        <v>0.346772</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.386635</v>
+        <v>0.383477</v>
       </c>
       <c r="C76" t="n">
-        <v>0.414954</v>
+        <v>0.416458</v>
       </c>
       <c r="D76" t="n">
-        <v>0.357621</v>
+        <v>0.36238</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.41744</v>
+        <v>0.407514</v>
       </c>
       <c r="C77" t="n">
-        <v>0.444225</v>
+        <v>0.416074</v>
       </c>
       <c r="D77" t="n">
-        <v>0.376761</v>
+        <v>0.3626</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.419091</v>
+        <v>0.425859</v>
       </c>
       <c r="C78" t="n">
-        <v>0.456411</v>
+        <v>0.445738</v>
       </c>
       <c r="D78" t="n">
-        <v>0.396749</v>
+        <v>0.392866</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.446295</v>
+        <v>0.452664</v>
       </c>
       <c r="C79" t="n">
-        <v>0.487189</v>
+        <v>0.49551</v>
       </c>
       <c r="D79" t="n">
-        <v>0.433696</v>
+        <v>0.431421</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.505455</v>
+        <v>0.494192</v>
       </c>
       <c r="C80" t="n">
-        <v>0.538866</v>
+        <v>0.52241</v>
       </c>
       <c r="D80" t="n">
-        <v>0.332035</v>
+        <v>0.318038</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.375908</v>
+        <v>0.354227</v>
       </c>
       <c r="C81" t="n">
-        <v>0.388959</v>
+        <v>0.373597</v>
       </c>
       <c r="D81" t="n">
-        <v>0.333389</v>
+        <v>0.318886</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.369779</v>
+        <v>0.356393</v>
       </c>
       <c r="C82" t="n">
-        <v>0.396263</v>
+        <v>0.376221</v>
       </c>
       <c r="D82" t="n">
-        <v>0.330135</v>
+        <v>0.319739</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.367301</v>
+        <v>0.396407</v>
       </c>
       <c r="C83" t="n">
-        <v>0.407213</v>
+        <v>0.403198</v>
       </c>
       <c r="D83" t="n">
-        <v>0.331036</v>
+        <v>0.338955</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.388733</v>
+        <v>0.376339</v>
       </c>
       <c r="C84" t="n">
-        <v>0.398289</v>
+        <v>0.403548</v>
       </c>
       <c r="D84" t="n">
-        <v>0.335376</v>
+        <v>0.336202</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.390974</v>
+        <v>0.383512</v>
       </c>
       <c r="C85" t="n">
-        <v>0.401428</v>
+        <v>0.400809</v>
       </c>
       <c r="D85" t="n">
-        <v>0.334003</v>
+        <v>0.333448</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.382199</v>
+        <v>0.385135</v>
       </c>
       <c r="C86" t="n">
-        <v>0.412632</v>
+        <v>0.414346</v>
       </c>
       <c r="D86" t="n">
-        <v>0.346653</v>
+        <v>0.33953</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.381453</v>
+        <v>0.401157</v>
       </c>
       <c r="C87" t="n">
-        <v>0.419156</v>
+        <v>0.420312</v>
       </c>
       <c r="D87" t="n">
-        <v>0.345496</v>
+        <v>0.346082</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.40128</v>
+        <v>0.406318</v>
       </c>
       <c r="C88" t="n">
-        <v>0.418021</v>
+        <v>0.413332</v>
       </c>
       <c r="D88" t="n">
-        <v>0.355519</v>
+        <v>0.356393</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.405974</v>
+        <v>0.40911</v>
       </c>
       <c r="C89" t="n">
-        <v>0.427767</v>
+        <v>0.441335</v>
       </c>
       <c r="D89" t="n">
-        <v>0.364746</v>
+        <v>0.365209</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.423515</v>
+        <v>0.408583</v>
       </c>
       <c r="C90" t="n">
-        <v>0.443514</v>
+        <v>0.447328</v>
       </c>
       <c r="D90" t="n">
-        <v>0.373946</v>
+        <v>0.369278</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.435288</v>
+        <v>0.455973</v>
       </c>
       <c r="C91" t="n">
-        <v>0.462528</v>
+        <v>0.46282</v>
       </c>
       <c r="D91" t="n">
-        <v>0.389043</v>
+        <v>0.391558</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.460772</v>
+        <v>0.473542</v>
       </c>
       <c r="C92" t="n">
-        <v>0.472218</v>
+        <v>0.491624</v>
       </c>
       <c r="D92" t="n">
-        <v>0.405874</v>
+        <v>0.412392</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.509192</v>
+        <v>0.509</v>
       </c>
       <c r="C93" t="n">
-        <v>0.505691</v>
+        <v>0.525215</v>
       </c>
       <c r="D93" t="n">
-        <v>0.464485</v>
+        <v>0.434781</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.548909</v>
+        <v>0.543538</v>
       </c>
       <c r="C94" t="n">
-        <v>0.5799</v>
+        <v>0.5854279999999999</v>
       </c>
       <c r="D94" t="n">
-        <v>0.359145</v>
+        <v>0.34953</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.412969</v>
+        <v>0.422505</v>
       </c>
       <c r="C95" t="n">
-        <v>0.435692</v>
+        <v>0.428031</v>
       </c>
       <c r="D95" t="n">
-        <v>0.359527</v>
+        <v>0.360858</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.424233</v>
+        <v>0.429434</v>
       </c>
       <c r="C96" t="n">
-        <v>0.422798</v>
+        <v>0.429473</v>
       </c>
       <c r="D96" t="n">
-        <v>0.363016</v>
+        <v>0.356205</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.426233</v>
+        <v>0.425485</v>
       </c>
       <c r="C97" t="n">
-        <v>0.429304</v>
+        <v>0.437165</v>
       </c>
       <c r="D97" t="n">
-        <v>0.361897</v>
+        <v>0.362595</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.424286</v>
+        <v>0.445165</v>
       </c>
       <c r="C98" t="n">
-        <v>0.443222</v>
+        <v>0.444959</v>
       </c>
       <c r="D98" t="n">
-        <v>0.368687</v>
+        <v>0.371309</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.444559</v>
+        <v>0.438225</v>
       </c>
       <c r="C99" t="n">
-        <v>0.446368</v>
+        <v>0.439275</v>
       </c>
       <c r="D99" t="n">
-        <v>0.380142</v>
+        <v>0.369829</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.440696</v>
+        <v>0.446099</v>
       </c>
       <c r="C100" t="n">
-        <v>0.456927</v>
+        <v>0.453619</v>
       </c>
       <c r="D100" t="n">
-        <v>0.378374</v>
+        <v>0.370282</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.443217</v>
+        <v>0.440245</v>
       </c>
       <c r="C101" t="n">
-        <v>0.475396</v>
+        <v>0.469406</v>
       </c>
       <c r="D101" t="n">
-        <v>0.381974</v>
+        <v>0.394073</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.461053</v>
+        <v>0.447631</v>
       </c>
       <c r="C102" t="n">
-        <v>0.454947</v>
+        <v>0.476965</v>
       </c>
       <c r="D102" t="n">
-        <v>0.382953</v>
+        <v>0.385499</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.464878</v>
+        <v>0.465442</v>
       </c>
       <c r="C103" t="n">
-        <v>0.474853</v>
+        <v>0.485283</v>
       </c>
       <c r="D103" t="n">
-        <v>0.383675</v>
+        <v>0.397336</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.472816</v>
+        <v>0.472503</v>
       </c>
       <c r="C104" t="n">
-        <v>0.481771</v>
+        <v>0.485896</v>
       </c>
       <c r="D104" t="n">
-        <v>0.400813</v>
+        <v>0.41509</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.493905</v>
+        <v>0.488322</v>
       </c>
       <c r="C105" t="n">
-        <v>0.505355</v>
+        <v>0.517495</v>
       </c>
       <c r="D105" t="n">
-        <v>0.418415</v>
+        <v>0.420766</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.516082</v>
+        <v>0.527628</v>
       </c>
       <c r="C106" t="n">
-        <v>0.536344</v>
+        <v>0.530244</v>
       </c>
       <c r="D106" t="n">
-        <v>0.439541</v>
+        <v>0.452885</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.561322</v>
+        <v>0.57241</v>
       </c>
       <c r="C107" t="n">
-        <v>0.5689070000000001</v>
+        <v>0.566941</v>
       </c>
       <c r="D107" t="n">
-        <v>0.472766</v>
+        <v>0.488065</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.627668</v>
+        <v>0.605861</v>
       </c>
       <c r="C108" t="n">
-        <v>0.631246</v>
+        <v>0.633868</v>
       </c>
       <c r="D108" t="n">
-        <v>0.488507</v>
+        <v>0.48877</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.71272</v>
+        <v>0.722649</v>
       </c>
       <c r="C109" t="n">
-        <v>0.753023</v>
+        <v>0.756528</v>
       </c>
       <c r="D109" t="n">
-        <v>0.472094</v>
+        <v>0.484164</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.565477</v>
+        <v>0.5572</v>
       </c>
       <c r="C110" t="n">
-        <v>0.554952</v>
+        <v>0.546042</v>
       </c>
       <c r="D110" t="n">
-        <v>0.471862</v>
+        <v>0.478068</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.555283</v>
+        <v>0.570719</v>
       </c>
       <c r="C111" t="n">
-        <v>0.554487</v>
+        <v>0.5602</v>
       </c>
       <c r="D111" t="n">
-        <v>0.483423</v>
+        <v>0.488735</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.576402</v>
+        <v>0.569074</v>
       </c>
       <c r="C112" t="n">
-        <v>0.549326</v>
+        <v>0.546122</v>
       </c>
       <c r="D112" t="n">
-        <v>0.484158</v>
+        <v>0.504224</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.573873</v>
+        <v>0.568085</v>
       </c>
       <c r="C113" t="n">
-        <v>0.559094</v>
+        <v>0.5551779999999999</v>
       </c>
       <c r="D113" t="n">
-        <v>0.492395</v>
+        <v>0.486387</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.580199</v>
+        <v>0.580889</v>
       </c>
       <c r="C114" t="n">
-        <v>0.557788</v>
+        <v>0.569087</v>
       </c>
       <c r="D114" t="n">
-        <v>0.493624</v>
+        <v>0.50375</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.579216</v>
+        <v>0.580936</v>
       </c>
       <c r="C115" t="n">
-        <v>0.576816</v>
+        <v>0.569963</v>
       </c>
       <c r="D115" t="n">
-        <v>0.492893</v>
+        <v>0.5052450000000001</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.601465</v>
+        <v>0.601137</v>
       </c>
       <c r="C116" t="n">
-        <v>0.581403</v>
+        <v>0.597425</v>
       </c>
       <c r="D116" t="n">
-        <v>0.511339</v>
+        <v>0.522746</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.592078</v>
+        <v>0.6056049999999999</v>
       </c>
       <c r="C117" t="n">
-        <v>0.588244</v>
+        <v>0.598729</v>
       </c>
       <c r="D117" t="n">
-        <v>0.524937</v>
+        <v>0.516247</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.5926090000000001</v>
+        <v>0.63273</v>
       </c>
       <c r="C118" t="n">
-        <v>0.603494</v>
+        <v>0.612798</v>
       </c>
       <c r="D118" t="n">
-        <v>0.525473</v>
+        <v>0.539852</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.630084</v>
+        <v>0.63507</v>
       </c>
       <c r="C119" t="n">
-        <v>0.621551</v>
+        <v>0.62055</v>
       </c>
       <c r="D119" t="n">
-        <v>0.548059</v>
+        <v>0.5411589999999999</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.656715</v>
+        <v>0.657735</v>
       </c>
       <c r="C120" t="n">
-        <v>0.648282</v>
+        <v>0.705885</v>
       </c>
       <c r="D120" t="n">
-        <v>0.568737</v>
+        <v>0.576925</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.6921079999999999</v>
+        <v>0.702728</v>
       </c>
       <c r="C121" t="n">
-        <v>0.691429</v>
+        <v>0.71246</v>
       </c>
       <c r="D121" t="n">
-        <v>0.616743</v>
+        <v>0.628926</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.747735</v>
+        <v>0.759745</v>
       </c>
       <c r="C122" t="n">
-        <v>0.781982</v>
+        <v>0.780455</v>
       </c>
       <c r="D122" t="n">
-        <v>0.64317</v>
+        <v>0.671466</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.835554</v>
+        <v>0.8517670000000001</v>
       </c>
       <c r="C123" t="n">
-        <v>0.864028</v>
+        <v>0.87195</v>
       </c>
       <c r="D123" t="n">
-        <v>0.759601</v>
+        <v>0.750712</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.877184</v>
+        <v>0.904691</v>
       </c>
       <c r="C124" t="n">
-        <v>0.812851</v>
+        <v>0.792492</v>
       </c>
       <c r="D124" t="n">
-        <v>0.7692639999999999</v>
+        <v>0.774223</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.880431</v>
+        <v>0.945349</v>
       </c>
       <c r="C125" t="n">
-        <v>0.8168570000000001</v>
+        <v>0.801747</v>
       </c>
       <c r="D125" t="n">
-        <v>0.740011</v>
+        <v>0.740883</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.89059</v>
+        <v>0.891783</v>
       </c>
       <c r="C126" t="n">
-        <v>0.836978</v>
+        <v>0.822376</v>
       </c>
       <c r="D126" t="n">
-        <v>0.742124</v>
+        <v>0.751638</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.944352</v>
+        <v>0.895618</v>
       </c>
       <c r="C127" t="n">
-        <v>0.875003</v>
+        <v>0.843942</v>
       </c>
       <c r="D127" t="n">
-        <v>0.788198</v>
+        <v>0.759198</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.932931</v>
+        <v>0.916404</v>
       </c>
       <c r="C128" t="n">
-        <v>0.851409</v>
+        <v>0.854463</v>
       </c>
       <c r="D128" t="n">
-        <v>0.788855</v>
+        <v>0.78043</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.925567</v>
+        <v>0.913459</v>
       </c>
       <c r="C129" t="n">
-        <v>0.900062</v>
+        <v>0.850913</v>
       </c>
       <c r="D129" t="n">
-        <v>0.7760550000000001</v>
+        <v>0.778145</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.941307</v>
+        <v>0.949684</v>
       </c>
       <c r="C130" t="n">
-        <v>0.878393</v>
+        <v>0.8695040000000001</v>
       </c>
       <c r="D130" t="n">
-        <v>0.807768</v>
+        <v>0.7905799999999999</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.982754</v>
+        <v>0.9538219999999999</v>
       </c>
       <c r="C131" t="n">
-        <v>0.876015</v>
+        <v>0.888659</v>
       </c>
       <c r="D131" t="n">
-        <v>0.817238</v>
+        <v>0.834944</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.941313</v>
+        <v>0.974243</v>
       </c>
       <c r="C132" t="n">
-        <v>0.90733</v>
+        <v>0.910874</v>
       </c>
       <c r="D132" t="n">
-        <v>0.837901</v>
+        <v>0.853723</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.99253</v>
+        <v>1.0264</v>
       </c>
       <c r="C133" t="n">
-        <v>0.929631</v>
+        <v>0.948766</v>
       </c>
       <c r="D133" t="n">
-        <v>0.818696</v>
+        <v>0.859936</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.9960020000000001</v>
+        <v>1.01977</v>
       </c>
       <c r="C134" t="n">
-        <v>0.975287</v>
+        <v>0.97273</v>
       </c>
       <c r="D134" t="n">
-        <v>0.846074</v>
+        <v>0.861494</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.06476</v>
+        <v>1.11439</v>
       </c>
       <c r="C135" t="n">
-        <v>1.05204</v>
+        <v>1.03934</v>
       </c>
       <c r="D135" t="n">
-        <v>0.884399</v>
+        <v>0.878842</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.1554</v>
+        <v>1.13694</v>
       </c>
       <c r="C136" t="n">
-        <v>1.1279</v>
+        <v>1.10953</v>
       </c>
       <c r="D136" t="n">
-        <v>0.9691070000000001</v>
+        <v>0.955141</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.24164</v>
+        <v>1.19633</v>
       </c>
       <c r="C137" t="n">
-        <v>1.24038</v>
+        <v>1.20625</v>
       </c>
       <c r="D137" t="n">
-        <v>0.996263</v>
+        <v>0.99285</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.17283</v>
+        <v>1.23116</v>
       </c>
       <c r="C138" t="n">
-        <v>1.04711</v>
+        <v>1.0935</v>
       </c>
       <c r="D138" t="n">
-        <v>1.04271</v>
+        <v>0.997705</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.21838</v>
+        <v>1.24331</v>
       </c>
       <c r="C139" t="n">
-        <v>1.08721</v>
+        <v>1.06777</v>
       </c>
       <c r="D139" t="n">
-        <v>1.03985</v>
+        <v>1.0453</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.19011</v>
+        <v>1.18889</v>
       </c>
       <c r="C140" t="n">
-        <v>1.06881</v>
+        <v>1.06199</v>
       </c>
       <c r="D140" t="n">
-        <v>0.996823</v>
+        <v>1.04583</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.25377</v>
+        <v>1.20846</v>
       </c>
       <c r="C141" t="n">
-        <v>1.10239</v>
+        <v>1.06463</v>
       </c>
       <c r="D141" t="n">
-        <v>1.03887</v>
+        <v>0.998927</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.25155</v>
+        <v>1.25471</v>
       </c>
       <c r="C142" t="n">
-        <v>1.07796</v>
+        <v>1.11131</v>
       </c>
       <c r="D142" t="n">
-        <v>1.06455</v>
+        <v>1.021</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.24978</v>
+        <v>1.2465</v>
       </c>
       <c r="C143" t="n">
-        <v>1.07359</v>
+        <v>1.15173</v>
       </c>
       <c r="D143" t="n">
-        <v>1.00343</v>
+        <v>1.02344</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered unsuccessful looukp.xlsx
+++ b/vs-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.33329</v>
+        <v>0.335974</v>
       </c>
       <c r="C2" t="n">
-        <v>0.391522</v>
+        <v>0.382864</v>
       </c>
       <c r="D2" t="n">
-        <v>0.328686</v>
+        <v>0.329342</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.342704</v>
+        <v>0.343299</v>
       </c>
       <c r="C3" t="n">
-        <v>0.373023</v>
+        <v>0.386009</v>
       </c>
       <c r="D3" t="n">
-        <v>0.337346</v>
+        <v>0.334994</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.344536</v>
+        <v>0.347375</v>
       </c>
       <c r="C4" t="n">
-        <v>0.387481</v>
+        <v>0.379817</v>
       </c>
       <c r="D4" t="n">
-        <v>0.337943</v>
+        <v>0.345096</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.352332</v>
+        <v>0.35164</v>
       </c>
       <c r="C5" t="n">
-        <v>0.391233</v>
+        <v>0.393178</v>
       </c>
       <c r="D5" t="n">
-        <v>0.344648</v>
+        <v>0.346361</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.361966</v>
+        <v>0.362479</v>
       </c>
       <c r="C6" t="n">
-        <v>0.40598</v>
+        <v>0.419247</v>
       </c>
       <c r="D6" t="n">
-        <v>0.370098</v>
+        <v>0.358359</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.376276</v>
+        <v>0.378581</v>
       </c>
       <c r="C7" t="n">
-        <v>0.428615</v>
+        <v>0.460101</v>
       </c>
       <c r="D7" t="n">
-        <v>0.374345</v>
+        <v>0.380973</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.405562</v>
+        <v>0.406043</v>
       </c>
       <c r="C8" t="n">
-        <v>0.45499</v>
+        <v>0.467627</v>
       </c>
       <c r="D8" t="n">
-        <v>0.412774</v>
+        <v>0.405579</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.46239</v>
+        <v>0.455185</v>
       </c>
       <c r="C9" t="n">
-        <v>0.509991</v>
+        <v>0.504585</v>
       </c>
       <c r="D9" t="n">
-        <v>0.316894</v>
+        <v>0.320783</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.330071</v>
+        <v>0.319154</v>
       </c>
       <c r="C10" t="n">
-        <v>0.372195</v>
+        <v>0.369939</v>
       </c>
       <c r="D10" t="n">
-        <v>0.321077</v>
+        <v>0.333018</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.332536</v>
+        <v>0.340334</v>
       </c>
       <c r="C11" t="n">
-        <v>0.381672</v>
+        <v>0.382381</v>
       </c>
       <c r="D11" t="n">
-        <v>0.318661</v>
+        <v>0.318601</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.349804</v>
+        <v>0.328821</v>
       </c>
       <c r="C12" t="n">
-        <v>0.375755</v>
+        <v>0.375037</v>
       </c>
       <c r="D12" t="n">
-        <v>0.318436</v>
+        <v>0.31732</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.335259</v>
+        <v>0.326865</v>
       </c>
       <c r="C13" t="n">
-        <v>0.378017</v>
+        <v>0.370697</v>
       </c>
       <c r="D13" t="n">
-        <v>0.320737</v>
+        <v>0.320823</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.330226</v>
+        <v>0.332708</v>
       </c>
       <c r="C14" t="n">
-        <v>0.366202</v>
+        <v>0.369661</v>
       </c>
       <c r="D14" t="n">
-        <v>0.314808</v>
+        <v>0.325633</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.334206</v>
+        <v>0.327031</v>
       </c>
       <c r="C15" t="n">
-        <v>0.373172</v>
+        <v>0.369442</v>
       </c>
       <c r="D15" t="n">
-        <v>0.322585</v>
+        <v>0.329314</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.336792</v>
+        <v>0.343828</v>
       </c>
       <c r="C16" t="n">
-        <v>0.386041</v>
+        <v>0.379758</v>
       </c>
       <c r="D16" t="n">
-        <v>0.323979</v>
+        <v>0.325064</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.329406</v>
+        <v>0.336831</v>
       </c>
       <c r="C17" t="n">
-        <v>0.385506</v>
+        <v>0.378174</v>
       </c>
       <c r="D17" t="n">
-        <v>0.333281</v>
+        <v>0.332763</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.340914</v>
+        <v>0.340301</v>
       </c>
       <c r="C18" t="n">
-        <v>0.383397</v>
+        <v>0.391576</v>
       </c>
       <c r="D18" t="n">
-        <v>0.33117</v>
+        <v>0.334014</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.358496</v>
+        <v>0.345168</v>
       </c>
       <c r="C19" t="n">
-        <v>0.386738</v>
+        <v>0.38825</v>
       </c>
       <c r="D19" t="n">
-        <v>0.335737</v>
+        <v>0.346102</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.349952</v>
+        <v>0.364869</v>
       </c>
       <c r="C20" t="n">
-        <v>0.38828</v>
+        <v>0.398356</v>
       </c>
       <c r="D20" t="n">
-        <v>0.353947</v>
+        <v>0.354151</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.375288</v>
+        <v>0.378545</v>
       </c>
       <c r="C21" t="n">
-        <v>0.401731</v>
+        <v>0.429991</v>
       </c>
       <c r="D21" t="n">
-        <v>0.369369</v>
+        <v>0.372441</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.407035</v>
+        <v>0.39504</v>
       </c>
       <c r="C22" t="n">
-        <v>0.443292</v>
+        <v>0.442969</v>
       </c>
       <c r="D22" t="n">
-        <v>0.391922</v>
+        <v>0.397478</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.453277</v>
+        <v>0.450079</v>
       </c>
       <c r="C23" t="n">
-        <v>0.486567</v>
+        <v>0.473688</v>
       </c>
       <c r="D23" t="n">
-        <v>0.317092</v>
+        <v>0.312938</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.326955</v>
+        <v>0.333314</v>
       </c>
       <c r="C24" t="n">
-        <v>0.371771</v>
+        <v>0.363908</v>
       </c>
       <c r="D24" t="n">
-        <v>0.318839</v>
+        <v>0.314649</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.334287</v>
+        <v>0.332514</v>
       </c>
       <c r="C25" t="n">
-        <v>0.381314</v>
+        <v>0.369286</v>
       </c>
       <c r="D25" t="n">
-        <v>0.324869</v>
+        <v>0.323716</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.328919</v>
+        <v>0.327428</v>
       </c>
       <c r="C26" t="n">
-        <v>0.369531</v>
+        <v>0.362516</v>
       </c>
       <c r="D26" t="n">
-        <v>0.318648</v>
+        <v>0.316149</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.327034</v>
+        <v>0.341239</v>
       </c>
       <c r="C27" t="n">
-        <v>0.364879</v>
+        <v>0.367726</v>
       </c>
       <c r="D27" t="n">
-        <v>0.322738</v>
+        <v>0.33127</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.328956</v>
+        <v>0.335347</v>
       </c>
       <c r="C28" t="n">
-        <v>0.3602</v>
+        <v>0.364256</v>
       </c>
       <c r="D28" t="n">
-        <v>0.32539</v>
+        <v>0.336591</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.331524</v>
+        <v>0.331503</v>
       </c>
       <c r="C29" t="n">
-        <v>0.371098</v>
+        <v>0.371073</v>
       </c>
       <c r="D29" t="n">
-        <v>0.330332</v>
+        <v>0.317372</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.334367</v>
+        <v>0.325375</v>
       </c>
       <c r="C30" t="n">
-        <v>0.3833</v>
+        <v>0.374372</v>
       </c>
       <c r="D30" t="n">
-        <v>0.320576</v>
+        <v>0.326964</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.335421</v>
+        <v>0.333497</v>
       </c>
       <c r="C31" t="n">
-        <v>0.369976</v>
+        <v>0.370755</v>
       </c>
       <c r="D31" t="n">
-        <v>0.333716</v>
+        <v>0.328989</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.347247</v>
+        <v>0.349192</v>
       </c>
       <c r="C32" t="n">
-        <v>0.382099</v>
+        <v>0.374781</v>
       </c>
       <c r="D32" t="n">
-        <v>0.331086</v>
+        <v>0.343435</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.346445</v>
+        <v>0.340885</v>
       </c>
       <c r="C33" t="n">
-        <v>0.37997</v>
+        <v>0.388626</v>
       </c>
       <c r="D33" t="n">
-        <v>0.344144</v>
+        <v>0.340869</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.362027</v>
+        <v>0.356564</v>
       </c>
       <c r="C34" t="n">
-        <v>0.395103</v>
+        <v>0.400811</v>
       </c>
       <c r="D34" t="n">
-        <v>0.3515</v>
+        <v>0.361038</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.382628</v>
+        <v>0.378198</v>
       </c>
       <c r="C35" t="n">
-        <v>0.410386</v>
+        <v>0.416667</v>
       </c>
       <c r="D35" t="n">
-        <v>0.367677</v>
+        <v>0.365598</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.39871</v>
+        <v>0.407422</v>
       </c>
       <c r="C36" t="n">
-        <v>0.443492</v>
+        <v>0.433309</v>
       </c>
       <c r="D36" t="n">
-        <v>0.381049</v>
+        <v>0.382669</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.432766</v>
+        <v>0.438241</v>
       </c>
       <c r="C37" t="n">
-        <v>0.461291</v>
+        <v>0.460089</v>
       </c>
       <c r="D37" t="n">
-        <v>0.317327</v>
+        <v>0.314762</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.334309</v>
+        <v>0.323923</v>
       </c>
       <c r="C38" t="n">
-        <v>0.372675</v>
+        <v>0.365892</v>
       </c>
       <c r="D38" t="n">
-        <v>0.322995</v>
+        <v>0.326513</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.332046</v>
+        <v>0.336299</v>
       </c>
       <c r="C39" t="n">
-        <v>0.36628</v>
+        <v>0.359524</v>
       </c>
       <c r="D39" t="n">
-        <v>0.319587</v>
+        <v>0.327044</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.330707</v>
+        <v>0.353408</v>
       </c>
       <c r="C40" t="n">
-        <v>0.360783</v>
+        <v>0.36597</v>
       </c>
       <c r="D40" t="n">
-        <v>0.322372</v>
+        <v>0.318749</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.344819</v>
+        <v>0.332133</v>
       </c>
       <c r="C41" t="n">
-        <v>0.364252</v>
+        <v>0.372027</v>
       </c>
       <c r="D41" t="n">
-        <v>0.314503</v>
+        <v>0.321525</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.329081</v>
+        <v>0.327203</v>
       </c>
       <c r="C42" t="n">
-        <v>0.379143</v>
+        <v>0.36452</v>
       </c>
       <c r="D42" t="n">
-        <v>0.324612</v>
+        <v>0.323049</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.338114</v>
+        <v>0.342566</v>
       </c>
       <c r="C43" t="n">
-        <v>0.3728</v>
+        <v>0.371204</v>
       </c>
       <c r="D43" t="n">
-        <v>0.32585</v>
+        <v>0.332256</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.334427</v>
+        <v>0.335364</v>
       </c>
       <c r="C44" t="n">
-        <v>0.396659</v>
+        <v>0.376809</v>
       </c>
       <c r="D44" t="n">
-        <v>0.323951</v>
+        <v>0.328031</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.341772</v>
+        <v>0.342863</v>
       </c>
       <c r="C45" t="n">
-        <v>0.370983</v>
+        <v>0.393814</v>
       </c>
       <c r="D45" t="n">
-        <v>0.325747</v>
+        <v>0.347997</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.340437</v>
+        <v>0.348208</v>
       </c>
       <c r="C46" t="n">
-        <v>0.380349</v>
+        <v>0.379132</v>
       </c>
       <c r="D46" t="n">
-        <v>0.340679</v>
+        <v>0.330912</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.366058</v>
+        <v>0.35181</v>
       </c>
       <c r="C47" t="n">
-        <v>0.37973</v>
+        <v>0.381113</v>
       </c>
       <c r="D47" t="n">
-        <v>0.344033</v>
+        <v>0.336436</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.371303</v>
+        <v>0.361128</v>
       </c>
       <c r="C48" t="n">
-        <v>0.387015</v>
+        <v>0.399002</v>
       </c>
       <c r="D48" t="n">
-        <v>0.353491</v>
+        <v>0.348453</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.376151</v>
+        <v>0.392251</v>
       </c>
       <c r="C49" t="n">
-        <v>0.41391</v>
+        <v>0.417421</v>
       </c>
       <c r="D49" t="n">
-        <v>0.37379</v>
+        <v>0.355389</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.395807</v>
+        <v>0.399728</v>
       </c>
       <c r="C50" t="n">
-        <v>0.437264</v>
+        <v>0.433436</v>
       </c>
       <c r="D50" t="n">
-        <v>0.386094</v>
+        <v>0.392945</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.430265</v>
+        <v>0.431237</v>
       </c>
       <c r="C51" t="n">
-        <v>0.460855</v>
+        <v>0.456293</v>
       </c>
       <c r="D51" t="n">
-        <v>0.322682</v>
+        <v>0.325715</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.480734</v>
+        <v>0.479927</v>
       </c>
       <c r="C52" t="n">
-        <v>0.525161</v>
+        <v>0.524638</v>
       </c>
       <c r="D52" t="n">
-        <v>0.321309</v>
+        <v>0.316014</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.337656</v>
+        <v>0.348105</v>
       </c>
       <c r="C53" t="n">
-        <v>0.38043</v>
+        <v>0.368831</v>
       </c>
       <c r="D53" t="n">
-        <v>0.322544</v>
+        <v>0.323036</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.335197</v>
+        <v>0.339802</v>
       </c>
       <c r="C54" t="n">
-        <v>0.372717</v>
+        <v>0.37885</v>
       </c>
       <c r="D54" t="n">
-        <v>0.322837</v>
+        <v>0.324514</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.341878</v>
+        <v>0.338674</v>
       </c>
       <c r="C55" t="n">
-        <v>0.371745</v>
+        <v>0.388343</v>
       </c>
       <c r="D55" t="n">
-        <v>0.318018</v>
+        <v>0.327018</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.340216</v>
+        <v>0.338229</v>
       </c>
       <c r="C56" t="n">
-        <v>0.376991</v>
+        <v>0.374745</v>
       </c>
       <c r="D56" t="n">
-        <v>0.320124</v>
+        <v>0.326991</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.345615</v>
+        <v>0.3421</v>
       </c>
       <c r="C57" t="n">
-        <v>0.39145</v>
+        <v>0.375691</v>
       </c>
       <c r="D57" t="n">
-        <v>0.32701</v>
+        <v>0.324228</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.348511</v>
+        <v>0.347641</v>
       </c>
       <c r="C58" t="n">
-        <v>0.375775</v>
+        <v>0.382564</v>
       </c>
       <c r="D58" t="n">
-        <v>0.335407</v>
+        <v>0.331519</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.360416</v>
+        <v>0.35269</v>
       </c>
       <c r="C59" t="n">
-        <v>0.372279</v>
+        <v>0.383567</v>
       </c>
       <c r="D59" t="n">
-        <v>0.327893</v>
+        <v>0.333075</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.348493</v>
+        <v>0.349363</v>
       </c>
       <c r="C60" t="n">
-        <v>0.37991</v>
+        <v>0.383375</v>
       </c>
       <c r="D60" t="n">
-        <v>0.332654</v>
+        <v>0.340486</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.358621</v>
+        <v>0.367582</v>
       </c>
       <c r="C61" t="n">
-        <v>0.390389</v>
+        <v>0.38671</v>
       </c>
       <c r="D61" t="n">
-        <v>0.342718</v>
+        <v>0.3467</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.363056</v>
+        <v>0.369052</v>
       </c>
       <c r="C62" t="n">
-        <v>0.395856</v>
+        <v>0.411763</v>
       </c>
       <c r="D62" t="n">
-        <v>0.353239</v>
+        <v>0.355901</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.402866</v>
+        <v>0.376137</v>
       </c>
       <c r="C63" t="n">
-        <v>0.409012</v>
+        <v>0.416607</v>
       </c>
       <c r="D63" t="n">
-        <v>0.359173</v>
+        <v>0.36561</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.410884</v>
+        <v>0.408101</v>
       </c>
       <c r="C64" t="n">
-        <v>0.431121</v>
+        <v>0.440571</v>
       </c>
       <c r="D64" t="n">
-        <v>0.391259</v>
+        <v>0.3866</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.441827</v>
+        <v>0.441669</v>
       </c>
       <c r="C65" t="n">
-        <v>0.454895</v>
+        <v>0.460063</v>
       </c>
       <c r="D65" t="n">
-        <v>0.432416</v>
+        <v>0.442653</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.503505</v>
+        <v>0.495271</v>
       </c>
       <c r="C66" t="n">
-        <v>0.526591</v>
+        <v>0.528959</v>
       </c>
       <c r="D66" t="n">
-        <v>0.332061</v>
+        <v>0.323454</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.353454</v>
+        <v>0.346863</v>
       </c>
       <c r="C67" t="n">
-        <v>0.387473</v>
+        <v>0.38044</v>
       </c>
       <c r="D67" t="n">
-        <v>0.329212</v>
+        <v>0.337042</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.366686</v>
+        <v>0.354759</v>
       </c>
       <c r="C68" t="n">
-        <v>0.389199</v>
+        <v>0.392796</v>
       </c>
       <c r="D68" t="n">
-        <v>0.33012</v>
+        <v>0.333767</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.356078</v>
+        <v>0.3724</v>
       </c>
       <c r="C69" t="n">
-        <v>0.386393</v>
+        <v>0.389668</v>
       </c>
       <c r="D69" t="n">
-        <v>0.325152</v>
+        <v>0.327516</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.355392</v>
+        <v>0.363892</v>
       </c>
       <c r="C70" t="n">
-        <v>0.395255</v>
+        <v>0.393018</v>
       </c>
       <c r="D70" t="n">
-        <v>0.333562</v>
+        <v>0.327001</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.362772</v>
+        <v>0.360823</v>
       </c>
       <c r="C71" t="n">
-        <v>0.397282</v>
+        <v>0.386065</v>
       </c>
       <c r="D71" t="n">
-        <v>0.331081</v>
+        <v>0.330084</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.364782</v>
+        <v>0.363301</v>
       </c>
       <c r="C72" t="n">
-        <v>0.402876</v>
+        <v>0.385769</v>
       </c>
       <c r="D72" t="n">
-        <v>0.329969</v>
+        <v>0.341371</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.379872</v>
+        <v>0.376418</v>
       </c>
       <c r="C73" t="n">
-        <v>0.395221</v>
+        <v>0.392766</v>
       </c>
       <c r="D73" t="n">
-        <v>0.336416</v>
+        <v>0.345734</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.368197</v>
+        <v>0.386151</v>
       </c>
       <c r="C74" t="n">
-        <v>0.401566</v>
+        <v>0.399797</v>
       </c>
       <c r="D74" t="n">
-        <v>0.335537</v>
+        <v>0.338746</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.375701</v>
+        <v>0.381214</v>
       </c>
       <c r="C75" t="n">
-        <v>0.410483</v>
+        <v>0.412351</v>
       </c>
       <c r="D75" t="n">
-        <v>0.346772</v>
+        <v>0.351181</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.383477</v>
+        <v>0.387857</v>
       </c>
       <c r="C76" t="n">
-        <v>0.416458</v>
+        <v>0.41337</v>
       </c>
       <c r="D76" t="n">
-        <v>0.36238</v>
+        <v>0.362349</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.407514</v>
+        <v>0.400407</v>
       </c>
       <c r="C77" t="n">
-        <v>0.416074</v>
+        <v>0.432277</v>
       </c>
       <c r="D77" t="n">
-        <v>0.3626</v>
+        <v>0.369424</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.425859</v>
+        <v>0.425886</v>
       </c>
       <c r="C78" t="n">
-        <v>0.445738</v>
+        <v>0.458583</v>
       </c>
       <c r="D78" t="n">
-        <v>0.392866</v>
+        <v>0.404331</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.452664</v>
+        <v>0.462265</v>
       </c>
       <c r="C79" t="n">
-        <v>0.49551</v>
+        <v>0.478287</v>
       </c>
       <c r="D79" t="n">
-        <v>0.431421</v>
+        <v>0.434432</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.494192</v>
+        <v>0.5374989999999999</v>
       </c>
       <c r="C80" t="n">
-        <v>0.52241</v>
+        <v>0.556909</v>
       </c>
       <c r="D80" t="n">
-        <v>0.318038</v>
+        <v>0.337994</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.354227</v>
+        <v>0.384833</v>
       </c>
       <c r="C81" t="n">
-        <v>0.373597</v>
+        <v>0.389725</v>
       </c>
       <c r="D81" t="n">
-        <v>0.318886</v>
+        <v>0.330572</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.356393</v>
+        <v>0.379351</v>
       </c>
       <c r="C82" t="n">
-        <v>0.376221</v>
+        <v>0.392661</v>
       </c>
       <c r="D82" t="n">
-        <v>0.319739</v>
+        <v>0.335949</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.396407</v>
+        <v>0.380309</v>
       </c>
       <c r="C83" t="n">
-        <v>0.403198</v>
+        <v>0.403608</v>
       </c>
       <c r="D83" t="n">
-        <v>0.338955</v>
+        <v>0.338438</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.376339</v>
+        <v>0.391716</v>
       </c>
       <c r="C84" t="n">
-        <v>0.403548</v>
+        <v>0.398485</v>
       </c>
       <c r="D84" t="n">
-        <v>0.336202</v>
+        <v>0.340384</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.383512</v>
+        <v>0.388038</v>
       </c>
       <c r="C85" t="n">
-        <v>0.400809</v>
+        <v>0.404615</v>
       </c>
       <c r="D85" t="n">
-        <v>0.333448</v>
+        <v>0.335808</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.385135</v>
+        <v>0.390143</v>
       </c>
       <c r="C86" t="n">
-        <v>0.414346</v>
+        <v>0.410698</v>
       </c>
       <c r="D86" t="n">
-        <v>0.33953</v>
+        <v>0.342628</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.401157</v>
+        <v>0.399494</v>
       </c>
       <c r="C87" t="n">
-        <v>0.420312</v>
+        <v>0.407364</v>
       </c>
       <c r="D87" t="n">
-        <v>0.346082</v>
+        <v>0.344307</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.406318</v>
+        <v>0.389304</v>
       </c>
       <c r="C88" t="n">
-        <v>0.413332</v>
+        <v>0.426935</v>
       </c>
       <c r="D88" t="n">
-        <v>0.356393</v>
+        <v>0.372457</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.40911</v>
+        <v>0.408684</v>
       </c>
       <c r="C89" t="n">
-        <v>0.441335</v>
+        <v>0.436817</v>
       </c>
       <c r="D89" t="n">
-        <v>0.365209</v>
+        <v>0.354179</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.408583</v>
+        <v>0.446568</v>
       </c>
       <c r="C90" t="n">
-        <v>0.447328</v>
+        <v>0.438296</v>
       </c>
       <c r="D90" t="n">
-        <v>0.369278</v>
+        <v>0.38205</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.455973</v>
+        <v>0.461589</v>
       </c>
       <c r="C91" t="n">
-        <v>0.46282</v>
+        <v>0.466259</v>
       </c>
       <c r="D91" t="n">
-        <v>0.391558</v>
+        <v>0.396844</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.473542</v>
+        <v>0.469307</v>
       </c>
       <c r="C92" t="n">
-        <v>0.491624</v>
+        <v>0.486156</v>
       </c>
       <c r="D92" t="n">
-        <v>0.412392</v>
+        <v>0.426503</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.509</v>
+        <v>0.515482</v>
       </c>
       <c r="C93" t="n">
-        <v>0.525215</v>
+        <v>0.52413</v>
       </c>
       <c r="D93" t="n">
-        <v>0.434781</v>
+        <v>0.453522</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.543538</v>
+        <v>0.551444</v>
       </c>
       <c r="C94" t="n">
-        <v>0.5854279999999999</v>
+        <v>0.583013</v>
       </c>
       <c r="D94" t="n">
-        <v>0.34953</v>
+        <v>0.359348</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.422505</v>
+        <v>0.43369</v>
       </c>
       <c r="C95" t="n">
-        <v>0.428031</v>
+        <v>0.425376</v>
       </c>
       <c r="D95" t="n">
-        <v>0.360858</v>
+        <v>0.358696</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.429434</v>
+        <v>0.426275</v>
       </c>
       <c r="C96" t="n">
-        <v>0.429473</v>
+        <v>0.4375</v>
       </c>
       <c r="D96" t="n">
-        <v>0.356205</v>
+        <v>0.363865</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.425485</v>
+        <v>0.433722</v>
       </c>
       <c r="C97" t="n">
-        <v>0.437165</v>
+        <v>0.445649</v>
       </c>
       <c r="D97" t="n">
-        <v>0.362595</v>
+        <v>0.371167</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.445165</v>
+        <v>0.438949</v>
       </c>
       <c r="C98" t="n">
-        <v>0.444959</v>
+        <v>0.439931</v>
       </c>
       <c r="D98" t="n">
-        <v>0.371309</v>
+        <v>0.360731</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.438225</v>
+        <v>0.445211</v>
       </c>
       <c r="C99" t="n">
-        <v>0.439275</v>
+        <v>0.445506</v>
       </c>
       <c r="D99" t="n">
-        <v>0.369829</v>
+        <v>0.371796</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.446099</v>
+        <v>0.433268</v>
       </c>
       <c r="C100" t="n">
-        <v>0.453619</v>
+        <v>0.456586</v>
       </c>
       <c r="D100" t="n">
-        <v>0.370282</v>
+        <v>0.371725</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.440245</v>
+        <v>0.441048</v>
       </c>
       <c r="C101" t="n">
-        <v>0.469406</v>
+        <v>0.445118</v>
       </c>
       <c r="D101" t="n">
-        <v>0.394073</v>
+        <v>0.372859</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.447631</v>
+        <v>0.46443</v>
       </c>
       <c r="C102" t="n">
-        <v>0.476965</v>
+        <v>0.470825</v>
       </c>
       <c r="D102" t="n">
-        <v>0.385499</v>
+        <v>0.389411</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.465442</v>
+        <v>0.46971</v>
       </c>
       <c r="C103" t="n">
-        <v>0.485283</v>
+        <v>0.488189</v>
       </c>
       <c r="D103" t="n">
-        <v>0.397336</v>
+        <v>0.392667</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.472503</v>
+        <v>0.477538</v>
       </c>
       <c r="C104" t="n">
-        <v>0.485896</v>
+        <v>0.502793</v>
       </c>
       <c r="D104" t="n">
-        <v>0.41509</v>
+        <v>0.4112</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.488322</v>
+        <v>0.487303</v>
       </c>
       <c r="C105" t="n">
-        <v>0.517495</v>
+        <v>0.510333</v>
       </c>
       <c r="D105" t="n">
-        <v>0.420766</v>
+        <v>0.430656</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.527628</v>
+        <v>0.530545</v>
       </c>
       <c r="C106" t="n">
-        <v>0.530244</v>
+        <v>0.545598</v>
       </c>
       <c r="D106" t="n">
-        <v>0.452885</v>
+        <v>0.454405</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.57241</v>
+        <v>0.559406</v>
       </c>
       <c r="C107" t="n">
-        <v>0.566941</v>
+        <v>0.582731</v>
       </c>
       <c r="D107" t="n">
-        <v>0.488065</v>
+        <v>0.481439</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.605861</v>
+        <v>0.616378</v>
       </c>
       <c r="C108" t="n">
-        <v>0.633868</v>
+        <v>0.653852</v>
       </c>
       <c r="D108" t="n">
-        <v>0.48877</v>
+        <v>0.474635</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.722649</v>
+        <v>0.711477</v>
       </c>
       <c r="C109" t="n">
-        <v>0.756528</v>
+        <v>0.747507</v>
       </c>
       <c r="D109" t="n">
-        <v>0.484164</v>
+        <v>0.483747</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.5572</v>
+        <v>0.558803</v>
       </c>
       <c r="C110" t="n">
-        <v>0.546042</v>
+        <v>0.530951</v>
       </c>
       <c r="D110" t="n">
-        <v>0.478068</v>
+        <v>0.490009</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.570719</v>
+        <v>0.55615</v>
       </c>
       <c r="C111" t="n">
-        <v>0.5602</v>
+        <v>0.551937</v>
       </c>
       <c r="D111" t="n">
-        <v>0.488735</v>
+        <v>0.502279</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.569074</v>
+        <v>0.558154</v>
       </c>
       <c r="C112" t="n">
-        <v>0.546122</v>
+        <v>0.54445</v>
       </c>
       <c r="D112" t="n">
-        <v>0.504224</v>
+        <v>0.490543</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.568085</v>
+        <v>0.5609150000000001</v>
       </c>
       <c r="C113" t="n">
-        <v>0.5551779999999999</v>
+        <v>0.550616</v>
       </c>
       <c r="D113" t="n">
-        <v>0.486387</v>
+        <v>0.488676</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.580889</v>
+        <v>0.5804009999999999</v>
       </c>
       <c r="C114" t="n">
-        <v>0.569087</v>
+        <v>0.578861</v>
       </c>
       <c r="D114" t="n">
-        <v>0.50375</v>
+        <v>0.491045</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.580936</v>
+        <v>0.595584</v>
       </c>
       <c r="C115" t="n">
-        <v>0.569963</v>
+        <v>0.5690269999999999</v>
       </c>
       <c r="D115" t="n">
-        <v>0.5052450000000001</v>
+        <v>0.517041</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.601137</v>
+        <v>0.602411</v>
       </c>
       <c r="C116" t="n">
-        <v>0.597425</v>
+        <v>0.591549</v>
       </c>
       <c r="D116" t="n">
-        <v>0.522746</v>
+        <v>0.5147119999999999</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.6056049999999999</v>
+        <v>0.630624</v>
       </c>
       <c r="C117" t="n">
-        <v>0.598729</v>
+        <v>0.618993</v>
       </c>
       <c r="D117" t="n">
-        <v>0.516247</v>
+        <v>0.5268389999999999</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.63273</v>
+        <v>0.621234</v>
       </c>
       <c r="C118" t="n">
-        <v>0.612798</v>
+        <v>0.630072</v>
       </c>
       <c r="D118" t="n">
-        <v>0.539852</v>
+        <v>0.553702</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.63507</v>
+        <v>0.667678</v>
       </c>
       <c r="C119" t="n">
-        <v>0.62055</v>
+        <v>0.650876</v>
       </c>
       <c r="D119" t="n">
-        <v>0.5411589999999999</v>
+        <v>0.549678</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.657735</v>
+        <v>0.661601</v>
       </c>
       <c r="C120" t="n">
-        <v>0.705885</v>
+        <v>0.6742629999999999</v>
       </c>
       <c r="D120" t="n">
-        <v>0.576925</v>
+        <v>0.580853</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.702728</v>
+        <v>0.730765</v>
       </c>
       <c r="C121" t="n">
-        <v>0.71246</v>
+        <v>0.709149</v>
       </c>
       <c r="D121" t="n">
-        <v>0.628926</v>
+        <v>0.619679</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.759745</v>
+        <v>0.775658</v>
       </c>
       <c r="C122" t="n">
-        <v>0.780455</v>
+        <v>0.770865</v>
       </c>
       <c r="D122" t="n">
-        <v>0.671466</v>
+        <v>0.643888</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.8517670000000001</v>
+        <v>0.869823</v>
       </c>
       <c r="C123" t="n">
-        <v>0.87195</v>
+        <v>0.899721</v>
       </c>
       <c r="D123" t="n">
-        <v>0.750712</v>
+        <v>0.733589</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.904691</v>
+        <v>0.886506</v>
       </c>
       <c r="C124" t="n">
-        <v>0.792492</v>
+        <v>0.83917</v>
       </c>
       <c r="D124" t="n">
-        <v>0.774223</v>
+        <v>0.729173</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.945349</v>
+        <v>0.902151</v>
       </c>
       <c r="C125" t="n">
-        <v>0.801747</v>
+        <v>0.845596</v>
       </c>
       <c r="D125" t="n">
-        <v>0.740883</v>
+        <v>0.782186</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.891783</v>
+        <v>0.915594</v>
       </c>
       <c r="C126" t="n">
-        <v>0.822376</v>
+        <v>0.81185</v>
       </c>
       <c r="D126" t="n">
-        <v>0.751638</v>
+        <v>0.786219</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.895618</v>
+        <v>0.921884</v>
       </c>
       <c r="C127" t="n">
-        <v>0.843942</v>
+        <v>0.88827</v>
       </c>
       <c r="D127" t="n">
-        <v>0.759198</v>
+        <v>0.8096</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.916404</v>
+        <v>0.939981</v>
       </c>
       <c r="C128" t="n">
-        <v>0.854463</v>
+        <v>0.8666160000000001</v>
       </c>
       <c r="D128" t="n">
-        <v>0.78043</v>
+        <v>0.792864</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.913459</v>
+        <v>0.964133</v>
       </c>
       <c r="C129" t="n">
-        <v>0.850913</v>
+        <v>0.859997</v>
       </c>
       <c r="D129" t="n">
-        <v>0.778145</v>
+        <v>0.814824</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.949684</v>
+        <v>0.941659</v>
       </c>
       <c r="C130" t="n">
-        <v>0.8695040000000001</v>
+        <v>0.848365</v>
       </c>
       <c r="D130" t="n">
-        <v>0.7905799999999999</v>
+        <v>0.810409</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.9538219999999999</v>
+        <v>0.994533</v>
       </c>
       <c r="C131" t="n">
-        <v>0.888659</v>
+        <v>0.8866540000000001</v>
       </c>
       <c r="D131" t="n">
-        <v>0.834944</v>
+        <v>0.79004</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.974243</v>
+        <v>0.955078</v>
       </c>
       <c r="C132" t="n">
-        <v>0.910874</v>
+        <v>0.921181</v>
       </c>
       <c r="D132" t="n">
-        <v>0.853723</v>
+        <v>0.807937</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.0264</v>
+        <v>1.0424</v>
       </c>
       <c r="C133" t="n">
-        <v>0.948766</v>
+        <v>0.970399</v>
       </c>
       <c r="D133" t="n">
-        <v>0.859936</v>
+        <v>0.824399</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.01977</v>
+        <v>1.06366</v>
       </c>
       <c r="C134" t="n">
-        <v>0.97273</v>
+        <v>0.964168</v>
       </c>
       <c r="D134" t="n">
-        <v>0.861494</v>
+        <v>0.894154</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.11439</v>
+        <v>1.06321</v>
       </c>
       <c r="C135" t="n">
-        <v>1.03934</v>
+        <v>1.02639</v>
       </c>
       <c r="D135" t="n">
-        <v>0.878842</v>
+        <v>0.919336</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.13694</v>
+        <v>1.12025</v>
       </c>
       <c r="C136" t="n">
-        <v>1.10953</v>
+        <v>1.11714</v>
       </c>
       <c r="D136" t="n">
-        <v>0.955141</v>
+        <v>0.9789949999999999</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.19633</v>
+        <v>1.2642</v>
       </c>
       <c r="C137" t="n">
-        <v>1.20625</v>
+        <v>1.22394</v>
       </c>
       <c r="D137" t="n">
-        <v>0.99285</v>
+        <v>1.04115</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.23116</v>
+        <v>1.24144</v>
       </c>
       <c r="C138" t="n">
-        <v>1.0935</v>
+        <v>1.07257</v>
       </c>
       <c r="D138" t="n">
-        <v>0.997705</v>
+        <v>1.00083</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.24331</v>
+        <v>1.19014</v>
       </c>
       <c r="C139" t="n">
-        <v>1.06777</v>
+        <v>1.10568</v>
       </c>
       <c r="D139" t="n">
-        <v>1.0453</v>
+        <v>1.00603</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.18889</v>
+        <v>1.25131</v>
       </c>
       <c r="C140" t="n">
-        <v>1.06199</v>
+        <v>1.06753</v>
       </c>
       <c r="D140" t="n">
-        <v>1.04583</v>
+        <v>1.0053</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.20846</v>
+        <v>1.24533</v>
       </c>
       <c r="C141" t="n">
-        <v>1.06463</v>
+        <v>1.10885</v>
       </c>
       <c r="D141" t="n">
-        <v>0.998927</v>
+        <v>1.01418</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.25471</v>
+        <v>1.20708</v>
       </c>
       <c r="C142" t="n">
-        <v>1.11131</v>
+        <v>1.12675</v>
       </c>
       <c r="D142" t="n">
-        <v>1.021</v>
+        <v>1.01636</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.2465</v>
+        <v>1.20777</v>
       </c>
       <c r="C143" t="n">
-        <v>1.15173</v>
+        <v>1.09294</v>
       </c>
       <c r="D143" t="n">
-        <v>1.02344</v>
+        <v>1.00817</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered unsuccessful looukp.xlsx
+++ b/vs-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.335974</v>
+        <v>0.338356</v>
       </c>
       <c r="C2" t="n">
-        <v>0.382864</v>
+        <v>0.369548</v>
       </c>
       <c r="D2" t="n">
-        <v>0.329342</v>
+        <v>0.323724</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.343299</v>
+        <v>0.336359</v>
       </c>
       <c r="C3" t="n">
-        <v>0.386009</v>
+        <v>0.383073</v>
       </c>
       <c r="D3" t="n">
-        <v>0.334994</v>
+        <v>0.332823</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.347375</v>
+        <v>0.34253</v>
       </c>
       <c r="C4" t="n">
-        <v>0.379817</v>
+        <v>0.383286</v>
       </c>
       <c r="D4" t="n">
-        <v>0.345096</v>
+        <v>0.332186</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.35164</v>
+        <v>0.344334</v>
       </c>
       <c r="C5" t="n">
-        <v>0.393178</v>
+        <v>0.390326</v>
       </c>
       <c r="D5" t="n">
-        <v>0.346361</v>
+        <v>0.340572</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.362479</v>
+        <v>0.376674</v>
       </c>
       <c r="C6" t="n">
-        <v>0.419247</v>
+        <v>0.40042</v>
       </c>
       <c r="D6" t="n">
-        <v>0.358359</v>
+        <v>0.359409</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.378581</v>
+        <v>0.380895</v>
       </c>
       <c r="C7" t="n">
-        <v>0.460101</v>
+        <v>0.42661</v>
       </c>
       <c r="D7" t="n">
-        <v>0.380973</v>
+        <v>0.379847</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.406043</v>
+        <v>0.409377</v>
       </c>
       <c r="C8" t="n">
-        <v>0.467627</v>
+        <v>0.463733</v>
       </c>
       <c r="D8" t="n">
-        <v>0.405579</v>
+        <v>0.410659</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.455185</v>
+        <v>0.457625</v>
       </c>
       <c r="C9" t="n">
-        <v>0.504585</v>
+        <v>0.513644</v>
       </c>
       <c r="D9" t="n">
-        <v>0.320783</v>
+        <v>0.325009</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.319154</v>
+        <v>0.327103</v>
       </c>
       <c r="C10" t="n">
-        <v>0.369939</v>
+        <v>0.364785</v>
       </c>
       <c r="D10" t="n">
-        <v>0.333018</v>
+        <v>0.318069</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.340334</v>
+        <v>0.327393</v>
       </c>
       <c r="C11" t="n">
-        <v>0.382381</v>
+        <v>0.37118</v>
       </c>
       <c r="D11" t="n">
-        <v>0.318601</v>
+        <v>0.316242</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.328821</v>
+        <v>0.333152</v>
       </c>
       <c r="C12" t="n">
-        <v>0.375037</v>
+        <v>0.36876</v>
       </c>
       <c r="D12" t="n">
-        <v>0.31732</v>
+        <v>0.31899</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.326865</v>
+        <v>0.341634</v>
       </c>
       <c r="C13" t="n">
-        <v>0.370697</v>
+        <v>0.364483</v>
       </c>
       <c r="D13" t="n">
-        <v>0.320823</v>
+        <v>0.317279</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.332708</v>
+        <v>0.334381</v>
       </c>
       <c r="C14" t="n">
-        <v>0.369661</v>
+        <v>0.365654</v>
       </c>
       <c r="D14" t="n">
-        <v>0.325633</v>
+        <v>0.327051</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.327031</v>
+        <v>0.342095</v>
       </c>
       <c r="C15" t="n">
-        <v>0.369442</v>
+        <v>0.377892</v>
       </c>
       <c r="D15" t="n">
-        <v>0.329314</v>
+        <v>0.336618</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.343828</v>
+        <v>0.337066</v>
       </c>
       <c r="C16" t="n">
-        <v>0.379758</v>
+        <v>0.383023</v>
       </c>
       <c r="D16" t="n">
-        <v>0.325064</v>
+        <v>0.332166</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.336831</v>
+        <v>0.33841</v>
       </c>
       <c r="C17" t="n">
-        <v>0.378174</v>
+        <v>0.378205</v>
       </c>
       <c r="D17" t="n">
-        <v>0.332763</v>
+        <v>0.337578</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.340301</v>
+        <v>0.343225</v>
       </c>
       <c r="C18" t="n">
-        <v>0.391576</v>
+        <v>0.396555</v>
       </c>
       <c r="D18" t="n">
-        <v>0.334014</v>
+        <v>0.361699</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.345168</v>
+        <v>0.360821</v>
       </c>
       <c r="C19" t="n">
-        <v>0.38825</v>
+        <v>0.38962</v>
       </c>
       <c r="D19" t="n">
-        <v>0.346102</v>
+        <v>0.338701</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.364869</v>
+        <v>0.367782</v>
       </c>
       <c r="C20" t="n">
-        <v>0.398356</v>
+        <v>0.40179</v>
       </c>
       <c r="D20" t="n">
-        <v>0.354151</v>
+        <v>0.355065</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.378545</v>
+        <v>0.379141</v>
       </c>
       <c r="C21" t="n">
-        <v>0.429991</v>
+        <v>0.409028</v>
       </c>
       <c r="D21" t="n">
-        <v>0.372441</v>
+        <v>0.363897</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.39504</v>
+        <v>0.407138</v>
       </c>
       <c r="C22" t="n">
-        <v>0.442969</v>
+        <v>0.434072</v>
       </c>
       <c r="D22" t="n">
-        <v>0.397478</v>
+        <v>0.416538</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.450079</v>
+        <v>0.436697</v>
       </c>
       <c r="C23" t="n">
-        <v>0.473688</v>
+        <v>0.491125</v>
       </c>
       <c r="D23" t="n">
-        <v>0.312938</v>
+        <v>0.32297</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.333314</v>
+        <v>0.33026</v>
       </c>
       <c r="C24" t="n">
-        <v>0.363908</v>
+        <v>0.358339</v>
       </c>
       <c r="D24" t="n">
-        <v>0.314649</v>
+        <v>0.331464</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.332514</v>
+        <v>0.32568</v>
       </c>
       <c r="C25" t="n">
-        <v>0.369286</v>
+        <v>0.371902</v>
       </c>
       <c r="D25" t="n">
-        <v>0.323716</v>
+        <v>0.314329</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.327428</v>
+        <v>0.351916</v>
       </c>
       <c r="C26" t="n">
-        <v>0.362516</v>
+        <v>0.374756</v>
       </c>
       <c r="D26" t="n">
-        <v>0.316149</v>
+        <v>0.315939</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.341239</v>
+        <v>0.332226</v>
       </c>
       <c r="C27" t="n">
-        <v>0.367726</v>
+        <v>0.386866</v>
       </c>
       <c r="D27" t="n">
-        <v>0.33127</v>
+        <v>0.318657</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.335347</v>
+        <v>0.337308</v>
       </c>
       <c r="C28" t="n">
-        <v>0.364256</v>
+        <v>0.364237</v>
       </c>
       <c r="D28" t="n">
-        <v>0.336591</v>
+        <v>0.323022</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.331503</v>
+        <v>0.339276</v>
       </c>
       <c r="C29" t="n">
-        <v>0.371073</v>
+        <v>0.367693</v>
       </c>
       <c r="D29" t="n">
-        <v>0.317372</v>
+        <v>0.327014</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.325375</v>
+        <v>0.333473</v>
       </c>
       <c r="C30" t="n">
-        <v>0.374372</v>
+        <v>0.369934</v>
       </c>
       <c r="D30" t="n">
-        <v>0.326964</v>
+        <v>0.336674</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.333497</v>
+        <v>0.346104</v>
       </c>
       <c r="C31" t="n">
-        <v>0.370755</v>
+        <v>0.375828</v>
       </c>
       <c r="D31" t="n">
-        <v>0.328989</v>
+        <v>0.326047</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.349192</v>
+        <v>0.340525</v>
       </c>
       <c r="C32" t="n">
-        <v>0.374781</v>
+        <v>0.389249</v>
       </c>
       <c r="D32" t="n">
-        <v>0.343435</v>
+        <v>0.334934</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.340885</v>
+        <v>0.34119</v>
       </c>
       <c r="C33" t="n">
-        <v>0.388626</v>
+        <v>0.381714</v>
       </c>
       <c r="D33" t="n">
-        <v>0.340869</v>
+        <v>0.339234</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.356564</v>
+        <v>0.356026</v>
       </c>
       <c r="C34" t="n">
-        <v>0.400811</v>
+        <v>0.392911</v>
       </c>
       <c r="D34" t="n">
-        <v>0.361038</v>
+        <v>0.358164</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.378198</v>
+        <v>0.377671</v>
       </c>
       <c r="C35" t="n">
-        <v>0.416667</v>
+        <v>0.396178</v>
       </c>
       <c r="D35" t="n">
-        <v>0.365598</v>
+        <v>0.359</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.407422</v>
+        <v>0.388397</v>
       </c>
       <c r="C36" t="n">
-        <v>0.433309</v>
+        <v>0.417913</v>
       </c>
       <c r="D36" t="n">
-        <v>0.382669</v>
+        <v>0.387206</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.438241</v>
+        <v>0.424527</v>
       </c>
       <c r="C37" t="n">
-        <v>0.460089</v>
+        <v>0.462321</v>
       </c>
       <c r="D37" t="n">
-        <v>0.314762</v>
+        <v>0.318011</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.323923</v>
+        <v>0.326796</v>
       </c>
       <c r="C38" t="n">
-        <v>0.365892</v>
+        <v>0.376525</v>
       </c>
       <c r="D38" t="n">
-        <v>0.326513</v>
+        <v>0.318808</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.336299</v>
+        <v>0.329486</v>
       </c>
       <c r="C39" t="n">
-        <v>0.359524</v>
+        <v>0.374685</v>
       </c>
       <c r="D39" t="n">
-        <v>0.327044</v>
+        <v>0.318769</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.353408</v>
+        <v>0.324805</v>
       </c>
       <c r="C40" t="n">
-        <v>0.36597</v>
+        <v>0.371605</v>
       </c>
       <c r="D40" t="n">
-        <v>0.318749</v>
+        <v>0.327494</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.332133</v>
+        <v>0.331067</v>
       </c>
       <c r="C41" t="n">
-        <v>0.372027</v>
+        <v>0.362747</v>
       </c>
       <c r="D41" t="n">
-        <v>0.321525</v>
+        <v>0.326807</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.327203</v>
+        <v>0.328826</v>
       </c>
       <c r="C42" t="n">
-        <v>0.36452</v>
+        <v>0.365486</v>
       </c>
       <c r="D42" t="n">
-        <v>0.323049</v>
+        <v>0.32175</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.342566</v>
+        <v>0.330694</v>
       </c>
       <c r="C43" t="n">
-        <v>0.371204</v>
+        <v>0.368765</v>
       </c>
       <c r="D43" t="n">
-        <v>0.332256</v>
+        <v>0.319954</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.335364</v>
+        <v>0.342543</v>
       </c>
       <c r="C44" t="n">
-        <v>0.376809</v>
+        <v>0.378804</v>
       </c>
       <c r="D44" t="n">
-        <v>0.328031</v>
+        <v>0.324393</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.342863</v>
+        <v>0.339805</v>
       </c>
       <c r="C45" t="n">
-        <v>0.393814</v>
+        <v>0.387549</v>
       </c>
       <c r="D45" t="n">
-        <v>0.347997</v>
+        <v>0.349029</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.348208</v>
+        <v>0.356159</v>
       </c>
       <c r="C46" t="n">
-        <v>0.379132</v>
+        <v>0.384517</v>
       </c>
       <c r="D46" t="n">
-        <v>0.330912</v>
+        <v>0.335048</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.35181</v>
+        <v>0.346563</v>
       </c>
       <c r="C47" t="n">
-        <v>0.381113</v>
+        <v>0.400544</v>
       </c>
       <c r="D47" t="n">
-        <v>0.336436</v>
+        <v>0.336878</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.361128</v>
+        <v>0.361889</v>
       </c>
       <c r="C48" t="n">
-        <v>0.399002</v>
+        <v>0.394653</v>
       </c>
       <c r="D48" t="n">
-        <v>0.348453</v>
+        <v>0.347377</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.392251</v>
+        <v>0.372641</v>
       </c>
       <c r="C49" t="n">
-        <v>0.417421</v>
+        <v>0.416334</v>
       </c>
       <c r="D49" t="n">
-        <v>0.355389</v>
+        <v>0.357396</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.399728</v>
+        <v>0.393021</v>
       </c>
       <c r="C50" t="n">
-        <v>0.433436</v>
+        <v>0.42713</v>
       </c>
       <c r="D50" t="n">
-        <v>0.392945</v>
+        <v>0.395189</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.431237</v>
+        <v>0.428088</v>
       </c>
       <c r="C51" t="n">
-        <v>0.456293</v>
+        <v>0.465458</v>
       </c>
       <c r="D51" t="n">
-        <v>0.325715</v>
+        <v>0.323082</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.479927</v>
+        <v>0.477008</v>
       </c>
       <c r="C52" t="n">
-        <v>0.524638</v>
+        <v>0.513382</v>
       </c>
       <c r="D52" t="n">
-        <v>0.316014</v>
+        <v>0.329108</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.348105</v>
+        <v>0.334312</v>
       </c>
       <c r="C53" t="n">
-        <v>0.368831</v>
+        <v>0.370886</v>
       </c>
       <c r="D53" t="n">
-        <v>0.323036</v>
+        <v>0.325138</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.339802</v>
+        <v>0.340715</v>
       </c>
       <c r="C54" t="n">
-        <v>0.37885</v>
+        <v>0.367769</v>
       </c>
       <c r="D54" t="n">
-        <v>0.324514</v>
+        <v>0.327448</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.338674</v>
+        <v>0.344797</v>
       </c>
       <c r="C55" t="n">
-        <v>0.388343</v>
+        <v>0.365964</v>
       </c>
       <c r="D55" t="n">
-        <v>0.327018</v>
+        <v>0.322999</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.338229</v>
+        <v>0.3397</v>
       </c>
       <c r="C56" t="n">
-        <v>0.374745</v>
+        <v>0.396287</v>
       </c>
       <c r="D56" t="n">
-        <v>0.326991</v>
+        <v>0.32444</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.3421</v>
+        <v>0.361721</v>
       </c>
       <c r="C57" t="n">
-        <v>0.375691</v>
+        <v>0.38382</v>
       </c>
       <c r="D57" t="n">
-        <v>0.324228</v>
+        <v>0.320829</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.347641</v>
+        <v>0.340913</v>
       </c>
       <c r="C58" t="n">
-        <v>0.382564</v>
+        <v>0.378336</v>
       </c>
       <c r="D58" t="n">
-        <v>0.331519</v>
+        <v>0.325415</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.35269</v>
+        <v>0.364259</v>
       </c>
       <c r="C59" t="n">
-        <v>0.383567</v>
+        <v>0.388351</v>
       </c>
       <c r="D59" t="n">
-        <v>0.333075</v>
+        <v>0.339534</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.349363</v>
+        <v>0.358114</v>
       </c>
       <c r="C60" t="n">
-        <v>0.383375</v>
+        <v>0.392717</v>
       </c>
       <c r="D60" t="n">
-        <v>0.340486</v>
+        <v>0.335771</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.367582</v>
+        <v>0.35492</v>
       </c>
       <c r="C61" t="n">
-        <v>0.38671</v>
+        <v>0.390811</v>
       </c>
       <c r="D61" t="n">
-        <v>0.3467</v>
+        <v>0.348581</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.369052</v>
+        <v>0.364312</v>
       </c>
       <c r="C62" t="n">
-        <v>0.411763</v>
+        <v>0.404781</v>
       </c>
       <c r="D62" t="n">
-        <v>0.355901</v>
+        <v>0.356564</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.376137</v>
+        <v>0.387191</v>
       </c>
       <c r="C63" t="n">
-        <v>0.416607</v>
+        <v>0.406665</v>
       </c>
       <c r="D63" t="n">
-        <v>0.36561</v>
+        <v>0.37807</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.408101</v>
+        <v>0.401678</v>
       </c>
       <c r="C64" t="n">
-        <v>0.440571</v>
+        <v>0.450627</v>
       </c>
       <c r="D64" t="n">
-        <v>0.3866</v>
+        <v>0.383703</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.441669</v>
+        <v>0.47344</v>
       </c>
       <c r="C65" t="n">
-        <v>0.460063</v>
+        <v>0.471236</v>
       </c>
       <c r="D65" t="n">
-        <v>0.442653</v>
+        <v>0.439022</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.495271</v>
+        <v>0.492701</v>
       </c>
       <c r="C66" t="n">
-        <v>0.528959</v>
+        <v>0.524139</v>
       </c>
       <c r="D66" t="n">
-        <v>0.323454</v>
+        <v>0.324433</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.346863</v>
+        <v>0.356436</v>
       </c>
       <c r="C67" t="n">
-        <v>0.38044</v>
+        <v>0.380957</v>
       </c>
       <c r="D67" t="n">
-        <v>0.337042</v>
+        <v>0.32714</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.354759</v>
+        <v>0.360411</v>
       </c>
       <c r="C68" t="n">
-        <v>0.392796</v>
+        <v>0.389537</v>
       </c>
       <c r="D68" t="n">
-        <v>0.333767</v>
+        <v>0.330367</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.3724</v>
+        <v>0.359962</v>
       </c>
       <c r="C69" t="n">
-        <v>0.389668</v>
+        <v>0.388011</v>
       </c>
       <c r="D69" t="n">
-        <v>0.327516</v>
+        <v>0.33187</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.363892</v>
+        <v>0.36151</v>
       </c>
       <c r="C70" t="n">
-        <v>0.393018</v>
+        <v>0.392432</v>
       </c>
       <c r="D70" t="n">
-        <v>0.327001</v>
+        <v>0.337183</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.360823</v>
+        <v>0.358217</v>
       </c>
       <c r="C71" t="n">
-        <v>0.386065</v>
+        <v>0.399337</v>
       </c>
       <c r="D71" t="n">
-        <v>0.330084</v>
+        <v>0.323092</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.363301</v>
+        <v>0.356636</v>
       </c>
       <c r="C72" t="n">
-        <v>0.385769</v>
+        <v>0.394091</v>
       </c>
       <c r="D72" t="n">
-        <v>0.341371</v>
+        <v>0.337417</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.376418</v>
+        <v>0.371887</v>
       </c>
       <c r="C73" t="n">
-        <v>0.392766</v>
+        <v>0.39359</v>
       </c>
       <c r="D73" t="n">
-        <v>0.345734</v>
+        <v>0.350514</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.386151</v>
+        <v>0.381124</v>
       </c>
       <c r="C74" t="n">
-        <v>0.399797</v>
+        <v>0.403762</v>
       </c>
       <c r="D74" t="n">
-        <v>0.338746</v>
+        <v>0.353338</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.381214</v>
+        <v>0.381679</v>
       </c>
       <c r="C75" t="n">
-        <v>0.412351</v>
+        <v>0.412099</v>
       </c>
       <c r="D75" t="n">
-        <v>0.351181</v>
+        <v>0.351255</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.387857</v>
+        <v>0.392285</v>
       </c>
       <c r="C76" t="n">
-        <v>0.41337</v>
+        <v>0.442623</v>
       </c>
       <c r="D76" t="n">
-        <v>0.362349</v>
+        <v>0.362401</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.400407</v>
+        <v>0.409645</v>
       </c>
       <c r="C77" t="n">
-        <v>0.432277</v>
+        <v>0.430758</v>
       </c>
       <c r="D77" t="n">
-        <v>0.369424</v>
+        <v>0.377795</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.425886</v>
+        <v>0.434409</v>
       </c>
       <c r="C78" t="n">
-        <v>0.458583</v>
+        <v>0.450115</v>
       </c>
       <c r="D78" t="n">
-        <v>0.404331</v>
+        <v>0.393829</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.462265</v>
+        <v>0.458345</v>
       </c>
       <c r="C79" t="n">
-        <v>0.478287</v>
+        <v>0.483473</v>
       </c>
       <c r="D79" t="n">
-        <v>0.434432</v>
+        <v>0.427122</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.5374989999999999</v>
+        <v>0.518249</v>
       </c>
       <c r="C80" t="n">
-        <v>0.556909</v>
+        <v>0.540786</v>
       </c>
       <c r="D80" t="n">
-        <v>0.337994</v>
+        <v>0.325273</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.384833</v>
+        <v>0.366417</v>
       </c>
       <c r="C81" t="n">
-        <v>0.389725</v>
+        <v>0.3963</v>
       </c>
       <c r="D81" t="n">
-        <v>0.330572</v>
+        <v>0.33431</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.379351</v>
+        <v>0.384612</v>
       </c>
       <c r="C82" t="n">
-        <v>0.392661</v>
+        <v>0.402634</v>
       </c>
       <c r="D82" t="n">
-        <v>0.335949</v>
+        <v>0.335997</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.380309</v>
+        <v>0.371111</v>
       </c>
       <c r="C83" t="n">
-        <v>0.403608</v>
+        <v>0.391841</v>
       </c>
       <c r="D83" t="n">
-        <v>0.338438</v>
+        <v>0.3496</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.391716</v>
+        <v>0.389701</v>
       </c>
       <c r="C84" t="n">
-        <v>0.398485</v>
+        <v>0.409615</v>
       </c>
       <c r="D84" t="n">
-        <v>0.340384</v>
+        <v>0.332417</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.388038</v>
+        <v>0.383174</v>
       </c>
       <c r="C85" t="n">
-        <v>0.404615</v>
+        <v>0.400166</v>
       </c>
       <c r="D85" t="n">
-        <v>0.335808</v>
+        <v>0.336336</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.390143</v>
+        <v>0.402655</v>
       </c>
       <c r="C86" t="n">
-        <v>0.410698</v>
+        <v>0.405181</v>
       </c>
       <c r="D86" t="n">
-        <v>0.342628</v>
+        <v>0.341314</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.399494</v>
+        <v>0.39525</v>
       </c>
       <c r="C87" t="n">
-        <v>0.407364</v>
+        <v>0.414072</v>
       </c>
       <c r="D87" t="n">
-        <v>0.344307</v>
+        <v>0.3518</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.389304</v>
+        <v>0.401782</v>
       </c>
       <c r="C88" t="n">
-        <v>0.426935</v>
+        <v>0.418064</v>
       </c>
       <c r="D88" t="n">
-        <v>0.372457</v>
+        <v>0.349731</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.408684</v>
+        <v>0.412248</v>
       </c>
       <c r="C89" t="n">
-        <v>0.436817</v>
+        <v>0.44272</v>
       </c>
       <c r="D89" t="n">
-        <v>0.354179</v>
+        <v>0.372964</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.446568</v>
+        <v>0.429179</v>
       </c>
       <c r="C90" t="n">
-        <v>0.438296</v>
+        <v>0.447899</v>
       </c>
       <c r="D90" t="n">
-        <v>0.38205</v>
+        <v>0.366532</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.461589</v>
+        <v>0.435765</v>
       </c>
       <c r="C91" t="n">
-        <v>0.466259</v>
+        <v>0.467179</v>
       </c>
       <c r="D91" t="n">
-        <v>0.396844</v>
+        <v>0.392127</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.469307</v>
+        <v>0.462825</v>
       </c>
       <c r="C92" t="n">
-        <v>0.486156</v>
+        <v>0.478088</v>
       </c>
       <c r="D92" t="n">
-        <v>0.426503</v>
+        <v>0.411834</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.515482</v>
+        <v>0.495985</v>
       </c>
       <c r="C93" t="n">
-        <v>0.52413</v>
+        <v>0.5145690000000001</v>
       </c>
       <c r="D93" t="n">
-        <v>0.453522</v>
+        <v>0.475528</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.551444</v>
+        <v>0.5478769999999999</v>
       </c>
       <c r="C94" t="n">
-        <v>0.583013</v>
+        <v>0.601074</v>
       </c>
       <c r="D94" t="n">
-        <v>0.359348</v>
+        <v>0.360751</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.43369</v>
+        <v>0.429221</v>
       </c>
       <c r="C95" t="n">
-        <v>0.425376</v>
+        <v>0.425749</v>
       </c>
       <c r="D95" t="n">
-        <v>0.358696</v>
+        <v>0.353141</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.426275</v>
+        <v>0.421751</v>
       </c>
       <c r="C96" t="n">
-        <v>0.4375</v>
+        <v>0.435527</v>
       </c>
       <c r="D96" t="n">
-        <v>0.363865</v>
+        <v>0.356602</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.433722</v>
+        <v>0.423867</v>
       </c>
       <c r="C97" t="n">
-        <v>0.445649</v>
+        <v>0.451752</v>
       </c>
       <c r="D97" t="n">
-        <v>0.371167</v>
+        <v>0.368323</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.438949</v>
+        <v>0.453185</v>
       </c>
       <c r="C98" t="n">
-        <v>0.439931</v>
+        <v>0.440577</v>
       </c>
       <c r="D98" t="n">
-        <v>0.360731</v>
+        <v>0.366995</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.445211</v>
+        <v>0.43924</v>
       </c>
       <c r="C99" t="n">
-        <v>0.445506</v>
+        <v>0.455199</v>
       </c>
       <c r="D99" t="n">
-        <v>0.371796</v>
+        <v>0.364499</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.433268</v>
+        <v>0.447604</v>
       </c>
       <c r="C100" t="n">
-        <v>0.456586</v>
+        <v>0.446402</v>
       </c>
       <c r="D100" t="n">
-        <v>0.371725</v>
+        <v>0.371616</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.441048</v>
+        <v>0.45009</v>
       </c>
       <c r="C101" t="n">
-        <v>0.445118</v>
+        <v>0.458748</v>
       </c>
       <c r="D101" t="n">
-        <v>0.372859</v>
+        <v>0.386373</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.46443</v>
+        <v>0.456927</v>
       </c>
       <c r="C102" t="n">
-        <v>0.470825</v>
+        <v>0.473461</v>
       </c>
       <c r="D102" t="n">
-        <v>0.389411</v>
+        <v>0.388661</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.46971</v>
+        <v>0.468172</v>
       </c>
       <c r="C103" t="n">
-        <v>0.488189</v>
+        <v>0.477723</v>
       </c>
       <c r="D103" t="n">
-        <v>0.392667</v>
+        <v>0.393651</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.477538</v>
+        <v>0.487473</v>
       </c>
       <c r="C104" t="n">
-        <v>0.502793</v>
+        <v>0.485126</v>
       </c>
       <c r="D104" t="n">
-        <v>0.4112</v>
+        <v>0.414521</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.487303</v>
+        <v>0.5038899999999999</v>
       </c>
       <c r="C105" t="n">
-        <v>0.510333</v>
+        <v>0.510037</v>
       </c>
       <c r="D105" t="n">
-        <v>0.430656</v>
+        <v>0.438214</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.530545</v>
+        <v>0.526821</v>
       </c>
       <c r="C106" t="n">
-        <v>0.545598</v>
+        <v>0.543476</v>
       </c>
       <c r="D106" t="n">
-        <v>0.454405</v>
+        <v>0.442336</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.559406</v>
+        <v>0.567186</v>
       </c>
       <c r="C107" t="n">
-        <v>0.582731</v>
+        <v>0.5875</v>
       </c>
       <c r="D107" t="n">
-        <v>0.481439</v>
+        <v>0.487173</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.616378</v>
+        <v>0.632617</v>
       </c>
       <c r="C108" t="n">
-        <v>0.653852</v>
+        <v>0.629833</v>
       </c>
       <c r="D108" t="n">
-        <v>0.474635</v>
+        <v>0.476187</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.711477</v>
+        <v>0.719425</v>
       </c>
       <c r="C109" t="n">
-        <v>0.747507</v>
+        <v>0.735623</v>
       </c>
       <c r="D109" t="n">
-        <v>0.483747</v>
+        <v>0.495783</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.558803</v>
+        <v>0.566604</v>
       </c>
       <c r="C110" t="n">
-        <v>0.530951</v>
+        <v>0.542944</v>
       </c>
       <c r="D110" t="n">
-        <v>0.490009</v>
+        <v>0.497753</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.55615</v>
+        <v>0.559874</v>
       </c>
       <c r="C111" t="n">
-        <v>0.551937</v>
+        <v>0.533693</v>
       </c>
       <c r="D111" t="n">
-        <v>0.502279</v>
+        <v>0.473312</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.558154</v>
+        <v>0.583086</v>
       </c>
       <c r="C112" t="n">
-        <v>0.54445</v>
+        <v>0.556387</v>
       </c>
       <c r="D112" t="n">
-        <v>0.490543</v>
+        <v>0.498916</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.5609150000000001</v>
+        <v>0.598065</v>
       </c>
       <c r="C113" t="n">
-        <v>0.550616</v>
+        <v>0.549558</v>
       </c>
       <c r="D113" t="n">
-        <v>0.488676</v>
+        <v>0.487998</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.5804009999999999</v>
+        <v>0.586856</v>
       </c>
       <c r="C114" t="n">
-        <v>0.578861</v>
+        <v>0.551055</v>
       </c>
       <c r="D114" t="n">
-        <v>0.491045</v>
+        <v>0.493235</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.595584</v>
+        <v>0.575408</v>
       </c>
       <c r="C115" t="n">
-        <v>0.5690269999999999</v>
+        <v>0.574311</v>
       </c>
       <c r="D115" t="n">
-        <v>0.517041</v>
+        <v>0.513189</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.602411</v>
+        <v>0.591321</v>
       </c>
       <c r="C116" t="n">
-        <v>0.591549</v>
+        <v>0.5785090000000001</v>
       </c>
       <c r="D116" t="n">
-        <v>0.5147119999999999</v>
+        <v>0.518965</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.630624</v>
+        <v>0.627259</v>
       </c>
       <c r="C117" t="n">
-        <v>0.618993</v>
+        <v>0.588823</v>
       </c>
       <c r="D117" t="n">
-        <v>0.5268389999999999</v>
+        <v>0.516311</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.621234</v>
+        <v>0.62302</v>
       </c>
       <c r="C118" t="n">
-        <v>0.630072</v>
+        <v>0.629347</v>
       </c>
       <c r="D118" t="n">
-        <v>0.553702</v>
+        <v>0.525227</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.667678</v>
+        <v>0.626308</v>
       </c>
       <c r="C119" t="n">
-        <v>0.650876</v>
+        <v>0.654927</v>
       </c>
       <c r="D119" t="n">
-        <v>0.549678</v>
+        <v>0.554901</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.661601</v>
+        <v>0.660276</v>
       </c>
       <c r="C120" t="n">
-        <v>0.6742629999999999</v>
+        <v>0.670152</v>
       </c>
       <c r="D120" t="n">
-        <v>0.580853</v>
+        <v>0.567627</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.730765</v>
+        <v>0.679459</v>
       </c>
       <c r="C121" t="n">
-        <v>0.709149</v>
+        <v>0.70919</v>
       </c>
       <c r="D121" t="n">
-        <v>0.619679</v>
+        <v>0.589734</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.775658</v>
+        <v>0.763714</v>
       </c>
       <c r="C122" t="n">
-        <v>0.770865</v>
+        <v>0.792171</v>
       </c>
       <c r="D122" t="n">
-        <v>0.643888</v>
+        <v>0.648533</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.869823</v>
+        <v>0.840473</v>
       </c>
       <c r="C123" t="n">
-        <v>0.899721</v>
+        <v>0.879677</v>
       </c>
       <c r="D123" t="n">
-        <v>0.733589</v>
+        <v>0.756471</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.886506</v>
+        <v>0.896347</v>
       </c>
       <c r="C124" t="n">
-        <v>0.83917</v>
+        <v>0.81837</v>
       </c>
       <c r="D124" t="n">
-        <v>0.729173</v>
+        <v>0.763257</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.902151</v>
+        <v>0.889742</v>
       </c>
       <c r="C125" t="n">
-        <v>0.845596</v>
+        <v>0.841113</v>
       </c>
       <c r="D125" t="n">
-        <v>0.782186</v>
+        <v>0.742846</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.915594</v>
+        <v>0.919409</v>
       </c>
       <c r="C126" t="n">
-        <v>0.81185</v>
+        <v>0.852962</v>
       </c>
       <c r="D126" t="n">
-        <v>0.786219</v>
+        <v>0.812057</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.921884</v>
+        <v>0.886261</v>
       </c>
       <c r="C127" t="n">
-        <v>0.88827</v>
+        <v>0.811542</v>
       </c>
       <c r="D127" t="n">
-        <v>0.8096</v>
+        <v>0.772255</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.939981</v>
+        <v>0.9105490000000001</v>
       </c>
       <c r="C128" t="n">
-        <v>0.8666160000000001</v>
+        <v>0.8709789999999999</v>
       </c>
       <c r="D128" t="n">
-        <v>0.792864</v>
+        <v>0.763557</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.964133</v>
+        <v>0.930673</v>
       </c>
       <c r="C129" t="n">
-        <v>0.859997</v>
+        <v>0.856673</v>
       </c>
       <c r="D129" t="n">
-        <v>0.814824</v>
+        <v>0.779402</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.941659</v>
+        <v>0.945711</v>
       </c>
       <c r="C130" t="n">
-        <v>0.848365</v>
+        <v>0.887828</v>
       </c>
       <c r="D130" t="n">
-        <v>0.810409</v>
+        <v>0.808761</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.994533</v>
+        <v>0.9457449999999999</v>
       </c>
       <c r="C131" t="n">
-        <v>0.8866540000000001</v>
+        <v>0.9116919999999999</v>
       </c>
       <c r="D131" t="n">
-        <v>0.79004</v>
+        <v>0.82875</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.955078</v>
+        <v>0.9933340000000001</v>
       </c>
       <c r="C132" t="n">
-        <v>0.921181</v>
+        <v>0.920983</v>
       </c>
       <c r="D132" t="n">
-        <v>0.807937</v>
+        <v>0.834887</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.0424</v>
+        <v>0.991932</v>
       </c>
       <c r="C133" t="n">
-        <v>0.970399</v>
+        <v>0.955059</v>
       </c>
       <c r="D133" t="n">
-        <v>0.824399</v>
+        <v>0.857778</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.06366</v>
+        <v>1.0602</v>
       </c>
       <c r="C134" t="n">
-        <v>0.964168</v>
+        <v>0.994425</v>
       </c>
       <c r="D134" t="n">
-        <v>0.894154</v>
+        <v>0.8758359999999999</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.06321</v>
+        <v>1.07615</v>
       </c>
       <c r="C135" t="n">
-        <v>1.02639</v>
+        <v>1.04057</v>
       </c>
       <c r="D135" t="n">
-        <v>0.919336</v>
+        <v>0.9264</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.12025</v>
+        <v>1.13007</v>
       </c>
       <c r="C136" t="n">
-        <v>1.11714</v>
+        <v>1.10634</v>
       </c>
       <c r="D136" t="n">
-        <v>0.9789949999999999</v>
+        <v>0.955309</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.2642</v>
+        <v>1.21935</v>
       </c>
       <c r="C137" t="n">
-        <v>1.22394</v>
+        <v>1.22217</v>
       </c>
       <c r="D137" t="n">
-        <v>1.04115</v>
+        <v>0.999266</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.24144</v>
+        <v>1.19373</v>
       </c>
       <c r="C138" t="n">
-        <v>1.07257</v>
+        <v>1.06285</v>
       </c>
       <c r="D138" t="n">
-        <v>1.00083</v>
+        <v>0.9927049999999999</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.19014</v>
+        <v>1.20805</v>
       </c>
       <c r="C139" t="n">
-        <v>1.10568</v>
+        <v>1.06339</v>
       </c>
       <c r="D139" t="n">
-        <v>1.00603</v>
+        <v>0.996139</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.25131</v>
+        <v>1.21012</v>
       </c>
       <c r="C140" t="n">
-        <v>1.06753</v>
+        <v>1.07178</v>
       </c>
       <c r="D140" t="n">
-        <v>1.0053</v>
+        <v>1.00185</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.24533</v>
+        <v>1.24615</v>
       </c>
       <c r="C141" t="n">
-        <v>1.10885</v>
+        <v>1.09873</v>
       </c>
       <c r="D141" t="n">
-        <v>1.01418</v>
+        <v>1.01258</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.20708</v>
+        <v>1.2575</v>
       </c>
       <c r="C142" t="n">
-        <v>1.12675</v>
+        <v>1.08388</v>
       </c>
       <c r="D142" t="n">
-        <v>1.01636</v>
+        <v>1.00298</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.20777</v>
+        <v>1.21325</v>
       </c>
       <c r="C143" t="n">
-        <v>1.09294</v>
+        <v>1.1323</v>
       </c>
       <c r="D143" t="n">
-        <v>1.00817</v>
+        <v>1.02643</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered unsuccessful looukp.xlsx
+++ b/vs-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.338356</v>
+        <v>0.346855</v>
       </c>
       <c r="C2" t="n">
-        <v>0.369548</v>
+        <v>0.382895</v>
       </c>
       <c r="D2" t="n">
-        <v>0.323724</v>
+        <v>0.332284</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.336359</v>
+        <v>0.346039</v>
       </c>
       <c r="C3" t="n">
-        <v>0.383073</v>
+        <v>0.343827</v>
       </c>
       <c r="D3" t="n">
-        <v>0.332823</v>
+        <v>0.34637</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.34253</v>
+        <v>0.340238</v>
       </c>
       <c r="C4" t="n">
-        <v>0.383286</v>
+        <v>0.356715</v>
       </c>
       <c r="D4" t="n">
-        <v>0.332186</v>
+        <v>0.341457</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.344334</v>
+        <v>0.345736</v>
       </c>
       <c r="C5" t="n">
-        <v>0.390326</v>
+        <v>0.373349</v>
       </c>
       <c r="D5" t="n">
-        <v>0.340572</v>
+        <v>0.350984</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.376674</v>
+        <v>0.360548</v>
       </c>
       <c r="C6" t="n">
-        <v>0.40042</v>
+        <v>0.378432</v>
       </c>
       <c r="D6" t="n">
-        <v>0.359409</v>
+        <v>0.369086</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.380895</v>
+        <v>0.383486</v>
       </c>
       <c r="C7" t="n">
-        <v>0.42661</v>
+        <v>0.404376</v>
       </c>
       <c r="D7" t="n">
-        <v>0.379847</v>
+        <v>0.381698</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.409377</v>
+        <v>0.412366</v>
       </c>
       <c r="C8" t="n">
-        <v>0.463733</v>
+        <v>0.433405</v>
       </c>
       <c r="D8" t="n">
-        <v>0.410659</v>
+        <v>0.401014</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.457625</v>
+        <v>0.449099</v>
       </c>
       <c r="C9" t="n">
-        <v>0.513644</v>
+        <v>0.490357</v>
       </c>
       <c r="D9" t="n">
-        <v>0.325009</v>
+        <v>0.317353</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.327103</v>
+        <v>0.322723</v>
       </c>
       <c r="C10" t="n">
-        <v>0.364785</v>
+        <v>0.32919</v>
       </c>
       <c r="D10" t="n">
-        <v>0.318069</v>
+        <v>0.328877</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.327393</v>
+        <v>0.326651</v>
       </c>
       <c r="C11" t="n">
-        <v>0.37118</v>
+        <v>0.337425</v>
       </c>
       <c r="D11" t="n">
-        <v>0.316242</v>
+        <v>0.316658</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.333152</v>
+        <v>0.331236</v>
       </c>
       <c r="C12" t="n">
-        <v>0.36876</v>
+        <v>0.332324</v>
       </c>
       <c r="D12" t="n">
-        <v>0.31899</v>
+        <v>0.320959</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.341634</v>
+        <v>0.320981</v>
       </c>
       <c r="C13" t="n">
-        <v>0.364483</v>
+        <v>0.335172</v>
       </c>
       <c r="D13" t="n">
-        <v>0.317279</v>
+        <v>0.320512</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.334381</v>
+        <v>0.329039</v>
       </c>
       <c r="C14" t="n">
-        <v>0.365654</v>
+        <v>0.348084</v>
       </c>
       <c r="D14" t="n">
-        <v>0.327051</v>
+        <v>0.327343</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.342095</v>
+        <v>0.330351</v>
       </c>
       <c r="C15" t="n">
-        <v>0.377892</v>
+        <v>0.339391</v>
       </c>
       <c r="D15" t="n">
-        <v>0.336618</v>
+        <v>0.325927</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.337066</v>
+        <v>0.329388</v>
       </c>
       <c r="C16" t="n">
-        <v>0.383023</v>
+        <v>0.347396</v>
       </c>
       <c r="D16" t="n">
-        <v>0.332166</v>
+        <v>0.331956</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.33841</v>
+        <v>0.33504</v>
       </c>
       <c r="C17" t="n">
-        <v>0.378205</v>
+        <v>0.350314</v>
       </c>
       <c r="D17" t="n">
-        <v>0.337578</v>
+        <v>0.327313</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.343225</v>
+        <v>0.334168</v>
       </c>
       <c r="C18" t="n">
-        <v>0.396555</v>
+        <v>0.357687</v>
       </c>
       <c r="D18" t="n">
-        <v>0.361699</v>
+        <v>0.342589</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.360821</v>
+        <v>0.367357</v>
       </c>
       <c r="C19" t="n">
-        <v>0.38962</v>
+        <v>0.356223</v>
       </c>
       <c r="D19" t="n">
-        <v>0.338701</v>
+        <v>0.354281</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.367782</v>
+        <v>0.361939</v>
       </c>
       <c r="C20" t="n">
-        <v>0.40179</v>
+        <v>0.372684</v>
       </c>
       <c r="D20" t="n">
-        <v>0.355065</v>
+        <v>0.359865</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.379141</v>
+        <v>0.370739</v>
       </c>
       <c r="C21" t="n">
-        <v>0.409028</v>
+        <v>0.391485</v>
       </c>
       <c r="D21" t="n">
-        <v>0.363897</v>
+        <v>0.376965</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.407138</v>
+        <v>0.414272</v>
       </c>
       <c r="C22" t="n">
-        <v>0.434072</v>
+        <v>0.415451</v>
       </c>
       <c r="D22" t="n">
-        <v>0.416538</v>
+        <v>0.424156</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.436697</v>
+        <v>0.449067</v>
       </c>
       <c r="C23" t="n">
-        <v>0.491125</v>
+        <v>0.471675</v>
       </c>
       <c r="D23" t="n">
-        <v>0.32297</v>
+        <v>0.321656</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.33026</v>
+        <v>0.329748</v>
       </c>
       <c r="C24" t="n">
-        <v>0.358339</v>
+        <v>0.331798</v>
       </c>
       <c r="D24" t="n">
-        <v>0.331464</v>
+        <v>0.31421</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.32568</v>
+        <v>0.326361</v>
       </c>
       <c r="C25" t="n">
-        <v>0.371902</v>
+        <v>0.339134</v>
       </c>
       <c r="D25" t="n">
-        <v>0.314329</v>
+        <v>0.327962</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.351916</v>
+        <v>0.333958</v>
       </c>
       <c r="C26" t="n">
-        <v>0.374756</v>
+        <v>0.33284</v>
       </c>
       <c r="D26" t="n">
-        <v>0.315939</v>
+        <v>0.314995</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.332226</v>
+        <v>0.330574</v>
       </c>
       <c r="C27" t="n">
-        <v>0.386866</v>
+        <v>0.336972</v>
       </c>
       <c r="D27" t="n">
-        <v>0.318657</v>
+        <v>0.318939</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.337308</v>
+        <v>0.329405</v>
       </c>
       <c r="C28" t="n">
-        <v>0.364237</v>
+        <v>0.345809</v>
       </c>
       <c r="D28" t="n">
-        <v>0.323022</v>
+        <v>0.328491</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.339276</v>
+        <v>0.343726</v>
       </c>
       <c r="C29" t="n">
-        <v>0.367693</v>
+        <v>0.353602</v>
       </c>
       <c r="D29" t="n">
-        <v>0.327014</v>
+        <v>0.335027</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.333473</v>
+        <v>0.34188</v>
       </c>
       <c r="C30" t="n">
-        <v>0.369934</v>
+        <v>0.3386</v>
       </c>
       <c r="D30" t="n">
-        <v>0.336674</v>
+        <v>0.33442</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.346104</v>
+        <v>0.348227</v>
       </c>
       <c r="C31" t="n">
-        <v>0.375828</v>
+        <v>0.356717</v>
       </c>
       <c r="D31" t="n">
-        <v>0.326047</v>
+        <v>0.325584</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.340525</v>
+        <v>0.340916</v>
       </c>
       <c r="C32" t="n">
-        <v>0.389249</v>
+        <v>0.351462</v>
       </c>
       <c r="D32" t="n">
-        <v>0.334934</v>
+        <v>0.327584</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.34119</v>
+        <v>0.36086</v>
       </c>
       <c r="C33" t="n">
-        <v>0.381714</v>
+        <v>0.3567</v>
       </c>
       <c r="D33" t="n">
-        <v>0.339234</v>
+        <v>0.345995</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.356026</v>
+        <v>0.355245</v>
       </c>
       <c r="C34" t="n">
-        <v>0.392911</v>
+        <v>0.365167</v>
       </c>
       <c r="D34" t="n">
-        <v>0.358164</v>
+        <v>0.351221</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.377671</v>
+        <v>0.3751</v>
       </c>
       <c r="C35" t="n">
-        <v>0.396178</v>
+        <v>0.381248</v>
       </c>
       <c r="D35" t="n">
-        <v>0.359</v>
+        <v>0.36275</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.388397</v>
+        <v>0.389463</v>
       </c>
       <c r="C36" t="n">
-        <v>0.417913</v>
+        <v>0.40446</v>
       </c>
       <c r="D36" t="n">
-        <v>0.387206</v>
+        <v>0.385639</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.424527</v>
+        <v>0.432916</v>
       </c>
       <c r="C37" t="n">
-        <v>0.462321</v>
+        <v>0.459815</v>
       </c>
       <c r="D37" t="n">
-        <v>0.318011</v>
+        <v>0.316738</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.326796</v>
+        <v>0.325597</v>
       </c>
       <c r="C38" t="n">
-        <v>0.376525</v>
+        <v>0.336781</v>
       </c>
       <c r="D38" t="n">
-        <v>0.318808</v>
+        <v>0.31841</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.329486</v>
+        <v>0.335471</v>
       </c>
       <c r="C39" t="n">
-        <v>0.374685</v>
+        <v>0.329027</v>
       </c>
       <c r="D39" t="n">
-        <v>0.318769</v>
+        <v>0.326054</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.324805</v>
+        <v>0.332956</v>
       </c>
       <c r="C40" t="n">
-        <v>0.371605</v>
+        <v>0.338217</v>
       </c>
       <c r="D40" t="n">
-        <v>0.327494</v>
+        <v>0.314913</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.331067</v>
+        <v>0.330432</v>
       </c>
       <c r="C41" t="n">
-        <v>0.362747</v>
+        <v>0.347194</v>
       </c>
       <c r="D41" t="n">
-        <v>0.326807</v>
+        <v>0.316416</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.328826</v>
+        <v>0.340604</v>
       </c>
       <c r="C42" t="n">
-        <v>0.365486</v>
+        <v>0.335938</v>
       </c>
       <c r="D42" t="n">
-        <v>0.32175</v>
+        <v>0.337653</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.330694</v>
+        <v>0.341482</v>
       </c>
       <c r="C43" t="n">
-        <v>0.368765</v>
+        <v>0.353012</v>
       </c>
       <c r="D43" t="n">
-        <v>0.319954</v>
+        <v>0.325106</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.342543</v>
+        <v>0.344412</v>
       </c>
       <c r="C44" t="n">
-        <v>0.378804</v>
+        <v>0.350877</v>
       </c>
       <c r="D44" t="n">
-        <v>0.324393</v>
+        <v>0.349632</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.339805</v>
+        <v>0.341737</v>
       </c>
       <c r="C45" t="n">
-        <v>0.387549</v>
+        <v>0.349938</v>
       </c>
       <c r="D45" t="n">
-        <v>0.349029</v>
+        <v>0.33636</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.356159</v>
+        <v>0.340612</v>
       </c>
       <c r="C46" t="n">
-        <v>0.384517</v>
+        <v>0.356431</v>
       </c>
       <c r="D46" t="n">
-        <v>0.335048</v>
+        <v>0.341382</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.346563</v>
+        <v>0.340555</v>
       </c>
       <c r="C47" t="n">
-        <v>0.400544</v>
+        <v>0.349561</v>
       </c>
       <c r="D47" t="n">
-        <v>0.336878</v>
+        <v>0.332419</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.361889</v>
+        <v>0.351498</v>
       </c>
       <c r="C48" t="n">
-        <v>0.394653</v>
+        <v>0.37103</v>
       </c>
       <c r="D48" t="n">
-        <v>0.347377</v>
+        <v>0.356363</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.372641</v>
+        <v>0.378453</v>
       </c>
       <c r="C49" t="n">
-        <v>0.416334</v>
+        <v>0.383364</v>
       </c>
       <c r="D49" t="n">
-        <v>0.357396</v>
+        <v>0.358479</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.393021</v>
+        <v>0.39931</v>
       </c>
       <c r="C50" t="n">
-        <v>0.42713</v>
+        <v>0.409111</v>
       </c>
       <c r="D50" t="n">
-        <v>0.395189</v>
+        <v>0.391494</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.428088</v>
+        <v>0.422441</v>
       </c>
       <c r="C51" t="n">
-        <v>0.465458</v>
+        <v>0.440449</v>
       </c>
       <c r="D51" t="n">
-        <v>0.323082</v>
+        <v>0.324944</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.477008</v>
+        <v>0.49903</v>
       </c>
       <c r="C52" t="n">
-        <v>0.513382</v>
+        <v>0.526653</v>
       </c>
       <c r="D52" t="n">
-        <v>0.329108</v>
+        <v>0.323076</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.334312</v>
+        <v>0.332136</v>
       </c>
       <c r="C53" t="n">
-        <v>0.370886</v>
+        <v>0.350198</v>
       </c>
       <c r="D53" t="n">
-        <v>0.325138</v>
+        <v>0.321453</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.340715</v>
+        <v>0.330001</v>
       </c>
       <c r="C54" t="n">
-        <v>0.367769</v>
+        <v>0.348513</v>
       </c>
       <c r="D54" t="n">
-        <v>0.327448</v>
+        <v>0.333783</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.344797</v>
+        <v>0.332569</v>
       </c>
       <c r="C55" t="n">
-        <v>0.365964</v>
+        <v>0.335499</v>
       </c>
       <c r="D55" t="n">
-        <v>0.322999</v>
+        <v>0.328139</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.3397</v>
+        <v>0.341492</v>
       </c>
       <c r="C56" t="n">
-        <v>0.396287</v>
+        <v>0.343355</v>
       </c>
       <c r="D56" t="n">
-        <v>0.32444</v>
+        <v>0.317623</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.361721</v>
+        <v>0.333706</v>
       </c>
       <c r="C57" t="n">
-        <v>0.38382</v>
+        <v>0.340879</v>
       </c>
       <c r="D57" t="n">
-        <v>0.320829</v>
+        <v>0.324397</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.340913</v>
+        <v>0.335509</v>
       </c>
       <c r="C58" t="n">
-        <v>0.378336</v>
+        <v>0.34568</v>
       </c>
       <c r="D58" t="n">
-        <v>0.325415</v>
+        <v>0.349178</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.364259</v>
+        <v>0.358842</v>
       </c>
       <c r="C59" t="n">
-        <v>0.388351</v>
+        <v>0.35983</v>
       </c>
       <c r="D59" t="n">
-        <v>0.339534</v>
+        <v>0.332645</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.358114</v>
+        <v>0.355542</v>
       </c>
       <c r="C60" t="n">
-        <v>0.392717</v>
+        <v>0.34805</v>
       </c>
       <c r="D60" t="n">
-        <v>0.335771</v>
+        <v>0.33306</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.35492</v>
+        <v>0.368353</v>
       </c>
       <c r="C61" t="n">
-        <v>0.390811</v>
+        <v>0.360391</v>
       </c>
       <c r="D61" t="n">
-        <v>0.348581</v>
+        <v>0.36118</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.364312</v>
+        <v>0.384212</v>
       </c>
       <c r="C62" t="n">
-        <v>0.404781</v>
+        <v>0.373778</v>
       </c>
       <c r="D62" t="n">
-        <v>0.356564</v>
+        <v>0.351591</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.387191</v>
+        <v>0.398879</v>
       </c>
       <c r="C63" t="n">
-        <v>0.406665</v>
+        <v>0.382741</v>
       </c>
       <c r="D63" t="n">
-        <v>0.37807</v>
+        <v>0.379109</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.401678</v>
+        <v>0.408993</v>
       </c>
       <c r="C64" t="n">
-        <v>0.450627</v>
+        <v>0.419761</v>
       </c>
       <c r="D64" t="n">
-        <v>0.383703</v>
+        <v>0.382412</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.47344</v>
+        <v>0.426408</v>
       </c>
       <c r="C65" t="n">
-        <v>0.471236</v>
+        <v>0.45197</v>
       </c>
       <c r="D65" t="n">
-        <v>0.439022</v>
+        <v>0.418589</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.492701</v>
+        <v>0.508146</v>
       </c>
       <c r="C66" t="n">
-        <v>0.524139</v>
+        <v>0.510162</v>
       </c>
       <c r="D66" t="n">
-        <v>0.324433</v>
+        <v>0.326667</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.356436</v>
+        <v>0.34253</v>
       </c>
       <c r="C67" t="n">
-        <v>0.380957</v>
+        <v>0.353579</v>
       </c>
       <c r="D67" t="n">
-        <v>0.32714</v>
+        <v>0.338976</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.360411</v>
+        <v>0.35038</v>
       </c>
       <c r="C68" t="n">
-        <v>0.389537</v>
+        <v>0.341348</v>
       </c>
       <c r="D68" t="n">
-        <v>0.330367</v>
+        <v>0.326468</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.359962</v>
+        <v>0.359728</v>
       </c>
       <c r="C69" t="n">
-        <v>0.388011</v>
+        <v>0.359751</v>
       </c>
       <c r="D69" t="n">
-        <v>0.33187</v>
+        <v>0.336809</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.36151</v>
+        <v>0.359228</v>
       </c>
       <c r="C70" t="n">
-        <v>0.392432</v>
+        <v>0.355233</v>
       </c>
       <c r="D70" t="n">
-        <v>0.337183</v>
+        <v>0.331581</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.358217</v>
+        <v>0.353998</v>
       </c>
       <c r="C71" t="n">
-        <v>0.399337</v>
+        <v>0.359223</v>
       </c>
       <c r="D71" t="n">
-        <v>0.323092</v>
+        <v>0.338925</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.356636</v>
+        <v>0.366113</v>
       </c>
       <c r="C72" t="n">
-        <v>0.394091</v>
+        <v>0.364723</v>
       </c>
       <c r="D72" t="n">
-        <v>0.337417</v>
+        <v>0.341086</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.371887</v>
+        <v>0.364732</v>
       </c>
       <c r="C73" t="n">
-        <v>0.39359</v>
+        <v>0.37607</v>
       </c>
       <c r="D73" t="n">
-        <v>0.350514</v>
+        <v>0.335672</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.381124</v>
+        <v>0.376698</v>
       </c>
       <c r="C74" t="n">
-        <v>0.403762</v>
+        <v>0.376079</v>
       </c>
       <c r="D74" t="n">
-        <v>0.353338</v>
+        <v>0.344355</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.381679</v>
+        <v>0.375288</v>
       </c>
       <c r="C75" t="n">
-        <v>0.412099</v>
+        <v>0.388476</v>
       </c>
       <c r="D75" t="n">
-        <v>0.351255</v>
+        <v>0.360211</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.392285</v>
+        <v>0.385375</v>
       </c>
       <c r="C76" t="n">
-        <v>0.442623</v>
+        <v>0.393133</v>
       </c>
       <c r="D76" t="n">
-        <v>0.362401</v>
+        <v>0.363769</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.409645</v>
+        <v>0.417741</v>
       </c>
       <c r="C77" t="n">
-        <v>0.430758</v>
+        <v>0.406652</v>
       </c>
       <c r="D77" t="n">
-        <v>0.377795</v>
+        <v>0.377607</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.434409</v>
+        <v>0.428131</v>
       </c>
       <c r="C78" t="n">
-        <v>0.450115</v>
+        <v>0.439278</v>
       </c>
       <c r="D78" t="n">
-        <v>0.393829</v>
+        <v>0.403531</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.458345</v>
+        <v>0.468123</v>
       </c>
       <c r="C79" t="n">
-        <v>0.483473</v>
+        <v>0.466301</v>
       </c>
       <c r="D79" t="n">
-        <v>0.427122</v>
+        <v>0.430126</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.518249</v>
+        <v>0.528143</v>
       </c>
       <c r="C80" t="n">
-        <v>0.540786</v>
+        <v>0.526441</v>
       </c>
       <c r="D80" t="n">
-        <v>0.325273</v>
+        <v>0.332561</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.366417</v>
+        <v>0.378303</v>
       </c>
       <c r="C81" t="n">
-        <v>0.3963</v>
+        <v>0.358522</v>
       </c>
       <c r="D81" t="n">
-        <v>0.33431</v>
+        <v>0.332577</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.384612</v>
+        <v>0.372891</v>
       </c>
       <c r="C82" t="n">
-        <v>0.402634</v>
+        <v>0.367564</v>
       </c>
       <c r="D82" t="n">
-        <v>0.335997</v>
+        <v>0.338661</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.371111</v>
+        <v>0.379509</v>
       </c>
       <c r="C83" t="n">
-        <v>0.391841</v>
+        <v>0.362229</v>
       </c>
       <c r="D83" t="n">
-        <v>0.3496</v>
+        <v>0.334645</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.389701</v>
+        <v>0.37888</v>
       </c>
       <c r="C84" t="n">
-        <v>0.409615</v>
+        <v>0.373431</v>
       </c>
       <c r="D84" t="n">
-        <v>0.332417</v>
+        <v>0.354708</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.383174</v>
+        <v>0.393079</v>
       </c>
       <c r="C85" t="n">
-        <v>0.400166</v>
+        <v>0.378437</v>
       </c>
       <c r="D85" t="n">
-        <v>0.336336</v>
+        <v>0.343372</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.402655</v>
+        <v>0.385716</v>
       </c>
       <c r="C86" t="n">
-        <v>0.405181</v>
+        <v>0.381167</v>
       </c>
       <c r="D86" t="n">
-        <v>0.341314</v>
+        <v>0.341689</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.39525</v>
+        <v>0.399491</v>
       </c>
       <c r="C87" t="n">
-        <v>0.414072</v>
+        <v>0.372077</v>
       </c>
       <c r="D87" t="n">
-        <v>0.3518</v>
+        <v>0.354645</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.401782</v>
+        <v>0.40334</v>
       </c>
       <c r="C88" t="n">
-        <v>0.418064</v>
+        <v>0.389778</v>
       </c>
       <c r="D88" t="n">
-        <v>0.349731</v>
+        <v>0.35606</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.412248</v>
+        <v>0.404452</v>
       </c>
       <c r="C89" t="n">
-        <v>0.44272</v>
+        <v>0.406473</v>
       </c>
       <c r="D89" t="n">
-        <v>0.372964</v>
+        <v>0.363253</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.429179</v>
+        <v>0.419265</v>
       </c>
       <c r="C90" t="n">
-        <v>0.447899</v>
+        <v>0.407176</v>
       </c>
       <c r="D90" t="n">
-        <v>0.366532</v>
+        <v>0.385167</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.435765</v>
+        <v>0.436182</v>
       </c>
       <c r="C91" t="n">
-        <v>0.467179</v>
+        <v>0.41786</v>
       </c>
       <c r="D91" t="n">
-        <v>0.392127</v>
+        <v>0.388721</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.462825</v>
+        <v>0.474927</v>
       </c>
       <c r="C92" t="n">
-        <v>0.478088</v>
+        <v>0.469794</v>
       </c>
       <c r="D92" t="n">
-        <v>0.411834</v>
+        <v>0.429261</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.495985</v>
+        <v>0.502209</v>
       </c>
       <c r="C93" t="n">
-        <v>0.5145690000000001</v>
+        <v>0.499497</v>
       </c>
       <c r="D93" t="n">
-        <v>0.475528</v>
+        <v>0.443637</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.5478769999999999</v>
+        <v>0.551743</v>
       </c>
       <c r="C94" t="n">
-        <v>0.601074</v>
+        <v>0.596665</v>
       </c>
       <c r="D94" t="n">
-        <v>0.360751</v>
+        <v>0.346072</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.429221</v>
+        <v>0.420144</v>
       </c>
       <c r="C95" t="n">
-        <v>0.425749</v>
+        <v>0.392961</v>
       </c>
       <c r="D95" t="n">
-        <v>0.353141</v>
+        <v>0.352101</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.421751</v>
+        <v>0.428525</v>
       </c>
       <c r="C96" t="n">
-        <v>0.435527</v>
+        <v>0.421953</v>
       </c>
       <c r="D96" t="n">
-        <v>0.356602</v>
+        <v>0.360569</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.423867</v>
+        <v>0.423056</v>
       </c>
       <c r="C97" t="n">
-        <v>0.451752</v>
+        <v>0.411845</v>
       </c>
       <c r="D97" t="n">
-        <v>0.368323</v>
+        <v>0.360246</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.453185</v>
+        <v>0.434863</v>
       </c>
       <c r="C98" t="n">
-        <v>0.440577</v>
+        <v>0.405514</v>
       </c>
       <c r="D98" t="n">
-        <v>0.366995</v>
+        <v>0.370893</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.43924</v>
+        <v>0.432753</v>
       </c>
       <c r="C99" t="n">
-        <v>0.455199</v>
+        <v>0.425374</v>
       </c>
       <c r="D99" t="n">
-        <v>0.364499</v>
+        <v>0.362524</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.447604</v>
+        <v>0.433818</v>
       </c>
       <c r="C100" t="n">
-        <v>0.446402</v>
+        <v>0.43009</v>
       </c>
       <c r="D100" t="n">
-        <v>0.371616</v>
+        <v>0.388511</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.45009</v>
+        <v>0.444705</v>
       </c>
       <c r="C101" t="n">
-        <v>0.458748</v>
+        <v>0.446669</v>
       </c>
       <c r="D101" t="n">
-        <v>0.386373</v>
+        <v>0.372052</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.456927</v>
+        <v>0.443957</v>
       </c>
       <c r="C102" t="n">
-        <v>0.473461</v>
+        <v>0.453139</v>
       </c>
       <c r="D102" t="n">
-        <v>0.388661</v>
+        <v>0.388739</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.468172</v>
+        <v>0.468457</v>
       </c>
       <c r="C103" t="n">
-        <v>0.477723</v>
+        <v>0.451028</v>
       </c>
       <c r="D103" t="n">
-        <v>0.393651</v>
+        <v>0.401175</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.487473</v>
+        <v>0.488283</v>
       </c>
       <c r="C104" t="n">
-        <v>0.485126</v>
+        <v>0.477869</v>
       </c>
       <c r="D104" t="n">
-        <v>0.414521</v>
+        <v>0.410832</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.5038899999999999</v>
+        <v>0.512589</v>
       </c>
       <c r="C105" t="n">
-        <v>0.510037</v>
+        <v>0.487401</v>
       </c>
       <c r="D105" t="n">
-        <v>0.438214</v>
+        <v>0.414896</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.526821</v>
+        <v>0.523608</v>
       </c>
       <c r="C106" t="n">
-        <v>0.543476</v>
+        <v>0.505005</v>
       </c>
       <c r="D106" t="n">
-        <v>0.442336</v>
+        <v>0.439801</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.567186</v>
+        <v>0.561886</v>
       </c>
       <c r="C107" t="n">
-        <v>0.5875</v>
+        <v>0.552888</v>
       </c>
       <c r="D107" t="n">
-        <v>0.487173</v>
+        <v>0.481457</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.632617</v>
+        <v>0.616672</v>
       </c>
       <c r="C108" t="n">
-        <v>0.629833</v>
+        <v>0.604685</v>
       </c>
       <c r="D108" t="n">
-        <v>0.476187</v>
+        <v>0.441113</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.719425</v>
+        <v>0.689001</v>
       </c>
       <c r="C109" t="n">
-        <v>0.735623</v>
+        <v>0.703162</v>
       </c>
       <c r="D109" t="n">
-        <v>0.495783</v>
+        <v>0.449632</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.566604</v>
+        <v>0.528888</v>
       </c>
       <c r="C110" t="n">
-        <v>0.542944</v>
+        <v>0.497594</v>
       </c>
       <c r="D110" t="n">
-        <v>0.497753</v>
+        <v>0.469417</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.559874</v>
+        <v>0.557149</v>
       </c>
       <c r="C111" t="n">
-        <v>0.533693</v>
+        <v>0.526169</v>
       </c>
       <c r="D111" t="n">
-        <v>0.473312</v>
+        <v>0.473579</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.583086</v>
+        <v>0.5524250000000001</v>
       </c>
       <c r="C112" t="n">
-        <v>0.556387</v>
+        <v>0.530989</v>
       </c>
       <c r="D112" t="n">
-        <v>0.498916</v>
+        <v>0.492465</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.598065</v>
+        <v>0.575798</v>
       </c>
       <c r="C113" t="n">
-        <v>0.549558</v>
+        <v>0.565254</v>
       </c>
       <c r="D113" t="n">
-        <v>0.487998</v>
+        <v>0.462699</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.586856</v>
+        <v>0.552552</v>
       </c>
       <c r="C114" t="n">
-        <v>0.551055</v>
+        <v>0.5207000000000001</v>
       </c>
       <c r="D114" t="n">
-        <v>0.493235</v>
+        <v>0.482423</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.575408</v>
+        <v>0.565477</v>
       </c>
       <c r="C115" t="n">
-        <v>0.574311</v>
+        <v>0.546347</v>
       </c>
       <c r="D115" t="n">
-        <v>0.513189</v>
+        <v>0.498212</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.591321</v>
+        <v>0.6265770000000001</v>
       </c>
       <c r="C116" t="n">
-        <v>0.5785090000000001</v>
+        <v>0.573881</v>
       </c>
       <c r="D116" t="n">
-        <v>0.518965</v>
+        <v>0.507396</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.627259</v>
+        <v>0.582086</v>
       </c>
       <c r="C117" t="n">
-        <v>0.588823</v>
+        <v>0.565335</v>
       </c>
       <c r="D117" t="n">
-        <v>0.516311</v>
+        <v>0.498967</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.62302</v>
+        <v>0.626176</v>
       </c>
       <c r="C118" t="n">
-        <v>0.629347</v>
+        <v>0.611384</v>
       </c>
       <c r="D118" t="n">
-        <v>0.525227</v>
+        <v>0.5349739999999999</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.626308</v>
+        <v>0.645935</v>
       </c>
       <c r="C119" t="n">
-        <v>0.654927</v>
+        <v>0.648607</v>
       </c>
       <c r="D119" t="n">
-        <v>0.554901</v>
+        <v>0.5423829999999999</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.660276</v>
+        <v>0.675004</v>
       </c>
       <c r="C120" t="n">
-        <v>0.670152</v>
+        <v>0.648443</v>
       </c>
       <c r="D120" t="n">
-        <v>0.567627</v>
+        <v>0.594987</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.679459</v>
+        <v>0.710935</v>
       </c>
       <c r="C121" t="n">
-        <v>0.70919</v>
+        <v>0.682649</v>
       </c>
       <c r="D121" t="n">
-        <v>0.589734</v>
+        <v>0.626545</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.763714</v>
+        <v>0.7653990000000001</v>
       </c>
       <c r="C122" t="n">
-        <v>0.792171</v>
+        <v>0.753181</v>
       </c>
       <c r="D122" t="n">
-        <v>0.648533</v>
+        <v>0.649547</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.840473</v>
+        <v>0.869876</v>
       </c>
       <c r="C123" t="n">
-        <v>0.879677</v>
+        <v>0.875418</v>
       </c>
       <c r="D123" t="n">
-        <v>0.756471</v>
+        <v>0.750936</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.896347</v>
+        <v>0.90594</v>
       </c>
       <c r="C124" t="n">
-        <v>0.81837</v>
+        <v>0.790008</v>
       </c>
       <c r="D124" t="n">
-        <v>0.763257</v>
+        <v>0.74625</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.889742</v>
+        <v>0.926709</v>
       </c>
       <c r="C125" t="n">
-        <v>0.841113</v>
+        <v>0.79791</v>
       </c>
       <c r="D125" t="n">
-        <v>0.742846</v>
+        <v>0.748204</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.919409</v>
+        <v>0.943098</v>
       </c>
       <c r="C126" t="n">
-        <v>0.852962</v>
+        <v>0.875661</v>
       </c>
       <c r="D126" t="n">
-        <v>0.812057</v>
+        <v>0.732555</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.886261</v>
+        <v>0.918438</v>
       </c>
       <c r="C127" t="n">
-        <v>0.811542</v>
+        <v>0.82067</v>
       </c>
       <c r="D127" t="n">
-        <v>0.772255</v>
+        <v>0.745238</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.9105490000000001</v>
+        <v>0.951676</v>
       </c>
       <c r="C128" t="n">
-        <v>0.8709789999999999</v>
+        <v>0.8400260000000001</v>
       </c>
       <c r="D128" t="n">
-        <v>0.763557</v>
+        <v>0.762131</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.930673</v>
+        <v>0.920273</v>
       </c>
       <c r="C129" t="n">
-        <v>0.856673</v>
+        <v>0.8519139999999999</v>
       </c>
       <c r="D129" t="n">
-        <v>0.779402</v>
+        <v>0.8414970000000001</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.945711</v>
+        <v>0.978017</v>
       </c>
       <c r="C130" t="n">
-        <v>0.887828</v>
+        <v>0.853006</v>
       </c>
       <c r="D130" t="n">
-        <v>0.808761</v>
+        <v>0.818966</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.9457449999999999</v>
+        <v>0.94092</v>
       </c>
       <c r="C131" t="n">
-        <v>0.9116919999999999</v>
+        <v>0.861008</v>
       </c>
       <c r="D131" t="n">
-        <v>0.82875</v>
+        <v>0.845016</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.9933340000000001</v>
+        <v>0.957055</v>
       </c>
       <c r="C132" t="n">
-        <v>0.920983</v>
+        <v>0.884507</v>
       </c>
       <c r="D132" t="n">
-        <v>0.834887</v>
+        <v>0.808964</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.991932</v>
+        <v>0.982941</v>
       </c>
       <c r="C133" t="n">
-        <v>0.955059</v>
+        <v>0.909954</v>
       </c>
       <c r="D133" t="n">
-        <v>0.857778</v>
+        <v>0.852185</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.0602</v>
+        <v>0.96954</v>
       </c>
       <c r="C134" t="n">
-        <v>0.994425</v>
+        <v>0.950871</v>
       </c>
       <c r="D134" t="n">
-        <v>0.8758359999999999</v>
+        <v>0.856726</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.07615</v>
+        <v>1.00729</v>
       </c>
       <c r="C135" t="n">
-        <v>1.04057</v>
+        <v>1.00383</v>
       </c>
       <c r="D135" t="n">
-        <v>0.9264</v>
+        <v>0.900621</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.13007</v>
+        <v>1.09252</v>
       </c>
       <c r="C136" t="n">
-        <v>1.10634</v>
+        <v>1.03887</v>
       </c>
       <c r="D136" t="n">
-        <v>0.955309</v>
+        <v>0.962461</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.21935</v>
+        <v>1.16895</v>
       </c>
       <c r="C137" t="n">
-        <v>1.22217</v>
+        <v>1.17612</v>
       </c>
       <c r="D137" t="n">
-        <v>0.999266</v>
+        <v>0.975878</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.19373</v>
+        <v>1.13418</v>
       </c>
       <c r="C138" t="n">
-        <v>1.06285</v>
+        <v>1.01415</v>
       </c>
       <c r="D138" t="n">
-        <v>0.9927049999999999</v>
+        <v>0.98649</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.20805</v>
+        <v>1.18443</v>
       </c>
       <c r="C139" t="n">
-        <v>1.06339</v>
+        <v>1.02968</v>
       </c>
       <c r="D139" t="n">
-        <v>0.996139</v>
+        <v>0.980687</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.21012</v>
+        <v>1.1431</v>
       </c>
       <c r="C140" t="n">
-        <v>1.07178</v>
+        <v>1.04155</v>
       </c>
       <c r="D140" t="n">
-        <v>1.00185</v>
+        <v>0.975468</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.24615</v>
+        <v>1.1685</v>
       </c>
       <c r="C141" t="n">
-        <v>1.09873</v>
+        <v>1.07454</v>
       </c>
       <c r="D141" t="n">
-        <v>1.01258</v>
+        <v>0.9760529999999999</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.2575</v>
+        <v>1.19508</v>
       </c>
       <c r="C142" t="n">
-        <v>1.08388</v>
+        <v>1.06037</v>
       </c>
       <c r="D142" t="n">
-        <v>1.00298</v>
+        <v>0.987876</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.21325</v>
+        <v>1.187</v>
       </c>
       <c r="C143" t="n">
-        <v>1.1323</v>
+        <v>1.06192</v>
       </c>
       <c r="D143" t="n">
-        <v>1.02643</v>
+        <v>1.00816</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered unsuccessful looukp.xlsx
+++ b/vs-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.346855</v>
+        <v>0.336412</v>
       </c>
       <c r="C2" t="n">
-        <v>0.382895</v>
+        <v>0.350555</v>
       </c>
       <c r="D2" t="n">
-        <v>0.332284</v>
+        <v>0.338741</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.346039</v>
+        <v>0.332852</v>
       </c>
       <c r="C3" t="n">
-        <v>0.343827</v>
+        <v>0.349819</v>
       </c>
       <c r="D3" t="n">
-        <v>0.34637</v>
+        <v>0.333254</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.340238</v>
+        <v>0.346594</v>
       </c>
       <c r="C4" t="n">
-        <v>0.356715</v>
+        <v>0.359844</v>
       </c>
       <c r="D4" t="n">
-        <v>0.341457</v>
+        <v>0.341814</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.345736</v>
+        <v>0.349615</v>
       </c>
       <c r="C5" t="n">
-        <v>0.373349</v>
+        <v>0.370809</v>
       </c>
       <c r="D5" t="n">
-        <v>0.350984</v>
+        <v>0.359836</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.360548</v>
+        <v>0.369549</v>
       </c>
       <c r="C6" t="n">
-        <v>0.378432</v>
+        <v>0.380607</v>
       </c>
       <c r="D6" t="n">
-        <v>0.369086</v>
+        <v>0.3619</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.383486</v>
+        <v>0.375466</v>
       </c>
       <c r="C7" t="n">
-        <v>0.404376</v>
+        <v>0.416895</v>
       </c>
       <c r="D7" t="n">
-        <v>0.381698</v>
+        <v>0.377614</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.412366</v>
+        <v>0.403898</v>
       </c>
       <c r="C8" t="n">
-        <v>0.433405</v>
+        <v>0.448709</v>
       </c>
       <c r="D8" t="n">
-        <v>0.401014</v>
+        <v>0.417033</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.449099</v>
+        <v>0.451584</v>
       </c>
       <c r="C9" t="n">
-        <v>0.490357</v>
+        <v>0.491083</v>
       </c>
       <c r="D9" t="n">
-        <v>0.317353</v>
+        <v>0.324318</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.322723</v>
+        <v>0.330786</v>
       </c>
       <c r="C10" t="n">
-        <v>0.32919</v>
+        <v>0.33629</v>
       </c>
       <c r="D10" t="n">
-        <v>0.328877</v>
+        <v>0.32371</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.326651</v>
+        <v>0.325895</v>
       </c>
       <c r="C11" t="n">
-        <v>0.337425</v>
+        <v>0.339427</v>
       </c>
       <c r="D11" t="n">
-        <v>0.316658</v>
+        <v>0.324536</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.331236</v>
+        <v>0.332846</v>
       </c>
       <c r="C12" t="n">
-        <v>0.332324</v>
+        <v>0.340137</v>
       </c>
       <c r="D12" t="n">
-        <v>0.320959</v>
+        <v>0.328322</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.320981</v>
+        <v>0.327883</v>
       </c>
       <c r="C13" t="n">
-        <v>0.335172</v>
+        <v>0.335377</v>
       </c>
       <c r="D13" t="n">
-        <v>0.320512</v>
+        <v>0.319538</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.329039</v>
+        <v>0.326355</v>
       </c>
       <c r="C14" t="n">
-        <v>0.348084</v>
+        <v>0.346367</v>
       </c>
       <c r="D14" t="n">
-        <v>0.327343</v>
+        <v>0.324345</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.330351</v>
+        <v>0.334987</v>
       </c>
       <c r="C15" t="n">
-        <v>0.339391</v>
+        <v>0.34337</v>
       </c>
       <c r="D15" t="n">
-        <v>0.325927</v>
+        <v>0.340172</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.329388</v>
+        <v>0.345535</v>
       </c>
       <c r="C16" t="n">
-        <v>0.347396</v>
+        <v>0.345685</v>
       </c>
       <c r="D16" t="n">
-        <v>0.331956</v>
+        <v>0.324275</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.33504</v>
+        <v>0.340506</v>
       </c>
       <c r="C17" t="n">
-        <v>0.350314</v>
+        <v>0.346851</v>
       </c>
       <c r="D17" t="n">
-        <v>0.327313</v>
+        <v>0.332905</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.334168</v>
+        <v>0.343379</v>
       </c>
       <c r="C18" t="n">
-        <v>0.357687</v>
+        <v>0.359302</v>
       </c>
       <c r="D18" t="n">
-        <v>0.342589</v>
+        <v>0.333703</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.367357</v>
+        <v>0.357593</v>
       </c>
       <c r="C19" t="n">
-        <v>0.356223</v>
+        <v>0.372132</v>
       </c>
       <c r="D19" t="n">
-        <v>0.354281</v>
+        <v>0.346928</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.361939</v>
+        <v>0.36342</v>
       </c>
       <c r="C20" t="n">
-        <v>0.372684</v>
+        <v>0.369677</v>
       </c>
       <c r="D20" t="n">
-        <v>0.359865</v>
+        <v>0.359126</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.370739</v>
+        <v>0.37888</v>
       </c>
       <c r="C21" t="n">
-        <v>0.391485</v>
+        <v>0.39137</v>
       </c>
       <c r="D21" t="n">
-        <v>0.376965</v>
+        <v>0.367178</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.414272</v>
+        <v>0.40975</v>
       </c>
       <c r="C22" t="n">
-        <v>0.415451</v>
+        <v>0.441802</v>
       </c>
       <c r="D22" t="n">
-        <v>0.424156</v>
+        <v>0.40859</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.449067</v>
+        <v>0.450649</v>
       </c>
       <c r="C23" t="n">
-        <v>0.471675</v>
+        <v>0.459762</v>
       </c>
       <c r="D23" t="n">
-        <v>0.321656</v>
+        <v>0.318104</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.329748</v>
+        <v>0.330012</v>
       </c>
       <c r="C24" t="n">
-        <v>0.331798</v>
+        <v>0.337849</v>
       </c>
       <c r="D24" t="n">
-        <v>0.31421</v>
+        <v>0.331879</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.326361</v>
+        <v>0.335322</v>
       </c>
       <c r="C25" t="n">
-        <v>0.339134</v>
+        <v>0.338423</v>
       </c>
       <c r="D25" t="n">
-        <v>0.327962</v>
+        <v>0.326007</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.333958</v>
+        <v>0.326538</v>
       </c>
       <c r="C26" t="n">
-        <v>0.33284</v>
+        <v>0.340455</v>
       </c>
       <c r="D26" t="n">
-        <v>0.314995</v>
+        <v>0.31541</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.330574</v>
+        <v>0.334212</v>
       </c>
       <c r="C27" t="n">
-        <v>0.336972</v>
+        <v>0.340667</v>
       </c>
       <c r="D27" t="n">
-        <v>0.318939</v>
+        <v>0.319633</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.329405</v>
+        <v>0.335664</v>
       </c>
       <c r="C28" t="n">
-        <v>0.345809</v>
+        <v>0.332109</v>
       </c>
       <c r="D28" t="n">
-        <v>0.328491</v>
+        <v>0.328111</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.343726</v>
+        <v>0.328832</v>
       </c>
       <c r="C29" t="n">
-        <v>0.353602</v>
+        <v>0.338111</v>
       </c>
       <c r="D29" t="n">
-        <v>0.335027</v>
+        <v>0.334085</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.34188</v>
+        <v>0.347143</v>
       </c>
       <c r="C30" t="n">
-        <v>0.3386</v>
+        <v>0.344837</v>
       </c>
       <c r="D30" t="n">
-        <v>0.33442</v>
+        <v>0.328373</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.348227</v>
+        <v>0.345149</v>
       </c>
       <c r="C31" t="n">
-        <v>0.356717</v>
+        <v>0.362096</v>
       </c>
       <c r="D31" t="n">
-        <v>0.325584</v>
+        <v>0.338473</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.340916</v>
+        <v>0.347577</v>
       </c>
       <c r="C32" t="n">
-        <v>0.351462</v>
+        <v>0.356816</v>
       </c>
       <c r="D32" t="n">
-        <v>0.327584</v>
+        <v>0.349203</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.36086</v>
+        <v>0.354412</v>
       </c>
       <c r="C33" t="n">
-        <v>0.3567</v>
+        <v>0.359205</v>
       </c>
       <c r="D33" t="n">
-        <v>0.345995</v>
+        <v>0.346704</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.355245</v>
+        <v>0.357655</v>
       </c>
       <c r="C34" t="n">
-        <v>0.365167</v>
+        <v>0.36389</v>
       </c>
       <c r="D34" t="n">
-        <v>0.351221</v>
+        <v>0.349961</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.3751</v>
+        <v>0.378297</v>
       </c>
       <c r="C35" t="n">
-        <v>0.381248</v>
+        <v>0.386139</v>
       </c>
       <c r="D35" t="n">
-        <v>0.36275</v>
+        <v>0.362589</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.389463</v>
+        <v>0.402092</v>
       </c>
       <c r="C36" t="n">
-        <v>0.40446</v>
+        <v>0.407542</v>
       </c>
       <c r="D36" t="n">
-        <v>0.385639</v>
+        <v>0.394911</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.432916</v>
+        <v>0.435978</v>
       </c>
       <c r="C37" t="n">
-        <v>0.459815</v>
+        <v>0.46288</v>
       </c>
       <c r="D37" t="n">
-        <v>0.316738</v>
+        <v>0.315329</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.325597</v>
+        <v>0.329881</v>
       </c>
       <c r="C38" t="n">
-        <v>0.336781</v>
+        <v>0.337938</v>
       </c>
       <c r="D38" t="n">
-        <v>0.31841</v>
+        <v>0.317202</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.335471</v>
+        <v>0.326043</v>
       </c>
       <c r="C39" t="n">
-        <v>0.329027</v>
+        <v>0.337678</v>
       </c>
       <c r="D39" t="n">
-        <v>0.326054</v>
+        <v>0.323765</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.332956</v>
+        <v>0.341261</v>
       </c>
       <c r="C40" t="n">
-        <v>0.338217</v>
+        <v>0.353486</v>
       </c>
       <c r="D40" t="n">
-        <v>0.314913</v>
+        <v>0.321032</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.330432</v>
+        <v>0.329264</v>
       </c>
       <c r="C41" t="n">
-        <v>0.347194</v>
+        <v>0.3369</v>
       </c>
       <c r="D41" t="n">
-        <v>0.316416</v>
+        <v>0.322412</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.340604</v>
+        <v>0.334413</v>
       </c>
       <c r="C42" t="n">
-        <v>0.335938</v>
+        <v>0.342399</v>
       </c>
       <c r="D42" t="n">
-        <v>0.337653</v>
+        <v>0.328153</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.341482</v>
+        <v>0.331352</v>
       </c>
       <c r="C43" t="n">
-        <v>0.353012</v>
+        <v>0.342482</v>
       </c>
       <c r="D43" t="n">
-        <v>0.325106</v>
+        <v>0.333879</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.344412</v>
+        <v>0.340525</v>
       </c>
       <c r="C44" t="n">
-        <v>0.350877</v>
+        <v>0.338936</v>
       </c>
       <c r="D44" t="n">
-        <v>0.349632</v>
+        <v>0.327679</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.341737</v>
+        <v>0.351371</v>
       </c>
       <c r="C45" t="n">
-        <v>0.349938</v>
+        <v>0.367593</v>
       </c>
       <c r="D45" t="n">
-        <v>0.33636</v>
+        <v>0.331336</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.340612</v>
+        <v>0.351786</v>
       </c>
       <c r="C46" t="n">
-        <v>0.356431</v>
+        <v>0.355659</v>
       </c>
       <c r="D46" t="n">
-        <v>0.341382</v>
+        <v>0.342063</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.340555</v>
+        <v>0.36356</v>
       </c>
       <c r="C47" t="n">
-        <v>0.349561</v>
+        <v>0.359367</v>
       </c>
       <c r="D47" t="n">
-        <v>0.332419</v>
+        <v>0.338976</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.351498</v>
+        <v>0.382778</v>
       </c>
       <c r="C48" t="n">
-        <v>0.37103</v>
+        <v>0.362556</v>
       </c>
       <c r="D48" t="n">
-        <v>0.356363</v>
+        <v>0.348308</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.378453</v>
+        <v>0.378381</v>
       </c>
       <c r="C49" t="n">
-        <v>0.383364</v>
+        <v>0.379406</v>
       </c>
       <c r="D49" t="n">
-        <v>0.358479</v>
+        <v>0.363394</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.39931</v>
+        <v>0.40163</v>
       </c>
       <c r="C50" t="n">
-        <v>0.409111</v>
+        <v>0.420426</v>
       </c>
       <c r="D50" t="n">
-        <v>0.391494</v>
+        <v>0.387594</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.422441</v>
+        <v>0.442646</v>
       </c>
       <c r="C51" t="n">
-        <v>0.440449</v>
+        <v>0.448622</v>
       </c>
       <c r="D51" t="n">
-        <v>0.324944</v>
+        <v>0.322291</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.49903</v>
+        <v>0.493084</v>
       </c>
       <c r="C52" t="n">
-        <v>0.526653</v>
+        <v>0.517893</v>
       </c>
       <c r="D52" t="n">
-        <v>0.323076</v>
+        <v>0.320598</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.332136</v>
+        <v>0.334562</v>
       </c>
       <c r="C53" t="n">
-        <v>0.350198</v>
+        <v>0.340744</v>
       </c>
       <c r="D53" t="n">
-        <v>0.321453</v>
+        <v>0.317902</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.330001</v>
+        <v>0.350301</v>
       </c>
       <c r="C54" t="n">
-        <v>0.348513</v>
+        <v>0.360735</v>
       </c>
       <c r="D54" t="n">
-        <v>0.333783</v>
+        <v>0.325297</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.332569</v>
+        <v>0.335227</v>
       </c>
       <c r="C55" t="n">
-        <v>0.335499</v>
+        <v>0.340612</v>
       </c>
       <c r="D55" t="n">
-        <v>0.328139</v>
+        <v>0.325855</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.341492</v>
+        <v>0.357252</v>
       </c>
       <c r="C56" t="n">
-        <v>0.343355</v>
+        <v>0.342583</v>
       </c>
       <c r="D56" t="n">
-        <v>0.317623</v>
+        <v>0.331405</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.333706</v>
+        <v>0.347024</v>
       </c>
       <c r="C57" t="n">
-        <v>0.340879</v>
+        <v>0.347348</v>
       </c>
       <c r="D57" t="n">
-        <v>0.324397</v>
+        <v>0.337322</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.335509</v>
+        <v>0.351484</v>
       </c>
       <c r="C58" t="n">
-        <v>0.34568</v>
+        <v>0.356596</v>
       </c>
       <c r="D58" t="n">
-        <v>0.349178</v>
+        <v>0.331482</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.358842</v>
+        <v>0.355267</v>
       </c>
       <c r="C59" t="n">
-        <v>0.35983</v>
+        <v>0.3617</v>
       </c>
       <c r="D59" t="n">
-        <v>0.332645</v>
+        <v>0.339642</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.355542</v>
+        <v>0.362611</v>
       </c>
       <c r="C60" t="n">
-        <v>0.34805</v>
+        <v>0.363274</v>
       </c>
       <c r="D60" t="n">
-        <v>0.33306</v>
+        <v>0.342726</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.368353</v>
+        <v>0.358512</v>
       </c>
       <c r="C61" t="n">
-        <v>0.360391</v>
+        <v>0.386729</v>
       </c>
       <c r="D61" t="n">
-        <v>0.36118</v>
+        <v>0.352453</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.384212</v>
+        <v>0.37825</v>
       </c>
       <c r="C62" t="n">
-        <v>0.373778</v>
+        <v>0.368048</v>
       </c>
       <c r="D62" t="n">
-        <v>0.351591</v>
+        <v>0.357738</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.398879</v>
+        <v>0.388669</v>
       </c>
       <c r="C63" t="n">
-        <v>0.382741</v>
+        <v>0.396336</v>
       </c>
       <c r="D63" t="n">
-        <v>0.379109</v>
+        <v>0.375428</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.408993</v>
+        <v>0.425184</v>
       </c>
       <c r="C64" t="n">
-        <v>0.419761</v>
+        <v>0.411648</v>
       </c>
       <c r="D64" t="n">
-        <v>0.382412</v>
+        <v>0.399259</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.426408</v>
+        <v>0.432547</v>
       </c>
       <c r="C65" t="n">
-        <v>0.45197</v>
+        <v>0.449562</v>
       </c>
       <c r="D65" t="n">
-        <v>0.418589</v>
+        <v>0.43683</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.508146</v>
+        <v>0.485948</v>
       </c>
       <c r="C66" t="n">
-        <v>0.510162</v>
+        <v>0.510737</v>
       </c>
       <c r="D66" t="n">
-        <v>0.326667</v>
+        <v>0.32655</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.34253</v>
+        <v>0.353983</v>
       </c>
       <c r="C67" t="n">
-        <v>0.353579</v>
+        <v>0.357601</v>
       </c>
       <c r="D67" t="n">
-        <v>0.338976</v>
+        <v>0.325757</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.35038</v>
+        <v>0.350763</v>
       </c>
       <c r="C68" t="n">
-        <v>0.341348</v>
+        <v>0.355174</v>
       </c>
       <c r="D68" t="n">
-        <v>0.326468</v>
+        <v>0.332185</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.359728</v>
+        <v>0.352655</v>
       </c>
       <c r="C69" t="n">
-        <v>0.359751</v>
+        <v>0.361274</v>
       </c>
       <c r="D69" t="n">
-        <v>0.336809</v>
+        <v>0.337352</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.359228</v>
+        <v>0.359622</v>
       </c>
       <c r="C70" t="n">
-        <v>0.355233</v>
+        <v>0.36391</v>
       </c>
       <c r="D70" t="n">
-        <v>0.331581</v>
+        <v>0.336452</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.353998</v>
+        <v>0.363705</v>
       </c>
       <c r="C71" t="n">
-        <v>0.359223</v>
+        <v>0.351651</v>
       </c>
       <c r="D71" t="n">
-        <v>0.338925</v>
+        <v>0.337621</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.366113</v>
+        <v>0.370231</v>
       </c>
       <c r="C72" t="n">
-        <v>0.364723</v>
+        <v>0.3697</v>
       </c>
       <c r="D72" t="n">
-        <v>0.341086</v>
+        <v>0.334469</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.364732</v>
+        <v>0.386642</v>
       </c>
       <c r="C73" t="n">
-        <v>0.37607</v>
+        <v>0.366709</v>
       </c>
       <c r="D73" t="n">
-        <v>0.335672</v>
+        <v>0.342432</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.376698</v>
+        <v>0.381485</v>
       </c>
       <c r="C74" t="n">
-        <v>0.376079</v>
+        <v>0.384824</v>
       </c>
       <c r="D74" t="n">
-        <v>0.344355</v>
+        <v>0.346634</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.375288</v>
+        <v>0.37776</v>
       </c>
       <c r="C75" t="n">
-        <v>0.388476</v>
+        <v>0.376627</v>
       </c>
       <c r="D75" t="n">
-        <v>0.360211</v>
+        <v>0.358891</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.385375</v>
+        <v>0.403743</v>
       </c>
       <c r="C76" t="n">
-        <v>0.393133</v>
+        <v>0.385634</v>
       </c>
       <c r="D76" t="n">
-        <v>0.363769</v>
+        <v>0.360273</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.417741</v>
+        <v>0.406164</v>
       </c>
       <c r="C77" t="n">
-        <v>0.406652</v>
+        <v>0.409531</v>
       </c>
       <c r="D77" t="n">
-        <v>0.377607</v>
+        <v>0.37934</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.428131</v>
+        <v>0.419307</v>
       </c>
       <c r="C78" t="n">
-        <v>0.439278</v>
+        <v>0.428352</v>
       </c>
       <c r="D78" t="n">
-        <v>0.403531</v>
+        <v>0.397297</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.468123</v>
+        <v>0.466053</v>
       </c>
       <c r="C79" t="n">
-        <v>0.466301</v>
+        <v>0.471878</v>
       </c>
       <c r="D79" t="n">
-        <v>0.430126</v>
+        <v>0.444526</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.528143</v>
+        <v>0.51263</v>
       </c>
       <c r="C80" t="n">
-        <v>0.526441</v>
+        <v>0.53645</v>
       </c>
       <c r="D80" t="n">
-        <v>0.332561</v>
+        <v>0.336727</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.378303</v>
+        <v>0.366839</v>
       </c>
       <c r="C81" t="n">
-        <v>0.358522</v>
+        <v>0.365992</v>
       </c>
       <c r="D81" t="n">
-        <v>0.332577</v>
+        <v>0.335159</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.372891</v>
+        <v>0.369046</v>
       </c>
       <c r="C82" t="n">
-        <v>0.367564</v>
+        <v>0.372809</v>
       </c>
       <c r="D82" t="n">
-        <v>0.338661</v>
+        <v>0.338167</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.379509</v>
+        <v>0.382044</v>
       </c>
       <c r="C83" t="n">
-        <v>0.362229</v>
+        <v>0.36692</v>
       </c>
       <c r="D83" t="n">
-        <v>0.334645</v>
+        <v>0.346183</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.37888</v>
+        <v>0.377953</v>
       </c>
       <c r="C84" t="n">
-        <v>0.373431</v>
+        <v>0.373252</v>
       </c>
       <c r="D84" t="n">
-        <v>0.354708</v>
+        <v>0.351098</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.393079</v>
+        <v>0.39991</v>
       </c>
       <c r="C85" t="n">
-        <v>0.378437</v>
+        <v>0.370637</v>
       </c>
       <c r="D85" t="n">
-        <v>0.343372</v>
+        <v>0.346506</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.385716</v>
+        <v>0.387251</v>
       </c>
       <c r="C86" t="n">
-        <v>0.381167</v>
+        <v>0.376419</v>
       </c>
       <c r="D86" t="n">
-        <v>0.341689</v>
+        <v>0.344113</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.399491</v>
+        <v>0.397721</v>
       </c>
       <c r="C87" t="n">
-        <v>0.372077</v>
+        <v>0.388931</v>
       </c>
       <c r="D87" t="n">
-        <v>0.354645</v>
+        <v>0.356166</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.40334</v>
+        <v>0.407336</v>
       </c>
       <c r="C88" t="n">
-        <v>0.389778</v>
+        <v>0.39941</v>
       </c>
       <c r="D88" t="n">
-        <v>0.35606</v>
+        <v>0.361187</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.404452</v>
+        <v>0.412612</v>
       </c>
       <c r="C89" t="n">
-        <v>0.406473</v>
+        <v>0.406117</v>
       </c>
       <c r="D89" t="n">
-        <v>0.363253</v>
+        <v>0.364914</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.419265</v>
+        <v>0.419489</v>
       </c>
       <c r="C90" t="n">
-        <v>0.407176</v>
+        <v>0.418717</v>
       </c>
       <c r="D90" t="n">
-        <v>0.385167</v>
+        <v>0.379949</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.436182</v>
+        <v>0.456076</v>
       </c>
       <c r="C91" t="n">
-        <v>0.41786</v>
+        <v>0.446056</v>
       </c>
       <c r="D91" t="n">
-        <v>0.388721</v>
+        <v>0.402092</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.474927</v>
+        <v>0.466738</v>
       </c>
       <c r="C92" t="n">
-        <v>0.469794</v>
+        <v>0.467783</v>
       </c>
       <c r="D92" t="n">
-        <v>0.429261</v>
+        <v>0.421129</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.502209</v>
+        <v>0.505016</v>
       </c>
       <c r="C93" t="n">
-        <v>0.499497</v>
+        <v>0.503102</v>
       </c>
       <c r="D93" t="n">
-        <v>0.443637</v>
+        <v>0.45138</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.551743</v>
+        <v>0.569605</v>
       </c>
       <c r="C94" t="n">
-        <v>0.596665</v>
+        <v>0.5585059999999999</v>
       </c>
       <c r="D94" t="n">
-        <v>0.346072</v>
+        <v>0.357443</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.420144</v>
+        <v>0.428449</v>
       </c>
       <c r="C95" t="n">
-        <v>0.392961</v>
+        <v>0.410246</v>
       </c>
       <c r="D95" t="n">
-        <v>0.352101</v>
+        <v>0.364498</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.428525</v>
+        <v>0.422903</v>
       </c>
       <c r="C96" t="n">
-        <v>0.421953</v>
+        <v>0.409268</v>
       </c>
       <c r="D96" t="n">
-        <v>0.360569</v>
+        <v>0.36603</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.423056</v>
+        <v>0.433809</v>
       </c>
       <c r="C97" t="n">
-        <v>0.411845</v>
+        <v>0.427559</v>
       </c>
       <c r="D97" t="n">
-        <v>0.360246</v>
+        <v>0.36505</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.434863</v>
+        <v>0.42677</v>
       </c>
       <c r="C98" t="n">
-        <v>0.405514</v>
+        <v>0.418651</v>
       </c>
       <c r="D98" t="n">
-        <v>0.370893</v>
+        <v>0.371592</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.432753</v>
+        <v>0.448412</v>
       </c>
       <c r="C99" t="n">
-        <v>0.425374</v>
+        <v>0.422033</v>
       </c>
       <c r="D99" t="n">
-        <v>0.362524</v>
+        <v>0.374765</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.433818</v>
+        <v>0.437864</v>
       </c>
       <c r="C100" t="n">
-        <v>0.43009</v>
+        <v>0.426016</v>
       </c>
       <c r="D100" t="n">
-        <v>0.388511</v>
+        <v>0.375694</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.444705</v>
+        <v>0.463367</v>
       </c>
       <c r="C101" t="n">
-        <v>0.446669</v>
+        <v>0.443683</v>
       </c>
       <c r="D101" t="n">
-        <v>0.372052</v>
+        <v>0.3762</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.443957</v>
+        <v>0.462232</v>
       </c>
       <c r="C102" t="n">
-        <v>0.453139</v>
+        <v>0.444596</v>
       </c>
       <c r="D102" t="n">
-        <v>0.388739</v>
+        <v>0.388362</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.468457</v>
+        <v>0.471392</v>
       </c>
       <c r="C103" t="n">
-        <v>0.451028</v>
+        <v>0.445821</v>
       </c>
       <c r="D103" t="n">
-        <v>0.401175</v>
+        <v>0.397483</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.488283</v>
+        <v>0.482018</v>
       </c>
       <c r="C104" t="n">
-        <v>0.477869</v>
+        <v>0.459063</v>
       </c>
       <c r="D104" t="n">
-        <v>0.410832</v>
+        <v>0.41378</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.512589</v>
+        <v>0.507096</v>
       </c>
       <c r="C105" t="n">
-        <v>0.487401</v>
+        <v>0.492304</v>
       </c>
       <c r="D105" t="n">
-        <v>0.414896</v>
+        <v>0.434967</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.523608</v>
+        <v>0.521398</v>
       </c>
       <c r="C106" t="n">
-        <v>0.505005</v>
+        <v>0.519252</v>
       </c>
       <c r="D106" t="n">
-        <v>0.439801</v>
+        <v>0.451755</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.561886</v>
+        <v>0.561296</v>
       </c>
       <c r="C107" t="n">
-        <v>0.552888</v>
+        <v>0.568743</v>
       </c>
       <c r="D107" t="n">
-        <v>0.481457</v>
+        <v>0.485398</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.616672</v>
+        <v>0.620451</v>
       </c>
       <c r="C108" t="n">
-        <v>0.604685</v>
+        <v>0.64928</v>
       </c>
       <c r="D108" t="n">
-        <v>0.441113</v>
+        <v>0.485614</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.689001</v>
+        <v>0.706045</v>
       </c>
       <c r="C109" t="n">
-        <v>0.703162</v>
+        <v>0.732631</v>
       </c>
       <c r="D109" t="n">
-        <v>0.449632</v>
+        <v>0.487983</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.528888</v>
+        <v>0.555554</v>
       </c>
       <c r="C110" t="n">
-        <v>0.497594</v>
+        <v>0.527162</v>
       </c>
       <c r="D110" t="n">
-        <v>0.469417</v>
+        <v>0.496952</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.557149</v>
+        <v>0.570993</v>
       </c>
       <c r="C111" t="n">
-        <v>0.526169</v>
+        <v>0.5399119999999999</v>
       </c>
       <c r="D111" t="n">
-        <v>0.473579</v>
+        <v>0.498539</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.5524250000000001</v>
+        <v>0.57056</v>
       </c>
       <c r="C112" t="n">
-        <v>0.530989</v>
+        <v>0.545319</v>
       </c>
       <c r="D112" t="n">
-        <v>0.492465</v>
+        <v>0.501582</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.575798</v>
+        <v>0.5850649999999999</v>
       </c>
       <c r="C113" t="n">
-        <v>0.565254</v>
+        <v>0.543728</v>
       </c>
       <c r="D113" t="n">
-        <v>0.462699</v>
+        <v>0.505009</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.552552</v>
+        <v>0.602217</v>
       </c>
       <c r="C114" t="n">
-        <v>0.5207000000000001</v>
+        <v>0.557187</v>
       </c>
       <c r="D114" t="n">
-        <v>0.482423</v>
+        <v>0.502698</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.565477</v>
+        <v>0.591468</v>
       </c>
       <c r="C115" t="n">
-        <v>0.546347</v>
+        <v>0.5457070000000001</v>
       </c>
       <c r="D115" t="n">
-        <v>0.498212</v>
+        <v>0.5048820000000001</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.6265770000000001</v>
+        <v>0.605598</v>
       </c>
       <c r="C116" t="n">
-        <v>0.573881</v>
+        <v>0.604942</v>
       </c>
       <c r="D116" t="n">
-        <v>0.507396</v>
+        <v>0.519352</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.582086</v>
+        <v>0.624596</v>
       </c>
       <c r="C117" t="n">
-        <v>0.565335</v>
+        <v>0.594457</v>
       </c>
       <c r="D117" t="n">
-        <v>0.498967</v>
+        <v>0.537558</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.626176</v>
+        <v>0.628557</v>
       </c>
       <c r="C118" t="n">
-        <v>0.611384</v>
+        <v>0.609839</v>
       </c>
       <c r="D118" t="n">
-        <v>0.5349739999999999</v>
+        <v>0.532323</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.645935</v>
+        <v>0.646829</v>
       </c>
       <c r="C119" t="n">
-        <v>0.648607</v>
+        <v>0.631834</v>
       </c>
       <c r="D119" t="n">
-        <v>0.5423829999999999</v>
+        <v>0.553102</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.675004</v>
+        <v>0.659929</v>
       </c>
       <c r="C120" t="n">
-        <v>0.648443</v>
+        <v>0.702958</v>
       </c>
       <c r="D120" t="n">
-        <v>0.594987</v>
+        <v>0.581363</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.710935</v>
+        <v>0.720627</v>
       </c>
       <c r="C121" t="n">
-        <v>0.682649</v>
+        <v>0.7067099999999999</v>
       </c>
       <c r="D121" t="n">
-        <v>0.626545</v>
+        <v>0.607523</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.7653990000000001</v>
+        <v>0.799077</v>
       </c>
       <c r="C122" t="n">
-        <v>0.753181</v>
+        <v>0.774296</v>
       </c>
       <c r="D122" t="n">
-        <v>0.649547</v>
+        <v>0.66212</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.869876</v>
+        <v>0.869072</v>
       </c>
       <c r="C123" t="n">
-        <v>0.875418</v>
+        <v>0.8753609999999999</v>
       </c>
       <c r="D123" t="n">
-        <v>0.750936</v>
+        <v>0.742818</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.90594</v>
+        <v>0.881884</v>
       </c>
       <c r="C124" t="n">
-        <v>0.790008</v>
+        <v>0.82082</v>
       </c>
       <c r="D124" t="n">
-        <v>0.74625</v>
+        <v>0.760171</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.926709</v>
+        <v>0.87619</v>
       </c>
       <c r="C125" t="n">
-        <v>0.79791</v>
+        <v>0.817603</v>
       </c>
       <c r="D125" t="n">
-        <v>0.748204</v>
+        <v>0.737663</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.943098</v>
+        <v>0.89398</v>
       </c>
       <c r="C126" t="n">
-        <v>0.875661</v>
+        <v>0.820343</v>
       </c>
       <c r="D126" t="n">
-        <v>0.732555</v>
+        <v>0.762254</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.918438</v>
+        <v>0.908601</v>
       </c>
       <c r="C127" t="n">
-        <v>0.82067</v>
+        <v>0.819663</v>
       </c>
       <c r="D127" t="n">
-        <v>0.745238</v>
+        <v>0.7878579999999999</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.951676</v>
+        <v>0.917927</v>
       </c>
       <c r="C128" t="n">
-        <v>0.8400260000000001</v>
+        <v>0.8372810000000001</v>
       </c>
       <c r="D128" t="n">
-        <v>0.762131</v>
+        <v>0.767855</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.920273</v>
+        <v>0.947913</v>
       </c>
       <c r="C129" t="n">
-        <v>0.8519139999999999</v>
+        <v>0.8800559999999999</v>
       </c>
       <c r="D129" t="n">
-        <v>0.8414970000000001</v>
+        <v>0.786984</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.978017</v>
+        <v>0.932387</v>
       </c>
       <c r="C130" t="n">
-        <v>0.853006</v>
+        <v>0.863007</v>
       </c>
       <c r="D130" t="n">
-        <v>0.818966</v>
+        <v>0.802065</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.94092</v>
+        <v>0.952553</v>
       </c>
       <c r="C131" t="n">
-        <v>0.861008</v>
+        <v>0.885479</v>
       </c>
       <c r="D131" t="n">
-        <v>0.845016</v>
+        <v>0.791801</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.957055</v>
+        <v>0.965415</v>
       </c>
       <c r="C132" t="n">
-        <v>0.884507</v>
+        <v>0.904652</v>
       </c>
       <c r="D132" t="n">
-        <v>0.808964</v>
+        <v>0.823618</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.982941</v>
+        <v>0.993382</v>
       </c>
       <c r="C133" t="n">
-        <v>0.909954</v>
+        <v>0.971559</v>
       </c>
       <c r="D133" t="n">
-        <v>0.852185</v>
+        <v>0.826688</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.96954</v>
+        <v>1.04077</v>
       </c>
       <c r="C134" t="n">
-        <v>0.950871</v>
+        <v>1.01468</v>
       </c>
       <c r="D134" t="n">
-        <v>0.856726</v>
+        <v>0.863414</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.00729</v>
+        <v>1.05361</v>
       </c>
       <c r="C135" t="n">
-        <v>1.00383</v>
+        <v>1.01378</v>
       </c>
       <c r="D135" t="n">
-        <v>0.900621</v>
+        <v>0.913946</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.09252</v>
+        <v>1.13205</v>
       </c>
       <c r="C136" t="n">
-        <v>1.03887</v>
+        <v>1.09873</v>
       </c>
       <c r="D136" t="n">
-        <v>0.962461</v>
+        <v>0.967819</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.16895</v>
+        <v>1.24006</v>
       </c>
       <c r="C137" t="n">
-        <v>1.17612</v>
+        <v>1.2234</v>
       </c>
       <c r="D137" t="n">
-        <v>0.975878</v>
+        <v>1.01266</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.13418</v>
+        <v>1.19561</v>
       </c>
       <c r="C138" t="n">
-        <v>1.01415</v>
+        <v>1.06084</v>
       </c>
       <c r="D138" t="n">
-        <v>0.98649</v>
+        <v>1.05248</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.18443</v>
+        <v>1.2004</v>
       </c>
       <c r="C139" t="n">
-        <v>1.02968</v>
+        <v>1.11343</v>
       </c>
       <c r="D139" t="n">
-        <v>0.980687</v>
+        <v>0.991555</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.1431</v>
+        <v>1.24836</v>
       </c>
       <c r="C140" t="n">
-        <v>1.04155</v>
+        <v>1.09867</v>
       </c>
       <c r="D140" t="n">
-        <v>0.975468</v>
+        <v>1.04599</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.1685</v>
+        <v>1.20266</v>
       </c>
       <c r="C141" t="n">
-        <v>1.07454</v>
+        <v>1.11777</v>
       </c>
       <c r="D141" t="n">
-        <v>0.9760529999999999</v>
+        <v>1.01244</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.19508</v>
+        <v>1.26595</v>
       </c>
       <c r="C142" t="n">
-        <v>1.06037</v>
+        <v>1.08202</v>
       </c>
       <c r="D142" t="n">
-        <v>0.987876</v>
+        <v>1.07432</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.187</v>
+        <v>1.24937</v>
       </c>
       <c r="C143" t="n">
-        <v>1.06192</v>
+        <v>1.10608</v>
       </c>
       <c r="D143" t="n">
-        <v>1.00816</v>
+        <v>1.01842</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered unsuccessful looukp.xlsx
+++ b/vs-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.336412</v>
+        <v>0.334499</v>
       </c>
       <c r="C2" t="n">
-        <v>0.350555</v>
+        <v>0.369906</v>
       </c>
       <c r="D2" t="n">
-        <v>0.338741</v>
+        <v>0.340052</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.332852</v>
+        <v>0.339645</v>
       </c>
       <c r="C3" t="n">
-        <v>0.349819</v>
+        <v>0.350906</v>
       </c>
       <c r="D3" t="n">
-        <v>0.333254</v>
+        <v>0.345361</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.346594</v>
+        <v>0.356655</v>
       </c>
       <c r="C4" t="n">
-        <v>0.359844</v>
+        <v>0.365861</v>
       </c>
       <c r="D4" t="n">
-        <v>0.341814</v>
+        <v>0.348376</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.349615</v>
+        <v>0.34772</v>
       </c>
       <c r="C5" t="n">
-        <v>0.370809</v>
+        <v>0.368096</v>
       </c>
       <c r="D5" t="n">
-        <v>0.359836</v>
+        <v>0.350973</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.369549</v>
+        <v>0.357819</v>
       </c>
       <c r="C6" t="n">
-        <v>0.380607</v>
+        <v>0.384057</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3619</v>
+        <v>0.371217</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.375466</v>
+        <v>0.376421</v>
       </c>
       <c r="C7" t="n">
-        <v>0.416895</v>
+        <v>0.41069</v>
       </c>
       <c r="D7" t="n">
-        <v>0.377614</v>
+        <v>0.384001</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.403898</v>
+        <v>0.405106</v>
       </c>
       <c r="C8" t="n">
-        <v>0.448709</v>
+        <v>0.44771</v>
       </c>
       <c r="D8" t="n">
-        <v>0.417033</v>
+        <v>0.413492</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.451584</v>
+        <v>0.459754</v>
       </c>
       <c r="C9" t="n">
-        <v>0.491083</v>
+        <v>0.49701</v>
       </c>
       <c r="D9" t="n">
-        <v>0.324318</v>
+        <v>0.318085</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.330786</v>
+        <v>0.326924</v>
       </c>
       <c r="C10" t="n">
-        <v>0.33629</v>
+        <v>0.3396</v>
       </c>
       <c r="D10" t="n">
-        <v>0.32371</v>
+        <v>0.330162</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.325895</v>
+        <v>0.327112</v>
       </c>
       <c r="C11" t="n">
-        <v>0.339427</v>
+        <v>0.338773</v>
       </c>
       <c r="D11" t="n">
-        <v>0.324536</v>
+        <v>0.333014</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.332846</v>
+        <v>0.333048</v>
       </c>
       <c r="C12" t="n">
-        <v>0.340137</v>
+        <v>0.349167</v>
       </c>
       <c r="D12" t="n">
-        <v>0.328322</v>
+        <v>0.323952</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.327883</v>
+        <v>0.329535</v>
       </c>
       <c r="C13" t="n">
-        <v>0.335377</v>
+        <v>0.34196</v>
       </c>
       <c r="D13" t="n">
-        <v>0.319538</v>
+        <v>0.324125</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.326355</v>
+        <v>0.328113</v>
       </c>
       <c r="C14" t="n">
-        <v>0.346367</v>
+        <v>0.343916</v>
       </c>
       <c r="D14" t="n">
-        <v>0.324345</v>
+        <v>0.325587</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.334987</v>
+        <v>0.332506</v>
       </c>
       <c r="C15" t="n">
-        <v>0.34337</v>
+        <v>0.34904</v>
       </c>
       <c r="D15" t="n">
-        <v>0.340172</v>
+        <v>0.330718</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.345535</v>
+        <v>0.346383</v>
       </c>
       <c r="C16" t="n">
-        <v>0.345685</v>
+        <v>0.349557</v>
       </c>
       <c r="D16" t="n">
-        <v>0.324275</v>
+        <v>0.333082</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.340506</v>
+        <v>0.338223</v>
       </c>
       <c r="C17" t="n">
-        <v>0.346851</v>
+        <v>0.35318</v>
       </c>
       <c r="D17" t="n">
-        <v>0.332905</v>
+        <v>0.337787</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.343379</v>
+        <v>0.341285</v>
       </c>
       <c r="C18" t="n">
-        <v>0.359302</v>
+        <v>0.356678</v>
       </c>
       <c r="D18" t="n">
-        <v>0.333703</v>
+        <v>0.338263</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.357593</v>
+        <v>0.3499</v>
       </c>
       <c r="C19" t="n">
-        <v>0.372132</v>
+        <v>0.363978</v>
       </c>
       <c r="D19" t="n">
-        <v>0.346928</v>
+        <v>0.345725</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.36342</v>
+        <v>0.362489</v>
       </c>
       <c r="C20" t="n">
-        <v>0.369677</v>
+        <v>0.378239</v>
       </c>
       <c r="D20" t="n">
-        <v>0.359126</v>
+        <v>0.35729</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.37888</v>
+        <v>0.379366</v>
       </c>
       <c r="C21" t="n">
-        <v>0.39137</v>
+        <v>0.393782</v>
       </c>
       <c r="D21" t="n">
-        <v>0.367178</v>
+        <v>0.370074</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.40975</v>
+        <v>0.411178</v>
       </c>
       <c r="C22" t="n">
-        <v>0.441802</v>
+        <v>0.420384</v>
       </c>
       <c r="D22" t="n">
-        <v>0.40859</v>
+        <v>0.398496</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.450649</v>
+        <v>0.443638</v>
       </c>
       <c r="C23" t="n">
-        <v>0.459762</v>
+        <v>0.472391</v>
       </c>
       <c r="D23" t="n">
-        <v>0.318104</v>
+        <v>0.31907</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.330012</v>
+        <v>0.327541</v>
       </c>
       <c r="C24" t="n">
-        <v>0.337849</v>
+        <v>0.339151</v>
       </c>
       <c r="D24" t="n">
-        <v>0.331879</v>
+        <v>0.321439</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.335322</v>
+        <v>0.330612</v>
       </c>
       <c r="C25" t="n">
-        <v>0.338423</v>
+        <v>0.339701</v>
       </c>
       <c r="D25" t="n">
-        <v>0.326007</v>
+        <v>0.321182</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.326538</v>
+        <v>0.330394</v>
       </c>
       <c r="C26" t="n">
-        <v>0.340455</v>
+        <v>0.339688</v>
       </c>
       <c r="D26" t="n">
-        <v>0.31541</v>
+        <v>0.32172</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.334212</v>
+        <v>0.329628</v>
       </c>
       <c r="C27" t="n">
-        <v>0.340667</v>
+        <v>0.340442</v>
       </c>
       <c r="D27" t="n">
-        <v>0.319633</v>
+        <v>0.321406</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.335664</v>
+        <v>0.332809</v>
       </c>
       <c r="C28" t="n">
-        <v>0.332109</v>
+        <v>0.35114</v>
       </c>
       <c r="D28" t="n">
-        <v>0.328111</v>
+        <v>0.352164</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.328832</v>
+        <v>0.359947</v>
       </c>
       <c r="C29" t="n">
-        <v>0.338111</v>
+        <v>0.359706</v>
       </c>
       <c r="D29" t="n">
-        <v>0.334085</v>
+        <v>0.340311</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.347143</v>
+        <v>0.336974</v>
       </c>
       <c r="C30" t="n">
-        <v>0.344837</v>
+        <v>0.345854</v>
       </c>
       <c r="D30" t="n">
-        <v>0.328373</v>
+        <v>0.338578</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.345149</v>
+        <v>0.356848</v>
       </c>
       <c r="C31" t="n">
-        <v>0.362096</v>
+        <v>0.351986</v>
       </c>
       <c r="D31" t="n">
-        <v>0.338473</v>
+        <v>0.33192</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.347577</v>
+        <v>0.341908</v>
       </c>
       <c r="C32" t="n">
-        <v>0.356816</v>
+        <v>0.357653</v>
       </c>
       <c r="D32" t="n">
-        <v>0.349203</v>
+        <v>0.33699</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.354412</v>
+        <v>0.350779</v>
       </c>
       <c r="C33" t="n">
-        <v>0.359205</v>
+        <v>0.362592</v>
       </c>
       <c r="D33" t="n">
-        <v>0.346704</v>
+        <v>0.343007</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.357655</v>
+        <v>0.362921</v>
       </c>
       <c r="C34" t="n">
-        <v>0.36389</v>
+        <v>0.369554</v>
       </c>
       <c r="D34" t="n">
-        <v>0.349961</v>
+        <v>0.356061</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.378297</v>
+        <v>0.375402</v>
       </c>
       <c r="C35" t="n">
-        <v>0.386139</v>
+        <v>0.382848</v>
       </c>
       <c r="D35" t="n">
-        <v>0.362589</v>
+        <v>0.367472</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.402092</v>
+        <v>0.398802</v>
       </c>
       <c r="C36" t="n">
-        <v>0.407542</v>
+        <v>0.411651</v>
       </c>
       <c r="D36" t="n">
-        <v>0.394911</v>
+        <v>0.392576</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.435978</v>
+        <v>0.439882</v>
       </c>
       <c r="C37" t="n">
-        <v>0.46288</v>
+        <v>0.451883</v>
       </c>
       <c r="D37" t="n">
-        <v>0.315329</v>
+        <v>0.322269</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.329881</v>
+        <v>0.328927</v>
       </c>
       <c r="C38" t="n">
-        <v>0.337938</v>
+        <v>0.342086</v>
       </c>
       <c r="D38" t="n">
-        <v>0.317202</v>
+        <v>0.319742</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.326043</v>
+        <v>0.335858</v>
       </c>
       <c r="C39" t="n">
-        <v>0.337678</v>
+        <v>0.339593</v>
       </c>
       <c r="D39" t="n">
-        <v>0.323765</v>
+        <v>0.327548</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.341261</v>
+        <v>0.336617</v>
       </c>
       <c r="C40" t="n">
-        <v>0.353486</v>
+        <v>0.338948</v>
       </c>
       <c r="D40" t="n">
-        <v>0.321032</v>
+        <v>0.323955</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.329264</v>
+        <v>0.336496</v>
       </c>
       <c r="C41" t="n">
-        <v>0.3369</v>
+        <v>0.342271</v>
       </c>
       <c r="D41" t="n">
-        <v>0.322412</v>
+        <v>0.32657</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.334413</v>
+        <v>0.34054</v>
       </c>
       <c r="C42" t="n">
-        <v>0.342399</v>
+        <v>0.345801</v>
       </c>
       <c r="D42" t="n">
-        <v>0.328153</v>
+        <v>0.326503</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.331352</v>
+        <v>0.344311</v>
       </c>
       <c r="C43" t="n">
-        <v>0.342482</v>
+        <v>0.34716</v>
       </c>
       <c r="D43" t="n">
-        <v>0.333879</v>
+        <v>0.330155</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.340525</v>
+        <v>0.343231</v>
       </c>
       <c r="C44" t="n">
-        <v>0.338936</v>
+        <v>0.349555</v>
       </c>
       <c r="D44" t="n">
-        <v>0.327679</v>
+        <v>0.329791</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.351371</v>
+        <v>0.34491</v>
       </c>
       <c r="C45" t="n">
-        <v>0.367593</v>
+        <v>0.351976</v>
       </c>
       <c r="D45" t="n">
-        <v>0.331336</v>
+        <v>0.332524</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.351786</v>
+        <v>0.352595</v>
       </c>
       <c r="C46" t="n">
-        <v>0.355659</v>
+        <v>0.356109</v>
       </c>
       <c r="D46" t="n">
-        <v>0.342063</v>
+        <v>0.341382</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.36356</v>
+        <v>0.358643</v>
       </c>
       <c r="C47" t="n">
-        <v>0.359367</v>
+        <v>0.363094</v>
       </c>
       <c r="D47" t="n">
-        <v>0.338976</v>
+        <v>0.346692</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.382778</v>
+        <v>0.362912</v>
       </c>
       <c r="C48" t="n">
-        <v>0.362556</v>
+        <v>0.374229</v>
       </c>
       <c r="D48" t="n">
-        <v>0.348308</v>
+        <v>0.355654</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.378381</v>
+        <v>0.382577</v>
       </c>
       <c r="C49" t="n">
-        <v>0.379406</v>
+        <v>0.391082</v>
       </c>
       <c r="D49" t="n">
-        <v>0.363394</v>
+        <v>0.370616</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.40163</v>
+        <v>0.401688</v>
       </c>
       <c r="C50" t="n">
-        <v>0.420426</v>
+        <v>0.416703</v>
       </c>
       <c r="D50" t="n">
-        <v>0.387594</v>
+        <v>0.3922</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.442646</v>
+        <v>0.435611</v>
       </c>
       <c r="C51" t="n">
-        <v>0.448622</v>
+        <v>0.455035</v>
       </c>
       <c r="D51" t="n">
-        <v>0.322291</v>
+        <v>0.321596</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.493084</v>
+        <v>0.499751</v>
       </c>
       <c r="C52" t="n">
-        <v>0.517893</v>
+        <v>0.51766</v>
       </c>
       <c r="D52" t="n">
-        <v>0.320598</v>
+        <v>0.325849</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.334562</v>
+        <v>0.340704</v>
       </c>
       <c r="C53" t="n">
-        <v>0.340744</v>
+        <v>0.348124</v>
       </c>
       <c r="D53" t="n">
-        <v>0.317902</v>
+        <v>0.327828</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.350301</v>
+        <v>0.342391</v>
       </c>
       <c r="C54" t="n">
-        <v>0.360735</v>
+        <v>0.34931</v>
       </c>
       <c r="D54" t="n">
-        <v>0.325297</v>
+        <v>0.327768</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.335227</v>
+        <v>0.346579</v>
       </c>
       <c r="C55" t="n">
-        <v>0.340612</v>
+        <v>0.35113</v>
       </c>
       <c r="D55" t="n">
-        <v>0.325855</v>
+        <v>0.326522</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.357252</v>
+        <v>0.367886</v>
       </c>
       <c r="C56" t="n">
-        <v>0.342583</v>
+        <v>0.356953</v>
       </c>
       <c r="D56" t="n">
-        <v>0.331405</v>
+        <v>0.330749</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.347024</v>
+        <v>0.356462</v>
       </c>
       <c r="C57" t="n">
-        <v>0.347348</v>
+        <v>0.379746</v>
       </c>
       <c r="D57" t="n">
-        <v>0.337322</v>
+        <v>0.353965</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.351484</v>
+        <v>0.414759</v>
       </c>
       <c r="C58" t="n">
-        <v>0.356596</v>
+        <v>0.360062</v>
       </c>
       <c r="D58" t="n">
-        <v>0.331482</v>
+        <v>0.33873</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.355267</v>
+        <v>0.391823</v>
       </c>
       <c r="C59" t="n">
-        <v>0.3617</v>
+        <v>0.361116</v>
       </c>
       <c r="D59" t="n">
-        <v>0.339642</v>
+        <v>0.341106</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.362611</v>
+        <v>0.372323</v>
       </c>
       <c r="C60" t="n">
-        <v>0.363274</v>
+        <v>0.370311</v>
       </c>
       <c r="D60" t="n">
-        <v>0.342726</v>
+        <v>0.345317</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.358512</v>
+        <v>0.366146</v>
       </c>
       <c r="C61" t="n">
-        <v>0.386729</v>
+        <v>0.379589</v>
       </c>
       <c r="D61" t="n">
-        <v>0.352453</v>
+        <v>0.374641</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.37825</v>
+        <v>0.383009</v>
       </c>
       <c r="C62" t="n">
-        <v>0.368048</v>
+        <v>0.391224</v>
       </c>
       <c r="D62" t="n">
-        <v>0.357738</v>
+        <v>0.365678</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.388669</v>
+        <v>0.406893</v>
       </c>
       <c r="C63" t="n">
-        <v>0.396336</v>
+        <v>0.414245</v>
       </c>
       <c r="D63" t="n">
-        <v>0.375428</v>
+        <v>0.399985</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.425184</v>
+        <v>0.436657</v>
       </c>
       <c r="C64" t="n">
-        <v>0.411648</v>
+        <v>0.431031</v>
       </c>
       <c r="D64" t="n">
-        <v>0.399259</v>
+        <v>0.407104</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.432547</v>
+        <v>0.473254</v>
       </c>
       <c r="C65" t="n">
-        <v>0.449562</v>
+        <v>0.486666</v>
       </c>
       <c r="D65" t="n">
-        <v>0.43683</v>
+        <v>0.448958</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.485948</v>
+        <v>0.542322</v>
       </c>
       <c r="C66" t="n">
-        <v>0.510737</v>
+        <v>0.5406570000000001</v>
       </c>
       <c r="D66" t="n">
-        <v>0.32655</v>
+        <v>0.340352</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.353983</v>
+        <v>0.424066</v>
       </c>
       <c r="C67" t="n">
-        <v>0.357601</v>
+        <v>0.38106</v>
       </c>
       <c r="D67" t="n">
-        <v>0.325757</v>
+        <v>0.338618</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.350763</v>
+        <v>0.383992</v>
       </c>
       <c r="C68" t="n">
-        <v>0.355174</v>
+        <v>0.367304</v>
       </c>
       <c r="D68" t="n">
-        <v>0.332185</v>
+        <v>0.344073</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.352655</v>
+        <v>0.382997</v>
       </c>
       <c r="C69" t="n">
-        <v>0.361274</v>
+        <v>0.374904</v>
       </c>
       <c r="D69" t="n">
-        <v>0.337352</v>
+        <v>0.340339</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.359622</v>
+        <v>0.371682</v>
       </c>
       <c r="C70" t="n">
-        <v>0.36391</v>
+        <v>0.377098</v>
       </c>
       <c r="D70" t="n">
-        <v>0.336452</v>
+        <v>0.343572</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.363705</v>
+        <v>0.381148</v>
       </c>
       <c r="C71" t="n">
-        <v>0.351651</v>
+        <v>0.374518</v>
       </c>
       <c r="D71" t="n">
-        <v>0.337621</v>
+        <v>0.347673</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.370231</v>
+        <v>0.385405</v>
       </c>
       <c r="C72" t="n">
-        <v>0.3697</v>
+        <v>0.45048</v>
       </c>
       <c r="D72" t="n">
-        <v>0.334469</v>
+        <v>0.389904</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.386642</v>
+        <v>0.406152</v>
       </c>
       <c r="C73" t="n">
-        <v>0.366709</v>
+        <v>0.386568</v>
       </c>
       <c r="D73" t="n">
-        <v>0.342432</v>
+        <v>0.352239</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.381485</v>
+        <v>0.467494</v>
       </c>
       <c r="C74" t="n">
-        <v>0.384824</v>
+        <v>0.453808</v>
       </c>
       <c r="D74" t="n">
-        <v>0.346634</v>
+        <v>0.412516</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.37776</v>
+        <v>0.411732</v>
       </c>
       <c r="C75" t="n">
-        <v>0.376627</v>
+        <v>0.409336</v>
       </c>
       <c r="D75" t="n">
-        <v>0.358891</v>
+        <v>0.370842</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.403743</v>
+        <v>0.419524</v>
       </c>
       <c r="C76" t="n">
-        <v>0.385634</v>
+        <v>0.413478</v>
       </c>
       <c r="D76" t="n">
-        <v>0.360273</v>
+        <v>0.383485</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.406164</v>
+        <v>0.441622</v>
       </c>
       <c r="C77" t="n">
-        <v>0.409531</v>
+        <v>0.442827</v>
       </c>
       <c r="D77" t="n">
-        <v>0.37934</v>
+        <v>0.402227</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.419307</v>
+        <v>0.466726</v>
       </c>
       <c r="C78" t="n">
-        <v>0.428352</v>
+        <v>0.465576</v>
       </c>
       <c r="D78" t="n">
-        <v>0.397297</v>
+        <v>0.422057</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.466053</v>
+        <v>0.503439</v>
       </c>
       <c r="C79" t="n">
-        <v>0.471878</v>
+        <v>0.496905</v>
       </c>
       <c r="D79" t="n">
-        <v>0.444526</v>
+        <v>0.454211</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.51263</v>
+        <v>0.5598610000000001</v>
       </c>
       <c r="C80" t="n">
-        <v>0.53645</v>
+        <v>0.572433</v>
       </c>
       <c r="D80" t="n">
-        <v>0.336727</v>
+        <v>0.347652</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.366839</v>
+        <v>0.399444</v>
       </c>
       <c r="C81" t="n">
-        <v>0.365992</v>
+        <v>0.405809</v>
       </c>
       <c r="D81" t="n">
-        <v>0.335159</v>
+        <v>0.356265</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.369046</v>
+        <v>0.411757</v>
       </c>
       <c r="C82" t="n">
-        <v>0.372809</v>
+        <v>0.416376</v>
       </c>
       <c r="D82" t="n">
-        <v>0.338167</v>
+        <v>0.395002</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.382044</v>
+        <v>0.380534</v>
       </c>
       <c r="C83" t="n">
-        <v>0.36692</v>
+        <v>0.385593</v>
       </c>
       <c r="D83" t="n">
-        <v>0.346183</v>
+        <v>0.370428</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.377953</v>
+        <v>0.45137</v>
       </c>
       <c r="C84" t="n">
-        <v>0.373252</v>
+        <v>0.451257</v>
       </c>
       <c r="D84" t="n">
-        <v>0.351098</v>
+        <v>0.473255</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.39991</v>
+        <v>0.598445</v>
       </c>
       <c r="C85" t="n">
-        <v>0.370637</v>
+        <v>0.428438</v>
       </c>
       <c r="D85" t="n">
-        <v>0.346506</v>
+        <v>0.409116</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.387251</v>
+        <v>0.457669</v>
       </c>
       <c r="C86" t="n">
-        <v>0.376419</v>
+        <v>0.44455</v>
       </c>
       <c r="D86" t="n">
-        <v>0.344113</v>
+        <v>0.409124</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.397721</v>
+        <v>0.510116</v>
       </c>
       <c r="C87" t="n">
-        <v>0.388931</v>
+        <v>0.466628</v>
       </c>
       <c r="D87" t="n">
-        <v>0.356166</v>
+        <v>0.402366</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.407336</v>
+        <v>0.514946</v>
       </c>
       <c r="C88" t="n">
-        <v>0.39941</v>
+        <v>0.478884</v>
       </c>
       <c r="D88" t="n">
-        <v>0.361187</v>
+        <v>0.426384</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.412612</v>
+        <v>0.583233</v>
       </c>
       <c r="C89" t="n">
-        <v>0.406117</v>
+        <v>0.501605</v>
       </c>
       <c r="D89" t="n">
-        <v>0.364914</v>
+        <v>0.435028</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.419489</v>
+        <v>0.5567299999999999</v>
       </c>
       <c r="C90" t="n">
-        <v>0.418717</v>
+        <v>0.555429</v>
       </c>
       <c r="D90" t="n">
-        <v>0.379949</v>
+        <v>0.458628</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.456076</v>
+        <v>0.530672</v>
       </c>
       <c r="C91" t="n">
-        <v>0.446056</v>
+        <v>0.493673</v>
       </c>
       <c r="D91" t="n">
-        <v>0.402092</v>
+        <v>0.486349</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.466738</v>
+        <v>0.5655</v>
       </c>
       <c r="C92" t="n">
-        <v>0.467783</v>
+        <v>0.556113</v>
       </c>
       <c r="D92" t="n">
-        <v>0.421129</v>
+        <v>0.525188</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.505016</v>
+        <v>0.648852</v>
       </c>
       <c r="C93" t="n">
-        <v>0.503102</v>
+        <v>0.589207</v>
       </c>
       <c r="D93" t="n">
-        <v>0.45138</v>
+        <v>0.531428</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.569605</v>
+        <v>0.6658269999999999</v>
       </c>
       <c r="C94" t="n">
-        <v>0.5585059999999999</v>
+        <v>0.679945</v>
       </c>
       <c r="D94" t="n">
-        <v>0.357443</v>
+        <v>0.517012</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.428449</v>
+        <v>0.560732</v>
       </c>
       <c r="C95" t="n">
-        <v>0.410246</v>
+        <v>0.514475</v>
       </c>
       <c r="D95" t="n">
-        <v>0.364498</v>
+        <v>0.459312</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.422903</v>
+        <v>0.62135</v>
       </c>
       <c r="C96" t="n">
-        <v>0.409268</v>
+        <v>0.526135</v>
       </c>
       <c r="D96" t="n">
-        <v>0.36603</v>
+        <v>0.483512</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.433809</v>
+        <v>0.587755</v>
       </c>
       <c r="C97" t="n">
-        <v>0.427559</v>
+        <v>0.5781849999999999</v>
       </c>
       <c r="D97" t="n">
-        <v>0.36505</v>
+        <v>0.447737</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.42677</v>
+        <v>0.526558</v>
       </c>
       <c r="C98" t="n">
-        <v>0.418651</v>
+        <v>0.525928</v>
       </c>
       <c r="D98" t="n">
-        <v>0.371592</v>
+        <v>0.470987</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.448412</v>
+        <v>0.655318</v>
       </c>
       <c r="C99" t="n">
-        <v>0.422033</v>
+        <v>0.579765</v>
       </c>
       <c r="D99" t="n">
-        <v>0.374765</v>
+        <v>0.471679</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.437864</v>
+        <v>0.560443</v>
       </c>
       <c r="C100" t="n">
-        <v>0.426016</v>
+        <v>0.55348</v>
       </c>
       <c r="D100" t="n">
-        <v>0.375694</v>
+        <v>0.437698</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.463367</v>
+        <v>0.569701</v>
       </c>
       <c r="C101" t="n">
-        <v>0.443683</v>
+        <v>0.529381</v>
       </c>
       <c r="D101" t="n">
-        <v>0.3762</v>
+        <v>0.473845</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.462232</v>
+        <v>0.541044</v>
       </c>
       <c r="C102" t="n">
-        <v>0.444596</v>
+        <v>0.505065</v>
       </c>
       <c r="D102" t="n">
-        <v>0.388362</v>
+        <v>0.555306</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.471392</v>
+        <v>0.664204</v>
       </c>
       <c r="C103" t="n">
-        <v>0.445821</v>
+        <v>0.589661</v>
       </c>
       <c r="D103" t="n">
-        <v>0.397483</v>
+        <v>0.612538</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.482018</v>
+        <v>0.672891</v>
       </c>
       <c r="C104" t="n">
-        <v>0.459063</v>
+        <v>0.603544</v>
       </c>
       <c r="D104" t="n">
-        <v>0.41378</v>
+        <v>0.539125</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.507096</v>
+        <v>0.654643</v>
       </c>
       <c r="C105" t="n">
-        <v>0.492304</v>
+        <v>0.640967</v>
       </c>
       <c r="D105" t="n">
-        <v>0.434967</v>
+        <v>0.560933</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.521398</v>
+        <v>0.64046</v>
       </c>
       <c r="C106" t="n">
-        <v>0.519252</v>
+        <v>0.725792</v>
       </c>
       <c r="D106" t="n">
-        <v>0.451755</v>
+        <v>0.576063</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.561296</v>
+        <v>0.752477</v>
       </c>
       <c r="C107" t="n">
-        <v>0.568743</v>
+        <v>0.695555</v>
       </c>
       <c r="D107" t="n">
-        <v>0.485398</v>
+        <v>0.601234</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.620451</v>
+        <v>0.7158330000000001</v>
       </c>
       <c r="C108" t="n">
-        <v>0.64928</v>
+        <v>0.718724</v>
       </c>
       <c r="D108" t="n">
-        <v>0.485614</v>
+        <v>0.694271</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.706045</v>
+        <v>0.898461</v>
       </c>
       <c r="C109" t="n">
-        <v>0.732631</v>
+        <v>0.84595</v>
       </c>
       <c r="D109" t="n">
-        <v>0.487983</v>
+        <v>0.651017</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.555554</v>
+        <v>0.8809399999999999</v>
       </c>
       <c r="C110" t="n">
-        <v>0.527162</v>
+        <v>0.740563</v>
       </c>
       <c r="D110" t="n">
-        <v>0.496952</v>
+        <v>0.731136</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.570993</v>
+        <v>0.804209</v>
       </c>
       <c r="C111" t="n">
-        <v>0.5399119999999999</v>
+        <v>0.767883</v>
       </c>
       <c r="D111" t="n">
-        <v>0.498539</v>
+        <v>0.68933</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.57056</v>
+        <v>0.778542</v>
       </c>
       <c r="C112" t="n">
-        <v>0.545319</v>
+        <v>0.653815</v>
       </c>
       <c r="D112" t="n">
-        <v>0.501582</v>
+        <v>0.6575530000000001</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.5850649999999999</v>
+        <v>0.799345</v>
       </c>
       <c r="C113" t="n">
-        <v>0.543728</v>
+        <v>0.808401</v>
       </c>
       <c r="D113" t="n">
-        <v>0.505009</v>
+        <v>0.6642479999999999</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.602217</v>
+        <v>0.896692</v>
       </c>
       <c r="C114" t="n">
-        <v>0.557187</v>
+        <v>0.859996</v>
       </c>
       <c r="D114" t="n">
-        <v>0.502698</v>
+        <v>0.777964</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.591468</v>
+        <v>0.776604</v>
       </c>
       <c r="C115" t="n">
-        <v>0.5457070000000001</v>
+        <v>0.861227</v>
       </c>
       <c r="D115" t="n">
-        <v>0.5048820000000001</v>
+        <v>0.67828</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.605598</v>
+        <v>1.08884</v>
       </c>
       <c r="C116" t="n">
-        <v>0.604942</v>
+        <v>1.0971</v>
       </c>
       <c r="D116" t="n">
-        <v>0.519352</v>
+        <v>1.01148</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.624596</v>
+        <v>1.10066</v>
       </c>
       <c r="C117" t="n">
-        <v>0.594457</v>
+        <v>1.17796</v>
       </c>
       <c r="D117" t="n">
-        <v>0.537558</v>
+        <v>0.9509030000000001</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.628557</v>
+        <v>1.16687</v>
       </c>
       <c r="C118" t="n">
-        <v>0.609839</v>
+        <v>1.13437</v>
       </c>
       <c r="D118" t="n">
-        <v>0.532323</v>
+        <v>0.996158</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.646829</v>
+        <v>1.23257</v>
       </c>
       <c r="C119" t="n">
-        <v>0.631834</v>
+        <v>1.14397</v>
       </c>
       <c r="D119" t="n">
-        <v>0.553102</v>
+        <v>0.955393</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.659929</v>
+        <v>1.46443</v>
       </c>
       <c r="C120" t="n">
-        <v>0.702958</v>
+        <v>1.09614</v>
       </c>
       <c r="D120" t="n">
-        <v>0.581363</v>
+        <v>0.992954</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.720627</v>
+        <v>1.30223</v>
       </c>
       <c r="C121" t="n">
-        <v>0.7067099999999999</v>
+        <v>1.08893</v>
       </c>
       <c r="D121" t="n">
-        <v>0.607523</v>
+        <v>1.24623</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.799077</v>
+        <v>1.49841</v>
       </c>
       <c r="C122" t="n">
-        <v>0.774296</v>
+        <v>1.57436</v>
       </c>
       <c r="D122" t="n">
-        <v>0.66212</v>
+        <v>1.36427</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.869072</v>
+        <v>1.21231</v>
       </c>
       <c r="C123" t="n">
-        <v>0.8753609999999999</v>
+        <v>1.33898</v>
       </c>
       <c r="D123" t="n">
-        <v>0.742818</v>
+        <v>1.32597</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.881884</v>
+        <v>1.69134</v>
       </c>
       <c r="C124" t="n">
-        <v>0.82082</v>
+        <v>1.18143</v>
       </c>
       <c r="D124" t="n">
-        <v>0.760171</v>
+        <v>1.0907</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.87619</v>
+        <v>1.20562</v>
       </c>
       <c r="C125" t="n">
-        <v>0.817603</v>
+        <v>0.952035</v>
       </c>
       <c r="D125" t="n">
-        <v>0.737663</v>
+        <v>0.8859320000000001</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.89398</v>
+        <v>1.1325</v>
       </c>
       <c r="C126" t="n">
-        <v>0.820343</v>
+        <v>1.01522</v>
       </c>
       <c r="D126" t="n">
-        <v>0.762254</v>
+        <v>0.9502890000000001</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.908601</v>
+        <v>1.06475</v>
       </c>
       <c r="C127" t="n">
-        <v>0.819663</v>
+        <v>0.997658</v>
       </c>
       <c r="D127" t="n">
-        <v>0.7878579999999999</v>
+        <v>0.916999</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.917927</v>
+        <v>1.0534</v>
       </c>
       <c r="C128" t="n">
-        <v>0.8372810000000001</v>
+        <v>0.963428</v>
       </c>
       <c r="D128" t="n">
-        <v>0.767855</v>
+        <v>0.931654</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.947913</v>
+        <v>1.06372</v>
       </c>
       <c r="C129" t="n">
-        <v>0.8800559999999999</v>
+        <v>0.982568</v>
       </c>
       <c r="D129" t="n">
-        <v>0.786984</v>
+        <v>0.913592</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.932387</v>
+        <v>1.1342</v>
       </c>
       <c r="C130" t="n">
-        <v>0.863007</v>
+        <v>0.992731</v>
       </c>
       <c r="D130" t="n">
-        <v>0.802065</v>
+        <v>0.941194</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.952553</v>
+        <v>1.10853</v>
       </c>
       <c r="C131" t="n">
-        <v>0.885479</v>
+        <v>1.04928</v>
       </c>
       <c r="D131" t="n">
-        <v>0.791801</v>
+        <v>0.923745</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.965415</v>
+        <v>1.1614</v>
       </c>
       <c r="C132" t="n">
-        <v>0.904652</v>
+        <v>1.05976</v>
       </c>
       <c r="D132" t="n">
-        <v>0.823618</v>
+        <v>0.980027</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.993382</v>
+        <v>1.22529</v>
       </c>
       <c r="C133" t="n">
-        <v>0.971559</v>
+        <v>1.12537</v>
       </c>
       <c r="D133" t="n">
-        <v>0.826688</v>
+        <v>0.97641</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.04077</v>
+        <v>1.26469</v>
       </c>
       <c r="C134" t="n">
-        <v>1.01468</v>
+        <v>1.11696</v>
       </c>
       <c r="D134" t="n">
-        <v>0.863414</v>
+        <v>0.990337</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.05361</v>
+        <v>1.25831</v>
       </c>
       <c r="C135" t="n">
-        <v>1.01378</v>
+        <v>1.2096</v>
       </c>
       <c r="D135" t="n">
-        <v>0.913946</v>
+        <v>1.02971</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.13205</v>
+        <v>1.36622</v>
       </c>
       <c r="C136" t="n">
-        <v>1.09873</v>
+        <v>1.25188</v>
       </c>
       <c r="D136" t="n">
-        <v>0.967819</v>
+        <v>1.15802</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.24006</v>
+        <v>1.4876</v>
       </c>
       <c r="C137" t="n">
-        <v>1.2234</v>
+        <v>1.41944</v>
       </c>
       <c r="D137" t="n">
-        <v>1.01266</v>
+        <v>1.11479</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.19561</v>
+        <v>1.33499</v>
       </c>
       <c r="C138" t="n">
-        <v>1.06084</v>
+        <v>1.16338</v>
       </c>
       <c r="D138" t="n">
-        <v>1.05248</v>
+        <v>1.10053</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.2004</v>
+        <v>1.36161</v>
       </c>
       <c r="C139" t="n">
-        <v>1.11343</v>
+        <v>1.16702</v>
       </c>
       <c r="D139" t="n">
-        <v>0.991555</v>
+        <v>1.10751</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.24836</v>
+        <v>1.33496</v>
       </c>
       <c r="C140" t="n">
-        <v>1.09867</v>
+        <v>1.18561</v>
       </c>
       <c r="D140" t="n">
-        <v>1.04599</v>
+        <v>1.12082</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.20266</v>
+        <v>1.3643</v>
       </c>
       <c r="C141" t="n">
-        <v>1.11777</v>
+        <v>1.22374</v>
       </c>
       <c r="D141" t="n">
-        <v>1.01244</v>
+        <v>1.18183</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.26595</v>
+        <v>1.35579</v>
       </c>
       <c r="C142" t="n">
-        <v>1.08202</v>
+        <v>1.21564</v>
       </c>
       <c r="D142" t="n">
-        <v>1.07432</v>
+        <v>1.1511</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.24937</v>
+        <v>1.41922</v>
       </c>
       <c r="C143" t="n">
-        <v>1.10608</v>
+        <v>1.25297</v>
       </c>
       <c r="D143" t="n">
-        <v>1.01842</v>
+        <v>1.18173</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered unsuccessful looukp.xlsx
+++ b/vs-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.334499</v>
+        <v>0.331187</v>
       </c>
       <c r="C2" t="n">
-        <v>0.369906</v>
+        <v>0.362336</v>
       </c>
       <c r="D2" t="n">
-        <v>0.340052</v>
+        <v>0.327465</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.339645</v>
+        <v>0.329123</v>
       </c>
       <c r="C3" t="n">
-        <v>0.350906</v>
+        <v>0.347654</v>
       </c>
       <c r="D3" t="n">
-        <v>0.345361</v>
+        <v>0.333126</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.356655</v>
+        <v>0.337972</v>
       </c>
       <c r="C4" t="n">
-        <v>0.365861</v>
+        <v>0.36297</v>
       </c>
       <c r="D4" t="n">
-        <v>0.348376</v>
+        <v>0.337242</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.34772</v>
+        <v>0.355261</v>
       </c>
       <c r="C5" t="n">
-        <v>0.368096</v>
+        <v>0.365197</v>
       </c>
       <c r="D5" t="n">
-        <v>0.350973</v>
+        <v>0.348543</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.357819</v>
+        <v>0.361303</v>
       </c>
       <c r="C6" t="n">
-        <v>0.384057</v>
+        <v>0.378694</v>
       </c>
       <c r="D6" t="n">
-        <v>0.371217</v>
+        <v>0.358827</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.376421</v>
+        <v>0.375571</v>
       </c>
       <c r="C7" t="n">
-        <v>0.41069</v>
+        <v>0.425338</v>
       </c>
       <c r="D7" t="n">
-        <v>0.384001</v>
+        <v>0.376802</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.405106</v>
+        <v>0.408377</v>
       </c>
       <c r="C8" t="n">
-        <v>0.44771</v>
+        <v>0.445432</v>
       </c>
       <c r="D8" t="n">
-        <v>0.413492</v>
+        <v>0.420835</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.459754</v>
+        <v>0.461783</v>
       </c>
       <c r="C9" t="n">
-        <v>0.49701</v>
+        <v>0.507617</v>
       </c>
       <c r="D9" t="n">
-        <v>0.318085</v>
+        <v>0.319776</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.326924</v>
+        <v>0.333297</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3396</v>
+        <v>0.351128</v>
       </c>
       <c r="D10" t="n">
-        <v>0.330162</v>
+        <v>0.351644</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.327112</v>
+        <v>0.324392</v>
       </c>
       <c r="C11" t="n">
-        <v>0.338773</v>
+        <v>0.335288</v>
       </c>
       <c r="D11" t="n">
-        <v>0.333014</v>
+        <v>0.325754</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.333048</v>
+        <v>0.327086</v>
       </c>
       <c r="C12" t="n">
-        <v>0.349167</v>
+        <v>0.340335</v>
       </c>
       <c r="D12" t="n">
-        <v>0.323952</v>
+        <v>0.327516</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.329535</v>
+        <v>0.330349</v>
       </c>
       <c r="C13" t="n">
-        <v>0.34196</v>
+        <v>0.337982</v>
       </c>
       <c r="D13" t="n">
-        <v>0.324125</v>
+        <v>0.329764</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.328113</v>
+        <v>0.339532</v>
       </c>
       <c r="C14" t="n">
-        <v>0.343916</v>
+        <v>0.358653</v>
       </c>
       <c r="D14" t="n">
-        <v>0.325587</v>
+        <v>0.32382</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.332506</v>
+        <v>0.338618</v>
       </c>
       <c r="C15" t="n">
-        <v>0.34904</v>
+        <v>0.347156</v>
       </c>
       <c r="D15" t="n">
-        <v>0.330718</v>
+        <v>0.320654</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.346383</v>
+        <v>0.345847</v>
       </c>
       <c r="C16" t="n">
-        <v>0.349557</v>
+        <v>0.345102</v>
       </c>
       <c r="D16" t="n">
-        <v>0.333082</v>
+        <v>0.328807</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.338223</v>
+        <v>0.350408</v>
       </c>
       <c r="C17" t="n">
-        <v>0.35318</v>
+        <v>0.354153</v>
       </c>
       <c r="D17" t="n">
-        <v>0.337787</v>
+        <v>0.335805</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.341285</v>
+        <v>0.343463</v>
       </c>
       <c r="C18" t="n">
-        <v>0.356678</v>
+        <v>0.354621</v>
       </c>
       <c r="D18" t="n">
-        <v>0.338263</v>
+        <v>0.342518</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.3499</v>
+        <v>0.349568</v>
       </c>
       <c r="C19" t="n">
-        <v>0.363978</v>
+        <v>0.358865</v>
       </c>
       <c r="D19" t="n">
-        <v>0.345725</v>
+        <v>0.349872</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.362489</v>
+        <v>0.370453</v>
       </c>
       <c r="C20" t="n">
-        <v>0.378239</v>
+        <v>0.388071</v>
       </c>
       <c r="D20" t="n">
-        <v>0.35729</v>
+        <v>0.351536</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.379366</v>
+        <v>0.376123</v>
       </c>
       <c r="C21" t="n">
-        <v>0.393782</v>
+        <v>0.406547</v>
       </c>
       <c r="D21" t="n">
-        <v>0.370074</v>
+        <v>0.374267</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.411178</v>
+        <v>0.40063</v>
       </c>
       <c r="C22" t="n">
-        <v>0.420384</v>
+        <v>0.411813</v>
       </c>
       <c r="D22" t="n">
-        <v>0.398496</v>
+        <v>0.391647</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.443638</v>
+        <v>0.432317</v>
       </c>
       <c r="C23" t="n">
-        <v>0.472391</v>
+        <v>0.465994</v>
       </c>
       <c r="D23" t="n">
-        <v>0.31907</v>
+        <v>0.319576</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.327541</v>
+        <v>0.3204</v>
       </c>
       <c r="C24" t="n">
-        <v>0.339151</v>
+        <v>0.335334</v>
       </c>
       <c r="D24" t="n">
-        <v>0.321439</v>
+        <v>0.31689</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.330612</v>
+        <v>0.320143</v>
       </c>
       <c r="C25" t="n">
-        <v>0.339701</v>
+        <v>0.340427</v>
       </c>
       <c r="D25" t="n">
-        <v>0.321182</v>
+        <v>0.31438</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.330394</v>
+        <v>0.333032</v>
       </c>
       <c r="C26" t="n">
-        <v>0.339688</v>
+        <v>0.349027</v>
       </c>
       <c r="D26" t="n">
-        <v>0.32172</v>
+        <v>0.32079</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.329628</v>
+        <v>0.32662</v>
       </c>
       <c r="C27" t="n">
-        <v>0.340442</v>
+        <v>0.346648</v>
       </c>
       <c r="D27" t="n">
-        <v>0.321406</v>
+        <v>0.325197</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.332809</v>
+        <v>0.332365</v>
       </c>
       <c r="C28" t="n">
-        <v>0.35114</v>
+        <v>0.342165</v>
       </c>
       <c r="D28" t="n">
-        <v>0.352164</v>
+        <v>0.32411</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.359947</v>
+        <v>0.342433</v>
       </c>
       <c r="C29" t="n">
-        <v>0.359706</v>
+        <v>0.342144</v>
       </c>
       <c r="D29" t="n">
-        <v>0.340311</v>
+        <v>0.320646</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.336974</v>
+        <v>0.335008</v>
       </c>
       <c r="C30" t="n">
-        <v>0.345854</v>
+        <v>0.358377</v>
       </c>
       <c r="D30" t="n">
-        <v>0.338578</v>
+        <v>0.327928</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.356848</v>
+        <v>0.338505</v>
       </c>
       <c r="C31" t="n">
-        <v>0.351986</v>
+        <v>0.347685</v>
       </c>
       <c r="D31" t="n">
-        <v>0.33192</v>
+        <v>0.329551</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.341908</v>
+        <v>0.349961</v>
       </c>
       <c r="C32" t="n">
-        <v>0.357653</v>
+        <v>0.352732</v>
       </c>
       <c r="D32" t="n">
-        <v>0.33699</v>
+        <v>0.337224</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.350779</v>
+        <v>0.355274</v>
       </c>
       <c r="C33" t="n">
-        <v>0.362592</v>
+        <v>0.3584</v>
       </c>
       <c r="D33" t="n">
-        <v>0.343007</v>
+        <v>0.340049</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.362921</v>
+        <v>0.36303</v>
       </c>
       <c r="C34" t="n">
-        <v>0.369554</v>
+        <v>0.366524</v>
       </c>
       <c r="D34" t="n">
-        <v>0.356061</v>
+        <v>0.36002</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.375402</v>
+        <v>0.383667</v>
       </c>
       <c r="C35" t="n">
-        <v>0.382848</v>
+        <v>0.381226</v>
       </c>
       <c r="D35" t="n">
-        <v>0.367472</v>
+        <v>0.368721</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.398802</v>
+        <v>0.399008</v>
       </c>
       <c r="C36" t="n">
-        <v>0.411651</v>
+        <v>0.405924</v>
       </c>
       <c r="D36" t="n">
-        <v>0.392576</v>
+        <v>0.386268</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.439882</v>
+        <v>0.439292</v>
       </c>
       <c r="C37" t="n">
-        <v>0.451883</v>
+        <v>0.454397</v>
       </c>
       <c r="D37" t="n">
-        <v>0.322269</v>
+        <v>0.320881</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.328927</v>
+        <v>0.328697</v>
       </c>
       <c r="C38" t="n">
-        <v>0.342086</v>
+        <v>0.337769</v>
       </c>
       <c r="D38" t="n">
-        <v>0.319742</v>
+        <v>0.314851</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.335858</v>
+        <v>0.32423</v>
       </c>
       <c r="C39" t="n">
-        <v>0.339593</v>
+        <v>0.339124</v>
       </c>
       <c r="D39" t="n">
-        <v>0.327548</v>
+        <v>0.326749</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.336617</v>
+        <v>0.327293</v>
       </c>
       <c r="C40" t="n">
-        <v>0.338948</v>
+        <v>0.342472</v>
       </c>
       <c r="D40" t="n">
-        <v>0.323955</v>
+        <v>0.322929</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.336496</v>
+        <v>0.333624</v>
       </c>
       <c r="C41" t="n">
-        <v>0.342271</v>
+        <v>0.340643</v>
       </c>
       <c r="D41" t="n">
-        <v>0.32657</v>
+        <v>0.322593</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.34054</v>
+        <v>0.335141</v>
       </c>
       <c r="C42" t="n">
-        <v>0.345801</v>
+        <v>0.341473</v>
       </c>
       <c r="D42" t="n">
-        <v>0.326503</v>
+        <v>0.333237</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.344311</v>
+        <v>0.333374</v>
       </c>
       <c r="C43" t="n">
-        <v>0.34716</v>
+        <v>0.350041</v>
       </c>
       <c r="D43" t="n">
-        <v>0.330155</v>
+        <v>0.33259</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.343231</v>
+        <v>0.345095</v>
       </c>
       <c r="C44" t="n">
-        <v>0.349555</v>
+        <v>0.346896</v>
       </c>
       <c r="D44" t="n">
-        <v>0.329791</v>
+        <v>0.34861</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.34491</v>
+        <v>0.353916</v>
       </c>
       <c r="C45" t="n">
-        <v>0.351976</v>
+        <v>0.357963</v>
       </c>
       <c r="D45" t="n">
-        <v>0.332524</v>
+        <v>0.347125</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.352595</v>
+        <v>0.341701</v>
       </c>
       <c r="C46" t="n">
-        <v>0.356109</v>
+        <v>0.346545</v>
       </c>
       <c r="D46" t="n">
-        <v>0.341382</v>
+        <v>0.333373</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.358643</v>
+        <v>0.358609</v>
       </c>
       <c r="C47" t="n">
-        <v>0.363094</v>
+        <v>0.370318</v>
       </c>
       <c r="D47" t="n">
-        <v>0.346692</v>
+        <v>0.34831</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.362912</v>
+        <v>0.357134</v>
       </c>
       <c r="C48" t="n">
-        <v>0.374229</v>
+        <v>0.371647</v>
       </c>
       <c r="D48" t="n">
-        <v>0.355654</v>
+        <v>0.349863</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.382577</v>
+        <v>0.372021</v>
       </c>
       <c r="C49" t="n">
-        <v>0.391082</v>
+        <v>0.388744</v>
       </c>
       <c r="D49" t="n">
-        <v>0.370616</v>
+        <v>0.366509</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.401688</v>
+        <v>0.393489</v>
       </c>
       <c r="C50" t="n">
-        <v>0.416703</v>
+        <v>0.408764</v>
       </c>
       <c r="D50" t="n">
-        <v>0.3922</v>
+        <v>0.384363</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.435611</v>
+        <v>0.427568</v>
       </c>
       <c r="C51" t="n">
-        <v>0.455035</v>
+        <v>0.4414</v>
       </c>
       <c r="D51" t="n">
-        <v>0.321596</v>
+        <v>0.324095</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.499751</v>
+        <v>0.491722</v>
       </c>
       <c r="C52" t="n">
-        <v>0.51766</v>
+        <v>0.507405</v>
       </c>
       <c r="D52" t="n">
-        <v>0.325849</v>
+        <v>0.322004</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.340704</v>
+        <v>0.336576</v>
       </c>
       <c r="C53" t="n">
-        <v>0.348124</v>
+        <v>0.350513</v>
       </c>
       <c r="D53" t="n">
-        <v>0.327828</v>
+        <v>0.333994</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.342391</v>
+        <v>0.333331</v>
       </c>
       <c r="C54" t="n">
-        <v>0.34931</v>
+        <v>0.340855</v>
       </c>
       <c r="D54" t="n">
-        <v>0.327768</v>
+        <v>0.334182</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.346579</v>
+        <v>0.333768</v>
       </c>
       <c r="C55" t="n">
-        <v>0.35113</v>
+        <v>0.347388</v>
       </c>
       <c r="D55" t="n">
-        <v>0.326522</v>
+        <v>0.328645</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.367886</v>
+        <v>0.339234</v>
       </c>
       <c r="C56" t="n">
-        <v>0.356953</v>
+        <v>0.346064</v>
       </c>
       <c r="D56" t="n">
-        <v>0.330749</v>
+        <v>0.32952</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.356462</v>
+        <v>0.34721</v>
       </c>
       <c r="C57" t="n">
-        <v>0.379746</v>
+        <v>0.364396</v>
       </c>
       <c r="D57" t="n">
-        <v>0.353965</v>
+        <v>0.333761</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.414759</v>
+        <v>0.358102</v>
       </c>
       <c r="C58" t="n">
-        <v>0.360062</v>
+        <v>0.346405</v>
       </c>
       <c r="D58" t="n">
-        <v>0.33873</v>
+        <v>0.329711</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.391823</v>
+        <v>0.350351</v>
       </c>
       <c r="C59" t="n">
-        <v>0.361116</v>
+        <v>0.35215</v>
       </c>
       <c r="D59" t="n">
-        <v>0.341106</v>
+        <v>0.334131</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.372323</v>
+        <v>0.358562</v>
       </c>
       <c r="C60" t="n">
-        <v>0.370311</v>
+        <v>0.351421</v>
       </c>
       <c r="D60" t="n">
-        <v>0.345317</v>
+        <v>0.337465</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.366146</v>
+        <v>0.367981</v>
       </c>
       <c r="C61" t="n">
-        <v>0.379589</v>
+        <v>0.35926</v>
       </c>
       <c r="D61" t="n">
-        <v>0.374641</v>
+        <v>0.349718</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.383009</v>
+        <v>0.367215</v>
       </c>
       <c r="C62" t="n">
-        <v>0.391224</v>
+        <v>0.374052</v>
       </c>
       <c r="D62" t="n">
-        <v>0.365678</v>
+        <v>0.348785</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.406893</v>
+        <v>0.379386</v>
       </c>
       <c r="C63" t="n">
-        <v>0.414245</v>
+        <v>0.387103</v>
       </c>
       <c r="D63" t="n">
-        <v>0.399985</v>
+        <v>0.382486</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.436657</v>
+        <v>0.401873</v>
       </c>
       <c r="C64" t="n">
-        <v>0.431031</v>
+        <v>0.413022</v>
       </c>
       <c r="D64" t="n">
-        <v>0.407104</v>
+        <v>0.396275</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.473254</v>
+        <v>0.454722</v>
       </c>
       <c r="C65" t="n">
-        <v>0.486666</v>
+        <v>0.456452</v>
       </c>
       <c r="D65" t="n">
-        <v>0.448958</v>
+        <v>0.420148</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.542322</v>
+        <v>0.48082</v>
       </c>
       <c r="C66" t="n">
-        <v>0.5406570000000001</v>
+        <v>0.512188</v>
       </c>
       <c r="D66" t="n">
-        <v>0.340352</v>
+        <v>0.342146</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.424066</v>
+        <v>0.359336</v>
       </c>
       <c r="C67" t="n">
-        <v>0.38106</v>
+        <v>0.354851</v>
       </c>
       <c r="D67" t="n">
-        <v>0.338618</v>
+        <v>0.338448</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.383992</v>
+        <v>0.350662</v>
       </c>
       <c r="C68" t="n">
-        <v>0.367304</v>
+        <v>0.376098</v>
       </c>
       <c r="D68" t="n">
-        <v>0.344073</v>
+        <v>0.335183</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.382997</v>
+        <v>0.358554</v>
       </c>
       <c r="C69" t="n">
-        <v>0.374904</v>
+        <v>0.351608</v>
       </c>
       <c r="D69" t="n">
-        <v>0.340339</v>
+        <v>0.329509</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.371682</v>
+        <v>0.372314</v>
       </c>
       <c r="C70" t="n">
-        <v>0.377098</v>
+        <v>0.355584</v>
       </c>
       <c r="D70" t="n">
-        <v>0.343572</v>
+        <v>0.335318</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.381148</v>
+        <v>0.3511</v>
       </c>
       <c r="C71" t="n">
-        <v>0.374518</v>
+        <v>0.363262</v>
       </c>
       <c r="D71" t="n">
-        <v>0.347673</v>
+        <v>0.332137</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.385405</v>
+        <v>0.362165</v>
       </c>
       <c r="C72" t="n">
-        <v>0.45048</v>
+        <v>0.364683</v>
       </c>
       <c r="D72" t="n">
-        <v>0.389904</v>
+        <v>0.334381</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.406152</v>
+        <v>0.37098</v>
       </c>
       <c r="C73" t="n">
-        <v>0.386568</v>
+        <v>0.365842</v>
       </c>
       <c r="D73" t="n">
-        <v>0.352239</v>
+        <v>0.339908</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.467494</v>
+        <v>0.371206</v>
       </c>
       <c r="C74" t="n">
-        <v>0.453808</v>
+        <v>0.375294</v>
       </c>
       <c r="D74" t="n">
-        <v>0.412516</v>
+        <v>0.363057</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.411732</v>
+        <v>0.381189</v>
       </c>
       <c r="C75" t="n">
-        <v>0.409336</v>
+        <v>0.375779</v>
       </c>
       <c r="D75" t="n">
-        <v>0.370842</v>
+        <v>0.351352</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.419524</v>
+        <v>0.39174</v>
       </c>
       <c r="C76" t="n">
-        <v>0.413478</v>
+        <v>0.396629</v>
       </c>
       <c r="D76" t="n">
-        <v>0.383485</v>
+        <v>0.382951</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.441622</v>
+        <v>0.403249</v>
       </c>
       <c r="C77" t="n">
-        <v>0.442827</v>
+        <v>0.413198</v>
       </c>
       <c r="D77" t="n">
-        <v>0.402227</v>
+        <v>0.385254</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.466726</v>
+        <v>0.428277</v>
       </c>
       <c r="C78" t="n">
-        <v>0.465576</v>
+        <v>0.436855</v>
       </c>
       <c r="D78" t="n">
-        <v>0.422057</v>
+        <v>0.405606</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.503439</v>
+        <v>0.463616</v>
       </c>
       <c r="C79" t="n">
-        <v>0.496905</v>
+        <v>0.465142</v>
       </c>
       <c r="D79" t="n">
-        <v>0.454211</v>
+        <v>0.446346</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.5598610000000001</v>
+        <v>0.516888</v>
       </c>
       <c r="C80" t="n">
-        <v>0.572433</v>
+        <v>0.535902</v>
       </c>
       <c r="D80" t="n">
-        <v>0.347652</v>
+        <v>0.324993</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.399444</v>
+        <v>0.368723</v>
       </c>
       <c r="C81" t="n">
-        <v>0.405809</v>
+        <v>0.365885</v>
       </c>
       <c r="D81" t="n">
-        <v>0.356265</v>
+        <v>0.338977</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.411757</v>
+        <v>0.373985</v>
       </c>
       <c r="C82" t="n">
-        <v>0.416376</v>
+        <v>0.361431</v>
       </c>
       <c r="D82" t="n">
-        <v>0.395002</v>
+        <v>0.339421</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.380534</v>
+        <v>0.379106</v>
       </c>
       <c r="C83" t="n">
-        <v>0.385593</v>
+        <v>0.364641</v>
       </c>
       <c r="D83" t="n">
-        <v>0.370428</v>
+        <v>0.338596</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.45137</v>
+        <v>0.374335</v>
       </c>
       <c r="C84" t="n">
-        <v>0.451257</v>
+        <v>0.367419</v>
       </c>
       <c r="D84" t="n">
-        <v>0.473255</v>
+        <v>0.341718</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.598445</v>
+        <v>0.380271</v>
       </c>
       <c r="C85" t="n">
-        <v>0.428438</v>
+        <v>0.369951</v>
       </c>
       <c r="D85" t="n">
-        <v>0.409116</v>
+        <v>0.340626</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.457669</v>
+        <v>0.38371</v>
       </c>
       <c r="C86" t="n">
-        <v>0.44455</v>
+        <v>0.388008</v>
       </c>
       <c r="D86" t="n">
-        <v>0.409124</v>
+        <v>0.345646</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.510116</v>
+        <v>0.401972</v>
       </c>
       <c r="C87" t="n">
-        <v>0.466628</v>
+        <v>0.383737</v>
       </c>
       <c r="D87" t="n">
-        <v>0.402366</v>
+        <v>0.344236</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.514946</v>
+        <v>0.39123</v>
       </c>
       <c r="C88" t="n">
-        <v>0.478884</v>
+        <v>0.402739</v>
       </c>
       <c r="D88" t="n">
-        <v>0.426384</v>
+        <v>0.34703</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.583233</v>
+        <v>0.40516</v>
       </c>
       <c r="C89" t="n">
-        <v>0.501605</v>
+        <v>0.396468</v>
       </c>
       <c r="D89" t="n">
-        <v>0.435028</v>
+        <v>0.361304</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.5567299999999999</v>
+        <v>0.42774</v>
       </c>
       <c r="C90" t="n">
-        <v>0.555429</v>
+        <v>0.419162</v>
       </c>
       <c r="D90" t="n">
-        <v>0.458628</v>
+        <v>0.380694</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.530672</v>
+        <v>0.438379</v>
       </c>
       <c r="C91" t="n">
-        <v>0.493673</v>
+        <v>0.44719</v>
       </c>
       <c r="D91" t="n">
-        <v>0.486349</v>
+        <v>0.414198</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.5655</v>
+        <v>0.463999</v>
       </c>
       <c r="C92" t="n">
-        <v>0.556113</v>
+        <v>0.457665</v>
       </c>
       <c r="D92" t="n">
-        <v>0.525188</v>
+        <v>0.420637</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.648852</v>
+        <v>0.490489</v>
       </c>
       <c r="C93" t="n">
-        <v>0.589207</v>
+        <v>0.511294</v>
       </c>
       <c r="D93" t="n">
-        <v>0.531428</v>
+        <v>0.467017</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.6658269999999999</v>
+        <v>0.551038</v>
       </c>
       <c r="C94" t="n">
-        <v>0.679945</v>
+        <v>0.567961</v>
       </c>
       <c r="D94" t="n">
-        <v>0.517012</v>
+        <v>0.355274</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.560732</v>
+        <v>0.43387</v>
       </c>
       <c r="C95" t="n">
-        <v>0.514475</v>
+        <v>0.411058</v>
       </c>
       <c r="D95" t="n">
-        <v>0.459312</v>
+        <v>0.36314</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.62135</v>
+        <v>0.428679</v>
       </c>
       <c r="C96" t="n">
-        <v>0.526135</v>
+        <v>0.419019</v>
       </c>
       <c r="D96" t="n">
-        <v>0.483512</v>
+        <v>0.369919</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.587755</v>
+        <v>0.427733</v>
       </c>
       <c r="C97" t="n">
-        <v>0.5781849999999999</v>
+        <v>0.400055</v>
       </c>
       <c r="D97" t="n">
-        <v>0.447737</v>
+        <v>0.36417</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.526558</v>
+        <v>0.446002</v>
       </c>
       <c r="C98" t="n">
-        <v>0.525928</v>
+        <v>0.412215</v>
       </c>
       <c r="D98" t="n">
-        <v>0.470987</v>
+        <v>0.370478</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.655318</v>
+        <v>0.437216</v>
       </c>
       <c r="C99" t="n">
-        <v>0.579765</v>
+        <v>0.428647</v>
       </c>
       <c r="D99" t="n">
-        <v>0.471679</v>
+        <v>0.377488</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.560443</v>
+        <v>0.458931</v>
       </c>
       <c r="C100" t="n">
-        <v>0.55348</v>
+        <v>0.423991</v>
       </c>
       <c r="D100" t="n">
-        <v>0.437698</v>
+        <v>0.383903</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.569701</v>
+        <v>0.447853</v>
       </c>
       <c r="C101" t="n">
-        <v>0.529381</v>
+        <v>0.42896</v>
       </c>
       <c r="D101" t="n">
-        <v>0.473845</v>
+        <v>0.385048</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.541044</v>
+        <v>0.456314</v>
       </c>
       <c r="C102" t="n">
-        <v>0.505065</v>
+        <v>0.435277</v>
       </c>
       <c r="D102" t="n">
-        <v>0.555306</v>
+        <v>0.387254</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.664204</v>
+        <v>0.461484</v>
       </c>
       <c r="C103" t="n">
-        <v>0.589661</v>
+        <v>0.450172</v>
       </c>
       <c r="D103" t="n">
-        <v>0.612538</v>
+        <v>0.406677</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.672891</v>
+        <v>0.494032</v>
       </c>
       <c r="C104" t="n">
-        <v>0.603544</v>
+        <v>0.476208</v>
       </c>
       <c r="D104" t="n">
-        <v>0.539125</v>
+        <v>0.417689</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.654643</v>
+        <v>0.507418</v>
       </c>
       <c r="C105" t="n">
-        <v>0.640967</v>
+        <v>0.490002</v>
       </c>
       <c r="D105" t="n">
-        <v>0.560933</v>
+        <v>0.424231</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.64046</v>
+        <v>0.545114</v>
       </c>
       <c r="C106" t="n">
-        <v>0.725792</v>
+        <v>0.533502</v>
       </c>
       <c r="D106" t="n">
-        <v>0.576063</v>
+        <v>0.448859</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.752477</v>
+        <v>0.558492</v>
       </c>
       <c r="C107" t="n">
-        <v>0.695555</v>
+        <v>0.562377</v>
       </c>
       <c r="D107" t="n">
-        <v>0.601234</v>
+        <v>0.486917</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.7158330000000001</v>
+        <v>0.6236699999999999</v>
       </c>
       <c r="C108" t="n">
-        <v>0.718724</v>
+        <v>0.61574</v>
       </c>
       <c r="D108" t="n">
-        <v>0.694271</v>
+        <v>0.461883</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.898461</v>
+        <v>0.716655</v>
       </c>
       <c r="C109" t="n">
-        <v>0.84595</v>
+        <v>0.744179</v>
       </c>
       <c r="D109" t="n">
-        <v>0.651017</v>
+        <v>0.490735</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.8809399999999999</v>
+        <v>0.572081</v>
       </c>
       <c r="C110" t="n">
-        <v>0.740563</v>
+        <v>0.535417</v>
       </c>
       <c r="D110" t="n">
-        <v>0.731136</v>
+        <v>0.485709</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.804209</v>
+        <v>0.5603</v>
       </c>
       <c r="C111" t="n">
-        <v>0.767883</v>
+        <v>0.523471</v>
       </c>
       <c r="D111" t="n">
-        <v>0.68933</v>
+        <v>0.487485</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.778542</v>
+        <v>0.581253</v>
       </c>
       <c r="C112" t="n">
-        <v>0.653815</v>
+        <v>0.543924</v>
       </c>
       <c r="D112" t="n">
-        <v>0.6575530000000001</v>
+        <v>0.480476</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.799345</v>
+        <v>0.583073</v>
       </c>
       <c r="C113" t="n">
-        <v>0.808401</v>
+        <v>0.559267</v>
       </c>
       <c r="D113" t="n">
-        <v>0.6642479999999999</v>
+        <v>0.486592</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.896692</v>
+        <v>0.579765</v>
       </c>
       <c r="C114" t="n">
-        <v>0.859996</v>
+        <v>0.549965</v>
       </c>
       <c r="D114" t="n">
-        <v>0.777964</v>
+        <v>0.494038</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.776604</v>
+        <v>0.578726</v>
       </c>
       <c r="C115" t="n">
-        <v>0.861227</v>
+        <v>0.571054</v>
       </c>
       <c r="D115" t="n">
-        <v>0.67828</v>
+        <v>0.5114</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.08884</v>
+        <v>0.606316</v>
       </c>
       <c r="C116" t="n">
-        <v>1.0971</v>
+        <v>0.591717</v>
       </c>
       <c r="D116" t="n">
-        <v>1.01148</v>
+        <v>0.507182</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.10066</v>
+        <v>0.610605</v>
       </c>
       <c r="C117" t="n">
-        <v>1.17796</v>
+        <v>0.5923580000000001</v>
       </c>
       <c r="D117" t="n">
-        <v>0.9509030000000001</v>
+        <v>0.520641</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.16687</v>
+        <v>0.632464</v>
       </c>
       <c r="C118" t="n">
-        <v>1.13437</v>
+        <v>0.609567</v>
       </c>
       <c r="D118" t="n">
-        <v>0.996158</v>
+        <v>0.543061</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.23257</v>
+        <v>0.661754</v>
       </c>
       <c r="C119" t="n">
-        <v>1.14397</v>
+        <v>0.630176</v>
       </c>
       <c r="D119" t="n">
-        <v>0.955393</v>
+        <v>0.561231</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.46443</v>
+        <v>0.666373</v>
       </c>
       <c r="C120" t="n">
-        <v>1.09614</v>
+        <v>0.666529</v>
       </c>
       <c r="D120" t="n">
-        <v>0.992954</v>
+        <v>0.572119</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.30223</v>
+        <v>0.705979</v>
       </c>
       <c r="C121" t="n">
-        <v>1.08893</v>
+        <v>0.7095669999999999</v>
       </c>
       <c r="D121" t="n">
-        <v>1.24623</v>
+        <v>0.610575</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.49841</v>
+        <v>0.778795</v>
       </c>
       <c r="C122" t="n">
-        <v>1.57436</v>
+        <v>0.748738</v>
       </c>
       <c r="D122" t="n">
-        <v>1.36427</v>
+        <v>0.658886</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.21231</v>
+        <v>0.859159</v>
       </c>
       <c r="C123" t="n">
-        <v>1.33898</v>
+        <v>0.908278</v>
       </c>
       <c r="D123" t="n">
-        <v>1.32597</v>
+        <v>0.73976</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.69134</v>
+        <v>0.900006</v>
       </c>
       <c r="C124" t="n">
-        <v>1.18143</v>
+        <v>0.833591</v>
       </c>
       <c r="D124" t="n">
-        <v>1.0907</v>
+        <v>0.7452530000000001</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.20562</v>
+        <v>0.889447</v>
       </c>
       <c r="C125" t="n">
-        <v>0.952035</v>
+        <v>0.81159</v>
       </c>
       <c r="D125" t="n">
-        <v>0.8859320000000001</v>
+        <v>0.75804</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.1325</v>
+        <v>0.93191</v>
       </c>
       <c r="C126" t="n">
-        <v>1.01522</v>
+        <v>0.831291</v>
       </c>
       <c r="D126" t="n">
-        <v>0.9502890000000001</v>
+        <v>0.790918</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.06475</v>
+        <v>0.923921</v>
       </c>
       <c r="C127" t="n">
-        <v>0.997658</v>
+        <v>0.831704</v>
       </c>
       <c r="D127" t="n">
-        <v>0.916999</v>
+        <v>0.789103</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.0534</v>
+        <v>0.964904</v>
       </c>
       <c r="C128" t="n">
-        <v>0.963428</v>
+        <v>0.892337</v>
       </c>
       <c r="D128" t="n">
-        <v>0.931654</v>
+        <v>0.821452</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.06372</v>
+        <v>0.930471</v>
       </c>
       <c r="C129" t="n">
-        <v>0.982568</v>
+        <v>0.887193</v>
       </c>
       <c r="D129" t="n">
-        <v>0.913592</v>
+        <v>0.817563</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.1342</v>
+        <v>0.942638</v>
       </c>
       <c r="C130" t="n">
-        <v>0.992731</v>
+        <v>0.882143</v>
       </c>
       <c r="D130" t="n">
-        <v>0.941194</v>
+        <v>0.81071</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.10853</v>
+        <v>0.981639</v>
       </c>
       <c r="C131" t="n">
-        <v>1.04928</v>
+        <v>0.8843800000000001</v>
       </c>
       <c r="D131" t="n">
-        <v>0.923745</v>
+        <v>0.796346</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.1614</v>
+        <v>0.977229</v>
       </c>
       <c r="C132" t="n">
-        <v>1.05976</v>
+        <v>0.894786</v>
       </c>
       <c r="D132" t="n">
-        <v>0.980027</v>
+        <v>0.821931</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.22529</v>
+        <v>0.998268</v>
       </c>
       <c r="C133" t="n">
-        <v>1.12537</v>
+        <v>0.942584</v>
       </c>
       <c r="D133" t="n">
-        <v>0.97641</v>
+        <v>0.836461</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.26469</v>
+        <v>1.01608</v>
       </c>
       <c r="C134" t="n">
-        <v>1.11696</v>
+        <v>0.974064</v>
       </c>
       <c r="D134" t="n">
-        <v>0.990337</v>
+        <v>0.869347</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.25831</v>
+        <v>1.1198</v>
       </c>
       <c r="C135" t="n">
-        <v>1.2096</v>
+        <v>1.03908</v>
       </c>
       <c r="D135" t="n">
-        <v>1.02971</v>
+        <v>0.8914069999999999</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.36622</v>
+        <v>1.13941</v>
       </c>
       <c r="C136" t="n">
-        <v>1.25188</v>
+        <v>1.13424</v>
       </c>
       <c r="D136" t="n">
-        <v>1.15802</v>
+        <v>0.980997</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.4876</v>
+        <v>1.25722</v>
       </c>
       <c r="C137" t="n">
-        <v>1.41944</v>
+        <v>1.20961</v>
       </c>
       <c r="D137" t="n">
-        <v>1.11479</v>
+        <v>1.02836</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.33499</v>
+        <v>1.19385</v>
       </c>
       <c r="C138" t="n">
-        <v>1.16338</v>
+        <v>1.10097</v>
       </c>
       <c r="D138" t="n">
-        <v>1.10053</v>
+        <v>1.03237</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.36161</v>
+        <v>1.18669</v>
       </c>
       <c r="C139" t="n">
-        <v>1.16702</v>
+        <v>1.05558</v>
       </c>
       <c r="D139" t="n">
-        <v>1.10751</v>
+        <v>0.9971370000000001</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.33496</v>
+        <v>1.18426</v>
       </c>
       <c r="C140" t="n">
-        <v>1.18561</v>
+        <v>1.07516</v>
       </c>
       <c r="D140" t="n">
-        <v>1.12082</v>
+        <v>1.01079</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.3643</v>
+        <v>1.19221</v>
       </c>
       <c r="C141" t="n">
-        <v>1.22374</v>
+        <v>1.10392</v>
       </c>
       <c r="D141" t="n">
-        <v>1.18183</v>
+        <v>1.0569</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.35579</v>
+        <v>1.25656</v>
       </c>
       <c r="C142" t="n">
-        <v>1.21564</v>
+        <v>1.08459</v>
       </c>
       <c r="D142" t="n">
-        <v>1.1511</v>
+        <v>1.08594</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.41922</v>
+        <v>1.22199</v>
       </c>
       <c r="C143" t="n">
-        <v>1.25297</v>
+        <v>1.09941</v>
       </c>
       <c r="D143" t="n">
-        <v>1.18173</v>
+        <v>1.02662</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered unsuccessful looukp.xlsx
+++ b/vs-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.331187</v>
+        <v>0.332183</v>
       </c>
       <c r="C2" t="n">
-        <v>0.362336</v>
+        <v>0.342211</v>
       </c>
       <c r="D2" t="n">
-        <v>0.327465</v>
+        <v>0.334072</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.329123</v>
+        <v>0.333352</v>
       </c>
       <c r="C3" t="n">
-        <v>0.347654</v>
+        <v>0.364336</v>
       </c>
       <c r="D3" t="n">
-        <v>0.333126</v>
+        <v>0.3355</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.337972</v>
+        <v>0.342382</v>
       </c>
       <c r="C4" t="n">
-        <v>0.36297</v>
+        <v>0.35624</v>
       </c>
       <c r="D4" t="n">
-        <v>0.337242</v>
+        <v>0.344033</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.355261</v>
+        <v>0.348171</v>
       </c>
       <c r="C5" t="n">
-        <v>0.365197</v>
+        <v>0.366823</v>
       </c>
       <c r="D5" t="n">
-        <v>0.348543</v>
+        <v>0.352454</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.361303</v>
+        <v>0.357472</v>
       </c>
       <c r="C6" t="n">
-        <v>0.378694</v>
+        <v>0.382792</v>
       </c>
       <c r="D6" t="n">
-        <v>0.358827</v>
+        <v>0.361761</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.375571</v>
+        <v>0.376342</v>
       </c>
       <c r="C7" t="n">
-        <v>0.425338</v>
+        <v>0.42501</v>
       </c>
       <c r="D7" t="n">
-        <v>0.376802</v>
+        <v>0.382501</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.408377</v>
+        <v>0.405339</v>
       </c>
       <c r="C8" t="n">
-        <v>0.445432</v>
+        <v>0.447188</v>
       </c>
       <c r="D8" t="n">
-        <v>0.420835</v>
+        <v>0.443146</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.461783</v>
+        <v>0.45015</v>
       </c>
       <c r="C9" t="n">
-        <v>0.507617</v>
+        <v>0.49104</v>
       </c>
       <c r="D9" t="n">
-        <v>0.319776</v>
+        <v>0.316276</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.333297</v>
+        <v>0.330424</v>
       </c>
       <c r="C10" t="n">
-        <v>0.351128</v>
+        <v>0.333206</v>
       </c>
       <c r="D10" t="n">
-        <v>0.351644</v>
+        <v>0.323715</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.324392</v>
+        <v>0.330122</v>
       </c>
       <c r="C11" t="n">
-        <v>0.335288</v>
+        <v>0.347271</v>
       </c>
       <c r="D11" t="n">
-        <v>0.325754</v>
+        <v>0.327389</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.327086</v>
+        <v>0.332943</v>
       </c>
       <c r="C12" t="n">
-        <v>0.340335</v>
+        <v>0.33835</v>
       </c>
       <c r="D12" t="n">
-        <v>0.327516</v>
+        <v>0.322896</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.330349</v>
+        <v>0.333568</v>
       </c>
       <c r="C13" t="n">
-        <v>0.337982</v>
+        <v>0.335387</v>
       </c>
       <c r="D13" t="n">
-        <v>0.329764</v>
+        <v>0.318239</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.339532</v>
+        <v>0.332104</v>
       </c>
       <c r="C14" t="n">
-        <v>0.358653</v>
+        <v>0.344895</v>
       </c>
       <c r="D14" t="n">
-        <v>0.32382</v>
+        <v>0.328714</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.338618</v>
+        <v>0.339451</v>
       </c>
       <c r="C15" t="n">
-        <v>0.347156</v>
+        <v>0.34381</v>
       </c>
       <c r="D15" t="n">
-        <v>0.320654</v>
+        <v>0.328917</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.345847</v>
+        <v>0.346182</v>
       </c>
       <c r="C16" t="n">
-        <v>0.345102</v>
+        <v>0.360053</v>
       </c>
       <c r="D16" t="n">
-        <v>0.328807</v>
+        <v>0.329615</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.350408</v>
+        <v>0.343762</v>
       </c>
       <c r="C17" t="n">
-        <v>0.354153</v>
+        <v>0.35149</v>
       </c>
       <c r="D17" t="n">
-        <v>0.335805</v>
+        <v>0.333932</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.343463</v>
+        <v>0.351184</v>
       </c>
       <c r="C18" t="n">
-        <v>0.354621</v>
+        <v>0.354624</v>
       </c>
       <c r="D18" t="n">
-        <v>0.342518</v>
+        <v>0.340742</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.349568</v>
+        <v>0.350754</v>
       </c>
       <c r="C19" t="n">
-        <v>0.358865</v>
+        <v>0.368599</v>
       </c>
       <c r="D19" t="n">
-        <v>0.349872</v>
+        <v>0.342949</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.370453</v>
+        <v>0.371814</v>
       </c>
       <c r="C20" t="n">
-        <v>0.388071</v>
+        <v>0.383424</v>
       </c>
       <c r="D20" t="n">
-        <v>0.351536</v>
+        <v>0.362259</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.376123</v>
+        <v>0.379106</v>
       </c>
       <c r="C21" t="n">
-        <v>0.406547</v>
+        <v>0.397648</v>
       </c>
       <c r="D21" t="n">
-        <v>0.374267</v>
+        <v>0.377074</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.40063</v>
+        <v>0.412765</v>
       </c>
       <c r="C22" t="n">
-        <v>0.411813</v>
+        <v>0.424678</v>
       </c>
       <c r="D22" t="n">
-        <v>0.391647</v>
+        <v>0.405658</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.432317</v>
+        <v>0.436025</v>
       </c>
       <c r="C23" t="n">
-        <v>0.465994</v>
+        <v>0.472768</v>
       </c>
       <c r="D23" t="n">
-        <v>0.319576</v>
+        <v>0.322331</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.3204</v>
+        <v>0.326758</v>
       </c>
       <c r="C24" t="n">
-        <v>0.335334</v>
+        <v>0.337229</v>
       </c>
       <c r="D24" t="n">
-        <v>0.31689</v>
+        <v>0.318269</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.320143</v>
+        <v>0.335583</v>
       </c>
       <c r="C25" t="n">
-        <v>0.340427</v>
+        <v>0.33723</v>
       </c>
       <c r="D25" t="n">
-        <v>0.31438</v>
+        <v>0.318813</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.333032</v>
+        <v>0.336869</v>
       </c>
       <c r="C26" t="n">
-        <v>0.349027</v>
+        <v>0.337974</v>
       </c>
       <c r="D26" t="n">
-        <v>0.32079</v>
+        <v>0.323635</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.32662</v>
+        <v>0.334529</v>
       </c>
       <c r="C27" t="n">
-        <v>0.346648</v>
+        <v>0.349041</v>
       </c>
       <c r="D27" t="n">
-        <v>0.325197</v>
+        <v>0.338051</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.332365</v>
+        <v>0.326442</v>
       </c>
       <c r="C28" t="n">
-        <v>0.342165</v>
+        <v>0.336577</v>
       </c>
       <c r="D28" t="n">
-        <v>0.32411</v>
+        <v>0.325863</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.342433</v>
+        <v>0.333888</v>
       </c>
       <c r="C29" t="n">
-        <v>0.342144</v>
+        <v>0.34856</v>
       </c>
       <c r="D29" t="n">
-        <v>0.320646</v>
+        <v>0.326115</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.335008</v>
+        <v>0.342145</v>
       </c>
       <c r="C30" t="n">
-        <v>0.358377</v>
+        <v>0.346484</v>
       </c>
       <c r="D30" t="n">
-        <v>0.327928</v>
+        <v>0.329187</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.338505</v>
+        <v>0.338942</v>
       </c>
       <c r="C31" t="n">
-        <v>0.347685</v>
+        <v>0.346854</v>
       </c>
       <c r="D31" t="n">
-        <v>0.329551</v>
+        <v>0.334476</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.349961</v>
+        <v>0.338343</v>
       </c>
       <c r="C32" t="n">
-        <v>0.352732</v>
+        <v>0.351124</v>
       </c>
       <c r="D32" t="n">
-        <v>0.337224</v>
+        <v>0.336469</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.355274</v>
+        <v>0.356429</v>
       </c>
       <c r="C33" t="n">
-        <v>0.3584</v>
+        <v>0.35506</v>
       </c>
       <c r="D33" t="n">
-        <v>0.340049</v>
+        <v>0.337986</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.36303</v>
+        <v>0.362081</v>
       </c>
       <c r="C34" t="n">
-        <v>0.366524</v>
+        <v>0.375003</v>
       </c>
       <c r="D34" t="n">
-        <v>0.36002</v>
+        <v>0.353638</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.383667</v>
+        <v>0.386042</v>
       </c>
       <c r="C35" t="n">
-        <v>0.381226</v>
+        <v>0.389504</v>
       </c>
       <c r="D35" t="n">
-        <v>0.368721</v>
+        <v>0.363764</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.399008</v>
+        <v>0.396662</v>
       </c>
       <c r="C36" t="n">
-        <v>0.405924</v>
+        <v>0.422376</v>
       </c>
       <c r="D36" t="n">
-        <v>0.386268</v>
+        <v>0.392872</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.439292</v>
+        <v>0.441196</v>
       </c>
       <c r="C37" t="n">
-        <v>0.454397</v>
+        <v>0.449062</v>
       </c>
       <c r="D37" t="n">
-        <v>0.320881</v>
+        <v>0.327843</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.328697</v>
+        <v>0.333269</v>
       </c>
       <c r="C38" t="n">
-        <v>0.337769</v>
+        <v>0.338354</v>
       </c>
       <c r="D38" t="n">
-        <v>0.314851</v>
+        <v>0.31622</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.32423</v>
+        <v>0.331204</v>
       </c>
       <c r="C39" t="n">
-        <v>0.339124</v>
+        <v>0.339015</v>
       </c>
       <c r="D39" t="n">
-        <v>0.326749</v>
+        <v>0.325685</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.327293</v>
+        <v>0.336329</v>
       </c>
       <c r="C40" t="n">
-        <v>0.342472</v>
+        <v>0.338929</v>
       </c>
       <c r="D40" t="n">
-        <v>0.322929</v>
+        <v>0.319247</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.333624</v>
+        <v>0.342894</v>
       </c>
       <c r="C41" t="n">
-        <v>0.340643</v>
+        <v>0.33942</v>
       </c>
       <c r="D41" t="n">
-        <v>0.322593</v>
+        <v>0.317398</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.335141</v>
+        <v>0.334062</v>
       </c>
       <c r="C42" t="n">
-        <v>0.341473</v>
+        <v>0.349146</v>
       </c>
       <c r="D42" t="n">
-        <v>0.333237</v>
+        <v>0.324127</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.333374</v>
+        <v>0.342831</v>
       </c>
       <c r="C43" t="n">
-        <v>0.350041</v>
+        <v>0.343099</v>
       </c>
       <c r="D43" t="n">
-        <v>0.33259</v>
+        <v>0.323062</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.345095</v>
+        <v>0.34156</v>
       </c>
       <c r="C44" t="n">
-        <v>0.346896</v>
+        <v>0.344819</v>
       </c>
       <c r="D44" t="n">
-        <v>0.34861</v>
+        <v>0.321327</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.353916</v>
+        <v>0.350682</v>
       </c>
       <c r="C45" t="n">
-        <v>0.357963</v>
+        <v>0.34167</v>
       </c>
       <c r="D45" t="n">
-        <v>0.347125</v>
+        <v>0.351772</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.341701</v>
+        <v>0.347457</v>
       </c>
       <c r="C46" t="n">
-        <v>0.346545</v>
+        <v>0.35357</v>
       </c>
       <c r="D46" t="n">
-        <v>0.333373</v>
+        <v>0.337902</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.358609</v>
+        <v>0.352376</v>
       </c>
       <c r="C47" t="n">
-        <v>0.370318</v>
+        <v>0.359772</v>
       </c>
       <c r="D47" t="n">
-        <v>0.34831</v>
+        <v>0.34137</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.357134</v>
+        <v>0.357905</v>
       </c>
       <c r="C48" t="n">
-        <v>0.371647</v>
+        <v>0.364588</v>
       </c>
       <c r="D48" t="n">
-        <v>0.349863</v>
+        <v>0.355446</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.372021</v>
+        <v>0.379438</v>
       </c>
       <c r="C49" t="n">
-        <v>0.388744</v>
+        <v>0.381029</v>
       </c>
       <c r="D49" t="n">
-        <v>0.366509</v>
+        <v>0.365736</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.393489</v>
+        <v>0.402095</v>
       </c>
       <c r="C50" t="n">
-        <v>0.408764</v>
+        <v>0.399558</v>
       </c>
       <c r="D50" t="n">
-        <v>0.384363</v>
+        <v>0.390452</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.427568</v>
+        <v>0.430635</v>
       </c>
       <c r="C51" t="n">
-        <v>0.4414</v>
+        <v>0.449729</v>
       </c>
       <c r="D51" t="n">
-        <v>0.324095</v>
+        <v>0.322308</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.491722</v>
+        <v>0.489199</v>
       </c>
       <c r="C52" t="n">
-        <v>0.507405</v>
+        <v>0.512812</v>
       </c>
       <c r="D52" t="n">
-        <v>0.322004</v>
+        <v>0.326197</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.336576</v>
+        <v>0.332174</v>
       </c>
       <c r="C53" t="n">
-        <v>0.350513</v>
+        <v>0.348964</v>
       </c>
       <c r="D53" t="n">
-        <v>0.333994</v>
+        <v>0.329257</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.333331</v>
+        <v>0.340431</v>
       </c>
       <c r="C54" t="n">
-        <v>0.340855</v>
+        <v>0.340126</v>
       </c>
       <c r="D54" t="n">
-        <v>0.334182</v>
+        <v>0.328543</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.333768</v>
+        <v>0.343363</v>
       </c>
       <c r="C55" t="n">
-        <v>0.347388</v>
+        <v>0.346575</v>
       </c>
       <c r="D55" t="n">
-        <v>0.328645</v>
+        <v>0.330723</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.339234</v>
+        <v>0.331325</v>
       </c>
       <c r="C56" t="n">
-        <v>0.346064</v>
+        <v>0.348771</v>
       </c>
       <c r="D56" t="n">
-        <v>0.32952</v>
+        <v>0.327703</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.34721</v>
+        <v>0.350712</v>
       </c>
       <c r="C57" t="n">
-        <v>0.364396</v>
+        <v>0.353547</v>
       </c>
       <c r="D57" t="n">
-        <v>0.333761</v>
+        <v>0.337646</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.358102</v>
+        <v>0.340522</v>
       </c>
       <c r="C58" t="n">
-        <v>0.346405</v>
+        <v>0.350363</v>
       </c>
       <c r="D58" t="n">
-        <v>0.329711</v>
+        <v>0.333747</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.350351</v>
+        <v>0.35462</v>
       </c>
       <c r="C59" t="n">
-        <v>0.35215</v>
+        <v>0.359789</v>
       </c>
       <c r="D59" t="n">
-        <v>0.334131</v>
+        <v>0.334294</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.358562</v>
+        <v>0.362679</v>
       </c>
       <c r="C60" t="n">
-        <v>0.351421</v>
+        <v>0.367666</v>
       </c>
       <c r="D60" t="n">
-        <v>0.337465</v>
+        <v>0.349347</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.367981</v>
+        <v>0.367526</v>
       </c>
       <c r="C61" t="n">
-        <v>0.35926</v>
+        <v>0.367449</v>
       </c>
       <c r="D61" t="n">
-        <v>0.349718</v>
+        <v>0.353942</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.367215</v>
+        <v>0.374232</v>
       </c>
       <c r="C62" t="n">
-        <v>0.374052</v>
+        <v>0.371546</v>
       </c>
       <c r="D62" t="n">
-        <v>0.348785</v>
+        <v>0.355476</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.379386</v>
+        <v>0.388338</v>
       </c>
       <c r="C63" t="n">
-        <v>0.387103</v>
+        <v>0.399696</v>
       </c>
       <c r="D63" t="n">
-        <v>0.382486</v>
+        <v>0.369083</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.401873</v>
+        <v>0.417456</v>
       </c>
       <c r="C64" t="n">
-        <v>0.413022</v>
+        <v>0.417097</v>
       </c>
       <c r="D64" t="n">
-        <v>0.396275</v>
+        <v>0.398188</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.454722</v>
+        <v>0.438966</v>
       </c>
       <c r="C65" t="n">
-        <v>0.456452</v>
+        <v>0.444796</v>
       </c>
       <c r="D65" t="n">
-        <v>0.420148</v>
+        <v>0.435516</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.48082</v>
+        <v>0.495287</v>
       </c>
       <c r="C66" t="n">
-        <v>0.512188</v>
+        <v>0.51766</v>
       </c>
       <c r="D66" t="n">
-        <v>0.342146</v>
+        <v>0.323449</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.359336</v>
+        <v>0.349786</v>
       </c>
       <c r="C67" t="n">
-        <v>0.354851</v>
+        <v>0.349043</v>
       </c>
       <c r="D67" t="n">
-        <v>0.338448</v>
+        <v>0.325881</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.350662</v>
+        <v>0.355443</v>
       </c>
       <c r="C68" t="n">
-        <v>0.376098</v>
+        <v>0.349899</v>
       </c>
       <c r="D68" t="n">
-        <v>0.335183</v>
+        <v>0.332586</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.358554</v>
+        <v>0.351789</v>
       </c>
       <c r="C69" t="n">
-        <v>0.351608</v>
+        <v>0.358951</v>
       </c>
       <c r="D69" t="n">
-        <v>0.329509</v>
+        <v>0.332513</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.372314</v>
+        <v>0.361563</v>
       </c>
       <c r="C70" t="n">
-        <v>0.355584</v>
+        <v>0.355118</v>
       </c>
       <c r="D70" t="n">
-        <v>0.335318</v>
+        <v>0.341078</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.3511</v>
+        <v>0.356457</v>
       </c>
       <c r="C71" t="n">
-        <v>0.363262</v>
+        <v>0.365026</v>
       </c>
       <c r="D71" t="n">
-        <v>0.332137</v>
+        <v>0.339774</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.362165</v>
+        <v>0.370691</v>
       </c>
       <c r="C72" t="n">
-        <v>0.364683</v>
+        <v>0.370739</v>
       </c>
       <c r="D72" t="n">
-        <v>0.334381</v>
+        <v>0.332429</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.37098</v>
+        <v>0.362119</v>
       </c>
       <c r="C73" t="n">
-        <v>0.365842</v>
+        <v>0.367787</v>
       </c>
       <c r="D73" t="n">
-        <v>0.339908</v>
+        <v>0.343949</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.371206</v>
+        <v>0.369337</v>
       </c>
       <c r="C74" t="n">
-        <v>0.375294</v>
+        <v>0.373938</v>
       </c>
       <c r="D74" t="n">
-        <v>0.363057</v>
+        <v>0.348</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.381189</v>
+        <v>0.386141</v>
       </c>
       <c r="C75" t="n">
-        <v>0.375779</v>
+        <v>0.378472</v>
       </c>
       <c r="D75" t="n">
-        <v>0.351352</v>
+        <v>0.359229</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.39174</v>
+        <v>0.380734</v>
       </c>
       <c r="C76" t="n">
-        <v>0.396629</v>
+        <v>0.402817</v>
       </c>
       <c r="D76" t="n">
-        <v>0.382951</v>
+        <v>0.367554</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.403249</v>
+        <v>0.418414</v>
       </c>
       <c r="C77" t="n">
-        <v>0.413198</v>
+        <v>0.411759</v>
       </c>
       <c r="D77" t="n">
-        <v>0.385254</v>
+        <v>0.382841</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.428277</v>
+        <v>0.439599</v>
       </c>
       <c r="C78" t="n">
-        <v>0.436855</v>
+        <v>0.446765</v>
       </c>
       <c r="D78" t="n">
-        <v>0.405606</v>
+        <v>0.40326</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.463616</v>
+        <v>0.462708</v>
       </c>
       <c r="C79" t="n">
-        <v>0.465142</v>
+        <v>0.47633</v>
       </c>
       <c r="D79" t="n">
-        <v>0.446346</v>
+        <v>0.455514</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.516888</v>
+        <v>0.530114</v>
       </c>
       <c r="C80" t="n">
-        <v>0.535902</v>
+        <v>0.536601</v>
       </c>
       <c r="D80" t="n">
-        <v>0.324993</v>
+        <v>0.334469</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.368723</v>
+        <v>0.373966</v>
       </c>
       <c r="C81" t="n">
-        <v>0.365885</v>
+        <v>0.37364</v>
       </c>
       <c r="D81" t="n">
-        <v>0.338977</v>
+        <v>0.33474</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.373985</v>
+        <v>0.388933</v>
       </c>
       <c r="C82" t="n">
-        <v>0.361431</v>
+        <v>0.368316</v>
       </c>
       <c r="D82" t="n">
-        <v>0.339421</v>
+        <v>0.336376</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.379106</v>
+        <v>0.380619</v>
       </c>
       <c r="C83" t="n">
-        <v>0.364641</v>
+        <v>0.374423</v>
       </c>
       <c r="D83" t="n">
-        <v>0.338596</v>
+        <v>0.336817</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.374335</v>
+        <v>0.379822</v>
       </c>
       <c r="C84" t="n">
-        <v>0.367419</v>
+        <v>0.383978</v>
       </c>
       <c r="D84" t="n">
-        <v>0.341718</v>
+        <v>0.330179</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.380271</v>
+        <v>0.379313</v>
       </c>
       <c r="C85" t="n">
-        <v>0.369951</v>
+        <v>0.379622</v>
       </c>
       <c r="D85" t="n">
-        <v>0.340626</v>
+        <v>0.336546</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.38371</v>
+        <v>0.397914</v>
       </c>
       <c r="C86" t="n">
-        <v>0.388008</v>
+        <v>0.393303</v>
       </c>
       <c r="D86" t="n">
-        <v>0.345646</v>
+        <v>0.351985</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.401972</v>
+        <v>0.401133</v>
       </c>
       <c r="C87" t="n">
-        <v>0.383737</v>
+        <v>0.382224</v>
       </c>
       <c r="D87" t="n">
-        <v>0.344236</v>
+        <v>0.349462</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.39123</v>
+        <v>0.409896</v>
       </c>
       <c r="C88" t="n">
-        <v>0.402739</v>
+        <v>0.391504</v>
       </c>
       <c r="D88" t="n">
-        <v>0.34703</v>
+        <v>0.359579</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.40516</v>
+        <v>0.401949</v>
       </c>
       <c r="C89" t="n">
-        <v>0.396468</v>
+        <v>0.402001</v>
       </c>
       <c r="D89" t="n">
-        <v>0.361304</v>
+        <v>0.369482</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.42774</v>
+        <v>0.41436</v>
       </c>
       <c r="C90" t="n">
-        <v>0.419162</v>
+        <v>0.410312</v>
       </c>
       <c r="D90" t="n">
-        <v>0.380694</v>
+        <v>0.3817</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.438379</v>
+        <v>0.448103</v>
       </c>
       <c r="C91" t="n">
-        <v>0.44719</v>
+        <v>0.439991</v>
       </c>
       <c r="D91" t="n">
-        <v>0.414198</v>
+        <v>0.392414</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.463999</v>
+        <v>0.470913</v>
       </c>
       <c r="C92" t="n">
-        <v>0.457665</v>
+        <v>0.462793</v>
       </c>
       <c r="D92" t="n">
-        <v>0.420637</v>
+        <v>0.416818</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.490489</v>
+        <v>0.5023919999999999</v>
       </c>
       <c r="C93" t="n">
-        <v>0.511294</v>
+        <v>0.498389</v>
       </c>
       <c r="D93" t="n">
-        <v>0.467017</v>
+        <v>0.446794</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.551038</v>
+        <v>0.559284</v>
       </c>
       <c r="C94" t="n">
-        <v>0.567961</v>
+        <v>0.571623</v>
       </c>
       <c r="D94" t="n">
-        <v>0.355274</v>
+        <v>0.35812</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.43387</v>
+        <v>0.439043</v>
       </c>
       <c r="C95" t="n">
-        <v>0.411058</v>
+        <v>0.41167</v>
       </c>
       <c r="D95" t="n">
-        <v>0.36314</v>
+        <v>0.360046</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.428679</v>
+        <v>0.420634</v>
       </c>
       <c r="C96" t="n">
-        <v>0.419019</v>
+        <v>0.412819</v>
       </c>
       <c r="D96" t="n">
-        <v>0.369919</v>
+        <v>0.362618</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.427733</v>
+        <v>0.440687</v>
       </c>
       <c r="C97" t="n">
-        <v>0.400055</v>
+        <v>0.405564</v>
       </c>
       <c r="D97" t="n">
-        <v>0.36417</v>
+        <v>0.367984</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.446002</v>
+        <v>0.432948</v>
       </c>
       <c r="C98" t="n">
-        <v>0.412215</v>
+        <v>0.414484</v>
       </c>
       <c r="D98" t="n">
-        <v>0.370478</v>
+        <v>0.369009</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.437216</v>
+        <v>0.454041</v>
       </c>
       <c r="C99" t="n">
-        <v>0.428647</v>
+        <v>0.428727</v>
       </c>
       <c r="D99" t="n">
-        <v>0.377488</v>
+        <v>0.373135</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.458931</v>
+        <v>0.451348</v>
       </c>
       <c r="C100" t="n">
-        <v>0.423991</v>
+        <v>0.431857</v>
       </c>
       <c r="D100" t="n">
-        <v>0.383903</v>
+        <v>0.378127</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.447853</v>
+        <v>0.454246</v>
       </c>
       <c r="C101" t="n">
-        <v>0.42896</v>
+        <v>0.437626</v>
       </c>
       <c r="D101" t="n">
-        <v>0.385048</v>
+        <v>0.392737</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.456314</v>
+        <v>0.458694</v>
       </c>
       <c r="C102" t="n">
-        <v>0.435277</v>
+        <v>0.462922</v>
       </c>
       <c r="D102" t="n">
-        <v>0.387254</v>
+        <v>0.405382</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.461484</v>
+        <v>0.467418</v>
       </c>
       <c r="C103" t="n">
-        <v>0.450172</v>
+        <v>0.456416</v>
       </c>
       <c r="D103" t="n">
-        <v>0.406677</v>
+        <v>0.398506</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.494032</v>
+        <v>0.487018</v>
       </c>
       <c r="C104" t="n">
-        <v>0.476208</v>
+        <v>0.476761</v>
       </c>
       <c r="D104" t="n">
-        <v>0.417689</v>
+        <v>0.418473</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.507418</v>
+        <v>0.514109</v>
       </c>
       <c r="C105" t="n">
-        <v>0.490002</v>
+        <v>0.495597</v>
       </c>
       <c r="D105" t="n">
-        <v>0.424231</v>
+        <v>0.433087</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.545114</v>
+        <v>0.536301</v>
       </c>
       <c r="C106" t="n">
-        <v>0.533502</v>
+        <v>0.518688</v>
       </c>
       <c r="D106" t="n">
-        <v>0.448859</v>
+        <v>0.451959</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.558492</v>
+        <v>0.5759</v>
       </c>
       <c r="C107" t="n">
-        <v>0.562377</v>
+        <v>0.5612279999999999</v>
       </c>
       <c r="D107" t="n">
-        <v>0.486917</v>
+        <v>0.496066</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.6236699999999999</v>
+        <v>0.655385</v>
       </c>
       <c r="C108" t="n">
-        <v>0.61574</v>
+        <v>0.649409</v>
       </c>
       <c r="D108" t="n">
-        <v>0.461883</v>
+        <v>0.49064</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.716655</v>
+        <v>0.7146479999999999</v>
       </c>
       <c r="C109" t="n">
-        <v>0.744179</v>
+        <v>0.731337</v>
       </c>
       <c r="D109" t="n">
-        <v>0.490735</v>
+        <v>0.490477</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.572081</v>
+        <v>0.562566</v>
       </c>
       <c r="C110" t="n">
-        <v>0.535417</v>
+        <v>0.52605</v>
       </c>
       <c r="D110" t="n">
-        <v>0.485709</v>
+        <v>0.484054</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.5603</v>
+        <v>0.563662</v>
       </c>
       <c r="C111" t="n">
-        <v>0.523471</v>
+        <v>0.544664</v>
       </c>
       <c r="D111" t="n">
-        <v>0.487485</v>
+        <v>0.488224</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.581253</v>
+        <v>0.567941</v>
       </c>
       <c r="C112" t="n">
-        <v>0.543924</v>
+        <v>0.54648</v>
       </c>
       <c r="D112" t="n">
-        <v>0.480476</v>
+        <v>0.486026</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.583073</v>
+        <v>0.575253</v>
       </c>
       <c r="C113" t="n">
-        <v>0.559267</v>
+        <v>0.557384</v>
       </c>
       <c r="D113" t="n">
-        <v>0.486592</v>
+        <v>0.489201</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.579765</v>
+        <v>0.591445</v>
       </c>
       <c r="C114" t="n">
-        <v>0.549965</v>
+        <v>0.547755</v>
       </c>
       <c r="D114" t="n">
-        <v>0.494038</v>
+        <v>0.495526</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.578726</v>
+        <v>0.604185</v>
       </c>
       <c r="C115" t="n">
-        <v>0.571054</v>
+        <v>0.572201</v>
       </c>
       <c r="D115" t="n">
-        <v>0.5114</v>
+        <v>0.514238</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.606316</v>
+        <v>0.607718</v>
       </c>
       <c r="C116" t="n">
-        <v>0.591717</v>
+        <v>0.580143</v>
       </c>
       <c r="D116" t="n">
-        <v>0.507182</v>
+        <v>0.508366</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.610605</v>
+        <v>0.627673</v>
       </c>
       <c r="C117" t="n">
-        <v>0.5923580000000001</v>
+        <v>0.597163</v>
       </c>
       <c r="D117" t="n">
-        <v>0.520641</v>
+        <v>0.527192</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.632464</v>
+        <v>0.626422</v>
       </c>
       <c r="C118" t="n">
-        <v>0.609567</v>
+        <v>0.603573</v>
       </c>
       <c r="D118" t="n">
-        <v>0.543061</v>
+        <v>0.538717</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.661754</v>
+        <v>0.649014</v>
       </c>
       <c r="C119" t="n">
-        <v>0.630176</v>
+        <v>0.639584</v>
       </c>
       <c r="D119" t="n">
-        <v>0.561231</v>
+        <v>0.551781</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.666373</v>
+        <v>0.665148</v>
       </c>
       <c r="C120" t="n">
-        <v>0.666529</v>
+        <v>0.666384</v>
       </c>
       <c r="D120" t="n">
-        <v>0.572119</v>
+        <v>0.57165</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.705979</v>
+        <v>0.748155</v>
       </c>
       <c r="C121" t="n">
-        <v>0.7095669999999999</v>
+        <v>0.702322</v>
       </c>
       <c r="D121" t="n">
-        <v>0.610575</v>
+        <v>0.615136</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.778795</v>
+        <v>0.805491</v>
       </c>
       <c r="C122" t="n">
-        <v>0.748738</v>
+        <v>0.772797</v>
       </c>
       <c r="D122" t="n">
-        <v>0.658886</v>
+        <v>0.669856</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.859159</v>
+        <v>0.864914</v>
       </c>
       <c r="C123" t="n">
-        <v>0.908278</v>
+        <v>0.863634</v>
       </c>
       <c r="D123" t="n">
-        <v>0.73976</v>
+        <v>0.737623</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.900006</v>
+        <v>0.930607</v>
       </c>
       <c r="C124" t="n">
-        <v>0.833591</v>
+        <v>0.842125</v>
       </c>
       <c r="D124" t="n">
-        <v>0.7452530000000001</v>
+        <v>0.7467549999999999</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.889447</v>
+        <v>0.879505</v>
       </c>
       <c r="C125" t="n">
-        <v>0.81159</v>
+        <v>0.809187</v>
       </c>
       <c r="D125" t="n">
-        <v>0.75804</v>
+        <v>0.780951</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.93191</v>
+        <v>0.956098</v>
       </c>
       <c r="C126" t="n">
-        <v>0.831291</v>
+        <v>0.832067</v>
       </c>
       <c r="D126" t="n">
-        <v>0.790918</v>
+        <v>0.782288</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.923921</v>
+        <v>0.914961</v>
       </c>
       <c r="C127" t="n">
-        <v>0.831704</v>
+        <v>0.840493</v>
       </c>
       <c r="D127" t="n">
-        <v>0.789103</v>
+        <v>0.75695</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.964904</v>
+        <v>0.970502</v>
       </c>
       <c r="C128" t="n">
-        <v>0.892337</v>
+        <v>0.883859</v>
       </c>
       <c r="D128" t="n">
-        <v>0.821452</v>
+        <v>0.771764</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.930471</v>
+        <v>0.937808</v>
       </c>
       <c r="C129" t="n">
-        <v>0.887193</v>
+        <v>0.870405</v>
       </c>
       <c r="D129" t="n">
-        <v>0.817563</v>
+        <v>0.806187</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.942638</v>
+        <v>0.968998</v>
       </c>
       <c r="C130" t="n">
-        <v>0.882143</v>
+        <v>0.906795</v>
       </c>
       <c r="D130" t="n">
-        <v>0.81071</v>
+        <v>0.812648</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.981639</v>
+        <v>0.969325</v>
       </c>
       <c r="C131" t="n">
-        <v>0.8843800000000001</v>
+        <v>0.879356</v>
       </c>
       <c r="D131" t="n">
-        <v>0.796346</v>
+        <v>0.808963</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.977229</v>
+        <v>0.953473</v>
       </c>
       <c r="C132" t="n">
-        <v>0.894786</v>
+        <v>0.915366</v>
       </c>
       <c r="D132" t="n">
-        <v>0.821931</v>
+        <v>0.799848</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.998268</v>
+        <v>1.00275</v>
       </c>
       <c r="C133" t="n">
-        <v>0.942584</v>
+        <v>0.964188</v>
       </c>
       <c r="D133" t="n">
-        <v>0.836461</v>
+        <v>0.833568</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.01608</v>
+        <v>1.01864</v>
       </c>
       <c r="C134" t="n">
-        <v>0.974064</v>
+        <v>0.982863</v>
       </c>
       <c r="D134" t="n">
-        <v>0.869347</v>
+        <v>0.876215</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.1198</v>
+        <v>1.07936</v>
       </c>
       <c r="C135" t="n">
-        <v>1.03908</v>
+        <v>1.05405</v>
       </c>
       <c r="D135" t="n">
-        <v>0.8914069999999999</v>
+        <v>0.8901</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.13941</v>
+        <v>1.15928</v>
       </c>
       <c r="C136" t="n">
-        <v>1.13424</v>
+        <v>1.10265</v>
       </c>
       <c r="D136" t="n">
-        <v>0.980997</v>
+        <v>0.950379</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.25722</v>
+        <v>1.23533</v>
       </c>
       <c r="C137" t="n">
-        <v>1.20961</v>
+        <v>1.2183</v>
       </c>
       <c r="D137" t="n">
-        <v>1.02836</v>
+        <v>0.9865429999999999</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.19385</v>
+        <v>1.25571</v>
       </c>
       <c r="C138" t="n">
-        <v>1.10097</v>
+        <v>1.08373</v>
       </c>
       <c r="D138" t="n">
-        <v>1.03237</v>
+        <v>0.986734</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.18669</v>
+        <v>1.24248</v>
       </c>
       <c r="C139" t="n">
-        <v>1.05558</v>
+        <v>1.06948</v>
       </c>
       <c r="D139" t="n">
-        <v>0.9971370000000001</v>
+        <v>0.997277</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.18426</v>
+        <v>1.19454</v>
       </c>
       <c r="C140" t="n">
-        <v>1.07516</v>
+        <v>1.0648</v>
       </c>
       <c r="D140" t="n">
-        <v>1.01079</v>
+        <v>1.0036</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.19221</v>
+        <v>1.26658</v>
       </c>
       <c r="C141" t="n">
-        <v>1.10392</v>
+        <v>1.08871</v>
       </c>
       <c r="D141" t="n">
-        <v>1.0569</v>
+        <v>1.0445</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.25656</v>
+        <v>1.26739</v>
       </c>
       <c r="C142" t="n">
-        <v>1.08459</v>
+        <v>1.1161</v>
       </c>
       <c r="D142" t="n">
-        <v>1.08594</v>
+        <v>1.00479</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.22199</v>
+        <v>1.26192</v>
       </c>
       <c r="C143" t="n">
-        <v>1.09941</v>
+        <v>1.13909</v>
       </c>
       <c r="D143" t="n">
-        <v>1.02662</v>
+        <v>1.02396</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered unsuccessful looukp.xlsx
+++ b/vs-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.332183</v>
+        <v>0.334984</v>
       </c>
       <c r="C2" t="n">
-        <v>0.342211</v>
+        <v>0.345538</v>
       </c>
       <c r="D2" t="n">
-        <v>0.334072</v>
+        <v>0.345639</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.333352</v>
+        <v>0.334086</v>
       </c>
       <c r="C3" t="n">
-        <v>0.364336</v>
+        <v>0.356936</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3355</v>
+        <v>0.341258</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.342382</v>
+        <v>0.351993</v>
       </c>
       <c r="C4" t="n">
-        <v>0.35624</v>
+        <v>0.357775</v>
       </c>
       <c r="D4" t="n">
-        <v>0.344033</v>
+        <v>0.339566</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.348171</v>
+        <v>0.361971</v>
       </c>
       <c r="C5" t="n">
-        <v>0.366823</v>
+        <v>0.368933</v>
       </c>
       <c r="D5" t="n">
-        <v>0.352454</v>
+        <v>0.350528</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.357472</v>
+        <v>0.364037</v>
       </c>
       <c r="C6" t="n">
-        <v>0.382792</v>
+        <v>0.393149</v>
       </c>
       <c r="D6" t="n">
-        <v>0.361761</v>
+        <v>0.36984</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.376342</v>
+        <v>0.382489</v>
       </c>
       <c r="C7" t="n">
-        <v>0.42501</v>
+        <v>0.416516</v>
       </c>
       <c r="D7" t="n">
-        <v>0.382501</v>
+        <v>0.381587</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.405339</v>
+        <v>0.402519</v>
       </c>
       <c r="C8" t="n">
-        <v>0.447188</v>
+        <v>0.442835</v>
       </c>
       <c r="D8" t="n">
-        <v>0.443146</v>
+        <v>0.422737</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.45015</v>
+        <v>0.446561</v>
       </c>
       <c r="C9" t="n">
-        <v>0.49104</v>
+        <v>0.49884</v>
       </c>
       <c r="D9" t="n">
-        <v>0.316276</v>
+        <v>0.330629</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.330424</v>
+        <v>0.323585</v>
       </c>
       <c r="C10" t="n">
-        <v>0.333206</v>
+        <v>0.339634</v>
       </c>
       <c r="D10" t="n">
-        <v>0.323715</v>
+        <v>0.315781</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.330122</v>
+        <v>0.327457</v>
       </c>
       <c r="C11" t="n">
-        <v>0.347271</v>
+        <v>0.342256</v>
       </c>
       <c r="D11" t="n">
-        <v>0.327389</v>
+        <v>0.323991</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.332943</v>
+        <v>0.332308</v>
       </c>
       <c r="C12" t="n">
-        <v>0.33835</v>
+        <v>0.345015</v>
       </c>
       <c r="D12" t="n">
-        <v>0.322896</v>
+        <v>0.319477</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.333568</v>
+        <v>0.33062</v>
       </c>
       <c r="C13" t="n">
-        <v>0.335387</v>
+        <v>0.342948</v>
       </c>
       <c r="D13" t="n">
-        <v>0.318239</v>
+        <v>0.32155</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.332104</v>
+        <v>0.333141</v>
       </c>
       <c r="C14" t="n">
-        <v>0.344895</v>
+        <v>0.343572</v>
       </c>
       <c r="D14" t="n">
-        <v>0.328714</v>
+        <v>0.324275</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.339451</v>
+        <v>0.332522</v>
       </c>
       <c r="C15" t="n">
-        <v>0.34381</v>
+        <v>0.348876</v>
       </c>
       <c r="D15" t="n">
-        <v>0.328917</v>
+        <v>0.321518</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.346182</v>
+        <v>0.345321</v>
       </c>
       <c r="C16" t="n">
-        <v>0.360053</v>
+        <v>0.350675</v>
       </c>
       <c r="D16" t="n">
-        <v>0.329615</v>
+        <v>0.340827</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.343762</v>
+        <v>0.339487</v>
       </c>
       <c r="C17" t="n">
-        <v>0.35149</v>
+        <v>0.355738</v>
       </c>
       <c r="D17" t="n">
-        <v>0.333932</v>
+        <v>0.328138</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.351184</v>
+        <v>0.346163</v>
       </c>
       <c r="C18" t="n">
-        <v>0.354624</v>
+        <v>0.354885</v>
       </c>
       <c r="D18" t="n">
-        <v>0.340742</v>
+        <v>0.341817</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.350754</v>
+        <v>0.365393</v>
       </c>
       <c r="C19" t="n">
-        <v>0.368599</v>
+        <v>0.375139</v>
       </c>
       <c r="D19" t="n">
-        <v>0.342949</v>
+        <v>0.358863</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.371814</v>
+        <v>0.361616</v>
       </c>
       <c r="C20" t="n">
-        <v>0.383424</v>
+        <v>0.376864</v>
       </c>
       <c r="D20" t="n">
-        <v>0.362259</v>
+        <v>0.360583</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.379106</v>
+        <v>0.377428</v>
       </c>
       <c r="C21" t="n">
-        <v>0.397648</v>
+        <v>0.392487</v>
       </c>
       <c r="D21" t="n">
-        <v>0.377074</v>
+        <v>0.369643</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.412765</v>
+        <v>0.41601</v>
       </c>
       <c r="C22" t="n">
-        <v>0.424678</v>
+        <v>0.422459</v>
       </c>
       <c r="D22" t="n">
-        <v>0.405658</v>
+        <v>0.391336</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.436025</v>
+        <v>0.455609</v>
       </c>
       <c r="C23" t="n">
-        <v>0.472768</v>
+        <v>0.472094</v>
       </c>
       <c r="D23" t="n">
-        <v>0.322331</v>
+        <v>0.319306</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.326758</v>
+        <v>0.331706</v>
       </c>
       <c r="C24" t="n">
-        <v>0.337229</v>
+        <v>0.334747</v>
       </c>
       <c r="D24" t="n">
-        <v>0.318269</v>
+        <v>0.323041</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.335583</v>
+        <v>0.328215</v>
       </c>
       <c r="C25" t="n">
-        <v>0.33723</v>
+        <v>0.33678</v>
       </c>
       <c r="D25" t="n">
-        <v>0.318813</v>
+        <v>0.326124</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.336869</v>
+        <v>0.332032</v>
       </c>
       <c r="C26" t="n">
-        <v>0.337974</v>
+        <v>0.344527</v>
       </c>
       <c r="D26" t="n">
-        <v>0.323635</v>
+        <v>0.324398</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.334529</v>
+        <v>0.328048</v>
       </c>
       <c r="C27" t="n">
-        <v>0.349041</v>
+        <v>0.344627</v>
       </c>
       <c r="D27" t="n">
-        <v>0.338051</v>
+        <v>0.327951</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.326442</v>
+        <v>0.328729</v>
       </c>
       <c r="C28" t="n">
-        <v>0.336577</v>
+        <v>0.335814</v>
       </c>
       <c r="D28" t="n">
-        <v>0.325863</v>
+        <v>0.328496</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.333888</v>
+        <v>0.330581</v>
       </c>
       <c r="C29" t="n">
-        <v>0.34856</v>
+        <v>0.34307</v>
       </c>
       <c r="D29" t="n">
-        <v>0.326115</v>
+        <v>0.334496</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.342145</v>
+        <v>0.331861</v>
       </c>
       <c r="C30" t="n">
-        <v>0.346484</v>
+        <v>0.347533</v>
       </c>
       <c r="D30" t="n">
-        <v>0.329187</v>
+        <v>0.328523</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.338942</v>
+        <v>0.339166</v>
       </c>
       <c r="C31" t="n">
-        <v>0.346854</v>
+        <v>0.349406</v>
       </c>
       <c r="D31" t="n">
-        <v>0.334476</v>
+        <v>0.334931</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.338343</v>
+        <v>0.343965</v>
       </c>
       <c r="C32" t="n">
-        <v>0.351124</v>
+        <v>0.351044</v>
       </c>
       <c r="D32" t="n">
-        <v>0.336469</v>
+        <v>0.342353</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.356429</v>
+        <v>0.358712</v>
       </c>
       <c r="C33" t="n">
-        <v>0.35506</v>
+        <v>0.366578</v>
       </c>
       <c r="D33" t="n">
-        <v>0.337986</v>
+        <v>0.354865</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.362081</v>
+        <v>0.357106</v>
       </c>
       <c r="C34" t="n">
-        <v>0.375003</v>
+        <v>0.3688</v>
       </c>
       <c r="D34" t="n">
-        <v>0.353638</v>
+        <v>0.372276</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.386042</v>
+        <v>0.384383</v>
       </c>
       <c r="C35" t="n">
-        <v>0.389504</v>
+        <v>0.391605</v>
       </c>
       <c r="D35" t="n">
-        <v>0.363764</v>
+        <v>0.366835</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.396662</v>
+        <v>0.393196</v>
       </c>
       <c r="C36" t="n">
-        <v>0.422376</v>
+        <v>0.412695</v>
       </c>
       <c r="D36" t="n">
-        <v>0.392872</v>
+        <v>0.396269</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.441196</v>
+        <v>0.448104</v>
       </c>
       <c r="C37" t="n">
-        <v>0.449062</v>
+        <v>0.461381</v>
       </c>
       <c r="D37" t="n">
-        <v>0.327843</v>
+        <v>0.322509</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.333269</v>
+        <v>0.331026</v>
       </c>
       <c r="C38" t="n">
-        <v>0.338354</v>
+        <v>0.355479</v>
       </c>
       <c r="D38" t="n">
-        <v>0.31622</v>
+        <v>0.324441</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.331204</v>
+        <v>0.346274</v>
       </c>
       <c r="C39" t="n">
-        <v>0.339015</v>
+        <v>0.333228</v>
       </c>
       <c r="D39" t="n">
-        <v>0.325685</v>
+        <v>0.319675</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.336329</v>
+        <v>0.326487</v>
       </c>
       <c r="C40" t="n">
-        <v>0.338929</v>
+        <v>0.340741</v>
       </c>
       <c r="D40" t="n">
-        <v>0.319247</v>
+        <v>0.325375</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.342894</v>
+        <v>0.333262</v>
       </c>
       <c r="C41" t="n">
-        <v>0.33942</v>
+        <v>0.35073</v>
       </c>
       <c r="D41" t="n">
-        <v>0.317398</v>
+        <v>0.321257</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.334062</v>
+        <v>0.331079</v>
       </c>
       <c r="C42" t="n">
-        <v>0.349146</v>
+        <v>0.342226</v>
       </c>
       <c r="D42" t="n">
-        <v>0.324127</v>
+        <v>0.324504</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.342831</v>
+        <v>0.339351</v>
       </c>
       <c r="C43" t="n">
-        <v>0.343099</v>
+        <v>0.351568</v>
       </c>
       <c r="D43" t="n">
-        <v>0.323062</v>
+        <v>0.327923</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.34156</v>
+        <v>0.337388</v>
       </c>
       <c r="C44" t="n">
-        <v>0.344819</v>
+        <v>0.35257</v>
       </c>
       <c r="D44" t="n">
-        <v>0.321327</v>
+        <v>0.332011</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.350682</v>
+        <v>0.341473</v>
       </c>
       <c r="C45" t="n">
-        <v>0.34167</v>
+        <v>0.343679</v>
       </c>
       <c r="D45" t="n">
-        <v>0.351772</v>
+        <v>0.334337</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.347457</v>
+        <v>0.35798</v>
       </c>
       <c r="C46" t="n">
-        <v>0.35357</v>
+        <v>0.367294</v>
       </c>
       <c r="D46" t="n">
-        <v>0.337902</v>
+        <v>0.344736</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.352376</v>
+        <v>0.347606</v>
       </c>
       <c r="C47" t="n">
-        <v>0.359772</v>
+        <v>0.35614</v>
       </c>
       <c r="D47" t="n">
-        <v>0.34137</v>
+        <v>0.341941</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.357905</v>
+        <v>0.368925</v>
       </c>
       <c r="C48" t="n">
-        <v>0.364588</v>
+        <v>0.371907</v>
       </c>
       <c r="D48" t="n">
-        <v>0.355446</v>
+        <v>0.349669</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.379438</v>
+        <v>0.379156</v>
       </c>
       <c r="C49" t="n">
-        <v>0.381029</v>
+        <v>0.38571</v>
       </c>
       <c r="D49" t="n">
-        <v>0.365736</v>
+        <v>0.377581</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.402095</v>
+        <v>0.389414</v>
       </c>
       <c r="C50" t="n">
-        <v>0.399558</v>
+        <v>0.418163</v>
       </c>
       <c r="D50" t="n">
-        <v>0.390452</v>
+        <v>0.38882</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.430635</v>
+        <v>0.429461</v>
       </c>
       <c r="C51" t="n">
-        <v>0.449729</v>
+        <v>0.455792</v>
       </c>
       <c r="D51" t="n">
-        <v>0.322308</v>
+        <v>0.326816</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.489199</v>
+        <v>0.485005</v>
       </c>
       <c r="C52" t="n">
-        <v>0.512812</v>
+        <v>0.517553</v>
       </c>
       <c r="D52" t="n">
-        <v>0.326197</v>
+        <v>0.32275</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.332174</v>
+        <v>0.344657</v>
       </c>
       <c r="C53" t="n">
-        <v>0.348964</v>
+        <v>0.354162</v>
       </c>
       <c r="D53" t="n">
-        <v>0.329257</v>
+        <v>0.324362</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.340431</v>
+        <v>0.333596</v>
       </c>
       <c r="C54" t="n">
-        <v>0.340126</v>
+        <v>0.34394</v>
       </c>
       <c r="D54" t="n">
-        <v>0.328543</v>
+        <v>0.322072</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.343363</v>
+        <v>0.344774</v>
       </c>
       <c r="C55" t="n">
-        <v>0.346575</v>
+        <v>0.354304</v>
       </c>
       <c r="D55" t="n">
-        <v>0.330723</v>
+        <v>0.340415</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.331325</v>
+        <v>0.335753</v>
       </c>
       <c r="C56" t="n">
-        <v>0.348771</v>
+        <v>0.349001</v>
       </c>
       <c r="D56" t="n">
-        <v>0.327703</v>
+        <v>0.329408</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.350712</v>
+        <v>0.338415</v>
       </c>
       <c r="C57" t="n">
-        <v>0.353547</v>
+        <v>0.354523</v>
       </c>
       <c r="D57" t="n">
-        <v>0.337646</v>
+        <v>0.319868</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.340522</v>
+        <v>0.355954</v>
       </c>
       <c r="C58" t="n">
-        <v>0.350363</v>
+        <v>0.347732</v>
       </c>
       <c r="D58" t="n">
-        <v>0.333747</v>
+        <v>0.335423</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.35462</v>
+        <v>0.352771</v>
       </c>
       <c r="C59" t="n">
-        <v>0.359789</v>
+        <v>0.35782</v>
       </c>
       <c r="D59" t="n">
-        <v>0.334294</v>
+        <v>0.333496</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.362679</v>
+        <v>0.352217</v>
       </c>
       <c r="C60" t="n">
-        <v>0.367666</v>
+        <v>0.359622</v>
       </c>
       <c r="D60" t="n">
-        <v>0.349347</v>
+        <v>0.344634</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.367526</v>
+        <v>0.368905</v>
       </c>
       <c r="C61" t="n">
-        <v>0.367449</v>
+        <v>0.364537</v>
       </c>
       <c r="D61" t="n">
-        <v>0.353942</v>
+        <v>0.362124</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.374232</v>
+        <v>0.371369</v>
       </c>
       <c r="C62" t="n">
-        <v>0.371546</v>
+        <v>0.378521</v>
       </c>
       <c r="D62" t="n">
-        <v>0.355476</v>
+        <v>0.35643</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.388338</v>
+        <v>0.388499</v>
       </c>
       <c r="C63" t="n">
-        <v>0.399696</v>
+        <v>0.387748</v>
       </c>
       <c r="D63" t="n">
-        <v>0.369083</v>
+        <v>0.373645</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.417456</v>
+        <v>0.397962</v>
       </c>
       <c r="C64" t="n">
-        <v>0.417097</v>
+        <v>0.414348</v>
       </c>
       <c r="D64" t="n">
-        <v>0.398188</v>
+        <v>0.397814</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.438966</v>
+        <v>0.438497</v>
       </c>
       <c r="C65" t="n">
-        <v>0.444796</v>
+        <v>0.447263</v>
       </c>
       <c r="D65" t="n">
-        <v>0.435516</v>
+        <v>0.42847</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.495287</v>
+        <v>0.496101</v>
       </c>
       <c r="C66" t="n">
-        <v>0.51766</v>
+        <v>0.508125</v>
       </c>
       <c r="D66" t="n">
-        <v>0.323449</v>
+        <v>0.331704</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.349786</v>
+        <v>0.363508</v>
       </c>
       <c r="C67" t="n">
-        <v>0.349043</v>
+        <v>0.361493</v>
       </c>
       <c r="D67" t="n">
-        <v>0.325881</v>
+        <v>0.320928</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.355443</v>
+        <v>0.358749</v>
       </c>
       <c r="C68" t="n">
-        <v>0.349899</v>
+        <v>0.349784</v>
       </c>
       <c r="D68" t="n">
-        <v>0.332586</v>
+        <v>0.347635</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.351789</v>
+        <v>0.360656</v>
       </c>
       <c r="C69" t="n">
-        <v>0.358951</v>
+        <v>0.362334</v>
       </c>
       <c r="D69" t="n">
-        <v>0.332513</v>
+        <v>0.330043</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.361563</v>
+        <v>0.359018</v>
       </c>
       <c r="C70" t="n">
-        <v>0.355118</v>
+        <v>0.355087</v>
       </c>
       <c r="D70" t="n">
-        <v>0.341078</v>
+        <v>0.332895</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.356457</v>
+        <v>0.365209</v>
       </c>
       <c r="C71" t="n">
-        <v>0.365026</v>
+        <v>0.359749</v>
       </c>
       <c r="D71" t="n">
-        <v>0.339774</v>
+        <v>0.341177</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.370691</v>
+        <v>0.367939</v>
       </c>
       <c r="C72" t="n">
-        <v>0.370739</v>
+        <v>0.37247</v>
       </c>
       <c r="D72" t="n">
-        <v>0.332429</v>
+        <v>0.338266</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.362119</v>
+        <v>0.362961</v>
       </c>
       <c r="C73" t="n">
-        <v>0.367787</v>
+        <v>0.374121</v>
       </c>
       <c r="D73" t="n">
-        <v>0.343949</v>
+        <v>0.340971</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.369337</v>
+        <v>0.379914</v>
       </c>
       <c r="C74" t="n">
-        <v>0.373938</v>
+        <v>0.370447</v>
       </c>
       <c r="D74" t="n">
-        <v>0.348</v>
+        <v>0.340856</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.386141</v>
+        <v>0.38375</v>
       </c>
       <c r="C75" t="n">
-        <v>0.378472</v>
+        <v>0.377336</v>
       </c>
       <c r="D75" t="n">
-        <v>0.359229</v>
+        <v>0.352821</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.380734</v>
+        <v>0.412913</v>
       </c>
       <c r="C76" t="n">
-        <v>0.402817</v>
+        <v>0.413924</v>
       </c>
       <c r="D76" t="n">
-        <v>0.367554</v>
+        <v>0.369154</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.418414</v>
+        <v>0.41723</v>
       </c>
       <c r="C77" t="n">
-        <v>0.411759</v>
+        <v>0.397148</v>
       </c>
       <c r="D77" t="n">
-        <v>0.382841</v>
+        <v>0.379973</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.439599</v>
+        <v>0.425757</v>
       </c>
       <c r="C78" t="n">
-        <v>0.446765</v>
+        <v>0.433814</v>
       </c>
       <c r="D78" t="n">
-        <v>0.40326</v>
+        <v>0.40125</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.462708</v>
+        <v>0.480821</v>
       </c>
       <c r="C79" t="n">
-        <v>0.47633</v>
+        <v>0.476104</v>
       </c>
       <c r="D79" t="n">
-        <v>0.455514</v>
+        <v>0.44769</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.530114</v>
+        <v>0.516957</v>
       </c>
       <c r="C80" t="n">
-        <v>0.536601</v>
+        <v>0.531811</v>
       </c>
       <c r="D80" t="n">
-        <v>0.334469</v>
+        <v>0.340526</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.373966</v>
+        <v>0.373974</v>
       </c>
       <c r="C81" t="n">
-        <v>0.37364</v>
+        <v>0.370032</v>
       </c>
       <c r="D81" t="n">
-        <v>0.33474</v>
+        <v>0.331211</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.388933</v>
+        <v>0.368902</v>
       </c>
       <c r="C82" t="n">
-        <v>0.368316</v>
+        <v>0.367523</v>
       </c>
       <c r="D82" t="n">
-        <v>0.336376</v>
+        <v>0.330324</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.380619</v>
+        <v>0.369262</v>
       </c>
       <c r="C83" t="n">
-        <v>0.374423</v>
+        <v>0.359317</v>
       </c>
       <c r="D83" t="n">
-        <v>0.336817</v>
+        <v>0.338403</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.379822</v>
+        <v>0.382977</v>
       </c>
       <c r="C84" t="n">
-        <v>0.383978</v>
+        <v>0.36874</v>
       </c>
       <c r="D84" t="n">
-        <v>0.330179</v>
+        <v>0.346142</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.379313</v>
+        <v>0.39355</v>
       </c>
       <c r="C85" t="n">
-        <v>0.379622</v>
+        <v>0.369096</v>
       </c>
       <c r="D85" t="n">
-        <v>0.336546</v>
+        <v>0.338715</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.397914</v>
+        <v>0.38511</v>
       </c>
       <c r="C86" t="n">
-        <v>0.393303</v>
+        <v>0.379197</v>
       </c>
       <c r="D86" t="n">
-        <v>0.351985</v>
+        <v>0.341869</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.401133</v>
+        <v>0.403445</v>
       </c>
       <c r="C87" t="n">
-        <v>0.382224</v>
+        <v>0.393108</v>
       </c>
       <c r="D87" t="n">
-        <v>0.349462</v>
+        <v>0.35206</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.409896</v>
+        <v>0.402588</v>
       </c>
       <c r="C88" t="n">
-        <v>0.391504</v>
+        <v>0.391869</v>
       </c>
       <c r="D88" t="n">
-        <v>0.359579</v>
+        <v>0.360316</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.401949</v>
+        <v>0.41067</v>
       </c>
       <c r="C89" t="n">
-        <v>0.402001</v>
+        <v>0.410007</v>
       </c>
       <c r="D89" t="n">
-        <v>0.369482</v>
+        <v>0.363439</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.41436</v>
+        <v>0.423089</v>
       </c>
       <c r="C90" t="n">
-        <v>0.410312</v>
+        <v>0.414356</v>
       </c>
       <c r="D90" t="n">
-        <v>0.3817</v>
+        <v>0.384995</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.448103</v>
+        <v>0.444157</v>
       </c>
       <c r="C91" t="n">
-        <v>0.439991</v>
+        <v>0.431893</v>
       </c>
       <c r="D91" t="n">
-        <v>0.392414</v>
+        <v>0.394027</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.470913</v>
+        <v>0.473434</v>
       </c>
       <c r="C92" t="n">
-        <v>0.462793</v>
+        <v>0.468106</v>
       </c>
       <c r="D92" t="n">
-        <v>0.416818</v>
+        <v>0.42518</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.5023919999999999</v>
+        <v>0.514614</v>
       </c>
       <c r="C93" t="n">
-        <v>0.498389</v>
+        <v>0.5039979999999999</v>
       </c>
       <c r="D93" t="n">
-        <v>0.446794</v>
+        <v>0.458489</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.559284</v>
+        <v>0.548125</v>
       </c>
       <c r="C94" t="n">
-        <v>0.571623</v>
+        <v>0.5586680000000001</v>
       </c>
       <c r="D94" t="n">
-        <v>0.35812</v>
+        <v>0.358411</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.439043</v>
+        <v>0.417143</v>
       </c>
       <c r="C95" t="n">
-        <v>0.41167</v>
+        <v>0.41502</v>
       </c>
       <c r="D95" t="n">
-        <v>0.360046</v>
+        <v>0.353214</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.420634</v>
+        <v>0.440578</v>
       </c>
       <c r="C96" t="n">
-        <v>0.412819</v>
+        <v>0.401825</v>
       </c>
       <c r="D96" t="n">
-        <v>0.362618</v>
+        <v>0.361584</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.440687</v>
+        <v>0.421676</v>
       </c>
       <c r="C97" t="n">
-        <v>0.405564</v>
+        <v>0.405639</v>
       </c>
       <c r="D97" t="n">
-        <v>0.367984</v>
+        <v>0.362529</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.432948</v>
+        <v>0.439252</v>
       </c>
       <c r="C98" t="n">
-        <v>0.414484</v>
+        <v>0.425826</v>
       </c>
       <c r="D98" t="n">
-        <v>0.369009</v>
+        <v>0.371361</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.454041</v>
+        <v>0.443349</v>
       </c>
       <c r="C99" t="n">
-        <v>0.428727</v>
+        <v>0.4263</v>
       </c>
       <c r="D99" t="n">
-        <v>0.373135</v>
+        <v>0.367934</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.451348</v>
+        <v>0.462555</v>
       </c>
       <c r="C100" t="n">
-        <v>0.431857</v>
+        <v>0.418927</v>
       </c>
       <c r="D100" t="n">
-        <v>0.378127</v>
+        <v>0.379699</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.454246</v>
+        <v>0.464548</v>
       </c>
       <c r="C101" t="n">
-        <v>0.437626</v>
+        <v>0.439615</v>
       </c>
       <c r="D101" t="n">
-        <v>0.392737</v>
+        <v>0.382396</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.458694</v>
+        <v>0.4796</v>
       </c>
       <c r="C102" t="n">
-        <v>0.462922</v>
+        <v>0.441199</v>
       </c>
       <c r="D102" t="n">
-        <v>0.405382</v>
+        <v>0.393548</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.467418</v>
+        <v>0.46793</v>
       </c>
       <c r="C103" t="n">
-        <v>0.456416</v>
+        <v>0.465148</v>
       </c>
       <c r="D103" t="n">
-        <v>0.398506</v>
+        <v>0.395547</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.487018</v>
+        <v>0.488802</v>
       </c>
       <c r="C104" t="n">
-        <v>0.476761</v>
+        <v>0.473156</v>
       </c>
       <c r="D104" t="n">
-        <v>0.418473</v>
+        <v>0.402542</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.514109</v>
+        <v>0.507456</v>
       </c>
       <c r="C105" t="n">
-        <v>0.495597</v>
+        <v>0.493974</v>
       </c>
       <c r="D105" t="n">
-        <v>0.433087</v>
+        <v>0.418368</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.536301</v>
+        <v>0.534084</v>
       </c>
       <c r="C106" t="n">
-        <v>0.518688</v>
+        <v>0.512548</v>
       </c>
       <c r="D106" t="n">
-        <v>0.451959</v>
+        <v>0.442189</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.5759</v>
+        <v>0.558652</v>
       </c>
       <c r="C107" t="n">
-        <v>0.5612279999999999</v>
+        <v>0.570114</v>
       </c>
       <c r="D107" t="n">
-        <v>0.496066</v>
+        <v>0.487414</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.655385</v>
+        <v>0.623328</v>
       </c>
       <c r="C108" t="n">
-        <v>0.649409</v>
+        <v>0.62712</v>
       </c>
       <c r="D108" t="n">
-        <v>0.49064</v>
+        <v>0.493736</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.7146479999999999</v>
+        <v>0.700117</v>
       </c>
       <c r="C109" t="n">
-        <v>0.731337</v>
+        <v>0.744827</v>
       </c>
       <c r="D109" t="n">
-        <v>0.490477</v>
+        <v>0.483067</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.562566</v>
+        <v>0.556895</v>
       </c>
       <c r="C110" t="n">
-        <v>0.52605</v>
+        <v>0.534246</v>
       </c>
       <c r="D110" t="n">
-        <v>0.484054</v>
+        <v>0.478953</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.563662</v>
+        <v>0.573003</v>
       </c>
       <c r="C111" t="n">
-        <v>0.544664</v>
+        <v>0.540089</v>
       </c>
       <c r="D111" t="n">
-        <v>0.488224</v>
+        <v>0.497004</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.567941</v>
+        <v>0.563229</v>
       </c>
       <c r="C112" t="n">
-        <v>0.54648</v>
+        <v>0.537686</v>
       </c>
       <c r="D112" t="n">
-        <v>0.486026</v>
+        <v>0.488025</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.575253</v>
+        <v>0.584089</v>
       </c>
       <c r="C113" t="n">
-        <v>0.557384</v>
+        <v>0.555106</v>
       </c>
       <c r="D113" t="n">
-        <v>0.489201</v>
+        <v>0.489686</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.591445</v>
+        <v>0.584389</v>
       </c>
       <c r="C114" t="n">
-        <v>0.547755</v>
+        <v>0.555329</v>
       </c>
       <c r="D114" t="n">
-        <v>0.495526</v>
+        <v>0.507755</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.604185</v>
+        <v>0.61245</v>
       </c>
       <c r="C115" t="n">
-        <v>0.572201</v>
+        <v>0.575256</v>
       </c>
       <c r="D115" t="n">
-        <v>0.514238</v>
+        <v>0.520796</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.607718</v>
+        <v>0.597824</v>
       </c>
       <c r="C116" t="n">
-        <v>0.580143</v>
+        <v>0.571556</v>
       </c>
       <c r="D116" t="n">
-        <v>0.508366</v>
+        <v>0.516242</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.627673</v>
+        <v>0.602165</v>
       </c>
       <c r="C117" t="n">
-        <v>0.597163</v>
+        <v>0.5873969999999999</v>
       </c>
       <c r="D117" t="n">
-        <v>0.527192</v>
+        <v>0.516889</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.626422</v>
+        <v>0.634068</v>
       </c>
       <c r="C118" t="n">
-        <v>0.603573</v>
+        <v>0.61163</v>
       </c>
       <c r="D118" t="n">
-        <v>0.538717</v>
+        <v>0.539668</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.649014</v>
+        <v>0.668334</v>
       </c>
       <c r="C119" t="n">
-        <v>0.639584</v>
+        <v>0.657084</v>
       </c>
       <c r="D119" t="n">
-        <v>0.551781</v>
+        <v>0.560322</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.665148</v>
+        <v>0.680356</v>
       </c>
       <c r="C120" t="n">
-        <v>0.666384</v>
+        <v>0.651649</v>
       </c>
       <c r="D120" t="n">
-        <v>0.57165</v>
+        <v>0.584661</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.748155</v>
+        <v>0.716712</v>
       </c>
       <c r="C121" t="n">
-        <v>0.702322</v>
+        <v>0.718573</v>
       </c>
       <c r="D121" t="n">
-        <v>0.615136</v>
+        <v>0.615632</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.805491</v>
+        <v>0.810768</v>
       </c>
       <c r="C122" t="n">
-        <v>0.772797</v>
+        <v>0.799654</v>
       </c>
       <c r="D122" t="n">
-        <v>0.669856</v>
+        <v>0.6663</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.864914</v>
+        <v>0.864191</v>
       </c>
       <c r="C123" t="n">
-        <v>0.863634</v>
+        <v>0.903462</v>
       </c>
       <c r="D123" t="n">
-        <v>0.737623</v>
+        <v>0.744671</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.930607</v>
+        <v>0.93291</v>
       </c>
       <c r="C124" t="n">
-        <v>0.842125</v>
+        <v>0.800972</v>
       </c>
       <c r="D124" t="n">
-        <v>0.7467549999999999</v>
+        <v>0.760362</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.879505</v>
+        <v>0.912954</v>
       </c>
       <c r="C125" t="n">
-        <v>0.809187</v>
+        <v>0.861667</v>
       </c>
       <c r="D125" t="n">
-        <v>0.780951</v>
+        <v>0.762077</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.956098</v>
+        <v>0.902162</v>
       </c>
       <c r="C126" t="n">
-        <v>0.832067</v>
+        <v>0.8347599999999999</v>
       </c>
       <c r="D126" t="n">
-        <v>0.782288</v>
+        <v>0.7868309999999999</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.914961</v>
+        <v>0.914369</v>
       </c>
       <c r="C127" t="n">
-        <v>0.840493</v>
+        <v>0.860544</v>
       </c>
       <c r="D127" t="n">
-        <v>0.75695</v>
+        <v>0.783462</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.970502</v>
+        <v>0.9131010000000001</v>
       </c>
       <c r="C128" t="n">
-        <v>0.883859</v>
+        <v>0.86026</v>
       </c>
       <c r="D128" t="n">
-        <v>0.771764</v>
+        <v>0.777962</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.937808</v>
+        <v>0.9705240000000001</v>
       </c>
       <c r="C129" t="n">
-        <v>0.870405</v>
+        <v>0.860513</v>
       </c>
       <c r="D129" t="n">
-        <v>0.806187</v>
+        <v>0.789615</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.968998</v>
+        <v>0.992583</v>
       </c>
       <c r="C130" t="n">
-        <v>0.906795</v>
+        <v>0.906986</v>
       </c>
       <c r="D130" t="n">
-        <v>0.812648</v>
+        <v>0.829222</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.969325</v>
+        <v>1.00539</v>
       </c>
       <c r="C131" t="n">
-        <v>0.879356</v>
+        <v>0.8949</v>
       </c>
       <c r="D131" t="n">
-        <v>0.808963</v>
+        <v>0.84848</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.953473</v>
+        <v>1.00073</v>
       </c>
       <c r="C132" t="n">
-        <v>0.915366</v>
+        <v>0.917914</v>
       </c>
       <c r="D132" t="n">
-        <v>0.799848</v>
+        <v>0.820272</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.00275</v>
+        <v>1.04304</v>
       </c>
       <c r="C133" t="n">
-        <v>0.964188</v>
+        <v>0.970546</v>
       </c>
       <c r="D133" t="n">
-        <v>0.833568</v>
+        <v>0.867349</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.01864</v>
+        <v>1.03628</v>
       </c>
       <c r="C134" t="n">
-        <v>0.982863</v>
+        <v>0.973936</v>
       </c>
       <c r="D134" t="n">
-        <v>0.876215</v>
+        <v>0.8981980000000001</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.07936</v>
+        <v>1.07306</v>
       </c>
       <c r="C135" t="n">
-        <v>1.05405</v>
+        <v>1.03952</v>
       </c>
       <c r="D135" t="n">
-        <v>0.8901</v>
+        <v>0.936327</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.15928</v>
+        <v>1.12209</v>
       </c>
       <c r="C136" t="n">
-        <v>1.10265</v>
+        <v>1.08971</v>
       </c>
       <c r="D136" t="n">
-        <v>0.950379</v>
+        <v>0.987628</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.23533</v>
+        <v>1.23403</v>
       </c>
       <c r="C137" t="n">
-        <v>1.2183</v>
+        <v>1.22697</v>
       </c>
       <c r="D137" t="n">
-        <v>0.9865429999999999</v>
+        <v>1.00599</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.25571</v>
+        <v>1.23125</v>
       </c>
       <c r="C138" t="n">
-        <v>1.08373</v>
+        <v>1.05532</v>
       </c>
       <c r="D138" t="n">
-        <v>0.986734</v>
+        <v>1.03879</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.24248</v>
+        <v>1.23169</v>
       </c>
       <c r="C139" t="n">
-        <v>1.06948</v>
+        <v>1.09304</v>
       </c>
       <c r="D139" t="n">
-        <v>0.997277</v>
+        <v>1.05556</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.19454</v>
+        <v>1.2114</v>
       </c>
       <c r="C140" t="n">
-        <v>1.0648</v>
+        <v>1.08051</v>
       </c>
       <c r="D140" t="n">
-        <v>1.0036</v>
+        <v>1.01793</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.26658</v>
+        <v>1.19594</v>
       </c>
       <c r="C141" t="n">
-        <v>1.08871</v>
+        <v>1.07524</v>
       </c>
       <c r="D141" t="n">
-        <v>1.0445</v>
+        <v>1.00905</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.26739</v>
+        <v>1.21894</v>
       </c>
       <c r="C142" t="n">
-        <v>1.1161</v>
+        <v>1.07953</v>
       </c>
       <c r="D142" t="n">
-        <v>1.00479</v>
+        <v>1.02528</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.26192</v>
+        <v>1.22564</v>
       </c>
       <c r="C143" t="n">
-        <v>1.13909</v>
+        <v>1.08865</v>
       </c>
       <c r="D143" t="n">
-        <v>1.02396</v>
+        <v>1.06962</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered unsuccessful looukp.xlsx
+++ b/vs-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.334984</v>
+        <v>0.335893</v>
       </c>
       <c r="C2" t="n">
-        <v>0.345538</v>
+        <v>0.337957</v>
       </c>
       <c r="D2" t="n">
-        <v>0.345639</v>
+        <v>0.322281</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.334086</v>
+        <v>0.340773</v>
       </c>
       <c r="C3" t="n">
-        <v>0.356936</v>
+        <v>0.338673</v>
       </c>
       <c r="D3" t="n">
-        <v>0.341258</v>
+        <v>0.328887</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.351993</v>
+        <v>0.344026</v>
       </c>
       <c r="C4" t="n">
-        <v>0.357775</v>
+        <v>0.346528</v>
       </c>
       <c r="D4" t="n">
-        <v>0.339566</v>
+        <v>0.335699</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.361971</v>
+        <v>0.362363</v>
       </c>
       <c r="C5" t="n">
-        <v>0.368933</v>
+        <v>0.348887</v>
       </c>
       <c r="D5" t="n">
-        <v>0.350528</v>
+        <v>0.34608</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.364037</v>
+        <v>0.361111</v>
       </c>
       <c r="C6" t="n">
-        <v>0.393149</v>
+        <v>0.365959</v>
       </c>
       <c r="D6" t="n">
-        <v>0.36984</v>
+        <v>0.367373</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.382489</v>
+        <v>0.401182</v>
       </c>
       <c r="C7" t="n">
-        <v>0.416516</v>
+        <v>0.393076</v>
       </c>
       <c r="D7" t="n">
-        <v>0.381587</v>
+        <v>0.37429</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.402519</v>
+        <v>0.416783</v>
       </c>
       <c r="C8" t="n">
-        <v>0.442835</v>
+        <v>0.417627</v>
       </c>
       <c r="D8" t="n">
-        <v>0.422737</v>
+        <v>0.409585</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.446561</v>
+        <v>0.461667</v>
       </c>
       <c r="C9" t="n">
-        <v>0.49884</v>
+        <v>0.465856</v>
       </c>
       <c r="D9" t="n">
-        <v>0.330629</v>
+        <v>0.31364</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.323585</v>
+        <v>0.326642</v>
       </c>
       <c r="C10" t="n">
-        <v>0.339634</v>
+        <v>0.322376</v>
       </c>
       <c r="D10" t="n">
-        <v>0.315781</v>
+        <v>0.320476</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.327457</v>
+        <v>0.327543</v>
       </c>
       <c r="C11" t="n">
-        <v>0.342256</v>
+        <v>0.326669</v>
       </c>
       <c r="D11" t="n">
-        <v>0.323991</v>
+        <v>0.319701</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.332308</v>
+        <v>0.325456</v>
       </c>
       <c r="C12" t="n">
-        <v>0.345015</v>
+        <v>0.32618</v>
       </c>
       <c r="D12" t="n">
-        <v>0.319477</v>
+        <v>0.316767</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.33062</v>
+        <v>0.325199</v>
       </c>
       <c r="C13" t="n">
-        <v>0.342948</v>
+        <v>0.332014</v>
       </c>
       <c r="D13" t="n">
-        <v>0.32155</v>
+        <v>0.32267</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.333141</v>
+        <v>0.324988</v>
       </c>
       <c r="C14" t="n">
-        <v>0.343572</v>
+        <v>0.322983</v>
       </c>
       <c r="D14" t="n">
-        <v>0.324275</v>
+        <v>0.332234</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.332522</v>
+        <v>0.323393</v>
       </c>
       <c r="C15" t="n">
-        <v>0.348876</v>
+        <v>0.334005</v>
       </c>
       <c r="D15" t="n">
-        <v>0.321518</v>
+        <v>0.331097</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.345321</v>
+        <v>0.336494</v>
       </c>
       <c r="C16" t="n">
-        <v>0.350675</v>
+        <v>0.326304</v>
       </c>
       <c r="D16" t="n">
-        <v>0.340827</v>
+        <v>0.327231</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.339487</v>
+        <v>0.335664</v>
       </c>
       <c r="C17" t="n">
-        <v>0.355738</v>
+        <v>0.347928</v>
       </c>
       <c r="D17" t="n">
-        <v>0.328138</v>
+        <v>0.333993</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.346163</v>
+        <v>0.342139</v>
       </c>
       <c r="C18" t="n">
-        <v>0.354885</v>
+        <v>0.335182</v>
       </c>
       <c r="D18" t="n">
-        <v>0.341817</v>
+        <v>0.337956</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.365393</v>
+        <v>0.355584</v>
       </c>
       <c r="C19" t="n">
-        <v>0.375139</v>
+        <v>0.34493</v>
       </c>
       <c r="D19" t="n">
-        <v>0.358863</v>
+        <v>0.347966</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.361616</v>
+        <v>0.355779</v>
       </c>
       <c r="C20" t="n">
-        <v>0.376864</v>
+        <v>0.357934</v>
       </c>
       <c r="D20" t="n">
-        <v>0.360583</v>
+        <v>0.350385</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.377428</v>
+        <v>0.382209</v>
       </c>
       <c r="C21" t="n">
-        <v>0.392487</v>
+        <v>0.383788</v>
       </c>
       <c r="D21" t="n">
-        <v>0.369643</v>
+        <v>0.362698</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.41601</v>
+        <v>0.402363</v>
       </c>
       <c r="C22" t="n">
-        <v>0.422459</v>
+        <v>0.394686</v>
       </c>
       <c r="D22" t="n">
-        <v>0.391336</v>
+        <v>0.39686</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.455609</v>
+        <v>0.440511</v>
       </c>
       <c r="C23" t="n">
-        <v>0.472094</v>
+        <v>0.463033</v>
       </c>
       <c r="D23" t="n">
-        <v>0.319306</v>
+        <v>0.314237</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.331706</v>
+        <v>0.331876</v>
       </c>
       <c r="C24" t="n">
-        <v>0.334747</v>
+        <v>0.321627</v>
       </c>
       <c r="D24" t="n">
-        <v>0.323041</v>
+        <v>0.315742</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.328215</v>
+        <v>0.328266</v>
       </c>
       <c r="C25" t="n">
-        <v>0.33678</v>
+        <v>0.317125</v>
       </c>
       <c r="D25" t="n">
-        <v>0.326124</v>
+        <v>0.323106</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.332032</v>
+        <v>0.319387</v>
       </c>
       <c r="C26" t="n">
-        <v>0.344527</v>
+        <v>0.320585</v>
       </c>
       <c r="D26" t="n">
-        <v>0.324398</v>
+        <v>0.318077</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.328048</v>
+        <v>0.320957</v>
       </c>
       <c r="C27" t="n">
-        <v>0.344627</v>
+        <v>0.324913</v>
       </c>
       <c r="D27" t="n">
-        <v>0.327951</v>
+        <v>0.327098</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.328729</v>
+        <v>0.326694</v>
       </c>
       <c r="C28" t="n">
-        <v>0.335814</v>
+        <v>0.318962</v>
       </c>
       <c r="D28" t="n">
-        <v>0.328496</v>
+        <v>0.31188</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.330581</v>
+        <v>0.334561</v>
       </c>
       <c r="C29" t="n">
-        <v>0.34307</v>
+        <v>0.332379</v>
       </c>
       <c r="D29" t="n">
-        <v>0.334496</v>
+        <v>0.313857</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.331861</v>
+        <v>0.331835</v>
       </c>
       <c r="C30" t="n">
-        <v>0.347533</v>
+        <v>0.329816</v>
       </c>
       <c r="D30" t="n">
-        <v>0.328523</v>
+        <v>0.322441</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.339166</v>
+        <v>0.343557</v>
       </c>
       <c r="C31" t="n">
-        <v>0.349406</v>
+        <v>0.336347</v>
       </c>
       <c r="D31" t="n">
-        <v>0.334931</v>
+        <v>0.3234</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.343965</v>
+        <v>0.345611</v>
       </c>
       <c r="C32" t="n">
-        <v>0.351044</v>
+        <v>0.342882</v>
       </c>
       <c r="D32" t="n">
-        <v>0.342353</v>
+        <v>0.331772</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.358712</v>
+        <v>0.349227</v>
       </c>
       <c r="C33" t="n">
-        <v>0.366578</v>
+        <v>0.344724</v>
       </c>
       <c r="D33" t="n">
-        <v>0.354865</v>
+        <v>0.339925</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.357106</v>
+        <v>0.353303</v>
       </c>
       <c r="C34" t="n">
-        <v>0.3688</v>
+        <v>0.35462</v>
       </c>
       <c r="D34" t="n">
-        <v>0.372276</v>
+        <v>0.346016</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.384383</v>
+        <v>0.389596</v>
       </c>
       <c r="C35" t="n">
-        <v>0.391605</v>
+        <v>0.371774</v>
       </c>
       <c r="D35" t="n">
-        <v>0.366835</v>
+        <v>0.354233</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.393196</v>
+        <v>0.391371</v>
       </c>
       <c r="C36" t="n">
-        <v>0.412695</v>
+        <v>0.391702</v>
       </c>
       <c r="D36" t="n">
-        <v>0.396269</v>
+        <v>0.3865</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.448104</v>
+        <v>0.465937</v>
       </c>
       <c r="C37" t="n">
-        <v>0.461381</v>
+        <v>0.424371</v>
       </c>
       <c r="D37" t="n">
-        <v>0.322509</v>
+        <v>0.319796</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.331026</v>
+        <v>0.322683</v>
       </c>
       <c r="C38" t="n">
-        <v>0.355479</v>
+        <v>0.329088</v>
       </c>
       <c r="D38" t="n">
-        <v>0.324441</v>
+        <v>0.316345</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.346274</v>
+        <v>0.321258</v>
       </c>
       <c r="C39" t="n">
-        <v>0.333228</v>
+        <v>0.320283</v>
       </c>
       <c r="D39" t="n">
-        <v>0.319675</v>
+        <v>0.322504</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.326487</v>
+        <v>0.34454</v>
       </c>
       <c r="C40" t="n">
-        <v>0.340741</v>
+        <v>0.32706</v>
       </c>
       <c r="D40" t="n">
-        <v>0.325375</v>
+        <v>0.319928</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.333262</v>
+        <v>0.330064</v>
       </c>
       <c r="C41" t="n">
-        <v>0.35073</v>
+        <v>0.318112</v>
       </c>
       <c r="D41" t="n">
-        <v>0.321257</v>
+        <v>0.32101</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.331079</v>
+        <v>0.332355</v>
       </c>
       <c r="C42" t="n">
-        <v>0.342226</v>
+        <v>0.322268</v>
       </c>
       <c r="D42" t="n">
-        <v>0.324504</v>
+        <v>0.318226</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.339351</v>
+        <v>0.331021</v>
       </c>
       <c r="C43" t="n">
-        <v>0.351568</v>
+        <v>0.33098</v>
       </c>
       <c r="D43" t="n">
-        <v>0.327923</v>
+        <v>0.32332</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.337388</v>
+        <v>0.337789</v>
       </c>
       <c r="C44" t="n">
-        <v>0.35257</v>
+        <v>0.328572</v>
       </c>
       <c r="D44" t="n">
-        <v>0.332011</v>
+        <v>0.338237</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.341473</v>
+        <v>0.343546</v>
       </c>
       <c r="C45" t="n">
-        <v>0.343679</v>
+        <v>0.333545</v>
       </c>
       <c r="D45" t="n">
-        <v>0.334337</v>
+        <v>0.327227</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.35798</v>
+        <v>0.350158</v>
       </c>
       <c r="C46" t="n">
-        <v>0.367294</v>
+        <v>0.344975</v>
       </c>
       <c r="D46" t="n">
-        <v>0.344736</v>
+        <v>0.333696</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.347606</v>
+        <v>0.3639</v>
       </c>
       <c r="C47" t="n">
-        <v>0.35614</v>
+        <v>0.351655</v>
       </c>
       <c r="D47" t="n">
-        <v>0.341941</v>
+        <v>0.336595</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.368925</v>
+        <v>0.361078</v>
       </c>
       <c r="C48" t="n">
-        <v>0.371907</v>
+        <v>0.35445</v>
       </c>
       <c r="D48" t="n">
-        <v>0.349669</v>
+        <v>0.3475</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.379156</v>
+        <v>0.378887</v>
       </c>
       <c r="C49" t="n">
-        <v>0.38571</v>
+        <v>0.378943</v>
       </c>
       <c r="D49" t="n">
-        <v>0.377581</v>
+        <v>0.365846</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.389414</v>
+        <v>0.411077</v>
       </c>
       <c r="C50" t="n">
-        <v>0.418163</v>
+        <v>0.407289</v>
       </c>
       <c r="D50" t="n">
-        <v>0.38882</v>
+        <v>0.378386</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.429461</v>
+        <v>0.427566</v>
       </c>
       <c r="C51" t="n">
-        <v>0.455792</v>
+        <v>0.433462</v>
       </c>
       <c r="D51" t="n">
-        <v>0.326816</v>
+        <v>0.324483</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.485005</v>
+        <v>0.487051</v>
       </c>
       <c r="C52" t="n">
-        <v>0.517553</v>
+        <v>0.484254</v>
       </c>
       <c r="D52" t="n">
-        <v>0.32275</v>
+        <v>0.325809</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.344657</v>
+        <v>0.330461</v>
       </c>
       <c r="C53" t="n">
-        <v>0.354162</v>
+        <v>0.330916</v>
       </c>
       <c r="D53" t="n">
-        <v>0.324362</v>
+        <v>0.315996</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.333596</v>
+        <v>0.34297</v>
       </c>
       <c r="C54" t="n">
-        <v>0.34394</v>
+        <v>0.329344</v>
       </c>
       <c r="D54" t="n">
-        <v>0.322072</v>
+        <v>0.318694</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.344774</v>
+        <v>0.340231</v>
       </c>
       <c r="C55" t="n">
-        <v>0.354304</v>
+        <v>0.328267</v>
       </c>
       <c r="D55" t="n">
-        <v>0.340415</v>
+        <v>0.323213</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.335753</v>
+        <v>0.345782</v>
       </c>
       <c r="C56" t="n">
-        <v>0.349001</v>
+        <v>0.322005</v>
       </c>
       <c r="D56" t="n">
-        <v>0.329408</v>
+        <v>0.327119</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.338415</v>
+        <v>0.356656</v>
       </c>
       <c r="C57" t="n">
-        <v>0.354523</v>
+        <v>0.335069</v>
       </c>
       <c r="D57" t="n">
-        <v>0.319868</v>
+        <v>0.332488</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.355954</v>
+        <v>0.346614</v>
       </c>
       <c r="C58" t="n">
-        <v>0.347732</v>
+        <v>0.335206</v>
       </c>
       <c r="D58" t="n">
-        <v>0.335423</v>
+        <v>0.327579</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.352771</v>
+        <v>0.354332</v>
       </c>
       <c r="C59" t="n">
-        <v>0.35782</v>
+        <v>0.33936</v>
       </c>
       <c r="D59" t="n">
-        <v>0.333496</v>
+        <v>0.334275</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.352217</v>
+        <v>0.350264</v>
       </c>
       <c r="C60" t="n">
-        <v>0.359622</v>
+        <v>0.338073</v>
       </c>
       <c r="D60" t="n">
-        <v>0.344634</v>
+        <v>0.336341</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.368905</v>
+        <v>0.365054</v>
       </c>
       <c r="C61" t="n">
-        <v>0.364537</v>
+        <v>0.356976</v>
       </c>
       <c r="D61" t="n">
-        <v>0.362124</v>
+        <v>0.345195</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.371369</v>
+        <v>0.36977</v>
       </c>
       <c r="C62" t="n">
-        <v>0.378521</v>
+        <v>0.360728</v>
       </c>
       <c r="D62" t="n">
-        <v>0.35643</v>
+        <v>0.352663</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.388499</v>
+        <v>0.382588</v>
       </c>
       <c r="C63" t="n">
-        <v>0.387748</v>
+        <v>0.382308</v>
       </c>
       <c r="D63" t="n">
-        <v>0.373645</v>
+        <v>0.367215</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.397962</v>
+        <v>0.419898</v>
       </c>
       <c r="C64" t="n">
-        <v>0.414348</v>
+        <v>0.389203</v>
       </c>
       <c r="D64" t="n">
-        <v>0.397814</v>
+        <v>0.396953</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.438497</v>
+        <v>0.451415</v>
       </c>
       <c r="C65" t="n">
-        <v>0.447263</v>
+        <v>0.425397</v>
       </c>
       <c r="D65" t="n">
-        <v>0.42847</v>
+        <v>0.419405</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.496101</v>
+        <v>0.474944</v>
       </c>
       <c r="C66" t="n">
-        <v>0.508125</v>
+        <v>0.470519</v>
       </c>
       <c r="D66" t="n">
-        <v>0.331704</v>
+        <v>0.31916</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.363508</v>
+        <v>0.340187</v>
       </c>
       <c r="C67" t="n">
-        <v>0.361493</v>
+        <v>0.321506</v>
       </c>
       <c r="D67" t="n">
-        <v>0.320928</v>
+        <v>0.313238</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.358749</v>
+        <v>0.34035</v>
       </c>
       <c r="C68" t="n">
-        <v>0.349784</v>
+        <v>0.326643</v>
       </c>
       <c r="D68" t="n">
-        <v>0.347635</v>
+        <v>0.313357</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.360656</v>
+        <v>0.348269</v>
       </c>
       <c r="C69" t="n">
-        <v>0.362334</v>
+        <v>0.340257</v>
       </c>
       <c r="D69" t="n">
-        <v>0.330043</v>
+        <v>0.336956</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.359018</v>
+        <v>0.360968</v>
       </c>
       <c r="C70" t="n">
-        <v>0.355087</v>
+        <v>0.336577</v>
       </c>
       <c r="D70" t="n">
-        <v>0.332895</v>
+        <v>0.327113</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.365209</v>
+        <v>0.365116</v>
       </c>
       <c r="C71" t="n">
-        <v>0.359749</v>
+        <v>0.341433</v>
       </c>
       <c r="D71" t="n">
-        <v>0.341177</v>
+        <v>0.337186</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.367939</v>
+        <v>0.369609</v>
       </c>
       <c r="C72" t="n">
-        <v>0.37247</v>
+        <v>0.347915</v>
       </c>
       <c r="D72" t="n">
-        <v>0.338266</v>
+        <v>0.333875</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.362961</v>
+        <v>0.372492</v>
       </c>
       <c r="C73" t="n">
-        <v>0.374121</v>
+        <v>0.369247</v>
       </c>
       <c r="D73" t="n">
-        <v>0.340971</v>
+        <v>0.336802</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.379914</v>
+        <v>0.374807</v>
       </c>
       <c r="C74" t="n">
-        <v>0.370447</v>
+        <v>0.352811</v>
       </c>
       <c r="D74" t="n">
-        <v>0.340856</v>
+        <v>0.349326</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.38375</v>
+        <v>0.378462</v>
       </c>
       <c r="C75" t="n">
-        <v>0.377336</v>
+        <v>0.36093</v>
       </c>
       <c r="D75" t="n">
-        <v>0.352821</v>
+        <v>0.352471</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.412913</v>
+        <v>0.389891</v>
       </c>
       <c r="C76" t="n">
-        <v>0.413924</v>
+        <v>0.399902</v>
       </c>
       <c r="D76" t="n">
-        <v>0.369154</v>
+        <v>0.361684</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.41723</v>
+        <v>0.416548</v>
       </c>
       <c r="C77" t="n">
-        <v>0.397148</v>
+        <v>0.41576</v>
       </c>
       <c r="D77" t="n">
-        <v>0.379973</v>
+        <v>0.376191</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.425757</v>
+        <v>0.436779</v>
       </c>
       <c r="C78" t="n">
-        <v>0.433814</v>
+        <v>0.415852</v>
       </c>
       <c r="D78" t="n">
-        <v>0.40125</v>
+        <v>0.394312</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.480821</v>
+        <v>0.46234</v>
       </c>
       <c r="C79" t="n">
-        <v>0.476104</v>
+        <v>0.46268</v>
       </c>
       <c r="D79" t="n">
-        <v>0.44769</v>
+        <v>0.428555</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.516957</v>
+        <v>0.526774</v>
       </c>
       <c r="C80" t="n">
-        <v>0.531811</v>
+        <v>0.530491</v>
       </c>
       <c r="D80" t="n">
-        <v>0.340526</v>
+        <v>0.330446</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.373974</v>
+        <v>0.377682</v>
       </c>
       <c r="C81" t="n">
-        <v>0.370032</v>
+        <v>0.351384</v>
       </c>
       <c r="D81" t="n">
-        <v>0.331211</v>
+        <v>0.326184</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.368902</v>
+        <v>0.378032</v>
       </c>
       <c r="C82" t="n">
-        <v>0.367523</v>
+        <v>0.349625</v>
       </c>
       <c r="D82" t="n">
-        <v>0.330324</v>
+        <v>0.328461</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.369262</v>
+        <v>0.411881</v>
       </c>
       <c r="C83" t="n">
-        <v>0.359317</v>
+        <v>0.354408</v>
       </c>
       <c r="D83" t="n">
-        <v>0.338403</v>
+        <v>0.338869</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.382977</v>
+        <v>0.391074</v>
       </c>
       <c r="C84" t="n">
-        <v>0.36874</v>
+        <v>0.351986</v>
       </c>
       <c r="D84" t="n">
-        <v>0.346142</v>
+        <v>0.335489</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.39355</v>
+        <v>0.378189</v>
       </c>
       <c r="C85" t="n">
-        <v>0.369096</v>
+        <v>0.363936</v>
       </c>
       <c r="D85" t="n">
-        <v>0.338715</v>
+        <v>0.34832</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.38511</v>
+        <v>0.389787</v>
       </c>
       <c r="C86" t="n">
-        <v>0.379197</v>
+        <v>0.359991</v>
       </c>
       <c r="D86" t="n">
-        <v>0.341869</v>
+        <v>0.340463</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.403445</v>
+        <v>0.38816</v>
       </c>
       <c r="C87" t="n">
-        <v>0.393108</v>
+        <v>0.373208</v>
       </c>
       <c r="D87" t="n">
-        <v>0.35206</v>
+        <v>0.371637</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.402588</v>
+        <v>0.403725</v>
       </c>
       <c r="C88" t="n">
-        <v>0.391869</v>
+        <v>0.386719</v>
       </c>
       <c r="D88" t="n">
-        <v>0.360316</v>
+        <v>0.352878</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.41067</v>
+        <v>0.413067</v>
       </c>
       <c r="C89" t="n">
-        <v>0.410007</v>
+        <v>0.397464</v>
       </c>
       <c r="D89" t="n">
-        <v>0.363439</v>
+        <v>0.367935</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.423089</v>
+        <v>0.433696</v>
       </c>
       <c r="C90" t="n">
-        <v>0.414356</v>
+        <v>0.401951</v>
       </c>
       <c r="D90" t="n">
-        <v>0.384995</v>
+        <v>0.375925</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.444157</v>
+        <v>0.435868</v>
       </c>
       <c r="C91" t="n">
-        <v>0.431893</v>
+        <v>0.430144</v>
       </c>
       <c r="D91" t="n">
-        <v>0.394027</v>
+        <v>0.391625</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.473434</v>
+        <v>0.471727</v>
       </c>
       <c r="C92" t="n">
-        <v>0.468106</v>
+        <v>0.449311</v>
       </c>
       <c r="D92" t="n">
-        <v>0.42518</v>
+        <v>0.422672</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.514614</v>
+        <v>0.499281</v>
       </c>
       <c r="C93" t="n">
-        <v>0.5039979999999999</v>
+        <v>0.494079</v>
       </c>
       <c r="D93" t="n">
-        <v>0.458489</v>
+        <v>0.445762</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.548125</v>
+        <v>0.564399</v>
       </c>
       <c r="C94" t="n">
-        <v>0.5586680000000001</v>
+        <v>0.558212</v>
       </c>
       <c r="D94" t="n">
-        <v>0.358411</v>
+        <v>0.365252</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.417143</v>
+        <v>0.438473</v>
       </c>
       <c r="C95" t="n">
-        <v>0.41502</v>
+        <v>0.392333</v>
       </c>
       <c r="D95" t="n">
-        <v>0.353214</v>
+        <v>0.359077</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.440578</v>
+        <v>0.417158</v>
       </c>
       <c r="C96" t="n">
-        <v>0.401825</v>
+        <v>0.400386</v>
       </c>
       <c r="D96" t="n">
-        <v>0.361584</v>
+        <v>0.359242</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.421676</v>
+        <v>0.434978</v>
       </c>
       <c r="C97" t="n">
-        <v>0.405639</v>
+        <v>0.40051</v>
       </c>
       <c r="D97" t="n">
-        <v>0.362529</v>
+        <v>0.375787</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.439252</v>
+        <v>0.451215</v>
       </c>
       <c r="C98" t="n">
-        <v>0.425826</v>
+        <v>0.399779</v>
       </c>
       <c r="D98" t="n">
-        <v>0.371361</v>
+        <v>0.365294</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.443349</v>
+        <v>0.444854</v>
       </c>
       <c r="C99" t="n">
-        <v>0.4263</v>
+        <v>0.419848</v>
       </c>
       <c r="D99" t="n">
-        <v>0.367934</v>
+        <v>0.379166</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.462555</v>
+        <v>0.462513</v>
       </c>
       <c r="C100" t="n">
-        <v>0.418927</v>
+        <v>0.418156</v>
       </c>
       <c r="D100" t="n">
-        <v>0.379699</v>
+        <v>0.387906</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.464548</v>
+        <v>0.451113</v>
       </c>
       <c r="C101" t="n">
-        <v>0.439615</v>
+        <v>0.422127</v>
       </c>
       <c r="D101" t="n">
-        <v>0.382396</v>
+        <v>0.387141</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.4796</v>
+        <v>0.461077</v>
       </c>
       <c r="C102" t="n">
-        <v>0.441199</v>
+        <v>0.433251</v>
       </c>
       <c r="D102" t="n">
-        <v>0.393548</v>
+        <v>0.384258</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.46793</v>
+        <v>0.479872</v>
       </c>
       <c r="C103" t="n">
-        <v>0.465148</v>
+        <v>0.439175</v>
       </c>
       <c r="D103" t="n">
-        <v>0.395547</v>
+        <v>0.401355</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.488802</v>
+        <v>0.486801</v>
       </c>
       <c r="C104" t="n">
-        <v>0.473156</v>
+        <v>0.471398</v>
       </c>
       <c r="D104" t="n">
-        <v>0.402542</v>
+        <v>0.412993</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.507456</v>
+        <v>0.515575</v>
       </c>
       <c r="C105" t="n">
-        <v>0.493974</v>
+        <v>0.478302</v>
       </c>
       <c r="D105" t="n">
-        <v>0.418368</v>
+        <v>0.424664</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.534084</v>
+        <v>0.525814</v>
       </c>
       <c r="C106" t="n">
-        <v>0.512548</v>
+        <v>0.513606</v>
       </c>
       <c r="D106" t="n">
-        <v>0.442189</v>
+        <v>0.455088</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.558652</v>
+        <v>0.571587</v>
       </c>
       <c r="C107" t="n">
-        <v>0.570114</v>
+        <v>0.557256</v>
       </c>
       <c r="D107" t="n">
-        <v>0.487414</v>
+        <v>0.502593</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.623328</v>
+        <v>0.632964</v>
       </c>
       <c r="C108" t="n">
-        <v>0.62712</v>
+        <v>0.616286</v>
       </c>
       <c r="D108" t="n">
-        <v>0.493736</v>
+        <v>0.494018</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.700117</v>
+        <v>0.725739</v>
       </c>
       <c r="C109" t="n">
-        <v>0.744827</v>
+        <v>0.718225</v>
       </c>
       <c r="D109" t="n">
-        <v>0.483067</v>
+        <v>0.477906</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.556895</v>
+        <v>0.560374</v>
       </c>
       <c r="C110" t="n">
-        <v>0.534246</v>
+        <v>0.5276</v>
       </c>
       <c r="D110" t="n">
-        <v>0.478953</v>
+        <v>0.491955</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.573003</v>
+        <v>0.578269</v>
       </c>
       <c r="C111" t="n">
-        <v>0.540089</v>
+        <v>0.541052</v>
       </c>
       <c r="D111" t="n">
-        <v>0.497004</v>
+        <v>0.480073</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.563229</v>
+        <v>0.582342</v>
       </c>
       <c r="C112" t="n">
-        <v>0.537686</v>
+        <v>0.554126</v>
       </c>
       <c r="D112" t="n">
-        <v>0.488025</v>
+        <v>0.493916</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.584089</v>
+        <v>0.592172</v>
       </c>
       <c r="C113" t="n">
-        <v>0.555106</v>
+        <v>0.538762</v>
       </c>
       <c r="D113" t="n">
-        <v>0.489686</v>
+        <v>0.495599</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.584389</v>
+        <v>0.586364</v>
       </c>
       <c r="C114" t="n">
-        <v>0.555329</v>
+        <v>0.554294</v>
       </c>
       <c r="D114" t="n">
-        <v>0.507755</v>
+        <v>0.512889</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.61245</v>
+        <v>0.589754</v>
       </c>
       <c r="C115" t="n">
-        <v>0.575256</v>
+        <v>0.5580079999999999</v>
       </c>
       <c r="D115" t="n">
-        <v>0.520796</v>
+        <v>0.511047</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.597824</v>
+        <v>0.610159</v>
       </c>
       <c r="C116" t="n">
-        <v>0.571556</v>
+        <v>0.582918</v>
       </c>
       <c r="D116" t="n">
-        <v>0.516242</v>
+        <v>0.513603</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.602165</v>
+        <v>0.637145</v>
       </c>
       <c r="C117" t="n">
-        <v>0.5873969999999999</v>
+        <v>0.581805</v>
       </c>
       <c r="D117" t="n">
-        <v>0.516889</v>
+        <v>0.535044</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.634068</v>
+        <v>0.622052</v>
       </c>
       <c r="C118" t="n">
-        <v>0.61163</v>
+        <v>0.59885</v>
       </c>
       <c r="D118" t="n">
-        <v>0.539668</v>
+        <v>0.546218</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.668334</v>
+        <v>0.6394339999999999</v>
       </c>
       <c r="C119" t="n">
-        <v>0.657084</v>
+        <v>0.621646</v>
       </c>
       <c r="D119" t="n">
-        <v>0.560322</v>
+        <v>0.552295</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.680356</v>
+        <v>0.680778</v>
       </c>
       <c r="C120" t="n">
-        <v>0.651649</v>
+        <v>0.679628</v>
       </c>
       <c r="D120" t="n">
-        <v>0.584661</v>
+        <v>0.597146</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.716712</v>
+        <v>0.728202</v>
       </c>
       <c r="C121" t="n">
-        <v>0.718573</v>
+        <v>0.725117</v>
       </c>
       <c r="D121" t="n">
-        <v>0.615632</v>
+        <v>0.634393</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.810768</v>
+        <v>0.768158</v>
       </c>
       <c r="C122" t="n">
-        <v>0.799654</v>
+        <v>0.767404</v>
       </c>
       <c r="D122" t="n">
-        <v>0.6663</v>
+        <v>0.668145</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.864191</v>
+        <v>0.867561</v>
       </c>
       <c r="C123" t="n">
-        <v>0.903462</v>
+        <v>0.905316</v>
       </c>
       <c r="D123" t="n">
-        <v>0.744671</v>
+        <v>0.7512450000000001</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.93291</v>
+        <v>0.886834</v>
       </c>
       <c r="C124" t="n">
-        <v>0.800972</v>
+        <v>0.794665</v>
       </c>
       <c r="D124" t="n">
-        <v>0.760362</v>
+        <v>0.75098</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.912954</v>
+        <v>0.893008</v>
       </c>
       <c r="C125" t="n">
-        <v>0.861667</v>
+        <v>0.818805</v>
       </c>
       <c r="D125" t="n">
-        <v>0.762077</v>
+        <v>0.765504</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.902162</v>
+        <v>0.912184</v>
       </c>
       <c r="C126" t="n">
-        <v>0.8347599999999999</v>
+        <v>0.859154</v>
       </c>
       <c r="D126" t="n">
-        <v>0.7868309999999999</v>
+        <v>0.771519</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.914369</v>
+        <v>0.948411</v>
       </c>
       <c r="C127" t="n">
-        <v>0.860544</v>
+        <v>0.855997</v>
       </c>
       <c r="D127" t="n">
-        <v>0.783462</v>
+        <v>0.806814</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.9131010000000001</v>
+        <v>0.935452</v>
       </c>
       <c r="C128" t="n">
-        <v>0.86026</v>
+        <v>0.845222</v>
       </c>
       <c r="D128" t="n">
-        <v>0.777962</v>
+        <v>0.80693</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.9705240000000001</v>
+        <v>0.934884</v>
       </c>
       <c r="C129" t="n">
-        <v>0.860513</v>
+        <v>0.891274</v>
       </c>
       <c r="D129" t="n">
-        <v>0.789615</v>
+        <v>0.822515</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.992583</v>
+        <v>0.950192</v>
       </c>
       <c r="C130" t="n">
-        <v>0.906986</v>
+        <v>0.865307</v>
       </c>
       <c r="D130" t="n">
-        <v>0.829222</v>
+        <v>0.817011</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.00539</v>
+        <v>0.955481</v>
       </c>
       <c r="C131" t="n">
-        <v>0.8949</v>
+        <v>0.886184</v>
       </c>
       <c r="D131" t="n">
-        <v>0.84848</v>
+        <v>0.823638</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.00073</v>
+        <v>0.962155</v>
       </c>
       <c r="C132" t="n">
-        <v>0.917914</v>
+        <v>0.905667</v>
       </c>
       <c r="D132" t="n">
-        <v>0.820272</v>
+        <v>0.826803</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.04304</v>
+        <v>0.979154</v>
       </c>
       <c r="C133" t="n">
-        <v>0.970546</v>
+        <v>0.934523</v>
       </c>
       <c r="D133" t="n">
-        <v>0.867349</v>
+        <v>0.848319</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.03628</v>
+        <v>1.05336</v>
       </c>
       <c r="C134" t="n">
-        <v>0.973936</v>
+        <v>0.981272</v>
       </c>
       <c r="D134" t="n">
-        <v>0.8981980000000001</v>
+        <v>0.85933</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.07306</v>
+        <v>1.07186</v>
       </c>
       <c r="C135" t="n">
-        <v>1.03952</v>
+        <v>1.03945</v>
       </c>
       <c r="D135" t="n">
-        <v>0.936327</v>
+        <v>0.893579</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.12209</v>
+        <v>1.1271</v>
       </c>
       <c r="C136" t="n">
-        <v>1.08971</v>
+        <v>1.09179</v>
       </c>
       <c r="D136" t="n">
-        <v>0.987628</v>
+        <v>0.9547060000000001</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.23403</v>
+        <v>1.27501</v>
       </c>
       <c r="C137" t="n">
-        <v>1.22697</v>
+        <v>1.20292</v>
       </c>
       <c r="D137" t="n">
-        <v>1.00599</v>
+        <v>0.998762</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.23125</v>
+        <v>1.24083</v>
       </c>
       <c r="C138" t="n">
-        <v>1.05532</v>
+        <v>1.06471</v>
       </c>
       <c r="D138" t="n">
-        <v>1.03879</v>
+        <v>1.00408</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.23169</v>
+        <v>1.18094</v>
       </c>
       <c r="C139" t="n">
-        <v>1.09304</v>
+        <v>1.05853</v>
       </c>
       <c r="D139" t="n">
-        <v>1.05556</v>
+        <v>1.0067</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.2114</v>
+        <v>1.20982</v>
       </c>
       <c r="C140" t="n">
-        <v>1.08051</v>
+        <v>1.08541</v>
       </c>
       <c r="D140" t="n">
-        <v>1.01793</v>
+        <v>1.02534</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.19594</v>
+        <v>1.19616</v>
       </c>
       <c r="C141" t="n">
-        <v>1.07524</v>
+        <v>1.12244</v>
       </c>
       <c r="D141" t="n">
-        <v>1.00905</v>
+        <v>1.02699</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.21894</v>
+        <v>1.22256</v>
       </c>
       <c r="C142" t="n">
-        <v>1.07953</v>
+        <v>1.09925</v>
       </c>
       <c r="D142" t="n">
-        <v>1.02528</v>
+        <v>1.02217</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.22564</v>
+        <v>1.23204</v>
       </c>
       <c r="C143" t="n">
-        <v>1.08865</v>
+        <v>1.09606</v>
       </c>
       <c r="D143" t="n">
-        <v>1.06962</v>
+        <v>1.03362</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered unsuccessful looukp.xlsx
+++ b/vs-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.335893</v>
+        <v>0.349862</v>
       </c>
       <c r="C2" t="n">
-        <v>0.337957</v>
+        <v>0.34442</v>
       </c>
       <c r="D2" t="n">
-        <v>0.322281</v>
+        <v>0.33454</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.340773</v>
+        <v>0.346781</v>
       </c>
       <c r="C3" t="n">
-        <v>0.338673</v>
+        <v>0.346009</v>
       </c>
       <c r="D3" t="n">
-        <v>0.328887</v>
+        <v>0.337953</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.344026</v>
+        <v>0.354893</v>
       </c>
       <c r="C4" t="n">
-        <v>0.346528</v>
+        <v>0.353521</v>
       </c>
       <c r="D4" t="n">
-        <v>0.335699</v>
+        <v>0.34241</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.362363</v>
+        <v>0.353279</v>
       </c>
       <c r="C5" t="n">
-        <v>0.348887</v>
+        <v>0.364509</v>
       </c>
       <c r="D5" t="n">
-        <v>0.34608</v>
+        <v>0.350199</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.361111</v>
+        <v>0.372787</v>
       </c>
       <c r="C6" t="n">
-        <v>0.365959</v>
+        <v>0.369526</v>
       </c>
       <c r="D6" t="n">
-        <v>0.367373</v>
+        <v>0.367276</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.401182</v>
+        <v>0.386508</v>
       </c>
       <c r="C7" t="n">
-        <v>0.393076</v>
+        <v>0.396709</v>
       </c>
       <c r="D7" t="n">
-        <v>0.37429</v>
+        <v>0.385835</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.416783</v>
+        <v>0.407392</v>
       </c>
       <c r="C8" t="n">
-        <v>0.417627</v>
+        <v>0.429143</v>
       </c>
       <c r="D8" t="n">
-        <v>0.409585</v>
+        <v>0.408982</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.461667</v>
+        <v>0.449048</v>
       </c>
       <c r="C9" t="n">
-        <v>0.465856</v>
+        <v>0.493784</v>
       </c>
       <c r="D9" t="n">
-        <v>0.31364</v>
+        <v>0.330216</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.326642</v>
+        <v>0.342207</v>
       </c>
       <c r="C10" t="n">
-        <v>0.322376</v>
+        <v>0.321652</v>
       </c>
       <c r="D10" t="n">
-        <v>0.320476</v>
+        <v>0.321946</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.327543</v>
+        <v>0.333281</v>
       </c>
       <c r="C11" t="n">
-        <v>0.326669</v>
+        <v>0.322132</v>
       </c>
       <c r="D11" t="n">
-        <v>0.319701</v>
+        <v>0.315903</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.325456</v>
+        <v>0.329868</v>
       </c>
       <c r="C12" t="n">
-        <v>0.32618</v>
+        <v>0.332756</v>
       </c>
       <c r="D12" t="n">
-        <v>0.316767</v>
+        <v>0.328789</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.325199</v>
+        <v>0.331994</v>
       </c>
       <c r="C13" t="n">
-        <v>0.332014</v>
+        <v>0.323716</v>
       </c>
       <c r="D13" t="n">
-        <v>0.32267</v>
+        <v>0.320584</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.324988</v>
+        <v>0.344147</v>
       </c>
       <c r="C14" t="n">
-        <v>0.322983</v>
+        <v>0.329601</v>
       </c>
       <c r="D14" t="n">
-        <v>0.332234</v>
+        <v>0.324982</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.323393</v>
+        <v>0.341286</v>
       </c>
       <c r="C15" t="n">
-        <v>0.334005</v>
+        <v>0.331533</v>
       </c>
       <c r="D15" t="n">
-        <v>0.331097</v>
+        <v>0.32103</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.336494</v>
+        <v>0.334205</v>
       </c>
       <c r="C16" t="n">
-        <v>0.326304</v>
+        <v>0.336157</v>
       </c>
       <c r="D16" t="n">
-        <v>0.327231</v>
+        <v>0.33509</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.335664</v>
+        <v>0.333728</v>
       </c>
       <c r="C17" t="n">
-        <v>0.347928</v>
+        <v>0.337712</v>
       </c>
       <c r="D17" t="n">
-        <v>0.333993</v>
+        <v>0.328928</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.342139</v>
+        <v>0.347048</v>
       </c>
       <c r="C18" t="n">
-        <v>0.335182</v>
+        <v>0.339866</v>
       </c>
       <c r="D18" t="n">
-        <v>0.337956</v>
+        <v>0.348979</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.355584</v>
+        <v>0.360789</v>
       </c>
       <c r="C19" t="n">
-        <v>0.34493</v>
+        <v>0.361642</v>
       </c>
       <c r="D19" t="n">
-        <v>0.347966</v>
+        <v>0.341928</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.355779</v>
+        <v>0.356597</v>
       </c>
       <c r="C20" t="n">
-        <v>0.357934</v>
+        <v>0.371001</v>
       </c>
       <c r="D20" t="n">
-        <v>0.350385</v>
+        <v>0.352459</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.382209</v>
+        <v>0.391358</v>
       </c>
       <c r="C21" t="n">
-        <v>0.383788</v>
+        <v>0.385915</v>
       </c>
       <c r="D21" t="n">
-        <v>0.362698</v>
+        <v>0.375609</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.402363</v>
+        <v>0.400207</v>
       </c>
       <c r="C22" t="n">
-        <v>0.394686</v>
+        <v>0.398089</v>
       </c>
       <c r="D22" t="n">
-        <v>0.39686</v>
+        <v>0.391972</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.440511</v>
+        <v>0.440313</v>
       </c>
       <c r="C23" t="n">
-        <v>0.463033</v>
+        <v>0.445961</v>
       </c>
       <c r="D23" t="n">
-        <v>0.314237</v>
+        <v>0.326593</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.331876</v>
+        <v>0.336172</v>
       </c>
       <c r="C24" t="n">
-        <v>0.321627</v>
+        <v>0.323624</v>
       </c>
       <c r="D24" t="n">
-        <v>0.315742</v>
+        <v>0.317712</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.328266</v>
+        <v>0.347209</v>
       </c>
       <c r="C25" t="n">
-        <v>0.317125</v>
+        <v>0.321453</v>
       </c>
       <c r="D25" t="n">
-        <v>0.323106</v>
+        <v>0.32332</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.319387</v>
+        <v>0.330684</v>
       </c>
       <c r="C26" t="n">
-        <v>0.320585</v>
+        <v>0.330567</v>
       </c>
       <c r="D26" t="n">
-        <v>0.318077</v>
+        <v>0.325822</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.320957</v>
+        <v>0.329764</v>
       </c>
       <c r="C27" t="n">
-        <v>0.324913</v>
+        <v>0.325597</v>
       </c>
       <c r="D27" t="n">
-        <v>0.327098</v>
+        <v>0.321716</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.326694</v>
+        <v>0.342719</v>
       </c>
       <c r="C28" t="n">
-        <v>0.318962</v>
+        <v>0.325305</v>
       </c>
       <c r="D28" t="n">
-        <v>0.31188</v>
+        <v>0.333443</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.334561</v>
+        <v>0.335714</v>
       </c>
       <c r="C29" t="n">
-        <v>0.332379</v>
+        <v>0.327309</v>
       </c>
       <c r="D29" t="n">
-        <v>0.313857</v>
+        <v>0.324048</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.331835</v>
+        <v>0.339393</v>
       </c>
       <c r="C30" t="n">
-        <v>0.329816</v>
+        <v>0.338243</v>
       </c>
       <c r="D30" t="n">
-        <v>0.322441</v>
+        <v>0.330678</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.343557</v>
+        <v>0.34747</v>
       </c>
       <c r="C31" t="n">
-        <v>0.336347</v>
+        <v>0.331146</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3234</v>
+        <v>0.331034</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.345611</v>
+        <v>0.338952</v>
       </c>
       <c r="C32" t="n">
-        <v>0.342882</v>
+        <v>0.344325</v>
       </c>
       <c r="D32" t="n">
-        <v>0.331772</v>
+        <v>0.331387</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.349227</v>
+        <v>0.354292</v>
       </c>
       <c r="C33" t="n">
-        <v>0.344724</v>
+        <v>0.349469</v>
       </c>
       <c r="D33" t="n">
-        <v>0.339925</v>
+        <v>0.33511</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.353303</v>
+        <v>0.378161</v>
       </c>
       <c r="C34" t="n">
-        <v>0.35462</v>
+        <v>0.355861</v>
       </c>
       <c r="D34" t="n">
-        <v>0.346016</v>
+        <v>0.358922</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.389596</v>
+        <v>0.375183</v>
       </c>
       <c r="C35" t="n">
-        <v>0.371774</v>
+        <v>0.372729</v>
       </c>
       <c r="D35" t="n">
-        <v>0.354233</v>
+        <v>0.371621</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.391371</v>
+        <v>0.396534</v>
       </c>
       <c r="C36" t="n">
-        <v>0.391702</v>
+        <v>0.397027</v>
       </c>
       <c r="D36" t="n">
-        <v>0.3865</v>
+        <v>0.385624</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.465937</v>
+        <v>0.453003</v>
       </c>
       <c r="C37" t="n">
-        <v>0.424371</v>
+        <v>0.444244</v>
       </c>
       <c r="D37" t="n">
-        <v>0.319796</v>
+        <v>0.322323</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.322683</v>
+        <v>0.343714</v>
       </c>
       <c r="C38" t="n">
-        <v>0.329088</v>
+        <v>0.326579</v>
       </c>
       <c r="D38" t="n">
-        <v>0.316345</v>
+        <v>0.316233</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.321258</v>
+        <v>0.336271</v>
       </c>
       <c r="C39" t="n">
-        <v>0.320283</v>
+        <v>0.323863</v>
       </c>
       <c r="D39" t="n">
-        <v>0.322504</v>
+        <v>0.334631</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.34454</v>
+        <v>0.338062</v>
       </c>
       <c r="C40" t="n">
-        <v>0.32706</v>
+        <v>0.323859</v>
       </c>
       <c r="D40" t="n">
-        <v>0.319928</v>
+        <v>0.338868</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.330064</v>
+        <v>0.34888</v>
       </c>
       <c r="C41" t="n">
-        <v>0.318112</v>
+        <v>0.336455</v>
       </c>
       <c r="D41" t="n">
-        <v>0.32101</v>
+        <v>0.320402</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.332355</v>
+        <v>0.340115</v>
       </c>
       <c r="C42" t="n">
-        <v>0.322268</v>
+        <v>0.33785</v>
       </c>
       <c r="D42" t="n">
-        <v>0.318226</v>
+        <v>0.330832</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.331021</v>
+        <v>0.341739</v>
       </c>
       <c r="C43" t="n">
-        <v>0.33098</v>
+        <v>0.326108</v>
       </c>
       <c r="D43" t="n">
-        <v>0.32332</v>
+        <v>0.3259</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.337789</v>
+        <v>0.361599</v>
       </c>
       <c r="C44" t="n">
-        <v>0.328572</v>
+        <v>0.333288</v>
       </c>
       <c r="D44" t="n">
-        <v>0.338237</v>
+        <v>0.319804</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.343546</v>
+        <v>0.347134</v>
       </c>
       <c r="C45" t="n">
-        <v>0.333545</v>
+        <v>0.339202</v>
       </c>
       <c r="D45" t="n">
-        <v>0.327227</v>
+        <v>0.331004</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.350158</v>
+        <v>0.343491</v>
       </c>
       <c r="C46" t="n">
-        <v>0.344975</v>
+        <v>0.338429</v>
       </c>
       <c r="D46" t="n">
-        <v>0.333696</v>
+        <v>0.333074</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.3639</v>
+        <v>0.353218</v>
       </c>
       <c r="C47" t="n">
-        <v>0.351655</v>
+        <v>0.355301</v>
       </c>
       <c r="D47" t="n">
-        <v>0.336595</v>
+        <v>0.343266</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.361078</v>
+        <v>0.379957</v>
       </c>
       <c r="C48" t="n">
-        <v>0.35445</v>
+        <v>0.35746</v>
       </c>
       <c r="D48" t="n">
-        <v>0.3475</v>
+        <v>0.349478</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.378887</v>
+        <v>0.382721</v>
       </c>
       <c r="C49" t="n">
-        <v>0.378943</v>
+        <v>0.374551</v>
       </c>
       <c r="D49" t="n">
-        <v>0.365846</v>
+        <v>0.374653</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.411077</v>
+        <v>0.398248</v>
       </c>
       <c r="C50" t="n">
-        <v>0.407289</v>
+        <v>0.394298</v>
       </c>
       <c r="D50" t="n">
-        <v>0.378386</v>
+        <v>0.408101</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.427566</v>
+        <v>0.434191</v>
       </c>
       <c r="C51" t="n">
-        <v>0.433462</v>
+        <v>0.454739</v>
       </c>
       <c r="D51" t="n">
-        <v>0.324483</v>
+        <v>0.320875</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.487051</v>
+        <v>0.486189</v>
       </c>
       <c r="C52" t="n">
-        <v>0.484254</v>
+        <v>0.476226</v>
       </c>
       <c r="D52" t="n">
-        <v>0.325809</v>
+        <v>0.324823</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.330461</v>
+        <v>0.340489</v>
       </c>
       <c r="C53" t="n">
-        <v>0.330916</v>
+        <v>0.322929</v>
       </c>
       <c r="D53" t="n">
-        <v>0.315996</v>
+        <v>0.325444</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.34297</v>
+        <v>0.350616</v>
       </c>
       <c r="C54" t="n">
-        <v>0.329344</v>
+        <v>0.329873</v>
       </c>
       <c r="D54" t="n">
-        <v>0.318694</v>
+        <v>0.325267</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.340231</v>
+        <v>0.348232</v>
       </c>
       <c r="C55" t="n">
-        <v>0.328267</v>
+        <v>0.330743</v>
       </c>
       <c r="D55" t="n">
-        <v>0.323213</v>
+        <v>0.331321</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.345782</v>
+        <v>0.355947</v>
       </c>
       <c r="C56" t="n">
-        <v>0.322005</v>
+        <v>0.336579</v>
       </c>
       <c r="D56" t="n">
-        <v>0.327119</v>
+        <v>0.320655</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.356656</v>
+        <v>0.35431</v>
       </c>
       <c r="C57" t="n">
-        <v>0.335069</v>
+        <v>0.325596</v>
       </c>
       <c r="D57" t="n">
-        <v>0.332488</v>
+        <v>0.337031</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.346614</v>
+        <v>0.364108</v>
       </c>
       <c r="C58" t="n">
-        <v>0.335206</v>
+        <v>0.336812</v>
       </c>
       <c r="D58" t="n">
-        <v>0.327579</v>
+        <v>0.337436</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.354332</v>
+        <v>0.34582</v>
       </c>
       <c r="C59" t="n">
-        <v>0.33936</v>
+        <v>0.343785</v>
       </c>
       <c r="D59" t="n">
-        <v>0.334275</v>
+        <v>0.341996</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.350264</v>
+        <v>0.352022</v>
       </c>
       <c r="C60" t="n">
-        <v>0.338073</v>
+        <v>0.356161</v>
       </c>
       <c r="D60" t="n">
-        <v>0.336341</v>
+        <v>0.333759</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.365054</v>
+        <v>0.363521</v>
       </c>
       <c r="C61" t="n">
-        <v>0.356976</v>
+        <v>0.36659</v>
       </c>
       <c r="D61" t="n">
-        <v>0.345195</v>
+        <v>0.34612</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.36977</v>
+        <v>0.368506</v>
       </c>
       <c r="C62" t="n">
-        <v>0.360728</v>
+        <v>0.360906</v>
       </c>
       <c r="D62" t="n">
-        <v>0.352663</v>
+        <v>0.366462</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.382588</v>
+        <v>0.386881</v>
       </c>
       <c r="C63" t="n">
-        <v>0.382308</v>
+        <v>0.377892</v>
       </c>
       <c r="D63" t="n">
-        <v>0.367215</v>
+        <v>0.371535</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.419898</v>
+        <v>0.412461</v>
       </c>
       <c r="C64" t="n">
-        <v>0.389203</v>
+        <v>0.397905</v>
       </c>
       <c r="D64" t="n">
-        <v>0.396953</v>
+        <v>0.389991</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.451415</v>
+        <v>0.437129</v>
       </c>
       <c r="C65" t="n">
-        <v>0.425397</v>
+        <v>0.423056</v>
       </c>
       <c r="D65" t="n">
-        <v>0.419405</v>
+        <v>0.423345</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.474944</v>
+        <v>0.507514</v>
       </c>
       <c r="C66" t="n">
-        <v>0.470519</v>
+        <v>0.509756</v>
       </c>
       <c r="D66" t="n">
-        <v>0.31916</v>
+        <v>0.334892</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.340187</v>
+        <v>0.379614</v>
       </c>
       <c r="C67" t="n">
-        <v>0.321506</v>
+        <v>0.33195</v>
       </c>
       <c r="D67" t="n">
-        <v>0.313238</v>
+        <v>0.329972</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.34035</v>
+        <v>0.353165</v>
       </c>
       <c r="C68" t="n">
-        <v>0.326643</v>
+        <v>0.341526</v>
       </c>
       <c r="D68" t="n">
-        <v>0.313357</v>
+        <v>0.329958</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.348269</v>
+        <v>0.362402</v>
       </c>
       <c r="C69" t="n">
-        <v>0.340257</v>
+        <v>0.342004</v>
       </c>
       <c r="D69" t="n">
-        <v>0.336956</v>
+        <v>0.33226</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.360968</v>
+        <v>0.364528</v>
       </c>
       <c r="C70" t="n">
-        <v>0.336577</v>
+        <v>0.339805</v>
       </c>
       <c r="D70" t="n">
-        <v>0.327113</v>
+        <v>0.332827</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.365116</v>
+        <v>0.361746</v>
       </c>
       <c r="C71" t="n">
-        <v>0.341433</v>
+        <v>0.346078</v>
       </c>
       <c r="D71" t="n">
-        <v>0.337186</v>
+        <v>0.333049</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.369609</v>
+        <v>0.368906</v>
       </c>
       <c r="C72" t="n">
-        <v>0.347915</v>
+        <v>0.358195</v>
       </c>
       <c r="D72" t="n">
-        <v>0.333875</v>
+        <v>0.337688</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.372492</v>
+        <v>0.377026</v>
       </c>
       <c r="C73" t="n">
-        <v>0.369247</v>
+        <v>0.352607</v>
       </c>
       <c r="D73" t="n">
-        <v>0.336802</v>
+        <v>0.335923</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.374807</v>
+        <v>0.379431</v>
       </c>
       <c r="C74" t="n">
-        <v>0.352811</v>
+        <v>0.353488</v>
       </c>
       <c r="D74" t="n">
-        <v>0.349326</v>
+        <v>0.364059</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.378462</v>
+        <v>0.386713</v>
       </c>
       <c r="C75" t="n">
-        <v>0.36093</v>
+        <v>0.384995</v>
       </c>
       <c r="D75" t="n">
-        <v>0.352471</v>
+        <v>0.349978</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.389891</v>
+        <v>0.403337</v>
       </c>
       <c r="C76" t="n">
-        <v>0.399902</v>
+        <v>0.382371</v>
       </c>
       <c r="D76" t="n">
-        <v>0.361684</v>
+        <v>0.378828</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.416548</v>
+        <v>0.413489</v>
       </c>
       <c r="C77" t="n">
-        <v>0.41576</v>
+        <v>0.401813</v>
       </c>
       <c r="D77" t="n">
-        <v>0.376191</v>
+        <v>0.387957</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.436779</v>
+        <v>0.435002</v>
       </c>
       <c r="C78" t="n">
-        <v>0.415852</v>
+        <v>0.45025</v>
       </c>
       <c r="D78" t="n">
-        <v>0.394312</v>
+        <v>0.402246</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.46234</v>
+        <v>0.462531</v>
       </c>
       <c r="C79" t="n">
-        <v>0.46268</v>
+        <v>0.461175</v>
       </c>
       <c r="D79" t="n">
-        <v>0.428555</v>
+        <v>0.444643</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.526774</v>
+        <v>0.499868</v>
       </c>
       <c r="C80" t="n">
-        <v>0.530491</v>
+        <v>0.515757</v>
       </c>
       <c r="D80" t="n">
-        <v>0.330446</v>
+        <v>0.343976</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.377682</v>
+        <v>0.383315</v>
       </c>
       <c r="C81" t="n">
-        <v>0.351384</v>
+        <v>0.352855</v>
       </c>
       <c r="D81" t="n">
-        <v>0.326184</v>
+        <v>0.343405</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.378032</v>
+        <v>0.376043</v>
       </c>
       <c r="C82" t="n">
-        <v>0.349625</v>
+        <v>0.347995</v>
       </c>
       <c r="D82" t="n">
-        <v>0.328461</v>
+        <v>0.331893</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.411881</v>
+        <v>0.381629</v>
       </c>
       <c r="C83" t="n">
-        <v>0.354408</v>
+        <v>0.355626</v>
       </c>
       <c r="D83" t="n">
-        <v>0.338869</v>
+        <v>0.33069</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.391074</v>
+        <v>0.379291</v>
       </c>
       <c r="C84" t="n">
-        <v>0.351986</v>
+        <v>0.363669</v>
       </c>
       <c r="D84" t="n">
-        <v>0.335489</v>
+        <v>0.33756</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.378189</v>
+        <v>0.384819</v>
       </c>
       <c r="C85" t="n">
-        <v>0.363936</v>
+        <v>0.360137</v>
       </c>
       <c r="D85" t="n">
-        <v>0.34832</v>
+        <v>0.345566</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.389787</v>
+        <v>0.393768</v>
       </c>
       <c r="C86" t="n">
-        <v>0.359991</v>
+        <v>0.359412</v>
       </c>
       <c r="D86" t="n">
-        <v>0.340463</v>
+        <v>0.342064</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.38816</v>
+        <v>0.386172</v>
       </c>
       <c r="C87" t="n">
-        <v>0.373208</v>
+        <v>0.36125</v>
       </c>
       <c r="D87" t="n">
-        <v>0.371637</v>
+        <v>0.338806</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.403725</v>
+        <v>0.395349</v>
       </c>
       <c r="C88" t="n">
-        <v>0.386719</v>
+        <v>0.390222</v>
       </c>
       <c r="D88" t="n">
-        <v>0.352878</v>
+        <v>0.35436</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.413067</v>
+        <v>0.398992</v>
       </c>
       <c r="C89" t="n">
-        <v>0.397464</v>
+        <v>0.381231</v>
       </c>
       <c r="D89" t="n">
-        <v>0.367935</v>
+        <v>0.363885</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.433696</v>
+        <v>0.420947</v>
       </c>
       <c r="C90" t="n">
-        <v>0.401951</v>
+        <v>0.398933</v>
       </c>
       <c r="D90" t="n">
-        <v>0.375925</v>
+        <v>0.380263</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.435868</v>
+        <v>0.44137</v>
       </c>
       <c r="C91" t="n">
-        <v>0.430144</v>
+        <v>0.430099</v>
       </c>
       <c r="D91" t="n">
-        <v>0.391625</v>
+        <v>0.39106</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.471727</v>
+        <v>0.478916</v>
       </c>
       <c r="C92" t="n">
-        <v>0.449311</v>
+        <v>0.454104</v>
       </c>
       <c r="D92" t="n">
-        <v>0.422672</v>
+        <v>0.416086</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.499281</v>
+        <v>0.5053029999999999</v>
       </c>
       <c r="C93" t="n">
-        <v>0.494079</v>
+        <v>0.486055</v>
       </c>
       <c r="D93" t="n">
-        <v>0.445762</v>
+        <v>0.448544</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.564399</v>
+        <v>0.561351</v>
       </c>
       <c r="C94" t="n">
-        <v>0.558212</v>
+        <v>0.5445410000000001</v>
       </c>
       <c r="D94" t="n">
-        <v>0.365252</v>
+        <v>0.352404</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.438473</v>
+        <v>0.426684</v>
       </c>
       <c r="C95" t="n">
-        <v>0.392333</v>
+        <v>0.399265</v>
       </c>
       <c r="D95" t="n">
-        <v>0.359077</v>
+        <v>0.362832</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.417158</v>
+        <v>0.420929</v>
       </c>
       <c r="C96" t="n">
-        <v>0.400386</v>
+        <v>0.397172</v>
       </c>
       <c r="D96" t="n">
-        <v>0.359242</v>
+        <v>0.366571</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.434978</v>
+        <v>0.433039</v>
       </c>
       <c r="C97" t="n">
-        <v>0.40051</v>
+        <v>0.390736</v>
       </c>
       <c r="D97" t="n">
-        <v>0.375787</v>
+        <v>0.364297</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.451215</v>
+        <v>0.431309</v>
       </c>
       <c r="C98" t="n">
-        <v>0.399779</v>
+        <v>0.396104</v>
       </c>
       <c r="D98" t="n">
-        <v>0.365294</v>
+        <v>0.369508</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.444854</v>
+        <v>0.446451</v>
       </c>
       <c r="C99" t="n">
-        <v>0.419848</v>
+        <v>0.43152</v>
       </c>
       <c r="D99" t="n">
-        <v>0.379166</v>
+        <v>0.373765</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.462513</v>
+        <v>0.448107</v>
       </c>
       <c r="C100" t="n">
-        <v>0.418156</v>
+        <v>0.409563</v>
       </c>
       <c r="D100" t="n">
-        <v>0.387906</v>
+        <v>0.381926</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.451113</v>
+        <v>0.461478</v>
       </c>
       <c r="C101" t="n">
-        <v>0.422127</v>
+        <v>0.431058</v>
       </c>
       <c r="D101" t="n">
-        <v>0.387141</v>
+        <v>0.377019</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.461077</v>
+        <v>0.450781</v>
       </c>
       <c r="C102" t="n">
-        <v>0.433251</v>
+        <v>0.42778</v>
       </c>
       <c r="D102" t="n">
-        <v>0.384258</v>
+        <v>0.399906</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.479872</v>
+        <v>0.455974</v>
       </c>
       <c r="C103" t="n">
-        <v>0.439175</v>
+        <v>0.436572</v>
       </c>
       <c r="D103" t="n">
-        <v>0.401355</v>
+        <v>0.396537</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.486801</v>
+        <v>0.478612</v>
       </c>
       <c r="C104" t="n">
-        <v>0.471398</v>
+        <v>0.461709</v>
       </c>
       <c r="D104" t="n">
-        <v>0.412993</v>
+        <v>0.417914</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.515575</v>
+        <v>0.496948</v>
       </c>
       <c r="C105" t="n">
-        <v>0.478302</v>
+        <v>0.477626</v>
       </c>
       <c r="D105" t="n">
-        <v>0.424664</v>
+        <v>0.43661</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.525814</v>
+        <v>0.512564</v>
       </c>
       <c r="C106" t="n">
-        <v>0.513606</v>
+        <v>0.509698</v>
       </c>
       <c r="D106" t="n">
-        <v>0.455088</v>
+        <v>0.462287</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.571587</v>
+        <v>0.582153</v>
       </c>
       <c r="C107" t="n">
-        <v>0.557256</v>
+        <v>0.5654670000000001</v>
       </c>
       <c r="D107" t="n">
-        <v>0.502593</v>
+        <v>0.477031</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.632964</v>
+        <v>0.6158400000000001</v>
       </c>
       <c r="C108" t="n">
-        <v>0.616286</v>
+        <v>0.603503</v>
       </c>
       <c r="D108" t="n">
-        <v>0.494018</v>
+        <v>0.483287</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.725739</v>
+        <v>0.750731</v>
       </c>
       <c r="C109" t="n">
-        <v>0.718225</v>
+        <v>0.720059</v>
       </c>
       <c r="D109" t="n">
-        <v>0.477906</v>
+        <v>0.505482</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.560374</v>
+        <v>0.554926</v>
       </c>
       <c r="C110" t="n">
-        <v>0.5276</v>
+        <v>0.532342</v>
       </c>
       <c r="D110" t="n">
-        <v>0.491955</v>
+        <v>0.487207</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.578269</v>
+        <v>0.562398</v>
       </c>
       <c r="C111" t="n">
-        <v>0.541052</v>
+        <v>0.542166</v>
       </c>
       <c r="D111" t="n">
-        <v>0.480073</v>
+        <v>0.486388</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.582342</v>
+        <v>0.562118</v>
       </c>
       <c r="C112" t="n">
-        <v>0.554126</v>
+        <v>0.516857</v>
       </c>
       <c r="D112" t="n">
-        <v>0.493916</v>
+        <v>0.501077</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.592172</v>
+        <v>0.573312</v>
       </c>
       <c r="C113" t="n">
-        <v>0.538762</v>
+        <v>0.538416</v>
       </c>
       <c r="D113" t="n">
-        <v>0.495599</v>
+        <v>0.512848</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.586364</v>
+        <v>0.584753</v>
       </c>
       <c r="C114" t="n">
-        <v>0.554294</v>
+        <v>0.539445</v>
       </c>
       <c r="D114" t="n">
-        <v>0.512889</v>
+        <v>0.49896</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.589754</v>
+        <v>0.573097</v>
       </c>
       <c r="C115" t="n">
-        <v>0.5580079999999999</v>
+        <v>0.567731</v>
       </c>
       <c r="D115" t="n">
-        <v>0.511047</v>
+        <v>0.5015269999999999</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.610159</v>
+        <v>0.577534</v>
       </c>
       <c r="C116" t="n">
-        <v>0.582918</v>
+        <v>0.562481</v>
       </c>
       <c r="D116" t="n">
-        <v>0.513603</v>
+        <v>0.523888</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.637145</v>
+        <v>0.6169559999999999</v>
       </c>
       <c r="C117" t="n">
-        <v>0.581805</v>
+        <v>0.567227</v>
       </c>
       <c r="D117" t="n">
-        <v>0.535044</v>
+        <v>0.51846</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.622052</v>
+        <v>0.627039</v>
       </c>
       <c r="C118" t="n">
-        <v>0.59885</v>
+        <v>0.606834</v>
       </c>
       <c r="D118" t="n">
-        <v>0.546218</v>
+        <v>0.535639</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.6394339999999999</v>
+        <v>0.6536920000000001</v>
       </c>
       <c r="C119" t="n">
-        <v>0.621646</v>
+        <v>0.62663</v>
       </c>
       <c r="D119" t="n">
-        <v>0.552295</v>
+        <v>0.563629</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.680778</v>
+        <v>0.6843089999999999</v>
       </c>
       <c r="C120" t="n">
-        <v>0.679628</v>
+        <v>0.6850540000000001</v>
       </c>
       <c r="D120" t="n">
-        <v>0.597146</v>
+        <v>0.58362</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.728202</v>
+        <v>0.7022929999999999</v>
       </c>
       <c r="C121" t="n">
-        <v>0.725117</v>
+        <v>0.681248</v>
       </c>
       <c r="D121" t="n">
-        <v>0.634393</v>
+        <v>0.615744</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.768158</v>
+        <v>0.74668</v>
       </c>
       <c r="C122" t="n">
-        <v>0.767404</v>
+        <v>0.769634</v>
       </c>
       <c r="D122" t="n">
-        <v>0.668145</v>
+        <v>0.659031</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.867561</v>
+        <v>0.8584580000000001</v>
       </c>
       <c r="C123" t="n">
-        <v>0.905316</v>
+        <v>0.87698</v>
       </c>
       <c r="D123" t="n">
-        <v>0.7512450000000001</v>
+        <v>0.718569</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.886834</v>
+        <v>0.894983</v>
       </c>
       <c r="C124" t="n">
-        <v>0.794665</v>
+        <v>0.803376</v>
       </c>
       <c r="D124" t="n">
-        <v>0.75098</v>
+        <v>0.751794</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.893008</v>
+        <v>0.902571</v>
       </c>
       <c r="C125" t="n">
-        <v>0.818805</v>
+        <v>0.814039</v>
       </c>
       <c r="D125" t="n">
-        <v>0.765504</v>
+        <v>0.746873</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.912184</v>
+        <v>0.90571</v>
       </c>
       <c r="C126" t="n">
-        <v>0.859154</v>
+        <v>0.824518</v>
       </c>
       <c r="D126" t="n">
-        <v>0.771519</v>
+        <v>0.7896300000000001</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.948411</v>
+        <v>0.901014</v>
       </c>
       <c r="C127" t="n">
-        <v>0.855997</v>
+        <v>0.833654</v>
       </c>
       <c r="D127" t="n">
-        <v>0.806814</v>
+        <v>0.800699</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.935452</v>
+        <v>0.918266</v>
       </c>
       <c r="C128" t="n">
-        <v>0.845222</v>
+        <v>0.844958</v>
       </c>
       <c r="D128" t="n">
-        <v>0.80693</v>
+        <v>0.79814</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.934884</v>
+        <v>0.951933</v>
       </c>
       <c r="C129" t="n">
-        <v>0.891274</v>
+        <v>0.8756930000000001</v>
       </c>
       <c r="D129" t="n">
-        <v>0.822515</v>
+        <v>0.775501</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.950192</v>
+        <v>0.926047</v>
       </c>
       <c r="C130" t="n">
-        <v>0.865307</v>
+        <v>0.884582</v>
       </c>
       <c r="D130" t="n">
-        <v>0.817011</v>
+        <v>0.828284</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.955481</v>
+        <v>0.951978</v>
       </c>
       <c r="C131" t="n">
-        <v>0.886184</v>
+        <v>0.883467</v>
       </c>
       <c r="D131" t="n">
-        <v>0.823638</v>
+        <v>0.823346</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.962155</v>
+        <v>0.973898</v>
       </c>
       <c r="C132" t="n">
-        <v>0.905667</v>
+        <v>0.9232050000000001</v>
       </c>
       <c r="D132" t="n">
-        <v>0.826803</v>
+        <v>0.834933</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.979154</v>
+        <v>1.01548</v>
       </c>
       <c r="C133" t="n">
-        <v>0.934523</v>
+        <v>0.96951</v>
       </c>
       <c r="D133" t="n">
-        <v>0.848319</v>
+        <v>0.879012</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.05336</v>
+        <v>1.05224</v>
       </c>
       <c r="C134" t="n">
-        <v>0.981272</v>
+        <v>0.992248</v>
       </c>
       <c r="D134" t="n">
-        <v>0.85933</v>
+        <v>0.85803</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.07186</v>
+        <v>1.07843</v>
       </c>
       <c r="C135" t="n">
-        <v>1.03945</v>
+        <v>1.02015</v>
       </c>
       <c r="D135" t="n">
-        <v>0.893579</v>
+        <v>0.881468</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.1271</v>
+        <v>1.14657</v>
       </c>
       <c r="C136" t="n">
-        <v>1.09179</v>
+        <v>1.1303</v>
       </c>
       <c r="D136" t="n">
-        <v>0.9547060000000001</v>
+        <v>0.990687</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.27501</v>
+        <v>1.23251</v>
       </c>
       <c r="C137" t="n">
-        <v>1.20292</v>
+        <v>1.21479</v>
       </c>
       <c r="D137" t="n">
-        <v>0.998762</v>
+        <v>1.02509</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.24083</v>
+        <v>1.14892</v>
       </c>
       <c r="C138" t="n">
-        <v>1.06471</v>
+        <v>1.01171</v>
       </c>
       <c r="D138" t="n">
-        <v>1.00408</v>
+        <v>0.980366</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.18094</v>
+        <v>1.13972</v>
       </c>
       <c r="C139" t="n">
-        <v>1.05853</v>
+        <v>1.03734</v>
       </c>
       <c r="D139" t="n">
-        <v>1.0067</v>
+        <v>0.957202</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.20982</v>
+        <v>1.1427</v>
       </c>
       <c r="C140" t="n">
-        <v>1.08541</v>
+        <v>1.02093</v>
       </c>
       <c r="D140" t="n">
-        <v>1.02534</v>
+        <v>0.960172</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.19616</v>
+        <v>1.24736</v>
       </c>
       <c r="C141" t="n">
-        <v>1.12244</v>
+        <v>1.12665</v>
       </c>
       <c r="D141" t="n">
-        <v>1.02699</v>
+        <v>0.99884</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.22256</v>
+        <v>1.22942</v>
       </c>
       <c r="C142" t="n">
-        <v>1.09925</v>
+        <v>1.10347</v>
       </c>
       <c r="D142" t="n">
-        <v>1.02217</v>
+        <v>1.08044</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.23204</v>
+        <v>1.21953</v>
       </c>
       <c r="C143" t="n">
-        <v>1.09606</v>
+        <v>1.13301</v>
       </c>
       <c r="D143" t="n">
-        <v>1.03362</v>
+        <v>1.02606</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered unsuccessful looukp.xlsx
+++ b/vs-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.349862</v>
+        <v>0.338433</v>
       </c>
       <c r="C2" t="n">
-        <v>0.34442</v>
+        <v>0.338301</v>
       </c>
       <c r="D2" t="n">
-        <v>0.33454</v>
+        <v>0.328534</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.346781</v>
+        <v>0.362588</v>
       </c>
       <c r="C3" t="n">
-        <v>0.346009</v>
+        <v>0.358128</v>
       </c>
       <c r="D3" t="n">
-        <v>0.337953</v>
+        <v>0.337776</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.354893</v>
+        <v>0.349447</v>
       </c>
       <c r="C4" t="n">
-        <v>0.353521</v>
+        <v>0.349531</v>
       </c>
       <c r="D4" t="n">
-        <v>0.34241</v>
+        <v>0.341088</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.353279</v>
+        <v>0.353481</v>
       </c>
       <c r="C5" t="n">
-        <v>0.364509</v>
+        <v>0.364858</v>
       </c>
       <c r="D5" t="n">
-        <v>0.350199</v>
+        <v>0.34197</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.372787</v>
+        <v>0.366591</v>
       </c>
       <c r="C6" t="n">
-        <v>0.369526</v>
+        <v>0.389956</v>
       </c>
       <c r="D6" t="n">
-        <v>0.367276</v>
+        <v>0.376737</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.386508</v>
+        <v>0.375996</v>
       </c>
       <c r="C7" t="n">
-        <v>0.396709</v>
+        <v>0.403298</v>
       </c>
       <c r="D7" t="n">
-        <v>0.385835</v>
+        <v>0.39047</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.407392</v>
+        <v>0.398915</v>
       </c>
       <c r="C8" t="n">
-        <v>0.429143</v>
+        <v>0.429245</v>
       </c>
       <c r="D8" t="n">
-        <v>0.408982</v>
+        <v>0.407445</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.449048</v>
+        <v>0.446657</v>
       </c>
       <c r="C9" t="n">
-        <v>0.493784</v>
+        <v>0.472587</v>
       </c>
       <c r="D9" t="n">
-        <v>0.330216</v>
+        <v>0.318684</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.342207</v>
+        <v>0.328977</v>
       </c>
       <c r="C10" t="n">
-        <v>0.321652</v>
+        <v>0.327367</v>
       </c>
       <c r="D10" t="n">
-        <v>0.321946</v>
+        <v>0.322422</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.333281</v>
+        <v>0.335591</v>
       </c>
       <c r="C11" t="n">
-        <v>0.322132</v>
+        <v>0.327714</v>
       </c>
       <c r="D11" t="n">
-        <v>0.315903</v>
+        <v>0.3165</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.329868</v>
+        <v>0.333506</v>
       </c>
       <c r="C12" t="n">
-        <v>0.332756</v>
+        <v>0.331964</v>
       </c>
       <c r="D12" t="n">
-        <v>0.328789</v>
+        <v>0.326082</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.331994</v>
+        <v>0.335041</v>
       </c>
       <c r="C13" t="n">
-        <v>0.323716</v>
+        <v>0.327501</v>
       </c>
       <c r="D13" t="n">
-        <v>0.320584</v>
+        <v>0.321567</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.344147</v>
+        <v>0.333162</v>
       </c>
       <c r="C14" t="n">
-        <v>0.329601</v>
+        <v>0.340939</v>
       </c>
       <c r="D14" t="n">
-        <v>0.324982</v>
+        <v>0.318416</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.341286</v>
+        <v>0.333096</v>
       </c>
       <c r="C15" t="n">
-        <v>0.331533</v>
+        <v>0.328552</v>
       </c>
       <c r="D15" t="n">
-        <v>0.32103</v>
+        <v>0.320221</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.334205</v>
+        <v>0.337411</v>
       </c>
       <c r="C16" t="n">
-        <v>0.336157</v>
+        <v>0.335958</v>
       </c>
       <c r="D16" t="n">
-        <v>0.33509</v>
+        <v>0.328707</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.333728</v>
+        <v>0.34203</v>
       </c>
       <c r="C17" t="n">
-        <v>0.337712</v>
+        <v>0.33848</v>
       </c>
       <c r="D17" t="n">
-        <v>0.328928</v>
+        <v>0.330268</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.347048</v>
+        <v>0.352814</v>
       </c>
       <c r="C18" t="n">
-        <v>0.339866</v>
+        <v>0.344671</v>
       </c>
       <c r="D18" t="n">
-        <v>0.348979</v>
+        <v>0.337943</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.360789</v>
+        <v>0.358048</v>
       </c>
       <c r="C19" t="n">
-        <v>0.361642</v>
+        <v>0.356844</v>
       </c>
       <c r="D19" t="n">
-        <v>0.341928</v>
+        <v>0.348346</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.356597</v>
+        <v>0.371715</v>
       </c>
       <c r="C20" t="n">
-        <v>0.371001</v>
+        <v>0.367409</v>
       </c>
       <c r="D20" t="n">
-        <v>0.352459</v>
+        <v>0.356494</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.391358</v>
+        <v>0.382491</v>
       </c>
       <c r="C21" t="n">
-        <v>0.385915</v>
+        <v>0.390339</v>
       </c>
       <c r="D21" t="n">
-        <v>0.375609</v>
+        <v>0.363702</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.400207</v>
+        <v>0.420844</v>
       </c>
       <c r="C22" t="n">
-        <v>0.398089</v>
+        <v>0.407088</v>
       </c>
       <c r="D22" t="n">
-        <v>0.391972</v>
+        <v>0.402682</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.440313</v>
+        <v>0.445878</v>
       </c>
       <c r="C23" t="n">
-        <v>0.445961</v>
+        <v>0.456915</v>
       </c>
       <c r="D23" t="n">
-        <v>0.326593</v>
+        <v>0.326166</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.336172</v>
+        <v>0.352859</v>
       </c>
       <c r="C24" t="n">
-        <v>0.323624</v>
+        <v>0.326184</v>
       </c>
       <c r="D24" t="n">
-        <v>0.317712</v>
+        <v>0.316902</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.347209</v>
+        <v>0.338691</v>
       </c>
       <c r="C25" t="n">
-        <v>0.321453</v>
+        <v>0.317136</v>
       </c>
       <c r="D25" t="n">
-        <v>0.32332</v>
+        <v>0.31368</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.330684</v>
+        <v>0.331223</v>
       </c>
       <c r="C26" t="n">
-        <v>0.330567</v>
+        <v>0.326365</v>
       </c>
       <c r="D26" t="n">
-        <v>0.325822</v>
+        <v>0.319407</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.329764</v>
+        <v>0.332476</v>
       </c>
       <c r="C27" t="n">
-        <v>0.325597</v>
+        <v>0.321467</v>
       </c>
       <c r="D27" t="n">
-        <v>0.321716</v>
+        <v>0.322613</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.342719</v>
+        <v>0.334513</v>
       </c>
       <c r="C28" t="n">
-        <v>0.325305</v>
+        <v>0.325613</v>
       </c>
       <c r="D28" t="n">
-        <v>0.333443</v>
+        <v>0.324157</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.335714</v>
+        <v>0.331631</v>
       </c>
       <c r="C29" t="n">
-        <v>0.327309</v>
+        <v>0.329367</v>
       </c>
       <c r="D29" t="n">
-        <v>0.324048</v>
+        <v>0.321973</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.339393</v>
+        <v>0.335058</v>
       </c>
       <c r="C30" t="n">
-        <v>0.338243</v>
+        <v>0.336166</v>
       </c>
       <c r="D30" t="n">
-        <v>0.330678</v>
+        <v>0.322868</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.34747</v>
+        <v>0.338819</v>
       </c>
       <c r="C31" t="n">
-        <v>0.331146</v>
+        <v>0.338008</v>
       </c>
       <c r="D31" t="n">
-        <v>0.331034</v>
+        <v>0.33421</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.338952</v>
+        <v>0.344553</v>
       </c>
       <c r="C32" t="n">
-        <v>0.344325</v>
+        <v>0.360795</v>
       </c>
       <c r="D32" t="n">
-        <v>0.331387</v>
+        <v>0.334172</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.354292</v>
+        <v>0.363011</v>
       </c>
       <c r="C33" t="n">
-        <v>0.349469</v>
+        <v>0.34529</v>
       </c>
       <c r="D33" t="n">
-        <v>0.33511</v>
+        <v>0.335258</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.378161</v>
+        <v>0.366632</v>
       </c>
       <c r="C34" t="n">
-        <v>0.355861</v>
+        <v>0.372124</v>
       </c>
       <c r="D34" t="n">
-        <v>0.358922</v>
+        <v>0.344501</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.375183</v>
+        <v>0.387856</v>
       </c>
       <c r="C35" t="n">
-        <v>0.372729</v>
+        <v>0.378815</v>
       </c>
       <c r="D35" t="n">
-        <v>0.371621</v>
+        <v>0.358981</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.396534</v>
+        <v>0.399116</v>
       </c>
       <c r="C36" t="n">
-        <v>0.397027</v>
+        <v>0.400738</v>
       </c>
       <c r="D36" t="n">
-        <v>0.385624</v>
+        <v>0.37995</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.453003</v>
+        <v>0.431006</v>
       </c>
       <c r="C37" t="n">
-        <v>0.444244</v>
+        <v>0.447813</v>
       </c>
       <c r="D37" t="n">
-        <v>0.322323</v>
+        <v>0.317787</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.343714</v>
+        <v>0.338571</v>
       </c>
       <c r="C38" t="n">
-        <v>0.326579</v>
+        <v>0.323486</v>
       </c>
       <c r="D38" t="n">
-        <v>0.316233</v>
+        <v>0.317891</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.336271</v>
+        <v>0.331935</v>
       </c>
       <c r="C39" t="n">
-        <v>0.323863</v>
+        <v>0.326752</v>
       </c>
       <c r="D39" t="n">
-        <v>0.334631</v>
+        <v>0.342141</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.338062</v>
+        <v>0.335113</v>
       </c>
       <c r="C40" t="n">
-        <v>0.323859</v>
+        <v>0.32377</v>
       </c>
       <c r="D40" t="n">
-        <v>0.338868</v>
+        <v>0.31699</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.34888</v>
+        <v>0.349323</v>
       </c>
       <c r="C41" t="n">
-        <v>0.336455</v>
+        <v>0.324592</v>
       </c>
       <c r="D41" t="n">
-        <v>0.320402</v>
+        <v>0.325015</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.340115</v>
+        <v>0.346783</v>
       </c>
       <c r="C42" t="n">
-        <v>0.33785</v>
+        <v>0.323074</v>
       </c>
       <c r="D42" t="n">
-        <v>0.330832</v>
+        <v>0.317109</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.341739</v>
+        <v>0.342793</v>
       </c>
       <c r="C43" t="n">
-        <v>0.326108</v>
+        <v>0.325245</v>
       </c>
       <c r="D43" t="n">
-        <v>0.3259</v>
+        <v>0.339478</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.361599</v>
+        <v>0.349913</v>
       </c>
       <c r="C44" t="n">
-        <v>0.333288</v>
+        <v>0.332177</v>
       </c>
       <c r="D44" t="n">
-        <v>0.319804</v>
+        <v>0.326981</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.347134</v>
+        <v>0.347715</v>
       </c>
       <c r="C45" t="n">
-        <v>0.339202</v>
+        <v>0.331918</v>
       </c>
       <c r="D45" t="n">
-        <v>0.331004</v>
+        <v>0.325256</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.343491</v>
+        <v>0.343903</v>
       </c>
       <c r="C46" t="n">
-        <v>0.338429</v>
+        <v>0.344229</v>
       </c>
       <c r="D46" t="n">
-        <v>0.333074</v>
+        <v>0.340529</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.353218</v>
+        <v>0.357108</v>
       </c>
       <c r="C47" t="n">
-        <v>0.355301</v>
+        <v>0.349755</v>
       </c>
       <c r="D47" t="n">
-        <v>0.343266</v>
+        <v>0.350695</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.379957</v>
+        <v>0.368529</v>
       </c>
       <c r="C48" t="n">
-        <v>0.35746</v>
+        <v>0.363642</v>
       </c>
       <c r="D48" t="n">
-        <v>0.349478</v>
+        <v>0.362577</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.382721</v>
+        <v>0.386227</v>
       </c>
       <c r="C49" t="n">
-        <v>0.374551</v>
+        <v>0.379767</v>
       </c>
       <c r="D49" t="n">
-        <v>0.374653</v>
+        <v>0.370243</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.398248</v>
+        <v>0.409026</v>
       </c>
       <c r="C50" t="n">
-        <v>0.394298</v>
+        <v>0.394801</v>
       </c>
       <c r="D50" t="n">
-        <v>0.408101</v>
+        <v>0.387765</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.434191</v>
+        <v>0.423401</v>
       </c>
       <c r="C51" t="n">
-        <v>0.454739</v>
+        <v>0.43326</v>
       </c>
       <c r="D51" t="n">
-        <v>0.320875</v>
+        <v>0.318572</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.486189</v>
+        <v>0.48882</v>
       </c>
       <c r="C52" t="n">
-        <v>0.476226</v>
+        <v>0.479978</v>
       </c>
       <c r="D52" t="n">
-        <v>0.324823</v>
+        <v>0.319567</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.340489</v>
+        <v>0.355584</v>
       </c>
       <c r="C53" t="n">
-        <v>0.322929</v>
+        <v>0.324515</v>
       </c>
       <c r="D53" t="n">
-        <v>0.325444</v>
+        <v>0.315649</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.350616</v>
+        <v>0.34954</v>
       </c>
       <c r="C54" t="n">
-        <v>0.329873</v>
+        <v>0.342467</v>
       </c>
       <c r="D54" t="n">
-        <v>0.325267</v>
+        <v>0.325382</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.348232</v>
+        <v>0.345884</v>
       </c>
       <c r="C55" t="n">
-        <v>0.330743</v>
+        <v>0.333269</v>
       </c>
       <c r="D55" t="n">
-        <v>0.331321</v>
+        <v>0.32321</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.355947</v>
+        <v>0.343617</v>
       </c>
       <c r="C56" t="n">
-        <v>0.336579</v>
+        <v>0.334141</v>
       </c>
       <c r="D56" t="n">
-        <v>0.320655</v>
+        <v>0.326788</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.35431</v>
+        <v>0.347301</v>
       </c>
       <c r="C57" t="n">
-        <v>0.325596</v>
+        <v>0.333021</v>
       </c>
       <c r="D57" t="n">
-        <v>0.337031</v>
+        <v>0.328956</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.364108</v>
+        <v>0.348194</v>
       </c>
       <c r="C58" t="n">
-        <v>0.336812</v>
+        <v>0.344379</v>
       </c>
       <c r="D58" t="n">
-        <v>0.337436</v>
+        <v>0.327697</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.34582</v>
+        <v>0.353786</v>
       </c>
       <c r="C59" t="n">
-        <v>0.343785</v>
+        <v>0.332233</v>
       </c>
       <c r="D59" t="n">
-        <v>0.341996</v>
+        <v>0.348734</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.352022</v>
+        <v>0.3588</v>
       </c>
       <c r="C60" t="n">
-        <v>0.356161</v>
+        <v>0.351702</v>
       </c>
       <c r="D60" t="n">
-        <v>0.333759</v>
+        <v>0.336524</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.363521</v>
+        <v>0.355386</v>
       </c>
       <c r="C61" t="n">
-        <v>0.36659</v>
+        <v>0.346456</v>
       </c>
       <c r="D61" t="n">
-        <v>0.34612</v>
+        <v>0.343175</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.368506</v>
+        <v>0.374452</v>
       </c>
       <c r="C62" t="n">
-        <v>0.360906</v>
+        <v>0.368091</v>
       </c>
       <c r="D62" t="n">
-        <v>0.366462</v>
+        <v>0.360875</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.386881</v>
+        <v>0.381195</v>
       </c>
       <c r="C63" t="n">
-        <v>0.377892</v>
+        <v>0.386254</v>
       </c>
       <c r="D63" t="n">
-        <v>0.371535</v>
+        <v>0.366581</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.412461</v>
+        <v>0.409542</v>
       </c>
       <c r="C64" t="n">
-        <v>0.397905</v>
+        <v>0.402982</v>
       </c>
       <c r="D64" t="n">
-        <v>0.389991</v>
+        <v>0.399702</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.437129</v>
+        <v>0.443011</v>
       </c>
       <c r="C65" t="n">
-        <v>0.423056</v>
+        <v>0.434927</v>
       </c>
       <c r="D65" t="n">
-        <v>0.423345</v>
+        <v>0.428372</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.507514</v>
+        <v>0.491258</v>
       </c>
       <c r="C66" t="n">
-        <v>0.509756</v>
+        <v>0.496166</v>
       </c>
       <c r="D66" t="n">
-        <v>0.334892</v>
+        <v>0.331797</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.379614</v>
+        <v>0.357674</v>
       </c>
       <c r="C67" t="n">
-        <v>0.33195</v>
+        <v>0.328889</v>
       </c>
       <c r="D67" t="n">
-        <v>0.329972</v>
+        <v>0.339599</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.353165</v>
+        <v>0.36306</v>
       </c>
       <c r="C68" t="n">
-        <v>0.341526</v>
+        <v>0.346943</v>
       </c>
       <c r="D68" t="n">
-        <v>0.329958</v>
+        <v>0.324285</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.362402</v>
+        <v>0.352995</v>
       </c>
       <c r="C69" t="n">
-        <v>0.342004</v>
+        <v>0.345324</v>
       </c>
       <c r="D69" t="n">
-        <v>0.33226</v>
+        <v>0.331243</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.364528</v>
+        <v>0.374398</v>
       </c>
       <c r="C70" t="n">
-        <v>0.339805</v>
+        <v>0.345971</v>
       </c>
       <c r="D70" t="n">
-        <v>0.332827</v>
+        <v>0.327787</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.361746</v>
+        <v>0.377883</v>
       </c>
       <c r="C71" t="n">
-        <v>0.346078</v>
+        <v>0.343645</v>
       </c>
       <c r="D71" t="n">
-        <v>0.333049</v>
+        <v>0.332782</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.368906</v>
+        <v>0.378073</v>
       </c>
       <c r="C72" t="n">
-        <v>0.358195</v>
+        <v>0.351876</v>
       </c>
       <c r="D72" t="n">
-        <v>0.337688</v>
+        <v>0.350818</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.377026</v>
+        <v>0.379729</v>
       </c>
       <c r="C73" t="n">
-        <v>0.352607</v>
+        <v>0.359661</v>
       </c>
       <c r="D73" t="n">
-        <v>0.335923</v>
+        <v>0.336801</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.379431</v>
+        <v>0.376308</v>
       </c>
       <c r="C74" t="n">
-        <v>0.353488</v>
+        <v>0.358091</v>
       </c>
       <c r="D74" t="n">
-        <v>0.364059</v>
+        <v>0.342975</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.386713</v>
+        <v>0.386659</v>
       </c>
       <c r="C75" t="n">
-        <v>0.384995</v>
+        <v>0.385547</v>
       </c>
       <c r="D75" t="n">
-        <v>0.349978</v>
+        <v>0.361116</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.403337</v>
+        <v>0.400852</v>
       </c>
       <c r="C76" t="n">
-        <v>0.382371</v>
+        <v>0.384587</v>
       </c>
       <c r="D76" t="n">
-        <v>0.378828</v>
+        <v>0.362438</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.413489</v>
+        <v>0.411554</v>
       </c>
       <c r="C77" t="n">
-        <v>0.401813</v>
+        <v>0.415571</v>
       </c>
       <c r="D77" t="n">
-        <v>0.387957</v>
+        <v>0.372665</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.435002</v>
+        <v>0.432473</v>
       </c>
       <c r="C78" t="n">
-        <v>0.45025</v>
+        <v>0.428556</v>
       </c>
       <c r="D78" t="n">
-        <v>0.402246</v>
+        <v>0.399918</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.462531</v>
+        <v>0.464798</v>
       </c>
       <c r="C79" t="n">
-        <v>0.461175</v>
+        <v>0.453341</v>
       </c>
       <c r="D79" t="n">
-        <v>0.444643</v>
+        <v>0.448154</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.499868</v>
+        <v>0.512579</v>
       </c>
       <c r="C80" t="n">
-        <v>0.515757</v>
+        <v>0.524888</v>
       </c>
       <c r="D80" t="n">
-        <v>0.343976</v>
+        <v>0.333143</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.383315</v>
+        <v>0.384483</v>
       </c>
       <c r="C81" t="n">
-        <v>0.352855</v>
+        <v>0.350018</v>
       </c>
       <c r="D81" t="n">
-        <v>0.343405</v>
+        <v>0.336755</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.376043</v>
+        <v>0.38816</v>
       </c>
       <c r="C82" t="n">
-        <v>0.347995</v>
+        <v>0.343516</v>
       </c>
       <c r="D82" t="n">
-        <v>0.331893</v>
+        <v>0.330938</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.381629</v>
+        <v>0.370093</v>
       </c>
       <c r="C83" t="n">
-        <v>0.355626</v>
+        <v>0.352516</v>
       </c>
       <c r="D83" t="n">
-        <v>0.33069</v>
+        <v>0.334249</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.379291</v>
+        <v>0.395153</v>
       </c>
       <c r="C84" t="n">
-        <v>0.363669</v>
+        <v>0.357691</v>
       </c>
       <c r="D84" t="n">
-        <v>0.33756</v>
+        <v>0.345334</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.384819</v>
+        <v>0.38186</v>
       </c>
       <c r="C85" t="n">
-        <v>0.360137</v>
+        <v>0.355904</v>
       </c>
       <c r="D85" t="n">
-        <v>0.345566</v>
+        <v>0.350877</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.393768</v>
+        <v>0.385556</v>
       </c>
       <c r="C86" t="n">
-        <v>0.359412</v>
+        <v>0.35748</v>
       </c>
       <c r="D86" t="n">
-        <v>0.342064</v>
+        <v>0.342081</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.386172</v>
+        <v>0.406795</v>
       </c>
       <c r="C87" t="n">
-        <v>0.36125</v>
+        <v>0.368225</v>
       </c>
       <c r="D87" t="n">
-        <v>0.338806</v>
+        <v>0.370034</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.395349</v>
+        <v>0.403274</v>
       </c>
       <c r="C88" t="n">
-        <v>0.390222</v>
+        <v>0.384606</v>
       </c>
       <c r="D88" t="n">
-        <v>0.35436</v>
+        <v>0.346177</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.398992</v>
+        <v>0.414565</v>
       </c>
       <c r="C89" t="n">
-        <v>0.381231</v>
+        <v>0.384933</v>
       </c>
       <c r="D89" t="n">
-        <v>0.363885</v>
+        <v>0.360061</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.420947</v>
+        <v>0.422546</v>
       </c>
       <c r="C90" t="n">
-        <v>0.398933</v>
+        <v>0.414664</v>
       </c>
       <c r="D90" t="n">
-        <v>0.380263</v>
+        <v>0.374448</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.44137</v>
+        <v>0.459512</v>
       </c>
       <c r="C91" t="n">
-        <v>0.430099</v>
+        <v>0.43485</v>
       </c>
       <c r="D91" t="n">
-        <v>0.39106</v>
+        <v>0.384246</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.478916</v>
+        <v>0.462008</v>
       </c>
       <c r="C92" t="n">
-        <v>0.454104</v>
+        <v>0.450886</v>
       </c>
       <c r="D92" t="n">
-        <v>0.416086</v>
+        <v>0.415939</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.5053029999999999</v>
+        <v>0.494514</v>
       </c>
       <c r="C93" t="n">
-        <v>0.486055</v>
+        <v>0.493316</v>
       </c>
       <c r="D93" t="n">
-        <v>0.448544</v>
+        <v>0.444197</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.561351</v>
+        <v>0.546127</v>
       </c>
       <c r="C94" t="n">
-        <v>0.5445410000000001</v>
+        <v>0.552275</v>
       </c>
       <c r="D94" t="n">
-        <v>0.352404</v>
+        <v>0.362983</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.426684</v>
+        <v>0.423513</v>
       </c>
       <c r="C95" t="n">
-        <v>0.399265</v>
+        <v>0.389986</v>
       </c>
       <c r="D95" t="n">
-        <v>0.362832</v>
+        <v>0.369231</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.420929</v>
+        <v>0.427393</v>
       </c>
       <c r="C96" t="n">
-        <v>0.397172</v>
+        <v>0.407674</v>
       </c>
       <c r="D96" t="n">
-        <v>0.366571</v>
+        <v>0.364958</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.433039</v>
+        <v>0.434823</v>
       </c>
       <c r="C97" t="n">
-        <v>0.390736</v>
+        <v>0.40278</v>
       </c>
       <c r="D97" t="n">
-        <v>0.364297</v>
+        <v>0.378945</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.431309</v>
+        <v>0.433793</v>
       </c>
       <c r="C98" t="n">
-        <v>0.396104</v>
+        <v>0.410854</v>
       </c>
       <c r="D98" t="n">
-        <v>0.369508</v>
+        <v>0.36211</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.446451</v>
+        <v>0.440697</v>
       </c>
       <c r="C99" t="n">
-        <v>0.43152</v>
+        <v>0.413815</v>
       </c>
       <c r="D99" t="n">
-        <v>0.373765</v>
+        <v>0.374537</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.448107</v>
+        <v>0.444358</v>
       </c>
       <c r="C100" t="n">
-        <v>0.409563</v>
+        <v>0.43031</v>
       </c>
       <c r="D100" t="n">
-        <v>0.381926</v>
+        <v>0.379331</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.461478</v>
+        <v>0.449197</v>
       </c>
       <c r="C101" t="n">
-        <v>0.431058</v>
+        <v>0.42197</v>
       </c>
       <c r="D101" t="n">
-        <v>0.377019</v>
+        <v>0.376185</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.450781</v>
+        <v>0.460736</v>
       </c>
       <c r="C102" t="n">
-        <v>0.42778</v>
+        <v>0.42123</v>
       </c>
       <c r="D102" t="n">
-        <v>0.399906</v>
+        <v>0.380909</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.455974</v>
+        <v>0.465928</v>
       </c>
       <c r="C103" t="n">
-        <v>0.436572</v>
+        <v>0.439139</v>
       </c>
       <c r="D103" t="n">
-        <v>0.396537</v>
+        <v>0.401358</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.478612</v>
+        <v>0.484848</v>
       </c>
       <c r="C104" t="n">
-        <v>0.461709</v>
+        <v>0.45714</v>
       </c>
       <c r="D104" t="n">
-        <v>0.417914</v>
+        <v>0.408247</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.496948</v>
+        <v>0.500925</v>
       </c>
       <c r="C105" t="n">
-        <v>0.477626</v>
+        <v>0.492009</v>
       </c>
       <c r="D105" t="n">
-        <v>0.43661</v>
+        <v>0.429878</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.512564</v>
+        <v>0.533673</v>
       </c>
       <c r="C106" t="n">
-        <v>0.509698</v>
+        <v>0.535124</v>
       </c>
       <c r="D106" t="n">
-        <v>0.462287</v>
+        <v>0.459049</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.582153</v>
+        <v>0.586663</v>
       </c>
       <c r="C107" t="n">
-        <v>0.5654670000000001</v>
+        <v>0.559501</v>
       </c>
       <c r="D107" t="n">
-        <v>0.477031</v>
+        <v>0.488734</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.6158400000000001</v>
+        <v>0.622866</v>
       </c>
       <c r="C108" t="n">
-        <v>0.603503</v>
+        <v>0.621341</v>
       </c>
       <c r="D108" t="n">
-        <v>0.483287</v>
+        <v>0.495468</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.750731</v>
+        <v>0.70213</v>
       </c>
       <c r="C109" t="n">
-        <v>0.720059</v>
+        <v>0.724145</v>
       </c>
       <c r="D109" t="n">
-        <v>0.505482</v>
+        <v>0.5058009999999999</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.554926</v>
+        <v>0.571871</v>
       </c>
       <c r="C110" t="n">
-        <v>0.532342</v>
+        <v>0.524276</v>
       </c>
       <c r="D110" t="n">
-        <v>0.487207</v>
+        <v>0.507999</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.562398</v>
+        <v>0.576448</v>
       </c>
       <c r="C111" t="n">
-        <v>0.542166</v>
+        <v>0.530393</v>
       </c>
       <c r="D111" t="n">
-        <v>0.486388</v>
+        <v>0.501412</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.562118</v>
+        <v>0.555375</v>
       </c>
       <c r="C112" t="n">
-        <v>0.516857</v>
+        <v>0.547542</v>
       </c>
       <c r="D112" t="n">
-        <v>0.501077</v>
+        <v>0.503176</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.573312</v>
+        <v>0.56994</v>
       </c>
       <c r="C113" t="n">
-        <v>0.538416</v>
+        <v>0.556617</v>
       </c>
       <c r="D113" t="n">
-        <v>0.512848</v>
+        <v>0.511255</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.584753</v>
+        <v>0.587319</v>
       </c>
       <c r="C114" t="n">
-        <v>0.539445</v>
+        <v>0.5456530000000001</v>
       </c>
       <c r="D114" t="n">
-        <v>0.49896</v>
+        <v>0.49259</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.573097</v>
+        <v>0.598755</v>
       </c>
       <c r="C115" t="n">
-        <v>0.567731</v>
+        <v>0.580977</v>
       </c>
       <c r="D115" t="n">
-        <v>0.5015269999999999</v>
+        <v>0.53665</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.577534</v>
+        <v>0.599649</v>
       </c>
       <c r="C116" t="n">
-        <v>0.562481</v>
+        <v>0.56991</v>
       </c>
       <c r="D116" t="n">
-        <v>0.523888</v>
+        <v>0.498398</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.6169559999999999</v>
+        <v>0.624059</v>
       </c>
       <c r="C117" t="n">
-        <v>0.567227</v>
+        <v>0.593346</v>
       </c>
       <c r="D117" t="n">
-        <v>0.51846</v>
+        <v>0.541197</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.627039</v>
+        <v>0.620568</v>
       </c>
       <c r="C118" t="n">
-        <v>0.606834</v>
+        <v>0.6159790000000001</v>
       </c>
       <c r="D118" t="n">
-        <v>0.535639</v>
+        <v>0.542848</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.6536920000000001</v>
+        <v>0.63372</v>
       </c>
       <c r="C119" t="n">
-        <v>0.62663</v>
+        <v>0.615581</v>
       </c>
       <c r="D119" t="n">
-        <v>0.563629</v>
+        <v>0.564759</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.6843089999999999</v>
+        <v>0.671757</v>
       </c>
       <c r="C120" t="n">
-        <v>0.6850540000000001</v>
+        <v>0.661613</v>
       </c>
       <c r="D120" t="n">
-        <v>0.58362</v>
+        <v>0.58851</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.7022929999999999</v>
+        <v>0.704186</v>
       </c>
       <c r="C121" t="n">
-        <v>0.681248</v>
+        <v>0.7051269999999999</v>
       </c>
       <c r="D121" t="n">
-        <v>0.615744</v>
+        <v>0.613644</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.74668</v>
+        <v>0.7691480000000001</v>
       </c>
       <c r="C122" t="n">
-        <v>0.769634</v>
+        <v>0.77117</v>
       </c>
       <c r="D122" t="n">
-        <v>0.659031</v>
+        <v>0.672023</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.8584580000000001</v>
+        <v>0.892533</v>
       </c>
       <c r="C123" t="n">
-        <v>0.87698</v>
+        <v>0.904967</v>
       </c>
       <c r="D123" t="n">
-        <v>0.718569</v>
+        <v>0.763547</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.894983</v>
+        <v>0.903586</v>
       </c>
       <c r="C124" t="n">
-        <v>0.803376</v>
+        <v>0.825118</v>
       </c>
       <c r="D124" t="n">
-        <v>0.751794</v>
+        <v>0.789649</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.902571</v>
+        <v>0.942009</v>
       </c>
       <c r="C125" t="n">
-        <v>0.814039</v>
+        <v>0.847888</v>
       </c>
       <c r="D125" t="n">
-        <v>0.746873</v>
+        <v>0.803291</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.90571</v>
+        <v>0.958354</v>
       </c>
       <c r="C126" t="n">
-        <v>0.824518</v>
+        <v>0.824966</v>
       </c>
       <c r="D126" t="n">
-        <v>0.7896300000000001</v>
+        <v>0.745708</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.901014</v>
+        <v>0.908235</v>
       </c>
       <c r="C127" t="n">
-        <v>0.833654</v>
+        <v>0.855988</v>
       </c>
       <c r="D127" t="n">
-        <v>0.800699</v>
+        <v>0.775325</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.918266</v>
+        <v>0.915632</v>
       </c>
       <c r="C128" t="n">
-        <v>0.844958</v>
+        <v>0.871843</v>
       </c>
       <c r="D128" t="n">
-        <v>0.79814</v>
+        <v>0.750331</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.951933</v>
+        <v>0.971056</v>
       </c>
       <c r="C129" t="n">
-        <v>0.8756930000000001</v>
+        <v>0.856629</v>
       </c>
       <c r="D129" t="n">
-        <v>0.775501</v>
+        <v>0.816206</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.926047</v>
+        <v>0.976005</v>
       </c>
       <c r="C130" t="n">
-        <v>0.884582</v>
+        <v>0.903423</v>
       </c>
       <c r="D130" t="n">
-        <v>0.828284</v>
+        <v>0.791852</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.951978</v>
+        <v>0.995331</v>
       </c>
       <c r="C131" t="n">
-        <v>0.883467</v>
+        <v>0.937123</v>
       </c>
       <c r="D131" t="n">
-        <v>0.823346</v>
+        <v>0.820516</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.973898</v>
+        <v>0.967252</v>
       </c>
       <c r="C132" t="n">
-        <v>0.9232050000000001</v>
+        <v>0.922115</v>
       </c>
       <c r="D132" t="n">
-        <v>0.834933</v>
+        <v>0.828862</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.01548</v>
+        <v>0.984159</v>
       </c>
       <c r="C133" t="n">
-        <v>0.96951</v>
+        <v>0.973764</v>
       </c>
       <c r="D133" t="n">
-        <v>0.879012</v>
+        <v>0.828916</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.05224</v>
+        <v>1.01741</v>
       </c>
       <c r="C134" t="n">
-        <v>0.992248</v>
+        <v>0.9661729999999999</v>
       </c>
       <c r="D134" t="n">
-        <v>0.85803</v>
+        <v>0.897934</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.07843</v>
+        <v>1.09443</v>
       </c>
       <c r="C135" t="n">
-        <v>1.02015</v>
+        <v>1.04638</v>
       </c>
       <c r="D135" t="n">
-        <v>0.881468</v>
+        <v>0.919127</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.14657</v>
+        <v>1.12961</v>
       </c>
       <c r="C136" t="n">
-        <v>1.1303</v>
+        <v>1.10634</v>
       </c>
       <c r="D136" t="n">
-        <v>0.990687</v>
+        <v>0.941457</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.23251</v>
+        <v>1.21422</v>
       </c>
       <c r="C137" t="n">
-        <v>1.21479</v>
+        <v>1.21157</v>
       </c>
       <c r="D137" t="n">
-        <v>1.02509</v>
+        <v>1.00601</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.14892</v>
+        <v>1.17215</v>
       </c>
       <c r="C138" t="n">
-        <v>1.01171</v>
+        <v>1.0526</v>
       </c>
       <c r="D138" t="n">
-        <v>0.980366</v>
+        <v>1.01938</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.13972</v>
+        <v>1.19202</v>
       </c>
       <c r="C139" t="n">
-        <v>1.03734</v>
+        <v>1.08046</v>
       </c>
       <c r="D139" t="n">
-        <v>0.957202</v>
+        <v>1.01504</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.1427</v>
+        <v>1.20038</v>
       </c>
       <c r="C140" t="n">
-        <v>1.02093</v>
+        <v>1.06842</v>
       </c>
       <c r="D140" t="n">
-        <v>0.960172</v>
+        <v>1.05307</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.24736</v>
+        <v>1.26778</v>
       </c>
       <c r="C141" t="n">
-        <v>1.12665</v>
+        <v>1.10324</v>
       </c>
       <c r="D141" t="n">
-        <v>0.99884</v>
+        <v>1.02803</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.22942</v>
+        <v>1.22289</v>
       </c>
       <c r="C142" t="n">
-        <v>1.10347</v>
+        <v>1.09882</v>
       </c>
       <c r="D142" t="n">
-        <v>1.08044</v>
+        <v>1.02812</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.21953</v>
+        <v>1.23317</v>
       </c>
       <c r="C143" t="n">
-        <v>1.13301</v>
+        <v>1.13022</v>
       </c>
       <c r="D143" t="n">
-        <v>1.02606</v>
+        <v>1.03684</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered unsuccessful looukp.xlsx
+++ b/vs-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.338433</v>
+        <v>0.339863</v>
       </c>
       <c r="C2" t="n">
-        <v>0.338301</v>
+        <v>0.33782</v>
       </c>
       <c r="D2" t="n">
-        <v>0.328534</v>
+        <v>0.332767</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.362588</v>
+        <v>0.351511</v>
       </c>
       <c r="C3" t="n">
-        <v>0.358128</v>
+        <v>0.332507</v>
       </c>
       <c r="D3" t="n">
-        <v>0.337776</v>
+        <v>0.341872</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.349447</v>
+        <v>0.346576</v>
       </c>
       <c r="C4" t="n">
-        <v>0.349531</v>
+        <v>0.342879</v>
       </c>
       <c r="D4" t="n">
-        <v>0.341088</v>
+        <v>0.337892</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.353481</v>
+        <v>0.352966</v>
       </c>
       <c r="C5" t="n">
-        <v>0.364858</v>
+        <v>0.354352</v>
       </c>
       <c r="D5" t="n">
-        <v>0.34197</v>
+        <v>0.342676</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.366591</v>
+        <v>0.371688</v>
       </c>
       <c r="C6" t="n">
-        <v>0.389956</v>
+        <v>0.372324</v>
       </c>
       <c r="D6" t="n">
-        <v>0.376737</v>
+        <v>0.355824</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.375996</v>
+        <v>0.387295</v>
       </c>
       <c r="C7" t="n">
-        <v>0.403298</v>
+        <v>0.408957</v>
       </c>
       <c r="D7" t="n">
-        <v>0.39047</v>
+        <v>0.379728</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.398915</v>
+        <v>0.410894</v>
       </c>
       <c r="C8" t="n">
-        <v>0.429245</v>
+        <v>0.450435</v>
       </c>
       <c r="D8" t="n">
-        <v>0.407445</v>
+        <v>0.411639</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.446657</v>
+        <v>0.466639</v>
       </c>
       <c r="C9" t="n">
-        <v>0.472587</v>
+        <v>0.48599</v>
       </c>
       <c r="D9" t="n">
-        <v>0.318684</v>
+        <v>0.318528</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.328977</v>
+        <v>0.335125</v>
       </c>
       <c r="C10" t="n">
-        <v>0.327367</v>
+        <v>0.325192</v>
       </c>
       <c r="D10" t="n">
-        <v>0.322422</v>
+        <v>0.321104</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.335591</v>
+        <v>0.330402</v>
       </c>
       <c r="C11" t="n">
-        <v>0.327714</v>
+        <v>0.323297</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3165</v>
+        <v>0.314894</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.333506</v>
+        <v>0.333126</v>
       </c>
       <c r="C12" t="n">
-        <v>0.331964</v>
+        <v>0.329916</v>
       </c>
       <c r="D12" t="n">
-        <v>0.326082</v>
+        <v>0.313884</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.335041</v>
+        <v>0.33305</v>
       </c>
       <c r="C13" t="n">
-        <v>0.327501</v>
+        <v>0.331206</v>
       </c>
       <c r="D13" t="n">
-        <v>0.321567</v>
+        <v>0.328906</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.333162</v>
+        <v>0.335167</v>
       </c>
       <c r="C14" t="n">
-        <v>0.340939</v>
+        <v>0.333359</v>
       </c>
       <c r="D14" t="n">
-        <v>0.318416</v>
+        <v>0.325279</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.333096</v>
+        <v>0.341825</v>
       </c>
       <c r="C15" t="n">
-        <v>0.328552</v>
+        <v>0.32855</v>
       </c>
       <c r="D15" t="n">
-        <v>0.320221</v>
+        <v>0.323812</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.337411</v>
+        <v>0.335151</v>
       </c>
       <c r="C16" t="n">
-        <v>0.335958</v>
+        <v>0.34274</v>
       </c>
       <c r="D16" t="n">
-        <v>0.328707</v>
+        <v>0.336535</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.34203</v>
+        <v>0.347553</v>
       </c>
       <c r="C17" t="n">
-        <v>0.33848</v>
+        <v>0.337079</v>
       </c>
       <c r="D17" t="n">
-        <v>0.330268</v>
+        <v>0.339322</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.352814</v>
+        <v>0.341341</v>
       </c>
       <c r="C18" t="n">
-        <v>0.344671</v>
+        <v>0.35003</v>
       </c>
       <c r="D18" t="n">
-        <v>0.337943</v>
+        <v>0.333356</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.358048</v>
+        <v>0.361579</v>
       </c>
       <c r="C19" t="n">
-        <v>0.356844</v>
+        <v>0.362593</v>
       </c>
       <c r="D19" t="n">
-        <v>0.348346</v>
+        <v>0.343735</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.371715</v>
+        <v>0.366168</v>
       </c>
       <c r="C20" t="n">
-        <v>0.367409</v>
+        <v>0.385265</v>
       </c>
       <c r="D20" t="n">
-        <v>0.356494</v>
+        <v>0.364479</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.382491</v>
+        <v>0.384919</v>
       </c>
       <c r="C21" t="n">
-        <v>0.390339</v>
+        <v>0.395176</v>
       </c>
       <c r="D21" t="n">
-        <v>0.363702</v>
+        <v>0.373785</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.420844</v>
+        <v>0.406225</v>
       </c>
       <c r="C22" t="n">
-        <v>0.407088</v>
+        <v>0.404784</v>
       </c>
       <c r="D22" t="n">
-        <v>0.402682</v>
+        <v>0.397116</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.445878</v>
+        <v>0.442008</v>
       </c>
       <c r="C23" t="n">
-        <v>0.456915</v>
+        <v>0.45657</v>
       </c>
       <c r="D23" t="n">
-        <v>0.326166</v>
+        <v>0.321023</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.352859</v>
+        <v>0.339944</v>
       </c>
       <c r="C24" t="n">
-        <v>0.326184</v>
+        <v>0.327334</v>
       </c>
       <c r="D24" t="n">
-        <v>0.316902</v>
+        <v>0.313016</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.338691</v>
+        <v>0.338571</v>
       </c>
       <c r="C25" t="n">
-        <v>0.317136</v>
+        <v>0.329768</v>
       </c>
       <c r="D25" t="n">
-        <v>0.31368</v>
+        <v>0.324019</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.331223</v>
+        <v>0.33776</v>
       </c>
       <c r="C26" t="n">
-        <v>0.326365</v>
+        <v>0.322969</v>
       </c>
       <c r="D26" t="n">
-        <v>0.319407</v>
+        <v>0.317968</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.332476</v>
+        <v>0.342082</v>
       </c>
       <c r="C27" t="n">
-        <v>0.321467</v>
+        <v>0.325772</v>
       </c>
       <c r="D27" t="n">
-        <v>0.322613</v>
+        <v>0.333773</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.334513</v>
+        <v>0.350948</v>
       </c>
       <c r="C28" t="n">
-        <v>0.325613</v>
+        <v>0.338909</v>
       </c>
       <c r="D28" t="n">
-        <v>0.324157</v>
+        <v>0.322262</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.331631</v>
+        <v>0.334844</v>
       </c>
       <c r="C29" t="n">
-        <v>0.329367</v>
+        <v>0.324782</v>
       </c>
       <c r="D29" t="n">
-        <v>0.321973</v>
+        <v>0.328463</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.335058</v>
+        <v>0.339884</v>
       </c>
       <c r="C30" t="n">
-        <v>0.336166</v>
+        <v>0.333314</v>
       </c>
       <c r="D30" t="n">
-        <v>0.322868</v>
+        <v>0.326783</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.338819</v>
+        <v>0.344268</v>
       </c>
       <c r="C31" t="n">
-        <v>0.338008</v>
+        <v>0.336361</v>
       </c>
       <c r="D31" t="n">
-        <v>0.33421</v>
+        <v>0.326188</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.344553</v>
+        <v>0.355579</v>
       </c>
       <c r="C32" t="n">
-        <v>0.360795</v>
+        <v>0.336433</v>
       </c>
       <c r="D32" t="n">
-        <v>0.334172</v>
+        <v>0.333622</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.363011</v>
+        <v>0.349761</v>
       </c>
       <c r="C33" t="n">
-        <v>0.34529</v>
+        <v>0.352323</v>
       </c>
       <c r="D33" t="n">
-        <v>0.335258</v>
+        <v>0.34336</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.366632</v>
+        <v>0.36181</v>
       </c>
       <c r="C34" t="n">
-        <v>0.372124</v>
+        <v>0.352073</v>
       </c>
       <c r="D34" t="n">
-        <v>0.344501</v>
+        <v>0.347333</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.387856</v>
+        <v>0.385231</v>
       </c>
       <c r="C35" t="n">
-        <v>0.378815</v>
+        <v>0.391794</v>
       </c>
       <c r="D35" t="n">
-        <v>0.358981</v>
+        <v>0.371134</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.399116</v>
+        <v>0.403977</v>
       </c>
       <c r="C36" t="n">
-        <v>0.400738</v>
+        <v>0.399194</v>
       </c>
       <c r="D36" t="n">
-        <v>0.37995</v>
+        <v>0.393656</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.431006</v>
+        <v>0.432049</v>
       </c>
       <c r="C37" t="n">
-        <v>0.447813</v>
+        <v>0.441457</v>
       </c>
       <c r="D37" t="n">
-        <v>0.317787</v>
+        <v>0.317404</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.338571</v>
+        <v>0.342722</v>
       </c>
       <c r="C38" t="n">
-        <v>0.323486</v>
+        <v>0.314497</v>
       </c>
       <c r="D38" t="n">
-        <v>0.317891</v>
+        <v>0.312986</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.331935</v>
+        <v>0.335016</v>
       </c>
       <c r="C39" t="n">
-        <v>0.326752</v>
+        <v>0.318721</v>
       </c>
       <c r="D39" t="n">
-        <v>0.342141</v>
+        <v>0.316483</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.335113</v>
+        <v>0.337351</v>
       </c>
       <c r="C40" t="n">
-        <v>0.32377</v>
+        <v>0.328462</v>
       </c>
       <c r="D40" t="n">
-        <v>0.31699</v>
+        <v>0.317089</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.349323</v>
+        <v>0.338792</v>
       </c>
       <c r="C41" t="n">
-        <v>0.324592</v>
+        <v>0.335671</v>
       </c>
       <c r="D41" t="n">
-        <v>0.325015</v>
+        <v>0.321555</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.346783</v>
+        <v>0.331632</v>
       </c>
       <c r="C42" t="n">
-        <v>0.323074</v>
+        <v>0.332128</v>
       </c>
       <c r="D42" t="n">
-        <v>0.317109</v>
+        <v>0.342609</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.342793</v>
+        <v>0.345997</v>
       </c>
       <c r="C43" t="n">
-        <v>0.325245</v>
+        <v>0.328776</v>
       </c>
       <c r="D43" t="n">
-        <v>0.339478</v>
+        <v>0.319386</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.349913</v>
+        <v>0.343612</v>
       </c>
       <c r="C44" t="n">
-        <v>0.332177</v>
+        <v>0.341529</v>
       </c>
       <c r="D44" t="n">
-        <v>0.326981</v>
+        <v>0.331626</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.347715</v>
+        <v>0.35167</v>
       </c>
       <c r="C45" t="n">
-        <v>0.331918</v>
+        <v>0.330112</v>
       </c>
       <c r="D45" t="n">
-        <v>0.325256</v>
+        <v>0.325626</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.343903</v>
+        <v>0.354706</v>
       </c>
       <c r="C46" t="n">
-        <v>0.344229</v>
+        <v>0.340336</v>
       </c>
       <c r="D46" t="n">
-        <v>0.340529</v>
+        <v>0.332715</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.357108</v>
+        <v>0.365543</v>
       </c>
       <c r="C47" t="n">
-        <v>0.349755</v>
+        <v>0.344531</v>
       </c>
       <c r="D47" t="n">
-        <v>0.350695</v>
+        <v>0.35305</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.368529</v>
+        <v>0.366398</v>
       </c>
       <c r="C48" t="n">
-        <v>0.363642</v>
+        <v>0.353936</v>
       </c>
       <c r="D48" t="n">
-        <v>0.362577</v>
+        <v>0.349755</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.386227</v>
+        <v>0.379898</v>
       </c>
       <c r="C49" t="n">
-        <v>0.379767</v>
+        <v>0.37005</v>
       </c>
       <c r="D49" t="n">
-        <v>0.370243</v>
+        <v>0.368014</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.409026</v>
+        <v>0.395834</v>
       </c>
       <c r="C50" t="n">
-        <v>0.394801</v>
+        <v>0.395257</v>
       </c>
       <c r="D50" t="n">
-        <v>0.387765</v>
+        <v>0.398884</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.423401</v>
+        <v>0.427666</v>
       </c>
       <c r="C51" t="n">
-        <v>0.43326</v>
+        <v>0.446832</v>
       </c>
       <c r="D51" t="n">
-        <v>0.318572</v>
+        <v>0.340607</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.48882</v>
+        <v>0.487912</v>
       </c>
       <c r="C52" t="n">
-        <v>0.479978</v>
+        <v>0.500179</v>
       </c>
       <c r="D52" t="n">
-        <v>0.319567</v>
+        <v>0.319529</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.355584</v>
+        <v>0.337743</v>
       </c>
       <c r="C53" t="n">
-        <v>0.324515</v>
+        <v>0.326863</v>
       </c>
       <c r="D53" t="n">
-        <v>0.315649</v>
+        <v>0.317122</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.34954</v>
+        <v>0.342816</v>
       </c>
       <c r="C54" t="n">
-        <v>0.342467</v>
+        <v>0.33018</v>
       </c>
       <c r="D54" t="n">
-        <v>0.325382</v>
+        <v>0.329175</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.345884</v>
+        <v>0.347453</v>
       </c>
       <c r="C55" t="n">
-        <v>0.333269</v>
+        <v>0.33021</v>
       </c>
       <c r="D55" t="n">
-        <v>0.32321</v>
+        <v>0.321249</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.343617</v>
+        <v>0.346592</v>
       </c>
       <c r="C56" t="n">
-        <v>0.334141</v>
+        <v>0.329834</v>
       </c>
       <c r="D56" t="n">
-        <v>0.326788</v>
+        <v>0.318568</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.347301</v>
+        <v>0.347489</v>
       </c>
       <c r="C57" t="n">
-        <v>0.333021</v>
+        <v>0.336439</v>
       </c>
       <c r="D57" t="n">
-        <v>0.328956</v>
+        <v>0.3255</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.348194</v>
+        <v>0.346346</v>
       </c>
       <c r="C58" t="n">
-        <v>0.344379</v>
+        <v>0.332231</v>
       </c>
       <c r="D58" t="n">
-        <v>0.327697</v>
+        <v>0.332066</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.353786</v>
+        <v>0.345126</v>
       </c>
       <c r="C59" t="n">
-        <v>0.332233</v>
+        <v>0.340724</v>
       </c>
       <c r="D59" t="n">
-        <v>0.348734</v>
+        <v>0.344454</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.3588</v>
+        <v>0.349472</v>
       </c>
       <c r="C60" t="n">
-        <v>0.351702</v>
+        <v>0.350629</v>
       </c>
       <c r="D60" t="n">
-        <v>0.336524</v>
+        <v>0.341686</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.355386</v>
+        <v>0.365783</v>
       </c>
       <c r="C61" t="n">
-        <v>0.346456</v>
+        <v>0.348258</v>
       </c>
       <c r="D61" t="n">
-        <v>0.343175</v>
+        <v>0.343984</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.374452</v>
+        <v>0.366289</v>
       </c>
       <c r="C62" t="n">
-        <v>0.368091</v>
+        <v>0.35771</v>
       </c>
       <c r="D62" t="n">
-        <v>0.360875</v>
+        <v>0.377802</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.381195</v>
+        <v>0.380969</v>
       </c>
       <c r="C63" t="n">
-        <v>0.386254</v>
+        <v>0.379291</v>
       </c>
       <c r="D63" t="n">
-        <v>0.366581</v>
+        <v>0.369716</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.409542</v>
+        <v>0.404113</v>
       </c>
       <c r="C64" t="n">
-        <v>0.402982</v>
+        <v>0.401182</v>
       </c>
       <c r="D64" t="n">
-        <v>0.399702</v>
+        <v>0.396359</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.443011</v>
+        <v>0.437094</v>
       </c>
       <c r="C65" t="n">
-        <v>0.434927</v>
+        <v>0.439381</v>
       </c>
       <c r="D65" t="n">
-        <v>0.428372</v>
+        <v>0.442803</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.491258</v>
+        <v>0.486539</v>
       </c>
       <c r="C66" t="n">
-        <v>0.496166</v>
+        <v>0.489379</v>
       </c>
       <c r="D66" t="n">
-        <v>0.331797</v>
+        <v>0.325264</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.357674</v>
+        <v>0.367466</v>
       </c>
       <c r="C67" t="n">
-        <v>0.328889</v>
+        <v>0.339125</v>
       </c>
       <c r="D67" t="n">
-        <v>0.339599</v>
+        <v>0.329104</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.36306</v>
+        <v>0.357118</v>
       </c>
       <c r="C68" t="n">
-        <v>0.346943</v>
+        <v>0.330559</v>
       </c>
       <c r="D68" t="n">
-        <v>0.324285</v>
+        <v>0.32287</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.352995</v>
+        <v>0.370908</v>
       </c>
       <c r="C69" t="n">
-        <v>0.345324</v>
+        <v>0.343154</v>
       </c>
       <c r="D69" t="n">
-        <v>0.331243</v>
+        <v>0.325277</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.374398</v>
+        <v>0.361494</v>
       </c>
       <c r="C70" t="n">
-        <v>0.345971</v>
+        <v>0.35844</v>
       </c>
       <c r="D70" t="n">
-        <v>0.327787</v>
+        <v>0.33423</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.377883</v>
+        <v>0.364717</v>
       </c>
       <c r="C71" t="n">
-        <v>0.343645</v>
+        <v>0.337823</v>
       </c>
       <c r="D71" t="n">
-        <v>0.332782</v>
+        <v>0.335625</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.378073</v>
+        <v>0.367709</v>
       </c>
       <c r="C72" t="n">
-        <v>0.351876</v>
+        <v>0.352366</v>
       </c>
       <c r="D72" t="n">
-        <v>0.350818</v>
+        <v>0.344058</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.379729</v>
+        <v>0.378579</v>
       </c>
       <c r="C73" t="n">
-        <v>0.359661</v>
+        <v>0.348693</v>
       </c>
       <c r="D73" t="n">
-        <v>0.336801</v>
+        <v>0.338729</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.376308</v>
+        <v>0.371087</v>
       </c>
       <c r="C74" t="n">
-        <v>0.358091</v>
+        <v>0.36508</v>
       </c>
       <c r="D74" t="n">
-        <v>0.342975</v>
+        <v>0.33675</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.386659</v>
+        <v>0.391228</v>
       </c>
       <c r="C75" t="n">
-        <v>0.385547</v>
+        <v>0.397014</v>
       </c>
       <c r="D75" t="n">
-        <v>0.361116</v>
+        <v>0.419547</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.400852</v>
+        <v>0.489666</v>
       </c>
       <c r="C76" t="n">
-        <v>0.384587</v>
+        <v>0.424502</v>
       </c>
       <c r="D76" t="n">
-        <v>0.362438</v>
+        <v>0.393354</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.411554</v>
+        <v>0.440973</v>
       </c>
       <c r="C77" t="n">
-        <v>0.415571</v>
+        <v>0.437346</v>
       </c>
       <c r="D77" t="n">
-        <v>0.372665</v>
+        <v>0.404358</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.432473</v>
+        <v>0.418443</v>
       </c>
       <c r="C78" t="n">
-        <v>0.428556</v>
+        <v>0.427601</v>
       </c>
       <c r="D78" t="n">
-        <v>0.399918</v>
+        <v>0.407601</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.464798</v>
+        <v>0.467322</v>
       </c>
       <c r="C79" t="n">
-        <v>0.453341</v>
+        <v>0.465658</v>
       </c>
       <c r="D79" t="n">
-        <v>0.448154</v>
+        <v>0.450065</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.512579</v>
+        <v>0.519096</v>
       </c>
       <c r="C80" t="n">
-        <v>0.524888</v>
+        <v>0.511517</v>
       </c>
       <c r="D80" t="n">
-        <v>0.333143</v>
+        <v>0.331273</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.384483</v>
+        <v>0.371256</v>
       </c>
       <c r="C81" t="n">
-        <v>0.350018</v>
+        <v>0.34348</v>
       </c>
       <c r="D81" t="n">
-        <v>0.336755</v>
+        <v>0.336636</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.38816</v>
+        <v>0.383868</v>
       </c>
       <c r="C82" t="n">
-        <v>0.343516</v>
+        <v>0.351725</v>
       </c>
       <c r="D82" t="n">
-        <v>0.330938</v>
+        <v>0.344791</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.370093</v>
+        <v>0.380023</v>
       </c>
       <c r="C83" t="n">
-        <v>0.352516</v>
+        <v>0.344981</v>
       </c>
       <c r="D83" t="n">
-        <v>0.334249</v>
+        <v>0.337543</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.395153</v>
+        <v>0.380961</v>
       </c>
       <c r="C84" t="n">
-        <v>0.357691</v>
+        <v>0.355943</v>
       </c>
       <c r="D84" t="n">
-        <v>0.345334</v>
+        <v>0.361275</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.38186</v>
+        <v>0.392301</v>
       </c>
       <c r="C85" t="n">
-        <v>0.355904</v>
+        <v>0.35526</v>
       </c>
       <c r="D85" t="n">
-        <v>0.350877</v>
+        <v>0.344132</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.385556</v>
+        <v>0.387983</v>
       </c>
       <c r="C86" t="n">
-        <v>0.35748</v>
+        <v>0.363511</v>
       </c>
       <c r="D86" t="n">
-        <v>0.342081</v>
+        <v>0.340863</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.406795</v>
+        <v>0.403999</v>
       </c>
       <c r="C87" t="n">
-        <v>0.368225</v>
+        <v>0.368198</v>
       </c>
       <c r="D87" t="n">
-        <v>0.370034</v>
+        <v>0.349585</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.403274</v>
+        <v>0.408172</v>
       </c>
       <c r="C88" t="n">
-        <v>0.384606</v>
+        <v>0.379426</v>
       </c>
       <c r="D88" t="n">
-        <v>0.346177</v>
+        <v>0.351829</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.414565</v>
+        <v>0.43809</v>
       </c>
       <c r="C89" t="n">
-        <v>0.384933</v>
+        <v>0.389509</v>
       </c>
       <c r="D89" t="n">
-        <v>0.360061</v>
+        <v>0.367288</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.422546</v>
+        <v>0.425542</v>
       </c>
       <c r="C90" t="n">
-        <v>0.414664</v>
+        <v>0.405555</v>
       </c>
       <c r="D90" t="n">
-        <v>0.374448</v>
+        <v>0.39946</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.459512</v>
+        <v>0.443237</v>
       </c>
       <c r="C91" t="n">
-        <v>0.43485</v>
+        <v>0.418939</v>
       </c>
       <c r="D91" t="n">
-        <v>0.384246</v>
+        <v>0.39413</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.462008</v>
+        <v>0.459881</v>
       </c>
       <c r="C92" t="n">
-        <v>0.450886</v>
+        <v>0.448125</v>
       </c>
       <c r="D92" t="n">
-        <v>0.415939</v>
+        <v>0.430538</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.494514</v>
+        <v>0.499418</v>
       </c>
       <c r="C93" t="n">
-        <v>0.493316</v>
+        <v>0.493054</v>
       </c>
       <c r="D93" t="n">
-        <v>0.444197</v>
+        <v>0.458446</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.546127</v>
+        <v>0.561518</v>
       </c>
       <c r="C94" t="n">
-        <v>0.552275</v>
+        <v>0.556893</v>
       </c>
       <c r="D94" t="n">
-        <v>0.362983</v>
+        <v>0.348373</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.423513</v>
+        <v>0.423707</v>
       </c>
       <c r="C95" t="n">
-        <v>0.389986</v>
+        <v>0.400056</v>
       </c>
       <c r="D95" t="n">
-        <v>0.369231</v>
+        <v>0.360264</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.427393</v>
+        <v>0.435329</v>
       </c>
       <c r="C96" t="n">
-        <v>0.407674</v>
+        <v>0.396081</v>
       </c>
       <c r="D96" t="n">
-        <v>0.364958</v>
+        <v>0.358961</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.434823</v>
+        <v>0.432095</v>
       </c>
       <c r="C97" t="n">
-        <v>0.40278</v>
+        <v>0.399672</v>
       </c>
       <c r="D97" t="n">
-        <v>0.378945</v>
+        <v>0.367792</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.433793</v>
+        <v>0.425883</v>
       </c>
       <c r="C98" t="n">
-        <v>0.410854</v>
+        <v>0.40165</v>
       </c>
       <c r="D98" t="n">
-        <v>0.36211</v>
+        <v>0.381942</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.440697</v>
+        <v>0.436545</v>
       </c>
       <c r="C99" t="n">
-        <v>0.413815</v>
+        <v>0.40413</v>
       </c>
       <c r="D99" t="n">
-        <v>0.374537</v>
+        <v>0.376826</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.444358</v>
+        <v>0.443969</v>
       </c>
       <c r="C100" t="n">
-        <v>0.43031</v>
+        <v>0.423934</v>
       </c>
       <c r="D100" t="n">
-        <v>0.379331</v>
+        <v>0.381686</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.449197</v>
+        <v>0.458294</v>
       </c>
       <c r="C101" t="n">
-        <v>0.42197</v>
+        <v>0.441325</v>
       </c>
       <c r="D101" t="n">
-        <v>0.376185</v>
+        <v>0.388527</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.460736</v>
+        <v>0.471671</v>
       </c>
       <c r="C102" t="n">
-        <v>0.42123</v>
+        <v>0.441812</v>
       </c>
       <c r="D102" t="n">
-        <v>0.380909</v>
+        <v>0.389713</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.465928</v>
+        <v>0.484018</v>
       </c>
       <c r="C103" t="n">
-        <v>0.439139</v>
+        <v>0.451798</v>
       </c>
       <c r="D103" t="n">
-        <v>0.401358</v>
+        <v>0.404606</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.484848</v>
+        <v>0.477909</v>
       </c>
       <c r="C104" t="n">
-        <v>0.45714</v>
+        <v>0.470637</v>
       </c>
       <c r="D104" t="n">
-        <v>0.408247</v>
+        <v>0.409574</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.500925</v>
+        <v>0.502771</v>
       </c>
       <c r="C105" t="n">
-        <v>0.492009</v>
+        <v>0.475398</v>
       </c>
       <c r="D105" t="n">
-        <v>0.429878</v>
+        <v>0.441441</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.533673</v>
+        <v>0.529219</v>
       </c>
       <c r="C106" t="n">
-        <v>0.535124</v>
+        <v>0.525827</v>
       </c>
       <c r="D106" t="n">
-        <v>0.459049</v>
+        <v>0.457615</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.586663</v>
+        <v>0.560407</v>
       </c>
       <c r="C107" t="n">
-        <v>0.559501</v>
+        <v>0.54838</v>
       </c>
       <c r="D107" t="n">
-        <v>0.488734</v>
+        <v>0.48988</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.622866</v>
+        <v>0.635457</v>
       </c>
       <c r="C108" t="n">
-        <v>0.621341</v>
+        <v>0.628985</v>
       </c>
       <c r="D108" t="n">
-        <v>0.495468</v>
+        <v>0.486629</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.70213</v>
+        <v>0.714383</v>
       </c>
       <c r="C109" t="n">
-        <v>0.724145</v>
+        <v>0.720131</v>
       </c>
       <c r="D109" t="n">
-        <v>0.5058009999999999</v>
+        <v>0.492756</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.571871</v>
+        <v>0.572706</v>
       </c>
       <c r="C110" t="n">
-        <v>0.524276</v>
+        <v>0.517958</v>
       </c>
       <c r="D110" t="n">
-        <v>0.507999</v>
+        <v>0.485326</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.576448</v>
+        <v>0.585141</v>
       </c>
       <c r="C111" t="n">
-        <v>0.530393</v>
+        <v>0.540857</v>
       </c>
       <c r="D111" t="n">
-        <v>0.501412</v>
+        <v>0.495856</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.555375</v>
+        <v>0.589476</v>
       </c>
       <c r="C112" t="n">
-        <v>0.547542</v>
+        <v>0.531976</v>
       </c>
       <c r="D112" t="n">
-        <v>0.503176</v>
+        <v>0.498177</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.56994</v>
+        <v>0.565534</v>
       </c>
       <c r="C113" t="n">
-        <v>0.556617</v>
+        <v>0.555993</v>
       </c>
       <c r="D113" t="n">
-        <v>0.511255</v>
+        <v>0.503858</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.587319</v>
+        <v>0.577341</v>
       </c>
       <c r="C114" t="n">
-        <v>0.5456530000000001</v>
+        <v>0.5352170000000001</v>
       </c>
       <c r="D114" t="n">
-        <v>0.49259</v>
+        <v>0.503643</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.598755</v>
+        <v>0.595222</v>
       </c>
       <c r="C115" t="n">
-        <v>0.580977</v>
+        <v>0.561207</v>
       </c>
       <c r="D115" t="n">
-        <v>0.53665</v>
+        <v>0.499708</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.599649</v>
+        <v>0.591276</v>
       </c>
       <c r="C116" t="n">
-        <v>0.56991</v>
+        <v>0.594772</v>
       </c>
       <c r="D116" t="n">
-        <v>0.498398</v>
+        <v>0.526335</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.624059</v>
+        <v>0.625573</v>
       </c>
       <c r="C117" t="n">
-        <v>0.593346</v>
+        <v>0.6026280000000001</v>
       </c>
       <c r="D117" t="n">
-        <v>0.541197</v>
+        <v>0.532446</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.620568</v>
+        <v>0.651107</v>
       </c>
       <c r="C118" t="n">
-        <v>0.6159790000000001</v>
+        <v>0.60676</v>
       </c>
       <c r="D118" t="n">
-        <v>0.542848</v>
+        <v>0.537009</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.63372</v>
+        <v>0.654981</v>
       </c>
       <c r="C119" t="n">
-        <v>0.615581</v>
+        <v>0.640443</v>
       </c>
       <c r="D119" t="n">
-        <v>0.564759</v>
+        <v>0.547088</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.671757</v>
+        <v>0.675935</v>
       </c>
       <c r="C120" t="n">
-        <v>0.661613</v>
+        <v>0.6758</v>
       </c>
       <c r="D120" t="n">
-        <v>0.58851</v>
+        <v>0.578637</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.704186</v>
+        <v>0.721051</v>
       </c>
       <c r="C121" t="n">
-        <v>0.7051269999999999</v>
+        <v>0.714283</v>
       </c>
       <c r="D121" t="n">
-        <v>0.613644</v>
+        <v>0.635804</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.7691480000000001</v>
+        <v>0.784871</v>
       </c>
       <c r="C122" t="n">
-        <v>0.77117</v>
+        <v>0.763688</v>
       </c>
       <c r="D122" t="n">
-        <v>0.672023</v>
+        <v>0.6840309999999999</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.892533</v>
+        <v>0.844731</v>
       </c>
       <c r="C123" t="n">
-        <v>0.904967</v>
+        <v>0.858869</v>
       </c>
       <c r="D123" t="n">
-        <v>0.763547</v>
+        <v>0.772826</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.903586</v>
+        <v>0.925111</v>
       </c>
       <c r="C124" t="n">
-        <v>0.825118</v>
+        <v>0.840669</v>
       </c>
       <c r="D124" t="n">
-        <v>0.789649</v>
+        <v>0.74848</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.942009</v>
+        <v>0.944805</v>
       </c>
       <c r="C125" t="n">
-        <v>0.847888</v>
+        <v>0.816424</v>
       </c>
       <c r="D125" t="n">
-        <v>0.803291</v>
+        <v>0.7605769999999999</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.958354</v>
+        <v>0.88952</v>
       </c>
       <c r="C126" t="n">
-        <v>0.824966</v>
+        <v>0.848241</v>
       </c>
       <c r="D126" t="n">
-        <v>0.745708</v>
+        <v>0.799624</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.908235</v>
+        <v>0.946982</v>
       </c>
       <c r="C127" t="n">
-        <v>0.855988</v>
+        <v>0.843024</v>
       </c>
       <c r="D127" t="n">
-        <v>0.775325</v>
+        <v>0.778819</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.915632</v>
+        <v>0.936605</v>
       </c>
       <c r="C128" t="n">
-        <v>0.871843</v>
+        <v>0.843162</v>
       </c>
       <c r="D128" t="n">
-        <v>0.750331</v>
+        <v>0.756042</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.971056</v>
+        <v>0.954681</v>
       </c>
       <c r="C129" t="n">
-        <v>0.856629</v>
+        <v>0.892969</v>
       </c>
       <c r="D129" t="n">
-        <v>0.816206</v>
+        <v>0.811764</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.976005</v>
+        <v>0.966498</v>
       </c>
       <c r="C130" t="n">
-        <v>0.903423</v>
+        <v>0.885085</v>
       </c>
       <c r="D130" t="n">
-        <v>0.791852</v>
+        <v>0.836059</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.995331</v>
+        <v>0.945658</v>
       </c>
       <c r="C131" t="n">
-        <v>0.937123</v>
+        <v>0.943132</v>
       </c>
       <c r="D131" t="n">
-        <v>0.820516</v>
+        <v>0.804085</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.967252</v>
+        <v>1.01336</v>
       </c>
       <c r="C132" t="n">
-        <v>0.922115</v>
+        <v>0.898471</v>
       </c>
       <c r="D132" t="n">
-        <v>0.828862</v>
+        <v>0.816138</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.984159</v>
+        <v>1.02551</v>
       </c>
       <c r="C133" t="n">
-        <v>0.973764</v>
+        <v>0.934549</v>
       </c>
       <c r="D133" t="n">
-        <v>0.828916</v>
+        <v>0.8455549999999999</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.01741</v>
+        <v>1.04691</v>
       </c>
       <c r="C134" t="n">
-        <v>0.9661729999999999</v>
+        <v>0.995549</v>
       </c>
       <c r="D134" t="n">
-        <v>0.897934</v>
+        <v>0.900289</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.09443</v>
+        <v>1.06283</v>
       </c>
       <c r="C135" t="n">
-        <v>1.04638</v>
+        <v>1.04615</v>
       </c>
       <c r="D135" t="n">
-        <v>0.919127</v>
+        <v>0.899088</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.12961</v>
+        <v>1.1244</v>
       </c>
       <c r="C136" t="n">
-        <v>1.10634</v>
+        <v>1.0984</v>
       </c>
       <c r="D136" t="n">
-        <v>0.941457</v>
+        <v>0.967842</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.21422</v>
+        <v>1.25237</v>
       </c>
       <c r="C137" t="n">
-        <v>1.21157</v>
+        <v>1.21741</v>
       </c>
       <c r="D137" t="n">
-        <v>1.00601</v>
+        <v>0.997951</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.17215</v>
+        <v>1.22524</v>
       </c>
       <c r="C138" t="n">
-        <v>1.0526</v>
+        <v>1.05857</v>
       </c>
       <c r="D138" t="n">
-        <v>1.01938</v>
+        <v>1.00729</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.19202</v>
+        <v>1.19009</v>
       </c>
       <c r="C139" t="n">
-        <v>1.08046</v>
+        <v>1.09226</v>
       </c>
       <c r="D139" t="n">
-        <v>1.01504</v>
+        <v>0.996924</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.20038</v>
+        <v>1.23791</v>
       </c>
       <c r="C140" t="n">
-        <v>1.06842</v>
+        <v>1.06722</v>
       </c>
       <c r="D140" t="n">
-        <v>1.05307</v>
+        <v>1.00568</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.26778</v>
+        <v>1.19836</v>
       </c>
       <c r="C141" t="n">
-        <v>1.10324</v>
+        <v>1.06442</v>
       </c>
       <c r="D141" t="n">
-        <v>1.02803</v>
+        <v>1.02554</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.22289</v>
+        <v>1.25976</v>
       </c>
       <c r="C142" t="n">
-        <v>1.09882</v>
+        <v>1.08083</v>
       </c>
       <c r="D142" t="n">
-        <v>1.02812</v>
+        <v>1.06943</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.23317</v>
+        <v>1.25017</v>
       </c>
       <c r="C143" t="n">
-        <v>1.13022</v>
+        <v>1.09528</v>
       </c>
       <c r="D143" t="n">
-        <v>1.03684</v>
+        <v>1.04596</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered unsuccessful looukp.xlsx
+++ b/vs-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.339863</v>
+        <v>0.125579</v>
       </c>
       <c r="C2" t="n">
-        <v>0.33782</v>
+        <v>0.122227</v>
       </c>
       <c r="D2" t="n">
-        <v>0.332767</v>
+        <v>0.128149</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.351511</v>
+        <v>0.130472</v>
       </c>
       <c r="C3" t="n">
-        <v>0.332507</v>
+        <v>0.126921</v>
       </c>
       <c r="D3" t="n">
-        <v>0.341872</v>
+        <v>0.125237</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.346576</v>
+        <v>0.130787</v>
       </c>
       <c r="C4" t="n">
-        <v>0.342879</v>
+        <v>0.133924</v>
       </c>
       <c r="D4" t="n">
-        <v>0.337892</v>
+        <v>0.132853</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.352966</v>
+        <v>0.146406</v>
       </c>
       <c r="C5" t="n">
-        <v>0.354352</v>
+        <v>0.147166</v>
       </c>
       <c r="D5" t="n">
-        <v>0.342676</v>
+        <v>0.139171</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.371688</v>
+        <v>0.150592</v>
       </c>
       <c r="C6" t="n">
-        <v>0.372324</v>
+        <v>0.156058</v>
       </c>
       <c r="D6" t="n">
-        <v>0.355824</v>
+        <v>0.154363</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.387295</v>
+        <v>0.160132</v>
       </c>
       <c r="C7" t="n">
-        <v>0.408957</v>
+        <v>0.169613</v>
       </c>
       <c r="D7" t="n">
-        <v>0.379728</v>
+        <v>0.161516</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.410894</v>
+        <v>0.178876</v>
       </c>
       <c r="C8" t="n">
-        <v>0.450435</v>
+        <v>0.19136</v>
       </c>
       <c r="D8" t="n">
-        <v>0.411639</v>
+        <v>0.188244</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.466639</v>
+        <v>0.215646</v>
       </c>
       <c r="C9" t="n">
-        <v>0.48599</v>
+        <v>0.225116</v>
       </c>
       <c r="D9" t="n">
-        <v>0.318528</v>
+        <v>0.11909</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.335125</v>
+        <v>0.124206</v>
       </c>
       <c r="C10" t="n">
-        <v>0.325192</v>
+        <v>0.117389</v>
       </c>
       <c r="D10" t="n">
-        <v>0.321104</v>
+        <v>0.120828</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.330402</v>
+        <v>0.131149</v>
       </c>
       <c r="C11" t="n">
-        <v>0.323297</v>
+        <v>0.116942</v>
       </c>
       <c r="D11" t="n">
-        <v>0.314894</v>
+        <v>0.117205</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.333126</v>
+        <v>0.128396</v>
       </c>
       <c r="C12" t="n">
-        <v>0.329916</v>
+        <v>0.119948</v>
       </c>
       <c r="D12" t="n">
-        <v>0.313884</v>
+        <v>0.119575</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.33305</v>
+        <v>0.124792</v>
       </c>
       <c r="C13" t="n">
-        <v>0.331206</v>
+        <v>0.12033</v>
       </c>
       <c r="D13" t="n">
-        <v>0.328906</v>
+        <v>0.118983</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.335167</v>
+        <v>0.12704</v>
       </c>
       <c r="C14" t="n">
-        <v>0.333359</v>
+        <v>0.126098</v>
       </c>
       <c r="D14" t="n">
-        <v>0.325279</v>
+        <v>0.120606</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.341825</v>
+        <v>0.131502</v>
       </c>
       <c r="C15" t="n">
-        <v>0.32855</v>
+        <v>0.121927</v>
       </c>
       <c r="D15" t="n">
-        <v>0.323812</v>
+        <v>0.120918</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.335151</v>
+        <v>0.129313</v>
       </c>
       <c r="C16" t="n">
-        <v>0.34274</v>
+        <v>0.126074</v>
       </c>
       <c r="D16" t="n">
-        <v>0.336535</v>
+        <v>0.123851</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.347553</v>
+        <v>0.133033</v>
       </c>
       <c r="C17" t="n">
-        <v>0.337079</v>
+        <v>0.129818</v>
       </c>
       <c r="D17" t="n">
-        <v>0.339322</v>
+        <v>0.12742</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.341341</v>
+        <v>0.135852</v>
       </c>
       <c r="C18" t="n">
-        <v>0.35003</v>
+        <v>0.136512</v>
       </c>
       <c r="D18" t="n">
-        <v>0.333356</v>
+        <v>0.1305</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.361579</v>
+        <v>0.142924</v>
       </c>
       <c r="C19" t="n">
-        <v>0.362593</v>
+        <v>0.142037</v>
       </c>
       <c r="D19" t="n">
-        <v>0.343735</v>
+        <v>0.138561</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.366168</v>
+        <v>0.153974</v>
       </c>
       <c r="C20" t="n">
-        <v>0.385265</v>
+        <v>0.154927</v>
       </c>
       <c r="D20" t="n">
-        <v>0.364479</v>
+        <v>0.152137</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.384919</v>
+        <v>0.170864</v>
       </c>
       <c r="C21" t="n">
-        <v>0.395176</v>
+        <v>0.167442</v>
       </c>
       <c r="D21" t="n">
-        <v>0.373785</v>
+        <v>0.160687</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.406225</v>
+        <v>0.18639</v>
       </c>
       <c r="C22" t="n">
-        <v>0.404784</v>
+        <v>0.192138</v>
       </c>
       <c r="D22" t="n">
-        <v>0.397116</v>
+        <v>0.182618</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.442008</v>
+        <v>0.221556</v>
       </c>
       <c r="C23" t="n">
-        <v>0.45657</v>
+        <v>0.224491</v>
       </c>
       <c r="D23" t="n">
-        <v>0.321023</v>
+        <v>0.119138</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.339944</v>
+        <v>0.129836</v>
       </c>
       <c r="C24" t="n">
-        <v>0.327334</v>
+        <v>0.122215</v>
       </c>
       <c r="D24" t="n">
-        <v>0.313016</v>
+        <v>0.119692</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.338571</v>
+        <v>0.1382</v>
       </c>
       <c r="C25" t="n">
-        <v>0.329768</v>
+        <v>0.122024</v>
       </c>
       <c r="D25" t="n">
-        <v>0.324019</v>
+        <v>0.127002</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.33776</v>
+        <v>0.132261</v>
       </c>
       <c r="C26" t="n">
-        <v>0.322969</v>
+        <v>0.120098</v>
       </c>
       <c r="D26" t="n">
-        <v>0.317968</v>
+        <v>0.120187</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.342082</v>
+        <v>0.131009</v>
       </c>
       <c r="C27" t="n">
-        <v>0.325772</v>
+        <v>0.121304</v>
       </c>
       <c r="D27" t="n">
-        <v>0.333773</v>
+        <v>0.120593</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.350948</v>
+        <v>0.133006</v>
       </c>
       <c r="C28" t="n">
-        <v>0.338909</v>
+        <v>0.121237</v>
       </c>
       <c r="D28" t="n">
-        <v>0.322262</v>
+        <v>0.121531</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.334844</v>
+        <v>0.140266</v>
       </c>
       <c r="C29" t="n">
-        <v>0.324782</v>
+        <v>0.130935</v>
       </c>
       <c r="D29" t="n">
-        <v>0.328463</v>
+        <v>0.12567</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.339884</v>
+        <v>0.135222</v>
       </c>
       <c r="C30" t="n">
-        <v>0.333314</v>
+        <v>0.128565</v>
       </c>
       <c r="D30" t="n">
-        <v>0.326783</v>
+        <v>0.124979</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.344268</v>
+        <v>0.13985</v>
       </c>
       <c r="C31" t="n">
-        <v>0.336361</v>
+        <v>0.135141</v>
       </c>
       <c r="D31" t="n">
-        <v>0.326188</v>
+        <v>0.128815</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.355579</v>
+        <v>0.142878</v>
       </c>
       <c r="C32" t="n">
-        <v>0.336433</v>
+        <v>0.136404</v>
       </c>
       <c r="D32" t="n">
-        <v>0.333622</v>
+        <v>0.131408</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.349761</v>
+        <v>0.14692</v>
       </c>
       <c r="C33" t="n">
-        <v>0.352323</v>
+        <v>0.141643</v>
       </c>
       <c r="D33" t="n">
-        <v>0.34336</v>
+        <v>0.141457</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.36181</v>
+        <v>0.160227</v>
       </c>
       <c r="C34" t="n">
-        <v>0.352073</v>
+        <v>0.155404</v>
       </c>
       <c r="D34" t="n">
-        <v>0.347333</v>
+        <v>0.148874</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.385231</v>
+        <v>0.171522</v>
       </c>
       <c r="C35" t="n">
-        <v>0.391794</v>
+        <v>0.166033</v>
       </c>
       <c r="D35" t="n">
-        <v>0.371134</v>
+        <v>0.161108</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.403977</v>
+        <v>0.184538</v>
       </c>
       <c r="C36" t="n">
-        <v>0.399194</v>
+        <v>0.184913</v>
       </c>
       <c r="D36" t="n">
-        <v>0.393656</v>
+        <v>0.186906</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.432049</v>
+        <v>0.216572</v>
       </c>
       <c r="C37" t="n">
-        <v>0.441457</v>
+        <v>0.218979</v>
       </c>
       <c r="D37" t="n">
-        <v>0.317404</v>
+        <v>0.123158</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.342722</v>
+        <v>0.134373</v>
       </c>
       <c r="C38" t="n">
-        <v>0.314497</v>
+        <v>0.123568</v>
       </c>
       <c r="D38" t="n">
-        <v>0.312986</v>
+        <v>0.122637</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.335016</v>
+        <v>0.134703</v>
       </c>
       <c r="C39" t="n">
-        <v>0.318721</v>
+        <v>0.123119</v>
       </c>
       <c r="D39" t="n">
-        <v>0.316483</v>
+        <v>0.122203</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.337351</v>
+        <v>0.135886</v>
       </c>
       <c r="C40" t="n">
-        <v>0.328462</v>
+        <v>0.124023</v>
       </c>
       <c r="D40" t="n">
-        <v>0.317089</v>
+        <v>0.124618</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.338792</v>
+        <v>0.133652</v>
       </c>
       <c r="C41" t="n">
-        <v>0.335671</v>
+        <v>0.124087</v>
       </c>
       <c r="D41" t="n">
-        <v>0.321555</v>
+        <v>0.122734</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.331632</v>
+        <v>0.134897</v>
       </c>
       <c r="C42" t="n">
-        <v>0.332128</v>
+        <v>0.124983</v>
       </c>
       <c r="D42" t="n">
-        <v>0.342609</v>
+        <v>0.122458</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.345997</v>
+        <v>0.134883</v>
       </c>
       <c r="C43" t="n">
-        <v>0.328776</v>
+        <v>0.125256</v>
       </c>
       <c r="D43" t="n">
-        <v>0.319386</v>
+        <v>0.12335</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.343612</v>
+        <v>0.142754</v>
       </c>
       <c r="C44" t="n">
-        <v>0.341529</v>
+        <v>0.132026</v>
       </c>
       <c r="D44" t="n">
-        <v>0.331626</v>
+        <v>0.128796</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.35167</v>
+        <v>0.143684</v>
       </c>
       <c r="C45" t="n">
-        <v>0.330112</v>
+        <v>0.131354</v>
       </c>
       <c r="D45" t="n">
-        <v>0.325626</v>
+        <v>0.132618</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.354706</v>
+        <v>0.14229</v>
       </c>
       <c r="C46" t="n">
-        <v>0.340336</v>
+        <v>0.140981</v>
       </c>
       <c r="D46" t="n">
-        <v>0.332715</v>
+        <v>0.134932</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.365543</v>
+        <v>0.149401</v>
       </c>
       <c r="C47" t="n">
-        <v>0.344531</v>
+        <v>0.146105</v>
       </c>
       <c r="D47" t="n">
-        <v>0.35305</v>
+        <v>0.140811</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.366398</v>
+        <v>0.157806</v>
       </c>
       <c r="C48" t="n">
-        <v>0.353936</v>
+        <v>0.152618</v>
       </c>
       <c r="D48" t="n">
-        <v>0.349755</v>
+        <v>0.146865</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.379898</v>
+        <v>0.174148</v>
       </c>
       <c r="C49" t="n">
-        <v>0.37005</v>
+        <v>0.163828</v>
       </c>
       <c r="D49" t="n">
-        <v>0.368014</v>
+        <v>0.15805</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.395834</v>
+        <v>0.185744</v>
       </c>
       <c r="C50" t="n">
-        <v>0.395257</v>
+        <v>0.182178</v>
       </c>
       <c r="D50" t="n">
-        <v>0.398884</v>
+        <v>0.175694</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.427666</v>
+        <v>0.217619</v>
       </c>
       <c r="C51" t="n">
-        <v>0.446832</v>
+        <v>0.215441</v>
       </c>
       <c r="D51" t="n">
-        <v>0.340607</v>
+        <v>0.12507</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.487912</v>
+        <v>0.262016</v>
       </c>
       <c r="C52" t="n">
-        <v>0.500179</v>
+        <v>0.261184</v>
       </c>
       <c r="D52" t="n">
-        <v>0.319529</v>
+        <v>0.126039</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.337743</v>
+        <v>0.140801</v>
       </c>
       <c r="C53" t="n">
-        <v>0.326863</v>
+        <v>0.129027</v>
       </c>
       <c r="D53" t="n">
-        <v>0.317122</v>
+        <v>0.129801</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.342816</v>
+        <v>0.143414</v>
       </c>
       <c r="C54" t="n">
-        <v>0.33018</v>
+        <v>0.128426</v>
       </c>
       <c r="D54" t="n">
-        <v>0.329175</v>
+        <v>0.125213</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.347453</v>
+        <v>0.145945</v>
       </c>
       <c r="C55" t="n">
-        <v>0.33021</v>
+        <v>0.132382</v>
       </c>
       <c r="D55" t="n">
-        <v>0.321249</v>
+        <v>0.126989</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.346592</v>
+        <v>0.147195</v>
       </c>
       <c r="C56" t="n">
-        <v>0.329834</v>
+        <v>0.128758</v>
       </c>
       <c r="D56" t="n">
-        <v>0.318568</v>
+        <v>0.131451</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.347489</v>
+        <v>0.152491</v>
       </c>
       <c r="C57" t="n">
-        <v>0.336439</v>
+        <v>0.138249</v>
       </c>
       <c r="D57" t="n">
-        <v>0.3255</v>
+        <v>0.137876</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.346346</v>
+        <v>0.146398</v>
       </c>
       <c r="C58" t="n">
-        <v>0.332231</v>
+        <v>0.136772</v>
       </c>
       <c r="D58" t="n">
-        <v>0.332066</v>
+        <v>0.130376</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.345126</v>
+        <v>0.150419</v>
       </c>
       <c r="C59" t="n">
-        <v>0.340724</v>
+        <v>0.145702</v>
       </c>
       <c r="D59" t="n">
-        <v>0.344454</v>
+        <v>0.131839</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.349472</v>
+        <v>0.156877</v>
       </c>
       <c r="C60" t="n">
-        <v>0.350629</v>
+        <v>0.145421</v>
       </c>
       <c r="D60" t="n">
-        <v>0.341686</v>
+        <v>0.145209</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.365783</v>
+        <v>0.160843</v>
       </c>
       <c r="C61" t="n">
-        <v>0.348258</v>
+        <v>0.151399</v>
       </c>
       <c r="D61" t="n">
-        <v>0.343984</v>
+        <v>0.143934</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.366289</v>
+        <v>0.16769</v>
       </c>
       <c r="C62" t="n">
-        <v>0.35771</v>
+        <v>0.165475</v>
       </c>
       <c r="D62" t="n">
-        <v>0.377802</v>
+        <v>0.153308</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.380969</v>
+        <v>0.185684</v>
       </c>
       <c r="C63" t="n">
-        <v>0.379291</v>
+        <v>0.182105</v>
       </c>
       <c r="D63" t="n">
-        <v>0.369716</v>
+        <v>0.170091</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.404113</v>
+        <v>0.198591</v>
       </c>
       <c r="C64" t="n">
-        <v>0.401182</v>
+        <v>0.1944</v>
       </c>
       <c r="D64" t="n">
-        <v>0.396359</v>
+        <v>0.191172</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.437094</v>
+        <v>0.21821</v>
       </c>
       <c r="C65" t="n">
-        <v>0.439381</v>
+        <v>0.219592</v>
       </c>
       <c r="D65" t="n">
-        <v>0.442803</v>
+        <v>0.20902</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.486539</v>
+        <v>0.264721</v>
       </c>
       <c r="C66" t="n">
-        <v>0.489379</v>
+        <v>0.269052</v>
       </c>
       <c r="D66" t="n">
-        <v>0.325264</v>
+        <v>0.135703</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.367466</v>
+        <v>0.165349</v>
       </c>
       <c r="C67" t="n">
-        <v>0.339125</v>
+        <v>0.142349</v>
       </c>
       <c r="D67" t="n">
-        <v>0.329104</v>
+        <v>0.137107</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.357118</v>
+        <v>0.162008</v>
       </c>
       <c r="C68" t="n">
-        <v>0.330559</v>
+        <v>0.147675</v>
       </c>
       <c r="D68" t="n">
-        <v>0.32287</v>
+        <v>0.136668</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.370908</v>
+        <v>0.160031</v>
       </c>
       <c r="C69" t="n">
-        <v>0.343154</v>
+        <v>0.150108</v>
       </c>
       <c r="D69" t="n">
-        <v>0.325277</v>
+        <v>0.136699</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.361494</v>
+        <v>0.161843</v>
       </c>
       <c r="C70" t="n">
-        <v>0.35844</v>
+        <v>0.146173</v>
       </c>
       <c r="D70" t="n">
-        <v>0.33423</v>
+        <v>0.140387</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.364717</v>
+        <v>0.166993</v>
       </c>
       <c r="C71" t="n">
-        <v>0.337823</v>
+        <v>0.151819</v>
       </c>
       <c r="D71" t="n">
-        <v>0.335625</v>
+        <v>0.141158</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.367709</v>
+        <v>0.17237</v>
       </c>
       <c r="C72" t="n">
-        <v>0.352366</v>
+        <v>0.153855</v>
       </c>
       <c r="D72" t="n">
-        <v>0.344058</v>
+        <v>0.142045</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.378579</v>
+        <v>0.169669</v>
       </c>
       <c r="C73" t="n">
-        <v>0.348693</v>
+        <v>0.155406</v>
       </c>
       <c r="D73" t="n">
-        <v>0.338729</v>
+        <v>0.145652</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.371087</v>
+        <v>0.174131</v>
       </c>
       <c r="C74" t="n">
-        <v>0.36508</v>
+        <v>0.161737</v>
       </c>
       <c r="D74" t="n">
-        <v>0.33675</v>
+        <v>0.146043</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.391228</v>
+        <v>0.18117</v>
       </c>
       <c r="C75" t="n">
-        <v>0.397014</v>
+        <v>0.169631</v>
       </c>
       <c r="D75" t="n">
-        <v>0.419547</v>
+        <v>0.153998</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.489666</v>
+        <v>0.187522</v>
       </c>
       <c r="C76" t="n">
-        <v>0.424502</v>
+        <v>0.179972</v>
       </c>
       <c r="D76" t="n">
-        <v>0.393354</v>
+        <v>0.164942</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.440973</v>
+        <v>0.204881</v>
       </c>
       <c r="C77" t="n">
-        <v>0.437346</v>
+        <v>0.192761</v>
       </c>
       <c r="D77" t="n">
-        <v>0.404358</v>
+        <v>0.18289</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.418443</v>
+        <v>0.219346</v>
       </c>
       <c r="C78" t="n">
-        <v>0.427601</v>
+        <v>0.208062</v>
       </c>
       <c r="D78" t="n">
-        <v>0.407601</v>
+        <v>0.195257</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.467322</v>
+        <v>0.236583</v>
       </c>
       <c r="C79" t="n">
-        <v>0.465658</v>
+        <v>0.235667</v>
       </c>
       <c r="D79" t="n">
-        <v>0.450065</v>
+        <v>0.214392</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.519096</v>
+        <v>0.273494</v>
       </c>
       <c r="C80" t="n">
-        <v>0.511517</v>
+        <v>0.29327</v>
       </c>
       <c r="D80" t="n">
-        <v>0.331273</v>
+        <v>0.139397</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.371256</v>
+        <v>0.173044</v>
       </c>
       <c r="C81" t="n">
-        <v>0.34348</v>
+        <v>0.154296</v>
       </c>
       <c r="D81" t="n">
-        <v>0.336636</v>
+        <v>0.145705</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.383868</v>
+        <v>0.181188</v>
       </c>
       <c r="C82" t="n">
-        <v>0.351725</v>
+        <v>0.155072</v>
       </c>
       <c r="D82" t="n">
-        <v>0.344791</v>
+        <v>0.149913</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.380023</v>
+        <v>0.173738</v>
       </c>
       <c r="C83" t="n">
-        <v>0.344981</v>
+        <v>0.160629</v>
       </c>
       <c r="D83" t="n">
-        <v>0.337543</v>
+        <v>0.147863</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.380961</v>
+        <v>0.180317</v>
       </c>
       <c r="C84" t="n">
-        <v>0.355943</v>
+        <v>0.169416</v>
       </c>
       <c r="D84" t="n">
-        <v>0.361275</v>
+        <v>0.148503</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.392301</v>
+        <v>0.181842</v>
       </c>
       <c r="C85" t="n">
-        <v>0.35526</v>
+        <v>0.164477</v>
       </c>
       <c r="D85" t="n">
-        <v>0.344132</v>
+        <v>0.149878</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.387983</v>
+        <v>0.182745</v>
       </c>
       <c r="C86" t="n">
-        <v>0.363511</v>
+        <v>0.16454</v>
       </c>
       <c r="D86" t="n">
-        <v>0.340863</v>
+        <v>0.149667</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.403999</v>
+        <v>0.189321</v>
       </c>
       <c r="C87" t="n">
-        <v>0.368198</v>
+        <v>0.179148</v>
       </c>
       <c r="D87" t="n">
-        <v>0.349585</v>
+        <v>0.150837</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.408172</v>
+        <v>0.193468</v>
       </c>
       <c r="C88" t="n">
-        <v>0.379426</v>
+        <v>0.179929</v>
       </c>
       <c r="D88" t="n">
-        <v>0.351829</v>
+        <v>0.160517</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.43809</v>
+        <v>0.204124</v>
       </c>
       <c r="C89" t="n">
-        <v>0.389509</v>
+        <v>0.189109</v>
       </c>
       <c r="D89" t="n">
-        <v>0.367288</v>
+        <v>0.173877</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.425542</v>
+        <v>0.210718</v>
       </c>
       <c r="C90" t="n">
-        <v>0.405555</v>
+        <v>0.202834</v>
       </c>
       <c r="D90" t="n">
-        <v>0.39946</v>
+        <v>0.171508</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.443237</v>
+        <v>0.230491</v>
       </c>
       <c r="C91" t="n">
-        <v>0.418939</v>
+        <v>0.217262</v>
       </c>
       <c r="D91" t="n">
-        <v>0.39413</v>
+        <v>0.186575</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.459881</v>
+        <v>0.243755</v>
       </c>
       <c r="C92" t="n">
-        <v>0.448125</v>
+        <v>0.239524</v>
       </c>
       <c r="D92" t="n">
-        <v>0.430538</v>
+        <v>0.207301</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.499418</v>
+        <v>0.265724</v>
       </c>
       <c r="C93" t="n">
-        <v>0.493054</v>
+        <v>0.267863</v>
       </c>
       <c r="D93" t="n">
-        <v>0.458446</v>
+        <v>0.229093</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.561518</v>
+        <v>0.313824</v>
       </c>
       <c r="C94" t="n">
-        <v>0.556893</v>
+        <v>0.313351</v>
       </c>
       <c r="D94" t="n">
-        <v>0.348373</v>
+        <v>0.16435</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.423707</v>
+        <v>0.210973</v>
       </c>
       <c r="C95" t="n">
-        <v>0.400056</v>
+        <v>0.1927</v>
       </c>
       <c r="D95" t="n">
-        <v>0.360264</v>
+        <v>0.164279</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.435329</v>
+        <v>0.216138</v>
       </c>
       <c r="C96" t="n">
-        <v>0.396081</v>
+        <v>0.194697</v>
       </c>
       <c r="D96" t="n">
-        <v>0.358961</v>
+        <v>0.162903</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.432095</v>
+        <v>0.212363</v>
       </c>
       <c r="C97" t="n">
-        <v>0.399672</v>
+        <v>0.202451</v>
       </c>
       <c r="D97" t="n">
-        <v>0.367792</v>
+        <v>0.170732</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.425883</v>
+        <v>0.223718</v>
       </c>
       <c r="C98" t="n">
-        <v>0.40165</v>
+        <v>0.206535</v>
       </c>
       <c r="D98" t="n">
-        <v>0.381942</v>
+        <v>0.17029</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.436545</v>
+        <v>0.224837</v>
       </c>
       <c r="C99" t="n">
-        <v>0.40413</v>
+        <v>0.211664</v>
       </c>
       <c r="D99" t="n">
-        <v>0.376826</v>
+        <v>0.1725</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.443969</v>
+        <v>0.232864</v>
       </c>
       <c r="C100" t="n">
-        <v>0.423934</v>
+        <v>0.226456</v>
       </c>
       <c r="D100" t="n">
-        <v>0.381686</v>
+        <v>0.176239</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.458294</v>
+        <v>0.239364</v>
       </c>
       <c r="C101" t="n">
-        <v>0.441325</v>
+        <v>0.222369</v>
       </c>
       <c r="D101" t="n">
-        <v>0.388527</v>
+        <v>0.17969</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.471671</v>
+        <v>0.242026</v>
       </c>
       <c r="C102" t="n">
-        <v>0.441812</v>
+        <v>0.228335</v>
       </c>
       <c r="D102" t="n">
-        <v>0.389713</v>
+        <v>0.191321</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.484018</v>
+        <v>0.24307</v>
       </c>
       <c r="C103" t="n">
-        <v>0.451798</v>
+        <v>0.236836</v>
       </c>
       <c r="D103" t="n">
-        <v>0.404606</v>
+        <v>0.190283</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.477909</v>
+        <v>0.253854</v>
       </c>
       <c r="C104" t="n">
-        <v>0.470637</v>
+        <v>0.244573</v>
       </c>
       <c r="D104" t="n">
-        <v>0.409574</v>
+        <v>0.201459</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.502771</v>
+        <v>0.26932</v>
       </c>
       <c r="C105" t="n">
-        <v>0.475398</v>
+        <v>0.26464</v>
       </c>
       <c r="D105" t="n">
-        <v>0.441441</v>
+        <v>0.213764</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.529219</v>
+        <v>0.292038</v>
       </c>
       <c r="C106" t="n">
-        <v>0.525827</v>
+        <v>0.291115</v>
       </c>
       <c r="D106" t="n">
-        <v>0.457615</v>
+        <v>0.241612</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.560407</v>
+        <v>0.318918</v>
       </c>
       <c r="C107" t="n">
-        <v>0.54838</v>
+        <v>0.327775</v>
       </c>
       <c r="D107" t="n">
-        <v>0.48988</v>
+        <v>0.267811</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.635457</v>
+        <v>0.374031</v>
       </c>
       <c r="C108" t="n">
-        <v>0.628985</v>
+        <v>0.369596</v>
       </c>
       <c r="D108" t="n">
-        <v>0.486629</v>
+        <v>0.242797</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.714383</v>
+        <v>0.440868</v>
       </c>
       <c r="C109" t="n">
-        <v>0.720131</v>
+        <v>0.452844</v>
       </c>
       <c r="D109" t="n">
-        <v>0.492756</v>
+        <v>0.253578</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.572706</v>
+        <v>0.305668</v>
       </c>
       <c r="C110" t="n">
-        <v>0.517958</v>
+        <v>0.276518</v>
       </c>
       <c r="D110" t="n">
-        <v>0.485326</v>
+        <v>0.248612</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.585141</v>
+        <v>0.307785</v>
       </c>
       <c r="C111" t="n">
-        <v>0.540857</v>
+        <v>0.291497</v>
       </c>
       <c r="D111" t="n">
-        <v>0.495856</v>
+        <v>0.248471</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.589476</v>
+        <v>0.318965</v>
       </c>
       <c r="C112" t="n">
-        <v>0.531976</v>
+        <v>0.287479</v>
       </c>
       <c r="D112" t="n">
-        <v>0.498177</v>
+        <v>0.252444</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.565534</v>
+        <v>0.313564</v>
       </c>
       <c r="C113" t="n">
-        <v>0.555993</v>
+        <v>0.304621</v>
       </c>
       <c r="D113" t="n">
-        <v>0.503858</v>
+        <v>0.260896</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.577341</v>
+        <v>0.323355</v>
       </c>
       <c r="C114" t="n">
-        <v>0.5352170000000001</v>
+        <v>0.311716</v>
       </c>
       <c r="D114" t="n">
-        <v>0.503643</v>
+        <v>0.265164</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.595222</v>
+        <v>0.333507</v>
       </c>
       <c r="C115" t="n">
-        <v>0.561207</v>
+        <v>0.307078</v>
       </c>
       <c r="D115" t="n">
-        <v>0.499708</v>
+        <v>0.276801</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.591276</v>
+        <v>0.340032</v>
       </c>
       <c r="C116" t="n">
-        <v>0.594772</v>
+        <v>0.318833</v>
       </c>
       <c r="D116" t="n">
-        <v>0.526335</v>
+        <v>0.278188</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.625573</v>
+        <v>0.337655</v>
       </c>
       <c r="C117" t="n">
-        <v>0.6026280000000001</v>
+        <v>0.334947</v>
       </c>
       <c r="D117" t="n">
-        <v>0.532446</v>
+        <v>0.290504</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.651107</v>
+        <v>0.359995</v>
       </c>
       <c r="C118" t="n">
-        <v>0.60676</v>
+        <v>0.345902</v>
       </c>
       <c r="D118" t="n">
-        <v>0.537009</v>
+        <v>0.300332</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.654981</v>
+        <v>0.381362</v>
       </c>
       <c r="C119" t="n">
-        <v>0.640443</v>
+        <v>0.351205</v>
       </c>
       <c r="D119" t="n">
-        <v>0.547088</v>
+        <v>0.303081</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.675935</v>
+        <v>0.386715</v>
       </c>
       <c r="C120" t="n">
-        <v>0.6758</v>
+        <v>0.372276</v>
       </c>
       <c r="D120" t="n">
-        <v>0.578637</v>
+        <v>0.328136</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.721051</v>
+        <v>0.420274</v>
       </c>
       <c r="C121" t="n">
-        <v>0.714283</v>
+        <v>0.408812</v>
       </c>
       <c r="D121" t="n">
-        <v>0.635804</v>
+        <v>0.347321</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.784871</v>
+        <v>0.44914</v>
       </c>
       <c r="C122" t="n">
-        <v>0.763688</v>
+        <v>0.480043</v>
       </c>
       <c r="D122" t="n">
-        <v>0.6840309999999999</v>
+        <v>0.389489</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.844731</v>
+        <v>0.525002</v>
       </c>
       <c r="C123" t="n">
-        <v>0.858869</v>
+        <v>0.528428</v>
       </c>
       <c r="D123" t="n">
-        <v>0.772826</v>
+        <v>0.418075</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.925111</v>
+        <v>0.513377</v>
       </c>
       <c r="C124" t="n">
-        <v>0.840669</v>
+        <v>0.475151</v>
       </c>
       <c r="D124" t="n">
-        <v>0.74848</v>
+        <v>0.422814</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.944805</v>
+        <v>0.527967</v>
       </c>
       <c r="C125" t="n">
-        <v>0.816424</v>
+        <v>0.479832</v>
       </c>
       <c r="D125" t="n">
-        <v>0.7605769999999999</v>
+        <v>0.425712</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.88952</v>
+        <v>0.522691</v>
       </c>
       <c r="C126" t="n">
-        <v>0.848241</v>
+        <v>0.47831</v>
       </c>
       <c r="D126" t="n">
-        <v>0.799624</v>
+        <v>0.426859</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.946982</v>
+        <v>0.5508459999999999</v>
       </c>
       <c r="C127" t="n">
-        <v>0.843024</v>
+        <v>0.484186</v>
       </c>
       <c r="D127" t="n">
-        <v>0.778819</v>
+        <v>0.44032</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.936605</v>
+        <v>0.538581</v>
       </c>
       <c r="C128" t="n">
-        <v>0.843162</v>
+        <v>0.489439</v>
       </c>
       <c r="D128" t="n">
-        <v>0.756042</v>
+        <v>0.442022</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.954681</v>
+        <v>0.54023</v>
       </c>
       <c r="C129" t="n">
-        <v>0.892969</v>
+        <v>0.497815</v>
       </c>
       <c r="D129" t="n">
-        <v>0.811764</v>
+        <v>0.438146</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.966498</v>
+        <v>0.555103</v>
       </c>
       <c r="C130" t="n">
-        <v>0.885085</v>
+        <v>0.504943</v>
       </c>
       <c r="D130" t="n">
-        <v>0.836059</v>
+        <v>0.450222</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.945658</v>
+        <v>0.567641</v>
       </c>
       <c r="C131" t="n">
-        <v>0.943132</v>
+        <v>0.512537</v>
       </c>
       <c r="D131" t="n">
-        <v>0.804085</v>
+        <v>0.462228</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.01336</v>
+        <v>0.572997</v>
       </c>
       <c r="C132" t="n">
-        <v>0.898471</v>
+        <v>0.522919</v>
       </c>
       <c r="D132" t="n">
-        <v>0.816138</v>
+        <v>0.464537</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.02551</v>
+        <v>0.590959</v>
       </c>
       <c r="C133" t="n">
-        <v>0.934549</v>
+        <v>0.553416</v>
       </c>
       <c r="D133" t="n">
-        <v>0.8455549999999999</v>
+        <v>0.480978</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.04691</v>
+        <v>0.616053</v>
       </c>
       <c r="C134" t="n">
-        <v>0.995549</v>
+        <v>0.567686</v>
       </c>
       <c r="D134" t="n">
-        <v>0.900289</v>
+        <v>0.5062720000000001</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.06283</v>
+        <v>0.628165</v>
       </c>
       <c r="C135" t="n">
-        <v>1.04615</v>
+        <v>0.604357</v>
       </c>
       <c r="D135" t="n">
-        <v>0.899088</v>
+        <v>0.508987</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.1244</v>
+        <v>0.691925</v>
       </c>
       <c r="C136" t="n">
-        <v>1.0984</v>
+        <v>0.661198</v>
       </c>
       <c r="D136" t="n">
-        <v>0.967842</v>
+        <v>0.566366</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.25237</v>
+        <v>0.774438</v>
       </c>
       <c r="C137" t="n">
-        <v>1.21741</v>
+        <v>0.732409</v>
       </c>
       <c r="D137" t="n">
-        <v>0.997951</v>
+        <v>0.553742</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.22524</v>
+        <v>0.669756</v>
       </c>
       <c r="C138" t="n">
-        <v>1.05857</v>
+        <v>0.589879</v>
       </c>
       <c r="D138" t="n">
-        <v>1.00729</v>
+        <v>0.541221</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.19009</v>
+        <v>0.671446</v>
       </c>
       <c r="C139" t="n">
-        <v>1.09226</v>
+        <v>0.596334</v>
       </c>
       <c r="D139" t="n">
-        <v>0.996924</v>
+        <v>0.548897</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.23791</v>
+        <v>0.696529</v>
       </c>
       <c r="C140" t="n">
-        <v>1.06722</v>
+        <v>0.599294</v>
       </c>
       <c r="D140" t="n">
-        <v>1.00568</v>
+        <v>0.5557260000000001</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.19836</v>
+        <v>0.690954</v>
       </c>
       <c r="C141" t="n">
-        <v>1.06442</v>
+        <v>0.616378</v>
       </c>
       <c r="D141" t="n">
-        <v>1.02554</v>
+        <v>0.561163</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.25976</v>
+        <v>0.716382</v>
       </c>
       <c r="C142" t="n">
-        <v>1.08083</v>
+        <v>0.611652</v>
       </c>
       <c r="D142" t="n">
-        <v>1.06943</v>
+        <v>0.565124</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.25017</v>
+        <v>0.696338</v>
       </c>
       <c r="C143" t="n">
-        <v>1.09528</v>
+        <v>0.619727</v>
       </c>
       <c r="D143" t="n">
-        <v>1.04596</v>
+        <v>0.580152</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered unsuccessful looukp.xlsx
+++ b/vs-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.125579</v>
+        <v>0.124395</v>
       </c>
       <c r="C2" t="n">
-        <v>0.122227</v>
+        <v>0.123792</v>
       </c>
       <c r="D2" t="n">
-        <v>0.128149</v>
+        <v>0.123482</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.130472</v>
+        <v>0.128776</v>
       </c>
       <c r="C3" t="n">
-        <v>0.126921</v>
+        <v>0.128096</v>
       </c>
       <c r="D3" t="n">
-        <v>0.125237</v>
+        <v>0.127681</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.130787</v>
+        <v>0.13511</v>
       </c>
       <c r="C4" t="n">
-        <v>0.133924</v>
+        <v>0.133564</v>
       </c>
       <c r="D4" t="n">
-        <v>0.132853</v>
+        <v>0.131181</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.146406</v>
+        <v>0.140913</v>
       </c>
       <c r="C5" t="n">
-        <v>0.147166</v>
+        <v>0.149538</v>
       </c>
       <c r="D5" t="n">
-        <v>0.139171</v>
+        <v>0.139868</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.150592</v>
+        <v>0.150342</v>
       </c>
       <c r="C6" t="n">
-        <v>0.156058</v>
+        <v>0.15249</v>
       </c>
       <c r="D6" t="n">
-        <v>0.154363</v>
+        <v>0.148534</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.160132</v>
+        <v>0.16348</v>
       </c>
       <c r="C7" t="n">
-        <v>0.169613</v>
+        <v>0.169588</v>
       </c>
       <c r="D7" t="n">
-        <v>0.161516</v>
+        <v>0.161545</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.178876</v>
+        <v>0.179208</v>
       </c>
       <c r="C8" t="n">
-        <v>0.19136</v>
+        <v>0.192402</v>
       </c>
       <c r="D8" t="n">
-        <v>0.188244</v>
+        <v>0.181488</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.215646</v>
+        <v>0.222212</v>
       </c>
       <c r="C9" t="n">
-        <v>0.225116</v>
+        <v>0.22754</v>
       </c>
       <c r="D9" t="n">
-        <v>0.11909</v>
+        <v>0.115345</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.124206</v>
+        <v>0.122744</v>
       </c>
       <c r="C10" t="n">
-        <v>0.117389</v>
+        <v>0.118091</v>
       </c>
       <c r="D10" t="n">
-        <v>0.120828</v>
+        <v>0.119126</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.131149</v>
+        <v>0.125458</v>
       </c>
       <c r="C11" t="n">
-        <v>0.116942</v>
+        <v>0.123586</v>
       </c>
       <c r="D11" t="n">
-        <v>0.117205</v>
+        <v>0.123765</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.128396</v>
+        <v>0.12632</v>
       </c>
       <c r="C12" t="n">
-        <v>0.119948</v>
+        <v>0.119075</v>
       </c>
       <c r="D12" t="n">
-        <v>0.119575</v>
+        <v>0.118107</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.124792</v>
+        <v>0.126442</v>
       </c>
       <c r="C13" t="n">
-        <v>0.12033</v>
+        <v>0.119292</v>
       </c>
       <c r="D13" t="n">
-        <v>0.118983</v>
+        <v>0.119484</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.12704</v>
+        <v>0.127829</v>
       </c>
       <c r="C14" t="n">
-        <v>0.126098</v>
+        <v>0.123602</v>
       </c>
       <c r="D14" t="n">
-        <v>0.120606</v>
+        <v>0.119287</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.131502</v>
+        <v>0.129016</v>
       </c>
       <c r="C15" t="n">
-        <v>0.121927</v>
+        <v>0.124597</v>
       </c>
       <c r="D15" t="n">
-        <v>0.120918</v>
+        <v>0.123111</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.129313</v>
+        <v>0.130161</v>
       </c>
       <c r="C16" t="n">
-        <v>0.126074</v>
+        <v>0.126244</v>
       </c>
       <c r="D16" t="n">
-        <v>0.123851</v>
+        <v>0.123023</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.133033</v>
+        <v>0.133232</v>
       </c>
       <c r="C17" t="n">
-        <v>0.129818</v>
+        <v>0.132043</v>
       </c>
       <c r="D17" t="n">
-        <v>0.12742</v>
+        <v>0.125765</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.135852</v>
+        <v>0.140454</v>
       </c>
       <c r="C18" t="n">
-        <v>0.136512</v>
+        <v>0.135431</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1305</v>
+        <v>0.133301</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.142924</v>
+        <v>0.146364</v>
       </c>
       <c r="C19" t="n">
-        <v>0.142037</v>
+        <v>0.139711</v>
       </c>
       <c r="D19" t="n">
-        <v>0.138561</v>
+        <v>0.135319</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.153974</v>
+        <v>0.153965</v>
       </c>
       <c r="C20" t="n">
-        <v>0.154927</v>
+        <v>0.155905</v>
       </c>
       <c r="D20" t="n">
-        <v>0.152137</v>
+        <v>0.148802</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.170864</v>
+        <v>0.167199</v>
       </c>
       <c r="C21" t="n">
-        <v>0.167442</v>
+        <v>0.166714</v>
       </c>
       <c r="D21" t="n">
-        <v>0.160687</v>
+        <v>0.157257</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.18639</v>
+        <v>0.189503</v>
       </c>
       <c r="C22" t="n">
-        <v>0.192138</v>
+        <v>0.188002</v>
       </c>
       <c r="D22" t="n">
-        <v>0.182618</v>
+        <v>0.180568</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.221556</v>
+        <v>0.235368</v>
       </c>
       <c r="C23" t="n">
-        <v>0.224491</v>
+        <v>0.227162</v>
       </c>
       <c r="D23" t="n">
-        <v>0.119138</v>
+        <v>0.120259</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.129836</v>
+        <v>0.12899</v>
       </c>
       <c r="C24" t="n">
-        <v>0.122215</v>
+        <v>0.118962</v>
       </c>
       <c r="D24" t="n">
-        <v>0.119692</v>
+        <v>0.117835</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.1382</v>
+        <v>0.134954</v>
       </c>
       <c r="C25" t="n">
-        <v>0.122024</v>
+        <v>0.120508</v>
       </c>
       <c r="D25" t="n">
-        <v>0.127002</v>
+        <v>0.121177</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.132261</v>
+        <v>0.130656</v>
       </c>
       <c r="C26" t="n">
-        <v>0.120098</v>
+        <v>0.125929</v>
       </c>
       <c r="D26" t="n">
-        <v>0.120187</v>
+        <v>0.124452</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.131009</v>
+        <v>0.131282</v>
       </c>
       <c r="C27" t="n">
-        <v>0.121304</v>
+        <v>0.120685</v>
       </c>
       <c r="D27" t="n">
-        <v>0.120593</v>
+        <v>0.125504</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.133006</v>
+        <v>0.135616</v>
       </c>
       <c r="C28" t="n">
-        <v>0.121237</v>
+        <v>0.126815</v>
       </c>
       <c r="D28" t="n">
-        <v>0.121531</v>
+        <v>0.122638</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.140266</v>
+        <v>0.134315</v>
       </c>
       <c r="C29" t="n">
-        <v>0.130935</v>
+        <v>0.127276</v>
       </c>
       <c r="D29" t="n">
-        <v>0.12567</v>
+        <v>0.129423</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.135222</v>
+        <v>0.137213</v>
       </c>
       <c r="C30" t="n">
-        <v>0.128565</v>
+        <v>0.127067</v>
       </c>
       <c r="D30" t="n">
-        <v>0.124979</v>
+        <v>0.125209</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.13985</v>
+        <v>0.138622</v>
       </c>
       <c r="C31" t="n">
-        <v>0.135141</v>
+        <v>0.129248</v>
       </c>
       <c r="D31" t="n">
-        <v>0.128815</v>
+        <v>0.127444</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.142878</v>
+        <v>0.150515</v>
       </c>
       <c r="C32" t="n">
-        <v>0.136404</v>
+        <v>0.136922</v>
       </c>
       <c r="D32" t="n">
-        <v>0.131408</v>
+        <v>0.133452</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.14692</v>
+        <v>0.148747</v>
       </c>
       <c r="C33" t="n">
-        <v>0.141643</v>
+        <v>0.144329</v>
       </c>
       <c r="D33" t="n">
-        <v>0.141457</v>
+        <v>0.143293</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.160227</v>
+        <v>0.159519</v>
       </c>
       <c r="C34" t="n">
-        <v>0.155404</v>
+        <v>0.150498</v>
       </c>
       <c r="D34" t="n">
-        <v>0.148874</v>
+        <v>0.14845</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.171522</v>
+        <v>0.170345</v>
       </c>
       <c r="C35" t="n">
-        <v>0.166033</v>
+        <v>0.16375</v>
       </c>
       <c r="D35" t="n">
-        <v>0.161108</v>
+        <v>0.165625</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.184538</v>
+        <v>0.190491</v>
       </c>
       <c r="C36" t="n">
-        <v>0.184913</v>
+        <v>0.187848</v>
       </c>
       <c r="D36" t="n">
-        <v>0.186906</v>
+        <v>0.185176</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.216572</v>
+        <v>0.220572</v>
       </c>
       <c r="C37" t="n">
-        <v>0.218979</v>
+        <v>0.21499</v>
       </c>
       <c r="D37" t="n">
-        <v>0.123158</v>
+        <v>0.120314</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.134373</v>
+        <v>0.134898</v>
       </c>
       <c r="C38" t="n">
-        <v>0.123568</v>
+        <v>0.121901</v>
       </c>
       <c r="D38" t="n">
-        <v>0.122637</v>
+        <v>0.118725</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.134703</v>
+        <v>0.143591</v>
       </c>
       <c r="C39" t="n">
-        <v>0.123119</v>
+        <v>0.122738</v>
       </c>
       <c r="D39" t="n">
-        <v>0.122203</v>
+        <v>0.12129</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.135886</v>
+        <v>0.13339</v>
       </c>
       <c r="C40" t="n">
-        <v>0.124023</v>
+        <v>0.124783</v>
       </c>
       <c r="D40" t="n">
-        <v>0.124618</v>
+        <v>0.124495</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.133652</v>
+        <v>0.132695</v>
       </c>
       <c r="C41" t="n">
-        <v>0.124087</v>
+        <v>0.126472</v>
       </c>
       <c r="D41" t="n">
-        <v>0.122734</v>
+        <v>0.122025</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.134897</v>
+        <v>0.140013</v>
       </c>
       <c r="C42" t="n">
-        <v>0.124983</v>
+        <v>0.128297</v>
       </c>
       <c r="D42" t="n">
-        <v>0.122458</v>
+        <v>0.122977</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.134883</v>
+        <v>0.136589</v>
       </c>
       <c r="C43" t="n">
-        <v>0.125256</v>
+        <v>0.125479</v>
       </c>
       <c r="D43" t="n">
-        <v>0.12335</v>
+        <v>0.121865</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.142754</v>
+        <v>0.140557</v>
       </c>
       <c r="C44" t="n">
-        <v>0.132026</v>
+        <v>0.129506</v>
       </c>
       <c r="D44" t="n">
-        <v>0.128796</v>
+        <v>0.128148</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.143684</v>
+        <v>0.143014</v>
       </c>
       <c r="C45" t="n">
-        <v>0.131354</v>
+        <v>0.131337</v>
       </c>
       <c r="D45" t="n">
-        <v>0.132618</v>
+        <v>0.128777</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.14229</v>
+        <v>0.143864</v>
       </c>
       <c r="C46" t="n">
-        <v>0.140981</v>
+        <v>0.135233</v>
       </c>
       <c r="D46" t="n">
-        <v>0.134932</v>
+        <v>0.135998</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.149401</v>
+        <v>0.153874</v>
       </c>
       <c r="C47" t="n">
-        <v>0.146105</v>
+        <v>0.140499</v>
       </c>
       <c r="D47" t="n">
-        <v>0.140811</v>
+        <v>0.139283</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.157806</v>
+        <v>0.157393</v>
       </c>
       <c r="C48" t="n">
-        <v>0.152618</v>
+        <v>0.148706</v>
       </c>
       <c r="D48" t="n">
-        <v>0.146865</v>
+        <v>0.15089</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.174148</v>
+        <v>0.171636</v>
       </c>
       <c r="C49" t="n">
-        <v>0.163828</v>
+        <v>0.163679</v>
       </c>
       <c r="D49" t="n">
-        <v>0.15805</v>
+        <v>0.16179</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.185744</v>
+        <v>0.183875</v>
       </c>
       <c r="C50" t="n">
-        <v>0.182178</v>
+        <v>0.191181</v>
       </c>
       <c r="D50" t="n">
-        <v>0.175694</v>
+        <v>0.180481</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.217619</v>
+        <v>0.22152</v>
       </c>
       <c r="C51" t="n">
-        <v>0.215441</v>
+        <v>0.211849</v>
       </c>
       <c r="D51" t="n">
-        <v>0.12507</v>
+        <v>0.123621</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.262016</v>
+        <v>0.265163</v>
       </c>
       <c r="C52" t="n">
-        <v>0.261184</v>
+        <v>0.260381</v>
       </c>
       <c r="D52" t="n">
-        <v>0.126039</v>
+        <v>0.122681</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.140801</v>
+        <v>0.145505</v>
       </c>
       <c r="C53" t="n">
-        <v>0.129027</v>
+        <v>0.13092</v>
       </c>
       <c r="D53" t="n">
-        <v>0.129801</v>
+        <v>0.124719</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.143414</v>
+        <v>0.145047</v>
       </c>
       <c r="C54" t="n">
-        <v>0.128426</v>
+        <v>0.134009</v>
       </c>
       <c r="D54" t="n">
-        <v>0.125213</v>
+        <v>0.130919</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.145945</v>
+        <v>0.151504</v>
       </c>
       <c r="C55" t="n">
-        <v>0.132382</v>
+        <v>0.131049</v>
       </c>
       <c r="D55" t="n">
-        <v>0.126989</v>
+        <v>0.127647</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.147195</v>
+        <v>0.150008</v>
       </c>
       <c r="C56" t="n">
-        <v>0.128758</v>
+        <v>0.131407</v>
       </c>
       <c r="D56" t="n">
-        <v>0.131451</v>
+        <v>0.125534</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.152491</v>
+        <v>0.150509</v>
       </c>
       <c r="C57" t="n">
-        <v>0.138249</v>
+        <v>0.134164</v>
       </c>
       <c r="D57" t="n">
-        <v>0.137876</v>
+        <v>0.131135</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.146398</v>
+        <v>0.151923</v>
       </c>
       <c r="C58" t="n">
-        <v>0.136772</v>
+        <v>0.134445</v>
       </c>
       <c r="D58" t="n">
-        <v>0.130376</v>
+        <v>0.134892</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.150419</v>
+        <v>0.150032</v>
       </c>
       <c r="C59" t="n">
-        <v>0.145702</v>
+        <v>0.142134</v>
       </c>
       <c r="D59" t="n">
-        <v>0.131839</v>
+        <v>0.134308</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.156877</v>
+        <v>0.155357</v>
       </c>
       <c r="C60" t="n">
-        <v>0.145421</v>
+        <v>0.144076</v>
       </c>
       <c r="D60" t="n">
-        <v>0.145209</v>
+        <v>0.143658</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.160843</v>
+        <v>0.166109</v>
       </c>
       <c r="C61" t="n">
-        <v>0.151399</v>
+        <v>0.152293</v>
       </c>
       <c r="D61" t="n">
-        <v>0.143934</v>
+        <v>0.145976</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.16769</v>
+        <v>0.168092</v>
       </c>
       <c r="C62" t="n">
-        <v>0.165475</v>
+        <v>0.159451</v>
       </c>
       <c r="D62" t="n">
-        <v>0.153308</v>
+        <v>0.157514</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.185684</v>
+        <v>0.185134</v>
       </c>
       <c r="C63" t="n">
-        <v>0.182105</v>
+        <v>0.170414</v>
       </c>
       <c r="D63" t="n">
-        <v>0.170091</v>
+        <v>0.16323</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.198591</v>
+        <v>0.194833</v>
       </c>
       <c r="C64" t="n">
-        <v>0.1944</v>
+        <v>0.193116</v>
       </c>
       <c r="D64" t="n">
-        <v>0.191172</v>
+        <v>0.188595</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.21821</v>
+        <v>0.225193</v>
       </c>
       <c r="C65" t="n">
-        <v>0.219592</v>
+        <v>0.218661</v>
       </c>
       <c r="D65" t="n">
-        <v>0.20902</v>
+        <v>0.207594</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.264721</v>
+        <v>0.264329</v>
       </c>
       <c r="C66" t="n">
-        <v>0.269052</v>
+        <v>0.268164</v>
       </c>
       <c r="D66" t="n">
-        <v>0.135703</v>
+        <v>0.135803</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.165349</v>
+        <v>0.161122</v>
       </c>
       <c r="C67" t="n">
-        <v>0.142349</v>
+        <v>0.143617</v>
       </c>
       <c r="D67" t="n">
-        <v>0.137107</v>
+        <v>0.136174</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.162008</v>
+        <v>0.160247</v>
       </c>
       <c r="C68" t="n">
-        <v>0.147675</v>
+        <v>0.147461</v>
       </c>
       <c r="D68" t="n">
-        <v>0.136668</v>
+        <v>0.134722</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.160031</v>
+        <v>0.164147</v>
       </c>
       <c r="C69" t="n">
-        <v>0.150108</v>
+        <v>0.147567</v>
       </c>
       <c r="D69" t="n">
-        <v>0.136699</v>
+        <v>0.138659</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.161843</v>
+        <v>0.171725</v>
       </c>
       <c r="C70" t="n">
-        <v>0.146173</v>
+        <v>0.151183</v>
       </c>
       <c r="D70" t="n">
-        <v>0.140387</v>
+        <v>0.139246</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.166993</v>
+        <v>0.165893</v>
       </c>
       <c r="C71" t="n">
-        <v>0.151819</v>
+        <v>0.153945</v>
       </c>
       <c r="D71" t="n">
-        <v>0.141158</v>
+        <v>0.138496</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.17237</v>
+        <v>0.173826</v>
       </c>
       <c r="C72" t="n">
-        <v>0.153855</v>
+        <v>0.148768</v>
       </c>
       <c r="D72" t="n">
-        <v>0.142045</v>
+        <v>0.147061</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.169669</v>
+        <v>0.173612</v>
       </c>
       <c r="C73" t="n">
-        <v>0.155406</v>
+        <v>0.153712</v>
       </c>
       <c r="D73" t="n">
-        <v>0.145652</v>
+        <v>0.141096</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.174131</v>
+        <v>0.176967</v>
       </c>
       <c r="C74" t="n">
-        <v>0.161737</v>
+        <v>0.164789</v>
       </c>
       <c r="D74" t="n">
-        <v>0.146043</v>
+        <v>0.149889</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.18117</v>
+        <v>0.184486</v>
       </c>
       <c r="C75" t="n">
-        <v>0.169631</v>
+        <v>0.163992</v>
       </c>
       <c r="D75" t="n">
-        <v>0.153998</v>
+        <v>0.154464</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.187522</v>
+        <v>0.190193</v>
       </c>
       <c r="C76" t="n">
-        <v>0.179972</v>
+        <v>0.177007</v>
       </c>
       <c r="D76" t="n">
-        <v>0.164942</v>
+        <v>0.164439</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.204881</v>
+        <v>0.201842</v>
       </c>
       <c r="C77" t="n">
-        <v>0.192761</v>
+        <v>0.189034</v>
       </c>
       <c r="D77" t="n">
-        <v>0.18289</v>
+        <v>0.178118</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.219346</v>
+        <v>0.214082</v>
       </c>
       <c r="C78" t="n">
-        <v>0.208062</v>
+        <v>0.208494</v>
       </c>
       <c r="D78" t="n">
-        <v>0.195257</v>
+        <v>0.19874</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.236583</v>
+        <v>0.239699</v>
       </c>
       <c r="C79" t="n">
-        <v>0.235667</v>
+        <v>0.233846</v>
       </c>
       <c r="D79" t="n">
-        <v>0.214392</v>
+        <v>0.2186</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.273494</v>
+        <v>0.276075</v>
       </c>
       <c r="C80" t="n">
-        <v>0.29327</v>
+        <v>0.278149</v>
       </c>
       <c r="D80" t="n">
-        <v>0.139397</v>
+        <v>0.143434</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.173044</v>
+        <v>0.176933</v>
       </c>
       <c r="C81" t="n">
-        <v>0.154296</v>
+        <v>0.155428</v>
       </c>
       <c r="D81" t="n">
-        <v>0.145705</v>
+        <v>0.143633</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.181188</v>
+        <v>0.174894</v>
       </c>
       <c r="C82" t="n">
-        <v>0.155072</v>
+        <v>0.153342</v>
       </c>
       <c r="D82" t="n">
-        <v>0.149913</v>
+        <v>0.144116</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.173738</v>
+        <v>0.174316</v>
       </c>
       <c r="C83" t="n">
-        <v>0.160629</v>
+        <v>0.154054</v>
       </c>
       <c r="D83" t="n">
-        <v>0.147863</v>
+        <v>0.140996</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.180317</v>
+        <v>0.178835</v>
       </c>
       <c r="C84" t="n">
-        <v>0.169416</v>
+        <v>0.160622</v>
       </c>
       <c r="D84" t="n">
-        <v>0.148503</v>
+        <v>0.146742</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.181842</v>
+        <v>0.179567</v>
       </c>
       <c r="C85" t="n">
-        <v>0.164477</v>
+        <v>0.156212</v>
       </c>
       <c r="D85" t="n">
-        <v>0.149878</v>
+        <v>0.149095</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.182745</v>
+        <v>0.181821</v>
       </c>
       <c r="C86" t="n">
-        <v>0.16454</v>
+        <v>0.165792</v>
       </c>
       <c r="D86" t="n">
-        <v>0.149667</v>
+        <v>0.151164</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.189321</v>
+        <v>0.184713</v>
       </c>
       <c r="C87" t="n">
-        <v>0.179148</v>
+        <v>0.169441</v>
       </c>
       <c r="D87" t="n">
-        <v>0.150837</v>
+        <v>0.150535</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.193468</v>
+        <v>0.188162</v>
       </c>
       <c r="C88" t="n">
-        <v>0.179929</v>
+        <v>0.178643</v>
       </c>
       <c r="D88" t="n">
-        <v>0.160517</v>
+        <v>0.156003</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.204124</v>
+        <v>0.203084</v>
       </c>
       <c r="C89" t="n">
-        <v>0.189109</v>
+        <v>0.181622</v>
       </c>
       <c r="D89" t="n">
-        <v>0.173877</v>
+        <v>0.163114</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.210718</v>
+        <v>0.21322</v>
       </c>
       <c r="C90" t="n">
-        <v>0.202834</v>
+        <v>0.199956</v>
       </c>
       <c r="D90" t="n">
-        <v>0.171508</v>
+        <v>0.175301</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.230491</v>
+        <v>0.219767</v>
       </c>
       <c r="C91" t="n">
-        <v>0.217262</v>
+        <v>0.214981</v>
       </c>
       <c r="D91" t="n">
-        <v>0.186575</v>
+        <v>0.180852</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.243755</v>
+        <v>0.248615</v>
       </c>
       <c r="C92" t="n">
-        <v>0.239524</v>
+        <v>0.234183</v>
       </c>
       <c r="D92" t="n">
-        <v>0.207301</v>
+        <v>0.205019</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.265724</v>
+        <v>0.271712</v>
       </c>
       <c r="C93" t="n">
-        <v>0.267863</v>
+        <v>0.27257</v>
       </c>
       <c r="D93" t="n">
-        <v>0.229093</v>
+        <v>0.225127</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.313824</v>
+        <v>0.310891</v>
       </c>
       <c r="C94" t="n">
-        <v>0.313351</v>
+        <v>0.316448</v>
       </c>
       <c r="D94" t="n">
-        <v>0.16435</v>
+        <v>0.161915</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.210973</v>
+        <v>0.202984</v>
       </c>
       <c r="C95" t="n">
-        <v>0.1927</v>
+        <v>0.1891</v>
       </c>
       <c r="D95" t="n">
-        <v>0.164279</v>
+        <v>0.156904</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.216138</v>
+        <v>0.208758</v>
       </c>
       <c r="C96" t="n">
-        <v>0.194697</v>
+        <v>0.19026</v>
       </c>
       <c r="D96" t="n">
-        <v>0.162903</v>
+        <v>0.161199</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.212363</v>
+        <v>0.224849</v>
       </c>
       <c r="C97" t="n">
-        <v>0.202451</v>
+        <v>0.197953</v>
       </c>
       <c r="D97" t="n">
-        <v>0.170732</v>
+        <v>0.164303</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.223718</v>
+        <v>0.217123</v>
       </c>
       <c r="C98" t="n">
-        <v>0.206535</v>
+        <v>0.196622</v>
       </c>
       <c r="D98" t="n">
-        <v>0.17029</v>
+        <v>0.166048</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.224837</v>
+        <v>0.226665</v>
       </c>
       <c r="C99" t="n">
-        <v>0.211664</v>
+        <v>0.201831</v>
       </c>
       <c r="D99" t="n">
-        <v>0.1725</v>
+        <v>0.170691</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.232864</v>
+        <v>0.232889</v>
       </c>
       <c r="C100" t="n">
-        <v>0.226456</v>
+        <v>0.20905</v>
       </c>
       <c r="D100" t="n">
-        <v>0.176239</v>
+        <v>0.175759</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.239364</v>
+        <v>0.235982</v>
       </c>
       <c r="C101" t="n">
-        <v>0.222369</v>
+        <v>0.212421</v>
       </c>
       <c r="D101" t="n">
-        <v>0.17969</v>
+        <v>0.17759</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.242026</v>
+        <v>0.24376</v>
       </c>
       <c r="C102" t="n">
-        <v>0.228335</v>
+        <v>0.223946</v>
       </c>
       <c r="D102" t="n">
-        <v>0.191321</v>
+        <v>0.186053</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.24307</v>
+        <v>0.255639</v>
       </c>
       <c r="C103" t="n">
-        <v>0.236836</v>
+        <v>0.233225</v>
       </c>
       <c r="D103" t="n">
-        <v>0.190283</v>
+        <v>0.194087</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.253854</v>
+        <v>0.257605</v>
       </c>
       <c r="C104" t="n">
-        <v>0.244573</v>
+        <v>0.248667</v>
       </c>
       <c r="D104" t="n">
-        <v>0.201459</v>
+        <v>0.202452</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.26932</v>
+        <v>0.276545</v>
       </c>
       <c r="C105" t="n">
-        <v>0.26464</v>
+        <v>0.265111</v>
       </c>
       <c r="D105" t="n">
-        <v>0.213764</v>
+        <v>0.218035</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.292038</v>
+        <v>0.289529</v>
       </c>
       <c r="C106" t="n">
-        <v>0.291115</v>
+        <v>0.289412</v>
       </c>
       <c r="D106" t="n">
-        <v>0.241612</v>
+        <v>0.238609</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.318918</v>
+        <v>0.319865</v>
       </c>
       <c r="C107" t="n">
-        <v>0.327775</v>
+        <v>0.31491</v>
       </c>
       <c r="D107" t="n">
-        <v>0.267811</v>
+        <v>0.259383</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.374031</v>
+        <v>0.374962</v>
       </c>
       <c r="C108" t="n">
-        <v>0.369596</v>
+        <v>0.365944</v>
       </c>
       <c r="D108" t="n">
-        <v>0.242797</v>
+        <v>0.241142</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.440868</v>
+        <v>0.437906</v>
       </c>
       <c r="C109" t="n">
-        <v>0.452844</v>
+        <v>0.440158</v>
       </c>
       <c r="D109" t="n">
-        <v>0.253578</v>
+        <v>0.252435</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.305668</v>
+        <v>0.298632</v>
       </c>
       <c r="C110" t="n">
-        <v>0.276518</v>
+        <v>0.273771</v>
       </c>
       <c r="D110" t="n">
-        <v>0.248612</v>
+        <v>0.25234</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.307785</v>
+        <v>0.31257</v>
       </c>
       <c r="C111" t="n">
-        <v>0.291497</v>
+        <v>0.286034</v>
       </c>
       <c r="D111" t="n">
-        <v>0.248471</v>
+        <v>0.249741</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.318965</v>
+        <v>0.305246</v>
       </c>
       <c r="C112" t="n">
-        <v>0.287479</v>
+        <v>0.295546</v>
       </c>
       <c r="D112" t="n">
-        <v>0.252444</v>
+        <v>0.265231</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.313564</v>
+        <v>0.309155</v>
       </c>
       <c r="C113" t="n">
-        <v>0.304621</v>
+        <v>0.289015</v>
       </c>
       <c r="D113" t="n">
-        <v>0.260896</v>
+        <v>0.254993</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.323355</v>
+        <v>0.310389</v>
       </c>
       <c r="C114" t="n">
-        <v>0.311716</v>
+        <v>0.300283</v>
       </c>
       <c r="D114" t="n">
-        <v>0.265164</v>
+        <v>0.266071</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.333507</v>
+        <v>0.33631</v>
       </c>
       <c r="C115" t="n">
-        <v>0.307078</v>
+        <v>0.301163</v>
       </c>
       <c r="D115" t="n">
-        <v>0.276801</v>
+        <v>0.264346</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.340032</v>
+        <v>0.323403</v>
       </c>
       <c r="C116" t="n">
-        <v>0.318833</v>
+        <v>0.308719</v>
       </c>
       <c r="D116" t="n">
-        <v>0.278188</v>
+        <v>0.266642</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.337655</v>
+        <v>0.348112</v>
       </c>
       <c r="C117" t="n">
-        <v>0.334947</v>
+        <v>0.319474</v>
       </c>
       <c r="D117" t="n">
-        <v>0.290504</v>
+        <v>0.277288</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.359995</v>
+        <v>0.346032</v>
       </c>
       <c r="C118" t="n">
-        <v>0.345902</v>
+        <v>0.330054</v>
       </c>
       <c r="D118" t="n">
-        <v>0.300332</v>
+        <v>0.286651</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.381362</v>
+        <v>0.358618</v>
       </c>
       <c r="C119" t="n">
-        <v>0.351205</v>
+        <v>0.342742</v>
       </c>
       <c r="D119" t="n">
-        <v>0.303081</v>
+        <v>0.297613</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.386715</v>
+        <v>0.382267</v>
       </c>
       <c r="C120" t="n">
-        <v>0.372276</v>
+        <v>0.377085</v>
       </c>
       <c r="D120" t="n">
-        <v>0.328136</v>
+        <v>0.310268</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.420274</v>
+        <v>0.408766</v>
       </c>
       <c r="C121" t="n">
-        <v>0.408812</v>
+        <v>0.400972</v>
       </c>
       <c r="D121" t="n">
-        <v>0.347321</v>
+        <v>0.338865</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.44914</v>
+        <v>0.444796</v>
       </c>
       <c r="C122" t="n">
-        <v>0.480043</v>
+        <v>0.451355</v>
       </c>
       <c r="D122" t="n">
-        <v>0.389489</v>
+        <v>0.379575</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.525002</v>
+        <v>0.5128200000000001</v>
       </c>
       <c r="C123" t="n">
-        <v>0.528428</v>
+        <v>0.523377</v>
       </c>
       <c r="D123" t="n">
-        <v>0.418075</v>
+        <v>0.411103</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.513377</v>
+        <v>0.4864</v>
       </c>
       <c r="C124" t="n">
-        <v>0.475151</v>
+        <v>0.459856</v>
       </c>
       <c r="D124" t="n">
-        <v>0.422814</v>
+        <v>0.413694</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.527967</v>
+        <v>0.518526</v>
       </c>
       <c r="C125" t="n">
-        <v>0.479832</v>
+        <v>0.463389</v>
       </c>
       <c r="D125" t="n">
-        <v>0.425712</v>
+        <v>0.418133</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.522691</v>
+        <v>0.504762</v>
       </c>
       <c r="C126" t="n">
-        <v>0.47831</v>
+        <v>0.476781</v>
       </c>
       <c r="D126" t="n">
-        <v>0.426859</v>
+        <v>0.427799</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.5508459999999999</v>
+        <v>0.508371</v>
       </c>
       <c r="C127" t="n">
-        <v>0.484186</v>
+        <v>0.48681</v>
       </c>
       <c r="D127" t="n">
-        <v>0.44032</v>
+        <v>0.446023</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.538581</v>
+        <v>0.506692</v>
       </c>
       <c r="C128" t="n">
-        <v>0.489439</v>
+        <v>0.486981</v>
       </c>
       <c r="D128" t="n">
-        <v>0.442022</v>
+        <v>0.430386</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.54023</v>
+        <v>0.533075</v>
       </c>
       <c r="C129" t="n">
-        <v>0.497815</v>
+        <v>0.486437</v>
       </c>
       <c r="D129" t="n">
-        <v>0.438146</v>
+        <v>0.435397</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.555103</v>
+        <v>0.54635</v>
       </c>
       <c r="C130" t="n">
-        <v>0.504943</v>
+        <v>0.488796</v>
       </c>
       <c r="D130" t="n">
-        <v>0.450222</v>
+        <v>0.445185</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.567641</v>
+        <v>0.545682</v>
       </c>
       <c r="C131" t="n">
-        <v>0.512537</v>
+        <v>0.504628</v>
       </c>
       <c r="D131" t="n">
-        <v>0.462228</v>
+        <v>0.45004</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.572997</v>
+        <v>0.567264</v>
       </c>
       <c r="C132" t="n">
-        <v>0.522919</v>
+        <v>0.5174260000000001</v>
       </c>
       <c r="D132" t="n">
-        <v>0.464537</v>
+        <v>0.456143</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.590959</v>
+        <v>0.574406</v>
       </c>
       <c r="C133" t="n">
-        <v>0.553416</v>
+        <v>0.539179</v>
       </c>
       <c r="D133" t="n">
-        <v>0.480978</v>
+        <v>0.474037</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.616053</v>
+        <v>0.601486</v>
       </c>
       <c r="C134" t="n">
-        <v>0.567686</v>
+        <v>0.558929</v>
       </c>
       <c r="D134" t="n">
-        <v>0.5062720000000001</v>
+        <v>0.486273</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.628165</v>
+        <v>0.623027</v>
       </c>
       <c r="C135" t="n">
-        <v>0.604357</v>
+        <v>0.592919</v>
       </c>
       <c r="D135" t="n">
-        <v>0.508987</v>
+        <v>0.523286</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.691925</v>
+        <v>0.681723</v>
       </c>
       <c r="C136" t="n">
-        <v>0.661198</v>
+        <v>0.637504</v>
       </c>
       <c r="D136" t="n">
-        <v>0.566366</v>
+        <v>0.550068</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.774438</v>
+        <v>0.748153</v>
       </c>
       <c r="C137" t="n">
-        <v>0.732409</v>
+        <v>0.725596</v>
       </c>
       <c r="D137" t="n">
-        <v>0.553742</v>
+        <v>0.558295</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.669756</v>
+        <v>0.67676</v>
       </c>
       <c r="C138" t="n">
-        <v>0.589879</v>
+        <v>0.593623</v>
       </c>
       <c r="D138" t="n">
-        <v>0.541221</v>
+        <v>0.546888</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.671446</v>
+        <v>0.681841</v>
       </c>
       <c r="C139" t="n">
-        <v>0.596334</v>
+        <v>0.60155</v>
       </c>
       <c r="D139" t="n">
-        <v>0.548897</v>
+        <v>0.553843</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.696529</v>
+        <v>0.697713</v>
       </c>
       <c r="C140" t="n">
-        <v>0.599294</v>
+        <v>0.599495</v>
       </c>
       <c r="D140" t="n">
-        <v>0.5557260000000001</v>
+        <v>0.548693</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.690954</v>
+        <v>0.694272</v>
       </c>
       <c r="C141" t="n">
-        <v>0.616378</v>
+        <v>0.616824</v>
       </c>
       <c r="D141" t="n">
-        <v>0.561163</v>
+        <v>0.552433</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.716382</v>
+        <v>0.694009</v>
       </c>
       <c r="C142" t="n">
-        <v>0.611652</v>
+        <v>0.614951</v>
       </c>
       <c r="D142" t="n">
-        <v>0.565124</v>
+        <v>0.5666099999999999</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.696338</v>
+        <v>0.704917</v>
       </c>
       <c r="C143" t="n">
-        <v>0.619727</v>
+        <v>0.628071</v>
       </c>
       <c r="D143" t="n">
-        <v>0.580152</v>
+        <v>0.571468</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered unsuccessful looukp.xlsx
+++ b/vs-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.124395</v>
+        <v>0.0408753</v>
       </c>
       <c r="C2" t="n">
-        <v>0.123792</v>
+        <v>0.0424026</v>
       </c>
       <c r="D2" t="n">
-        <v>0.123482</v>
+        <v>0.0384988</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.128776</v>
+        <v>0.0428882</v>
       </c>
       <c r="C3" t="n">
-        <v>0.128096</v>
+        <v>0.0468431</v>
       </c>
       <c r="D3" t="n">
-        <v>0.127681</v>
+        <v>0.042239</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.13511</v>
+        <v>0.0459113</v>
       </c>
       <c r="C4" t="n">
-        <v>0.133564</v>
+        <v>0.0536269</v>
       </c>
       <c r="D4" t="n">
-        <v>0.131181</v>
+        <v>0.0488364</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.140913</v>
+        <v>0.050449</v>
       </c>
       <c r="C5" t="n">
-        <v>0.149538</v>
+        <v>0.05904</v>
       </c>
       <c r="D5" t="n">
-        <v>0.139868</v>
+        <v>0.0540512</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.150342</v>
+        <v>0.0578632</v>
       </c>
       <c r="C6" t="n">
-        <v>0.15249</v>
+        <v>0.06767869999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>0.148534</v>
+        <v>0.059325</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.16348</v>
+        <v>0.0715846</v>
       </c>
       <c r="C7" t="n">
-        <v>0.169588</v>
+        <v>0.08344989999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>0.161545</v>
+        <v>0.0729429</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.179208</v>
+        <v>0.087742</v>
       </c>
       <c r="C8" t="n">
-        <v>0.192402</v>
+        <v>0.105449</v>
       </c>
       <c r="D8" t="n">
-        <v>0.181488</v>
+        <v>0.0903728</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.222212</v>
+        <v>0.118601</v>
       </c>
       <c r="C9" t="n">
-        <v>0.22754</v>
+        <v>0.137484</v>
       </c>
       <c r="D9" t="n">
-        <v>0.115345</v>
+        <v>0.0352746</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.122744</v>
+        <v>0.0395817</v>
       </c>
       <c r="C10" t="n">
-        <v>0.118091</v>
+        <v>0.0390393</v>
       </c>
       <c r="D10" t="n">
-        <v>0.119126</v>
+        <v>0.0358925</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.125458</v>
+        <v>0.0400653</v>
       </c>
       <c r="C11" t="n">
-        <v>0.123586</v>
+        <v>0.0382922</v>
       </c>
       <c r="D11" t="n">
-        <v>0.123765</v>
+        <v>0.036</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.12632</v>
+        <v>0.0398993</v>
       </c>
       <c r="C12" t="n">
-        <v>0.119075</v>
+        <v>0.0392841</v>
       </c>
       <c r="D12" t="n">
-        <v>0.118107</v>
+        <v>0.0368756</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.126442</v>
+        <v>0.040945</v>
       </c>
       <c r="C13" t="n">
-        <v>0.119292</v>
+        <v>0.0398318</v>
       </c>
       <c r="D13" t="n">
-        <v>0.119484</v>
+        <v>0.0377016</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.127829</v>
+        <v>0.0418624</v>
       </c>
       <c r="C14" t="n">
-        <v>0.123602</v>
+        <v>0.0414939</v>
       </c>
       <c r="D14" t="n">
-        <v>0.119287</v>
+        <v>0.0387976</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.129016</v>
+        <v>0.0445604</v>
       </c>
       <c r="C15" t="n">
-        <v>0.124597</v>
+        <v>0.0426685</v>
       </c>
       <c r="D15" t="n">
-        <v>0.123111</v>
+        <v>0.0400238</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.130161</v>
+        <v>0.0439098</v>
       </c>
       <c r="C16" t="n">
-        <v>0.126244</v>
+        <v>0.0456151</v>
       </c>
       <c r="D16" t="n">
-        <v>0.123023</v>
+        <v>0.0429001</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.133232</v>
+        <v>0.047607</v>
       </c>
       <c r="C17" t="n">
-        <v>0.132043</v>
+        <v>0.0511825</v>
       </c>
       <c r="D17" t="n">
-        <v>0.125765</v>
+        <v>0.0448442</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.140454</v>
+        <v>0.0508384</v>
       </c>
       <c r="C18" t="n">
-        <v>0.135431</v>
+        <v>0.0554003</v>
       </c>
       <c r="D18" t="n">
-        <v>0.133301</v>
+        <v>0.050247</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.146364</v>
+        <v>0.0569022</v>
       </c>
       <c r="C19" t="n">
-        <v>0.139711</v>
+        <v>0.0593544</v>
       </c>
       <c r="D19" t="n">
-        <v>0.135319</v>
+        <v>0.0551991</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.153965</v>
+        <v>0.0619359</v>
       </c>
       <c r="C20" t="n">
-        <v>0.155905</v>
+        <v>0.06795130000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>0.148802</v>
+        <v>0.0635033</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.167199</v>
+        <v>0.0749942</v>
       </c>
       <c r="C21" t="n">
-        <v>0.166714</v>
+        <v>0.0820837</v>
       </c>
       <c r="D21" t="n">
-        <v>0.157257</v>
+        <v>0.0716102</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.189503</v>
+        <v>0.09133869999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>0.188002</v>
+        <v>0.104803</v>
       </c>
       <c r="D22" t="n">
-        <v>0.180568</v>
+        <v>0.0923818</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.235368</v>
+        <v>0.12443</v>
       </c>
       <c r="C23" t="n">
-        <v>0.227162</v>
+        <v>0.135185</v>
       </c>
       <c r="D23" t="n">
-        <v>0.120259</v>
+        <v>0.0365429</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.12899</v>
+        <v>0.0427357</v>
       </c>
       <c r="C24" t="n">
-        <v>0.118962</v>
+        <v>0.040188</v>
       </c>
       <c r="D24" t="n">
-        <v>0.117835</v>
+        <v>0.0382057</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.134954</v>
+        <v>0.0424079</v>
       </c>
       <c r="C25" t="n">
-        <v>0.120508</v>
+        <v>0.0409857</v>
       </c>
       <c r="D25" t="n">
-        <v>0.121177</v>
+        <v>0.037501</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.130656</v>
+        <v>0.0434855</v>
       </c>
       <c r="C26" t="n">
-        <v>0.125929</v>
+        <v>0.0417017</v>
       </c>
       <c r="D26" t="n">
-        <v>0.124452</v>
+        <v>0.0378228</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.131282</v>
+        <v>0.0436313</v>
       </c>
       <c r="C27" t="n">
-        <v>0.120685</v>
+        <v>0.042676</v>
       </c>
       <c r="D27" t="n">
-        <v>0.125504</v>
+        <v>0.0398269</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.135616</v>
+        <v>0.0441607</v>
       </c>
       <c r="C28" t="n">
-        <v>0.126815</v>
+        <v>0.044907</v>
       </c>
       <c r="D28" t="n">
-        <v>0.122638</v>
+        <v>0.0404193</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.134315</v>
+        <v>0.0466918</v>
       </c>
       <c r="C29" t="n">
-        <v>0.127276</v>
+        <v>0.0441152</v>
       </c>
       <c r="D29" t="n">
-        <v>0.129423</v>
+        <v>0.0417309</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.137213</v>
+        <v>0.0481672</v>
       </c>
       <c r="C30" t="n">
-        <v>0.127067</v>
+        <v>0.0470655</v>
       </c>
       <c r="D30" t="n">
-        <v>0.125209</v>
+        <v>0.0440168</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.138622</v>
+        <v>0.0489028</v>
       </c>
       <c r="C31" t="n">
-        <v>0.129248</v>
+        <v>0.0494413</v>
       </c>
       <c r="D31" t="n">
-        <v>0.127444</v>
+        <v>0.0456929</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.150515</v>
+        <v>0.0535364</v>
       </c>
       <c r="C32" t="n">
-        <v>0.136922</v>
+        <v>0.0542657</v>
       </c>
       <c r="D32" t="n">
-        <v>0.133452</v>
+        <v>0.0500021</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.148747</v>
+        <v>0.0567992</v>
       </c>
       <c r="C33" t="n">
-        <v>0.144329</v>
+        <v>0.0590029</v>
       </c>
       <c r="D33" t="n">
-        <v>0.143293</v>
+        <v>0.0547775</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.159519</v>
+        <v>0.0624364</v>
       </c>
       <c r="C34" t="n">
-        <v>0.150498</v>
+        <v>0.0689443</v>
       </c>
       <c r="D34" t="n">
-        <v>0.14845</v>
+        <v>0.0628766</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.170345</v>
+        <v>0.0737268</v>
       </c>
       <c r="C35" t="n">
-        <v>0.16375</v>
+        <v>0.0767603</v>
       </c>
       <c r="D35" t="n">
-        <v>0.165625</v>
+        <v>0.0749537</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.190491</v>
+        <v>0.0880486</v>
       </c>
       <c r="C36" t="n">
-        <v>0.187848</v>
+        <v>0.103626</v>
       </c>
       <c r="D36" t="n">
-        <v>0.185176</v>
+        <v>0.0937733</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.220572</v>
+        <v>0.117779</v>
       </c>
       <c r="C37" t="n">
-        <v>0.21499</v>
+        <v>0.134567</v>
       </c>
       <c r="D37" t="n">
-        <v>0.120314</v>
+        <v>0.0386893</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.134898</v>
+        <v>0.0463529</v>
       </c>
       <c r="C38" t="n">
-        <v>0.121901</v>
+        <v>0.0413627</v>
       </c>
       <c r="D38" t="n">
-        <v>0.118725</v>
+        <v>0.0399543</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.143591</v>
+        <v>0.0446059</v>
       </c>
       <c r="C39" t="n">
-        <v>0.122738</v>
+        <v>0.0454674</v>
       </c>
       <c r="D39" t="n">
-        <v>0.12129</v>
+        <v>0.0385408</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.13339</v>
+        <v>0.0445036</v>
       </c>
       <c r="C40" t="n">
-        <v>0.124783</v>
+        <v>0.0422821</v>
       </c>
       <c r="D40" t="n">
-        <v>0.124495</v>
+        <v>0.0396677</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.132695</v>
+        <v>0.0453484</v>
       </c>
       <c r="C41" t="n">
-        <v>0.126472</v>
+        <v>0.0433383</v>
       </c>
       <c r="D41" t="n">
-        <v>0.122025</v>
+        <v>0.0398416</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.140013</v>
+        <v>0.0469835</v>
       </c>
       <c r="C42" t="n">
-        <v>0.128297</v>
+        <v>0.0442065</v>
       </c>
       <c r="D42" t="n">
-        <v>0.122977</v>
+        <v>0.0412438</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.136589</v>
+        <v>0.049963</v>
       </c>
       <c r="C43" t="n">
-        <v>0.125479</v>
+        <v>0.0472721</v>
       </c>
       <c r="D43" t="n">
-        <v>0.121865</v>
+        <v>0.0434195</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.140557</v>
+        <v>0.0494075</v>
       </c>
       <c r="C44" t="n">
-        <v>0.129506</v>
+        <v>0.0472015</v>
       </c>
       <c r="D44" t="n">
-        <v>0.128148</v>
+        <v>0.0442259</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.143014</v>
+        <v>0.0520266</v>
       </c>
       <c r="C45" t="n">
-        <v>0.131337</v>
+        <v>0.0506556</v>
       </c>
       <c r="D45" t="n">
-        <v>0.128777</v>
+        <v>0.0463049</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.143864</v>
+        <v>0.0544253</v>
       </c>
       <c r="C46" t="n">
-        <v>0.135233</v>
+        <v>0.0553729</v>
       </c>
       <c r="D46" t="n">
-        <v>0.135998</v>
+        <v>0.0513334</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.153874</v>
+        <v>0.0583796</v>
       </c>
       <c r="C47" t="n">
-        <v>0.140499</v>
+        <v>0.0599216</v>
       </c>
       <c r="D47" t="n">
-        <v>0.139283</v>
+        <v>0.0560953</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.157393</v>
+        <v>0.06424729999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>0.148706</v>
+        <v>0.0692985</v>
       </c>
       <c r="D48" t="n">
-        <v>0.15089</v>
+        <v>0.06308420000000001</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.171636</v>
+        <v>0.0727602</v>
       </c>
       <c r="C49" t="n">
-        <v>0.163679</v>
+        <v>0.0813754</v>
       </c>
       <c r="D49" t="n">
-        <v>0.16179</v>
+        <v>0.0725272</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.183875</v>
+        <v>0.09112290000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>0.191181</v>
+        <v>0.100759</v>
       </c>
       <c r="D50" t="n">
-        <v>0.180481</v>
+        <v>0.09074599999999999</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.22152</v>
+        <v>0.115861</v>
       </c>
       <c r="C51" t="n">
-        <v>0.211849</v>
+        <v>0.125628</v>
       </c>
       <c r="D51" t="n">
-        <v>0.123621</v>
+        <v>0.0449711</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.265163</v>
+        <v>0.15822</v>
       </c>
       <c r="C52" t="n">
-        <v>0.260381</v>
+        <v>0.171463</v>
       </c>
       <c r="D52" t="n">
-        <v>0.122681</v>
+        <v>0.0455329</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.145505</v>
+        <v>0.0525132</v>
       </c>
       <c r="C53" t="n">
-        <v>0.13092</v>
+        <v>0.0496639</v>
       </c>
       <c r="D53" t="n">
-        <v>0.124719</v>
+        <v>0.045637</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.145047</v>
+        <v>0.053032</v>
       </c>
       <c r="C54" t="n">
-        <v>0.134009</v>
+        <v>0.0505031</v>
       </c>
       <c r="D54" t="n">
-        <v>0.130919</v>
+        <v>0.0454611</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.151504</v>
+        <v>0.0562598</v>
       </c>
       <c r="C55" t="n">
-        <v>0.131049</v>
+        <v>0.0520834</v>
       </c>
       <c r="D55" t="n">
-        <v>0.127647</v>
+        <v>0.0462075</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.150008</v>
+        <v>0.0552194</v>
       </c>
       <c r="C56" t="n">
-        <v>0.131407</v>
+        <v>0.0504625</v>
       </c>
       <c r="D56" t="n">
-        <v>0.125534</v>
+        <v>0.0472765</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.150509</v>
+        <v>0.0588163</v>
       </c>
       <c r="C57" t="n">
-        <v>0.134164</v>
+        <v>0.0527671</v>
       </c>
       <c r="D57" t="n">
-        <v>0.131135</v>
+        <v>0.0465783</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.151923</v>
+        <v>0.0575328</v>
       </c>
       <c r="C58" t="n">
-        <v>0.134445</v>
+        <v>0.0545063</v>
       </c>
       <c r="D58" t="n">
-        <v>0.134892</v>
+        <v>0.0504409</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.150032</v>
+        <v>0.0588545</v>
       </c>
       <c r="C59" t="n">
-        <v>0.142134</v>
+        <v>0.0573416</v>
       </c>
       <c r="D59" t="n">
-        <v>0.134308</v>
+        <v>0.0535347</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.155357</v>
+        <v>0.0614396</v>
       </c>
       <c r="C60" t="n">
-        <v>0.144076</v>
+        <v>0.0612334</v>
       </c>
       <c r="D60" t="n">
-        <v>0.143658</v>
+        <v>0.0545821</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.166109</v>
+        <v>0.0683062</v>
       </c>
       <c r="C61" t="n">
-        <v>0.152293</v>
+        <v>0.0669401</v>
       </c>
       <c r="D61" t="n">
-        <v>0.145976</v>
+        <v>0.0601689</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.168092</v>
+        <v>0.0703609</v>
       </c>
       <c r="C62" t="n">
-        <v>0.159451</v>
+        <v>0.0738525</v>
       </c>
       <c r="D62" t="n">
-        <v>0.157514</v>
+        <v>0.06686010000000001</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.185134</v>
+        <v>0.0783824</v>
       </c>
       <c r="C63" t="n">
-        <v>0.170414</v>
+        <v>0.0833738</v>
       </c>
       <c r="D63" t="n">
-        <v>0.16323</v>
+        <v>0.0817392</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.194833</v>
+        <v>0.0932386</v>
       </c>
       <c r="C64" t="n">
-        <v>0.193116</v>
+        <v>0.100503</v>
       </c>
       <c r="D64" t="n">
-        <v>0.188595</v>
+        <v>0.0932757</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.225193</v>
+        <v>0.117137</v>
       </c>
       <c r="C65" t="n">
-        <v>0.218661</v>
+        <v>0.12618</v>
       </c>
       <c r="D65" t="n">
-        <v>0.207594</v>
+        <v>0.113769</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.264329</v>
+        <v>0.150683</v>
       </c>
       <c r="C66" t="n">
-        <v>0.268164</v>
+        <v>0.169136</v>
       </c>
       <c r="D66" t="n">
-        <v>0.135803</v>
+        <v>0.0519035</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.161122</v>
+        <v>0.0643161</v>
       </c>
       <c r="C67" t="n">
-        <v>0.143617</v>
+        <v>0.0583896</v>
       </c>
       <c r="D67" t="n">
-        <v>0.136174</v>
+        <v>0.0538436</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.160247</v>
+        <v>0.06345480000000001</v>
       </c>
       <c r="C68" t="n">
-        <v>0.147461</v>
+        <v>0.0601448</v>
       </c>
       <c r="D68" t="n">
-        <v>0.134722</v>
+        <v>0.054072</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.164147</v>
+        <v>0.06408229999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>0.147567</v>
+        <v>0.0631134</v>
       </c>
       <c r="D69" t="n">
-        <v>0.138659</v>
+        <v>0.0521272</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.171725</v>
+        <v>0.06759030000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>0.151183</v>
+        <v>0.06432</v>
       </c>
       <c r="D70" t="n">
-        <v>0.139246</v>
+        <v>0.0547904</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.165893</v>
+        <v>0.0690313</v>
       </c>
       <c r="C71" t="n">
-        <v>0.153945</v>
+        <v>0.06585969999999999</v>
       </c>
       <c r="D71" t="n">
-        <v>0.138496</v>
+        <v>0.0560438</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.173826</v>
+        <v>0.0680501</v>
       </c>
       <c r="C72" t="n">
-        <v>0.148768</v>
+        <v>0.0691354</v>
       </c>
       <c r="D72" t="n">
-        <v>0.147061</v>
+        <v>0.059317</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.173612</v>
+        <v>0.07178180000000001</v>
       </c>
       <c r="C73" t="n">
-        <v>0.153712</v>
+        <v>0.0709169</v>
       </c>
       <c r="D73" t="n">
-        <v>0.141096</v>
+        <v>0.0610189</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.176967</v>
+        <v>0.0742517</v>
       </c>
       <c r="C74" t="n">
-        <v>0.164789</v>
+        <v>0.07729</v>
       </c>
       <c r="D74" t="n">
-        <v>0.149889</v>
+        <v>0.06286319999999999</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.184486</v>
+        <v>0.0782894</v>
       </c>
       <c r="C75" t="n">
-        <v>0.163992</v>
+        <v>0.0830369</v>
       </c>
       <c r="D75" t="n">
-        <v>0.154464</v>
+        <v>0.0692728</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.190193</v>
+        <v>0.0836209</v>
       </c>
       <c r="C76" t="n">
-        <v>0.177007</v>
+        <v>0.0859794</v>
       </c>
       <c r="D76" t="n">
-        <v>0.164439</v>
+        <v>0.0747597</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.201842</v>
+        <v>0.0957575</v>
       </c>
       <c r="C77" t="n">
-        <v>0.189034</v>
+        <v>0.09815740000000001</v>
       </c>
       <c r="D77" t="n">
-        <v>0.178118</v>
+        <v>0.0851524</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.214082</v>
+        <v>0.109099</v>
       </c>
       <c r="C78" t="n">
-        <v>0.208494</v>
+        <v>0.120366</v>
       </c>
       <c r="D78" t="n">
-        <v>0.19874</v>
+        <v>0.09857249999999999</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.239699</v>
+        <v>0.130395</v>
       </c>
       <c r="C79" t="n">
-        <v>0.233846</v>
+        <v>0.137639</v>
       </c>
       <c r="D79" t="n">
-        <v>0.2186</v>
+        <v>0.121571</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.276075</v>
+        <v>0.171455</v>
       </c>
       <c r="C80" t="n">
-        <v>0.278149</v>
+        <v>0.179937</v>
       </c>
       <c r="D80" t="n">
-        <v>0.143434</v>
+        <v>0.0588323</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.176933</v>
+        <v>0.0762669</v>
       </c>
       <c r="C81" t="n">
-        <v>0.155428</v>
+        <v>0.071774</v>
       </c>
       <c r="D81" t="n">
-        <v>0.143633</v>
+        <v>0.0588737</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.174894</v>
+        <v>0.0772072</v>
       </c>
       <c r="C82" t="n">
-        <v>0.153342</v>
+        <v>0.0738196</v>
       </c>
       <c r="D82" t="n">
-        <v>0.144116</v>
+        <v>0.0610412</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.174316</v>
+        <v>0.0805844</v>
       </c>
       <c r="C83" t="n">
-        <v>0.154054</v>
+        <v>0.0803702</v>
       </c>
       <c r="D83" t="n">
-        <v>0.140996</v>
+        <v>0.0622212</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.178835</v>
+        <v>0.0826945</v>
       </c>
       <c r="C84" t="n">
-        <v>0.160622</v>
+        <v>0.07949340000000001</v>
       </c>
       <c r="D84" t="n">
-        <v>0.146742</v>
+        <v>0.0656004</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.179567</v>
+        <v>0.0870964</v>
       </c>
       <c r="C85" t="n">
-        <v>0.156212</v>
+        <v>0.0838337</v>
       </c>
       <c r="D85" t="n">
-        <v>0.149095</v>
+        <v>0.0671244</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.181821</v>
+        <v>0.0886497</v>
       </c>
       <c r="C86" t="n">
-        <v>0.165792</v>
+        <v>0.0879528</v>
       </c>
       <c r="D86" t="n">
-        <v>0.151164</v>
+        <v>0.06999660000000001</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.184713</v>
+        <v>0.0912047</v>
       </c>
       <c r="C87" t="n">
-        <v>0.169441</v>
+        <v>0.0910932</v>
       </c>
       <c r="D87" t="n">
-        <v>0.150535</v>
+        <v>0.07231899999999999</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.188162</v>
+        <v>0.09838760000000001</v>
       </c>
       <c r="C88" t="n">
-        <v>0.178643</v>
+        <v>0.0958649</v>
       </c>
       <c r="D88" t="n">
-        <v>0.156003</v>
+        <v>0.07497239999999999</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.203084</v>
+        <v>0.0995684</v>
       </c>
       <c r="C89" t="n">
-        <v>0.181622</v>
+        <v>0.101066</v>
       </c>
       <c r="D89" t="n">
-        <v>0.163114</v>
+        <v>0.08189589999999999</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.21322</v>
+        <v>0.105709</v>
       </c>
       <c r="C90" t="n">
-        <v>0.199956</v>
+        <v>0.111073</v>
       </c>
       <c r="D90" t="n">
-        <v>0.175301</v>
+        <v>0.0884341</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.219767</v>
+        <v>0.114489</v>
       </c>
       <c r="C91" t="n">
-        <v>0.214981</v>
+        <v>0.120391</v>
       </c>
       <c r="D91" t="n">
-        <v>0.180852</v>
+        <v>0.0972973</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.248615</v>
+        <v>0.127596</v>
       </c>
       <c r="C92" t="n">
-        <v>0.234183</v>
+        <v>0.135888</v>
       </c>
       <c r="D92" t="n">
-        <v>0.205019</v>
+        <v>0.112188</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.271712</v>
+        <v>0.145568</v>
       </c>
       <c r="C93" t="n">
-        <v>0.27257</v>
+        <v>0.158223</v>
       </c>
       <c r="D93" t="n">
-        <v>0.225127</v>
+        <v>0.130458</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.310891</v>
+        <v>0.179333</v>
       </c>
       <c r="C94" t="n">
-        <v>0.316448</v>
+        <v>0.195624</v>
       </c>
       <c r="D94" t="n">
-        <v>0.161915</v>
+        <v>0.07860780000000001</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.202984</v>
+        <v>0.102678</v>
       </c>
       <c r="C95" t="n">
-        <v>0.1891</v>
+        <v>0.101303</v>
       </c>
       <c r="D95" t="n">
-        <v>0.156904</v>
+        <v>0.078529</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.208758</v>
+        <v>0.106799</v>
       </c>
       <c r="C96" t="n">
-        <v>0.19026</v>
+        <v>0.10444</v>
       </c>
       <c r="D96" t="n">
-        <v>0.161199</v>
+        <v>0.0809583</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.224849</v>
+        <v>0.108709</v>
       </c>
       <c r="C97" t="n">
-        <v>0.197953</v>
+        <v>0.107292</v>
       </c>
       <c r="D97" t="n">
-        <v>0.164303</v>
+        <v>0.08849460000000001</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.217123</v>
+        <v>0.110732</v>
       </c>
       <c r="C98" t="n">
-        <v>0.196622</v>
+        <v>0.113182</v>
       </c>
       <c r="D98" t="n">
-        <v>0.166048</v>
+        <v>0.0839994</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.226665</v>
+        <v>0.111264</v>
       </c>
       <c r="C99" t="n">
-        <v>0.201831</v>
+        <v>0.112511</v>
       </c>
       <c r="D99" t="n">
-        <v>0.170691</v>
+        <v>0.09153409999999999</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.232889</v>
+        <v>0.114399</v>
       </c>
       <c r="C100" t="n">
-        <v>0.20905</v>
+        <v>0.116172</v>
       </c>
       <c r="D100" t="n">
-        <v>0.175759</v>
+        <v>0.0913511</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.235982</v>
+        <v>0.117839</v>
       </c>
       <c r="C101" t="n">
-        <v>0.212421</v>
+        <v>0.118383</v>
       </c>
       <c r="D101" t="n">
-        <v>0.17759</v>
+        <v>0.0943581</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.24376</v>
+        <v>0.12396</v>
       </c>
       <c r="C102" t="n">
-        <v>0.223946</v>
+        <v>0.124552</v>
       </c>
       <c r="D102" t="n">
-        <v>0.186053</v>
+        <v>0.101669</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.255639</v>
+        <v>0.127692</v>
       </c>
       <c r="C103" t="n">
-        <v>0.233225</v>
+        <v>0.129456</v>
       </c>
       <c r="D103" t="n">
-        <v>0.194087</v>
+        <v>0.104485</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.257605</v>
+        <v>0.134257</v>
       </c>
       <c r="C104" t="n">
-        <v>0.248667</v>
+        <v>0.146855</v>
       </c>
       <c r="D104" t="n">
-        <v>0.202452</v>
+        <v>0.111397</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.276545</v>
+        <v>0.146213</v>
       </c>
       <c r="C105" t="n">
-        <v>0.265111</v>
+        <v>0.160113</v>
       </c>
       <c r="D105" t="n">
-        <v>0.218035</v>
+        <v>0.121987</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.289529</v>
+        <v>0.155863</v>
       </c>
       <c r="C106" t="n">
-        <v>0.289412</v>
+        <v>0.171057</v>
       </c>
       <c r="D106" t="n">
-        <v>0.238609</v>
+        <v>0.129022</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.319865</v>
+        <v>0.180843</v>
       </c>
       <c r="C107" t="n">
-        <v>0.31491</v>
+        <v>0.195271</v>
       </c>
       <c r="D107" t="n">
-        <v>0.259383</v>
+        <v>0.152468</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.374962</v>
+        <v>0.215867</v>
       </c>
       <c r="C108" t="n">
-        <v>0.365944</v>
+        <v>0.235105</v>
       </c>
       <c r="D108" t="n">
-        <v>0.241142</v>
+        <v>0.15927</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.437906</v>
+        <v>0.268259</v>
       </c>
       <c r="C109" t="n">
-        <v>0.440158</v>
+        <v>0.311499</v>
       </c>
       <c r="D109" t="n">
-        <v>0.252435</v>
+        <v>0.158105</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.298632</v>
+        <v>0.182162</v>
       </c>
       <c r="C110" t="n">
-        <v>0.273771</v>
+        <v>0.177946</v>
       </c>
       <c r="D110" t="n">
-        <v>0.25234</v>
+        <v>0.156949</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.31257</v>
+        <v>0.184367</v>
       </c>
       <c r="C111" t="n">
-        <v>0.286034</v>
+        <v>0.18306</v>
       </c>
       <c r="D111" t="n">
-        <v>0.249741</v>
+        <v>0.159108</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.305246</v>
+        <v>0.182559</v>
       </c>
       <c r="C112" t="n">
-        <v>0.295546</v>
+        <v>0.184181</v>
       </c>
       <c r="D112" t="n">
-        <v>0.265231</v>
+        <v>0.170135</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.309155</v>
+        <v>0.185774</v>
       </c>
       <c r="C113" t="n">
-        <v>0.289015</v>
+        <v>0.18751</v>
       </c>
       <c r="D113" t="n">
-        <v>0.254993</v>
+        <v>0.161714</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.310389</v>
+        <v>0.191991</v>
       </c>
       <c r="C114" t="n">
-        <v>0.300283</v>
+        <v>0.190338</v>
       </c>
       <c r="D114" t="n">
-        <v>0.266071</v>
+        <v>0.162436</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.33631</v>
+        <v>0.190558</v>
       </c>
       <c r="C115" t="n">
-        <v>0.301163</v>
+        <v>0.196737</v>
       </c>
       <c r="D115" t="n">
-        <v>0.264346</v>
+        <v>0.167228</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.323403</v>
+        <v>0.199095</v>
       </c>
       <c r="C116" t="n">
-        <v>0.308719</v>
+        <v>0.205016</v>
       </c>
       <c r="D116" t="n">
-        <v>0.266642</v>
+        <v>0.172092</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.348112</v>
+        <v>0.206111</v>
       </c>
       <c r="C117" t="n">
-        <v>0.319474</v>
+        <v>0.207059</v>
       </c>
       <c r="D117" t="n">
-        <v>0.277288</v>
+        <v>0.19163</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.346032</v>
+        <v>0.202515</v>
       </c>
       <c r="C118" t="n">
-        <v>0.330054</v>
+        <v>0.212281</v>
       </c>
       <c r="D118" t="n">
-        <v>0.286651</v>
+        <v>0.186861</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.358618</v>
+        <v>0.214316</v>
       </c>
       <c r="C119" t="n">
-        <v>0.342742</v>
+        <v>0.229786</v>
       </c>
       <c r="D119" t="n">
-        <v>0.297613</v>
+        <v>0.196601</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.382267</v>
+        <v>0.227719</v>
       </c>
       <c r="C120" t="n">
-        <v>0.377085</v>
+        <v>0.240322</v>
       </c>
       <c r="D120" t="n">
-        <v>0.310268</v>
+        <v>0.202412</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.408766</v>
+        <v>0.248493</v>
       </c>
       <c r="C121" t="n">
-        <v>0.400972</v>
+        <v>0.259716</v>
       </c>
       <c r="D121" t="n">
-        <v>0.338865</v>
+        <v>0.223883</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.444796</v>
+        <v>0.284728</v>
       </c>
       <c r="C122" t="n">
-        <v>0.451355</v>
+        <v>0.311906</v>
       </c>
       <c r="D122" t="n">
-        <v>0.379575</v>
+        <v>0.255868</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.5128200000000001</v>
+        <v>0.331191</v>
       </c>
       <c r="C123" t="n">
-        <v>0.523377</v>
+        <v>0.384793</v>
       </c>
       <c r="D123" t="n">
-        <v>0.411103</v>
+        <v>0.245991</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.4864</v>
+        <v>0.286939</v>
       </c>
       <c r="C124" t="n">
-        <v>0.459856</v>
+        <v>0.267071</v>
       </c>
       <c r="D124" t="n">
-        <v>0.413694</v>
+        <v>0.244221</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.518526</v>
+        <v>0.28506</v>
       </c>
       <c r="C125" t="n">
-        <v>0.463389</v>
+        <v>0.27282</v>
       </c>
       <c r="D125" t="n">
-        <v>0.418133</v>
+        <v>0.24793</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.504762</v>
+        <v>0.295185</v>
       </c>
       <c r="C126" t="n">
-        <v>0.476781</v>
+        <v>0.27989</v>
       </c>
       <c r="D126" t="n">
-        <v>0.427799</v>
+        <v>0.248265</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.508371</v>
+        <v>0.300492</v>
       </c>
       <c r="C127" t="n">
-        <v>0.48681</v>
+        <v>0.28208</v>
       </c>
       <c r="D127" t="n">
-        <v>0.446023</v>
+        <v>0.255898</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.506692</v>
+        <v>0.305272</v>
       </c>
       <c r="C128" t="n">
-        <v>0.486981</v>
+        <v>0.282757</v>
       </c>
       <c r="D128" t="n">
-        <v>0.430386</v>
+        <v>0.257507</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.533075</v>
+        <v>0.303558</v>
       </c>
       <c r="C129" t="n">
-        <v>0.486437</v>
+        <v>0.286211</v>
       </c>
       <c r="D129" t="n">
-        <v>0.435397</v>
+        <v>0.25458</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.54635</v>
+        <v>0.312399</v>
       </c>
       <c r="C130" t="n">
-        <v>0.488796</v>
+        <v>0.300246</v>
       </c>
       <c r="D130" t="n">
-        <v>0.445185</v>
+        <v>0.272142</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.545682</v>
+        <v>0.317428</v>
       </c>
       <c r="C131" t="n">
-        <v>0.504628</v>
+        <v>0.30842</v>
       </c>
       <c r="D131" t="n">
-        <v>0.45004</v>
+        <v>0.268283</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.567264</v>
+        <v>0.323434</v>
       </c>
       <c r="C132" t="n">
-        <v>0.5174260000000001</v>
+        <v>0.310281</v>
       </c>
       <c r="D132" t="n">
-        <v>0.456143</v>
+        <v>0.275598</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.574406</v>
+        <v>0.334222</v>
       </c>
       <c r="C133" t="n">
-        <v>0.539179</v>
+        <v>0.318683</v>
       </c>
       <c r="D133" t="n">
-        <v>0.474037</v>
+        <v>0.286585</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.601486</v>
+        <v>0.357328</v>
       </c>
       <c r="C134" t="n">
-        <v>0.558929</v>
+        <v>0.335837</v>
       </c>
       <c r="D134" t="n">
-        <v>0.486273</v>
+        <v>0.29611</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.623027</v>
+        <v>0.3861</v>
       </c>
       <c r="C135" t="n">
-        <v>0.592919</v>
+        <v>0.366505</v>
       </c>
       <c r="D135" t="n">
-        <v>0.523286</v>
+        <v>0.320861</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.681723</v>
+        <v>0.407006</v>
       </c>
       <c r="C136" t="n">
-        <v>0.637504</v>
+        <v>0.40704</v>
       </c>
       <c r="D136" t="n">
-        <v>0.550068</v>
+        <v>0.364156</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.748153</v>
+        <v>0.479117</v>
       </c>
       <c r="C137" t="n">
-        <v>0.725596</v>
+        <v>0.502996</v>
       </c>
       <c r="D137" t="n">
-        <v>0.558295</v>
+        <v>0.296053</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.67676</v>
+        <v>0.366714</v>
       </c>
       <c r="C138" t="n">
-        <v>0.593623</v>
+        <v>0.327916</v>
       </c>
       <c r="D138" t="n">
-        <v>0.546888</v>
+        <v>0.296432</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.681841</v>
+        <v>0.353781</v>
       </c>
       <c r="C139" t="n">
-        <v>0.60155</v>
+        <v>0.334472</v>
       </c>
       <c r="D139" t="n">
-        <v>0.553843</v>
+        <v>0.299651</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.697713</v>
+        <v>0.363385</v>
       </c>
       <c r="C140" t="n">
-        <v>0.599495</v>
+        <v>0.332877</v>
       </c>
       <c r="D140" t="n">
-        <v>0.548693</v>
+        <v>0.304264</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.694272</v>
+        <v>0.363415</v>
       </c>
       <c r="C141" t="n">
-        <v>0.616824</v>
+        <v>0.346779</v>
       </c>
       <c r="D141" t="n">
-        <v>0.552433</v>
+        <v>0.304638</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.694009</v>
+        <v>0.371156</v>
       </c>
       <c r="C142" t="n">
-        <v>0.614951</v>
+        <v>0.346923</v>
       </c>
       <c r="D142" t="n">
-        <v>0.5666099999999999</v>
+        <v>0.311188</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.704917</v>
+        <v>0.373854</v>
       </c>
       <c r="C143" t="n">
-        <v>0.628071</v>
+        <v>0.34269</v>
       </c>
       <c r="D143" t="n">
-        <v>0.571468</v>
+        <v>0.325175</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered unsuccessful looukp.xlsx
+++ b/vs-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0408753</v>
+        <v>0.041687</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0424026</v>
+        <v>0.0390244</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0384988</v>
+        <v>0.0353619</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0428882</v>
+        <v>0.0448078</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0468431</v>
+        <v>0.0422448</v>
       </c>
       <c r="D3" t="n">
-        <v>0.042239</v>
+        <v>0.0390937</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0459113</v>
+        <v>0.0501975</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0536269</v>
+        <v>0.0491814</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0488364</v>
+        <v>0.0436952</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.050449</v>
+        <v>0.0512533</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05904</v>
+        <v>0.0561162</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0540512</v>
+        <v>0.0477486</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0578632</v>
+        <v>0.0612722</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06767869999999999</v>
+        <v>0.06510970000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>0.059325</v>
+        <v>0.0541635</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0715846</v>
+        <v>0.0756537</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08344989999999999</v>
+        <v>0.0815916</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0729429</v>
+        <v>0.07029050000000001</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.087742</v>
+        <v>0.0943204</v>
       </c>
       <c r="C8" t="n">
-        <v>0.105449</v>
+        <v>0.0979371</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0903728</v>
+        <v>0.0900885</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.118601</v>
+        <v>0.129003</v>
       </c>
       <c r="C9" t="n">
-        <v>0.137484</v>
+        <v>0.133839</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0352746</v>
+        <v>0.0318131</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0395817</v>
+        <v>0.0399459</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0390393</v>
+        <v>0.0338275</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0358925</v>
+        <v>0.0321522</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0400653</v>
+        <v>0.0412878</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0382922</v>
+        <v>0.0354002</v>
       </c>
       <c r="D11" t="n">
-        <v>0.036</v>
+        <v>0.0323019</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0398993</v>
+        <v>0.0402847</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0392841</v>
+        <v>0.0350801</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0368756</v>
+        <v>0.0328745</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.040945</v>
+        <v>0.0412134</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0398318</v>
+        <v>0.0365314</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0377016</v>
+        <v>0.0348855</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0418624</v>
+        <v>0.0422637</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0414939</v>
+        <v>0.0370391</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0387976</v>
+        <v>0.0341445</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0445604</v>
+        <v>0.0417492</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0426685</v>
+        <v>0.03949</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0400238</v>
+        <v>0.0361316</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0439098</v>
+        <v>0.0433657</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0456151</v>
+        <v>0.0431257</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0429001</v>
+        <v>0.0386824</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.047607</v>
+        <v>0.0459255</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0511825</v>
+        <v>0.0458882</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0448442</v>
+        <v>0.0423436</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0508384</v>
+        <v>0.0509103</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0554003</v>
+        <v>0.0501422</v>
       </c>
       <c r="D18" t="n">
-        <v>0.050247</v>
+        <v>0.0455056</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0569022</v>
+        <v>0.0539432</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0593544</v>
+        <v>0.0550588</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0551991</v>
+        <v>0.0494501</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0619359</v>
+        <v>0.0605091</v>
       </c>
       <c r="C20" t="n">
-        <v>0.06795130000000001</v>
+        <v>0.06467920000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0635033</v>
+        <v>0.057032</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0749942</v>
+        <v>0.07207</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0820837</v>
+        <v>0.0770536</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0716102</v>
+        <v>0.0690158</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.09133869999999999</v>
+        <v>0.0915097</v>
       </c>
       <c r="C22" t="n">
-        <v>0.104803</v>
+        <v>0.0970743</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0923818</v>
+        <v>0.0911059</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.12443</v>
+        <v>0.120508</v>
       </c>
       <c r="C23" t="n">
-        <v>0.135185</v>
+        <v>0.133318</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0365429</v>
+        <v>0.0343319</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0427357</v>
+        <v>0.0438941</v>
       </c>
       <c r="C24" t="n">
-        <v>0.040188</v>
+        <v>0.0364852</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0382057</v>
+        <v>0.0325404</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0424079</v>
+        <v>0.0427837</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0409857</v>
+        <v>0.0364659</v>
       </c>
       <c r="D25" t="n">
-        <v>0.037501</v>
+        <v>0.0343525</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0434855</v>
+        <v>0.0429238</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0417017</v>
+        <v>0.0375589</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0378228</v>
+        <v>0.0349754</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0436313</v>
+        <v>0.0434019</v>
       </c>
       <c r="C27" t="n">
-        <v>0.042676</v>
+        <v>0.0397921</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0398269</v>
+        <v>0.034706</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0441607</v>
+        <v>0.0449716</v>
       </c>
       <c r="C28" t="n">
-        <v>0.044907</v>
+        <v>0.0413309</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0404193</v>
+        <v>0.0367907</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0466918</v>
+        <v>0.0464774</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0441152</v>
+        <v>0.040674</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0417309</v>
+        <v>0.0373177</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0481672</v>
+        <v>0.0485287</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0470655</v>
+        <v>0.0441232</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0440168</v>
+        <v>0.0396032</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0489028</v>
+        <v>0.0509304</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0494413</v>
+        <v>0.0453492</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0456929</v>
+        <v>0.0415321</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0535364</v>
+        <v>0.0539036</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0542657</v>
+        <v>0.0514847</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0500021</v>
+        <v>0.0442969</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0567992</v>
+        <v>0.0580091</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0590029</v>
+        <v>0.0565427</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0547775</v>
+        <v>0.0498946</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0624364</v>
+        <v>0.0677367</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0689443</v>
+        <v>0.0630328</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0628766</v>
+        <v>0.0573677</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0737268</v>
+        <v>0.0776453</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0767603</v>
+        <v>0.0726986</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0749537</v>
+        <v>0.0698014</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0880486</v>
+        <v>0.0944256</v>
       </c>
       <c r="C36" t="n">
-        <v>0.103626</v>
+        <v>0.100259</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0937733</v>
+        <v>0.0860561</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.117779</v>
+        <v>0.122107</v>
       </c>
       <c r="C37" t="n">
-        <v>0.134567</v>
+        <v>0.128467</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0386893</v>
+        <v>0.0360606</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0463529</v>
+        <v>0.0480436</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0413627</v>
+        <v>0.041226</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0399543</v>
+        <v>0.0370189</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0446059</v>
+        <v>0.0463307</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0454674</v>
+        <v>0.0419998</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0385408</v>
+        <v>0.0372412</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0445036</v>
+        <v>0.0490179</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0422821</v>
+        <v>0.0419318</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0396677</v>
+        <v>0.0368214</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0453484</v>
+        <v>0.0495961</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0433383</v>
+        <v>0.0429649</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0398416</v>
+        <v>0.0381432</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0469835</v>
+        <v>0.0505163</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0442065</v>
+        <v>0.0439747</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0412438</v>
+        <v>0.0403801</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.049963</v>
+        <v>0.0514383</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0472721</v>
+        <v>0.0445046</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0434195</v>
+        <v>0.0396358</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0494075</v>
+        <v>0.0535481</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0472015</v>
+        <v>0.0461765</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0442259</v>
+        <v>0.0452171</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0520266</v>
+        <v>0.0576938</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0506556</v>
+        <v>0.0490577</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0463049</v>
+        <v>0.0448484</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0544253</v>
+        <v>0.0582286</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0553729</v>
+        <v>0.0552395</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0513334</v>
+        <v>0.0495424</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0583796</v>
+        <v>0.0643184</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0599216</v>
+        <v>0.0576363</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0560953</v>
+        <v>0.0536747</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.06424729999999999</v>
+        <v>0.0693045</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0692985</v>
+        <v>0.06600209999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>0.06308420000000001</v>
+        <v>0.0623356</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0727602</v>
+        <v>0.0819361</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0813754</v>
+        <v>0.0804129</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0725272</v>
+        <v>0.0705636</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.09112290000000001</v>
+        <v>0.0939075</v>
       </c>
       <c r="C50" t="n">
-        <v>0.100759</v>
+        <v>0.09719179999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>0.09074599999999999</v>
+        <v>0.0883781</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.115861</v>
+        <v>0.120986</v>
       </c>
       <c r="C51" t="n">
-        <v>0.125628</v>
+        <v>0.123094</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0449711</v>
+        <v>0.0426359</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.15822</v>
+        <v>0.15806</v>
       </c>
       <c r="C52" t="n">
-        <v>0.171463</v>
+        <v>0.168645</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0455329</v>
+        <v>0.0431948</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0525132</v>
+        <v>0.0572765</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0496639</v>
+        <v>0.0506516</v>
       </c>
       <c r="D53" t="n">
-        <v>0.045637</v>
+        <v>0.0426758</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.053032</v>
+        <v>0.0583186</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0505031</v>
+        <v>0.0511127</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0454611</v>
+        <v>0.0439429</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0562598</v>
+        <v>0.0602194</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0520834</v>
+        <v>0.0515863</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0462075</v>
+        <v>0.0487665</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0552194</v>
+        <v>0.0612569</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0504625</v>
+        <v>0.0544173</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0472765</v>
+        <v>0.0461789</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0588163</v>
+        <v>0.0609486</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0527671</v>
+        <v>0.0554961</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0465783</v>
+        <v>0.0465922</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0575328</v>
+        <v>0.063098</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0545063</v>
+        <v>0.0582631</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0504409</v>
+        <v>0.0499189</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0588545</v>
+        <v>0.06696770000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0573416</v>
+        <v>0.0608145</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0535347</v>
+        <v>0.0530993</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0614396</v>
+        <v>0.0695426</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0612334</v>
+        <v>0.06684039999999999</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0545821</v>
+        <v>0.0541877</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0683062</v>
+        <v>0.0711227</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0669401</v>
+        <v>0.068122</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0601689</v>
+        <v>0.0591768</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0703609</v>
+        <v>0.08206479999999999</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0738525</v>
+        <v>0.07615280000000001</v>
       </c>
       <c r="D62" t="n">
-        <v>0.06686010000000001</v>
+        <v>0.0652711</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0783824</v>
+        <v>0.0865761</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0833738</v>
+        <v>0.0883168</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0817392</v>
+        <v>0.0756115</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0932386</v>
+        <v>0.101191</v>
       </c>
       <c r="C64" t="n">
-        <v>0.100503</v>
+        <v>0.103248</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0932757</v>
+        <v>0.0902734</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.117137</v>
+        <v>0.123015</v>
       </c>
       <c r="C65" t="n">
-        <v>0.12618</v>
+        <v>0.130137</v>
       </c>
       <c r="D65" t="n">
-        <v>0.113769</v>
+        <v>0.111673</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.150683</v>
+        <v>0.156989</v>
       </c>
       <c r="C66" t="n">
-        <v>0.169136</v>
+        <v>0.171433</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0519035</v>
+        <v>0.0475007</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0643161</v>
+        <v>0.06577040000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0583896</v>
+        <v>0.0609244</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0538436</v>
+        <v>0.0489052</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.06345480000000001</v>
+        <v>0.06850589999999999</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0601448</v>
+        <v>0.0609197</v>
       </c>
       <c r="D68" t="n">
-        <v>0.054072</v>
+        <v>0.0503835</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.06408229999999999</v>
+        <v>0.0690799</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0631134</v>
+        <v>0.0626941</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0521272</v>
+        <v>0.0505169</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.06759030000000001</v>
+        <v>0.0729582</v>
       </c>
       <c r="C70" t="n">
-        <v>0.06432</v>
+        <v>0.0645946</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0547904</v>
+        <v>0.0526204</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0690313</v>
+        <v>0.07093140000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>0.06585969999999999</v>
+        <v>0.0680629</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0560438</v>
+        <v>0.0524674</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0680501</v>
+        <v>0.0747758</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0691354</v>
+        <v>0.0678097</v>
       </c>
       <c r="D72" t="n">
-        <v>0.059317</v>
+        <v>0.0564606</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.07178180000000001</v>
+        <v>0.0757602</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0709169</v>
+        <v>0.0723641</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0610189</v>
+        <v>0.0593844</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0742517</v>
+        <v>0.0804836</v>
       </c>
       <c r="C74" t="n">
-        <v>0.07729</v>
+        <v>0.0752099</v>
       </c>
       <c r="D74" t="n">
-        <v>0.06286319999999999</v>
+        <v>0.0619649</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0782894</v>
+        <v>0.0865427</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0830369</v>
+        <v>0.0833348</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0692728</v>
+        <v>0.06701849999999999</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0836209</v>
+        <v>0.096043</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0859794</v>
+        <v>0.0895874</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0747597</v>
+        <v>0.07221320000000001</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0957575</v>
+        <v>0.0993247</v>
       </c>
       <c r="C77" t="n">
-        <v>0.09815740000000001</v>
+        <v>0.100963</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0851524</v>
+        <v>0.0856717</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.109099</v>
+        <v>0.123761</v>
       </c>
       <c r="C78" t="n">
-        <v>0.120366</v>
+        <v>0.116349</v>
       </c>
       <c r="D78" t="n">
-        <v>0.09857249999999999</v>
+        <v>0.10203</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.130395</v>
+        <v>0.13845</v>
       </c>
       <c r="C79" t="n">
-        <v>0.137639</v>
+        <v>0.139744</v>
       </c>
       <c r="D79" t="n">
-        <v>0.121571</v>
+        <v>0.126503</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.171455</v>
+        <v>0.190574</v>
       </c>
       <c r="C80" t="n">
-        <v>0.179937</v>
+        <v>0.179935</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0588323</v>
+        <v>0.0580277</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0762669</v>
+        <v>0.08057499999999999</v>
       </c>
       <c r="C81" t="n">
-        <v>0.071774</v>
+        <v>0.07393420000000001</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0588737</v>
+        <v>0.0557918</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0772072</v>
+        <v>0.0814339</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0738196</v>
+        <v>0.07433620000000001</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0610412</v>
+        <v>0.058259</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0805844</v>
+        <v>0.08353919999999999</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0803702</v>
+        <v>0.0790978</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0622212</v>
+        <v>0.0611179</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0826945</v>
+        <v>0.0862945</v>
       </c>
       <c r="C84" t="n">
-        <v>0.07949340000000001</v>
+        <v>0.08209379999999999</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0656004</v>
+        <v>0.0654087</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0870964</v>
+        <v>0.0944077</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0838337</v>
+        <v>0.0842667</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0671244</v>
+        <v>0.0657505</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0886497</v>
+        <v>0.09218800000000001</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0879528</v>
+        <v>0.08620319999999999</v>
       </c>
       <c r="D86" t="n">
-        <v>0.06999660000000001</v>
+        <v>0.06786</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0912047</v>
+        <v>0.0965037</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0910932</v>
+        <v>0.094488</v>
       </c>
       <c r="D87" t="n">
-        <v>0.07231899999999999</v>
+        <v>0.0729025</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.09838760000000001</v>
+        <v>0.103348</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0958649</v>
+        <v>0.0984801</v>
       </c>
       <c r="D88" t="n">
-        <v>0.07497239999999999</v>
+        <v>0.0748615</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0995684</v>
+        <v>0.107669</v>
       </c>
       <c r="C89" t="n">
-        <v>0.101066</v>
+        <v>0.100794</v>
       </c>
       <c r="D89" t="n">
-        <v>0.08189589999999999</v>
+        <v>0.0794484</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.105709</v>
+        <v>0.113577</v>
       </c>
       <c r="C90" t="n">
-        <v>0.111073</v>
+        <v>0.113218</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0884341</v>
+        <v>0.0880309</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.114489</v>
+        <v>0.123292</v>
       </c>
       <c r="C91" t="n">
-        <v>0.120391</v>
+        <v>0.119573</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0972973</v>
+        <v>0.0945763</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.127596</v>
+        <v>0.135455</v>
       </c>
       <c r="C92" t="n">
-        <v>0.135888</v>
+        <v>0.139511</v>
       </c>
       <c r="D92" t="n">
-        <v>0.112188</v>
+        <v>0.110072</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.145568</v>
+        <v>0.159142</v>
       </c>
       <c r="C93" t="n">
-        <v>0.158223</v>
+        <v>0.161548</v>
       </c>
       <c r="D93" t="n">
-        <v>0.130458</v>
+        <v>0.131214</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.179333</v>
+        <v>0.198374</v>
       </c>
       <c r="C94" t="n">
-        <v>0.195624</v>
+        <v>0.20646</v>
       </c>
       <c r="D94" t="n">
-        <v>0.07860780000000001</v>
+        <v>0.0750005</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.102678</v>
+        <v>0.105624</v>
       </c>
       <c r="C95" t="n">
-        <v>0.101303</v>
+        <v>0.09917570000000001</v>
       </c>
       <c r="D95" t="n">
-        <v>0.078529</v>
+        <v>0.07840129999999999</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.106799</v>
+        <v>0.110812</v>
       </c>
       <c r="C96" t="n">
-        <v>0.10444</v>
+        <v>0.10134</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0809583</v>
+        <v>0.07728549999999999</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.108709</v>
+        <v>0.111558</v>
       </c>
       <c r="C97" t="n">
-        <v>0.107292</v>
+        <v>0.104834</v>
       </c>
       <c r="D97" t="n">
-        <v>0.08849460000000001</v>
+        <v>0.0811014</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.110732</v>
+        <v>0.121824</v>
       </c>
       <c r="C98" t="n">
-        <v>0.113182</v>
+        <v>0.114471</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0839994</v>
+        <v>0.0848349</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.111264</v>
+        <v>0.125448</v>
       </c>
       <c r="C99" t="n">
-        <v>0.112511</v>
+        <v>0.110393</v>
       </c>
       <c r="D99" t="n">
-        <v>0.09153409999999999</v>
+        <v>0.0867246</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.114399</v>
+        <v>0.12023</v>
       </c>
       <c r="C100" t="n">
-        <v>0.116172</v>
+        <v>0.116471</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0913511</v>
+        <v>0.086869</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.117839</v>
+        <v>0.133293</v>
       </c>
       <c r="C101" t="n">
-        <v>0.118383</v>
+        <v>0.122848</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0943581</v>
+        <v>0.0899181</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.12396</v>
+        <v>0.132202</v>
       </c>
       <c r="C102" t="n">
-        <v>0.124552</v>
+        <v>0.122791</v>
       </c>
       <c r="D102" t="n">
-        <v>0.101669</v>
+        <v>0.092886</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.127692</v>
+        <v>0.134199</v>
       </c>
       <c r="C103" t="n">
-        <v>0.129456</v>
+        <v>0.127725</v>
       </c>
       <c r="D103" t="n">
-        <v>0.104485</v>
+        <v>0.10169</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.134257</v>
+        <v>0.142001</v>
       </c>
       <c r="C104" t="n">
-        <v>0.146855</v>
+        <v>0.137047</v>
       </c>
       <c r="D104" t="n">
-        <v>0.111397</v>
+        <v>0.107085</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.146213</v>
+        <v>0.152385</v>
       </c>
       <c r="C105" t="n">
-        <v>0.160113</v>
+        <v>0.151422</v>
       </c>
       <c r="D105" t="n">
-        <v>0.121987</v>
+        <v>0.115627</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.155863</v>
+        <v>0.167432</v>
       </c>
       <c r="C106" t="n">
-        <v>0.171057</v>
+        <v>0.172668</v>
       </c>
       <c r="D106" t="n">
-        <v>0.129022</v>
+        <v>0.129453</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.180843</v>
+        <v>0.191535</v>
       </c>
       <c r="C107" t="n">
-        <v>0.195271</v>
+        <v>0.188036</v>
       </c>
       <c r="D107" t="n">
-        <v>0.152468</v>
+        <v>0.153596</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.215867</v>
+        <v>0.225064</v>
       </c>
       <c r="C108" t="n">
-        <v>0.235105</v>
+        <v>0.234938</v>
       </c>
       <c r="D108" t="n">
-        <v>0.15927</v>
+        <v>0.167027</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.268259</v>
+        <v>0.288302</v>
       </c>
       <c r="C109" t="n">
-        <v>0.311499</v>
+        <v>0.315902</v>
       </c>
       <c r="D109" t="n">
-        <v>0.158105</v>
+        <v>0.166744</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.182162</v>
+        <v>0.197104</v>
       </c>
       <c r="C110" t="n">
-        <v>0.177946</v>
+        <v>0.182044</v>
       </c>
       <c r="D110" t="n">
-        <v>0.156949</v>
+        <v>0.162865</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.184367</v>
+        <v>0.211392</v>
       </c>
       <c r="C111" t="n">
-        <v>0.18306</v>
+        <v>0.18524</v>
       </c>
       <c r="D111" t="n">
-        <v>0.159108</v>
+        <v>0.15976</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.182559</v>
+        <v>0.209711</v>
       </c>
       <c r="C112" t="n">
-        <v>0.184181</v>
+        <v>0.192093</v>
       </c>
       <c r="D112" t="n">
-        <v>0.170135</v>
+        <v>0.1634</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.185774</v>
+        <v>0.214604</v>
       </c>
       <c r="C113" t="n">
-        <v>0.18751</v>
+        <v>0.190045</v>
       </c>
       <c r="D113" t="n">
-        <v>0.161714</v>
+        <v>0.164593</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.191991</v>
+        <v>0.22319</v>
       </c>
       <c r="C114" t="n">
-        <v>0.190338</v>
+        <v>0.194944</v>
       </c>
       <c r="D114" t="n">
-        <v>0.162436</v>
+        <v>0.173071</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.190558</v>
+        <v>0.228908</v>
       </c>
       <c r="C115" t="n">
-        <v>0.196737</v>
+        <v>0.202211</v>
       </c>
       <c r="D115" t="n">
-        <v>0.167228</v>
+        <v>0.169813</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.199095</v>
+        <v>0.225466</v>
       </c>
       <c r="C116" t="n">
-        <v>0.205016</v>
+        <v>0.20195</v>
       </c>
       <c r="D116" t="n">
-        <v>0.172092</v>
+        <v>0.173578</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.206111</v>
+        <v>0.222768</v>
       </c>
       <c r="C117" t="n">
-        <v>0.207059</v>
+        <v>0.22394</v>
       </c>
       <c r="D117" t="n">
-        <v>0.19163</v>
+        <v>0.182856</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.202515</v>
+        <v>0.249874</v>
       </c>
       <c r="C118" t="n">
-        <v>0.212281</v>
+        <v>0.23281</v>
       </c>
       <c r="D118" t="n">
-        <v>0.186861</v>
+        <v>0.198613</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.214316</v>
+        <v>0.242101</v>
       </c>
       <c r="C119" t="n">
-        <v>0.229786</v>
+        <v>0.229423</v>
       </c>
       <c r="D119" t="n">
-        <v>0.196601</v>
+        <v>0.190974</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.227719</v>
+        <v>0.260007</v>
       </c>
       <c r="C120" t="n">
-        <v>0.240322</v>
+        <v>0.264305</v>
       </c>
       <c r="D120" t="n">
-        <v>0.202412</v>
+        <v>0.222992</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.248493</v>
+        <v>0.301426</v>
       </c>
       <c r="C121" t="n">
-        <v>0.259716</v>
+        <v>0.297913</v>
       </c>
       <c r="D121" t="n">
-        <v>0.223883</v>
+        <v>0.2337</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.284728</v>
+        <v>0.316891</v>
       </c>
       <c r="C122" t="n">
-        <v>0.311906</v>
+        <v>0.319984</v>
       </c>
       <c r="D122" t="n">
-        <v>0.255868</v>
+        <v>0.264495</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.331191</v>
+        <v>0.373531</v>
       </c>
       <c r="C123" t="n">
-        <v>0.384793</v>
+        <v>0.390462</v>
       </c>
       <c r="D123" t="n">
-        <v>0.245991</v>
+        <v>0.245404</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.286939</v>
+        <v>0.31171</v>
       </c>
       <c r="C124" t="n">
-        <v>0.267071</v>
+        <v>0.276149</v>
       </c>
       <c r="D124" t="n">
-        <v>0.244221</v>
+        <v>0.247107</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.28506</v>
+        <v>0.31702</v>
       </c>
       <c r="C125" t="n">
-        <v>0.27282</v>
+        <v>0.276485</v>
       </c>
       <c r="D125" t="n">
-        <v>0.24793</v>
+        <v>0.247801</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.295185</v>
+        <v>0.317392</v>
       </c>
       <c r="C126" t="n">
-        <v>0.27989</v>
+        <v>0.272225</v>
       </c>
       <c r="D126" t="n">
-        <v>0.248265</v>
+        <v>0.246835</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.300492</v>
+        <v>0.324688</v>
       </c>
       <c r="C127" t="n">
-        <v>0.28208</v>
+        <v>0.282186</v>
       </c>
       <c r="D127" t="n">
-        <v>0.255898</v>
+        <v>0.252893</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.305272</v>
+        <v>0.327762</v>
       </c>
       <c r="C128" t="n">
-        <v>0.282757</v>
+        <v>0.281176</v>
       </c>
       <c r="D128" t="n">
-        <v>0.257507</v>
+        <v>0.259073</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.303558</v>
+        <v>0.335458</v>
       </c>
       <c r="C129" t="n">
-        <v>0.286211</v>
+        <v>0.287352</v>
       </c>
       <c r="D129" t="n">
-        <v>0.25458</v>
+        <v>0.270131</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.312399</v>
+        <v>0.337929</v>
       </c>
       <c r="C130" t="n">
-        <v>0.300246</v>
+        <v>0.297097</v>
       </c>
       <c r="D130" t="n">
-        <v>0.272142</v>
+        <v>0.268238</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.317428</v>
+        <v>0.348318</v>
       </c>
       <c r="C131" t="n">
-        <v>0.30842</v>
+        <v>0.308269</v>
       </c>
       <c r="D131" t="n">
-        <v>0.268283</v>
+        <v>0.267414</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.323434</v>
+        <v>0.352718</v>
       </c>
       <c r="C132" t="n">
-        <v>0.310281</v>
+        <v>0.329264</v>
       </c>
       <c r="D132" t="n">
-        <v>0.275598</v>
+        <v>0.288933</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.334222</v>
+        <v>0.361372</v>
       </c>
       <c r="C133" t="n">
-        <v>0.318683</v>
+        <v>0.333354</v>
       </c>
       <c r="D133" t="n">
-        <v>0.286585</v>
+        <v>0.288528</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.357328</v>
+        <v>0.392049</v>
       </c>
       <c r="C134" t="n">
-        <v>0.335837</v>
+        <v>0.350857</v>
       </c>
       <c r="D134" t="n">
-        <v>0.29611</v>
+        <v>0.303913</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.3861</v>
+        <v>0.413768</v>
       </c>
       <c r="C135" t="n">
-        <v>0.366505</v>
+        <v>0.373466</v>
       </c>
       <c r="D135" t="n">
-        <v>0.320861</v>
+        <v>0.334598</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.407006</v>
+        <v>0.456846</v>
       </c>
       <c r="C136" t="n">
-        <v>0.40704</v>
+        <v>0.422198</v>
       </c>
       <c r="D136" t="n">
-        <v>0.364156</v>
+        <v>0.363998</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.479117</v>
+        <v>0.527728</v>
       </c>
       <c r="C137" t="n">
-        <v>0.502996</v>
+        <v>0.5170979999999999</v>
       </c>
       <c r="D137" t="n">
-        <v>0.296053</v>
+        <v>0.290963</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.366714</v>
+        <v>0.374286</v>
       </c>
       <c r="C138" t="n">
-        <v>0.327916</v>
+        <v>0.323322</v>
       </c>
       <c r="D138" t="n">
-        <v>0.296432</v>
+        <v>0.296167</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.353781</v>
+        <v>0.384697</v>
       </c>
       <c r="C139" t="n">
-        <v>0.334472</v>
+        <v>0.340709</v>
       </c>
       <c r="D139" t="n">
-        <v>0.299651</v>
+        <v>0.296171</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.363385</v>
+        <v>0.397752</v>
       </c>
       <c r="C140" t="n">
-        <v>0.332877</v>
+        <v>0.330138</v>
       </c>
       <c r="D140" t="n">
-        <v>0.304264</v>
+        <v>0.306897</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.363415</v>
+        <v>0.389818</v>
       </c>
       <c r="C141" t="n">
-        <v>0.346779</v>
+        <v>0.344454</v>
       </c>
       <c r="D141" t="n">
-        <v>0.304638</v>
+        <v>0.306802</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.371156</v>
+        <v>0.392528</v>
       </c>
       <c r="C142" t="n">
-        <v>0.346923</v>
+        <v>0.34896</v>
       </c>
       <c r="D142" t="n">
-        <v>0.311188</v>
+        <v>0.309259</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.373854</v>
+        <v>0.406604</v>
       </c>
       <c r="C143" t="n">
-        <v>0.34269</v>
+        <v>0.353361</v>
       </c>
       <c r="D143" t="n">
-        <v>0.325175</v>
+        <v>0.318777</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered unsuccessful looukp.xlsx
+++ b/vs-x64/Scattered unsuccessful looukp.xlsx
@@ -93,7 +93,7 @@
           <idx val="3"/>
           <order val="0"/>
           <tx>
-            <v>absl::flat_hash_set</v>
+            <v>absl::flat_hash_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -553,430 +553,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.185383</v>
+                  <v>0.0199746</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.185607</v>
+                  <v>0.0223711</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.186605</v>
+                  <v>0.0279843</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.187124</v>
+                  <v>0.0374557</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.188247</v>
+                  <v>0.0541003</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.189644</v>
+                  <v>0.0739308</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.191261</v>
+                  <v>0.0908332</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.193866</v>
+                  <v>0.119418</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.189625</v>
+                  <v>0.0160955</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.189347</v>
+                  <v>0.0165233</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.18967</v>
+                  <v>0.0170052</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.189651</v>
+                  <v>0.0176545</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.189799</v>
+                  <v>0.018734</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.190668</v>
+                  <v>0.020118</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.190507</v>
+                  <v>0.0231423</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.190882</v>
+                  <v>0.0275752</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.191645</v>
+                  <v>0.0337269</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.192909</v>
+                  <v>0.0441174</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.194129</v>
+                  <v>0.0560327</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.196017</v>
+                  <v>0.0735251</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.198191</v>
+                  <v>0.09810720000000001</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.201494</v>
+                  <v>0.118682</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.19585</v>
+                  <v>0.0168617</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.195797</v>
+                  <v>0.017117</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.195992</v>
+                  <v>0.0179684</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.195994</v>
+                  <v>0.018842</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.196362</v>
+                  <v>0.020762</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.196625</v>
+                  <v>0.0229493</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.196864</v>
+                  <v>0.0261253</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.197264</v>
+                  <v>0.0299548</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.198098</v>
+                  <v>0.0351932</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.199083</v>
+                  <v>0.0437828</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.200285</v>
+                  <v>0.0554948</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.202461</v>
+                  <v>0.07231650000000001</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.20494</v>
+                  <v>0.09074749999999999</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.208708</v>
+                  <v>0.117374</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.204984</v>
+                  <v>0.0170956</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.20572</v>
+                  <v>0.0178543</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.20395</v>
+                  <v>0.0189841</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.206755</v>
+                  <v>0.0200948</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.206874</v>
+                  <v>0.0217684</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.206643</v>
+                  <v>0.0244338</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.207752</v>
+                  <v>0.0277674</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.206632</v>
+                  <v>0.0324631</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.208039</v>
+                  <v>0.0387566</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.208508</v>
+                  <v>0.044976</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.21314</v>
+                  <v>0.0559175</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.214405</v>
+                  <v>0.0710027</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.216212</v>
+                  <v>0.0908212</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.220277</v>
+                  <v>0.117424</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.225836</v>
+                  <v>0.140864</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.239701</v>
+                  <v>0.0189027</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.239374</v>
+                  <v>0.0201008</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.239406</v>
+                  <v>0.021583</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.239685</v>
+                  <v>0.0235148</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.240074</v>
+                  <v>0.0261005</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.239923</v>
+                  <v>0.0293833</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.240387</v>
+                  <v>0.0337692</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.240948</v>
+                  <v>0.0392899</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.241596</v>
+                  <v>0.046662</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.242725</v>
+                  <v>0.0562823</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.2443</v>
+                  <v>0.0701638</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.246192</v>
+                  <v>0.0890341</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.249543</v>
+                  <v>0.114833</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.254656</v>
+                  <v>0.144939</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.255606</v>
+                  <v>0.0197502</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.25724</v>
+                  <v>0.0210028</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.258741</v>
+                  <v>0.0227789</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.256833</v>
+                  <v>0.0246593</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.257274</v>
+                  <v>0.0270269</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.262396</v>
+                  <v>0.0302493</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.25894</v>
+                  <v>0.0342455</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.261004</v>
+                  <v>0.0395435</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.260554</v>
+                  <v>0.0466214</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.260622</v>
+                  <v>0.0559597</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.265311</v>
+                  <v>0.0685593</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.27449</v>
+                  <v>0.0867699</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.282328</v>
+                  <v>0.111201</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.283954</v>
+                  <v>0.141494</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.434666</v>
+                  <v>0.0200207</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.448057</v>
+                  <v>0.0212269</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.385917</v>
+                  <v>0.0226945</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.399879</v>
+                  <v>0.0246895</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.455774</v>
+                  <v>0.0274303</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.443092</v>
+                  <v>0.0301632</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.39204</v>
+                  <v>0.0343383</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.360522</v>
+                  <v>0.0393209</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.359055</v>
+                  <v>0.0454285</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.395665</v>
+                  <v>0.0543419</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.376249</v>
+                  <v>0.06590409999999999</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.379278</v>
+                  <v>0.08316999999999999</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.403744</v>
+                  <v>0.106615</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.437741</v>
+                  <v>0.136838</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.550984</v>
+                  <v>0.0207148</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.56246</v>
+                  <v>0.0218231</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.528468</v>
+                  <v>0.0235618</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.522787</v>
+                  <v>0.0254205</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.522766</v>
+                  <v>0.0277238</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.541872</v>
+                  <v>0.0309717</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.485955</v>
+                  <v>0.034493</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.504454</v>
+                  <v>0.0401348</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.513336</v>
+                  <v>0.0464552</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.443294</v>
+                  <v>0.0546064</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.449806</v>
+                  <v>0.065411</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.508251</v>
+                  <v>0.08111790000000001</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.455857</v>
+                  <v>0.10261</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.506961</v>
+                  <v>0.131855</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.497047</v>
+                  <v>0.167859</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.5698029999999999</v>
+                  <v>0.0308739</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.62543</v>
+                  <v>0.032613</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.578956</v>
+                  <v>0.034221</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.64242</v>
+                  <v>0.0360225</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.590384</v>
+                  <v>0.0383657</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.5832270000000001</v>
+                  <v>0.0408546</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.55203</v>
+                  <v>0.0441552</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.551107</v>
+                  <v>0.0485179</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.5461549999999999</v>
+                  <v>0.0552273</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.558638</v>
+                  <v>0.06492580000000001</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.546427</v>
+                  <v>0.0791367</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.541991</v>
+                  <v>0.0999347</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.530105</v>
+                  <v>0.128094</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.574083</v>
+                  <v>0.163548</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.678766</v>
+                  <v>0.0346339</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.691848</v>
+                  <v>0.0355354</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.627237</v>
+                  <v>0.0372352</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.6081220000000001</v>
+                  <v>0.0385047</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.639138</v>
+                  <v>0.0411049</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.632568</v>
+                  <v>0.0439798</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.64813</v>
+                  <v>0.04739</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.6033500000000001</v>
+                  <v>0.0521658</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.6096279999999999</v>
+                  <v>0.0586895</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.666418</v>
+                  <v>0.0680711</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.722901</v>
+                  <v>0.0820838</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.6843399999999999</v>
+                  <v>0.101855</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.691974</v>
+                  <v>0.12951</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.7238830000000001</v>
+                  <v>0.163867</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.767194</v>
+                  <v>0.0468922</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.7875</v>
+                  <v>0.0482012</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.791062</v>
+                  <v>0.0491648</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.758329</v>
+                  <v>0.0527207</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.770876</v>
+                  <v>0.0528154</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.737333</v>
+                  <v>0.055782</v>
                 </pt>
               </numCache>
             </numRef>
@@ -987,7 +987,7 @@
           <idx val="4"/>
           <order val="1"/>
           <tx>
-            <v>foa_unordered_rc16_set</v>
+            <v>foa_unordered_rc16_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -1447,430 +1447,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.207513</v>
+                  <v>0.0185839</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.207817</v>
+                  <v>0.0180835</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.208593</v>
+                  <v>0.0186575</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.209369</v>
+                  <v>0.0219409</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.211344</v>
+                  <v>0.0348619</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.212097</v>
+                  <v>0.046746</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.213952</v>
+                  <v>0.0887013</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.217604</v>
+                  <v>0.119804</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.207746</v>
+                  <v>0.0180709</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.209665</v>
+                  <v>0.0184204</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.20981</v>
+                  <v>0.0189457</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.210476</v>
+                  <v>0.0193755</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.210732</v>
+                  <v>0.0198448</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.211696</v>
+                  <v>0.020306</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.212256</v>
+                  <v>0.0209034</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.212852</v>
+                  <v>0.0227075</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.213634</v>
+                  <v>0.0253999</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.215167</v>
+                  <v>0.0319034</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.215972</v>
+                  <v>0.0383341</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.21763</v>
+                  <v>0.0568493</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.220112</v>
+                  <v>0.0838647</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.223056</v>
+                  <v>0.131653</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.209433</v>
+                  <v>0.0187591</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.209564</v>
+                  <v>0.0191409</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.210185</v>
+                  <v>0.0197405</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.210438</v>
+                  <v>0.020439</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.211247</v>
+                  <v>0.0212415</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.211254</v>
+                  <v>0.0219892</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.212385</v>
+                  <v>0.0234121</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.213096</v>
+                  <v>0.0264304</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.214233</v>
+                  <v>0.0302305</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.215302</v>
+                  <v>0.0366198</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.21649</v>
+                  <v>0.0459437</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.21861</v>
+                  <v>0.0594599</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.221448</v>
+                  <v>0.0878531</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.22576</v>
+                  <v>0.129282</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.213927</v>
+                  <v>0.0198852</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.214925</v>
+                  <v>0.0203496</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.215476</v>
+                  <v>0.0210131</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.215189</v>
+                  <v>0.0216736</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.216189</v>
+                  <v>0.0228112</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.21693</v>
+                  <v>0.0240973</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.218236</v>
+                  <v>0.0257658</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.219015</v>
+                  <v>0.0290975</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.221901</v>
+                  <v>0.0349767</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.219659</v>
+                  <v>0.0398391</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.222921</v>
+                  <v>0.0491529</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.224707</v>
+                  <v>0.06340750000000001</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.229186</v>
+                  <v>0.0843724</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.233644</v>
+                  <v>0.121267</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.241295</v>
+                  <v>0.167097</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.239069</v>
+                  <v>0.0213247</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.239541</v>
+                  <v>0.0219345</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.240295</v>
+                  <v>0.022889</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.242151</v>
+                  <v>0.0238477</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.243641</v>
+                  <v>0.0253224</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.243783</v>
+                  <v>0.0275992</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.244885</v>
+                  <v>0.0302451</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.246437</v>
+                  <v>0.0345438</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.247802</v>
+                  <v>0.0408319</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.249783</v>
+                  <v>0.0492235</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.252535</v>
+                  <v>0.061553</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.256059</v>
+                  <v>0.0805206</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.260138</v>
+                  <v>0.113447</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.268357</v>
+                  <v>0.161291</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.275224</v>
+                  <v>0.0217627</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.276503</v>
+                  <v>0.022553</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.277776</v>
+                  <v>0.0235574</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.278297</v>
+                  <v>0.0246975</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.280737</v>
+                  <v>0.0260874</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.28054</v>
+                  <v>0.0279758</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.281726</v>
+                  <v>0.030811</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.282924</v>
+                  <v>0.034622</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.285336</v>
+                  <v>0.0402214</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.287671</v>
+                  <v>0.047952</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.291509</v>
+                  <v>0.0592906</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.2952</v>
+                  <v>0.07559440000000001</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.307095</v>
+                  <v>0.103124</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.312665</v>
+                  <v>0.148399</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.287846</v>
+                  <v>0.0223391</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.302136</v>
+                  <v>0.0231769</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.27906</v>
+                  <v>0.0241129</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.304678</v>
+                  <v>0.0252673</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.356345</v>
+                  <v>0.0268372</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.288947</v>
+                  <v>0.0286828</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.290747</v>
+                  <v>0.0310672</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.28432</v>
+                  <v>0.0345672</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.296649</v>
+                  <v>0.0394295</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.295213</v>
+                  <v>0.0468561</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.314524</v>
+                  <v>0.0569589</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.322241</v>
+                  <v>0.07245</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.336039</v>
+                  <v>0.09784569999999999</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.321098</v>
+                  <v>0.139669</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.484726</v>
+                  <v>0.0237499</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.498166</v>
+                  <v>0.0249294</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.517987</v>
+                  <v>0.0266465</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.532666</v>
+                  <v>0.0293475</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.495137</v>
+                  <v>0.0325618</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.449602</v>
+                  <v>0.0359918</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.413912</v>
+                  <v>0.0391962</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.546197</v>
+                  <v>0.0423199</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.382799</v>
+                  <v>0.0459227</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.377815</v>
+                  <v>0.0516739</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.521379</v>
+                  <v>0.0586182</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.421292</v>
+                  <v>0.07141210000000001</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.438736</v>
+                  <v>0.09303640000000001</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.521957</v>
+                  <v>0.131746</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.475413</v>
+                  <v>0.183631</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.617764</v>
+                  <v>0.0382801</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.654273</v>
+                  <v>0.0392846</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.6944939999999999</v>
+                  <v>0.040221</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.656334</v>
+                  <v>0.0413197</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.649984</v>
+                  <v>0.0426685</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.531063</v>
+                  <v>0.0443478</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.550509</v>
+                  <v>0.0465075</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.5761579999999999</v>
+                  <v>0.0495102</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.578</v>
+                  <v>0.0538235</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.647649</v>
+                  <v>0.0601526</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.63648</v>
+                  <v>0.0710412</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.628615</v>
+                  <v>0.0895113</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.59633</v>
+                  <v>0.122948</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.625355</v>
+                  <v>0.172866</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.659179</v>
+                  <v>0.0424721</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.666982</v>
+                  <v>0.0434258</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.656903</v>
+                  <v>0.044818</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.657123</v>
+                  <v>0.0458006</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.711487</v>
+                  <v>0.0473031</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.689036</v>
+                  <v>0.0493497</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.707103</v>
+                  <v>0.0516778</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.6603290000000001</v>
+                  <v>0.0546998</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.687039</v>
+                  <v>0.0591634</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.737206</v>
+                  <v>0.0653265</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.720435</v>
+                  <v>0.0752591</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.759125</v>
+                  <v>0.0919177</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.798233</v>
+                  <v>0.121142</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.809383</v>
+                  <v>0.1684</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.738269</v>
+                  <v>0.0552701</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.739426</v>
+                  <v>0.0564094</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.752214</v>
+                  <v>0.0574369</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.772877</v>
+                  <v>0.0586381</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.746614</v>
+                  <v>0.0601686</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.761084</v>
+                  <v>0.0620335</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1881,7 +1881,7 @@
           <idx val="5"/>
           <order val="2"/>
           <tx>
-            <v>foa_unordered_rc15_set</v>
+            <v>foa_unordered_rc15_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -2341,430 +2341,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.216837</v>
+                  <v>0.0201621</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.218104</v>
+                  <v>0.0205927</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.219175</v>
+                  <v>0.0213328</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.220505</v>
+                  <v>0.0224255</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.221362</v>
+                  <v>0.0228236</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.224182</v>
+                  <v>0.0246502</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.228887</v>
+                  <v>0.0289321</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.21728</v>
+                  <v>0.0176491</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.217315</v>
+                  <v>0.0179043</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.21793</v>
+                  <v>0.0181965</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.217787</v>
+                  <v>0.0185586</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.217923</v>
+                  <v>0.0189253</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.218541</v>
+                  <v>0.0192987</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.21938</v>
+                  <v>0.0198485</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.220115</v>
+                  <v>0.0203825</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.22137</v>
+                  <v>0.0208815</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.222222</v>
+                  <v>0.0220019</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.223529</v>
+                  <v>0.022769</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.22549</v>
+                  <v>0.0243123</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.228447</v>
+                  <v>0.0273683</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.232987</v>
+                  <v>0.0323586</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.219102</v>
+                  <v>0.017563</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.219541</v>
+                  <v>0.0179077</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.219748</v>
+                  <v>0.0181191</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.219959</v>
+                  <v>0.0185128</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.220642</v>
+                  <v>0.0188997</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.221022</v>
+                  <v>0.0193475</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.221462</v>
+                  <v>0.0197701</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.222167</v>
+                  <v>0.0202878</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.223124</v>
+                  <v>0.0211156</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.224288</v>
+                  <v>0.0221556</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.225905</v>
+                  <v>0.0232419</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.227744</v>
+                  <v>0.0249746</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.230598</v>
+                  <v>0.0282488</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.236023</v>
+                  <v>0.0352729</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.223464</v>
+                  <v>0.017949</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.224531</v>
+                  <v>0.0182123</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.224587</v>
+                  <v>0.0184241</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.224483</v>
+                  <v>0.0187582</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.224507</v>
+                  <v>0.0191191</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.224405</v>
+                  <v>0.0195615</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.226664</v>
+                  <v>0.0201191</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.22932</v>
+                  <v>0.0206961</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.227395</v>
+                  <v>0.0215587</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.229934</v>
+                  <v>0.0226734</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.230548</v>
+                  <v>0.0242101</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.233495</v>
+                  <v>0.0265092</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.236796</v>
+                  <v>0.0299203</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.241887</v>
+                  <v>0.0362318</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.249886</v>
+                  <v>0.018616</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.250123</v>
+                  <v>0.0188728</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.250994</v>
+                  <v>0.0191354</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.250755</v>
+                  <v>0.0194676</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.252193</v>
+                  <v>0.0198285</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.253215</v>
+                  <v>0.0202084</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.254239</v>
+                  <v>0.0207233</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.254333</v>
+                  <v>0.0213995</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.254855</v>
+                  <v>0.0222513</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.25697</v>
+                  <v>0.023328</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.258883</v>
+                  <v>0.0249404</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.260853</v>
+                  <v>0.027529</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.264751</v>
+                  <v>0.0313116</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.269732</v>
+                  <v>0.0376983</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.276114</v>
+                  <v>0.0489477</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.273031</v>
+                  <v>0.019011</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.273085</v>
+                  <v>0.0193203</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.274781</v>
+                  <v>0.0197232</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.276111</v>
+                  <v>0.0201442</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.276388</v>
+                  <v>0.0205764</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.279423</v>
+                  <v>0.0210852</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.279404</v>
+                  <v>0.0217122</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.283286</v>
+                  <v>0.022629</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.283068</v>
+                  <v>0.0237333</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.285769</v>
+                  <v>0.0254197</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.290016</v>
+                  <v>0.0277608</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.294341</v>
+                  <v>0.0313383</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.299975</v>
+                  <v>0.037026</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.307466</v>
+                  <v>0.0465119</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.35631</v>
+                  <v>0.0192382</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.346467</v>
+                  <v>0.0195643</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.341993</v>
+                  <v>0.0199296</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.343153</v>
+                  <v>0.0204282</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.401885</v>
+                  <v>0.0208927</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.397565</v>
+                  <v>0.021538</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.332944</v>
+                  <v>0.0222851</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.344294</v>
+                  <v>0.0232149</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.325342</v>
+                  <v>0.0244507</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.352167</v>
+                  <v>0.0259784</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.337268</v>
+                  <v>0.0282943</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.36583</v>
+                  <v>0.0314579</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.380756</v>
+                  <v>0.0365879</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.421928</v>
+                  <v>0.0450952</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.501549</v>
+                  <v>0.0208871</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.537262</v>
+                  <v>0.0214555</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.56011</v>
+                  <v>0.0220137</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.5275609999999999</v>
+                  <v>0.0225922</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.495897</v>
+                  <v>0.0232915</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.572755</v>
+                  <v>0.0246113</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.498945</v>
+                  <v>0.0266287</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.449178</v>
+                  <v>0.0293725</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.547782</v>
+                  <v>0.0323838</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.415949</v>
+                  <v>0.0353862</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.390068</v>
+                  <v>0.0384466</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.52965</v>
+                  <v>0.0416202</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.403388</v>
+                  <v>0.0456443</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.438826</v>
+                  <v>0.0519131</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.602194</v>
+                  <v>0.0324166</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.620428</v>
+                  <v>0.0334394</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.725276</v>
+                  <v>0.0342435</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.702693</v>
+                  <v>0.0350556</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.73215</v>
+                  <v>0.0358717</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.661095</v>
+                  <v>0.0366873</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.606508</v>
+                  <v>0.0376708</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.582412</v>
+                  <v>0.0386302</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.6140600000000001</v>
+                  <v>0.0398146</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.607225</v>
+                  <v>0.0412212</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.58941</v>
+                  <v>0.0429427</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.744695</v>
+                  <v>0.0455556</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.644252</v>
+                  <v>0.0491536</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.5756869999999999</v>
+                  <v>0.054736</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.654726</v>
+                  <v>0.0644487</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.742186</v>
+                  <v>0.0379716</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.727647</v>
+                  <v>0.0387374</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.695211</v>
+                  <v>0.039425</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.797323</v>
+                  <v>0.0400483</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.741178</v>
+                  <v>0.0410584</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.736914</v>
+                  <v>0.0419449</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.781694</v>
+                  <v>0.0429313</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.746709</v>
+                  <v>0.0441977</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.689246</v>
+                  <v>0.0457638</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.72965</v>
+                  <v>0.0475294</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.8171620000000001</v>
+                  <v>0.0500786</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.776553</v>
+                  <v>0.0536186</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.784866</v>
+                  <v>0.0591599</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.837244</v>
+                  <v>0.0689019</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.8127220000000001</v>
+                  <v>0.0534654</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.830338</v>
+                  <v>0.0539555</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.815751</v>
+                  <v>0.0548494</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.825283</v>
+                  <v>0.0553747</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.822431</v>
+                  <v>0.0561235</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.828008</v>
+                  <v>0.0611306</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.854793</v>
+                  <v>0.0579442</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3210,36 +3210,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr codeName="Hoja1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="2" min="1" style="1" width="11.42578125"/>
-    <col customWidth="1" max="16384" min="3" style="1" width="11.42578125"/>
+    <col customWidth="1" max="5" min="1" style="1" width="11.42578125"/>
+    <col customWidth="1" max="16384" min="6" style="1" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="B1" t="inlineStr">
         <is>
-          <t>absl::flat_hash_set</t>
+          <t>absl::flat_hash_map</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc16_set</t>
+          <t>foa_unordered_rc16_map</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc15_set</t>
+          <t>foa_unordered_rc15_map</t>
         </is>
       </c>
     </row>

--- a/vs-x64/Scattered unsuccessful looukp.xlsx
+++ b/vs-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.041687</v>
+        <v>0.0429411</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0390244</v>
+        <v>0.040813</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0353619</v>
+        <v>0.0363079</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0448078</v>
+        <v>0.0435062</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0422448</v>
+        <v>0.0455223</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0390937</v>
+        <v>0.038446</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0501975</v>
+        <v>0.0479534</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0491814</v>
+        <v>0.0502178</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0436952</v>
+        <v>0.0427899</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0512533</v>
+        <v>0.0504712</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0561162</v>
+        <v>0.0582082</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0477486</v>
+        <v>0.0492495</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0612722</v>
+        <v>0.0584858</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06510970000000001</v>
+        <v>0.0664134</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0541635</v>
+        <v>0.0543342</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0756537</v>
+        <v>0.0744856</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0815916</v>
+        <v>0.0788112</v>
       </c>
       <c r="D7" t="n">
-        <v>0.07029050000000001</v>
+        <v>0.0658349</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0943204</v>
+        <v>0.0987533</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0979371</v>
+        <v>0.0992393</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0900885</v>
+        <v>0.08565490000000001</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.129003</v>
+        <v>0.126762</v>
       </c>
       <c r="C9" t="n">
-        <v>0.133839</v>
+        <v>0.133998</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0318131</v>
+        <v>0.0312122</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0399459</v>
+        <v>0.0395322</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0338275</v>
+        <v>0.0370416</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0321522</v>
+        <v>0.0316729</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0412878</v>
+        <v>0.0409675</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0354002</v>
+        <v>0.0361308</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0323019</v>
+        <v>0.0323438</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0402847</v>
+        <v>0.0419686</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0350801</v>
+        <v>0.0384609</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0328745</v>
+        <v>0.0335413</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0412134</v>
+        <v>0.0413771</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0365314</v>
+        <v>0.0380218</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0348855</v>
+        <v>0.0343251</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0422637</v>
+        <v>0.0413439</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0370391</v>
+        <v>0.0399352</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0341445</v>
+        <v>0.035042</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0417492</v>
+        <v>0.043025</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03949</v>
+        <v>0.0401921</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0361316</v>
+        <v>0.0353629</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0433657</v>
+        <v>0.0455576</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0431257</v>
+        <v>0.0436099</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0386824</v>
+        <v>0.0392704</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0459255</v>
+        <v>0.0490132</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0458882</v>
+        <v>0.0464524</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0423436</v>
+        <v>0.0409794</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0509103</v>
+        <v>0.0515465</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0501422</v>
+        <v>0.0521646</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0455056</v>
+        <v>0.0448467</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0539432</v>
+        <v>0.0570983</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0550588</v>
+        <v>0.0571251</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0494501</v>
+        <v>0.0503716</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0605091</v>
+        <v>0.0660051</v>
       </c>
       <c r="C20" t="n">
-        <v>0.06467920000000001</v>
+        <v>0.0660534</v>
       </c>
       <c r="D20" t="n">
-        <v>0.057032</v>
+        <v>0.0578127</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.07207</v>
+        <v>0.0747641</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0770536</v>
+        <v>0.0782158</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0690158</v>
+        <v>0.0694743</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0915097</v>
+        <v>0.0954965</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0970743</v>
+        <v>0.101594</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0911059</v>
+        <v>0.08742179999999999</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.120508</v>
+        <v>0.121295</v>
       </c>
       <c r="C23" t="n">
-        <v>0.133318</v>
+        <v>0.136504</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0343319</v>
+        <v>0.0334565</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0438941</v>
+        <v>0.0431783</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0364852</v>
+        <v>0.0370317</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0325404</v>
+        <v>0.0351114</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0427837</v>
+        <v>0.0427628</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0364659</v>
+        <v>0.0382826</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0343525</v>
+        <v>0.0332468</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0429238</v>
+        <v>0.0445589</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0375589</v>
+        <v>0.0397377</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0349754</v>
+        <v>0.0350434</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0434019</v>
+        <v>0.0445247</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0397921</v>
+        <v>0.0403477</v>
       </c>
       <c r="D27" t="n">
-        <v>0.034706</v>
+        <v>0.0353017</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0449716</v>
+        <v>0.0460943</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0413309</v>
+        <v>0.0422076</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0367907</v>
+        <v>0.0371201</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0464774</v>
+        <v>0.0465818</v>
       </c>
       <c r="C29" t="n">
-        <v>0.040674</v>
+        <v>0.0436647</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0373177</v>
+        <v>0.0384159</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0485287</v>
+        <v>0.0483805</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0441232</v>
+        <v>0.0449029</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0396032</v>
+        <v>0.0393968</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0509304</v>
+        <v>0.0500113</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0453492</v>
+        <v>0.0481264</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0415321</v>
+        <v>0.0423313</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0539036</v>
+        <v>0.0544776</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0514847</v>
+        <v>0.0529075</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0442969</v>
+        <v>0.0447191</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0580091</v>
+        <v>0.0573326</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0565427</v>
+        <v>0.0591079</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0498946</v>
+        <v>0.0501151</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0677367</v>
+        <v>0.0662976</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0630328</v>
+        <v>0.067258</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0573677</v>
+        <v>0.0598409</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0776453</v>
+        <v>0.0789145</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0726986</v>
+        <v>0.07780090000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0698014</v>
+        <v>0.0702576</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0944256</v>
+        <v>0.0961929</v>
       </c>
       <c r="C36" t="n">
-        <v>0.100259</v>
+        <v>0.0997149</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0860561</v>
+        <v>0.086641</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.122107</v>
+        <v>0.129392</v>
       </c>
       <c r="C37" t="n">
-        <v>0.128467</v>
+        <v>0.130861</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0360606</v>
+        <v>0.0361393</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0480436</v>
+        <v>0.0463656</v>
       </c>
       <c r="C38" t="n">
-        <v>0.041226</v>
+        <v>0.0406069</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0370189</v>
+        <v>0.0354771</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0463307</v>
+        <v>0.0473094</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0419998</v>
+        <v>0.0409809</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0372412</v>
+        <v>0.0364751</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0490179</v>
+        <v>0.0495198</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0419318</v>
+        <v>0.0424194</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0368214</v>
+        <v>0.0363992</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0495961</v>
+        <v>0.049024</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0429649</v>
+        <v>0.0447622</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0381432</v>
+        <v>0.0384082</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0505163</v>
+        <v>0.0505118</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0439747</v>
+        <v>0.0446672</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0403801</v>
+        <v>0.0399797</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0514383</v>
+        <v>0.0518568</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0445046</v>
+        <v>0.046863</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0396358</v>
+        <v>0.0408603</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0535481</v>
+        <v>0.0548441</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0461765</v>
+        <v>0.0497856</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0452171</v>
+        <v>0.0422878</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0576938</v>
+        <v>0.0569357</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0490577</v>
+        <v>0.0512481</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0448484</v>
+        <v>0.0445352</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0582286</v>
+        <v>0.0603281</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0552395</v>
+        <v>0.0562853</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0495424</v>
+        <v>0.0469928</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0643184</v>
+        <v>0.0633818</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0576363</v>
+        <v>0.061668</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0536747</v>
+        <v>0.0544791</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0693045</v>
+        <v>0.0713081</v>
       </c>
       <c r="C48" t="n">
-        <v>0.06600209999999999</v>
+        <v>0.07262200000000001</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0623356</v>
+        <v>0.0609035</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0819361</v>
+        <v>0.0775585</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0804129</v>
+        <v>0.080648</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0705636</v>
+        <v>0.0712689</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0939075</v>
+        <v>0.0965208</v>
       </c>
       <c r="C50" t="n">
-        <v>0.09719179999999999</v>
+        <v>0.0986736</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0883781</v>
+        <v>0.08545419999999999</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.120986</v>
+        <v>0.123043</v>
       </c>
       <c r="C51" t="n">
-        <v>0.123094</v>
+        <v>0.126888</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0426359</v>
+        <v>0.0420135</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.15806</v>
+        <v>0.162517</v>
       </c>
       <c r="C52" t="n">
-        <v>0.168645</v>
+        <v>0.175218</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0431948</v>
+        <v>0.0438158</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0572765</v>
+        <v>0.0584455</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0506516</v>
+        <v>0.0510667</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0426758</v>
+        <v>0.0431179</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0583186</v>
+        <v>0.0591069</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0511127</v>
+        <v>0.0519133</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0439429</v>
+        <v>0.0438898</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0602194</v>
+        <v>0.0593336</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0515863</v>
+        <v>0.0536458</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0487665</v>
+        <v>0.0441346</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0612569</v>
+        <v>0.0607701</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0544173</v>
+        <v>0.0533241</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0461789</v>
+        <v>0.0462165</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0609486</v>
+        <v>0.062074</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0554961</v>
+        <v>0.0559639</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0465922</v>
+        <v>0.0460802</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.063098</v>
+        <v>0.0628644</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0582631</v>
+        <v>0.0583545</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0499189</v>
+        <v>0.0480848</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.06696770000000001</v>
+        <v>0.0657985</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0608145</v>
+        <v>0.0608029</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0530993</v>
+        <v>0.0512714</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0695426</v>
+        <v>0.0697947</v>
       </c>
       <c r="C60" t="n">
-        <v>0.06684039999999999</v>
+        <v>0.0647417</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0541877</v>
+        <v>0.0531703</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0711227</v>
+        <v>0.0724559</v>
       </c>
       <c r="C61" t="n">
-        <v>0.068122</v>
+        <v>0.07237250000000001</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0591768</v>
+        <v>0.0585834</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.08206479999999999</v>
+        <v>0.07786419999999999</v>
       </c>
       <c r="C62" t="n">
-        <v>0.07615280000000001</v>
+        <v>0.0777428</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0652711</v>
+        <v>0.0677543</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0865761</v>
+        <v>0.08812830000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0883168</v>
+        <v>0.0890661</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0756115</v>
+        <v>0.0754736</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.101191</v>
+        <v>0.102708</v>
       </c>
       <c r="C64" t="n">
-        <v>0.103248</v>
+        <v>0.104571</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0902734</v>
+        <v>0.0900705</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.123015</v>
+        <v>0.125701</v>
       </c>
       <c r="C65" t="n">
-        <v>0.130137</v>
+        <v>0.13197</v>
       </c>
       <c r="D65" t="n">
-        <v>0.111673</v>
+        <v>0.109939</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.156989</v>
+        <v>0.157999</v>
       </c>
       <c r="C66" t="n">
-        <v>0.171433</v>
+        <v>0.173828</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0475007</v>
+        <v>0.0480354</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.06577040000000001</v>
+        <v>0.0675328</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0609244</v>
+        <v>0.058214</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0489052</v>
+        <v>0.0507659</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.06850589999999999</v>
+        <v>0.066275</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0609197</v>
+        <v>0.0602122</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0503835</v>
+        <v>0.0495502</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0690799</v>
+        <v>0.06881470000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0626941</v>
+        <v>0.0610584</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0505169</v>
+        <v>0.0497205</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0729582</v>
+        <v>0.0709809</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0645946</v>
+        <v>0.0626694</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0526204</v>
+        <v>0.0503549</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.07093140000000001</v>
+        <v>0.0731909</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0680629</v>
+        <v>0.0672224</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0524674</v>
+        <v>0.0526401</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0747758</v>
+        <v>0.0740996</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0678097</v>
+        <v>0.0706075</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0564606</v>
+        <v>0.055391</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0757602</v>
+        <v>0.0778711</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0723641</v>
+        <v>0.0752177</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0593844</v>
+        <v>0.0568584</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0804836</v>
+        <v>0.08043069999999999</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0752099</v>
+        <v>0.0777172</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0619649</v>
+        <v>0.0609726</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0865427</v>
+        <v>0.085762</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0833348</v>
+        <v>0.0819969</v>
       </c>
       <c r="D75" t="n">
-        <v>0.06701849999999999</v>
+        <v>0.0698873</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.096043</v>
+        <v>0.0942692</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0895874</v>
+        <v>0.09062820000000001</v>
       </c>
       <c r="D76" t="n">
-        <v>0.07221320000000001</v>
+        <v>0.07225239999999999</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0993247</v>
+        <v>0.103327</v>
       </c>
       <c r="C77" t="n">
-        <v>0.100963</v>
+        <v>0.104398</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0856717</v>
+        <v>0.0811837</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.123761</v>
+        <v>0.119886</v>
       </c>
       <c r="C78" t="n">
-        <v>0.116349</v>
+        <v>0.118929</v>
       </c>
       <c r="D78" t="n">
-        <v>0.10203</v>
+        <v>0.095898</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.13845</v>
+        <v>0.140801</v>
       </c>
       <c r="C79" t="n">
-        <v>0.139744</v>
+        <v>0.144429</v>
       </c>
       <c r="D79" t="n">
-        <v>0.126503</v>
+        <v>0.118131</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.190574</v>
+        <v>0.175426</v>
       </c>
       <c r="C80" t="n">
-        <v>0.179935</v>
+        <v>0.19498</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0580277</v>
+        <v>0.0548092</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.08057499999999999</v>
+        <v>0.0821215</v>
       </c>
       <c r="C81" t="n">
-        <v>0.07393420000000001</v>
+        <v>0.0727819</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0557918</v>
+        <v>0.05601</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0814339</v>
+        <v>0.0832248</v>
       </c>
       <c r="C82" t="n">
-        <v>0.07433620000000001</v>
+        <v>0.0760285</v>
       </c>
       <c r="D82" t="n">
-        <v>0.058259</v>
+        <v>0.058316</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.08353919999999999</v>
+        <v>0.08896800000000001</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0790978</v>
+        <v>0.07657750000000001</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0611179</v>
+        <v>0.06332980000000001</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0862945</v>
+        <v>0.0929972</v>
       </c>
       <c r="C84" t="n">
-        <v>0.08209379999999999</v>
+        <v>0.0802119</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0654087</v>
+        <v>0.0618381</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0944077</v>
+        <v>0.09024210000000001</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0842667</v>
+        <v>0.08351450000000001</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0657505</v>
+        <v>0.0646939</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.09218800000000001</v>
+        <v>0.09344230000000001</v>
       </c>
       <c r="C86" t="n">
-        <v>0.08620319999999999</v>
+        <v>0.08778909999999999</v>
       </c>
       <c r="D86" t="n">
-        <v>0.06786</v>
+        <v>0.0653065</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0965037</v>
+        <v>0.0995789</v>
       </c>
       <c r="C87" t="n">
-        <v>0.094488</v>
+        <v>0.09335499999999999</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0729025</v>
+        <v>0.0727931</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.103348</v>
+        <v>0.10036</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0984801</v>
+        <v>0.0987582</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0748615</v>
+        <v>0.07357619999999999</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.107669</v>
+        <v>0.107634</v>
       </c>
       <c r="C89" t="n">
-        <v>0.100794</v>
+        <v>0.102702</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0794484</v>
+        <v>0.07995670000000001</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.113577</v>
+        <v>0.114745</v>
       </c>
       <c r="C90" t="n">
-        <v>0.113218</v>
+        <v>0.11076</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0880309</v>
+        <v>0.0948228</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.123292</v>
+        <v>0.124867</v>
       </c>
       <c r="C91" t="n">
-        <v>0.119573</v>
+        <v>0.124735</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0945763</v>
+        <v>0.09568980000000001</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.135455</v>
+        <v>0.140593</v>
       </c>
       <c r="C92" t="n">
-        <v>0.139511</v>
+        <v>0.147303</v>
       </c>
       <c r="D92" t="n">
-        <v>0.110072</v>
+        <v>0.107001</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.159142</v>
+        <v>0.161689</v>
       </c>
       <c r="C93" t="n">
-        <v>0.161548</v>
+        <v>0.164001</v>
       </c>
       <c r="D93" t="n">
-        <v>0.131214</v>
+        <v>0.130579</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.198374</v>
+        <v>0.19701</v>
       </c>
       <c r="C94" t="n">
-        <v>0.20646</v>
+        <v>0.20222</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0750005</v>
+        <v>0.0735537</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.105624</v>
+        <v>0.111228</v>
       </c>
       <c r="C95" t="n">
-        <v>0.09917570000000001</v>
+        <v>0.09889530000000001</v>
       </c>
       <c r="D95" t="n">
-        <v>0.07840129999999999</v>
+        <v>0.0767171</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.110812</v>
+        <v>0.110724</v>
       </c>
       <c r="C96" t="n">
-        <v>0.10134</v>
+        <v>0.103123</v>
       </c>
       <c r="D96" t="n">
-        <v>0.07728549999999999</v>
+        <v>0.0786896</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.111558</v>
+        <v>0.116216</v>
       </c>
       <c r="C97" t="n">
-        <v>0.104834</v>
+        <v>0.103304</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0811014</v>
+        <v>0.07959479999999999</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.121824</v>
+        <v>0.116414</v>
       </c>
       <c r="C98" t="n">
-        <v>0.114471</v>
+        <v>0.107063</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0848349</v>
+        <v>0.0827707</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.125448</v>
+        <v>0.120413</v>
       </c>
       <c r="C99" t="n">
-        <v>0.110393</v>
+        <v>0.110555</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0867246</v>
+        <v>0.0843356</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.12023</v>
+        <v>0.121277</v>
       </c>
       <c r="C100" t="n">
-        <v>0.116471</v>
+        <v>0.114405</v>
       </c>
       <c r="D100" t="n">
-        <v>0.086869</v>
+        <v>0.08705400000000001</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.133293</v>
+        <v>0.124204</v>
       </c>
       <c r="C101" t="n">
-        <v>0.122848</v>
+        <v>0.118721</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0899181</v>
+        <v>0.0920672</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.132202</v>
+        <v>0.133158</v>
       </c>
       <c r="C102" t="n">
-        <v>0.122791</v>
+        <v>0.127088</v>
       </c>
       <c r="D102" t="n">
-        <v>0.092886</v>
+        <v>0.0963749</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.134199</v>
+        <v>0.136542</v>
       </c>
       <c r="C103" t="n">
-        <v>0.127725</v>
+        <v>0.131208</v>
       </c>
       <c r="D103" t="n">
-        <v>0.10169</v>
+        <v>0.0984912</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.142001</v>
+        <v>0.145485</v>
       </c>
       <c r="C104" t="n">
-        <v>0.137047</v>
+        <v>0.142033</v>
       </c>
       <c r="D104" t="n">
-        <v>0.107085</v>
+        <v>0.109535</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.152385</v>
+        <v>0.152996</v>
       </c>
       <c r="C105" t="n">
-        <v>0.151422</v>
+        <v>0.150555</v>
       </c>
       <c r="D105" t="n">
-        <v>0.115627</v>
+        <v>0.114852</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.167432</v>
+        <v>0.162976</v>
       </c>
       <c r="C106" t="n">
-        <v>0.172668</v>
+        <v>0.176482</v>
       </c>
       <c r="D106" t="n">
-        <v>0.129453</v>
+        <v>0.12543</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.191535</v>
+        <v>0.188365</v>
       </c>
       <c r="C107" t="n">
-        <v>0.188036</v>
+        <v>0.19732</v>
       </c>
       <c r="D107" t="n">
-        <v>0.153596</v>
+        <v>0.150042</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.225064</v>
+        <v>0.229212</v>
       </c>
       <c r="C108" t="n">
-        <v>0.234938</v>
+        <v>0.242518</v>
       </c>
       <c r="D108" t="n">
-        <v>0.167027</v>
+        <v>0.157738</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.288302</v>
+        <v>0.283099</v>
       </c>
       <c r="C109" t="n">
-        <v>0.315902</v>
+        <v>0.299341</v>
       </c>
       <c r="D109" t="n">
-        <v>0.166744</v>
+        <v>0.166076</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.197104</v>
+        <v>0.195776</v>
       </c>
       <c r="C110" t="n">
-        <v>0.182044</v>
+        <v>0.177838</v>
       </c>
       <c r="D110" t="n">
-        <v>0.162865</v>
+        <v>0.159502</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.211392</v>
+        <v>0.199799</v>
       </c>
       <c r="C111" t="n">
-        <v>0.18524</v>
+        <v>0.190612</v>
       </c>
       <c r="D111" t="n">
-        <v>0.15976</v>
+        <v>0.161073</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.209711</v>
+        <v>0.197735</v>
       </c>
       <c r="C112" t="n">
-        <v>0.192093</v>
+        <v>0.190033</v>
       </c>
       <c r="D112" t="n">
-        <v>0.1634</v>
+        <v>0.167155</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.214604</v>
+        <v>0.206106</v>
       </c>
       <c r="C113" t="n">
-        <v>0.190045</v>
+        <v>0.197926</v>
       </c>
       <c r="D113" t="n">
-        <v>0.164593</v>
+        <v>0.169068</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.22319</v>
+        <v>0.208072</v>
       </c>
       <c r="C114" t="n">
-        <v>0.194944</v>
+        <v>0.195753</v>
       </c>
       <c r="D114" t="n">
-        <v>0.173071</v>
+        <v>0.166056</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.228908</v>
+        <v>0.220551</v>
       </c>
       <c r="C115" t="n">
-        <v>0.202211</v>
+        <v>0.197158</v>
       </c>
       <c r="D115" t="n">
-        <v>0.169813</v>
+        <v>0.168253</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.225466</v>
+        <v>0.212634</v>
       </c>
       <c r="C116" t="n">
-        <v>0.20195</v>
+        <v>0.204588</v>
       </c>
       <c r="D116" t="n">
-        <v>0.173578</v>
+        <v>0.175983</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.222768</v>
+        <v>0.241885</v>
       </c>
       <c r="C117" t="n">
-        <v>0.22394</v>
+        <v>0.220148</v>
       </c>
       <c r="D117" t="n">
-        <v>0.182856</v>
+        <v>0.190342</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.249874</v>
+        <v>0.239257</v>
       </c>
       <c r="C118" t="n">
-        <v>0.23281</v>
+        <v>0.233836</v>
       </c>
       <c r="D118" t="n">
-        <v>0.198613</v>
+        <v>0.186378</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.242101</v>
+        <v>0.266413</v>
       </c>
       <c r="C119" t="n">
-        <v>0.229423</v>
+        <v>0.23454</v>
       </c>
       <c r="D119" t="n">
-        <v>0.190974</v>
+        <v>0.204419</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.260007</v>
+        <v>0.254212</v>
       </c>
       <c r="C120" t="n">
-        <v>0.264305</v>
+        <v>0.250573</v>
       </c>
       <c r="D120" t="n">
-        <v>0.222992</v>
+        <v>0.220995</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.301426</v>
+        <v>0.293238</v>
       </c>
       <c r="C121" t="n">
-        <v>0.297913</v>
+        <v>0.276947</v>
       </c>
       <c r="D121" t="n">
-        <v>0.2337</v>
+        <v>0.223616</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.316891</v>
+        <v>0.310457</v>
       </c>
       <c r="C122" t="n">
-        <v>0.319984</v>
+        <v>0.320244</v>
       </c>
       <c r="D122" t="n">
-        <v>0.264495</v>
+        <v>0.263699</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.373531</v>
+        <v>0.381001</v>
       </c>
       <c r="C123" t="n">
-        <v>0.390462</v>
+        <v>0.382448</v>
       </c>
       <c r="D123" t="n">
-        <v>0.245404</v>
+        <v>0.247719</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.31171</v>
+        <v>0.304987</v>
       </c>
       <c r="C124" t="n">
-        <v>0.276149</v>
+        <v>0.276457</v>
       </c>
       <c r="D124" t="n">
-        <v>0.247107</v>
+        <v>0.251925</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.31702</v>
+        <v>0.31808</v>
       </c>
       <c r="C125" t="n">
-        <v>0.276485</v>
+        <v>0.269361</v>
       </c>
       <c r="D125" t="n">
-        <v>0.247801</v>
+        <v>0.255603</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.317392</v>
+        <v>0.322471</v>
       </c>
       <c r="C126" t="n">
-        <v>0.272225</v>
+        <v>0.276833</v>
       </c>
       <c r="D126" t="n">
-        <v>0.246835</v>
+        <v>0.248017</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.324688</v>
+        <v>0.330788</v>
       </c>
       <c r="C127" t="n">
-        <v>0.282186</v>
+        <v>0.283452</v>
       </c>
       <c r="D127" t="n">
-        <v>0.252893</v>
+        <v>0.250846</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.327762</v>
+        <v>0.325054</v>
       </c>
       <c r="C128" t="n">
-        <v>0.281176</v>
+        <v>0.287763</v>
       </c>
       <c r="D128" t="n">
-        <v>0.259073</v>
+        <v>0.253114</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.335458</v>
+        <v>0.324807</v>
       </c>
       <c r="C129" t="n">
-        <v>0.287352</v>
+        <v>0.288039</v>
       </c>
       <c r="D129" t="n">
-        <v>0.270131</v>
+        <v>0.268787</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.337929</v>
+        <v>0.334188</v>
       </c>
       <c r="C130" t="n">
-        <v>0.297097</v>
+        <v>0.297755</v>
       </c>
       <c r="D130" t="n">
-        <v>0.268238</v>
+        <v>0.267531</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.348318</v>
+        <v>0.345427</v>
       </c>
       <c r="C131" t="n">
-        <v>0.308269</v>
+        <v>0.309553</v>
       </c>
       <c r="D131" t="n">
-        <v>0.267414</v>
+        <v>0.277677</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.352718</v>
+        <v>0.360353</v>
       </c>
       <c r="C132" t="n">
-        <v>0.329264</v>
+        <v>0.323558</v>
       </c>
       <c r="D132" t="n">
-        <v>0.288933</v>
+        <v>0.281012</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.361372</v>
+        <v>0.374069</v>
       </c>
       <c r="C133" t="n">
-        <v>0.333354</v>
+        <v>0.328469</v>
       </c>
       <c r="D133" t="n">
-        <v>0.288528</v>
+        <v>0.290313</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.392049</v>
+        <v>0.390613</v>
       </c>
       <c r="C134" t="n">
-        <v>0.350857</v>
+        <v>0.353093</v>
       </c>
       <c r="D134" t="n">
-        <v>0.303913</v>
+        <v>0.303191</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.413768</v>
+        <v>0.416781</v>
       </c>
       <c r="C135" t="n">
-        <v>0.373466</v>
+        <v>0.390426</v>
       </c>
       <c r="D135" t="n">
-        <v>0.334598</v>
+        <v>0.331612</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.456846</v>
+        <v>0.453338</v>
       </c>
       <c r="C136" t="n">
-        <v>0.422198</v>
+        <v>0.429549</v>
       </c>
       <c r="D136" t="n">
-        <v>0.363998</v>
+        <v>0.364028</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.527728</v>
+        <v>0.529934</v>
       </c>
       <c r="C137" t="n">
-        <v>0.5170979999999999</v>
+        <v>0.514367</v>
       </c>
       <c r="D137" t="n">
-        <v>0.290963</v>
+        <v>0.298751</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.374286</v>
+        <v>0.381769</v>
       </c>
       <c r="C138" t="n">
-        <v>0.323322</v>
+        <v>0.328959</v>
       </c>
       <c r="D138" t="n">
-        <v>0.296167</v>
+        <v>0.307149</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.384697</v>
+        <v>0.381696</v>
       </c>
       <c r="C139" t="n">
-        <v>0.340709</v>
+        <v>0.329276</v>
       </c>
       <c r="D139" t="n">
-        <v>0.296171</v>
+        <v>0.30526</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.397752</v>
+        <v>0.394018</v>
       </c>
       <c r="C140" t="n">
-        <v>0.330138</v>
+        <v>0.347602</v>
       </c>
       <c r="D140" t="n">
-        <v>0.306897</v>
+        <v>0.310144</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.389818</v>
+        <v>0.387938</v>
       </c>
       <c r="C141" t="n">
-        <v>0.344454</v>
+        <v>0.340537</v>
       </c>
       <c r="D141" t="n">
-        <v>0.306802</v>
+        <v>0.309869</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.392528</v>
+        <v>0.403833</v>
       </c>
       <c r="C142" t="n">
-        <v>0.34896</v>
+        <v>0.343833</v>
       </c>
       <c r="D142" t="n">
-        <v>0.309259</v>
+        <v>0.311554</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.406604</v>
+        <v>0.396989</v>
       </c>
       <c r="C143" t="n">
-        <v>0.353361</v>
+        <v>0.358071</v>
       </c>
       <c r="D143" t="n">
-        <v>0.318777</v>
+        <v>0.314485</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered unsuccessful looukp.xlsx
+++ b/vs-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0429411</v>
+        <v>0.0410744</v>
       </c>
       <c r="C2" t="n">
-        <v>0.040813</v>
+        <v>0.040639</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0363079</v>
+        <v>0.0355399</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0435062</v>
+        <v>0.0453948</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0455223</v>
+        <v>0.0441454</v>
       </c>
       <c r="D3" t="n">
-        <v>0.038446</v>
+        <v>0.0399074</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0479534</v>
+        <v>0.0484837</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0502178</v>
+        <v>0.0509292</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0427899</v>
+        <v>0.0422519</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0504712</v>
+        <v>0.0537763</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0582082</v>
+        <v>0.0577358</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0492495</v>
+        <v>0.0477687</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0584858</v>
+        <v>0.0596118</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0664134</v>
+        <v>0.0665142</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0543342</v>
+        <v>0.0543845</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0744856</v>
+        <v>0.07995240000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0788112</v>
+        <v>0.0801838</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0658349</v>
+        <v>0.0673159</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0987533</v>
+        <v>0.0988898</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0992393</v>
+        <v>0.0971731</v>
       </c>
       <c r="D8" t="n">
-        <v>0.08565490000000001</v>
+        <v>0.0888231</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.126762</v>
+        <v>0.126067</v>
       </c>
       <c r="C9" t="n">
-        <v>0.133998</v>
+        <v>0.134995</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0312122</v>
+        <v>0.0322568</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0395322</v>
+        <v>0.0422905</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0370416</v>
+        <v>0.0359089</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0316729</v>
+        <v>0.0319747</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0409675</v>
+        <v>0.0401931</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0361308</v>
+        <v>0.0361631</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0323438</v>
+        <v>0.032571</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0419686</v>
+        <v>0.0413719</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0384609</v>
+        <v>0.0379529</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0335413</v>
+        <v>0.0339199</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0413771</v>
+        <v>0.0422934</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0380218</v>
+        <v>0.0379926</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0343251</v>
+        <v>0.0335327</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0413439</v>
+        <v>0.0420352</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0399352</v>
+        <v>0.0412557</v>
       </c>
       <c r="D14" t="n">
-        <v>0.035042</v>
+        <v>0.0344582</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.043025</v>
+        <v>0.0434815</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0401921</v>
+        <v>0.0410211</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0353629</v>
+        <v>0.0354151</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0455576</v>
+        <v>0.0461565</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0436099</v>
+        <v>0.0446324</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0392704</v>
+        <v>0.0390881</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0490132</v>
+        <v>0.0482094</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0464524</v>
+        <v>0.0458527</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0409794</v>
+        <v>0.0404559</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0515465</v>
+        <v>0.0500278</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0521646</v>
+        <v>0.0520182</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0448467</v>
+        <v>0.0448239</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0570983</v>
+        <v>0.0588672</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0571251</v>
+        <v>0.0573111</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0503716</v>
+        <v>0.0496979</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0660051</v>
+        <v>0.0661649</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0660534</v>
+        <v>0.0643727</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0578127</v>
+        <v>0.0578077</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0747641</v>
+        <v>0.07913009999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0782158</v>
+        <v>0.07950169999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0694743</v>
+        <v>0.0687371</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0954965</v>
+        <v>0.103124</v>
       </c>
       <c r="C22" t="n">
-        <v>0.101594</v>
+        <v>0.10445</v>
       </c>
       <c r="D22" t="n">
-        <v>0.08742179999999999</v>
+        <v>0.087877</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.121295</v>
+        <v>0.125519</v>
       </c>
       <c r="C23" t="n">
-        <v>0.136504</v>
+        <v>0.134165</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0334565</v>
+        <v>0.0325491</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0431783</v>
+        <v>0.0422257</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0370317</v>
+        <v>0.0366745</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0351114</v>
+        <v>0.0350429</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0427628</v>
+        <v>0.0428957</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0382826</v>
+        <v>0.0389165</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0332468</v>
+        <v>0.0337375</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0445589</v>
+        <v>0.0437665</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0397377</v>
+        <v>0.0383107</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0350434</v>
+        <v>0.0348048</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0445247</v>
+        <v>0.0452975</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0403477</v>
+        <v>0.039398</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0353017</v>
+        <v>0.0361848</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0460943</v>
+        <v>0.0466096</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0422076</v>
+        <v>0.0410212</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0371201</v>
+        <v>0.0359917</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0465818</v>
+        <v>0.0471594</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0436647</v>
+        <v>0.0427028</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0384159</v>
+        <v>0.0369894</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0483805</v>
+        <v>0.0483938</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0449029</v>
+        <v>0.0450249</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0393968</v>
+        <v>0.039554</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0500113</v>
+        <v>0.0511985</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0481264</v>
+        <v>0.0485937</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0423313</v>
+        <v>0.0414941</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0544776</v>
+        <v>0.0549233</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0529075</v>
+        <v>0.0528588</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0447191</v>
+        <v>0.0453667</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0573326</v>
+        <v>0.0579268</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0591079</v>
+        <v>0.0593665</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0501151</v>
+        <v>0.0516925</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0662976</v>
+        <v>0.0656713</v>
       </c>
       <c r="C34" t="n">
-        <v>0.067258</v>
+        <v>0.06752229999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0598409</v>
+        <v>0.0571416</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0789145</v>
+        <v>0.0773674</v>
       </c>
       <c r="C35" t="n">
-        <v>0.07780090000000001</v>
+        <v>0.0779832</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0702576</v>
+        <v>0.0690754</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0961929</v>
+        <v>0.0963524</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0997149</v>
+        <v>0.10098</v>
       </c>
       <c r="D36" t="n">
-        <v>0.086641</v>
+        <v>0.0874187</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.129392</v>
+        <v>0.118768</v>
       </c>
       <c r="C37" t="n">
-        <v>0.130861</v>
+        <v>0.130986</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0361393</v>
+        <v>0.0361942</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0463656</v>
+        <v>0.0480286</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0406069</v>
+        <v>0.0407139</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0354771</v>
+        <v>0.0377238</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0473094</v>
+        <v>0.0483054</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0409809</v>
+        <v>0.0426225</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0364751</v>
+        <v>0.0369305</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0495198</v>
+        <v>0.0499933</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0424194</v>
+        <v>0.0432283</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0363992</v>
+        <v>0.0382281</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.049024</v>
+        <v>0.0505993</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0447622</v>
+        <v>0.0427768</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0384082</v>
+        <v>0.0385793</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0505118</v>
+        <v>0.0500019</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0446672</v>
+        <v>0.0460203</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0399797</v>
+        <v>0.0388762</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0518568</v>
+        <v>0.0509559</v>
       </c>
       <c r="C43" t="n">
-        <v>0.046863</v>
+        <v>0.0467519</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0408603</v>
+        <v>0.0409663</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0548441</v>
+        <v>0.0536104</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0497856</v>
+        <v>0.0480216</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0422878</v>
+        <v>0.0426327</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0569357</v>
+        <v>0.0541388</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0512481</v>
+        <v>0.0513221</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0445352</v>
+        <v>0.0441947</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0603281</v>
+        <v>0.0584374</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0562853</v>
+        <v>0.0563676</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0469928</v>
+        <v>0.0479258</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0633818</v>
+        <v>0.0624395</v>
       </c>
       <c r="C47" t="n">
-        <v>0.061668</v>
+        <v>0.0616917</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0544791</v>
+        <v>0.0544027</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0713081</v>
+        <v>0.0704534</v>
       </c>
       <c r="C48" t="n">
-        <v>0.07262200000000001</v>
+        <v>0.06973070000000001</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0609035</v>
+        <v>0.0591729</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0775585</v>
+        <v>0.07819089999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>0.080648</v>
+        <v>0.082207</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0712689</v>
+        <v>0.0715706</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0965208</v>
+        <v>0.09578730000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0986736</v>
+        <v>0.101947</v>
       </c>
       <c r="D50" t="n">
-        <v>0.08545419999999999</v>
+        <v>0.0847831</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.123043</v>
+        <v>0.118507</v>
       </c>
       <c r="C51" t="n">
-        <v>0.126888</v>
+        <v>0.129432</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0420135</v>
+        <v>0.0429984</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.162517</v>
+        <v>0.154964</v>
       </c>
       <c r="C52" t="n">
-        <v>0.175218</v>
+        <v>0.162955</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0438158</v>
+        <v>0.0436534</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0584455</v>
+        <v>0.057915</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0510667</v>
+        <v>0.0525996</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0431179</v>
+        <v>0.0427198</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0591069</v>
+        <v>0.0614493</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0519133</v>
+        <v>0.0523866</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0438898</v>
+        <v>0.0436996</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0593336</v>
+        <v>0.0596724</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0536458</v>
+        <v>0.0549089</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0441346</v>
+        <v>0.0446588</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0607701</v>
+        <v>0.0592475</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0533241</v>
+        <v>0.053844</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0462165</v>
+        <v>0.0459207</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.062074</v>
+        <v>0.0615535</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0559639</v>
+        <v>0.0564313</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0460802</v>
+        <v>0.0474513</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0628644</v>
+        <v>0.0642672</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0583545</v>
+        <v>0.057604</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0480848</v>
+        <v>0.0499778</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0657985</v>
+        <v>0.0674829</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0608029</v>
+        <v>0.0617045</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0512714</v>
+        <v>0.0506792</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0697947</v>
+        <v>0.06974329999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0647417</v>
+        <v>0.06437039999999999</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0531703</v>
+        <v>0.0540398</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0724559</v>
+        <v>0.0716386</v>
       </c>
       <c r="C61" t="n">
-        <v>0.07237250000000001</v>
+        <v>0.07076590000000001</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0585834</v>
+        <v>0.059149</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.07786419999999999</v>
+        <v>0.0787176</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0777428</v>
+        <v>0.0772959</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0677543</v>
+        <v>0.0651067</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.08812830000000001</v>
+        <v>0.0878791</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0890661</v>
+        <v>0.0894659</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0754736</v>
+        <v>0.0751488</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.102708</v>
+        <v>0.104541</v>
       </c>
       <c r="C64" t="n">
-        <v>0.104571</v>
+        <v>0.104195</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0900705</v>
+        <v>0.09026389999999999</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.125701</v>
+        <v>0.125658</v>
       </c>
       <c r="C65" t="n">
-        <v>0.13197</v>
+        <v>0.132326</v>
       </c>
       <c r="D65" t="n">
-        <v>0.109939</v>
+        <v>0.112879</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.157999</v>
+        <v>0.159514</v>
       </c>
       <c r="C66" t="n">
-        <v>0.173828</v>
+        <v>0.179616</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0480354</v>
+        <v>0.0477764</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0675328</v>
+        <v>0.0658715</v>
       </c>
       <c r="C67" t="n">
-        <v>0.058214</v>
+        <v>0.0579185</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0507659</v>
+        <v>0.0478364</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.066275</v>
+        <v>0.0679847</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0602122</v>
+        <v>0.059934</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0495502</v>
+        <v>0.0497089</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.06881470000000001</v>
+        <v>0.0694085</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0610584</v>
+        <v>0.0610603</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0497205</v>
+        <v>0.0512116</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0709809</v>
+        <v>0.06964140000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0626694</v>
+        <v>0.0642592</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0503549</v>
+        <v>0.0515263</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0731909</v>
+        <v>0.07470160000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0672224</v>
+        <v>0.0662528</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0526401</v>
+        <v>0.0527871</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0740996</v>
+        <v>0.0747849</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0706075</v>
+        <v>0.0676981</v>
       </c>
       <c r="D72" t="n">
-        <v>0.055391</v>
+        <v>0.0560665</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0778711</v>
+        <v>0.0778349</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0752177</v>
+        <v>0.0755181</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0568584</v>
+        <v>0.0577014</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.08043069999999999</v>
+        <v>0.0824594</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0777172</v>
+        <v>0.0800544</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0609726</v>
+        <v>0.0616344</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.085762</v>
+        <v>0.0881456</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0819969</v>
+        <v>0.0898296</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0698873</v>
+        <v>0.0672365</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0942692</v>
+        <v>0.0946374</v>
       </c>
       <c r="C76" t="n">
-        <v>0.09062820000000001</v>
+        <v>0.0925231</v>
       </c>
       <c r="D76" t="n">
-        <v>0.07225239999999999</v>
+        <v>0.0752279</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.103327</v>
+        <v>0.107207</v>
       </c>
       <c r="C77" t="n">
-        <v>0.104398</v>
+        <v>0.104389</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0811837</v>
+        <v>0.08305750000000001</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.119886</v>
+        <v>0.122578</v>
       </c>
       <c r="C78" t="n">
-        <v>0.118929</v>
+        <v>0.119799</v>
       </c>
       <c r="D78" t="n">
-        <v>0.095898</v>
+        <v>0.0977435</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.140801</v>
+        <v>0.141367</v>
       </c>
       <c r="C79" t="n">
-        <v>0.144429</v>
+        <v>0.146037</v>
       </c>
       <c r="D79" t="n">
-        <v>0.118131</v>
+        <v>0.117644</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.175426</v>
+        <v>0.177327</v>
       </c>
       <c r="C80" t="n">
-        <v>0.19498</v>
+        <v>0.19234</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0548092</v>
+        <v>0.0557092</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0821215</v>
+        <v>0.08613469999999999</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0727819</v>
+        <v>0.0723014</v>
       </c>
       <c r="D81" t="n">
-        <v>0.05601</v>
+        <v>0.059693</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0832248</v>
+        <v>0.08368639999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0760285</v>
+        <v>0.0747169</v>
       </c>
       <c r="D82" t="n">
-        <v>0.058316</v>
+        <v>0.059116</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.08896800000000001</v>
+        <v>0.0857523</v>
       </c>
       <c r="C83" t="n">
-        <v>0.07657750000000001</v>
+        <v>0.0774118</v>
       </c>
       <c r="D83" t="n">
-        <v>0.06332980000000001</v>
+        <v>0.0583459</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0929972</v>
+        <v>0.0873452</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0802119</v>
+        <v>0.0786163</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0618381</v>
+        <v>0.0626678</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.09024210000000001</v>
+        <v>0.0893766</v>
       </c>
       <c r="C85" t="n">
-        <v>0.08351450000000001</v>
+        <v>0.08280129999999999</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0646939</v>
+        <v>0.06340949999999999</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.09344230000000001</v>
+        <v>0.09290130000000001</v>
       </c>
       <c r="C86" t="n">
-        <v>0.08778909999999999</v>
+        <v>0.0852667</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0653065</v>
+        <v>0.0651896</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0995789</v>
+        <v>0.0992381</v>
       </c>
       <c r="C87" t="n">
-        <v>0.09335499999999999</v>
+        <v>0.09116440000000001</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0727931</v>
+        <v>0.0693686</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.10036</v>
+        <v>0.103283</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0987582</v>
+        <v>0.097151</v>
       </c>
       <c r="D88" t="n">
-        <v>0.07357619999999999</v>
+        <v>0.07394009999999999</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.107634</v>
+        <v>0.11205</v>
       </c>
       <c r="C89" t="n">
-        <v>0.102702</v>
+        <v>0.104252</v>
       </c>
       <c r="D89" t="n">
-        <v>0.07995670000000001</v>
+        <v>0.0782487</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.114745</v>
+        <v>0.114631</v>
       </c>
       <c r="C90" t="n">
-        <v>0.11076</v>
+        <v>0.111217</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0948228</v>
+        <v>0.08638319999999999</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.124867</v>
+        <v>0.123544</v>
       </c>
       <c r="C91" t="n">
-        <v>0.124735</v>
+        <v>0.120822</v>
       </c>
       <c r="D91" t="n">
-        <v>0.09568980000000001</v>
+        <v>0.0959566</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.140593</v>
+        <v>0.137723</v>
       </c>
       <c r="C92" t="n">
-        <v>0.147303</v>
+        <v>0.137511</v>
       </c>
       <c r="D92" t="n">
-        <v>0.107001</v>
+        <v>0.108846</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.161689</v>
+        <v>0.161553</v>
       </c>
       <c r="C93" t="n">
-        <v>0.164001</v>
+        <v>0.164972</v>
       </c>
       <c r="D93" t="n">
-        <v>0.130579</v>
+        <v>0.125676</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.19701</v>
+        <v>0.192018</v>
       </c>
       <c r="C94" t="n">
-        <v>0.20222</v>
+        <v>0.202124</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0735537</v>
+        <v>0.0766936</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.111228</v>
+        <v>0.109483</v>
       </c>
       <c r="C95" t="n">
-        <v>0.09889530000000001</v>
+        <v>0.102165</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0767171</v>
+        <v>0.07851900000000001</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.110724</v>
+        <v>0.112758</v>
       </c>
       <c r="C96" t="n">
-        <v>0.103123</v>
+        <v>0.105742</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0786896</v>
+        <v>0.07983990000000001</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.116216</v>
+        <v>0.117495</v>
       </c>
       <c r="C97" t="n">
-        <v>0.103304</v>
+        <v>0.105103</v>
       </c>
       <c r="D97" t="n">
-        <v>0.07959479999999999</v>
+        <v>0.0806779</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.116414</v>
+        <v>0.119989</v>
       </c>
       <c r="C98" t="n">
-        <v>0.107063</v>
+        <v>0.106883</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0827707</v>
+        <v>0.0815091</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.120413</v>
+        <v>0.118266</v>
       </c>
       <c r="C99" t="n">
-        <v>0.110555</v>
+        <v>0.111458</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0843356</v>
+        <v>0.0834932</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.121277</v>
+        <v>0.121654</v>
       </c>
       <c r="C100" t="n">
-        <v>0.114405</v>
+        <v>0.113204</v>
       </c>
       <c r="D100" t="n">
-        <v>0.08705400000000001</v>
+        <v>0.0875589</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.124204</v>
+        <v>0.123223</v>
       </c>
       <c r="C101" t="n">
-        <v>0.118721</v>
+        <v>0.119016</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0920672</v>
+        <v>0.09028799999999999</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.133158</v>
+        <v>0.131809</v>
       </c>
       <c r="C102" t="n">
-        <v>0.127088</v>
+        <v>0.125815</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0963749</v>
+        <v>0.0962008</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.136542</v>
+        <v>0.136132</v>
       </c>
       <c r="C103" t="n">
-        <v>0.131208</v>
+        <v>0.130549</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0984912</v>
+        <v>0.100225</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.145485</v>
+        <v>0.146711</v>
       </c>
       <c r="C104" t="n">
-        <v>0.142033</v>
+        <v>0.1461</v>
       </c>
       <c r="D104" t="n">
-        <v>0.109535</v>
+        <v>0.105729</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.152996</v>
+        <v>0.149264</v>
       </c>
       <c r="C105" t="n">
-        <v>0.150555</v>
+        <v>0.153152</v>
       </c>
       <c r="D105" t="n">
-        <v>0.114852</v>
+        <v>0.112514</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.162976</v>
+        <v>0.163162</v>
       </c>
       <c r="C106" t="n">
-        <v>0.176482</v>
+        <v>0.168042</v>
       </c>
       <c r="D106" t="n">
-        <v>0.12543</v>
+        <v>0.129835</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.188365</v>
+        <v>0.189595</v>
       </c>
       <c r="C107" t="n">
-        <v>0.19732</v>
+        <v>0.198103</v>
       </c>
       <c r="D107" t="n">
-        <v>0.150042</v>
+        <v>0.154495</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.229212</v>
+        <v>0.226174</v>
       </c>
       <c r="C108" t="n">
-        <v>0.242518</v>
+        <v>0.243165</v>
       </c>
       <c r="D108" t="n">
-        <v>0.157738</v>
+        <v>0.153093</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.283099</v>
+        <v>0.283501</v>
       </c>
       <c r="C109" t="n">
-        <v>0.299341</v>
+        <v>0.308958</v>
       </c>
       <c r="D109" t="n">
-        <v>0.166076</v>
+        <v>0.158131</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.195776</v>
+        <v>0.203666</v>
       </c>
       <c r="C110" t="n">
-        <v>0.177838</v>
+        <v>0.190086</v>
       </c>
       <c r="D110" t="n">
-        <v>0.159502</v>
+        <v>0.158706</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.199799</v>
+        <v>0.209412</v>
       </c>
       <c r="C111" t="n">
-        <v>0.190612</v>
+        <v>0.182748</v>
       </c>
       <c r="D111" t="n">
-        <v>0.161073</v>
+        <v>0.160048</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.197735</v>
+        <v>0.204493</v>
       </c>
       <c r="C112" t="n">
-        <v>0.190033</v>
+        <v>0.182987</v>
       </c>
       <c r="D112" t="n">
-        <v>0.167155</v>
+        <v>0.162476</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.206106</v>
+        <v>0.2198</v>
       </c>
       <c r="C113" t="n">
-        <v>0.197926</v>
+        <v>0.186064</v>
       </c>
       <c r="D113" t="n">
-        <v>0.169068</v>
+        <v>0.169307</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.208072</v>
+        <v>0.214164</v>
       </c>
       <c r="C114" t="n">
-        <v>0.195753</v>
+        <v>0.203818</v>
       </c>
       <c r="D114" t="n">
-        <v>0.166056</v>
+        <v>0.172944</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.220551</v>
+        <v>0.218439</v>
       </c>
       <c r="C115" t="n">
-        <v>0.197158</v>
+        <v>0.195222</v>
       </c>
       <c r="D115" t="n">
-        <v>0.168253</v>
+        <v>0.166978</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.212634</v>
+        <v>0.227939</v>
       </c>
       <c r="C116" t="n">
-        <v>0.204588</v>
+        <v>0.206223</v>
       </c>
       <c r="D116" t="n">
-        <v>0.175983</v>
+        <v>0.177871</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.241885</v>
+        <v>0.226839</v>
       </c>
       <c r="C117" t="n">
-        <v>0.220148</v>
+        <v>0.208235</v>
       </c>
       <c r="D117" t="n">
-        <v>0.190342</v>
+        <v>0.187196</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.239257</v>
+        <v>0.251938</v>
       </c>
       <c r="C118" t="n">
-        <v>0.233836</v>
+        <v>0.222755</v>
       </c>
       <c r="D118" t="n">
-        <v>0.186378</v>
+        <v>0.185542</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.266413</v>
+        <v>0.245764</v>
       </c>
       <c r="C119" t="n">
-        <v>0.23454</v>
+        <v>0.229278</v>
       </c>
       <c r="D119" t="n">
-        <v>0.204419</v>
+        <v>0.192433</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.254212</v>
+        <v>0.257858</v>
       </c>
       <c r="C120" t="n">
-        <v>0.250573</v>
+        <v>0.252734</v>
       </c>
       <c r="D120" t="n">
-        <v>0.220995</v>
+        <v>0.216525</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.293238</v>
+        <v>0.277344</v>
       </c>
       <c r="C121" t="n">
-        <v>0.276947</v>
+        <v>0.273365</v>
       </c>
       <c r="D121" t="n">
-        <v>0.223616</v>
+        <v>0.236646</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.310457</v>
+        <v>0.320503</v>
       </c>
       <c r="C122" t="n">
-        <v>0.320244</v>
+        <v>0.323789</v>
       </c>
       <c r="D122" t="n">
-        <v>0.263699</v>
+        <v>0.257158</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.381001</v>
+        <v>0.382712</v>
       </c>
       <c r="C123" t="n">
-        <v>0.382448</v>
+        <v>0.416021</v>
       </c>
       <c r="D123" t="n">
-        <v>0.247719</v>
+        <v>0.252331</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.304987</v>
+        <v>0.305617</v>
       </c>
       <c r="C124" t="n">
-        <v>0.276457</v>
+        <v>0.275789</v>
       </c>
       <c r="D124" t="n">
-        <v>0.251925</v>
+        <v>0.253575</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.31808</v>
+        <v>0.309672</v>
       </c>
       <c r="C125" t="n">
-        <v>0.269361</v>
+        <v>0.278024</v>
       </c>
       <c r="D125" t="n">
-        <v>0.255603</v>
+        <v>0.251233</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.322471</v>
+        <v>0.318952</v>
       </c>
       <c r="C126" t="n">
-        <v>0.276833</v>
+        <v>0.284008</v>
       </c>
       <c r="D126" t="n">
-        <v>0.248017</v>
+        <v>0.252696</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.330788</v>
+        <v>0.317891</v>
       </c>
       <c r="C127" t="n">
-        <v>0.283452</v>
+        <v>0.283138</v>
       </c>
       <c r="D127" t="n">
-        <v>0.250846</v>
+        <v>0.251808</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.325054</v>
+        <v>0.323704</v>
       </c>
       <c r="C128" t="n">
-        <v>0.287763</v>
+        <v>0.283768</v>
       </c>
       <c r="D128" t="n">
-        <v>0.253114</v>
+        <v>0.262314</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.324807</v>
+        <v>0.330208</v>
       </c>
       <c r="C129" t="n">
-        <v>0.288039</v>
+        <v>0.295337</v>
       </c>
       <c r="D129" t="n">
-        <v>0.268787</v>
+        <v>0.258345</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.334188</v>
+        <v>0.341233</v>
       </c>
       <c r="C130" t="n">
-        <v>0.297755</v>
+        <v>0.298207</v>
       </c>
       <c r="D130" t="n">
-        <v>0.267531</v>
+        <v>0.260315</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.345427</v>
+        <v>0.33812</v>
       </c>
       <c r="C131" t="n">
-        <v>0.309553</v>
+        <v>0.31773</v>
       </c>
       <c r="D131" t="n">
-        <v>0.277677</v>
+        <v>0.26547</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.360353</v>
+        <v>0.360424</v>
       </c>
       <c r="C132" t="n">
-        <v>0.323558</v>
+        <v>0.322229</v>
       </c>
       <c r="D132" t="n">
-        <v>0.281012</v>
+        <v>0.281229</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.374069</v>
+        <v>0.373385</v>
       </c>
       <c r="C133" t="n">
-        <v>0.328469</v>
+        <v>0.330985</v>
       </c>
       <c r="D133" t="n">
-        <v>0.290313</v>
+        <v>0.293546</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.390613</v>
+        <v>0.396531</v>
       </c>
       <c r="C134" t="n">
-        <v>0.353093</v>
+        <v>0.347354</v>
       </c>
       <c r="D134" t="n">
-        <v>0.303191</v>
+        <v>0.300502</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.416781</v>
+        <v>0.411156</v>
       </c>
       <c r="C135" t="n">
-        <v>0.390426</v>
+        <v>0.390448</v>
       </c>
       <c r="D135" t="n">
-        <v>0.331612</v>
+        <v>0.320574</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.453338</v>
+        <v>0.460095</v>
       </c>
       <c r="C136" t="n">
-        <v>0.429549</v>
+        <v>0.428315</v>
       </c>
       <c r="D136" t="n">
-        <v>0.364028</v>
+        <v>0.363459</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.529934</v>
+        <v>0.531112</v>
       </c>
       <c r="C137" t="n">
-        <v>0.514367</v>
+        <v>0.505188</v>
       </c>
       <c r="D137" t="n">
-        <v>0.298751</v>
+        <v>0.297507</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.381769</v>
+        <v>0.389602</v>
       </c>
       <c r="C138" t="n">
-        <v>0.328959</v>
+        <v>0.331766</v>
       </c>
       <c r="D138" t="n">
-        <v>0.307149</v>
+        <v>0.306864</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.381696</v>
+        <v>0.382033</v>
       </c>
       <c r="C139" t="n">
-        <v>0.329276</v>
+        <v>0.337542</v>
       </c>
       <c r="D139" t="n">
-        <v>0.30526</v>
+        <v>0.298705</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.394018</v>
+        <v>0.392682</v>
       </c>
       <c r="C140" t="n">
-        <v>0.347602</v>
+        <v>0.341305</v>
       </c>
       <c r="D140" t="n">
-        <v>0.310144</v>
+        <v>0.308214</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.387938</v>
+        <v>0.396392</v>
       </c>
       <c r="C141" t="n">
-        <v>0.340537</v>
+        <v>0.335815</v>
       </c>
       <c r="D141" t="n">
-        <v>0.309869</v>
+        <v>0.308188</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.403833</v>
+        <v>0.403075</v>
       </c>
       <c r="C142" t="n">
-        <v>0.343833</v>
+        <v>0.347864</v>
       </c>
       <c r="D142" t="n">
-        <v>0.311554</v>
+        <v>0.314702</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.396989</v>
+        <v>0.398099</v>
       </c>
       <c r="C143" t="n">
-        <v>0.358071</v>
+        <v>0.360697</v>
       </c>
       <c r="D143" t="n">
-        <v>0.314485</v>
+        <v>0.317838</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered unsuccessful looukp.xlsx
+++ b/vs-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0410744</v>
+        <v>0.0412331</v>
       </c>
       <c r="C2" t="n">
-        <v>0.040639</v>
+        <v>0.0393317</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0355399</v>
+        <v>0.0362685</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0453948</v>
+        <v>0.0445463</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0441454</v>
+        <v>0.043502</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0399074</v>
+        <v>0.0385842</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0484837</v>
+        <v>0.0471377</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0509292</v>
+        <v>0.0465311</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0422519</v>
+        <v>0.0427412</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0537763</v>
+        <v>0.0519201</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0577358</v>
+        <v>0.0550742</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0477687</v>
+        <v>0.0478403</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0596118</v>
+        <v>0.0573767</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0665142</v>
+        <v>0.0655401</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0543845</v>
+        <v>0.0544094</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.07995240000000001</v>
+        <v>0.0719875</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0801838</v>
+        <v>0.0794965</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0673159</v>
+        <v>0.0675385</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0988898</v>
+        <v>0.0884947</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0971731</v>
+        <v>0.101178</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0888231</v>
+        <v>0.0853564</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.126067</v>
+        <v>0.123524</v>
       </c>
       <c r="C9" t="n">
-        <v>0.134995</v>
+        <v>0.137653</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0322568</v>
+        <v>0.0323552</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0422905</v>
+        <v>0.0397498</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0359089</v>
+        <v>0.0346032</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0319747</v>
+        <v>0.0316715</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0401931</v>
+        <v>0.0412408</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0361631</v>
+        <v>0.0353939</v>
       </c>
       <c r="D11" t="n">
-        <v>0.032571</v>
+        <v>0.033419</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0413719</v>
+        <v>0.0434544</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0379529</v>
+        <v>0.0377355</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0339199</v>
+        <v>0.0331893</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0422934</v>
+        <v>0.0424918</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0379926</v>
+        <v>0.0376536</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0335327</v>
+        <v>0.033412</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0420352</v>
+        <v>0.0441268</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0412557</v>
+        <v>0.0396913</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0344582</v>
+        <v>0.0364913</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0434815</v>
+        <v>0.0456436</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0410211</v>
+        <v>0.0391737</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0354151</v>
+        <v>0.0356517</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0461565</v>
+        <v>0.0453668</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0446324</v>
+        <v>0.0424782</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0390881</v>
+        <v>0.0384926</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0482094</v>
+        <v>0.0504625</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0458527</v>
+        <v>0.0454171</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0404559</v>
+        <v>0.0408394</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0500278</v>
+        <v>0.051361</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0520182</v>
+        <v>0.0514654</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0448239</v>
+        <v>0.0441895</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0588672</v>
+        <v>0.0580371</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0573111</v>
+        <v>0.0568825</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0496979</v>
+        <v>0.0514634</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0661649</v>
+        <v>0.0666952</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0643727</v>
+        <v>0.0655654</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0578077</v>
+        <v>0.0565639</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.07913009999999999</v>
+        <v>0.081833</v>
       </c>
       <c r="C21" t="n">
-        <v>0.07950169999999999</v>
+        <v>0.0798999</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0687371</v>
+        <v>0.06849230000000001</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.103124</v>
+        <v>0.0970926</v>
       </c>
       <c r="C22" t="n">
-        <v>0.10445</v>
+        <v>0.101399</v>
       </c>
       <c r="D22" t="n">
-        <v>0.087877</v>
+        <v>0.08629290000000001</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.125519</v>
+        <v>0.126779</v>
       </c>
       <c r="C23" t="n">
-        <v>0.134165</v>
+        <v>0.137594</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0325491</v>
+        <v>0.0330846</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0422257</v>
+        <v>0.0452042</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0366745</v>
+        <v>0.0363974</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0350429</v>
+        <v>0.0342485</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0428957</v>
+        <v>0.0430216</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0389165</v>
+        <v>0.0374489</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0337375</v>
+        <v>0.0336216</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0437665</v>
+        <v>0.0441299</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0383107</v>
+        <v>0.0384248</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0348048</v>
+        <v>0.0344846</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0452975</v>
+        <v>0.0452658</v>
       </c>
       <c r="C27" t="n">
-        <v>0.039398</v>
+        <v>0.0389365</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0361848</v>
+        <v>0.0364489</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0466096</v>
+        <v>0.0464803</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0410212</v>
+        <v>0.0402452</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0359917</v>
+        <v>0.0362909</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0471594</v>
+        <v>0.0474674</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0427028</v>
+        <v>0.0433433</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0369894</v>
+        <v>0.037466</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0483938</v>
+        <v>0.0483563</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0450249</v>
+        <v>0.0441802</v>
       </c>
       <c r="D30" t="n">
-        <v>0.039554</v>
+        <v>0.0390659</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0511985</v>
+        <v>0.0516233</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0485937</v>
+        <v>0.0492944</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0414941</v>
+        <v>0.0417936</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0549233</v>
+        <v>0.0543964</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0528588</v>
+        <v>0.0526814</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0453667</v>
+        <v>0.0445006</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0579268</v>
+        <v>0.0581271</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0593665</v>
+        <v>0.0610688</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0516925</v>
+        <v>0.0509139</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0656713</v>
+        <v>0.0666059</v>
       </c>
       <c r="C34" t="n">
-        <v>0.06752229999999999</v>
+        <v>0.06567580000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0571416</v>
+        <v>0.0563534</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0773674</v>
+        <v>0.0791555</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0779832</v>
+        <v>0.0781251</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0690754</v>
+        <v>0.0694053</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0963524</v>
+        <v>0.09522990000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>0.10098</v>
+        <v>0.102562</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0874187</v>
+        <v>0.0911175</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.118768</v>
+        <v>0.123031</v>
       </c>
       <c r="C37" t="n">
-        <v>0.130986</v>
+        <v>0.131816</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0361942</v>
+        <v>0.0359204</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0480286</v>
+        <v>0.0473071</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0407139</v>
+        <v>0.0408568</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0377238</v>
+        <v>0.0364134</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0483054</v>
+        <v>0.047987</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0426225</v>
+        <v>0.0423543</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0369305</v>
+        <v>0.036783</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0499933</v>
+        <v>0.0481893</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0432283</v>
+        <v>0.0418344</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0382281</v>
+        <v>0.0372984</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0505993</v>
+        <v>0.0503174</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0427768</v>
+        <v>0.0422267</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0385793</v>
+        <v>0.0379917</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0500019</v>
+        <v>0.051338</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0460203</v>
+        <v>0.0448281</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0388762</v>
+        <v>0.0396206</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0509559</v>
+        <v>0.0535925</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0467519</v>
+        <v>0.0464235</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0409663</v>
+        <v>0.0392938</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0536104</v>
+        <v>0.053992</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0480216</v>
+        <v>0.0491111</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0426327</v>
+        <v>0.0415427</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0541388</v>
+        <v>0.0550613</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0513221</v>
+        <v>0.0513049</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0441947</v>
+        <v>0.0445073</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0584374</v>
+        <v>0.0562998</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0563676</v>
+        <v>0.0557472</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0479258</v>
+        <v>0.0473858</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0624395</v>
+        <v>0.06379990000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0616917</v>
+        <v>0.0605494</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0544027</v>
+        <v>0.0529765</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0704534</v>
+        <v>0.068397</v>
       </c>
       <c r="C48" t="n">
-        <v>0.06973070000000001</v>
+        <v>0.0687228</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0591729</v>
+        <v>0.0588092</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.07819089999999999</v>
+        <v>0.07917200000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>0.082207</v>
+        <v>0.081064</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0715706</v>
+        <v>0.0701604</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.09578730000000001</v>
+        <v>0.0939094</v>
       </c>
       <c r="C50" t="n">
-        <v>0.101947</v>
+        <v>0.0966793</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0847831</v>
+        <v>0.0846309</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.118507</v>
+        <v>0.11852</v>
       </c>
       <c r="C51" t="n">
-        <v>0.129432</v>
+        <v>0.127695</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0429984</v>
+        <v>0.0419259</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.154964</v>
+        <v>0.153432</v>
       </c>
       <c r="C52" t="n">
-        <v>0.162955</v>
+        <v>0.163218</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0436534</v>
+        <v>0.0418528</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.057915</v>
+        <v>0.0588507</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0525996</v>
+        <v>0.0529038</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0427198</v>
+        <v>0.0427215</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0614493</v>
+        <v>0.060475</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0523866</v>
+        <v>0.0521923</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0436996</v>
+        <v>0.0430184</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0596724</v>
+        <v>0.0585355</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0549089</v>
+        <v>0.0528713</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0446588</v>
+        <v>0.0439545</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0592475</v>
+        <v>0.0621271</v>
       </c>
       <c r="C56" t="n">
-        <v>0.053844</v>
+        <v>0.053891</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0459207</v>
+        <v>0.046857</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0615535</v>
+        <v>0.06355769999999999</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0564313</v>
+        <v>0.0557608</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0474513</v>
+        <v>0.046136</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0642672</v>
+        <v>0.0622239</v>
       </c>
       <c r="C58" t="n">
-        <v>0.057604</v>
+        <v>0.0579581</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0499778</v>
+        <v>0.0485504</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0674829</v>
+        <v>0.064404</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0617045</v>
+        <v>0.0616379</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0506792</v>
+        <v>0.0504152</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.06974329999999999</v>
+        <v>0.0693773</v>
       </c>
       <c r="C60" t="n">
-        <v>0.06437039999999999</v>
+        <v>0.0644074</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0540398</v>
+        <v>0.0537779</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0716386</v>
+        <v>0.0752781</v>
       </c>
       <c r="C61" t="n">
-        <v>0.07076590000000001</v>
+        <v>0.06869749999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>0.059149</v>
+        <v>0.0574625</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0787176</v>
+        <v>0.07660500000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0772959</v>
+        <v>0.07657799999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0651067</v>
+        <v>0.0654991</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0878791</v>
+        <v>0.0881671</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0894659</v>
+        <v>0.0882714</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0751488</v>
+        <v>0.0750816</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.104541</v>
+        <v>0.0996447</v>
       </c>
       <c r="C64" t="n">
-        <v>0.104195</v>
+        <v>0.104802</v>
       </c>
       <c r="D64" t="n">
-        <v>0.09026389999999999</v>
+        <v>0.08791160000000001</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.125658</v>
+        <v>0.125103</v>
       </c>
       <c r="C65" t="n">
-        <v>0.132326</v>
+        <v>0.13445</v>
       </c>
       <c r="D65" t="n">
-        <v>0.112879</v>
+        <v>0.111951</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.159514</v>
+        <v>0.161541</v>
       </c>
       <c r="C66" t="n">
-        <v>0.179616</v>
+        <v>0.175273</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0477764</v>
+        <v>0.0474896</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0658715</v>
+        <v>0.0662319</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0579185</v>
+        <v>0.0597011</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0478364</v>
+        <v>0.0494441</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0679847</v>
+        <v>0.0682859</v>
       </c>
       <c r="C68" t="n">
-        <v>0.059934</v>
+        <v>0.0598197</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0497089</v>
+        <v>0.0504974</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0694085</v>
+        <v>0.0689129</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0610603</v>
+        <v>0.0631068</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0512116</v>
+        <v>0.0501592</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.06964140000000001</v>
+        <v>0.07056320000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0642592</v>
+        <v>0.063183</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0515263</v>
+        <v>0.0519393</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.07470160000000001</v>
+        <v>0.0726321</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0662528</v>
+        <v>0.0664115</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0527871</v>
+        <v>0.0520887</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0747849</v>
+        <v>0.0737771</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0676981</v>
+        <v>0.0694092</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0560665</v>
+        <v>0.0552708</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0778349</v>
+        <v>0.0763588</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0755181</v>
+        <v>0.0723961</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0577014</v>
+        <v>0.0576865</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0824594</v>
+        <v>0.0817688</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0800544</v>
+        <v>0.075063</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0616344</v>
+        <v>0.0612219</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0881456</v>
+        <v>0.0867453</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0898296</v>
+        <v>0.0836513</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0672365</v>
+        <v>0.06813180000000001</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0946374</v>
+        <v>0.09211999999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0925231</v>
+        <v>0.0935501</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0752279</v>
+        <v>0.0730683</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.107207</v>
+        <v>0.105756</v>
       </c>
       <c r="C77" t="n">
-        <v>0.104389</v>
+        <v>0.102888</v>
       </c>
       <c r="D77" t="n">
-        <v>0.08305750000000001</v>
+        <v>0.0836281</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.122578</v>
+        <v>0.121006</v>
       </c>
       <c r="C78" t="n">
-        <v>0.119799</v>
+        <v>0.121567</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0977435</v>
+        <v>0.0966593</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.141367</v>
+        <v>0.138743</v>
       </c>
       <c r="C79" t="n">
-        <v>0.146037</v>
+        <v>0.148014</v>
       </c>
       <c r="D79" t="n">
-        <v>0.117644</v>
+        <v>0.124494</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.177327</v>
+        <v>0.181662</v>
       </c>
       <c r="C80" t="n">
-        <v>0.19234</v>
+        <v>0.193601</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0557092</v>
+        <v>0.0550732</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.08613469999999999</v>
+        <v>0.0804943</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0723014</v>
+        <v>0.0722546</v>
       </c>
       <c r="D81" t="n">
-        <v>0.059693</v>
+        <v>0.0550824</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.08368639999999999</v>
+        <v>0.08148900000000001</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0747169</v>
+        <v>0.07408919999999999</v>
       </c>
       <c r="D82" t="n">
-        <v>0.059116</v>
+        <v>0.0573738</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0857523</v>
+        <v>0.0839181</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0774118</v>
+        <v>0.0777246</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0583459</v>
+        <v>0.0594839</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0873452</v>
+        <v>0.08554970000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0786163</v>
+        <v>0.07941520000000001</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0626678</v>
+        <v>0.0607453</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0893766</v>
+        <v>0.0905107</v>
       </c>
       <c r="C85" t="n">
-        <v>0.08280129999999999</v>
+        <v>0.08094610000000001</v>
       </c>
       <c r="D85" t="n">
-        <v>0.06340949999999999</v>
+        <v>0.0629787</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.09290130000000001</v>
+        <v>0.0942163</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0852667</v>
+        <v>0.0896334</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0651896</v>
+        <v>0.0674039</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0992381</v>
+        <v>0.0985328</v>
       </c>
       <c r="C87" t="n">
-        <v>0.09116440000000001</v>
+        <v>0.0921815</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0693686</v>
+        <v>0.0687532</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.103283</v>
+        <v>0.103913</v>
       </c>
       <c r="C88" t="n">
-        <v>0.097151</v>
+        <v>0.09728589999999999</v>
       </c>
       <c r="D88" t="n">
-        <v>0.07394009999999999</v>
+        <v>0.0721801</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.11205</v>
+        <v>0.108778</v>
       </c>
       <c r="C89" t="n">
-        <v>0.104252</v>
+        <v>0.105633</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0782487</v>
+        <v>0.0784956</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.114631</v>
+        <v>0.115209</v>
       </c>
       <c r="C90" t="n">
-        <v>0.111217</v>
+        <v>0.112136</v>
       </c>
       <c r="D90" t="n">
-        <v>0.08638319999999999</v>
+        <v>0.0849278</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.123544</v>
+        <v>0.123523</v>
       </c>
       <c r="C91" t="n">
-        <v>0.120822</v>
+        <v>0.122665</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0959566</v>
+        <v>0.0960126</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.137723</v>
+        <v>0.139569</v>
       </c>
       <c r="C92" t="n">
-        <v>0.137511</v>
+        <v>0.147406</v>
       </c>
       <c r="D92" t="n">
-        <v>0.108846</v>
+        <v>0.10728</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.161553</v>
+        <v>0.160664</v>
       </c>
       <c r="C93" t="n">
-        <v>0.164972</v>
+        <v>0.174348</v>
       </c>
       <c r="D93" t="n">
-        <v>0.125676</v>
+        <v>0.129199</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.192018</v>
+        <v>0.194643</v>
       </c>
       <c r="C94" t="n">
-        <v>0.202124</v>
+        <v>0.21695</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0766936</v>
+        <v>0.07452259999999999</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.109483</v>
+        <v>0.108806</v>
       </c>
       <c r="C95" t="n">
-        <v>0.102165</v>
+        <v>0.097333</v>
       </c>
       <c r="D95" t="n">
-        <v>0.07851900000000001</v>
+        <v>0.0764605</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.112758</v>
+        <v>0.110622</v>
       </c>
       <c r="C96" t="n">
-        <v>0.105742</v>
+        <v>0.101144</v>
       </c>
       <c r="D96" t="n">
-        <v>0.07983990000000001</v>
+        <v>0.0798215</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.117495</v>
+        <v>0.114712</v>
       </c>
       <c r="C97" t="n">
-        <v>0.105103</v>
+        <v>0.102426</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0806779</v>
+        <v>0.0809439</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.119989</v>
+        <v>0.116204</v>
       </c>
       <c r="C98" t="n">
-        <v>0.106883</v>
+        <v>0.1091</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0815091</v>
+        <v>0.08078050000000001</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.118266</v>
+        <v>0.11721</v>
       </c>
       <c r="C99" t="n">
-        <v>0.111458</v>
+        <v>0.111445</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0834932</v>
+        <v>0.0840954</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.121654</v>
+        <v>0.123121</v>
       </c>
       <c r="C100" t="n">
-        <v>0.113204</v>
+        <v>0.114649</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0875589</v>
+        <v>0.08665299999999999</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.123223</v>
+        <v>0.123417</v>
       </c>
       <c r="C101" t="n">
-        <v>0.119016</v>
+        <v>0.11567</v>
       </c>
       <c r="D101" t="n">
-        <v>0.09028799999999999</v>
+        <v>0.09092160000000001</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.131809</v>
+        <v>0.133227</v>
       </c>
       <c r="C102" t="n">
-        <v>0.125815</v>
+        <v>0.125643</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0962008</v>
+        <v>0.0959573</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.136132</v>
+        <v>0.135089</v>
       </c>
       <c r="C103" t="n">
-        <v>0.130549</v>
+        <v>0.13598</v>
       </c>
       <c r="D103" t="n">
-        <v>0.100225</v>
+        <v>0.0977953</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.146711</v>
+        <v>0.141875</v>
       </c>
       <c r="C104" t="n">
-        <v>0.1461</v>
+        <v>0.142678</v>
       </c>
       <c r="D104" t="n">
-        <v>0.105729</v>
+        <v>0.106154</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.149264</v>
+        <v>0.15387</v>
       </c>
       <c r="C105" t="n">
-        <v>0.153152</v>
+        <v>0.157839</v>
       </c>
       <c r="D105" t="n">
-        <v>0.112514</v>
+        <v>0.11459</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.163162</v>
+        <v>0.166354</v>
       </c>
       <c r="C106" t="n">
-        <v>0.168042</v>
+        <v>0.17571</v>
       </c>
       <c r="D106" t="n">
-        <v>0.129835</v>
+        <v>0.129233</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.189595</v>
+        <v>0.183954</v>
       </c>
       <c r="C107" t="n">
-        <v>0.198103</v>
+        <v>0.200015</v>
       </c>
       <c r="D107" t="n">
-        <v>0.154495</v>
+        <v>0.145782</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.226174</v>
+        <v>0.219876</v>
       </c>
       <c r="C108" t="n">
-        <v>0.243165</v>
+        <v>0.251435</v>
       </c>
       <c r="D108" t="n">
-        <v>0.153093</v>
+        <v>0.155636</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.283501</v>
+        <v>0.271734</v>
       </c>
       <c r="C109" t="n">
-        <v>0.308958</v>
+        <v>0.326911</v>
       </c>
       <c r="D109" t="n">
-        <v>0.158131</v>
+        <v>0.156995</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.203666</v>
+        <v>0.19683</v>
       </c>
       <c r="C110" t="n">
-        <v>0.190086</v>
+        <v>0.179123</v>
       </c>
       <c r="D110" t="n">
-        <v>0.158706</v>
+        <v>0.161948</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.209412</v>
+        <v>0.198937</v>
       </c>
       <c r="C111" t="n">
-        <v>0.182748</v>
+        <v>0.181277</v>
       </c>
       <c r="D111" t="n">
-        <v>0.160048</v>
+        <v>0.163043</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.204493</v>
+        <v>0.199465</v>
       </c>
       <c r="C112" t="n">
-        <v>0.182987</v>
+        <v>0.189937</v>
       </c>
       <c r="D112" t="n">
-        <v>0.162476</v>
+        <v>0.16434</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.2198</v>
+        <v>0.206883</v>
       </c>
       <c r="C113" t="n">
-        <v>0.186064</v>
+        <v>0.193442</v>
       </c>
       <c r="D113" t="n">
-        <v>0.169307</v>
+        <v>0.163077</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.214164</v>
+        <v>0.21494</v>
       </c>
       <c r="C114" t="n">
-        <v>0.203818</v>
+        <v>0.189853</v>
       </c>
       <c r="D114" t="n">
-        <v>0.172944</v>
+        <v>0.170444</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.218439</v>
+        <v>0.206657</v>
       </c>
       <c r="C115" t="n">
-        <v>0.195222</v>
+        <v>0.20041</v>
       </c>
       <c r="D115" t="n">
-        <v>0.166978</v>
+        <v>0.174326</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.227939</v>
+        <v>0.215822</v>
       </c>
       <c r="C116" t="n">
-        <v>0.206223</v>
+        <v>0.203149</v>
       </c>
       <c r="D116" t="n">
-        <v>0.177871</v>
+        <v>0.176311</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.226839</v>
+        <v>0.22398</v>
       </c>
       <c r="C117" t="n">
-        <v>0.208235</v>
+        <v>0.207303</v>
       </c>
       <c r="D117" t="n">
-        <v>0.187196</v>
+        <v>0.179152</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.251938</v>
+        <v>0.236948</v>
       </c>
       <c r="C118" t="n">
-        <v>0.222755</v>
+        <v>0.216057</v>
       </c>
       <c r="D118" t="n">
-        <v>0.185542</v>
+        <v>0.187621</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.245764</v>
+        <v>0.245704</v>
       </c>
       <c r="C119" t="n">
-        <v>0.229278</v>
+        <v>0.241249</v>
       </c>
       <c r="D119" t="n">
-        <v>0.192433</v>
+        <v>0.194621</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.257858</v>
+        <v>0.253918</v>
       </c>
       <c r="C120" t="n">
-        <v>0.252734</v>
+        <v>0.2534</v>
       </c>
       <c r="D120" t="n">
-        <v>0.216525</v>
+        <v>0.212889</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.277344</v>
+        <v>0.278315</v>
       </c>
       <c r="C121" t="n">
-        <v>0.273365</v>
+        <v>0.280049</v>
       </c>
       <c r="D121" t="n">
-        <v>0.236646</v>
+        <v>0.223246</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.320503</v>
+        <v>0.307902</v>
       </c>
       <c r="C122" t="n">
-        <v>0.323789</v>
+        <v>0.326399</v>
       </c>
       <c r="D122" t="n">
-        <v>0.257158</v>
+        <v>0.262318</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.382712</v>
+        <v>0.370361</v>
       </c>
       <c r="C123" t="n">
-        <v>0.416021</v>
+        <v>0.398026</v>
       </c>
       <c r="D123" t="n">
-        <v>0.252331</v>
+        <v>0.248007</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.305617</v>
+        <v>0.311025</v>
       </c>
       <c r="C124" t="n">
-        <v>0.275789</v>
+        <v>0.272713</v>
       </c>
       <c r="D124" t="n">
-        <v>0.253575</v>
+        <v>0.247288</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.309672</v>
+        <v>0.315846</v>
       </c>
       <c r="C125" t="n">
-        <v>0.278024</v>
+        <v>0.268703</v>
       </c>
       <c r="D125" t="n">
-        <v>0.251233</v>
+        <v>0.250895</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.318952</v>
+        <v>0.317065</v>
       </c>
       <c r="C126" t="n">
-        <v>0.284008</v>
+        <v>0.277007</v>
       </c>
       <c r="D126" t="n">
-        <v>0.252696</v>
+        <v>0.261045</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.317891</v>
+        <v>0.316825</v>
       </c>
       <c r="C127" t="n">
-        <v>0.283138</v>
+        <v>0.285571</v>
       </c>
       <c r="D127" t="n">
-        <v>0.251808</v>
+        <v>0.25102</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.323704</v>
+        <v>0.326163</v>
       </c>
       <c r="C128" t="n">
-        <v>0.283768</v>
+        <v>0.285028</v>
       </c>
       <c r="D128" t="n">
-        <v>0.262314</v>
+        <v>0.254662</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.330208</v>
+        <v>0.339918</v>
       </c>
       <c r="C129" t="n">
-        <v>0.295337</v>
+        <v>0.292543</v>
       </c>
       <c r="D129" t="n">
-        <v>0.258345</v>
+        <v>0.261788</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.341233</v>
+        <v>0.342352</v>
       </c>
       <c r="C130" t="n">
-        <v>0.298207</v>
+        <v>0.302542</v>
       </c>
       <c r="D130" t="n">
-        <v>0.260315</v>
+        <v>0.262367</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.33812</v>
+        <v>0.346301</v>
       </c>
       <c r="C131" t="n">
-        <v>0.31773</v>
+        <v>0.305793</v>
       </c>
       <c r="D131" t="n">
-        <v>0.26547</v>
+        <v>0.273189</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.360424</v>
+        <v>0.348584</v>
       </c>
       <c r="C132" t="n">
-        <v>0.322229</v>
+        <v>0.312771</v>
       </c>
       <c r="D132" t="n">
-        <v>0.281229</v>
+        <v>0.279889</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.373385</v>
+        <v>0.369686</v>
       </c>
       <c r="C133" t="n">
-        <v>0.330985</v>
+        <v>0.333546</v>
       </c>
       <c r="D133" t="n">
-        <v>0.293546</v>
+        <v>0.292262</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.396531</v>
+        <v>0.386168</v>
       </c>
       <c r="C134" t="n">
-        <v>0.347354</v>
+        <v>0.35049</v>
       </c>
       <c r="D134" t="n">
-        <v>0.300502</v>
+        <v>0.298326</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.411156</v>
+        <v>0.422015</v>
       </c>
       <c r="C135" t="n">
-        <v>0.390448</v>
+        <v>0.384995</v>
       </c>
       <c r="D135" t="n">
-        <v>0.320574</v>
+        <v>0.32576</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.460095</v>
+        <v>0.461584</v>
       </c>
       <c r="C136" t="n">
-        <v>0.428315</v>
+        <v>0.421191</v>
       </c>
       <c r="D136" t="n">
-        <v>0.363459</v>
+        <v>0.360716</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.531112</v>
+        <v>0.536151</v>
       </c>
       <c r="C137" t="n">
-        <v>0.505188</v>
+        <v>0.518398</v>
       </c>
       <c r="D137" t="n">
-        <v>0.297507</v>
+        <v>0.301474</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.389602</v>
+        <v>0.384308</v>
       </c>
       <c r="C138" t="n">
-        <v>0.331766</v>
+        <v>0.327885</v>
       </c>
       <c r="D138" t="n">
-        <v>0.306864</v>
+        <v>0.301117</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.382033</v>
+        <v>0.385437</v>
       </c>
       <c r="C139" t="n">
-        <v>0.337542</v>
+        <v>0.331985</v>
       </c>
       <c r="D139" t="n">
-        <v>0.298705</v>
+        <v>0.295345</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.392682</v>
+        <v>0.391486</v>
       </c>
       <c r="C140" t="n">
-        <v>0.341305</v>
+        <v>0.335446</v>
       </c>
       <c r="D140" t="n">
-        <v>0.308214</v>
+        <v>0.302904</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.396392</v>
+        <v>0.391511</v>
       </c>
       <c r="C141" t="n">
-        <v>0.335815</v>
+        <v>0.341905</v>
       </c>
       <c r="D141" t="n">
-        <v>0.308188</v>
+        <v>0.300619</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.403075</v>
+        <v>0.401523</v>
       </c>
       <c r="C142" t="n">
-        <v>0.347864</v>
+        <v>0.34364</v>
       </c>
       <c r="D142" t="n">
-        <v>0.314702</v>
+        <v>0.310433</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.398099</v>
+        <v>0.401857</v>
       </c>
       <c r="C143" t="n">
-        <v>0.360697</v>
+        <v>0.346845</v>
       </c>
       <c r="D143" t="n">
-        <v>0.317838</v>
+        <v>0.317005</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered unsuccessful looukp.xlsx
+++ b/vs-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0412331</v>
+        <v>0.0416693</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0393317</v>
+        <v>0.0405898</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0362685</v>
+        <v>0.0366855</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0445463</v>
+        <v>0.0448991</v>
       </c>
       <c r="C3" t="n">
-        <v>0.043502</v>
+        <v>0.0445219</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0385842</v>
+        <v>0.0393233</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0471377</v>
+        <v>0.046622</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0465311</v>
+        <v>0.049044</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0427412</v>
+        <v>0.0434014</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0519201</v>
+        <v>0.0541726</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0550742</v>
+        <v>0.057204</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0478403</v>
+        <v>0.0476364</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0573767</v>
+        <v>0.0623806</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0655401</v>
+        <v>0.0689515</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0544094</v>
+        <v>0.0541536</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0719875</v>
+        <v>0.077517</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0794965</v>
+        <v>0.0790626</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0675385</v>
+        <v>0.06695570000000001</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0884947</v>
+        <v>0.100246</v>
       </c>
       <c r="C8" t="n">
-        <v>0.101178</v>
+        <v>0.0983113</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0853564</v>
+        <v>0.086017</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.123524</v>
+        <v>0.129378</v>
       </c>
       <c r="C9" t="n">
-        <v>0.137653</v>
+        <v>0.130847</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0323552</v>
+        <v>0.0317963</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0397498</v>
+        <v>0.0396751</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0346032</v>
+        <v>0.0356607</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0316715</v>
+        <v>0.0322628</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0412408</v>
+        <v>0.0400952</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0353939</v>
+        <v>0.0363043</v>
       </c>
       <c r="D11" t="n">
-        <v>0.033419</v>
+        <v>0.0340381</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0434544</v>
+        <v>0.0409077</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0377355</v>
+        <v>0.0374479</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0331893</v>
+        <v>0.0328242</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0424918</v>
+        <v>0.0418423</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0376536</v>
+        <v>0.038307</v>
       </c>
       <c r="D13" t="n">
-        <v>0.033412</v>
+        <v>0.033715</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0441268</v>
+        <v>0.042846</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0396913</v>
+        <v>0.039786</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0364913</v>
+        <v>0.0347919</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0456436</v>
+        <v>0.0435399</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0391737</v>
+        <v>0.0414384</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0356517</v>
+        <v>0.0357866</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0453668</v>
+        <v>0.0448456</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0424782</v>
+        <v>0.0478545</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0384926</v>
+        <v>0.0389232</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0504625</v>
+        <v>0.0477575</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0454171</v>
+        <v>0.0485261</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0408394</v>
+        <v>0.0418051</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.051361</v>
+        <v>0.0499982</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0514654</v>
+        <v>0.0521027</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0441895</v>
+        <v>0.0441958</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0580371</v>
+        <v>0.0557893</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0568825</v>
+        <v>0.0581049</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0514634</v>
+        <v>0.0480063</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0666952</v>
+        <v>0.06646059999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0655654</v>
+        <v>0.06556289999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0565639</v>
+        <v>0.0572475</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.081833</v>
+        <v>0.0756893</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0798999</v>
+        <v>0.0815762</v>
       </c>
       <c r="D21" t="n">
-        <v>0.06849230000000001</v>
+        <v>0.06904299999999999</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0970926</v>
+        <v>0.0922729</v>
       </c>
       <c r="C22" t="n">
-        <v>0.101399</v>
+        <v>0.1008</v>
       </c>
       <c r="D22" t="n">
-        <v>0.08629290000000001</v>
+        <v>0.08912580000000001</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.126779</v>
+        <v>0.125731</v>
       </c>
       <c r="C23" t="n">
-        <v>0.137594</v>
+        <v>0.140476</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0330846</v>
+        <v>0.0329828</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0452042</v>
+        <v>0.0423009</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0363974</v>
+        <v>0.0366889</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0342485</v>
+        <v>0.0329531</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0430216</v>
+        <v>0.0428124</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0374489</v>
+        <v>0.0372994</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0336216</v>
+        <v>0.0361606</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0441299</v>
+        <v>0.0435276</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0384248</v>
+        <v>0.0401769</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0344846</v>
+        <v>0.0363976</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0452658</v>
+        <v>0.0434405</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0389365</v>
+        <v>0.0393972</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0364489</v>
+        <v>0.0352999</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0464803</v>
+        <v>0.0458012</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0402452</v>
+        <v>0.0415567</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0362909</v>
+        <v>0.0367759</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0474674</v>
+        <v>0.0472561</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0433433</v>
+        <v>0.0424794</v>
       </c>
       <c r="D29" t="n">
-        <v>0.037466</v>
+        <v>0.0391179</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0483563</v>
+        <v>0.0485213</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0441802</v>
+        <v>0.0452324</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0390659</v>
+        <v>0.0413219</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0516233</v>
+        <v>0.050523</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0492944</v>
+        <v>0.0484279</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0417936</v>
+        <v>0.0410959</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0543964</v>
+        <v>0.0579627</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0526814</v>
+        <v>0.0528131</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0445006</v>
+        <v>0.0458411</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0581271</v>
+        <v>0.0608196</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0610688</v>
+        <v>0.0582696</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0509139</v>
+        <v>0.0512013</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0666059</v>
+        <v>0.0662725</v>
       </c>
       <c r="C34" t="n">
-        <v>0.06567580000000001</v>
+        <v>0.0680848</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0563534</v>
+        <v>0.0576823</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0791555</v>
+        <v>0.0772673</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0781251</v>
+        <v>0.0779301</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0694053</v>
+        <v>0.06955169999999999</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.09522990000000001</v>
+        <v>0.0951183</v>
       </c>
       <c r="C36" t="n">
-        <v>0.102562</v>
+        <v>0.0998913</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0911175</v>
+        <v>0.0859169</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.123031</v>
+        <v>0.119969</v>
       </c>
       <c r="C37" t="n">
-        <v>0.131816</v>
+        <v>0.131499</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0359204</v>
+        <v>0.0360314</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0473071</v>
+        <v>0.047328</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0408568</v>
+        <v>0.0408171</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0364134</v>
+        <v>0.0359407</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.047987</v>
+        <v>0.0474173</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0423543</v>
+        <v>0.0438042</v>
       </c>
       <c r="D39" t="n">
-        <v>0.036783</v>
+        <v>0.0363736</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0481893</v>
+        <v>0.0484313</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0418344</v>
+        <v>0.0432759</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0372984</v>
+        <v>0.0376045</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0503174</v>
+        <v>0.0494432</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0422267</v>
+        <v>0.0452132</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0379917</v>
+        <v>0.03783</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.051338</v>
+        <v>0.0492007</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0448281</v>
+        <v>0.0447285</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0396206</v>
+        <v>0.0383656</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0535925</v>
+        <v>0.0513062</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0464235</v>
+        <v>0.0469854</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0392938</v>
+        <v>0.0397683</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.053992</v>
+        <v>0.0537805</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0491111</v>
+        <v>0.0479267</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0415427</v>
+        <v>0.0411169</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0550613</v>
+        <v>0.054699</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0513049</v>
+        <v>0.0528027</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0445073</v>
+        <v>0.0440412</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0562998</v>
+        <v>0.0568191</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0557472</v>
+        <v>0.0555164</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0473858</v>
+        <v>0.0482199</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.06379990000000001</v>
+        <v>0.0638232</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0605494</v>
+        <v>0.0617838</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0529765</v>
+        <v>0.0540129</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.068397</v>
+        <v>0.0672933</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0687228</v>
+        <v>0.0704219</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0588092</v>
+        <v>0.0595055</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.07917200000000001</v>
+        <v>0.0807071</v>
       </c>
       <c r="C49" t="n">
-        <v>0.081064</v>
+        <v>0.0849245</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0701604</v>
+        <v>0.069354</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0939094</v>
+        <v>0.09224160000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0966793</v>
+        <v>0.100801</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0846309</v>
+        <v>0.08867360000000001</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.11852</v>
+        <v>0.116484</v>
       </c>
       <c r="C51" t="n">
-        <v>0.127695</v>
+        <v>0.129015</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0419259</v>
+        <v>0.0432637</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.153432</v>
+        <v>0.162371</v>
       </c>
       <c r="C52" t="n">
-        <v>0.163218</v>
+        <v>0.169588</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0418528</v>
+        <v>0.0429962</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0588507</v>
+        <v>0.0591425</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0529038</v>
+        <v>0.0508848</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0427215</v>
+        <v>0.0438039</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.060475</v>
+        <v>0.0594786</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0521923</v>
+        <v>0.052881</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0430184</v>
+        <v>0.0440241</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0585355</v>
+        <v>0.0604649</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0528713</v>
+        <v>0.0548427</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0439545</v>
+        <v>0.0444165</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0621271</v>
+        <v>0.0613185</v>
       </c>
       <c r="C56" t="n">
-        <v>0.053891</v>
+        <v>0.0555419</v>
       </c>
       <c r="D56" t="n">
-        <v>0.046857</v>
+        <v>0.0457653</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.06355769999999999</v>
+        <v>0.0617947</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0557608</v>
+        <v>0.0584547</v>
       </c>
       <c r="D57" t="n">
-        <v>0.046136</v>
+        <v>0.0469615</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0622239</v>
+        <v>0.06364690000000001</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0579581</v>
+        <v>0.05801</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0485504</v>
+        <v>0.0489411</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.064404</v>
+        <v>0.0649493</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0616379</v>
+        <v>0.0602348</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0504152</v>
+        <v>0.0503845</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0693773</v>
+        <v>0.071474</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0644074</v>
+        <v>0.0644163</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0537779</v>
+        <v>0.0532895</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0752781</v>
+        <v>0.07206510000000001</v>
       </c>
       <c r="C61" t="n">
-        <v>0.06869749999999999</v>
+        <v>0.0713652</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0574625</v>
+        <v>0.0578719</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.07660500000000001</v>
+        <v>0.07859530000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>0.07657799999999999</v>
+        <v>0.07679900000000001</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0654991</v>
+        <v>0.0654221</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0881671</v>
+        <v>0.0850115</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0882714</v>
+        <v>0.091283</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0750816</v>
+        <v>0.07687529999999999</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0996447</v>
+        <v>0.100013</v>
       </c>
       <c r="C64" t="n">
-        <v>0.104802</v>
+        <v>0.103491</v>
       </c>
       <c r="D64" t="n">
-        <v>0.08791160000000001</v>
+        <v>0.08789379999999999</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.125103</v>
+        <v>0.127495</v>
       </c>
       <c r="C65" t="n">
-        <v>0.13445</v>
+        <v>0.131445</v>
       </c>
       <c r="D65" t="n">
-        <v>0.111951</v>
+        <v>0.112733</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.161541</v>
+        <v>0.157985</v>
       </c>
       <c r="C66" t="n">
-        <v>0.175273</v>
+        <v>0.180517</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0474896</v>
+        <v>0.0486682</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0662319</v>
+        <v>0.0658493</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0597011</v>
+        <v>0.0588146</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0494441</v>
+        <v>0.0479811</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0682859</v>
+        <v>0.0670128</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0598197</v>
+        <v>0.0609886</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0504974</v>
+        <v>0.04884</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0689129</v>
+        <v>0.06848750000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0631068</v>
+        <v>0.0619997</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0501592</v>
+        <v>0.04994</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.07056320000000001</v>
+        <v>0.0721379</v>
       </c>
       <c r="C70" t="n">
-        <v>0.063183</v>
+        <v>0.0650111</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0519393</v>
+        <v>0.0504184</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0726321</v>
+        <v>0.0738385</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0664115</v>
+        <v>0.06645520000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0520887</v>
+        <v>0.0519416</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0737771</v>
+        <v>0.0747664</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0694092</v>
+        <v>0.0695091</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0552708</v>
+        <v>0.0561543</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0763588</v>
+        <v>0.0783852</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0723961</v>
+        <v>0.07376290000000001</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0576865</v>
+        <v>0.0575301</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0817688</v>
+        <v>0.0816066</v>
       </c>
       <c r="C74" t="n">
-        <v>0.075063</v>
+        <v>0.07971300000000001</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0612219</v>
+        <v>0.0619314</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0867453</v>
+        <v>0.0870638</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0836513</v>
+        <v>0.0853096</v>
       </c>
       <c r="D75" t="n">
-        <v>0.06813180000000001</v>
+        <v>0.066276</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.09211999999999999</v>
+        <v>0.095198</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0935501</v>
+        <v>0.0959443</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0730683</v>
+        <v>0.075213</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.105756</v>
+        <v>0.103512</v>
       </c>
       <c r="C77" t="n">
-        <v>0.102888</v>
+        <v>0.108568</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0836281</v>
+        <v>0.08255949999999999</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.121006</v>
+        <v>0.123395</v>
       </c>
       <c r="C78" t="n">
-        <v>0.121567</v>
+        <v>0.123821</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0966593</v>
+        <v>0.100271</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.138743</v>
+        <v>0.143214</v>
       </c>
       <c r="C79" t="n">
-        <v>0.148014</v>
+        <v>0.15433</v>
       </c>
       <c r="D79" t="n">
-        <v>0.124494</v>
+        <v>0.118198</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.181662</v>
+        <v>0.180454</v>
       </c>
       <c r="C80" t="n">
-        <v>0.193601</v>
+        <v>0.191512</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0550732</v>
+        <v>0.0553169</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0804943</v>
+        <v>0.0836162</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0722546</v>
+        <v>0.0789847</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0550824</v>
+        <v>0.0569738</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.08148900000000001</v>
+        <v>0.086254</v>
       </c>
       <c r="C82" t="n">
-        <v>0.07408919999999999</v>
+        <v>0.0826543</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0573738</v>
+        <v>0.0601961</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0839181</v>
+        <v>0.0924874</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0777246</v>
+        <v>0.08599859999999999</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0594839</v>
+        <v>0.0624175</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.08554970000000001</v>
+        <v>0.0923513</v>
       </c>
       <c r="C84" t="n">
-        <v>0.07941520000000001</v>
+        <v>0.0800786</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0607453</v>
+        <v>0.0625626</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0905107</v>
+        <v>0.100261</v>
       </c>
       <c r="C85" t="n">
-        <v>0.08094610000000001</v>
+        <v>0.09227249999999999</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0629787</v>
+        <v>0.06671000000000001</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0942163</v>
+        <v>0.101516</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0896334</v>
+        <v>0.0942032</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0674039</v>
+        <v>0.0699925</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0985328</v>
+        <v>0.106854</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0921815</v>
+        <v>0.09084250000000001</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0687532</v>
+        <v>0.0743178</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.103913</v>
+        <v>0.113354</v>
       </c>
       <c r="C88" t="n">
-        <v>0.09728589999999999</v>
+        <v>0.10012</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0721801</v>
+        <v>0.0801282</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.108778</v>
+        <v>0.106988</v>
       </c>
       <c r="C89" t="n">
-        <v>0.105633</v>
+        <v>0.114645</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0784956</v>
+        <v>0.0843091</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.115209</v>
+        <v>0.114051</v>
       </c>
       <c r="C90" t="n">
-        <v>0.112136</v>
+        <v>0.124204</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0849278</v>
+        <v>0.0893422</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.123523</v>
+        <v>0.134906</v>
       </c>
       <c r="C91" t="n">
-        <v>0.122665</v>
+        <v>0.13239</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0960126</v>
+        <v>0.101367</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.139569</v>
+        <v>0.143004</v>
       </c>
       <c r="C92" t="n">
-        <v>0.147406</v>
+        <v>0.151454</v>
       </c>
       <c r="D92" t="n">
-        <v>0.10728</v>
+        <v>0.1125</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.160664</v>
+        <v>0.16781</v>
       </c>
       <c r="C93" t="n">
-        <v>0.174348</v>
+        <v>0.171386</v>
       </c>
       <c r="D93" t="n">
-        <v>0.129199</v>
+        <v>0.136694</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.194643</v>
+        <v>0.201934</v>
       </c>
       <c r="C94" t="n">
-        <v>0.21695</v>
+        <v>0.212628</v>
       </c>
       <c r="D94" t="n">
-        <v>0.07452259999999999</v>
+        <v>0.0801312</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.108806</v>
+        <v>0.116043</v>
       </c>
       <c r="C95" t="n">
-        <v>0.097333</v>
+        <v>0.109084</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0764605</v>
+        <v>0.0850066</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.110622</v>
+        <v>0.118231</v>
       </c>
       <c r="C96" t="n">
-        <v>0.101144</v>
+        <v>0.108771</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0798215</v>
+        <v>0.0845481</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.114712</v>
+        <v>0.117065</v>
       </c>
       <c r="C97" t="n">
-        <v>0.102426</v>
+        <v>0.112144</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0809439</v>
+        <v>0.08493920000000001</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.116204</v>
+        <v>0.122619</v>
       </c>
       <c r="C98" t="n">
-        <v>0.1091</v>
+        <v>0.110797</v>
       </c>
       <c r="D98" t="n">
-        <v>0.08078050000000001</v>
+        <v>0.0881752</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.11721</v>
+        <v>0.126754</v>
       </c>
       <c r="C99" t="n">
-        <v>0.111445</v>
+        <v>0.115721</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0840954</v>
+        <v>0.08520320000000001</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.123121</v>
+        <v>0.130054</v>
       </c>
       <c r="C100" t="n">
-        <v>0.114649</v>
+        <v>0.120962</v>
       </c>
       <c r="D100" t="n">
-        <v>0.08665299999999999</v>
+        <v>0.09465899999999999</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.123417</v>
+        <v>0.1337</v>
       </c>
       <c r="C101" t="n">
-        <v>0.11567</v>
+        <v>0.125844</v>
       </c>
       <c r="D101" t="n">
-        <v>0.09092160000000001</v>
+        <v>0.0983386</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.133227</v>
+        <v>0.138369</v>
       </c>
       <c r="C102" t="n">
-        <v>0.125643</v>
+        <v>0.131307</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0959573</v>
+        <v>0.09856239999999999</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.135089</v>
+        <v>0.141866</v>
       </c>
       <c r="C103" t="n">
-        <v>0.13598</v>
+        <v>0.139212</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0977953</v>
+        <v>0.107603</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.141875</v>
+        <v>0.150284</v>
       </c>
       <c r="C104" t="n">
-        <v>0.142678</v>
+        <v>0.145442</v>
       </c>
       <c r="D104" t="n">
-        <v>0.106154</v>
+        <v>0.113842</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.15387</v>
+        <v>0.160091</v>
       </c>
       <c r="C105" t="n">
-        <v>0.157839</v>
+        <v>0.158412</v>
       </c>
       <c r="D105" t="n">
-        <v>0.11459</v>
+        <v>0.11752</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.166354</v>
+        <v>0.168972</v>
       </c>
       <c r="C106" t="n">
-        <v>0.17571</v>
+        <v>0.178047</v>
       </c>
       <c r="D106" t="n">
-        <v>0.129233</v>
+        <v>0.136856</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.183954</v>
+        <v>0.1897</v>
       </c>
       <c r="C107" t="n">
-        <v>0.200015</v>
+        <v>0.200321</v>
       </c>
       <c r="D107" t="n">
-        <v>0.145782</v>
+        <v>0.154107</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.219876</v>
+        <v>0.225955</v>
       </c>
       <c r="C108" t="n">
-        <v>0.251435</v>
+        <v>0.243676</v>
       </c>
       <c r="D108" t="n">
-        <v>0.155636</v>
+        <v>0.162267</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.271734</v>
+        <v>0.282774</v>
       </c>
       <c r="C109" t="n">
-        <v>0.326911</v>
+        <v>0.311998</v>
       </c>
       <c r="D109" t="n">
-        <v>0.156995</v>
+        <v>0.168943</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.19683</v>
+        <v>0.20664</v>
       </c>
       <c r="C110" t="n">
-        <v>0.179123</v>
+        <v>0.179675</v>
       </c>
       <c r="D110" t="n">
-        <v>0.161948</v>
+        <v>0.164782</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.198937</v>
+        <v>0.201548</v>
       </c>
       <c r="C111" t="n">
-        <v>0.181277</v>
+        <v>0.187218</v>
       </c>
       <c r="D111" t="n">
-        <v>0.163043</v>
+        <v>0.171184</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.199465</v>
+        <v>0.210474</v>
       </c>
       <c r="C112" t="n">
-        <v>0.189937</v>
+        <v>0.195025</v>
       </c>
       <c r="D112" t="n">
-        <v>0.16434</v>
+        <v>0.170097</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.206883</v>
+        <v>0.216849</v>
       </c>
       <c r="C113" t="n">
-        <v>0.193442</v>
+        <v>0.186172</v>
       </c>
       <c r="D113" t="n">
-        <v>0.163077</v>
+        <v>0.176894</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.21494</v>
+        <v>0.218574</v>
       </c>
       <c r="C114" t="n">
-        <v>0.189853</v>
+        <v>0.201409</v>
       </c>
       <c r="D114" t="n">
-        <v>0.170444</v>
+        <v>0.174504</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.206657</v>
+        <v>0.221552</v>
       </c>
       <c r="C115" t="n">
-        <v>0.20041</v>
+        <v>0.207602</v>
       </c>
       <c r="D115" t="n">
-        <v>0.174326</v>
+        <v>0.173977</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.215822</v>
+        <v>0.227017</v>
       </c>
       <c r="C116" t="n">
-        <v>0.203149</v>
+        <v>0.209182</v>
       </c>
       <c r="D116" t="n">
-        <v>0.176311</v>
+        <v>0.178113</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.22398</v>
+        <v>0.234244</v>
       </c>
       <c r="C117" t="n">
-        <v>0.207303</v>
+        <v>0.21923</v>
       </c>
       <c r="D117" t="n">
-        <v>0.179152</v>
+        <v>0.191257</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.236948</v>
+        <v>0.244759</v>
       </c>
       <c r="C118" t="n">
-        <v>0.216057</v>
+        <v>0.233744</v>
       </c>
       <c r="D118" t="n">
-        <v>0.187621</v>
+        <v>0.19241</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.245704</v>
+        <v>0.239222</v>
       </c>
       <c r="C119" t="n">
-        <v>0.241249</v>
+        <v>0.229346</v>
       </c>
       <c r="D119" t="n">
-        <v>0.194621</v>
+        <v>0.200577</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.253918</v>
+        <v>0.252086</v>
       </c>
       <c r="C120" t="n">
-        <v>0.2534</v>
+        <v>0.244408</v>
       </c>
       <c r="D120" t="n">
-        <v>0.212889</v>
+        <v>0.206567</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.278315</v>
+        <v>0.288662</v>
       </c>
       <c r="C121" t="n">
-        <v>0.280049</v>
+        <v>0.274769</v>
       </c>
       <c r="D121" t="n">
-        <v>0.223246</v>
+        <v>0.231035</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.307902</v>
+        <v>0.325759</v>
       </c>
       <c r="C122" t="n">
-        <v>0.326399</v>
+        <v>0.331541</v>
       </c>
       <c r="D122" t="n">
-        <v>0.262318</v>
+        <v>0.26921</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.370361</v>
+        <v>0.393151</v>
       </c>
       <c r="C123" t="n">
-        <v>0.398026</v>
+        <v>0.412333</v>
       </c>
       <c r="D123" t="n">
-        <v>0.248007</v>
+        <v>0.252509</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.311025</v>
+        <v>0.311625</v>
       </c>
       <c r="C124" t="n">
-        <v>0.272713</v>
+        <v>0.270153</v>
       </c>
       <c r="D124" t="n">
-        <v>0.247288</v>
+        <v>0.250498</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.315846</v>
+        <v>0.317439</v>
       </c>
       <c r="C125" t="n">
-        <v>0.268703</v>
+        <v>0.280321</v>
       </c>
       <c r="D125" t="n">
-        <v>0.250895</v>
+        <v>0.250782</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.317065</v>
+        <v>0.316178</v>
       </c>
       <c r="C126" t="n">
-        <v>0.277007</v>
+        <v>0.288605</v>
       </c>
       <c r="D126" t="n">
-        <v>0.261045</v>
+        <v>0.260339</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.316825</v>
+        <v>0.326759</v>
       </c>
       <c r="C127" t="n">
-        <v>0.285571</v>
+        <v>0.289191</v>
       </c>
       <c r="D127" t="n">
-        <v>0.25102</v>
+        <v>0.262437</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.326163</v>
+        <v>0.32412</v>
       </c>
       <c r="C128" t="n">
-        <v>0.285028</v>
+        <v>0.289194</v>
       </c>
       <c r="D128" t="n">
-        <v>0.254662</v>
+        <v>0.261434</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.339918</v>
+        <v>0.330455</v>
       </c>
       <c r="C129" t="n">
-        <v>0.292543</v>
+        <v>0.293571</v>
       </c>
       <c r="D129" t="n">
-        <v>0.261788</v>
+        <v>0.266266</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.342352</v>
+        <v>0.346785</v>
       </c>
       <c r="C130" t="n">
-        <v>0.302542</v>
+        <v>0.298641</v>
       </c>
       <c r="D130" t="n">
-        <v>0.262367</v>
+        <v>0.267436</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.346301</v>
+        <v>0.346352</v>
       </c>
       <c r="C131" t="n">
-        <v>0.305793</v>
+        <v>0.311369</v>
       </c>
       <c r="D131" t="n">
-        <v>0.273189</v>
+        <v>0.275267</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.348584</v>
+        <v>0.357793</v>
       </c>
       <c r="C132" t="n">
-        <v>0.312771</v>
+        <v>0.323585</v>
       </c>
       <c r="D132" t="n">
-        <v>0.279889</v>
+        <v>0.277737</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.369686</v>
+        <v>0.367979</v>
       </c>
       <c r="C133" t="n">
-        <v>0.333546</v>
+        <v>0.340876</v>
       </c>
       <c r="D133" t="n">
-        <v>0.292262</v>
+        <v>0.2956</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.386168</v>
+        <v>0.383911</v>
       </c>
       <c r="C134" t="n">
-        <v>0.35049</v>
+        <v>0.355746</v>
       </c>
       <c r="D134" t="n">
-        <v>0.298326</v>
+        <v>0.306916</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.422015</v>
+        <v>0.41108</v>
       </c>
       <c r="C135" t="n">
-        <v>0.384995</v>
+        <v>0.389199</v>
       </c>
       <c r="D135" t="n">
-        <v>0.32576</v>
+        <v>0.327304</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.461584</v>
+        <v>0.465931</v>
       </c>
       <c r="C136" t="n">
-        <v>0.421191</v>
+        <v>0.442433</v>
       </c>
       <c r="D136" t="n">
-        <v>0.360716</v>
+        <v>0.363847</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.536151</v>
+        <v>0.53083</v>
       </c>
       <c r="C137" t="n">
-        <v>0.518398</v>
+        <v>0.505282</v>
       </c>
       <c r="D137" t="n">
-        <v>0.301474</v>
+        <v>0.302685</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.384308</v>
+        <v>0.379894</v>
       </c>
       <c r="C138" t="n">
-        <v>0.327885</v>
+        <v>0.32925</v>
       </c>
       <c r="D138" t="n">
-        <v>0.301117</v>
+        <v>0.301358</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.385437</v>
+        <v>0.386091</v>
       </c>
       <c r="C139" t="n">
-        <v>0.331985</v>
+        <v>0.332476</v>
       </c>
       <c r="D139" t="n">
-        <v>0.295345</v>
+        <v>0.304867</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.391486</v>
+        <v>0.385922</v>
       </c>
       <c r="C140" t="n">
-        <v>0.335446</v>
+        <v>0.346691</v>
       </c>
       <c r="D140" t="n">
-        <v>0.302904</v>
+        <v>0.313794</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.391511</v>
+        <v>0.390311</v>
       </c>
       <c r="C141" t="n">
-        <v>0.341905</v>
+        <v>0.341305</v>
       </c>
       <c r="D141" t="n">
-        <v>0.300619</v>
+        <v>0.307129</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.401523</v>
+        <v>0.398243</v>
       </c>
       <c r="C142" t="n">
-        <v>0.34364</v>
+        <v>0.352866</v>
       </c>
       <c r="D142" t="n">
-        <v>0.310433</v>
+        <v>0.312726</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.401857</v>
+        <v>0.405458</v>
       </c>
       <c r="C143" t="n">
-        <v>0.346845</v>
+        <v>0.354768</v>
       </c>
       <c r="D143" t="n">
-        <v>0.317005</v>
+        <v>0.323937</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered unsuccessful looukp.xlsx
+++ b/vs-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0416693</v>
+        <v>0.0421656</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0405898</v>
+        <v>0.0419315</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0366855</v>
+        <v>0.0359094</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0448991</v>
+        <v>0.0442677</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0445219</v>
+        <v>0.0431651</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0393233</v>
+        <v>0.0396214</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.046622</v>
+        <v>0.0483728</v>
       </c>
       <c r="C4" t="n">
-        <v>0.049044</v>
+        <v>0.0490566</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0434014</v>
+        <v>0.0444629</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0541726</v>
+        <v>0.0525544</v>
       </c>
       <c r="C5" t="n">
-        <v>0.057204</v>
+        <v>0.0559615</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0476364</v>
+        <v>0.0499831</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0623806</v>
+        <v>0.06262959999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0689515</v>
+        <v>0.0647088</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0541536</v>
+        <v>0.0546605</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.077517</v>
+        <v>0.0759996</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0790626</v>
+        <v>0.07943219999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>0.06695570000000001</v>
+        <v>0.066327</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.100246</v>
+        <v>0.100528</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0983113</v>
+        <v>0.0980475</v>
       </c>
       <c r="D8" t="n">
-        <v>0.086017</v>
+        <v>0.0840226</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.129378</v>
+        <v>0.135886</v>
       </c>
       <c r="C9" t="n">
-        <v>0.130847</v>
+        <v>0.133909</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0317963</v>
+        <v>0.0316811</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0396751</v>
+        <v>0.0393064</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0356607</v>
+        <v>0.0353304</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0322628</v>
+        <v>0.0319934</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0400952</v>
+        <v>0.0398545</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0363043</v>
+        <v>0.0361647</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0340381</v>
+        <v>0.0318053</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0409077</v>
+        <v>0.0405993</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0374479</v>
+        <v>0.0379625</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0328242</v>
+        <v>0.032897</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0418423</v>
+        <v>0.042089</v>
       </c>
       <c r="C13" t="n">
-        <v>0.038307</v>
+        <v>0.0392185</v>
       </c>
       <c r="D13" t="n">
-        <v>0.033715</v>
+        <v>0.0340086</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.042846</v>
+        <v>0.0420334</v>
       </c>
       <c r="C14" t="n">
-        <v>0.039786</v>
+        <v>0.0398837</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0347919</v>
+        <v>0.0342192</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0435399</v>
+        <v>0.0436205</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0414384</v>
+        <v>0.041493</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0357866</v>
+        <v>0.0353531</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0448456</v>
+        <v>0.0438777</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0478545</v>
+        <v>0.0446297</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0389232</v>
+        <v>0.0383135</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0477575</v>
+        <v>0.0477141</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0485261</v>
+        <v>0.0476413</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0418051</v>
+        <v>0.0418043</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0499982</v>
+        <v>0.0512734</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0521027</v>
+        <v>0.052024</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0441958</v>
+        <v>0.0453103</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0557893</v>
+        <v>0.0571028</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0581049</v>
+        <v>0.0583738</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0480063</v>
+        <v>0.0485922</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.06646059999999999</v>
+        <v>0.0643696</v>
       </c>
       <c r="C20" t="n">
-        <v>0.06556289999999999</v>
+        <v>0.0688163</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0572475</v>
+        <v>0.0561927</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0756893</v>
+        <v>0.075943</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0815762</v>
+        <v>0.08098569999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>0.06904299999999999</v>
+        <v>0.0696499</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0922729</v>
+        <v>0.0952551</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1008</v>
+        <v>0.100189</v>
       </c>
       <c r="D22" t="n">
-        <v>0.08912580000000001</v>
+        <v>0.0871754</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.125731</v>
+        <v>0.131166</v>
       </c>
       <c r="C23" t="n">
-        <v>0.140476</v>
+        <v>0.132362</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0329828</v>
+        <v>0.0333962</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0423009</v>
+        <v>0.0434617</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0366889</v>
+        <v>0.0374603</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0329531</v>
+        <v>0.033359</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0428124</v>
+        <v>0.0440715</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0372994</v>
+        <v>0.0385572</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0361606</v>
+        <v>0.0343914</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0435276</v>
+        <v>0.0429641</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0401769</v>
+        <v>0.0384553</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0363976</v>
+        <v>0.0339493</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0434405</v>
+        <v>0.0440786</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0393972</v>
+        <v>0.0396216</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0352999</v>
+        <v>0.0356599</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0458012</v>
+        <v>0.044532</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0415567</v>
+        <v>0.0413254</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0367759</v>
+        <v>0.0359653</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0472561</v>
+        <v>0.0466181</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0424794</v>
+        <v>0.0443854</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0391179</v>
+        <v>0.0387222</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0485213</v>
+        <v>0.0482828</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0452324</v>
+        <v>0.0463831</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0413219</v>
+        <v>0.0397202</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.050523</v>
+        <v>0.0500385</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0484279</v>
+        <v>0.0484759</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0410959</v>
+        <v>0.0410195</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0579627</v>
+        <v>0.0525862</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0528131</v>
+        <v>0.0528816</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0458411</v>
+        <v>0.0448067</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0608196</v>
+        <v>0.0603014</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0582696</v>
+        <v>0.0589811</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0512013</v>
+        <v>0.0494067</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0662725</v>
+        <v>0.0676213</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0680848</v>
+        <v>0.0659081</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0576823</v>
+        <v>0.0571524</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0772673</v>
+        <v>0.07583429999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0779301</v>
+        <v>0.0776616</v>
       </c>
       <c r="D35" t="n">
-        <v>0.06955169999999999</v>
+        <v>0.068926</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0951183</v>
+        <v>0.09488290000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0998913</v>
+        <v>0.100396</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0859169</v>
+        <v>0.0881188</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.119969</v>
+        <v>0.12193</v>
       </c>
       <c r="C37" t="n">
-        <v>0.131499</v>
+        <v>0.128452</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0360314</v>
+        <v>0.0365704</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.047328</v>
+        <v>0.047364</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0408171</v>
+        <v>0.0414483</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0359407</v>
+        <v>0.0363887</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0474173</v>
+        <v>0.0497022</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0438042</v>
+        <v>0.043704</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0363736</v>
+        <v>0.0356368</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0484313</v>
+        <v>0.0476556</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0432759</v>
+        <v>0.0420584</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0376045</v>
+        <v>0.0364455</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0494432</v>
+        <v>0.0517948</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0452132</v>
+        <v>0.0449826</v>
       </c>
       <c r="D41" t="n">
-        <v>0.03783</v>
+        <v>0.0379259</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0492007</v>
+        <v>0.0501524</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0447285</v>
+        <v>0.0451676</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0383656</v>
+        <v>0.0389418</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0513062</v>
+        <v>0.0515849</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0469854</v>
+        <v>0.0466295</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0397683</v>
+        <v>0.0398851</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0537805</v>
+        <v>0.0522036</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0479267</v>
+        <v>0.0491367</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0411169</v>
+        <v>0.041487</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.054699</v>
+        <v>0.0558245</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0528027</v>
+        <v>0.0521195</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0440412</v>
+        <v>0.0446514</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0568191</v>
+        <v>0.0612288</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0555164</v>
+        <v>0.0564633</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0482199</v>
+        <v>0.048398</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0638232</v>
+        <v>0.0615585</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0617838</v>
+        <v>0.0606499</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0540129</v>
+        <v>0.0533091</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0672933</v>
+        <v>0.0690021</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0704219</v>
+        <v>0.07032670000000001</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0595055</v>
+        <v>0.060732</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0807071</v>
+        <v>0.0782858</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0849245</v>
+        <v>0.0797062</v>
       </c>
       <c r="D49" t="n">
-        <v>0.069354</v>
+        <v>0.06969930000000001</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.09224160000000001</v>
+        <v>0.09437189999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>0.100801</v>
+        <v>0.09986009999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>0.08867360000000001</v>
+        <v>0.0887376</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.116484</v>
+        <v>0.117538</v>
       </c>
       <c r="C51" t="n">
-        <v>0.129015</v>
+        <v>0.12582</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0432637</v>
+        <v>0.0422132</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.162371</v>
+        <v>0.15634</v>
       </c>
       <c r="C52" t="n">
-        <v>0.169588</v>
+        <v>0.16432</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0429962</v>
+        <v>0.043723</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0591425</v>
+        <v>0.0575226</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0508848</v>
+        <v>0.0485646</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0438039</v>
+        <v>0.0412089</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0594786</v>
+        <v>0.0560014</v>
       </c>
       <c r="C54" t="n">
-        <v>0.052881</v>
+        <v>0.0502338</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0440241</v>
+        <v>0.0418376</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0604649</v>
+        <v>0.0570993</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0548427</v>
+        <v>0.0506068</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0444165</v>
+        <v>0.0431395</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0613185</v>
+        <v>0.0586591</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0555419</v>
+        <v>0.0532549</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0457653</v>
+        <v>0.044875</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0617947</v>
+        <v>0.0620368</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0584547</v>
+        <v>0.055062</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0469615</v>
+        <v>0.0469057</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.06364690000000001</v>
+        <v>0.0636558</v>
       </c>
       <c r="C58" t="n">
-        <v>0.05801</v>
+        <v>0.0578698</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0489411</v>
+        <v>0.0475359</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0649493</v>
+        <v>0.0643677</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0602348</v>
+        <v>0.062277</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0503845</v>
+        <v>0.0502839</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.071474</v>
+        <v>0.06863379999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0644163</v>
+        <v>0.0658183</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0532895</v>
+        <v>0.0534996</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.07206510000000001</v>
+        <v>0.075848</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0713652</v>
+        <v>0.07006510000000001</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0578719</v>
+        <v>0.0593208</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.07859530000000001</v>
+        <v>0.0804088</v>
       </c>
       <c r="C62" t="n">
-        <v>0.07679900000000001</v>
+        <v>0.07758900000000001</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0654221</v>
+        <v>0.0642697</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0850115</v>
+        <v>0.0883282</v>
       </c>
       <c r="C63" t="n">
-        <v>0.091283</v>
+        <v>0.0876566</v>
       </c>
       <c r="D63" t="n">
-        <v>0.07687529999999999</v>
+        <v>0.0750784</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.100013</v>
+        <v>0.100635</v>
       </c>
       <c r="C64" t="n">
-        <v>0.103491</v>
+        <v>0.10607</v>
       </c>
       <c r="D64" t="n">
-        <v>0.08789379999999999</v>
+        <v>0.0878697</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.127495</v>
+        <v>0.119933</v>
       </c>
       <c r="C65" t="n">
-        <v>0.131445</v>
+        <v>0.131749</v>
       </c>
       <c r="D65" t="n">
-        <v>0.112733</v>
+        <v>0.109977</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.157985</v>
+        <v>0.160963</v>
       </c>
       <c r="C66" t="n">
-        <v>0.180517</v>
+        <v>0.175538</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0486682</v>
+        <v>0.0478549</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0658493</v>
+        <v>0.06556579999999999</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0588146</v>
+        <v>0.0580863</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0479811</v>
+        <v>0.0471116</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0670128</v>
+        <v>0.0668058</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0609886</v>
+        <v>0.0608369</v>
       </c>
       <c r="D68" t="n">
-        <v>0.04884</v>
+        <v>0.0502689</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.06848750000000001</v>
+        <v>0.0669951</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0619997</v>
+        <v>0.0636441</v>
       </c>
       <c r="D69" t="n">
-        <v>0.04994</v>
+        <v>0.0491945</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0721379</v>
+        <v>0.06997689999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0650111</v>
+        <v>0.0628729</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0504184</v>
+        <v>0.0513944</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0738385</v>
+        <v>0.0729421</v>
       </c>
       <c r="C71" t="n">
-        <v>0.06645520000000001</v>
+        <v>0.06530270000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0519416</v>
+        <v>0.0522543</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0747664</v>
+        <v>0.0735813</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0695091</v>
+        <v>0.0692364</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0561543</v>
+        <v>0.0554917</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0783852</v>
+        <v>0.0753003</v>
       </c>
       <c r="C73" t="n">
-        <v>0.07376290000000001</v>
+        <v>0.0722254</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0575301</v>
+        <v>0.0586252</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0816066</v>
+        <v>0.08092340000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>0.07971300000000001</v>
+        <v>0.0774253</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0619314</v>
+        <v>0.0611303</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0870638</v>
+        <v>0.0867185</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0853096</v>
+        <v>0.08480939999999999</v>
       </c>
       <c r="D75" t="n">
-        <v>0.066276</v>
+        <v>0.0678719</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.095198</v>
+        <v>0.09450989999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0959443</v>
+        <v>0.0935107</v>
       </c>
       <c r="D76" t="n">
-        <v>0.075213</v>
+        <v>0.0775782</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.103512</v>
+        <v>0.1081</v>
       </c>
       <c r="C77" t="n">
-        <v>0.108568</v>
+        <v>0.109676</v>
       </c>
       <c r="D77" t="n">
-        <v>0.08255949999999999</v>
+        <v>0.0830159</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.123395</v>
+        <v>0.119825</v>
       </c>
       <c r="C78" t="n">
-        <v>0.123821</v>
+        <v>0.123052</v>
       </c>
       <c r="D78" t="n">
-        <v>0.100271</v>
+        <v>0.10031</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.143214</v>
+        <v>0.145762</v>
       </c>
       <c r="C79" t="n">
-        <v>0.15433</v>
+        <v>0.151154</v>
       </c>
       <c r="D79" t="n">
-        <v>0.118198</v>
+        <v>0.11891</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.180454</v>
+        <v>0.183769</v>
       </c>
       <c r="C80" t="n">
-        <v>0.191512</v>
+        <v>0.193301</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0553169</v>
+        <v>0.0572955</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0836162</v>
+        <v>0.0785303</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0789847</v>
+        <v>0.07269200000000001</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0569738</v>
+        <v>0.0564695</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.086254</v>
+        <v>0.0831108</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0826543</v>
+        <v>0.0741666</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0601961</v>
+        <v>0.0575242</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0924874</v>
+        <v>0.0839386</v>
       </c>
       <c r="C83" t="n">
-        <v>0.08599859999999999</v>
+        <v>0.0811861</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0624175</v>
+        <v>0.0587058</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0923513</v>
+        <v>0.0892172</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0800786</v>
+        <v>0.08107</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0625626</v>
+        <v>0.0609364</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.100261</v>
+        <v>0.09175700000000001</v>
       </c>
       <c r="C85" t="n">
-        <v>0.09227249999999999</v>
+        <v>0.0840448</v>
       </c>
       <c r="D85" t="n">
-        <v>0.06671000000000001</v>
+        <v>0.0665895</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.101516</v>
+        <v>0.091575</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0942032</v>
+        <v>0.08705830000000001</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0699925</v>
+        <v>0.0656803</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.106854</v>
+        <v>0.09545140000000001</v>
       </c>
       <c r="C87" t="n">
-        <v>0.09084250000000001</v>
+        <v>0.0900869</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0743178</v>
+        <v>0.0688758</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.113354</v>
+        <v>0.102339</v>
       </c>
       <c r="C88" t="n">
-        <v>0.10012</v>
+        <v>0.0943927</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0801282</v>
+        <v>0.0729442</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.106988</v>
+        <v>0.106399</v>
       </c>
       <c r="C89" t="n">
-        <v>0.114645</v>
+        <v>0.101304</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0843091</v>
+        <v>0.08020670000000001</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.114051</v>
+        <v>0.113231</v>
       </c>
       <c r="C90" t="n">
-        <v>0.124204</v>
+        <v>0.111178</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0893422</v>
+        <v>0.0885065</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.134906</v>
+        <v>0.122567</v>
       </c>
       <c r="C91" t="n">
-        <v>0.13239</v>
+        <v>0.124465</v>
       </c>
       <c r="D91" t="n">
-        <v>0.101367</v>
+        <v>0.0939537</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.143004</v>
+        <v>0.138087</v>
       </c>
       <c r="C92" t="n">
-        <v>0.151454</v>
+        <v>0.140946</v>
       </c>
       <c r="D92" t="n">
-        <v>0.1125</v>
+        <v>0.110313</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.16781</v>
+        <v>0.162169</v>
       </c>
       <c r="C93" t="n">
-        <v>0.171386</v>
+        <v>0.164767</v>
       </c>
       <c r="D93" t="n">
-        <v>0.136694</v>
+        <v>0.128353</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.201934</v>
+        <v>0.194581</v>
       </c>
       <c r="C94" t="n">
-        <v>0.212628</v>
+        <v>0.207733</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0801312</v>
+        <v>0.0742386</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.116043</v>
+        <v>0.10668</v>
       </c>
       <c r="C95" t="n">
-        <v>0.109084</v>
+        <v>0.0984022</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0850066</v>
+        <v>0.075539</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.118231</v>
+        <v>0.108435</v>
       </c>
       <c r="C96" t="n">
-        <v>0.108771</v>
+        <v>0.100918</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0845481</v>
+        <v>0.0781063</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.117065</v>
+        <v>0.112081</v>
       </c>
       <c r="C97" t="n">
-        <v>0.112144</v>
+        <v>0.103982</v>
       </c>
       <c r="D97" t="n">
-        <v>0.08493920000000001</v>
+        <v>0.0819308</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.122619</v>
+        <v>0.113734</v>
       </c>
       <c r="C98" t="n">
-        <v>0.110797</v>
+        <v>0.107643</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0881752</v>
+        <v>0.0816191</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.126754</v>
+        <v>0.118118</v>
       </c>
       <c r="C99" t="n">
-        <v>0.115721</v>
+        <v>0.11108</v>
       </c>
       <c r="D99" t="n">
-        <v>0.08520320000000001</v>
+        <v>0.08406719999999999</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.130054</v>
+        <v>0.119538</v>
       </c>
       <c r="C100" t="n">
-        <v>0.120962</v>
+        <v>0.113397</v>
       </c>
       <c r="D100" t="n">
-        <v>0.09465899999999999</v>
+        <v>0.0874535</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.1337</v>
+        <v>0.125057</v>
       </c>
       <c r="C101" t="n">
-        <v>0.125844</v>
+        <v>0.114872</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0983386</v>
+        <v>0.0908002</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.138369</v>
+        <v>0.131456</v>
       </c>
       <c r="C102" t="n">
-        <v>0.131307</v>
+        <v>0.127795</v>
       </c>
       <c r="D102" t="n">
-        <v>0.09856239999999999</v>
+        <v>0.092762</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.141866</v>
+        <v>0.132015</v>
       </c>
       <c r="C103" t="n">
-        <v>0.139212</v>
+        <v>0.127907</v>
       </c>
       <c r="D103" t="n">
-        <v>0.107603</v>
+        <v>0.0982133</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.150284</v>
+        <v>0.138037</v>
       </c>
       <c r="C104" t="n">
-        <v>0.145442</v>
+        <v>0.137909</v>
       </c>
       <c r="D104" t="n">
-        <v>0.113842</v>
+        <v>0.106088</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.160091</v>
+        <v>0.150942</v>
       </c>
       <c r="C105" t="n">
-        <v>0.158412</v>
+        <v>0.148765</v>
       </c>
       <c r="D105" t="n">
-        <v>0.11752</v>
+        <v>0.113192</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.168972</v>
+        <v>0.168795</v>
       </c>
       <c r="C106" t="n">
-        <v>0.178047</v>
+        <v>0.166144</v>
       </c>
       <c r="D106" t="n">
-        <v>0.136856</v>
+        <v>0.125935</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.1897</v>
+        <v>0.18748</v>
       </c>
       <c r="C107" t="n">
-        <v>0.200321</v>
+        <v>0.200347</v>
       </c>
       <c r="D107" t="n">
-        <v>0.154107</v>
+        <v>0.144428</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.225955</v>
+        <v>0.219849</v>
       </c>
       <c r="C108" t="n">
-        <v>0.243676</v>
+        <v>0.233312</v>
       </c>
       <c r="D108" t="n">
-        <v>0.162267</v>
+        <v>0.153209</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.282774</v>
+        <v>0.283643</v>
       </c>
       <c r="C109" t="n">
-        <v>0.311998</v>
+        <v>0.302942</v>
       </c>
       <c r="D109" t="n">
-        <v>0.168943</v>
+        <v>0.154958</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.20664</v>
+        <v>0.202317</v>
       </c>
       <c r="C110" t="n">
-        <v>0.179675</v>
+        <v>0.177377</v>
       </c>
       <c r="D110" t="n">
-        <v>0.164782</v>
+        <v>0.161802</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.201548</v>
+        <v>0.205859</v>
       </c>
       <c r="C111" t="n">
-        <v>0.187218</v>
+        <v>0.185687</v>
       </c>
       <c r="D111" t="n">
-        <v>0.171184</v>
+        <v>0.158681</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.210474</v>
+        <v>0.213184</v>
       </c>
       <c r="C112" t="n">
-        <v>0.195025</v>
+        <v>0.182702</v>
       </c>
       <c r="D112" t="n">
-        <v>0.170097</v>
+        <v>0.162916</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.216849</v>
+        <v>0.205372</v>
       </c>
       <c r="C113" t="n">
-        <v>0.186172</v>
+        <v>0.191063</v>
       </c>
       <c r="D113" t="n">
-        <v>0.176894</v>
+        <v>0.169253</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.218574</v>
+        <v>0.203948</v>
       </c>
       <c r="C114" t="n">
-        <v>0.201409</v>
+        <v>0.192643</v>
       </c>
       <c r="D114" t="n">
-        <v>0.174504</v>
+        <v>0.171374</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.221552</v>
+        <v>0.208823</v>
       </c>
       <c r="C115" t="n">
-        <v>0.207602</v>
+        <v>0.203932</v>
       </c>
       <c r="D115" t="n">
-        <v>0.173977</v>
+        <v>0.179892</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.227017</v>
+        <v>0.213407</v>
       </c>
       <c r="C116" t="n">
-        <v>0.209182</v>
+        <v>0.215623</v>
       </c>
       <c r="D116" t="n">
-        <v>0.178113</v>
+        <v>0.180647</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.234244</v>
+        <v>0.229074</v>
       </c>
       <c r="C117" t="n">
-        <v>0.21923</v>
+        <v>0.22227</v>
       </c>
       <c r="D117" t="n">
-        <v>0.191257</v>
+        <v>0.181103</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.244759</v>
+        <v>0.227468</v>
       </c>
       <c r="C118" t="n">
-        <v>0.233744</v>
+        <v>0.221429</v>
       </c>
       <c r="D118" t="n">
-        <v>0.19241</v>
+        <v>0.18532</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.239222</v>
+        <v>0.246698</v>
       </c>
       <c r="C119" t="n">
-        <v>0.229346</v>
+        <v>0.233339</v>
       </c>
       <c r="D119" t="n">
-        <v>0.200577</v>
+        <v>0.191008</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.252086</v>
+        <v>0.25482</v>
       </c>
       <c r="C120" t="n">
-        <v>0.244408</v>
+        <v>0.247424</v>
       </c>
       <c r="D120" t="n">
-        <v>0.206567</v>
+        <v>0.20783</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.288662</v>
+        <v>0.276343</v>
       </c>
       <c r="C121" t="n">
-        <v>0.274769</v>
+        <v>0.278165</v>
       </c>
       <c r="D121" t="n">
-        <v>0.231035</v>
+        <v>0.235971</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.325759</v>
+        <v>0.341592</v>
       </c>
       <c r="C122" t="n">
-        <v>0.331541</v>
+        <v>0.317318</v>
       </c>
       <c r="D122" t="n">
-        <v>0.26921</v>
+        <v>0.270062</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.393151</v>
+        <v>0.370605</v>
       </c>
       <c r="C123" t="n">
-        <v>0.412333</v>
+        <v>0.380808</v>
       </c>
       <c r="D123" t="n">
-        <v>0.252509</v>
+        <v>0.249396</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.311625</v>
+        <v>0.306915</v>
       </c>
       <c r="C124" t="n">
-        <v>0.270153</v>
+        <v>0.270668</v>
       </c>
       <c r="D124" t="n">
-        <v>0.250498</v>
+        <v>0.251136</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.317439</v>
+        <v>0.313443</v>
       </c>
       <c r="C125" t="n">
-        <v>0.280321</v>
+        <v>0.275014</v>
       </c>
       <c r="D125" t="n">
-        <v>0.250782</v>
+        <v>0.249775</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.316178</v>
+        <v>0.318675</v>
       </c>
       <c r="C126" t="n">
-        <v>0.288605</v>
+        <v>0.27582</v>
       </c>
       <c r="D126" t="n">
-        <v>0.260339</v>
+        <v>0.250101</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.326759</v>
+        <v>0.315838</v>
       </c>
       <c r="C127" t="n">
-        <v>0.289191</v>
+        <v>0.285785</v>
       </c>
       <c r="D127" t="n">
-        <v>0.262437</v>
+        <v>0.264955</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.32412</v>
+        <v>0.321948</v>
       </c>
       <c r="C128" t="n">
-        <v>0.289194</v>
+        <v>0.286565</v>
       </c>
       <c r="D128" t="n">
-        <v>0.261434</v>
+        <v>0.255364</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.330455</v>
+        <v>0.33231</v>
       </c>
       <c r="C129" t="n">
-        <v>0.293571</v>
+        <v>0.296916</v>
       </c>
       <c r="D129" t="n">
-        <v>0.266266</v>
+        <v>0.254335</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.346785</v>
+        <v>0.330888</v>
       </c>
       <c r="C130" t="n">
-        <v>0.298641</v>
+        <v>0.296834</v>
       </c>
       <c r="D130" t="n">
-        <v>0.267436</v>
+        <v>0.271432</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.346352</v>
+        <v>0.342939</v>
       </c>
       <c r="C131" t="n">
-        <v>0.311369</v>
+        <v>0.311414</v>
       </c>
       <c r="D131" t="n">
-        <v>0.275267</v>
+        <v>0.269826</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.357793</v>
+        <v>0.353536</v>
       </c>
       <c r="C132" t="n">
-        <v>0.323585</v>
+        <v>0.317423</v>
       </c>
       <c r="D132" t="n">
-        <v>0.277737</v>
+        <v>0.28121</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.367979</v>
+        <v>0.373355</v>
       </c>
       <c r="C133" t="n">
-        <v>0.340876</v>
+        <v>0.332165</v>
       </c>
       <c r="D133" t="n">
-        <v>0.2956</v>
+        <v>0.287799</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.383911</v>
+        <v>0.380811</v>
       </c>
       <c r="C134" t="n">
-        <v>0.355746</v>
+        <v>0.356441</v>
       </c>
       <c r="D134" t="n">
-        <v>0.306916</v>
+        <v>0.3049</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.41108</v>
+        <v>0.417044</v>
       </c>
       <c r="C135" t="n">
-        <v>0.389199</v>
+        <v>0.372854</v>
       </c>
       <c r="D135" t="n">
-        <v>0.327304</v>
+        <v>0.319856</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.465931</v>
+        <v>0.459972</v>
       </c>
       <c r="C136" t="n">
-        <v>0.442433</v>
+        <v>0.443201</v>
       </c>
       <c r="D136" t="n">
-        <v>0.363847</v>
+        <v>0.358124</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.53083</v>
+        <v>0.527625</v>
       </c>
       <c r="C137" t="n">
-        <v>0.505282</v>
+        <v>0.512032</v>
       </c>
       <c r="D137" t="n">
-        <v>0.302685</v>
+        <v>0.297593</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.379894</v>
+        <v>0.377161</v>
       </c>
       <c r="C138" t="n">
-        <v>0.32925</v>
+        <v>0.322926</v>
       </c>
       <c r="D138" t="n">
-        <v>0.301358</v>
+        <v>0.30313</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.386091</v>
+        <v>0.384744</v>
       </c>
       <c r="C139" t="n">
-        <v>0.332476</v>
+        <v>0.335317</v>
       </c>
       <c r="D139" t="n">
-        <v>0.304867</v>
+        <v>0.30577</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.385922</v>
+        <v>0.39255</v>
       </c>
       <c r="C140" t="n">
-        <v>0.346691</v>
+        <v>0.341786</v>
       </c>
       <c r="D140" t="n">
-        <v>0.313794</v>
+        <v>0.306461</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.390311</v>
+        <v>0.39358</v>
       </c>
       <c r="C141" t="n">
-        <v>0.341305</v>
+        <v>0.346243</v>
       </c>
       <c r="D141" t="n">
-        <v>0.307129</v>
+        <v>0.314275</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.398243</v>
+        <v>0.395922</v>
       </c>
       <c r="C142" t="n">
-        <v>0.352866</v>
+        <v>0.345612</v>
       </c>
       <c r="D142" t="n">
-        <v>0.312726</v>
+        <v>0.31849</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.405458</v>
+        <v>0.407814</v>
       </c>
       <c r="C143" t="n">
-        <v>0.354768</v>
+        <v>0.343672</v>
       </c>
       <c r="D143" t="n">
-        <v>0.323937</v>
+        <v>0.314443</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered unsuccessful looukp.xlsx
+++ b/vs-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0421656</v>
+        <v>0.0415331</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0419315</v>
+        <v>0.0419628</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0359094</v>
+        <v>0.0362267</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0442677</v>
+        <v>0.04481</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0431651</v>
+        <v>0.0429741</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0396214</v>
+        <v>0.0395923</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0483728</v>
+        <v>0.046361</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0490566</v>
+        <v>0.0506453</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0444629</v>
+        <v>0.043791</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0525544</v>
+        <v>0.0502741</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0559615</v>
+        <v>0.0569247</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0499831</v>
+        <v>0.0489372</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.06262959999999999</v>
+        <v>0.0586724</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0647088</v>
+        <v>0.0670096</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0546605</v>
+        <v>0.0544323</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0759996</v>
+        <v>0.073826</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07943219999999999</v>
+        <v>0.07995140000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>0.066327</v>
+        <v>0.0681194</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.100528</v>
+        <v>0.08979810000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0980475</v>
+        <v>0.0976789</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0840226</v>
+        <v>0.0842885</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.135886</v>
+        <v>0.120299</v>
       </c>
       <c r="C9" t="n">
-        <v>0.133909</v>
+        <v>0.131438</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0316811</v>
+        <v>0.0313536</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0393064</v>
+        <v>0.0391519</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0353304</v>
+        <v>0.0361276</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0319934</v>
+        <v>0.032451</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0398545</v>
+        <v>0.0409538</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0361647</v>
+        <v>0.0359435</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0318053</v>
+        <v>0.0324438</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0405993</v>
+        <v>0.0440747</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0379625</v>
+        <v>0.0385797</v>
       </c>
       <c r="D12" t="n">
-        <v>0.032897</v>
+        <v>0.0329314</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.042089</v>
+        <v>0.042053</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0392185</v>
+        <v>0.0391222</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0340086</v>
+        <v>0.0331997</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0420334</v>
+        <v>0.0427416</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0398837</v>
+        <v>0.0406531</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0342192</v>
+        <v>0.0346683</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0436205</v>
+        <v>0.0437774</v>
       </c>
       <c r="C15" t="n">
-        <v>0.041493</v>
+        <v>0.0420222</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0353531</v>
+        <v>0.0358557</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0438777</v>
+        <v>0.0471239</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0446297</v>
+        <v>0.0452856</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0383135</v>
+        <v>0.0386038</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0477141</v>
+        <v>0.0466556</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0476413</v>
+        <v>0.0480718</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0418043</v>
+        <v>0.0410002</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0512734</v>
+        <v>0.0508498</v>
       </c>
       <c r="C18" t="n">
-        <v>0.052024</v>
+        <v>0.0532689</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0453103</v>
+        <v>0.0442537</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0571028</v>
+        <v>0.0574512</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0583738</v>
+        <v>0.0591812</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0485922</v>
+        <v>0.050447</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0643696</v>
+        <v>0.0668542</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0688163</v>
+        <v>0.06604160000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0561927</v>
+        <v>0.0563432</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.075943</v>
+        <v>0.0796374</v>
       </c>
       <c r="C21" t="n">
-        <v>0.08098569999999999</v>
+        <v>0.0806645</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0696499</v>
+        <v>0.06835380000000001</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0952551</v>
+        <v>0.09773800000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>0.100189</v>
+        <v>0.100468</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0871754</v>
+        <v>0.0882735</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.131166</v>
+        <v>0.128877</v>
       </c>
       <c r="C23" t="n">
-        <v>0.132362</v>
+        <v>0.135464</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0333962</v>
+        <v>0.0327804</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0434617</v>
+        <v>0.0418849</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0374603</v>
+        <v>0.0376854</v>
       </c>
       <c r="D24" t="n">
-        <v>0.033359</v>
+        <v>0.0335393</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0440715</v>
+        <v>0.0425142</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0385572</v>
+        <v>0.0386445</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0343914</v>
+        <v>0.0347884</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0429641</v>
+        <v>0.0440101</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0384553</v>
+        <v>0.0386316</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0339493</v>
+        <v>0.0337563</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0440786</v>
+        <v>0.0449746</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0396216</v>
+        <v>0.040888</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0356599</v>
+        <v>0.0358152</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.044532</v>
+        <v>0.0450128</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0413254</v>
+        <v>0.0409447</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0359653</v>
+        <v>0.0359201</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0466181</v>
+        <v>0.0476954</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0443854</v>
+        <v>0.0426701</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0387222</v>
+        <v>0.0401935</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0482828</v>
+        <v>0.0506735</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0463831</v>
+        <v>0.0464796</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0397202</v>
+        <v>0.0397197</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0500385</v>
+        <v>0.0505495</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0484759</v>
+        <v>0.0490571</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0410195</v>
+        <v>0.040975</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0525862</v>
+        <v>0.0557857</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0528816</v>
+        <v>0.0541812</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0448067</v>
+        <v>0.0450982</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0603014</v>
+        <v>0.0581313</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0589811</v>
+        <v>0.0601229</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0494067</v>
+        <v>0.0504056</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0676213</v>
+        <v>0.065967</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0659081</v>
+        <v>0.06889579999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0571524</v>
+        <v>0.0586008</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.07583429999999999</v>
+        <v>0.0782709</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0776616</v>
+        <v>0.0775827</v>
       </c>
       <c r="D35" t="n">
-        <v>0.068926</v>
+        <v>0.0703463</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.09488290000000001</v>
+        <v>0.0978169</v>
       </c>
       <c r="C36" t="n">
-        <v>0.100396</v>
+        <v>0.100083</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0881188</v>
+        <v>0.08695170000000001</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.12193</v>
+        <v>0.121736</v>
       </c>
       <c r="C37" t="n">
-        <v>0.128452</v>
+        <v>0.133631</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0365704</v>
+        <v>0.0358735</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.047364</v>
+        <v>0.0474947</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0414483</v>
+        <v>0.0429487</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0363887</v>
+        <v>0.0377564</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0497022</v>
+        <v>0.0485004</v>
       </c>
       <c r="C39" t="n">
-        <v>0.043704</v>
+        <v>0.0420365</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0356368</v>
+        <v>0.0363777</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0476556</v>
+        <v>0.0485127</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0420584</v>
+        <v>0.0441349</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0364455</v>
+        <v>0.0369183</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0517948</v>
+        <v>0.0491071</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0449826</v>
+        <v>0.0438373</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0379259</v>
+        <v>0.0374749</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0501524</v>
+        <v>0.0513575</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0451676</v>
+        <v>0.0440827</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0389418</v>
+        <v>0.0396339</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0515849</v>
+        <v>0.0520001</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0466295</v>
+        <v>0.047453</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0398851</v>
+        <v>0.0390422</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0522036</v>
+        <v>0.0528719</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0491367</v>
+        <v>0.0487083</v>
       </c>
       <c r="D44" t="n">
-        <v>0.041487</v>
+        <v>0.0418135</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0558245</v>
+        <v>0.0535418</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0521195</v>
+        <v>0.0565322</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0446514</v>
+        <v>0.0457321</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0612288</v>
+        <v>0.0610674</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0564633</v>
+        <v>0.0586765</v>
       </c>
       <c r="D46" t="n">
-        <v>0.048398</v>
+        <v>0.048221</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0615585</v>
+        <v>0.064683</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0606499</v>
+        <v>0.06330330000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0533091</v>
+        <v>0.0530039</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0690021</v>
+        <v>0.0682619</v>
       </c>
       <c r="C48" t="n">
-        <v>0.07032670000000001</v>
+        <v>0.0743051</v>
       </c>
       <c r="D48" t="n">
-        <v>0.060732</v>
+        <v>0.0604462</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0782858</v>
+        <v>0.0777122</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0797062</v>
+        <v>0.0823516</v>
       </c>
       <c r="D49" t="n">
-        <v>0.06969930000000001</v>
+        <v>0.0708418</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.09437189999999999</v>
+        <v>0.0928321</v>
       </c>
       <c r="C50" t="n">
-        <v>0.09986009999999999</v>
+        <v>0.0992619</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0887376</v>
+        <v>0.0866789</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.117538</v>
+        <v>0.116391</v>
       </c>
       <c r="C51" t="n">
-        <v>0.12582</v>
+        <v>0.134486</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0422132</v>
+        <v>0.0425644</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.15634</v>
+        <v>0.155733</v>
       </c>
       <c r="C52" t="n">
-        <v>0.16432</v>
+        <v>0.169391</v>
       </c>
       <c r="D52" t="n">
-        <v>0.043723</v>
+        <v>0.0418013</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0575226</v>
+        <v>0.0572528</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0485646</v>
+        <v>0.0520395</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0412089</v>
+        <v>0.0425438</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0560014</v>
+        <v>0.0579504</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0502338</v>
+        <v>0.0509951</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0418376</v>
+        <v>0.0462535</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0570993</v>
+        <v>0.0590328</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0506068</v>
+        <v>0.0541147</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0431395</v>
+        <v>0.0450437</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0586591</v>
+        <v>0.0601425</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0532549</v>
+        <v>0.0540757</v>
       </c>
       <c r="D56" t="n">
-        <v>0.044875</v>
+        <v>0.0458557</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0620368</v>
+        <v>0.0612116</v>
       </c>
       <c r="C57" t="n">
-        <v>0.055062</v>
+        <v>0.0564438</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0469057</v>
+        <v>0.0478998</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0636558</v>
+        <v>0.06435490000000001</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0578698</v>
+        <v>0.0595474</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0475359</v>
+        <v>0.0482413</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0643677</v>
+        <v>0.0658854</v>
       </c>
       <c r="C59" t="n">
-        <v>0.062277</v>
+        <v>0.0594439</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0502839</v>
+        <v>0.0506191</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.06863379999999999</v>
+        <v>0.0690549</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0658183</v>
+        <v>0.06526120000000001</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0534996</v>
+        <v>0.0532396</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.075848</v>
+        <v>0.0735137</v>
       </c>
       <c r="C61" t="n">
-        <v>0.07006510000000001</v>
+        <v>0.07278560000000001</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0593208</v>
+        <v>0.0584117</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0804088</v>
+        <v>0.0784494</v>
       </c>
       <c r="C62" t="n">
-        <v>0.07758900000000001</v>
+        <v>0.077658</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0642697</v>
+        <v>0.065224</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0883282</v>
+        <v>0.0887913</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0876566</v>
+        <v>0.08955349999999999</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0750784</v>
+        <v>0.07330689999999999</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.100635</v>
+        <v>0.10375</v>
       </c>
       <c r="C64" t="n">
-        <v>0.10607</v>
+        <v>0.106822</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0878697</v>
+        <v>0.0888984</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.119933</v>
+        <v>0.124229</v>
       </c>
       <c r="C65" t="n">
-        <v>0.131749</v>
+        <v>0.131234</v>
       </c>
       <c r="D65" t="n">
-        <v>0.109977</v>
+        <v>0.112576</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.160963</v>
+        <v>0.161917</v>
       </c>
       <c r="C66" t="n">
-        <v>0.175538</v>
+        <v>0.169209</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0478549</v>
+        <v>0.0475762</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.06556579999999999</v>
+        <v>0.0657614</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0580863</v>
+        <v>0.059933</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0471116</v>
+        <v>0.0485467</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0668058</v>
+        <v>0.0658398</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0608369</v>
+        <v>0.0606752</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0502689</v>
+        <v>0.0508556</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0669951</v>
+        <v>0.0687424</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0636441</v>
+        <v>0.0629152</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0491945</v>
+        <v>0.0525639</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.06997689999999999</v>
+        <v>0.0729011</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0628729</v>
+        <v>0.06301950000000001</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0513944</v>
+        <v>0.0505004</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0729421</v>
+        <v>0.07266980000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>0.06530270000000001</v>
+        <v>0.0677321</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0522543</v>
+        <v>0.0526037</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0735813</v>
+        <v>0.07347579999999999</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0692364</v>
+        <v>0.06979299999999999</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0554917</v>
+        <v>0.0546818</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0753003</v>
+        <v>0.0780098</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0722254</v>
+        <v>0.0730652</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0586252</v>
+        <v>0.0585981</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.08092340000000001</v>
+        <v>0.0822903</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0774253</v>
+        <v>0.081412</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0611303</v>
+        <v>0.0611442</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0867185</v>
+        <v>0.0878447</v>
       </c>
       <c r="C75" t="n">
-        <v>0.08480939999999999</v>
+        <v>0.0878824</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0678719</v>
+        <v>0.06673419999999999</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.09450989999999999</v>
+        <v>0.0942418</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0935107</v>
+        <v>0.0934464</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0775782</v>
+        <v>0.0764957</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.1081</v>
+        <v>0.105875</v>
       </c>
       <c r="C77" t="n">
-        <v>0.109676</v>
+        <v>0.109904</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0830159</v>
+        <v>0.0832932</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.119825</v>
+        <v>0.122707</v>
       </c>
       <c r="C78" t="n">
-        <v>0.123052</v>
+        <v>0.125687</v>
       </c>
       <c r="D78" t="n">
-        <v>0.10031</v>
+        <v>0.100463</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.145762</v>
+        <v>0.144937</v>
       </c>
       <c r="C79" t="n">
-        <v>0.151154</v>
+        <v>0.142657</v>
       </c>
       <c r="D79" t="n">
-        <v>0.11891</v>
+        <v>0.122119</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.183769</v>
+        <v>0.177513</v>
       </c>
       <c r="C80" t="n">
-        <v>0.193301</v>
+        <v>0.18446</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0572955</v>
+        <v>0.0577656</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0785303</v>
+        <v>0.0850947</v>
       </c>
       <c r="C81" t="n">
-        <v>0.07269200000000001</v>
+        <v>0.0704159</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0564695</v>
+        <v>0.0579813</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0831108</v>
+        <v>0.0861601</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0741666</v>
+        <v>0.07536809999999999</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0575242</v>
+        <v>0.058843</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0839386</v>
+        <v>0.0843013</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0811861</v>
+        <v>0.0852511</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0587058</v>
+        <v>0.0583325</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0892172</v>
+        <v>0.08973920000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>0.08107</v>
+        <v>0.0793001</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0609364</v>
+        <v>0.06749040000000001</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.09175700000000001</v>
+        <v>0.0938012</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0840448</v>
+        <v>0.0861522</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0665895</v>
+        <v>0.0683821</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.091575</v>
+        <v>0.0928306</v>
       </c>
       <c r="C86" t="n">
-        <v>0.08705830000000001</v>
+        <v>0.0872083</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0656803</v>
+        <v>0.07343379999999999</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.09545140000000001</v>
+        <v>0.09679020000000001</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0900869</v>
+        <v>0.0966764</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0688758</v>
+        <v>0.07457800000000001</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.102339</v>
+        <v>0.10192</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0943927</v>
+        <v>0.0972749</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0729442</v>
+        <v>0.07464170000000001</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.106399</v>
+        <v>0.110301</v>
       </c>
       <c r="C89" t="n">
-        <v>0.101304</v>
+        <v>0.102178</v>
       </c>
       <c r="D89" t="n">
-        <v>0.08020670000000001</v>
+        <v>0.0781216</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.113231</v>
+        <v>0.115533</v>
       </c>
       <c r="C90" t="n">
-        <v>0.111178</v>
+        <v>0.116483</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0885065</v>
+        <v>0.0856276</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.122567</v>
+        <v>0.126022</v>
       </c>
       <c r="C91" t="n">
-        <v>0.124465</v>
+        <v>0.126753</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0939537</v>
+        <v>0.09519909999999999</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.138087</v>
+        <v>0.141991</v>
       </c>
       <c r="C92" t="n">
-        <v>0.140946</v>
+        <v>0.144646</v>
       </c>
       <c r="D92" t="n">
-        <v>0.110313</v>
+        <v>0.108962</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.162169</v>
+        <v>0.161184</v>
       </c>
       <c r="C93" t="n">
-        <v>0.164767</v>
+        <v>0.164814</v>
       </c>
       <c r="D93" t="n">
-        <v>0.128353</v>
+        <v>0.130442</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.194581</v>
+        <v>0.193503</v>
       </c>
       <c r="C94" t="n">
-        <v>0.207733</v>
+        <v>0.203039</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0742386</v>
+        <v>0.0771251</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.10668</v>
+        <v>0.111025</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0984022</v>
+        <v>0.10344</v>
       </c>
       <c r="D95" t="n">
-        <v>0.075539</v>
+        <v>0.07713680000000001</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.108435</v>
+        <v>0.120069</v>
       </c>
       <c r="C96" t="n">
-        <v>0.100918</v>
+        <v>0.106215</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0781063</v>
+        <v>0.0799393</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.112081</v>
+        <v>0.118801</v>
       </c>
       <c r="C97" t="n">
-        <v>0.103982</v>
+        <v>0.108526</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0819308</v>
+        <v>0.082568</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.113734</v>
+        <v>0.123008</v>
       </c>
       <c r="C98" t="n">
-        <v>0.107643</v>
+        <v>0.113319</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0816191</v>
+        <v>0.08537790000000001</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.118118</v>
+        <v>0.123629</v>
       </c>
       <c r="C99" t="n">
-        <v>0.11108</v>
+        <v>0.115357</v>
       </c>
       <c r="D99" t="n">
-        <v>0.08406719999999999</v>
+        <v>0.0934837</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.119538</v>
+        <v>0.133928</v>
       </c>
       <c r="C100" t="n">
-        <v>0.113397</v>
+        <v>0.120424</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0874535</v>
+        <v>0.08713849999999999</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.125057</v>
+        <v>0.133279</v>
       </c>
       <c r="C101" t="n">
-        <v>0.114872</v>
+        <v>0.125165</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0908002</v>
+        <v>0.08973250000000001</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.131456</v>
+        <v>0.137415</v>
       </c>
       <c r="C102" t="n">
-        <v>0.127795</v>
+        <v>0.129978</v>
       </c>
       <c r="D102" t="n">
-        <v>0.092762</v>
+        <v>0.101025</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.132015</v>
+        <v>0.139516</v>
       </c>
       <c r="C103" t="n">
-        <v>0.127907</v>
+        <v>0.133101</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0982133</v>
+        <v>0.10443</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.138037</v>
+        <v>0.149374</v>
       </c>
       <c r="C104" t="n">
-        <v>0.137909</v>
+        <v>0.146818</v>
       </c>
       <c r="D104" t="n">
-        <v>0.106088</v>
+        <v>0.110587</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.150942</v>
+        <v>0.158526</v>
       </c>
       <c r="C105" t="n">
-        <v>0.148765</v>
+        <v>0.158608</v>
       </c>
       <c r="D105" t="n">
-        <v>0.113192</v>
+        <v>0.119976</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.168795</v>
+        <v>0.169103</v>
       </c>
       <c r="C106" t="n">
-        <v>0.166144</v>
+        <v>0.176447</v>
       </c>
       <c r="D106" t="n">
-        <v>0.125935</v>
+        <v>0.131957</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.18748</v>
+        <v>0.195404</v>
       </c>
       <c r="C107" t="n">
-        <v>0.200347</v>
+        <v>0.203211</v>
       </c>
       <c r="D107" t="n">
-        <v>0.144428</v>
+        <v>0.155949</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.219849</v>
+        <v>0.22932</v>
       </c>
       <c r="C108" t="n">
-        <v>0.233312</v>
+        <v>0.246241</v>
       </c>
       <c r="D108" t="n">
-        <v>0.153209</v>
+        <v>0.15406</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.283643</v>
+        <v>0.280402</v>
       </c>
       <c r="C109" t="n">
-        <v>0.302942</v>
+        <v>0.316275</v>
       </c>
       <c r="D109" t="n">
-        <v>0.154958</v>
+        <v>0.163823</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.202317</v>
+        <v>0.209251</v>
       </c>
       <c r="C110" t="n">
-        <v>0.177377</v>
+        <v>0.179859</v>
       </c>
       <c r="D110" t="n">
-        <v>0.161802</v>
+        <v>0.158292</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.205859</v>
+        <v>0.211438</v>
       </c>
       <c r="C111" t="n">
-        <v>0.185687</v>
+        <v>0.193304</v>
       </c>
       <c r="D111" t="n">
-        <v>0.158681</v>
+        <v>0.166348</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.213184</v>
+        <v>0.212223</v>
       </c>
       <c r="C112" t="n">
-        <v>0.182702</v>
+        <v>0.182771</v>
       </c>
       <c r="D112" t="n">
-        <v>0.162916</v>
+        <v>0.170408</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.205372</v>
+        <v>0.217356</v>
       </c>
       <c r="C113" t="n">
-        <v>0.191063</v>
+        <v>0.193317</v>
       </c>
       <c r="D113" t="n">
-        <v>0.169253</v>
+        <v>0.178379</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.203948</v>
+        <v>0.211771</v>
       </c>
       <c r="C114" t="n">
-        <v>0.192643</v>
+        <v>0.205232</v>
       </c>
       <c r="D114" t="n">
-        <v>0.171374</v>
+        <v>0.173831</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.208823</v>
+        <v>0.226305</v>
       </c>
       <c r="C115" t="n">
-        <v>0.203932</v>
+        <v>0.196548</v>
       </c>
       <c r="D115" t="n">
-        <v>0.179892</v>
+        <v>0.171469</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.213407</v>
+        <v>0.212735</v>
       </c>
       <c r="C116" t="n">
-        <v>0.215623</v>
+        <v>0.219384</v>
       </c>
       <c r="D116" t="n">
-        <v>0.180647</v>
+        <v>0.169685</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.229074</v>
+        <v>0.223713</v>
       </c>
       <c r="C117" t="n">
-        <v>0.22227</v>
+        <v>0.211071</v>
       </c>
       <c r="D117" t="n">
-        <v>0.181103</v>
+        <v>0.172839</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.227468</v>
+        <v>0.240349</v>
       </c>
       <c r="C118" t="n">
-        <v>0.221429</v>
+        <v>0.220967</v>
       </c>
       <c r="D118" t="n">
-        <v>0.18532</v>
+        <v>0.197804</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.246698</v>
+        <v>0.253199</v>
       </c>
       <c r="C119" t="n">
-        <v>0.233339</v>
+        <v>0.234015</v>
       </c>
       <c r="D119" t="n">
-        <v>0.191008</v>
+        <v>0.19264</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.25482</v>
+        <v>0.272713</v>
       </c>
       <c r="C120" t="n">
-        <v>0.247424</v>
+        <v>0.248935</v>
       </c>
       <c r="D120" t="n">
-        <v>0.20783</v>
+        <v>0.215478</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.276343</v>
+        <v>0.290301</v>
       </c>
       <c r="C121" t="n">
-        <v>0.278165</v>
+        <v>0.2754</v>
       </c>
       <c r="D121" t="n">
-        <v>0.235971</v>
+        <v>0.237456</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.341592</v>
+        <v>0.323141</v>
       </c>
       <c r="C122" t="n">
-        <v>0.317318</v>
+        <v>0.33381</v>
       </c>
       <c r="D122" t="n">
-        <v>0.270062</v>
+        <v>0.275617</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.370605</v>
+        <v>0.396972</v>
       </c>
       <c r="C123" t="n">
-        <v>0.380808</v>
+        <v>0.404289</v>
       </c>
       <c r="D123" t="n">
-        <v>0.249396</v>
+        <v>0.248832</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.306915</v>
+        <v>0.314849</v>
       </c>
       <c r="C124" t="n">
-        <v>0.270668</v>
+        <v>0.278873</v>
       </c>
       <c r="D124" t="n">
-        <v>0.251136</v>
+        <v>0.247873</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.313443</v>
+        <v>0.321888</v>
       </c>
       <c r="C125" t="n">
-        <v>0.275014</v>
+        <v>0.283803</v>
       </c>
       <c r="D125" t="n">
-        <v>0.249775</v>
+        <v>0.253427</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.318675</v>
+        <v>0.317238</v>
       </c>
       <c r="C126" t="n">
-        <v>0.27582</v>
+        <v>0.280193</v>
       </c>
       <c r="D126" t="n">
-        <v>0.250101</v>
+        <v>0.25194</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.315838</v>
+        <v>0.324954</v>
       </c>
       <c r="C127" t="n">
-        <v>0.285785</v>
+        <v>0.273783</v>
       </c>
       <c r="D127" t="n">
-        <v>0.264955</v>
+        <v>0.259682</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.321948</v>
+        <v>0.337155</v>
       </c>
       <c r="C128" t="n">
-        <v>0.286565</v>
+        <v>0.283911</v>
       </c>
       <c r="D128" t="n">
-        <v>0.255364</v>
+        <v>0.252096</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.33231</v>
+        <v>0.328067</v>
       </c>
       <c r="C129" t="n">
-        <v>0.296916</v>
+        <v>0.29127</v>
       </c>
       <c r="D129" t="n">
-        <v>0.254335</v>
+        <v>0.260488</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.330888</v>
+        <v>0.335819</v>
       </c>
       <c r="C130" t="n">
-        <v>0.296834</v>
+        <v>0.295095</v>
       </c>
       <c r="D130" t="n">
-        <v>0.271432</v>
+        <v>0.263341</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.342939</v>
+        <v>0.340509</v>
       </c>
       <c r="C131" t="n">
-        <v>0.311414</v>
+        <v>0.30168</v>
       </c>
       <c r="D131" t="n">
-        <v>0.269826</v>
+        <v>0.274618</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.353536</v>
+        <v>0.361646</v>
       </c>
       <c r="C132" t="n">
-        <v>0.317423</v>
+        <v>0.32768</v>
       </c>
       <c r="D132" t="n">
-        <v>0.28121</v>
+        <v>0.277241</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.373355</v>
+        <v>0.370183</v>
       </c>
       <c r="C133" t="n">
-        <v>0.332165</v>
+        <v>0.338147</v>
       </c>
       <c r="D133" t="n">
-        <v>0.287799</v>
+        <v>0.289733</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.380811</v>
+        <v>0.379498</v>
       </c>
       <c r="C134" t="n">
-        <v>0.356441</v>
+        <v>0.35002</v>
       </c>
       <c r="D134" t="n">
-        <v>0.3049</v>
+        <v>0.303979</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.417044</v>
+        <v>0.419587</v>
       </c>
       <c r="C135" t="n">
-        <v>0.372854</v>
+        <v>0.37283</v>
       </c>
       <c r="D135" t="n">
-        <v>0.319856</v>
+        <v>0.323627</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.459972</v>
+        <v>0.458557</v>
       </c>
       <c r="C136" t="n">
-        <v>0.443201</v>
+        <v>0.436924</v>
       </c>
       <c r="D136" t="n">
-        <v>0.358124</v>
+        <v>0.36524</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.527625</v>
+        <v>0.539018</v>
       </c>
       <c r="C137" t="n">
-        <v>0.512032</v>
+        <v>0.514398</v>
       </c>
       <c r="D137" t="n">
-        <v>0.297593</v>
+        <v>0.293801</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.377161</v>
+        <v>0.387668</v>
       </c>
       <c r="C138" t="n">
-        <v>0.322926</v>
+        <v>0.331704</v>
       </c>
       <c r="D138" t="n">
-        <v>0.30313</v>
+        <v>0.2982</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.384744</v>
+        <v>0.385576</v>
       </c>
       <c r="C139" t="n">
-        <v>0.335317</v>
+        <v>0.335307</v>
       </c>
       <c r="D139" t="n">
-        <v>0.30577</v>
+        <v>0.297371</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.39255</v>
+        <v>0.388958</v>
       </c>
       <c r="C140" t="n">
-        <v>0.341786</v>
+        <v>0.335365</v>
       </c>
       <c r="D140" t="n">
-        <v>0.306461</v>
+        <v>0.310854</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.39358</v>
+        <v>0.391015</v>
       </c>
       <c r="C141" t="n">
-        <v>0.346243</v>
+        <v>0.337884</v>
       </c>
       <c r="D141" t="n">
-        <v>0.314275</v>
+        <v>0.306473</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.395922</v>
+        <v>0.397841</v>
       </c>
       <c r="C142" t="n">
-        <v>0.345612</v>
+        <v>0.352919</v>
       </c>
       <c r="D142" t="n">
-        <v>0.31849</v>
+        <v>0.316298</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.407814</v>
+        <v>0.401563</v>
       </c>
       <c r="C143" t="n">
-        <v>0.343672</v>
+        <v>0.353217</v>
       </c>
       <c r="D143" t="n">
-        <v>0.314443</v>
+        <v>0.325095</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered unsuccessful looukp.xlsx
+++ b/vs-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0415331</v>
+        <v>0.0435279</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0419628</v>
+        <v>0.0407479</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0362267</v>
+        <v>0.0359479</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.04481</v>
+        <v>0.0449727</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0429741</v>
+        <v>0.044052</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0395923</v>
+        <v>0.0376867</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.046361</v>
+        <v>0.0489007</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0506453</v>
+        <v>0.0489707</v>
       </c>
       <c r="D4" t="n">
-        <v>0.043791</v>
+        <v>0.0438754</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0502741</v>
+        <v>0.0536769</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0569247</v>
+        <v>0.0567615</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0489372</v>
+        <v>0.0485488</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0586724</v>
+        <v>0.062824</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0670096</v>
+        <v>0.0661221</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0544323</v>
+        <v>0.0565854</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.073826</v>
+        <v>0.07569330000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07995140000000001</v>
+        <v>0.0823663</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0681194</v>
+        <v>0.0664569</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.08979810000000001</v>
+        <v>0.0950959</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0976789</v>
+        <v>0.102212</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0842885</v>
+        <v>0.0845537</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.120299</v>
+        <v>0.128303</v>
       </c>
       <c r="C9" t="n">
-        <v>0.131438</v>
+        <v>0.132042</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0313536</v>
+        <v>0.0324705</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0391519</v>
+        <v>0.0396671</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0361276</v>
+        <v>0.0356245</v>
       </c>
       <c r="D10" t="n">
-        <v>0.032451</v>
+        <v>0.033373</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0409538</v>
+        <v>0.0407847</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0359435</v>
+        <v>0.0363932</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0324438</v>
+        <v>0.0317502</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0440747</v>
+        <v>0.0409747</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0385797</v>
+        <v>0.0367549</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0329314</v>
+        <v>0.0327404</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.042053</v>
+        <v>0.0410448</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0391222</v>
+        <v>0.038835</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0331997</v>
+        <v>0.0332341</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0427416</v>
+        <v>0.0426503</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0406531</v>
+        <v>0.0401068</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0346683</v>
+        <v>0.0341643</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0437774</v>
+        <v>0.0445225</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0420222</v>
+        <v>0.0422079</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0358557</v>
+        <v>0.0364065</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0471239</v>
+        <v>0.0453607</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0452856</v>
+        <v>0.0440836</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0386038</v>
+        <v>0.0384089</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0466556</v>
+        <v>0.0485265</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0480718</v>
+        <v>0.046418</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0410002</v>
+        <v>0.0406043</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0508498</v>
+        <v>0.0513849</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0532689</v>
+        <v>0.0513908</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0442537</v>
+        <v>0.0448884</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0574512</v>
+        <v>0.0580929</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0591812</v>
+        <v>0.0589427</v>
       </c>
       <c r="D19" t="n">
-        <v>0.050447</v>
+        <v>0.0499163</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0668542</v>
+        <v>0.0683454</v>
       </c>
       <c r="C20" t="n">
-        <v>0.06604160000000001</v>
+        <v>0.0665948</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0563432</v>
+        <v>0.0585822</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0796374</v>
+        <v>0.0786105</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0806645</v>
+        <v>0.0799791</v>
       </c>
       <c r="D21" t="n">
-        <v>0.06835380000000001</v>
+        <v>0.0685197</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.09773800000000001</v>
+        <v>0.09875730000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>0.100468</v>
+        <v>0.099193</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0882735</v>
+        <v>0.0852439</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.128877</v>
+        <v>0.12768</v>
       </c>
       <c r="C23" t="n">
-        <v>0.135464</v>
+        <v>0.134235</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0327804</v>
+        <v>0.0326252</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0418849</v>
+        <v>0.044324</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0376854</v>
+        <v>0.03726</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0335393</v>
+        <v>0.0336433</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0425142</v>
+        <v>0.0449369</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0386445</v>
+        <v>0.0377072</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0347884</v>
+        <v>0.0347004</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0440101</v>
+        <v>0.0462509</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0386316</v>
+        <v>0.0385703</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0337563</v>
+        <v>0.0344773</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0449746</v>
+        <v>0.0444264</v>
       </c>
       <c r="C27" t="n">
-        <v>0.040888</v>
+        <v>0.0394759</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0358152</v>
+        <v>0.0345322</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0450128</v>
+        <v>0.0448991</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0409447</v>
+        <v>0.039986</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0359201</v>
+        <v>0.0363983</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0476954</v>
+        <v>0.0468838</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0426701</v>
+        <v>0.0436505</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0401935</v>
+        <v>0.0378122</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0506735</v>
+        <v>0.0477436</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0464796</v>
+        <v>0.0448514</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0397197</v>
+        <v>0.0396532</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0505495</v>
+        <v>0.050048</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0490571</v>
+        <v>0.0493842</v>
       </c>
       <c r="D31" t="n">
-        <v>0.040975</v>
+        <v>0.0425533</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0557857</v>
+        <v>0.0549099</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0541812</v>
+        <v>0.0522796</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0450982</v>
+        <v>0.0459174</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0581313</v>
+        <v>0.0605924</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0601229</v>
+        <v>0.0586922</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0504056</v>
+        <v>0.0507201</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.065967</v>
+        <v>0.0669396</v>
       </c>
       <c r="C34" t="n">
-        <v>0.06889579999999999</v>
+        <v>0.06803670000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0586008</v>
+        <v>0.0585008</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0782709</v>
+        <v>0.07763340000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0775827</v>
+        <v>0.0782403</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0703463</v>
+        <v>0.06914190000000001</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0978169</v>
+        <v>0.09433229999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>0.100083</v>
+        <v>0.10092</v>
       </c>
       <c r="D36" t="n">
-        <v>0.08695170000000001</v>
+        <v>0.0899363</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.121736</v>
+        <v>0.123704</v>
       </c>
       <c r="C37" t="n">
-        <v>0.133631</v>
+        <v>0.131977</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0358735</v>
+        <v>0.035832</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0474947</v>
+        <v>0.0483998</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0429487</v>
+        <v>0.0411713</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0377564</v>
+        <v>0.0359144</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0485004</v>
+        <v>0.0484217</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0420365</v>
+        <v>0.0406803</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0363777</v>
+        <v>0.0377727</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0485127</v>
+        <v>0.0487582</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0441349</v>
+        <v>0.0443201</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0369183</v>
+        <v>0.0368411</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0491071</v>
+        <v>0.0498968</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0438373</v>
+        <v>0.0432578</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0374749</v>
+        <v>0.0379976</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0513575</v>
+        <v>0.0503432</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0440827</v>
+        <v>0.045071</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0396339</v>
+        <v>0.0406661</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0520001</v>
+        <v>0.0514643</v>
       </c>
       <c r="C43" t="n">
-        <v>0.047453</v>
+        <v>0.0475334</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0390422</v>
+        <v>0.0413893</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0528719</v>
+        <v>0.052571</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0487083</v>
+        <v>0.0488739</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0418135</v>
+        <v>0.042013</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0535418</v>
+        <v>0.0552693</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0565322</v>
+        <v>0.0523853</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0457321</v>
+        <v>0.0442726</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0610674</v>
+        <v>0.056647</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0586765</v>
+        <v>0.0560671</v>
       </c>
       <c r="D46" t="n">
-        <v>0.048221</v>
+        <v>0.0482569</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.064683</v>
+        <v>0.0621913</v>
       </c>
       <c r="C47" t="n">
-        <v>0.06330330000000001</v>
+        <v>0.0618281</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0530039</v>
+        <v>0.0520433</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0682619</v>
+        <v>0.0702434</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0743051</v>
+        <v>0.0678782</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0604462</v>
+        <v>0.0609151</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0777122</v>
+        <v>0.0821636</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0823516</v>
+        <v>0.0822258</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0708418</v>
+        <v>0.0731701</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0928321</v>
+        <v>0.0959127</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0992619</v>
+        <v>0.09885090000000001</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0866789</v>
+        <v>0.0840558</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.116391</v>
+        <v>0.116959</v>
       </c>
       <c r="C51" t="n">
-        <v>0.134486</v>
+        <v>0.128093</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0425644</v>
+        <v>0.0413231</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.155733</v>
+        <v>0.159011</v>
       </c>
       <c r="C52" t="n">
-        <v>0.169391</v>
+        <v>0.163478</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0418013</v>
+        <v>0.0415091</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0572528</v>
+        <v>0.0584865</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0520395</v>
+        <v>0.0526799</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0425438</v>
+        <v>0.0424469</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0579504</v>
+        <v>0.0599044</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0509951</v>
+        <v>0.0517843</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0462535</v>
+        <v>0.0446079</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0590328</v>
+        <v>0.0609388</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0541147</v>
+        <v>0.0529633</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0450437</v>
+        <v>0.045228</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0601425</v>
+        <v>0.0610946</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0540757</v>
+        <v>0.0539931</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0458557</v>
+        <v>0.0453741</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0612116</v>
+        <v>0.0615128</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0564438</v>
+        <v>0.05592</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0478998</v>
+        <v>0.0462345</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.06435490000000001</v>
+        <v>0.06334620000000001</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0595474</v>
+        <v>0.0591349</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0482413</v>
+        <v>0.0508612</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0658854</v>
+        <v>0.06528630000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0594439</v>
+        <v>0.0625868</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0506191</v>
+        <v>0.0521329</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0690549</v>
+        <v>0.0684278</v>
       </c>
       <c r="C60" t="n">
-        <v>0.06526120000000001</v>
+        <v>0.0662089</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0532396</v>
+        <v>0.0531545</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0735137</v>
+        <v>0.0726078</v>
       </c>
       <c r="C61" t="n">
-        <v>0.07278560000000001</v>
+        <v>0.07063750000000001</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0584117</v>
+        <v>0.0612507</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0784494</v>
+        <v>0.0782656</v>
       </c>
       <c r="C62" t="n">
-        <v>0.077658</v>
+        <v>0.0783325</v>
       </c>
       <c r="D62" t="n">
-        <v>0.065224</v>
+        <v>0.0644298</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0887913</v>
+        <v>0.08628139999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>0.08955349999999999</v>
+        <v>0.0898366</v>
       </c>
       <c r="D63" t="n">
-        <v>0.07330689999999999</v>
+        <v>0.074392</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.10375</v>
+        <v>0.101809</v>
       </c>
       <c r="C64" t="n">
-        <v>0.106822</v>
+        <v>0.10163</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0888984</v>
+        <v>0.0888665</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.124229</v>
+        <v>0.125659</v>
       </c>
       <c r="C65" t="n">
-        <v>0.131234</v>
+        <v>0.135157</v>
       </c>
       <c r="D65" t="n">
-        <v>0.112576</v>
+        <v>0.11171</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.161917</v>
+        <v>0.163384</v>
       </c>
       <c r="C66" t="n">
-        <v>0.169209</v>
+        <v>0.175224</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0475762</v>
+        <v>0.0480282</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0657614</v>
+        <v>0.0667562</v>
       </c>
       <c r="C67" t="n">
-        <v>0.059933</v>
+        <v>0.057515</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0485467</v>
+        <v>0.0493401</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0658398</v>
+        <v>0.0683666</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0606752</v>
+        <v>0.0616971</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0508556</v>
+        <v>0.0485532</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0687424</v>
+        <v>0.0688521</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0629152</v>
+        <v>0.0616809</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0525639</v>
+        <v>0.0491765</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0729011</v>
+        <v>0.0711369</v>
       </c>
       <c r="C70" t="n">
-        <v>0.06301950000000001</v>
+        <v>0.0635669</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0505004</v>
+        <v>0.0506092</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.07266980000000001</v>
+        <v>0.0717387</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0677321</v>
+        <v>0.0674916</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0526037</v>
+        <v>0.0546492</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.07347579999999999</v>
+        <v>0.07529859999999999</v>
       </c>
       <c r="C72" t="n">
-        <v>0.06979299999999999</v>
+        <v>0.0719313</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0546818</v>
+        <v>0.0564917</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0780098</v>
+        <v>0.08127959999999999</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0730652</v>
+        <v>0.07237209999999999</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0585981</v>
+        <v>0.0593782</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0822903</v>
+        <v>0.0806061</v>
       </c>
       <c r="C74" t="n">
-        <v>0.081412</v>
+        <v>0.07752299999999999</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0611442</v>
+        <v>0.0614899</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0878447</v>
+        <v>0.086213</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0878824</v>
+        <v>0.0840934</v>
       </c>
       <c r="D75" t="n">
-        <v>0.06673419999999999</v>
+        <v>0.0668082</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0942418</v>
+        <v>0.095494</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0934464</v>
+        <v>0.0919866</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0764957</v>
+        <v>0.0727536</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.105875</v>
+        <v>0.101914</v>
       </c>
       <c r="C77" t="n">
-        <v>0.109904</v>
+        <v>0.103167</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0832932</v>
+        <v>0.08221199999999999</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.122707</v>
+        <v>0.11501</v>
       </c>
       <c r="C78" t="n">
-        <v>0.125687</v>
+        <v>0.120599</v>
       </c>
       <c r="D78" t="n">
-        <v>0.100463</v>
+        <v>0.0951603</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.144937</v>
+        <v>0.141511</v>
       </c>
       <c r="C79" t="n">
-        <v>0.142657</v>
+        <v>0.142739</v>
       </c>
       <c r="D79" t="n">
-        <v>0.122119</v>
+        <v>0.115874</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.177513</v>
+        <v>0.181906</v>
       </c>
       <c r="C80" t="n">
-        <v>0.18446</v>
+        <v>0.186694</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0577656</v>
+        <v>0.0539988</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0850947</v>
+        <v>0.08133609999999999</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0704159</v>
+        <v>0.07242179999999999</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0579813</v>
+        <v>0.0556663</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0861601</v>
+        <v>0.082436</v>
       </c>
       <c r="C82" t="n">
-        <v>0.07536809999999999</v>
+        <v>0.0746684</v>
       </c>
       <c r="D82" t="n">
-        <v>0.058843</v>
+        <v>0.0558498</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0843013</v>
+        <v>0.08482000000000001</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0852511</v>
+        <v>0.07810590000000001</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0583325</v>
+        <v>0.060333</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.08973920000000001</v>
+        <v>0.0878809</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0793001</v>
+        <v>0.0787047</v>
       </c>
       <c r="D84" t="n">
-        <v>0.06749040000000001</v>
+        <v>0.0611712</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0938012</v>
+        <v>0.0900778</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0861522</v>
+        <v>0.08213189999999999</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0683821</v>
+        <v>0.0618804</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0928306</v>
+        <v>0.09461600000000001</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0872083</v>
+        <v>0.0867165</v>
       </c>
       <c r="D86" t="n">
-        <v>0.07343379999999999</v>
+        <v>0.0662956</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.09679020000000001</v>
+        <v>0.0973683</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0966764</v>
+        <v>0.0929608</v>
       </c>
       <c r="D87" t="n">
-        <v>0.07457800000000001</v>
+        <v>0.0698042</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.10192</v>
+        <v>0.10008</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0972749</v>
+        <v>0.09714639999999999</v>
       </c>
       <c r="D88" t="n">
-        <v>0.07464170000000001</v>
+        <v>0.0759774</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.110301</v>
+        <v>0.105812</v>
       </c>
       <c r="C89" t="n">
-        <v>0.102178</v>
+        <v>0.109106</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0781216</v>
+        <v>0.0793962</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.115533</v>
+        <v>0.113645</v>
       </c>
       <c r="C90" t="n">
-        <v>0.116483</v>
+        <v>0.11197</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0856276</v>
+        <v>0.08550199999999999</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.126022</v>
+        <v>0.124352</v>
       </c>
       <c r="C91" t="n">
-        <v>0.126753</v>
+        <v>0.125348</v>
       </c>
       <c r="D91" t="n">
-        <v>0.09519909999999999</v>
+        <v>0.09498669999999999</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.141991</v>
+        <v>0.137673</v>
       </c>
       <c r="C92" t="n">
-        <v>0.144646</v>
+        <v>0.139531</v>
       </c>
       <c r="D92" t="n">
-        <v>0.108962</v>
+        <v>0.108929</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.161184</v>
+        <v>0.158596</v>
       </c>
       <c r="C93" t="n">
-        <v>0.164814</v>
+        <v>0.167454</v>
       </c>
       <c r="D93" t="n">
-        <v>0.130442</v>
+        <v>0.127852</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.193503</v>
+        <v>0.192999</v>
       </c>
       <c r="C94" t="n">
-        <v>0.203039</v>
+        <v>0.205911</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0771251</v>
+        <v>0.0751313</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.111025</v>
+        <v>0.108309</v>
       </c>
       <c r="C95" t="n">
-        <v>0.10344</v>
+        <v>0.101499</v>
       </c>
       <c r="D95" t="n">
-        <v>0.07713680000000001</v>
+        <v>0.077528</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.120069</v>
+        <v>0.111158</v>
       </c>
       <c r="C96" t="n">
-        <v>0.106215</v>
+        <v>0.10183</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0799393</v>
+        <v>0.0787798</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.118801</v>
+        <v>0.114811</v>
       </c>
       <c r="C97" t="n">
-        <v>0.108526</v>
+        <v>0.103663</v>
       </c>
       <c r="D97" t="n">
-        <v>0.082568</v>
+        <v>0.0794919</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.123008</v>
+        <v>0.113924</v>
       </c>
       <c r="C98" t="n">
-        <v>0.113319</v>
+        <v>0.107303</v>
       </c>
       <c r="D98" t="n">
-        <v>0.08537790000000001</v>
+        <v>0.0804689</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.123629</v>
+        <v>0.118833</v>
       </c>
       <c r="C99" t="n">
-        <v>0.115357</v>
+        <v>0.10941</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0934837</v>
+        <v>0.0834164</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.133928</v>
+        <v>0.121867</v>
       </c>
       <c r="C100" t="n">
-        <v>0.120424</v>
+        <v>0.113047</v>
       </c>
       <c r="D100" t="n">
-        <v>0.08713849999999999</v>
+        <v>0.0864053</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.133279</v>
+        <v>0.126856</v>
       </c>
       <c r="C101" t="n">
-        <v>0.125165</v>
+        <v>0.119011</v>
       </c>
       <c r="D101" t="n">
-        <v>0.08973250000000001</v>
+        <v>0.0910986</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.137415</v>
+        <v>0.13162</v>
       </c>
       <c r="C102" t="n">
-        <v>0.129978</v>
+        <v>0.125342</v>
       </c>
       <c r="D102" t="n">
-        <v>0.101025</v>
+        <v>0.0990577</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.139516</v>
+        <v>0.134543</v>
       </c>
       <c r="C103" t="n">
-        <v>0.133101</v>
+        <v>0.13195</v>
       </c>
       <c r="D103" t="n">
-        <v>0.10443</v>
+        <v>0.09797350000000001</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.149374</v>
+        <v>0.140668</v>
       </c>
       <c r="C104" t="n">
-        <v>0.146818</v>
+        <v>0.142442</v>
       </c>
       <c r="D104" t="n">
-        <v>0.110587</v>
+        <v>0.110532</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.158526</v>
+        <v>0.148802</v>
       </c>
       <c r="C105" t="n">
-        <v>0.158608</v>
+        <v>0.150389</v>
       </c>
       <c r="D105" t="n">
-        <v>0.119976</v>
+        <v>0.117793</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.169103</v>
+        <v>0.163559</v>
       </c>
       <c r="C106" t="n">
-        <v>0.176447</v>
+        <v>0.166674</v>
       </c>
       <c r="D106" t="n">
-        <v>0.131957</v>
+        <v>0.128258</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.195404</v>
+        <v>0.183111</v>
       </c>
       <c r="C107" t="n">
-        <v>0.203211</v>
+        <v>0.195279</v>
       </c>
       <c r="D107" t="n">
-        <v>0.155949</v>
+        <v>0.144583</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.22932</v>
+        <v>0.221788</v>
       </c>
       <c r="C108" t="n">
-        <v>0.246241</v>
+        <v>0.236791</v>
       </c>
       <c r="D108" t="n">
-        <v>0.15406</v>
+        <v>0.156348</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.280402</v>
+        <v>0.273557</v>
       </c>
       <c r="C109" t="n">
-        <v>0.316275</v>
+        <v>0.304423</v>
       </c>
       <c r="D109" t="n">
-        <v>0.163823</v>
+        <v>0.15761</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.209251</v>
+        <v>0.19532</v>
       </c>
       <c r="C110" t="n">
-        <v>0.179859</v>
+        <v>0.178918</v>
       </c>
       <c r="D110" t="n">
-        <v>0.158292</v>
+        <v>0.159809</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.211438</v>
+        <v>0.206761</v>
       </c>
       <c r="C111" t="n">
-        <v>0.193304</v>
+        <v>0.185199</v>
       </c>
       <c r="D111" t="n">
-        <v>0.166348</v>
+        <v>0.159047</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.212223</v>
+        <v>0.219465</v>
       </c>
       <c r="C112" t="n">
-        <v>0.182771</v>
+        <v>0.185685</v>
       </c>
       <c r="D112" t="n">
-        <v>0.170408</v>
+        <v>0.162998</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.217356</v>
+        <v>0.207881</v>
       </c>
       <c r="C113" t="n">
-        <v>0.193317</v>
+        <v>0.191437</v>
       </c>
       <c r="D113" t="n">
-        <v>0.178379</v>
+        <v>0.167861</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.211771</v>
+        <v>0.206514</v>
       </c>
       <c r="C114" t="n">
-        <v>0.205232</v>
+        <v>0.189882</v>
       </c>
       <c r="D114" t="n">
-        <v>0.173831</v>
+        <v>0.169045</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.226305</v>
+        <v>0.213454</v>
       </c>
       <c r="C115" t="n">
-        <v>0.196548</v>
+        <v>0.205965</v>
       </c>
       <c r="D115" t="n">
-        <v>0.171469</v>
+        <v>0.175669</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.212735</v>
+        <v>0.224987</v>
       </c>
       <c r="C116" t="n">
-        <v>0.219384</v>
+        <v>0.198463</v>
       </c>
       <c r="D116" t="n">
-        <v>0.169685</v>
+        <v>0.171053</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.223713</v>
+        <v>0.218845</v>
       </c>
       <c r="C117" t="n">
-        <v>0.211071</v>
+        <v>0.207231</v>
       </c>
       <c r="D117" t="n">
-        <v>0.172839</v>
+        <v>0.177815</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.240349</v>
+        <v>0.234836</v>
       </c>
       <c r="C118" t="n">
-        <v>0.220967</v>
+        <v>0.218154</v>
       </c>
       <c r="D118" t="n">
-        <v>0.197804</v>
+        <v>0.188266</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.253199</v>
+        <v>0.23894</v>
       </c>
       <c r="C119" t="n">
-        <v>0.234015</v>
+        <v>0.232146</v>
       </c>
       <c r="D119" t="n">
-        <v>0.19264</v>
+        <v>0.189497</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.272713</v>
+        <v>0.255823</v>
       </c>
       <c r="C120" t="n">
-        <v>0.248935</v>
+        <v>0.255523</v>
       </c>
       <c r="D120" t="n">
-        <v>0.215478</v>
+        <v>0.205553</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.290301</v>
+        <v>0.282359</v>
       </c>
       <c r="C121" t="n">
-        <v>0.2754</v>
+        <v>0.271001</v>
       </c>
       <c r="D121" t="n">
-        <v>0.237456</v>
+        <v>0.227067</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.323141</v>
+        <v>0.309117</v>
       </c>
       <c r="C122" t="n">
-        <v>0.33381</v>
+        <v>0.314135</v>
       </c>
       <c r="D122" t="n">
-        <v>0.275617</v>
+        <v>0.258759</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.396972</v>
+        <v>0.371942</v>
       </c>
       <c r="C123" t="n">
-        <v>0.404289</v>
+        <v>0.394548</v>
       </c>
       <c r="D123" t="n">
-        <v>0.248832</v>
+        <v>0.241688</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.314849</v>
+        <v>0.310513</v>
       </c>
       <c r="C124" t="n">
-        <v>0.278873</v>
+        <v>0.278214</v>
       </c>
       <c r="D124" t="n">
-        <v>0.247873</v>
+        <v>0.247014</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.321888</v>
+        <v>0.308851</v>
       </c>
       <c r="C125" t="n">
-        <v>0.283803</v>
+        <v>0.278352</v>
       </c>
       <c r="D125" t="n">
-        <v>0.253427</v>
+        <v>0.250897</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.317238</v>
+        <v>0.324835</v>
       </c>
       <c r="C126" t="n">
-        <v>0.280193</v>
+        <v>0.285541</v>
       </c>
       <c r="D126" t="n">
-        <v>0.25194</v>
+        <v>0.254219</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.324954</v>
+        <v>0.322754</v>
       </c>
       <c r="C127" t="n">
-        <v>0.273783</v>
+        <v>0.286886</v>
       </c>
       <c r="D127" t="n">
-        <v>0.259682</v>
+        <v>0.258015</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.337155</v>
+        <v>0.320793</v>
       </c>
       <c r="C128" t="n">
-        <v>0.283911</v>
+        <v>0.282223</v>
       </c>
       <c r="D128" t="n">
-        <v>0.252096</v>
+        <v>0.250127</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.328067</v>
+        <v>0.327501</v>
       </c>
       <c r="C129" t="n">
-        <v>0.29127</v>
+        <v>0.289662</v>
       </c>
       <c r="D129" t="n">
-        <v>0.260488</v>
+        <v>0.256694</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.335819</v>
+        <v>0.338053</v>
       </c>
       <c r="C130" t="n">
-        <v>0.295095</v>
+        <v>0.298435</v>
       </c>
       <c r="D130" t="n">
-        <v>0.263341</v>
+        <v>0.265695</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.340509</v>
+        <v>0.34751</v>
       </c>
       <c r="C131" t="n">
-        <v>0.30168</v>
+        <v>0.308412</v>
       </c>
       <c r="D131" t="n">
-        <v>0.274618</v>
+        <v>0.275663</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.361646</v>
+        <v>0.36179</v>
       </c>
       <c r="C132" t="n">
-        <v>0.32768</v>
+        <v>0.323949</v>
       </c>
       <c r="D132" t="n">
-        <v>0.277241</v>
+        <v>0.27895</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.370183</v>
+        <v>0.362681</v>
       </c>
       <c r="C133" t="n">
-        <v>0.338147</v>
+        <v>0.346628</v>
       </c>
       <c r="D133" t="n">
-        <v>0.289733</v>
+        <v>0.287781</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.379498</v>
+        <v>0.389944</v>
       </c>
       <c r="C134" t="n">
-        <v>0.35002</v>
+        <v>0.356711</v>
       </c>
       <c r="D134" t="n">
-        <v>0.303979</v>
+        <v>0.301613</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.419587</v>
+        <v>0.410124</v>
       </c>
       <c r="C135" t="n">
-        <v>0.37283</v>
+        <v>0.374604</v>
       </c>
       <c r="D135" t="n">
-        <v>0.323627</v>
+        <v>0.341588</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.458557</v>
+        <v>0.460356</v>
       </c>
       <c r="C136" t="n">
-        <v>0.436924</v>
+        <v>0.435108</v>
       </c>
       <c r="D136" t="n">
-        <v>0.36524</v>
+        <v>0.362472</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.539018</v>
+        <v>0.541212</v>
       </c>
       <c r="C137" t="n">
-        <v>0.514398</v>
+        <v>0.514252</v>
       </c>
       <c r="D137" t="n">
-        <v>0.293801</v>
+        <v>0.300913</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.387668</v>
+        <v>0.382304</v>
       </c>
       <c r="C138" t="n">
-        <v>0.331704</v>
+        <v>0.332861</v>
       </c>
       <c r="D138" t="n">
-        <v>0.2982</v>
+        <v>0.295432</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.385576</v>
+        <v>0.383791</v>
       </c>
       <c r="C139" t="n">
-        <v>0.335307</v>
+        <v>0.347816</v>
       </c>
       <c r="D139" t="n">
-        <v>0.297371</v>
+        <v>0.300978</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.388958</v>
+        <v>0.386946</v>
       </c>
       <c r="C140" t="n">
-        <v>0.335365</v>
+        <v>0.325612</v>
       </c>
       <c r="D140" t="n">
-        <v>0.310854</v>
+        <v>0.304325</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.391015</v>
+        <v>0.400592</v>
       </c>
       <c r="C141" t="n">
-        <v>0.337884</v>
+        <v>0.341004</v>
       </c>
       <c r="D141" t="n">
-        <v>0.306473</v>
+        <v>0.315071</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.397841</v>
+        <v>0.395047</v>
       </c>
       <c r="C142" t="n">
-        <v>0.352919</v>
+        <v>0.342187</v>
       </c>
       <c r="D142" t="n">
-        <v>0.316298</v>
+        <v>0.306971</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.401563</v>
+        <v>0.410436</v>
       </c>
       <c r="C143" t="n">
-        <v>0.353217</v>
+        <v>0.368595</v>
       </c>
       <c r="D143" t="n">
-        <v>0.325095</v>
+        <v>0.314647</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered unsuccessful looukp.xlsx
+++ b/vs-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0435279</v>
+        <v>0.042407</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0407479</v>
+        <v>0.039309</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0359479</v>
+        <v>0.0359328</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0449727</v>
+        <v>0.04394</v>
       </c>
       <c r="C3" t="n">
-        <v>0.044052</v>
+        <v>0.0427133</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0376867</v>
+        <v>0.0389961</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0489007</v>
+        <v>0.0482941</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0489707</v>
+        <v>0.0481009</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0438754</v>
+        <v>0.0445076</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0536769</v>
+        <v>0.051536</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0567615</v>
+        <v>0.0568769</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0485488</v>
+        <v>0.0503435</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.062824</v>
+        <v>0.0584428</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0661221</v>
+        <v>0.06521440000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0565854</v>
+        <v>0.0557824</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.07569330000000001</v>
+        <v>0.0745178</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0823663</v>
+        <v>0.079161</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0664569</v>
+        <v>0.0691948</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0950959</v>
+        <v>0.0924502</v>
       </c>
       <c r="C8" t="n">
-        <v>0.102212</v>
+        <v>0.09876</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0845537</v>
+        <v>0.0832899</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.128303</v>
+        <v>0.126798</v>
       </c>
       <c r="C9" t="n">
-        <v>0.132042</v>
+        <v>0.137298</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0324705</v>
+        <v>0.0319064</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0396671</v>
+        <v>0.040276</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0356245</v>
+        <v>0.0366795</v>
       </c>
       <c r="D10" t="n">
-        <v>0.033373</v>
+        <v>0.0323857</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0407847</v>
+        <v>0.0399897</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0363932</v>
+        <v>0.0373192</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0317502</v>
+        <v>0.0327538</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0409747</v>
+        <v>0.0407095</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0367549</v>
+        <v>0.0371107</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0327404</v>
+        <v>0.0340398</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0410448</v>
+        <v>0.0411846</v>
       </c>
       <c r="C13" t="n">
-        <v>0.038835</v>
+        <v>0.0377963</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0332341</v>
+        <v>0.0334172</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0426503</v>
+        <v>0.0421125</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0401068</v>
+        <v>0.0397963</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0341643</v>
+        <v>0.0362008</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0445225</v>
+        <v>0.042337</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0422079</v>
+        <v>0.0409669</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0364065</v>
+        <v>0.0376291</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0453607</v>
+        <v>0.0458668</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0440836</v>
+        <v>0.0442641</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0384089</v>
+        <v>0.0397578</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0485265</v>
+        <v>0.0475497</v>
       </c>
       <c r="C17" t="n">
-        <v>0.046418</v>
+        <v>0.0481441</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0406043</v>
+        <v>0.0405923</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0513849</v>
+        <v>0.051424</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0513908</v>
+        <v>0.0520822</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0448884</v>
+        <v>0.0441431</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0580929</v>
+        <v>0.0558377</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0589427</v>
+        <v>0.0579221</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0499163</v>
+        <v>0.0490383</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0683454</v>
+        <v>0.06378010000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0665948</v>
+        <v>0.0648131</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0585822</v>
+        <v>0.0584661</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0786105</v>
+        <v>0.0736728</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0799791</v>
+        <v>0.0808165</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0685197</v>
+        <v>0.0673145</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.09875730000000001</v>
+        <v>0.0925391</v>
       </c>
       <c r="C22" t="n">
-        <v>0.099193</v>
+        <v>0.09895279999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0852439</v>
+        <v>0.0885056</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.12768</v>
+        <v>0.125483</v>
       </c>
       <c r="C23" t="n">
-        <v>0.134235</v>
+        <v>0.133693</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0326252</v>
+        <v>0.0332522</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.044324</v>
+        <v>0.0429564</v>
       </c>
       <c r="C24" t="n">
-        <v>0.03726</v>
+        <v>0.0371395</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0336433</v>
+        <v>0.0343226</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0449369</v>
+        <v>0.0428021</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0377072</v>
+        <v>0.038075</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0347004</v>
+        <v>0.0355498</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0462509</v>
+        <v>0.0445635</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0385703</v>
+        <v>0.0385837</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0344773</v>
+        <v>0.0351596</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0444264</v>
+        <v>0.043674</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0394759</v>
+        <v>0.0395503</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0345322</v>
+        <v>0.0346854</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0448991</v>
+        <v>0.0460634</v>
       </c>
       <c r="C28" t="n">
-        <v>0.039986</v>
+        <v>0.0426041</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0363983</v>
+        <v>0.0368891</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0468838</v>
+        <v>0.0461427</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0436505</v>
+        <v>0.043773</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0378122</v>
+        <v>0.0376447</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0477436</v>
+        <v>0.0496892</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0448514</v>
+        <v>0.045201</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0396532</v>
+        <v>0.0396258</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.050048</v>
+        <v>0.0513069</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0493842</v>
+        <v>0.0484804</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0425533</v>
+        <v>0.0425042</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0549099</v>
+        <v>0.0548386</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0522796</v>
+        <v>0.0522402</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0459174</v>
+        <v>0.0452118</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0605924</v>
+        <v>0.0583685</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0586922</v>
+        <v>0.0603787</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0507201</v>
+        <v>0.0515271</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0669396</v>
+        <v>0.0659185</v>
       </c>
       <c r="C34" t="n">
-        <v>0.06803670000000001</v>
+        <v>0.0651668</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0585008</v>
+        <v>0.0579905</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.07763340000000001</v>
+        <v>0.07601629999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0782403</v>
+        <v>0.0790993</v>
       </c>
       <c r="D35" t="n">
-        <v>0.06914190000000001</v>
+        <v>0.0710363</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.09433229999999999</v>
+        <v>0.0933701</v>
       </c>
       <c r="C36" t="n">
-        <v>0.10092</v>
+        <v>0.098235</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0899363</v>
+        <v>0.08990769999999999</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.123704</v>
+        <v>0.121698</v>
       </c>
       <c r="C37" t="n">
-        <v>0.131977</v>
+        <v>0.132858</v>
       </c>
       <c r="D37" t="n">
-        <v>0.035832</v>
+        <v>0.0360497</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0483998</v>
+        <v>0.0480543</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0411713</v>
+        <v>0.0408206</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0359144</v>
+        <v>0.0363871</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0484217</v>
+        <v>0.0480947</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0406803</v>
+        <v>0.0414942</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0377727</v>
+        <v>0.0364708</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0487582</v>
+        <v>0.047712</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0443201</v>
+        <v>0.0431732</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0368411</v>
+        <v>0.0369813</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0498968</v>
+        <v>0.0495579</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0432578</v>
+        <v>0.0427342</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0379976</v>
+        <v>0.0371917</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0503432</v>
+        <v>0.0532834</v>
       </c>
       <c r="C42" t="n">
-        <v>0.045071</v>
+        <v>0.0453969</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0406661</v>
+        <v>0.0392796</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0514643</v>
+        <v>0.0513196</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0475334</v>
+        <v>0.0471675</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0413893</v>
+        <v>0.0395836</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.052571</v>
+        <v>0.0524654</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0488739</v>
+        <v>0.0507092</v>
       </c>
       <c r="D44" t="n">
-        <v>0.042013</v>
+        <v>0.0421158</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0552693</v>
+        <v>0.0559701</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0523853</v>
+        <v>0.0529571</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0442726</v>
+        <v>0.0443519</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.056647</v>
+        <v>0.0584557</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0560671</v>
+        <v>0.0580336</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0482569</v>
+        <v>0.049083</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0621913</v>
+        <v>0.0648247</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0618281</v>
+        <v>0.0636665</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0520433</v>
+        <v>0.0532794</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0702434</v>
+        <v>0.06928719999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0678782</v>
+        <v>0.0682228</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0609151</v>
+        <v>0.0588887</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0821636</v>
+        <v>0.0783252</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0822258</v>
+        <v>0.080822</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0731701</v>
+        <v>0.0709774</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0959127</v>
+        <v>0.0966981</v>
       </c>
       <c r="C50" t="n">
-        <v>0.09885090000000001</v>
+        <v>0.101977</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0840558</v>
+        <v>0.08528189999999999</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.116959</v>
+        <v>0.117114</v>
       </c>
       <c r="C51" t="n">
-        <v>0.128093</v>
+        <v>0.128417</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0413231</v>
+        <v>0.0420246</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.159011</v>
+        <v>0.161457</v>
       </c>
       <c r="C52" t="n">
-        <v>0.163478</v>
+        <v>0.169653</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0415091</v>
+        <v>0.0420494</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0584865</v>
+        <v>0.057247</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0526799</v>
+        <v>0.0520384</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0424469</v>
+        <v>0.0429945</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0599044</v>
+        <v>0.0594303</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0517843</v>
+        <v>0.0532269</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0446079</v>
+        <v>0.0437842</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0609388</v>
+        <v>0.0605196</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0529633</v>
+        <v>0.0535454</v>
       </c>
       <c r="D55" t="n">
-        <v>0.045228</v>
+        <v>0.0438282</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0610946</v>
+        <v>0.0605695</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0539931</v>
+        <v>0.0547824</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0453741</v>
+        <v>0.0473131</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0615128</v>
+        <v>0.0621743</v>
       </c>
       <c r="C57" t="n">
-        <v>0.05592</v>
+        <v>0.0551764</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0462345</v>
+        <v>0.0482092</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.06334620000000001</v>
+        <v>0.0633335</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0591349</v>
+        <v>0.0579125</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0508612</v>
+        <v>0.0489938</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.06528630000000001</v>
+        <v>0.0645266</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0625868</v>
+        <v>0.0615149</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0521329</v>
+        <v>0.0494986</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0684278</v>
+        <v>0.0676682</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0662089</v>
+        <v>0.0646703</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0531545</v>
+        <v>0.055045</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0726078</v>
+        <v>0.07349</v>
       </c>
       <c r="C61" t="n">
-        <v>0.07063750000000001</v>
+        <v>0.0707274</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0612507</v>
+        <v>0.0607634</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0782656</v>
+        <v>0.07930230000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0783325</v>
+        <v>0.07700360000000001</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0644298</v>
+        <v>0.0651205</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.08628139999999999</v>
+        <v>0.08740920000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0898366</v>
+        <v>0.08903519999999999</v>
       </c>
       <c r="D63" t="n">
-        <v>0.074392</v>
+        <v>0.0731455</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.101809</v>
+        <v>0.102528</v>
       </c>
       <c r="C64" t="n">
-        <v>0.10163</v>
+        <v>0.105903</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0888665</v>
+        <v>0.0898772</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.125659</v>
+        <v>0.121146</v>
       </c>
       <c r="C65" t="n">
-        <v>0.135157</v>
+        <v>0.13318</v>
       </c>
       <c r="D65" t="n">
-        <v>0.11171</v>
+        <v>0.11206</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.163384</v>
+        <v>0.159576</v>
       </c>
       <c r="C66" t="n">
-        <v>0.175224</v>
+        <v>0.170036</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0480282</v>
+        <v>0.0479928</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0667562</v>
+        <v>0.0664201</v>
       </c>
       <c r="C67" t="n">
-        <v>0.057515</v>
+        <v>0.0579822</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0493401</v>
+        <v>0.050042</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0683666</v>
+        <v>0.069089</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0616971</v>
+        <v>0.0599849</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0485532</v>
+        <v>0.0483102</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0688521</v>
+        <v>0.0681339</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0616809</v>
+        <v>0.06380710000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0491765</v>
+        <v>0.0515636</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0711369</v>
+        <v>0.0712444</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0635669</v>
+        <v>0.0647341</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0506092</v>
+        <v>0.0501883</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0717387</v>
+        <v>0.0708521</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0674916</v>
+        <v>0.06693830000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0546492</v>
+        <v>0.0529124</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.07529859999999999</v>
+        <v>0.0746045</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0719313</v>
+        <v>0.0694224</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0564917</v>
+        <v>0.0548453</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.08127959999999999</v>
+        <v>0.0765837</v>
       </c>
       <c r="C73" t="n">
-        <v>0.07237209999999999</v>
+        <v>0.07237979999999999</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0593782</v>
+        <v>0.0579473</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0806061</v>
+        <v>0.081692</v>
       </c>
       <c r="C74" t="n">
-        <v>0.07752299999999999</v>
+        <v>0.0756558</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0614899</v>
+        <v>0.0612737</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.086213</v>
+        <v>0.0860604</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0840934</v>
+        <v>0.0833584</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0668082</v>
+        <v>0.0667123</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.095494</v>
+        <v>0.0930739</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0919866</v>
+        <v>0.09381730000000001</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0727536</v>
+        <v>0.07296569999999999</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.101914</v>
+        <v>0.103217</v>
       </c>
       <c r="C77" t="n">
-        <v>0.103167</v>
+        <v>0.10356</v>
       </c>
       <c r="D77" t="n">
-        <v>0.08221199999999999</v>
+        <v>0.08381180000000001</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.11501</v>
+        <v>0.117385</v>
       </c>
       <c r="C78" t="n">
-        <v>0.120599</v>
+        <v>0.122056</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0951603</v>
+        <v>0.0949622</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.141511</v>
+        <v>0.139885</v>
       </c>
       <c r="C79" t="n">
-        <v>0.142739</v>
+        <v>0.144841</v>
       </c>
       <c r="D79" t="n">
-        <v>0.115874</v>
+        <v>0.119012</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.181906</v>
+        <v>0.183532</v>
       </c>
       <c r="C80" t="n">
-        <v>0.186694</v>
+        <v>0.184049</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0539988</v>
+        <v>0.0562046</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.08133609999999999</v>
+        <v>0.0845146</v>
       </c>
       <c r="C81" t="n">
-        <v>0.07242179999999999</v>
+        <v>0.0708428</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0556663</v>
+        <v>0.0590982</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.082436</v>
+        <v>0.0836537</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0746684</v>
+        <v>0.0753672</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0558498</v>
+        <v>0.0590706</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.08482000000000001</v>
+        <v>0.0894768</v>
       </c>
       <c r="C83" t="n">
-        <v>0.07810590000000001</v>
+        <v>0.0774524</v>
       </c>
       <c r="D83" t="n">
-        <v>0.060333</v>
+        <v>0.062638</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0878809</v>
+        <v>0.0883034</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0787047</v>
+        <v>0.0821968</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0611712</v>
+        <v>0.061444</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0900778</v>
+        <v>0.0917616</v>
       </c>
       <c r="C85" t="n">
-        <v>0.08213189999999999</v>
+        <v>0.0845405</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0618804</v>
+        <v>0.0630666</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.09461600000000001</v>
+        <v>0.09321500000000001</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0867165</v>
+        <v>0.0863186</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0662956</v>
+        <v>0.0699509</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0973683</v>
+        <v>0.100669</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0929608</v>
+        <v>0.0929227</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0698042</v>
+        <v>0.0684734</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.10008</v>
+        <v>0.102718</v>
       </c>
       <c r="C88" t="n">
-        <v>0.09714639999999999</v>
+        <v>0.09514590000000001</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0759774</v>
+        <v>0.0721979</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.105812</v>
+        <v>0.107943</v>
       </c>
       <c r="C89" t="n">
-        <v>0.109106</v>
+        <v>0.102974</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0793962</v>
+        <v>0.0774227</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.113645</v>
+        <v>0.114666</v>
       </c>
       <c r="C90" t="n">
-        <v>0.11197</v>
+        <v>0.110362</v>
       </c>
       <c r="D90" t="n">
-        <v>0.08550199999999999</v>
+        <v>0.08686869999999999</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.124352</v>
+        <v>0.126136</v>
       </c>
       <c r="C91" t="n">
-        <v>0.125348</v>
+        <v>0.123614</v>
       </c>
       <c r="D91" t="n">
-        <v>0.09498669999999999</v>
+        <v>0.0957711</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.137673</v>
+        <v>0.142519</v>
       </c>
       <c r="C92" t="n">
-        <v>0.139531</v>
+        <v>0.140232</v>
       </c>
       <c r="D92" t="n">
-        <v>0.108929</v>
+        <v>0.106944</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.158596</v>
+        <v>0.160374</v>
       </c>
       <c r="C93" t="n">
-        <v>0.167454</v>
+        <v>0.171952</v>
       </c>
       <c r="D93" t="n">
-        <v>0.127852</v>
+        <v>0.133762</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.192999</v>
+        <v>0.194124</v>
       </c>
       <c r="C94" t="n">
-        <v>0.205911</v>
+        <v>0.204346</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0751313</v>
+        <v>0.07447280000000001</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.108309</v>
+        <v>0.107245</v>
       </c>
       <c r="C95" t="n">
-        <v>0.101499</v>
+        <v>0.0977755</v>
       </c>
       <c r="D95" t="n">
-        <v>0.077528</v>
+        <v>0.074813</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.111158</v>
+        <v>0.117317</v>
       </c>
       <c r="C96" t="n">
-        <v>0.10183</v>
+        <v>0.102234</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0787798</v>
+        <v>0.08318540000000001</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.114811</v>
+        <v>0.119743</v>
       </c>
       <c r="C97" t="n">
-        <v>0.103663</v>
+        <v>0.11087</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0794919</v>
+        <v>0.0795001</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.113924</v>
+        <v>0.120526</v>
       </c>
       <c r="C98" t="n">
-        <v>0.107303</v>
+        <v>0.110656</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0804689</v>
+        <v>0.084481</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.118833</v>
+        <v>0.124552</v>
       </c>
       <c r="C99" t="n">
-        <v>0.10941</v>
+        <v>0.117264</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0834164</v>
+        <v>0.0905381</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.121867</v>
+        <v>0.12628</v>
       </c>
       <c r="C100" t="n">
-        <v>0.113047</v>
+        <v>0.116965</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0864053</v>
+        <v>0.0917772</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.126856</v>
+        <v>0.132048</v>
       </c>
       <c r="C101" t="n">
-        <v>0.119011</v>
+        <v>0.123855</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0910986</v>
+        <v>0.09451560000000001</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.13162</v>
+        <v>0.136702</v>
       </c>
       <c r="C102" t="n">
-        <v>0.125342</v>
+        <v>0.124627</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0990577</v>
+        <v>0.100315</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.134543</v>
+        <v>0.147076</v>
       </c>
       <c r="C103" t="n">
-        <v>0.13195</v>
+        <v>0.130741</v>
       </c>
       <c r="D103" t="n">
-        <v>0.09797350000000001</v>
+        <v>0.0987166</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.140668</v>
+        <v>0.139698</v>
       </c>
       <c r="C104" t="n">
-        <v>0.142442</v>
+        <v>0.14882</v>
       </c>
       <c r="D104" t="n">
-        <v>0.110532</v>
+        <v>0.109711</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.148802</v>
+        <v>0.159926</v>
       </c>
       <c r="C105" t="n">
-        <v>0.150389</v>
+        <v>0.157508</v>
       </c>
       <c r="D105" t="n">
-        <v>0.117793</v>
+        <v>0.119467</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.163559</v>
+        <v>0.167816</v>
       </c>
       <c r="C106" t="n">
-        <v>0.166674</v>
+        <v>0.174184</v>
       </c>
       <c r="D106" t="n">
-        <v>0.128258</v>
+        <v>0.13055</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.183111</v>
+        <v>0.189792</v>
       </c>
       <c r="C107" t="n">
-        <v>0.195279</v>
+        <v>0.203813</v>
       </c>
       <c r="D107" t="n">
-        <v>0.144583</v>
+        <v>0.151263</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.221788</v>
+        <v>0.234533</v>
       </c>
       <c r="C108" t="n">
-        <v>0.236791</v>
+        <v>0.239305</v>
       </c>
       <c r="D108" t="n">
-        <v>0.156348</v>
+        <v>0.155615</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.273557</v>
+        <v>0.281559</v>
       </c>
       <c r="C109" t="n">
-        <v>0.304423</v>
+        <v>0.308754</v>
       </c>
       <c r="D109" t="n">
-        <v>0.15761</v>
+        <v>0.162017</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.19532</v>
+        <v>0.200428</v>
       </c>
       <c r="C110" t="n">
-        <v>0.178918</v>
+        <v>0.18574</v>
       </c>
       <c r="D110" t="n">
-        <v>0.159809</v>
+        <v>0.167152</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.206761</v>
+        <v>0.216193</v>
       </c>
       <c r="C111" t="n">
-        <v>0.185199</v>
+        <v>0.197972</v>
       </c>
       <c r="D111" t="n">
-        <v>0.159047</v>
+        <v>0.160315</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.219465</v>
+        <v>0.215312</v>
       </c>
       <c r="C112" t="n">
-        <v>0.185685</v>
+        <v>0.194652</v>
       </c>
       <c r="D112" t="n">
-        <v>0.162998</v>
+        <v>0.17048</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.207881</v>
+        <v>0.215607</v>
       </c>
       <c r="C113" t="n">
-        <v>0.191437</v>
+        <v>0.19179</v>
       </c>
       <c r="D113" t="n">
-        <v>0.167861</v>
+        <v>0.174638</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.206514</v>
+        <v>0.218874</v>
       </c>
       <c r="C114" t="n">
-        <v>0.189882</v>
+        <v>0.193698</v>
       </c>
       <c r="D114" t="n">
-        <v>0.169045</v>
+        <v>0.168734</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.213454</v>
+        <v>0.222661</v>
       </c>
       <c r="C115" t="n">
-        <v>0.205965</v>
+        <v>0.197253</v>
       </c>
       <c r="D115" t="n">
-        <v>0.175669</v>
+        <v>0.167583</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.224987</v>
+        <v>0.226942</v>
       </c>
       <c r="C116" t="n">
-        <v>0.198463</v>
+        <v>0.21411</v>
       </c>
       <c r="D116" t="n">
-        <v>0.171053</v>
+        <v>0.183995</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.218845</v>
+        <v>0.23141</v>
       </c>
       <c r="C117" t="n">
-        <v>0.207231</v>
+        <v>0.221388</v>
       </c>
       <c r="D117" t="n">
-        <v>0.177815</v>
+        <v>0.182744</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.234836</v>
+        <v>0.239809</v>
       </c>
       <c r="C118" t="n">
-        <v>0.218154</v>
+        <v>0.217221</v>
       </c>
       <c r="D118" t="n">
-        <v>0.188266</v>
+        <v>0.191759</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.23894</v>
+        <v>0.243793</v>
       </c>
       <c r="C119" t="n">
-        <v>0.232146</v>
+        <v>0.226014</v>
       </c>
       <c r="D119" t="n">
-        <v>0.189497</v>
+        <v>0.202118</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.255823</v>
+        <v>0.26891</v>
       </c>
       <c r="C120" t="n">
-        <v>0.255523</v>
+        <v>0.248746</v>
       </c>
       <c r="D120" t="n">
-        <v>0.205553</v>
+        <v>0.206855</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.282359</v>
+        <v>0.277934</v>
       </c>
       <c r="C121" t="n">
-        <v>0.271001</v>
+        <v>0.272263</v>
       </c>
       <c r="D121" t="n">
-        <v>0.227067</v>
+        <v>0.231806</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.309117</v>
+        <v>0.313041</v>
       </c>
       <c r="C122" t="n">
-        <v>0.314135</v>
+        <v>0.32055</v>
       </c>
       <c r="D122" t="n">
-        <v>0.258759</v>
+        <v>0.26955</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.371942</v>
+        <v>0.393537</v>
       </c>
       <c r="C123" t="n">
-        <v>0.394548</v>
+        <v>0.389588</v>
       </c>
       <c r="D123" t="n">
-        <v>0.241688</v>
+        <v>0.245517</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.310513</v>
+        <v>0.31204</v>
       </c>
       <c r="C124" t="n">
-        <v>0.278214</v>
+        <v>0.266738</v>
       </c>
       <c r="D124" t="n">
-        <v>0.247014</v>
+        <v>0.249861</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.308851</v>
+        <v>0.307385</v>
       </c>
       <c r="C125" t="n">
-        <v>0.278352</v>
+        <v>0.272051</v>
       </c>
       <c r="D125" t="n">
-        <v>0.250897</v>
+        <v>0.254975</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.324835</v>
+        <v>0.318883</v>
       </c>
       <c r="C126" t="n">
-        <v>0.285541</v>
+        <v>0.277948</v>
       </c>
       <c r="D126" t="n">
-        <v>0.254219</v>
+        <v>0.252962</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.322754</v>
+        <v>0.319566</v>
       </c>
       <c r="C127" t="n">
-        <v>0.286886</v>
+        <v>0.284291</v>
       </c>
       <c r="D127" t="n">
-        <v>0.258015</v>
+        <v>0.253408</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.320793</v>
+        <v>0.32396</v>
       </c>
       <c r="C128" t="n">
-        <v>0.282223</v>
+        <v>0.296224</v>
       </c>
       <c r="D128" t="n">
-        <v>0.250127</v>
+        <v>0.25509</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.327501</v>
+        <v>0.334309</v>
       </c>
       <c r="C129" t="n">
-        <v>0.289662</v>
+        <v>0.290521</v>
       </c>
       <c r="D129" t="n">
-        <v>0.256694</v>
+        <v>0.266856</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.338053</v>
+        <v>0.344608</v>
       </c>
       <c r="C130" t="n">
-        <v>0.298435</v>
+        <v>0.309406</v>
       </c>
       <c r="D130" t="n">
-        <v>0.265695</v>
+        <v>0.268352</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.34751</v>
+        <v>0.3488</v>
       </c>
       <c r="C131" t="n">
-        <v>0.308412</v>
+        <v>0.311494</v>
       </c>
       <c r="D131" t="n">
-        <v>0.275663</v>
+        <v>0.268063</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.36179</v>
+        <v>0.358857</v>
       </c>
       <c r="C132" t="n">
-        <v>0.323949</v>
+        <v>0.322547</v>
       </c>
       <c r="D132" t="n">
-        <v>0.27895</v>
+        <v>0.279437</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.362681</v>
+        <v>0.374898</v>
       </c>
       <c r="C133" t="n">
-        <v>0.346628</v>
+        <v>0.333156</v>
       </c>
       <c r="D133" t="n">
-        <v>0.287781</v>
+        <v>0.289064</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.389944</v>
+        <v>0.384548</v>
       </c>
       <c r="C134" t="n">
-        <v>0.356711</v>
+        <v>0.348514</v>
       </c>
       <c r="D134" t="n">
-        <v>0.301613</v>
+        <v>0.303838</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.410124</v>
+        <v>0.41004</v>
       </c>
       <c r="C135" t="n">
-        <v>0.374604</v>
+        <v>0.381432</v>
       </c>
       <c r="D135" t="n">
-        <v>0.341588</v>
+        <v>0.329021</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.460356</v>
+        <v>0.45106</v>
       </c>
       <c r="C136" t="n">
-        <v>0.435108</v>
+        <v>0.434757</v>
       </c>
       <c r="D136" t="n">
-        <v>0.362472</v>
+        <v>0.363816</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.541212</v>
+        <v>0.536787</v>
       </c>
       <c r="C137" t="n">
-        <v>0.514252</v>
+        <v>0.5081059999999999</v>
       </c>
       <c r="D137" t="n">
-        <v>0.300913</v>
+        <v>0.297011</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.382304</v>
+        <v>0.38565</v>
       </c>
       <c r="C138" t="n">
-        <v>0.332861</v>
+        <v>0.325708</v>
       </c>
       <c r="D138" t="n">
-        <v>0.295432</v>
+        <v>0.297084</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.383791</v>
+        <v>0.382439</v>
       </c>
       <c r="C139" t="n">
-        <v>0.347816</v>
+        <v>0.326379</v>
       </c>
       <c r="D139" t="n">
-        <v>0.300978</v>
+        <v>0.306016</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.386946</v>
+        <v>0.3803</v>
       </c>
       <c r="C140" t="n">
-        <v>0.325612</v>
+        <v>0.343438</v>
       </c>
       <c r="D140" t="n">
-        <v>0.304325</v>
+        <v>0.307669</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.400592</v>
+        <v>0.39351</v>
       </c>
       <c r="C141" t="n">
-        <v>0.341004</v>
+        <v>0.342614</v>
       </c>
       <c r="D141" t="n">
-        <v>0.315071</v>
+        <v>0.313533</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.395047</v>
+        <v>0.397966</v>
       </c>
       <c r="C142" t="n">
-        <v>0.342187</v>
+        <v>0.350858</v>
       </c>
       <c r="D142" t="n">
-        <v>0.306971</v>
+        <v>0.311679</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.410436</v>
+        <v>0.40589</v>
       </c>
       <c r="C143" t="n">
-        <v>0.368595</v>
+        <v>0.355684</v>
       </c>
       <c r="D143" t="n">
-        <v>0.314647</v>
+        <v>0.323744</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered unsuccessful looukp.xlsx
+++ b/vs-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.042407</v>
+        <v>0.0412964</v>
       </c>
       <c r="C2" t="n">
-        <v>0.039309</v>
+        <v>0.0409744</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0359328</v>
+        <v>0.035451</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.04394</v>
+        <v>0.0435791</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0427133</v>
+        <v>0.0438917</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0389961</v>
+        <v>0.0383512</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0482941</v>
+        <v>0.0465893</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0481009</v>
+        <v>0.0500454</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0445076</v>
+        <v>0.0444852</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.051536</v>
+        <v>0.0502356</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0568769</v>
+        <v>0.0550649</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0503435</v>
+        <v>0.0514843</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0584428</v>
+        <v>0.0572138</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06521440000000001</v>
+        <v>0.06462039999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0557824</v>
+        <v>0.0546115</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0745178</v>
+        <v>0.06817289999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.079161</v>
+        <v>0.08026469999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0691948</v>
+        <v>0.0706248</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0924502</v>
+        <v>0.0905136</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09876</v>
+        <v>0.0999992</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0832899</v>
+        <v>0.0836899</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.126798</v>
+        <v>0.12272</v>
       </c>
       <c r="C9" t="n">
-        <v>0.137298</v>
+        <v>0.135165</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0319064</v>
+        <v>0.0319317</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.040276</v>
+        <v>0.0387136</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0366795</v>
+        <v>0.0348245</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0323857</v>
+        <v>0.0326672</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0399897</v>
+        <v>0.0394536</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0373192</v>
+        <v>0.0355092</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0327538</v>
+        <v>0.0331486</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0407095</v>
+        <v>0.0421343</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0371107</v>
+        <v>0.0368343</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0340398</v>
+        <v>0.0332414</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0411846</v>
+        <v>0.0420774</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0377963</v>
+        <v>0.0384881</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0334172</v>
+        <v>0.0334307</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0421125</v>
+        <v>0.0421286</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0397963</v>
+        <v>0.0396113</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0362008</v>
+        <v>0.0349085</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.042337</v>
+        <v>0.0427863</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0409669</v>
+        <v>0.0406089</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0376291</v>
+        <v>0.0381181</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0458668</v>
+        <v>0.0452552</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0442641</v>
+        <v>0.0446619</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0397578</v>
+        <v>0.0399544</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0475497</v>
+        <v>0.0457687</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0481441</v>
+        <v>0.046201</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0405923</v>
+        <v>0.0403501</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.051424</v>
+        <v>0.0495031</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0520822</v>
+        <v>0.0534393</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0441431</v>
+        <v>0.0466774</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0558377</v>
+        <v>0.0557274</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0579221</v>
+        <v>0.0577451</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0490383</v>
+        <v>0.0500036</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.06378010000000001</v>
+        <v>0.0630421</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0648131</v>
+        <v>0.0653191</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0584661</v>
+        <v>0.0563666</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0736728</v>
+        <v>0.0739037</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0808165</v>
+        <v>0.08027819999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0673145</v>
+        <v>0.06766179999999999</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0925391</v>
+        <v>0.0923224</v>
       </c>
       <c r="C22" t="n">
-        <v>0.09895279999999999</v>
+        <v>0.102995</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0885056</v>
+        <v>0.08908099999999999</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.125483</v>
+        <v>0.119326</v>
       </c>
       <c r="C23" t="n">
-        <v>0.133693</v>
+        <v>0.135625</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0332522</v>
+        <v>0.0326509</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0429564</v>
+        <v>0.0436154</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0371395</v>
+        <v>0.0368581</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0343226</v>
+        <v>0.0338108</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0428021</v>
+        <v>0.043839</v>
       </c>
       <c r="C25" t="n">
-        <v>0.038075</v>
+        <v>0.0375345</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0355498</v>
+        <v>0.0341353</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0445635</v>
+        <v>0.0439088</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0385837</v>
+        <v>0.0396756</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0351596</v>
+        <v>0.0351849</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.043674</v>
+        <v>0.0447362</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0395503</v>
+        <v>0.0406408</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0346854</v>
+        <v>0.0358761</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0460634</v>
+        <v>0.0457624</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0426041</v>
+        <v>0.0429102</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0368891</v>
+        <v>0.0366058</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0461427</v>
+        <v>0.0466124</v>
       </c>
       <c r="C29" t="n">
-        <v>0.043773</v>
+        <v>0.0435963</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0376447</v>
+        <v>0.0375361</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0496892</v>
+        <v>0.050609</v>
       </c>
       <c r="C30" t="n">
-        <v>0.045201</v>
+        <v>0.045318</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0396258</v>
+        <v>0.0401308</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0513069</v>
+        <v>0.0494635</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0484804</v>
+        <v>0.0474867</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0425042</v>
+        <v>0.0412015</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0548386</v>
+        <v>0.0538206</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0522402</v>
+        <v>0.0527179</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0452118</v>
+        <v>0.0459598</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0583685</v>
+        <v>0.0577053</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0603787</v>
+        <v>0.0569058</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0515271</v>
+        <v>0.0504629</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0659185</v>
+        <v>0.06797010000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0651668</v>
+        <v>0.06670329999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0579905</v>
+        <v>0.057715</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.07601629999999999</v>
+        <v>0.0789537</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0790993</v>
+        <v>0.0782234</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0710363</v>
+        <v>0.0691822</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0933701</v>
+        <v>0.0921241</v>
       </c>
       <c r="C36" t="n">
-        <v>0.098235</v>
+        <v>0.09810339999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>0.08990769999999999</v>
+        <v>0.0870167</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.121698</v>
+        <v>0.122033</v>
       </c>
       <c r="C37" t="n">
-        <v>0.132858</v>
+        <v>0.131574</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0360497</v>
+        <v>0.0348304</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0480543</v>
+        <v>0.0472479</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0408206</v>
+        <v>0.0414922</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0363871</v>
+        <v>0.0353896</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0480947</v>
+        <v>0.0481714</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0414942</v>
+        <v>0.0418729</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0364708</v>
+        <v>0.0379298</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.047712</v>
+        <v>0.0478921</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0431732</v>
+        <v>0.0422378</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0369813</v>
+        <v>0.0361678</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0495579</v>
+        <v>0.0501631</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0427342</v>
+        <v>0.0435765</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0371917</v>
+        <v>0.038615</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0532834</v>
+        <v>0.0499441</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0453969</v>
+        <v>0.0450469</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0392796</v>
+        <v>0.0389455</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0513196</v>
+        <v>0.0509223</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0471675</v>
+        <v>0.0465022</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0395836</v>
+        <v>0.0404867</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0524654</v>
+        <v>0.0536616</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0507092</v>
+        <v>0.0480512</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0421158</v>
+        <v>0.0421017</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0559701</v>
+        <v>0.0546545</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0529571</v>
+        <v>0.0521034</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0443519</v>
+        <v>0.0448793</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0584557</v>
+        <v>0.060906</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0580336</v>
+        <v>0.056736</v>
       </c>
       <c r="D46" t="n">
-        <v>0.049083</v>
+        <v>0.0491689</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0648247</v>
+        <v>0.0614776</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0636665</v>
+        <v>0.0615551</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0532794</v>
+        <v>0.053247</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.06928719999999999</v>
+        <v>0.06614630000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0682228</v>
+        <v>0.070288</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0588887</v>
+        <v>0.059552</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0783252</v>
+        <v>0.0780246</v>
       </c>
       <c r="C49" t="n">
-        <v>0.080822</v>
+        <v>0.0811426</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0709774</v>
+        <v>0.0713521</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0966981</v>
+        <v>0.0945677</v>
       </c>
       <c r="C50" t="n">
-        <v>0.101977</v>
+        <v>0.0976476</v>
       </c>
       <c r="D50" t="n">
-        <v>0.08528189999999999</v>
+        <v>0.08714239999999999</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.117114</v>
+        <v>0.116504</v>
       </c>
       <c r="C51" t="n">
-        <v>0.128417</v>
+        <v>0.126</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0420246</v>
+        <v>0.0422658</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.161457</v>
+        <v>0.15424</v>
       </c>
       <c r="C52" t="n">
-        <v>0.169653</v>
+        <v>0.165579</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0420494</v>
+        <v>0.0429227</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.057247</v>
+        <v>0.0582893</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0520384</v>
+        <v>0.0496967</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0429945</v>
+        <v>0.0430702</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0594303</v>
+        <v>0.0601902</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0532269</v>
+        <v>0.0524276</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0437842</v>
+        <v>0.0429934</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0605196</v>
+        <v>0.0619907</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0535454</v>
+        <v>0.0530377</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0438282</v>
+        <v>0.0436533</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0605695</v>
+        <v>0.0618869</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0547824</v>
+        <v>0.0557684</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0473131</v>
+        <v>0.046926</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0621743</v>
+        <v>0.0634743</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0551764</v>
+        <v>0.0558009</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0482092</v>
+        <v>0.0463697</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0633335</v>
+        <v>0.06368360000000001</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0579125</v>
+        <v>0.058685</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0489938</v>
+        <v>0.0482207</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0645266</v>
+        <v>0.06609</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0615149</v>
+        <v>0.0594845</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0494986</v>
+        <v>0.0502091</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0676682</v>
+        <v>0.0678734</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0646703</v>
+        <v>0.0664377</v>
       </c>
       <c r="D60" t="n">
-        <v>0.055045</v>
+        <v>0.0535776</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.07349</v>
+        <v>0.0720614</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0707274</v>
+        <v>0.0690238</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0607634</v>
+        <v>0.0607758</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.07930230000000001</v>
+        <v>0.080063</v>
       </c>
       <c r="C62" t="n">
-        <v>0.07700360000000001</v>
+        <v>0.0788069</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0651205</v>
+        <v>0.0648643</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.08740920000000001</v>
+        <v>0.0889741</v>
       </c>
       <c r="C63" t="n">
-        <v>0.08903519999999999</v>
+        <v>0.0896241</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0731455</v>
+        <v>0.07469720000000001</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.102528</v>
+        <v>0.105515</v>
       </c>
       <c r="C64" t="n">
-        <v>0.105903</v>
+        <v>0.107785</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0898772</v>
+        <v>0.0884418</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.121146</v>
+        <v>0.126326</v>
       </c>
       <c r="C65" t="n">
-        <v>0.13318</v>
+        <v>0.132951</v>
       </c>
       <c r="D65" t="n">
-        <v>0.11206</v>
+        <v>0.111269</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.159576</v>
+        <v>0.159734</v>
       </c>
       <c r="C66" t="n">
-        <v>0.170036</v>
+        <v>0.176885</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0479928</v>
+        <v>0.0490612</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0664201</v>
+        <v>0.0667953</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0579822</v>
+        <v>0.057302</v>
       </c>
       <c r="D67" t="n">
-        <v>0.050042</v>
+        <v>0.0497828</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.069089</v>
+        <v>0.067846</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0599849</v>
+        <v>0.0624915</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0483102</v>
+        <v>0.0503225</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0681339</v>
+        <v>0.0705776</v>
       </c>
       <c r="C69" t="n">
-        <v>0.06380710000000001</v>
+        <v>0.0645811</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0515636</v>
+        <v>0.0492505</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0712444</v>
+        <v>0.06890309999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0647341</v>
+        <v>0.0663103</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0501883</v>
+        <v>0.050683</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0708521</v>
+        <v>0.07203900000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>0.06693830000000001</v>
+        <v>0.068241</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0529124</v>
+        <v>0.0526685</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0746045</v>
+        <v>0.0738357</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0694224</v>
+        <v>0.07164810000000001</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0548453</v>
+        <v>0.057409</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0765837</v>
+        <v>0.0782214</v>
       </c>
       <c r="C73" t="n">
-        <v>0.07237979999999999</v>
+        <v>0.07494869999999999</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0579473</v>
+        <v>0.058082</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.081692</v>
+        <v>0.0811568</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0756558</v>
+        <v>0.0767258</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0612737</v>
+        <v>0.0633968</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0860604</v>
+        <v>0.0893201</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0833584</v>
+        <v>0.08366170000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0667123</v>
+        <v>0.0681031</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0930739</v>
+        <v>0.09520480000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>0.09381730000000001</v>
+        <v>0.0922616</v>
       </c>
       <c r="D76" t="n">
-        <v>0.07296569999999999</v>
+        <v>0.0770178</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.103217</v>
+        <v>0.104732</v>
       </c>
       <c r="C77" t="n">
-        <v>0.10356</v>
+        <v>0.103741</v>
       </c>
       <c r="D77" t="n">
-        <v>0.08381180000000001</v>
+        <v>0.08334850000000001</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.117385</v>
+        <v>0.119477</v>
       </c>
       <c r="C78" t="n">
-        <v>0.122056</v>
+        <v>0.122958</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0949622</v>
+        <v>0.0963035</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.139885</v>
+        <v>0.137617</v>
       </c>
       <c r="C79" t="n">
-        <v>0.144841</v>
+        <v>0.143605</v>
       </c>
       <c r="D79" t="n">
-        <v>0.119012</v>
+        <v>0.119872</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.183532</v>
+        <v>0.176092</v>
       </c>
       <c r="C80" t="n">
-        <v>0.184049</v>
+        <v>0.190534</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0562046</v>
+        <v>0.0572031</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0845146</v>
+        <v>0.0814551</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0708428</v>
+        <v>0.07189769999999999</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0590982</v>
+        <v>0.0595338</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0836537</v>
+        <v>0.0874192</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0753672</v>
+        <v>0.0737449</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0590706</v>
+        <v>0.0605917</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0894768</v>
+        <v>0.0835471</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0774524</v>
+        <v>0.0766753</v>
       </c>
       <c r="D83" t="n">
-        <v>0.062638</v>
+        <v>0.0588984</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0883034</v>
+        <v>0.0879437</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0821968</v>
+        <v>0.0819786</v>
       </c>
       <c r="D84" t="n">
-        <v>0.061444</v>
+        <v>0.0619251</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0917616</v>
+        <v>0.09154089999999999</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0845405</v>
+        <v>0.08374959999999999</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0630666</v>
+        <v>0.0636504</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.09321500000000001</v>
+        <v>0.0947157</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0863186</v>
+        <v>0.0872127</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0699509</v>
+        <v>0.0645061</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.100669</v>
+        <v>0.0967871</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0929227</v>
+        <v>0.08977980000000001</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0684734</v>
+        <v>0.0692178</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.102718</v>
+        <v>0.101866</v>
       </c>
       <c r="C88" t="n">
-        <v>0.09514590000000001</v>
+        <v>0.0961897</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0721979</v>
+        <v>0.0737009</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.107943</v>
+        <v>0.105359</v>
       </c>
       <c r="C89" t="n">
-        <v>0.102974</v>
+        <v>0.103072</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0774227</v>
+        <v>0.0812967</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.114666</v>
+        <v>0.112745</v>
       </c>
       <c r="C90" t="n">
-        <v>0.110362</v>
+        <v>0.110512</v>
       </c>
       <c r="D90" t="n">
-        <v>0.08686869999999999</v>
+        <v>0.08470800000000001</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.126136</v>
+        <v>0.125405</v>
       </c>
       <c r="C91" t="n">
-        <v>0.123614</v>
+        <v>0.124775</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0957711</v>
+        <v>0.0949373</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.142519</v>
+        <v>0.139118</v>
       </c>
       <c r="C92" t="n">
-        <v>0.140232</v>
+        <v>0.141676</v>
       </c>
       <c r="D92" t="n">
-        <v>0.106944</v>
+        <v>0.109821</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.160374</v>
+        <v>0.162819</v>
       </c>
       <c r="C93" t="n">
-        <v>0.171952</v>
+        <v>0.166942</v>
       </c>
       <c r="D93" t="n">
-        <v>0.133762</v>
+        <v>0.126606</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.194124</v>
+        <v>0.193607</v>
       </c>
       <c r="C94" t="n">
-        <v>0.204346</v>
+        <v>0.205594</v>
       </c>
       <c r="D94" t="n">
-        <v>0.07447280000000001</v>
+        <v>0.0761421</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.107245</v>
+        <v>0.110426</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0977755</v>
+        <v>0.100982</v>
       </c>
       <c r="D95" t="n">
-        <v>0.074813</v>
+        <v>0.07985879999999999</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.117317</v>
+        <v>0.113589</v>
       </c>
       <c r="C96" t="n">
-        <v>0.102234</v>
+        <v>0.10259</v>
       </c>
       <c r="D96" t="n">
-        <v>0.08318540000000001</v>
+        <v>0.0798942</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.119743</v>
+        <v>0.111387</v>
       </c>
       <c r="C97" t="n">
-        <v>0.11087</v>
+        <v>0.102768</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0795001</v>
+        <v>0.0796673</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.120526</v>
+        <v>0.117018</v>
       </c>
       <c r="C98" t="n">
-        <v>0.110656</v>
+        <v>0.106596</v>
       </c>
       <c r="D98" t="n">
-        <v>0.084481</v>
+        <v>0.08108369999999999</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.124552</v>
+        <v>0.125997</v>
       </c>
       <c r="C99" t="n">
-        <v>0.117264</v>
+        <v>0.109073</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0905381</v>
+        <v>0.0860822</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.12628</v>
+        <v>0.12553</v>
       </c>
       <c r="C100" t="n">
-        <v>0.116965</v>
+        <v>0.119392</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0917772</v>
+        <v>0.08581519999999999</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.132048</v>
+        <v>0.124765</v>
       </c>
       <c r="C101" t="n">
-        <v>0.123855</v>
+        <v>0.118144</v>
       </c>
       <c r="D101" t="n">
-        <v>0.09451560000000001</v>
+        <v>0.0920702</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.136702</v>
+        <v>0.13666</v>
       </c>
       <c r="C102" t="n">
-        <v>0.124627</v>
+        <v>0.12289</v>
       </c>
       <c r="D102" t="n">
-        <v>0.100315</v>
+        <v>0.0955743</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.147076</v>
+        <v>0.135141</v>
       </c>
       <c r="C103" t="n">
-        <v>0.130741</v>
+        <v>0.131928</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0987166</v>
+        <v>0.09922980000000001</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.139698</v>
+        <v>0.143714</v>
       </c>
       <c r="C104" t="n">
-        <v>0.14882</v>
+        <v>0.139754</v>
       </c>
       <c r="D104" t="n">
-        <v>0.109711</v>
+        <v>0.106889</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.159926</v>
+        <v>0.156376</v>
       </c>
       <c r="C105" t="n">
-        <v>0.157508</v>
+        <v>0.149933</v>
       </c>
       <c r="D105" t="n">
-        <v>0.119467</v>
+        <v>0.115001</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.167816</v>
+        <v>0.165562</v>
       </c>
       <c r="C106" t="n">
-        <v>0.174184</v>
+        <v>0.181428</v>
       </c>
       <c r="D106" t="n">
-        <v>0.13055</v>
+        <v>0.128437</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.189792</v>
+        <v>0.184507</v>
       </c>
       <c r="C107" t="n">
-        <v>0.203813</v>
+        <v>0.193174</v>
       </c>
       <c r="D107" t="n">
-        <v>0.151263</v>
+        <v>0.147942</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.234533</v>
+        <v>0.218501</v>
       </c>
       <c r="C108" t="n">
-        <v>0.239305</v>
+        <v>0.231059</v>
       </c>
       <c r="D108" t="n">
-        <v>0.155615</v>
+        <v>0.15499</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.281559</v>
+        <v>0.27381</v>
       </c>
       <c r="C109" t="n">
-        <v>0.308754</v>
+        <v>0.300769</v>
       </c>
       <c r="D109" t="n">
-        <v>0.162017</v>
+        <v>0.158371</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.200428</v>
+        <v>0.20124</v>
       </c>
       <c r="C110" t="n">
-        <v>0.18574</v>
+        <v>0.180079</v>
       </c>
       <c r="D110" t="n">
-        <v>0.167152</v>
+        <v>0.1626</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.216193</v>
+        <v>0.197708</v>
       </c>
       <c r="C111" t="n">
-        <v>0.197972</v>
+        <v>0.180554</v>
       </c>
       <c r="D111" t="n">
-        <v>0.160315</v>
+        <v>0.161168</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.215312</v>
+        <v>0.201421</v>
       </c>
       <c r="C112" t="n">
-        <v>0.194652</v>
+        <v>0.183243</v>
       </c>
       <c r="D112" t="n">
-        <v>0.17048</v>
+        <v>0.162974</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.215607</v>
+        <v>0.222319</v>
       </c>
       <c r="C113" t="n">
-        <v>0.19179</v>
+        <v>0.184916</v>
       </c>
       <c r="D113" t="n">
-        <v>0.174638</v>
+        <v>0.16857</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.218874</v>
+        <v>0.208547</v>
       </c>
       <c r="C114" t="n">
-        <v>0.193698</v>
+        <v>0.194417</v>
       </c>
       <c r="D114" t="n">
-        <v>0.168734</v>
+        <v>0.166116</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.222661</v>
+        <v>0.211484</v>
       </c>
       <c r="C115" t="n">
-        <v>0.197253</v>
+        <v>0.19657</v>
       </c>
       <c r="D115" t="n">
-        <v>0.167583</v>
+        <v>0.170216</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.226942</v>
+        <v>0.211557</v>
       </c>
       <c r="C116" t="n">
-        <v>0.21411</v>
+        <v>0.202374</v>
       </c>
       <c r="D116" t="n">
-        <v>0.183995</v>
+        <v>0.171618</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.23141</v>
+        <v>0.222721</v>
       </c>
       <c r="C117" t="n">
-        <v>0.221388</v>
+        <v>0.209935</v>
       </c>
       <c r="D117" t="n">
-        <v>0.182744</v>
+        <v>0.183087</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.239809</v>
+        <v>0.233224</v>
       </c>
       <c r="C118" t="n">
-        <v>0.217221</v>
+        <v>0.217764</v>
       </c>
       <c r="D118" t="n">
-        <v>0.191759</v>
+        <v>0.183715</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.243793</v>
+        <v>0.260588</v>
       </c>
       <c r="C119" t="n">
-        <v>0.226014</v>
+        <v>0.228446</v>
       </c>
       <c r="D119" t="n">
-        <v>0.202118</v>
+        <v>0.192278</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.26891</v>
+        <v>0.254869</v>
       </c>
       <c r="C120" t="n">
-        <v>0.248746</v>
+        <v>0.247252</v>
       </c>
       <c r="D120" t="n">
-        <v>0.206855</v>
+        <v>0.204824</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.277934</v>
+        <v>0.286271</v>
       </c>
       <c r="C121" t="n">
-        <v>0.272263</v>
+        <v>0.272669</v>
       </c>
       <c r="D121" t="n">
-        <v>0.231806</v>
+        <v>0.223022</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.313041</v>
+        <v>0.315497</v>
       </c>
       <c r="C122" t="n">
-        <v>0.32055</v>
+        <v>0.308424</v>
       </c>
       <c r="D122" t="n">
-        <v>0.26955</v>
+        <v>0.259892</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.393537</v>
+        <v>0.373282</v>
       </c>
       <c r="C123" t="n">
-        <v>0.389588</v>
+        <v>0.37747</v>
       </c>
       <c r="D123" t="n">
-        <v>0.245517</v>
+        <v>0.244619</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.31204</v>
+        <v>0.301968</v>
       </c>
       <c r="C124" t="n">
-        <v>0.266738</v>
+        <v>0.273702</v>
       </c>
       <c r="D124" t="n">
-        <v>0.249861</v>
+        <v>0.243679</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.307385</v>
+        <v>0.317416</v>
       </c>
       <c r="C125" t="n">
-        <v>0.272051</v>
+        <v>0.278986</v>
       </c>
       <c r="D125" t="n">
-        <v>0.254975</v>
+        <v>0.246444</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.318883</v>
+        <v>0.315646</v>
       </c>
       <c r="C126" t="n">
-        <v>0.277948</v>
+        <v>0.283841</v>
       </c>
       <c r="D126" t="n">
-        <v>0.252962</v>
+        <v>0.253079</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.319566</v>
+        <v>0.316948</v>
       </c>
       <c r="C127" t="n">
-        <v>0.284291</v>
+        <v>0.27669</v>
       </c>
       <c r="D127" t="n">
-        <v>0.253408</v>
+        <v>0.258571</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.32396</v>
+        <v>0.326654</v>
       </c>
       <c r="C128" t="n">
-        <v>0.296224</v>
+        <v>0.282094</v>
       </c>
       <c r="D128" t="n">
-        <v>0.25509</v>
+        <v>0.251502</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.334309</v>
+        <v>0.337808</v>
       </c>
       <c r="C129" t="n">
-        <v>0.290521</v>
+        <v>0.287419</v>
       </c>
       <c r="D129" t="n">
-        <v>0.266856</v>
+        <v>0.259813</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.344608</v>
+        <v>0.339562</v>
       </c>
       <c r="C130" t="n">
-        <v>0.309406</v>
+        <v>0.30197</v>
       </c>
       <c r="D130" t="n">
-        <v>0.268352</v>
+        <v>0.263335</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.3488</v>
+        <v>0.338968</v>
       </c>
       <c r="C131" t="n">
-        <v>0.311494</v>
+        <v>0.308103</v>
       </c>
       <c r="D131" t="n">
-        <v>0.268063</v>
+        <v>0.26621</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.358857</v>
+        <v>0.358065</v>
       </c>
       <c r="C132" t="n">
-        <v>0.322547</v>
+        <v>0.317817</v>
       </c>
       <c r="D132" t="n">
-        <v>0.279437</v>
+        <v>0.283234</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.374898</v>
+        <v>0.362023</v>
       </c>
       <c r="C133" t="n">
-        <v>0.333156</v>
+        <v>0.337887</v>
       </c>
       <c r="D133" t="n">
-        <v>0.289064</v>
+        <v>0.292193</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.384548</v>
+        <v>0.382073</v>
       </c>
       <c r="C134" t="n">
-        <v>0.348514</v>
+        <v>0.346195</v>
       </c>
       <c r="D134" t="n">
-        <v>0.303838</v>
+        <v>0.300662</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.41004</v>
+        <v>0.416748</v>
       </c>
       <c r="C135" t="n">
-        <v>0.381432</v>
+        <v>0.387109</v>
       </c>
       <c r="D135" t="n">
-        <v>0.329021</v>
+        <v>0.324432</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.45106</v>
+        <v>0.452641</v>
       </c>
       <c r="C136" t="n">
-        <v>0.434757</v>
+        <v>0.427598</v>
       </c>
       <c r="D136" t="n">
-        <v>0.363816</v>
+        <v>0.361443</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.536787</v>
+        <v>0.535918</v>
       </c>
       <c r="C137" t="n">
-        <v>0.5081059999999999</v>
+        <v>0.510718</v>
       </c>
       <c r="D137" t="n">
-        <v>0.297011</v>
+        <v>0.293058</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.38565</v>
+        <v>0.379923</v>
       </c>
       <c r="C138" t="n">
-        <v>0.325708</v>
+        <v>0.3325</v>
       </c>
       <c r="D138" t="n">
-        <v>0.297084</v>
+        <v>0.297357</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.382439</v>
+        <v>0.386703</v>
       </c>
       <c r="C139" t="n">
-        <v>0.326379</v>
+        <v>0.334378</v>
       </c>
       <c r="D139" t="n">
-        <v>0.306016</v>
+        <v>0.297041</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.3803</v>
+        <v>0.380869</v>
       </c>
       <c r="C140" t="n">
-        <v>0.343438</v>
+        <v>0.336405</v>
       </c>
       <c r="D140" t="n">
-        <v>0.307669</v>
+        <v>0.311273</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.39351</v>
+        <v>0.389178</v>
       </c>
       <c r="C141" t="n">
-        <v>0.342614</v>
+        <v>0.344682</v>
       </c>
       <c r="D141" t="n">
-        <v>0.313533</v>
+        <v>0.314121</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.397966</v>
+        <v>0.403013</v>
       </c>
       <c r="C142" t="n">
-        <v>0.350858</v>
+        <v>0.344418</v>
       </c>
       <c r="D142" t="n">
-        <v>0.311679</v>
+        <v>0.31645</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.40589</v>
+        <v>0.403923</v>
       </c>
       <c r="C143" t="n">
-        <v>0.355684</v>
+        <v>0.345409</v>
       </c>
       <c r="D143" t="n">
-        <v>0.323744</v>
+        <v>0.316076</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered unsuccessful looukp.xlsx
+++ b/vs-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0412964</v>
+        <v>0.0426627</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0409744</v>
+        <v>0.0523676</v>
       </c>
       <c r="D2" t="n">
-        <v>0.035451</v>
+        <v>0.042396</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0435791</v>
+        <v>0.0422378</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0438917</v>
+        <v>0.0546968</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0383512</v>
+        <v>0.0458362</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0465893</v>
+        <v>0.045055</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0500454</v>
+        <v>0.06304369999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0444852</v>
+        <v>0.0532116</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0502356</v>
+        <v>0.0505448</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0550649</v>
+        <v>0.0737281</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0514843</v>
+        <v>0.05636</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0572138</v>
+        <v>0.0595408</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06462039999999999</v>
+        <v>0.08608639999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0546115</v>
+        <v>0.0611475</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.06817289999999999</v>
+        <v>0.0741053</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08026469999999999</v>
+        <v>0.100073</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0706248</v>
+        <v>0.0733473</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0905136</v>
+        <v>0.09833210000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0999992</v>
+        <v>0.044585</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0836899</v>
+        <v>0.0936009</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.12272</v>
+        <v>0.124048</v>
       </c>
       <c r="C9" t="n">
-        <v>0.135165</v>
+        <v>0.046109</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0319317</v>
+        <v>0.0363388</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0387136</v>
+        <v>0.0392437</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0348245</v>
+        <v>0.044599</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0326672</v>
+        <v>0.035256</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0394536</v>
+        <v>0.0403281</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0355092</v>
+        <v>0.0456541</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0331486</v>
+        <v>0.0363307</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0421343</v>
+        <v>0.0405615</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0368343</v>
+        <v>0.0465828</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0332414</v>
+        <v>0.0366545</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0420774</v>
+        <v>0.0413634</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0384881</v>
+        <v>0.0494419</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0334307</v>
+        <v>0.037856</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0421286</v>
+        <v>0.0416668</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0396113</v>
+        <v>0.0489392</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0349085</v>
+        <v>0.0392317</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0427863</v>
+        <v>0.0448912</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0406089</v>
+        <v>0.0514221</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0381181</v>
+        <v>0.0390577</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0452552</v>
+        <v>0.044941</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0446619</v>
+        <v>0.0554207</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0399544</v>
+        <v>0.0428291</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0457687</v>
+        <v>0.0478097</v>
       </c>
       <c r="C17" t="n">
-        <v>0.046201</v>
+        <v>0.0643386</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0403501</v>
+        <v>0.0451008</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0495031</v>
+        <v>0.0499637</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0534393</v>
+        <v>0.0656239</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0466774</v>
+        <v>0.047929</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0557274</v>
+        <v>0.0563628</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0577451</v>
+        <v>0.0744679</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0500036</v>
+        <v>0.0530978</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0630421</v>
+        <v>0.06439209999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0653191</v>
+        <v>0.08709939999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0563666</v>
+        <v>0.0604035</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0739037</v>
+        <v>0.0722048</v>
       </c>
       <c r="C21" t="n">
-        <v>0.08027819999999999</v>
+        <v>0.0988614</v>
       </c>
       <c r="D21" t="n">
-        <v>0.06766179999999999</v>
+        <v>0.0732994</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0923224</v>
+        <v>0.0908143</v>
       </c>
       <c r="C22" t="n">
-        <v>0.102995</v>
+        <v>0.0492954</v>
       </c>
       <c r="D22" t="n">
-        <v>0.08908099999999999</v>
+        <v>0.0941791</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.119326</v>
+        <v>0.120994</v>
       </c>
       <c r="C23" t="n">
-        <v>0.135625</v>
+        <v>0.0510217</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0326509</v>
+        <v>0.0381728</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0436154</v>
+        <v>0.0429763</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0368581</v>
+        <v>0.0499647</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0338108</v>
+        <v>0.0381255</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.043839</v>
+        <v>0.0427145</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0375345</v>
+        <v>0.0502054</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0341353</v>
+        <v>0.0365544</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0439088</v>
+        <v>0.0439402</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0396756</v>
+        <v>0.051368</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0351849</v>
+        <v>0.037469</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0447362</v>
+        <v>0.0453224</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0406408</v>
+        <v>0.0534211</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0358761</v>
+        <v>0.0382809</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0457624</v>
+        <v>0.045185</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0429102</v>
+        <v>0.0542678</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0366058</v>
+        <v>0.0419555</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0466124</v>
+        <v>0.0469193</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0435963</v>
+        <v>0.058011</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0375361</v>
+        <v>0.0414332</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.050609</v>
+        <v>0.0482256</v>
       </c>
       <c r="C30" t="n">
-        <v>0.045318</v>
+        <v>0.061787</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0401308</v>
+        <v>0.0427029</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0494635</v>
+        <v>0.050392</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0474867</v>
+        <v>0.0647452</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0412015</v>
+        <v>0.0447176</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0538206</v>
+        <v>0.0542329</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0527179</v>
+        <v>0.0682413</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0459598</v>
+        <v>0.0499594</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0577053</v>
+        <v>0.0595153</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0569058</v>
+        <v>0.0762647</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0504629</v>
+        <v>0.0552435</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.06797010000000001</v>
+        <v>0.0647798</v>
       </c>
       <c r="C34" t="n">
-        <v>0.06670329999999999</v>
+        <v>0.08558490000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>0.057715</v>
+        <v>0.0633783</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0789537</v>
+        <v>0.0754259</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0782234</v>
+        <v>0.0989558</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0691822</v>
+        <v>0.0731058</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0921241</v>
+        <v>0.0926974</v>
       </c>
       <c r="C36" t="n">
-        <v>0.09810339999999999</v>
+        <v>0.118371</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0870167</v>
+        <v>0.0903702</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.122033</v>
+        <v>0.115308</v>
       </c>
       <c r="C37" t="n">
-        <v>0.131574</v>
+        <v>0.0516219</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0348304</v>
+        <v>0.0406703</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0472479</v>
+        <v>0.0477395</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0414922</v>
+        <v>0.0525353</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0353896</v>
+        <v>0.0410383</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0481714</v>
+        <v>0.0499385</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0418729</v>
+        <v>0.0530943</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0379298</v>
+        <v>0.0407044</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0478921</v>
+        <v>0.0497785</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0422378</v>
+        <v>0.0550474</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0361678</v>
+        <v>0.0402578</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0501631</v>
+        <v>0.0496125</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0435765</v>
+        <v>0.0559936</v>
       </c>
       <c r="D41" t="n">
-        <v>0.038615</v>
+        <v>0.0413676</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0499441</v>
+        <v>0.0504841</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0450469</v>
+        <v>0.0577535</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0389455</v>
+        <v>0.0440589</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0509223</v>
+        <v>0.0510832</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0465022</v>
+        <v>0.060704</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0404867</v>
+        <v>0.0434246</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0536616</v>
+        <v>0.0529353</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0480512</v>
+        <v>0.0613196</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0421017</v>
+        <v>0.0472041</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0546545</v>
+        <v>0.0558618</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0521034</v>
+        <v>0.0675786</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0448793</v>
+        <v>0.0473496</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.060906</v>
+        <v>0.0565176</v>
       </c>
       <c r="C46" t="n">
-        <v>0.056736</v>
+        <v>0.0732071</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0491689</v>
+        <v>0.0510431</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0614776</v>
+        <v>0.0620427</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0615551</v>
+        <v>0.0795067</v>
       </c>
       <c r="D47" t="n">
-        <v>0.053247</v>
+        <v>0.0570803</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.06614630000000001</v>
+        <v>0.0693884</v>
       </c>
       <c r="C48" t="n">
-        <v>0.070288</v>
+        <v>0.0901565</v>
       </c>
       <c r="D48" t="n">
-        <v>0.059552</v>
+        <v>0.0637326</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0780246</v>
+        <v>0.0776984</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0811426</v>
+        <v>0.100258</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0713521</v>
+        <v>0.0728538</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0945677</v>
+        <v>0.0943663</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0976476</v>
+        <v>0.116281</v>
       </c>
       <c r="D50" t="n">
-        <v>0.08714239999999999</v>
+        <v>0.08890199999999999</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.116504</v>
+        <v>0.115077</v>
       </c>
       <c r="C51" t="n">
-        <v>0.126</v>
+        <v>0.056804</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0422658</v>
+        <v>0.0462329</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.15424</v>
+        <v>0.160658</v>
       </c>
       <c r="C52" t="n">
-        <v>0.165579</v>
+        <v>0.0576768</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0429227</v>
+        <v>0.0459166</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0582893</v>
+        <v>0.0590598</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0496967</v>
+        <v>0.0586219</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0430702</v>
+        <v>0.0471823</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0601902</v>
+        <v>0.0580211</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0524276</v>
+        <v>0.0604296</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0429934</v>
+        <v>0.0472576</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0619907</v>
+        <v>0.0598604</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0530377</v>
+        <v>0.0606014</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0436533</v>
+        <v>0.0479887</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0618869</v>
+        <v>0.0596124</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0557684</v>
+        <v>0.0606746</v>
       </c>
       <c r="D56" t="n">
-        <v>0.046926</v>
+        <v>0.049192</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0634743</v>
+        <v>0.060906</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0558009</v>
+        <v>0.06455519999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0463697</v>
+        <v>0.0514837</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.06368360000000001</v>
+        <v>0.0642308</v>
       </c>
       <c r="C58" t="n">
-        <v>0.058685</v>
+        <v>0.06757050000000001</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0482207</v>
+        <v>0.0519294</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.06609</v>
+        <v>0.0653012</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0594845</v>
+        <v>0.0716265</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0502091</v>
+        <v>0.0543336</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0678734</v>
+        <v>0.072008</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0664377</v>
+        <v>0.0778601</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0535776</v>
+        <v>0.0577884</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0720614</v>
+        <v>0.0713654</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0690238</v>
+        <v>0.0812867</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0607758</v>
+        <v>0.06324589999999999</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.080063</v>
+        <v>0.08209760000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0788069</v>
+        <v>0.09067450000000001</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0648643</v>
+        <v>0.0695235</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0889741</v>
+        <v>0.0874487</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0896241</v>
+        <v>0.102093</v>
       </c>
       <c r="D63" t="n">
-        <v>0.07469720000000001</v>
+        <v>0.0786557</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.105515</v>
+        <v>0.101797</v>
       </c>
       <c r="C64" t="n">
-        <v>0.107785</v>
+        <v>0.116216</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0884418</v>
+        <v>0.09391380000000001</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.126326</v>
+        <v>0.125115</v>
       </c>
       <c r="C65" t="n">
-        <v>0.132951</v>
+        <v>0.15129</v>
       </c>
       <c r="D65" t="n">
-        <v>0.111269</v>
+        <v>0.115575</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.159734</v>
+        <v>0.157344</v>
       </c>
       <c r="C66" t="n">
-        <v>0.176885</v>
+        <v>0.149642</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0490612</v>
+        <v>0.0527478</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0667953</v>
+        <v>0.06605129999999999</v>
       </c>
       <c r="C67" t="n">
-        <v>0.057302</v>
+        <v>0.148744</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0497828</v>
+        <v>0.0517584</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.067846</v>
+        <v>0.0668507</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0624915</v>
+        <v>0.150082</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0503225</v>
+        <v>0.0522578</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0705776</v>
+        <v>0.06761350000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0645811</v>
+        <v>0.155055</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0492505</v>
+        <v>0.0538979</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.06890309999999999</v>
+        <v>0.07021810000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0663103</v>
+        <v>0.1521</v>
       </c>
       <c r="D70" t="n">
-        <v>0.050683</v>
+        <v>0.0560327</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.07203900000000001</v>
+        <v>0.07279720000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>0.068241</v>
+        <v>0.15329</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0526685</v>
+        <v>0.0556643</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0738357</v>
+        <v>0.074515</v>
       </c>
       <c r="C72" t="n">
-        <v>0.07164810000000001</v>
+        <v>0.167421</v>
       </c>
       <c r="D72" t="n">
-        <v>0.057409</v>
+        <v>0.0580475</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0782214</v>
+        <v>0.0784551</v>
       </c>
       <c r="C73" t="n">
-        <v>0.07494869999999999</v>
+        <v>0.162518</v>
       </c>
       <c r="D73" t="n">
-        <v>0.058082</v>
+        <v>0.0618579</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0811568</v>
+        <v>0.0812833</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0767258</v>
+        <v>0.170171</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0633968</v>
+        <v>0.0649868</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0893201</v>
+        <v>0.08549470000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>0.08366170000000001</v>
+        <v>0.170267</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0681031</v>
+        <v>0.0707808</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.09520480000000001</v>
+        <v>0.09420829999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0922616</v>
+        <v>0.181204</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0770178</v>
+        <v>0.0780604</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.104732</v>
+        <v>0.102684</v>
       </c>
       <c r="C77" t="n">
-        <v>0.103741</v>
+        <v>0.196672</v>
       </c>
       <c r="D77" t="n">
-        <v>0.08334850000000001</v>
+        <v>0.0896324</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.119477</v>
+        <v>0.122071</v>
       </c>
       <c r="C78" t="n">
-        <v>0.122958</v>
+        <v>0.21043</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0963035</v>
+        <v>0.105307</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.137617</v>
+        <v>0.143284</v>
       </c>
       <c r="C79" t="n">
-        <v>0.143605</v>
+        <v>0.241542</v>
       </c>
       <c r="D79" t="n">
-        <v>0.119872</v>
+        <v>0.128507</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.176092</v>
+        <v>0.179938</v>
       </c>
       <c r="C80" t="n">
-        <v>0.190534</v>
+        <v>0.243158</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0572031</v>
+        <v>0.0584187</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0814551</v>
+        <v>0.0834052</v>
       </c>
       <c r="C81" t="n">
-        <v>0.07189769999999999</v>
+        <v>0.239913</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0595338</v>
+        <v>0.0605055</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0874192</v>
+        <v>0.0873761</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0737449</v>
+        <v>0.238994</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0605917</v>
+        <v>0.0612367</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0835471</v>
+        <v>0.0843898</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0766753</v>
+        <v>0.242271</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0588984</v>
+        <v>0.064972</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0879437</v>
+        <v>0.08755839999999999</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0819786</v>
+        <v>0.26171</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0619251</v>
+        <v>0.0647331</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.09154089999999999</v>
+        <v>0.0929976</v>
       </c>
       <c r="C85" t="n">
-        <v>0.08374959999999999</v>
+        <v>0.241756</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0636504</v>
+        <v>0.067366</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0947157</v>
+        <v>0.0944248</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0872127</v>
+        <v>0.250215</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0645061</v>
+        <v>0.0693961</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0967871</v>
+        <v>0.09983590000000001</v>
       </c>
       <c r="C87" t="n">
-        <v>0.08977980000000001</v>
+        <v>0.261601</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0692178</v>
+        <v>0.0737178</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.101866</v>
+        <v>0.104532</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0961897</v>
+        <v>0.255134</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0737009</v>
+        <v>0.07648290000000001</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.105359</v>
+        <v>0.106318</v>
       </c>
       <c r="C89" t="n">
-        <v>0.103072</v>
+        <v>0.26564</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0812967</v>
+        <v>0.0796887</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.112745</v>
+        <v>0.11433</v>
       </c>
       <c r="C90" t="n">
-        <v>0.110512</v>
+        <v>0.268644</v>
       </c>
       <c r="D90" t="n">
-        <v>0.08470800000000001</v>
+        <v>0.09094380000000001</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.125405</v>
+        <v>0.124282</v>
       </c>
       <c r="C91" t="n">
-        <v>0.124775</v>
+        <v>0.287718</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0949373</v>
+        <v>0.100949</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.139118</v>
+        <v>0.144963</v>
       </c>
       <c r="C92" t="n">
-        <v>0.141676</v>
+        <v>0.302878</v>
       </c>
       <c r="D92" t="n">
-        <v>0.109821</v>
+        <v>0.120097</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.162819</v>
+        <v>0.157217</v>
       </c>
       <c r="C93" t="n">
-        <v>0.166942</v>
+        <v>0.32086</v>
       </c>
       <c r="D93" t="n">
-        <v>0.126606</v>
+        <v>0.131654</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.193607</v>
+        <v>0.189186</v>
       </c>
       <c r="C94" t="n">
-        <v>0.205594</v>
+        <v>0.297612</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0761421</v>
+        <v>0.0803046</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.110426</v>
+        <v>0.107838</v>
       </c>
       <c r="C95" t="n">
-        <v>0.100982</v>
+        <v>0.291124</v>
       </c>
       <c r="D95" t="n">
-        <v>0.07985879999999999</v>
+        <v>0.0793754</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.113589</v>
+        <v>0.113125</v>
       </c>
       <c r="C96" t="n">
-        <v>0.10259</v>
+        <v>0.299449</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0798942</v>
+        <v>0.0822224</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.111387</v>
+        <v>0.111505</v>
       </c>
       <c r="C97" t="n">
-        <v>0.102768</v>
+        <v>0.29555</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0796673</v>
+        <v>0.08466799999999999</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.117018</v>
+        <v>0.118634</v>
       </c>
       <c r="C98" t="n">
-        <v>0.106596</v>
+        <v>0.29658</v>
       </c>
       <c r="D98" t="n">
-        <v>0.08108369999999999</v>
+        <v>0.0863032</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.125997</v>
+        <v>0.117677</v>
       </c>
       <c r="C99" t="n">
-        <v>0.109073</v>
+        <v>0.29257</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0860822</v>
+        <v>0.0880117</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.12553</v>
+        <v>0.119285</v>
       </c>
       <c r="C100" t="n">
-        <v>0.119392</v>
+        <v>0.299628</v>
       </c>
       <c r="D100" t="n">
-        <v>0.08581519999999999</v>
+        <v>0.09113590000000001</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.124765</v>
+        <v>0.123831</v>
       </c>
       <c r="C101" t="n">
-        <v>0.118144</v>
+        <v>0.307499</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0920702</v>
+        <v>0.0938842</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.13666</v>
+        <v>0.12619</v>
       </c>
       <c r="C102" t="n">
-        <v>0.12289</v>
+        <v>0.306992</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0955743</v>
+        <v>0.0969831</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.135141</v>
+        <v>0.135878</v>
       </c>
       <c r="C103" t="n">
-        <v>0.131928</v>
+        <v>0.311207</v>
       </c>
       <c r="D103" t="n">
-        <v>0.09922980000000001</v>
+        <v>0.110927</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.143714</v>
+        <v>0.151458</v>
       </c>
       <c r="C104" t="n">
-        <v>0.139754</v>
+        <v>0.325171</v>
       </c>
       <c r="D104" t="n">
-        <v>0.106889</v>
+        <v>0.111995</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.156376</v>
+        <v>0.153038</v>
       </c>
       <c r="C105" t="n">
-        <v>0.149933</v>
+        <v>0.339343</v>
       </c>
       <c r="D105" t="n">
-        <v>0.115001</v>
+        <v>0.119301</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.165562</v>
+        <v>0.166603</v>
       </c>
       <c r="C106" t="n">
-        <v>0.181428</v>
+        <v>0.357024</v>
       </c>
       <c r="D106" t="n">
-        <v>0.128437</v>
+        <v>0.135312</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.184507</v>
+        <v>0.190806</v>
       </c>
       <c r="C107" t="n">
-        <v>0.193174</v>
+        <v>0.397937</v>
       </c>
       <c r="D107" t="n">
-        <v>0.147942</v>
+        <v>0.155796</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.218501</v>
+        <v>0.218885</v>
       </c>
       <c r="C108" t="n">
-        <v>0.231059</v>
+        <v>0.321666</v>
       </c>
       <c r="D108" t="n">
-        <v>0.15499</v>
+        <v>0.161027</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.27381</v>
+        <v>0.278753</v>
       </c>
       <c r="C109" t="n">
-        <v>0.300769</v>
+        <v>0.320054</v>
       </c>
       <c r="D109" t="n">
-        <v>0.158371</v>
+        <v>0.160619</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.20124</v>
+        <v>0.19574</v>
       </c>
       <c r="C110" t="n">
-        <v>0.180079</v>
+        <v>0.319297</v>
       </c>
       <c r="D110" t="n">
-        <v>0.1626</v>
+        <v>0.165219</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.197708</v>
+        <v>0.200401</v>
       </c>
       <c r="C111" t="n">
-        <v>0.180554</v>
+        <v>0.328082</v>
       </c>
       <c r="D111" t="n">
-        <v>0.161168</v>
+        <v>0.165781</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.201421</v>
+        <v>0.210224</v>
       </c>
       <c r="C112" t="n">
-        <v>0.183243</v>
+        <v>0.323907</v>
       </c>
       <c r="D112" t="n">
-        <v>0.162974</v>
+        <v>0.173888</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.222319</v>
+        <v>0.208208</v>
       </c>
       <c r="C113" t="n">
-        <v>0.184916</v>
+        <v>0.320197</v>
       </c>
       <c r="D113" t="n">
-        <v>0.16857</v>
+        <v>0.166986</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.208547</v>
+        <v>0.204218</v>
       </c>
       <c r="C114" t="n">
-        <v>0.194417</v>
+        <v>0.336674</v>
       </c>
       <c r="D114" t="n">
-        <v>0.166116</v>
+        <v>0.17201</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.211484</v>
+        <v>0.205825</v>
       </c>
       <c r="C115" t="n">
-        <v>0.19657</v>
+        <v>0.325155</v>
       </c>
       <c r="D115" t="n">
-        <v>0.170216</v>
+        <v>0.183296</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.211557</v>
+        <v>0.213302</v>
       </c>
       <c r="C116" t="n">
-        <v>0.202374</v>
+        <v>0.343619</v>
       </c>
       <c r="D116" t="n">
-        <v>0.171618</v>
+        <v>0.176753</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.222721</v>
+        <v>0.21691</v>
       </c>
       <c r="C117" t="n">
-        <v>0.209935</v>
+        <v>0.350793</v>
       </c>
       <c r="D117" t="n">
-        <v>0.183087</v>
+        <v>0.186908</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.233224</v>
+        <v>0.232848</v>
       </c>
       <c r="C118" t="n">
-        <v>0.217764</v>
+        <v>0.364484</v>
       </c>
       <c r="D118" t="n">
-        <v>0.183715</v>
+        <v>0.187757</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.260588</v>
+        <v>0.251947</v>
       </c>
       <c r="C119" t="n">
-        <v>0.228446</v>
+        <v>0.367419</v>
       </c>
       <c r="D119" t="n">
-        <v>0.192278</v>
+        <v>0.196275</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.254869</v>
+        <v>0.257347</v>
       </c>
       <c r="C120" t="n">
-        <v>0.247252</v>
+        <v>0.387372</v>
       </c>
       <c r="D120" t="n">
-        <v>0.204824</v>
+        <v>0.220589</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.286271</v>
+        <v>0.271033</v>
       </c>
       <c r="C121" t="n">
-        <v>0.272669</v>
+        <v>0.410616</v>
       </c>
       <c r="D121" t="n">
-        <v>0.223022</v>
+        <v>0.248596</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.315497</v>
+        <v>0.316422</v>
       </c>
       <c r="C122" t="n">
-        <v>0.308424</v>
+        <v>0.357355</v>
       </c>
       <c r="D122" t="n">
-        <v>0.259892</v>
+        <v>0.271822</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.373282</v>
+        <v>0.400964</v>
       </c>
       <c r="C123" t="n">
-        <v>0.37747</v>
+        <v>0.360446</v>
       </c>
       <c r="D123" t="n">
-        <v>0.244619</v>
+        <v>0.247385</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.301968</v>
+        <v>0.307838</v>
       </c>
       <c r="C124" t="n">
-        <v>0.273702</v>
+        <v>0.341699</v>
       </c>
       <c r="D124" t="n">
-        <v>0.243679</v>
+        <v>0.255048</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.317416</v>
+        <v>0.3114</v>
       </c>
       <c r="C125" t="n">
-        <v>0.278986</v>
+        <v>0.35681</v>
       </c>
       <c r="D125" t="n">
-        <v>0.246444</v>
+        <v>0.252888</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.315646</v>
+        <v>0.314891</v>
       </c>
       <c r="C126" t="n">
-        <v>0.283841</v>
+        <v>0.345276</v>
       </c>
       <c r="D126" t="n">
-        <v>0.253079</v>
+        <v>0.252089</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.316948</v>
+        <v>0.317396</v>
       </c>
       <c r="C127" t="n">
-        <v>0.27669</v>
+        <v>0.369787</v>
       </c>
       <c r="D127" t="n">
-        <v>0.258571</v>
+        <v>0.257075</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.326654</v>
+        <v>0.323076</v>
       </c>
       <c r="C128" t="n">
-        <v>0.282094</v>
+        <v>0.372388</v>
       </c>
       <c r="D128" t="n">
-        <v>0.251502</v>
+        <v>0.261811</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.337808</v>
+        <v>0.325637</v>
       </c>
       <c r="C129" t="n">
-        <v>0.287419</v>
+        <v>0.367587</v>
       </c>
       <c r="D129" t="n">
-        <v>0.259813</v>
+        <v>0.266804</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.339562</v>
+        <v>0.33471</v>
       </c>
       <c r="C130" t="n">
-        <v>0.30197</v>
+        <v>0.374768</v>
       </c>
       <c r="D130" t="n">
-        <v>0.263335</v>
+        <v>0.278282</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.338968</v>
+        <v>0.346583</v>
       </c>
       <c r="C131" t="n">
-        <v>0.308103</v>
+        <v>0.365035</v>
       </c>
       <c r="D131" t="n">
-        <v>0.26621</v>
+        <v>0.277883</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.358065</v>
+        <v>0.354479</v>
       </c>
       <c r="C132" t="n">
-        <v>0.317817</v>
+        <v>0.394495</v>
       </c>
       <c r="D132" t="n">
-        <v>0.283234</v>
+        <v>0.281342</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.362023</v>
+        <v>0.374505</v>
       </c>
       <c r="C133" t="n">
-        <v>0.337887</v>
+        <v>0.403433</v>
       </c>
       <c r="D133" t="n">
-        <v>0.292193</v>
+        <v>0.291152</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.382073</v>
+        <v>0.38558</v>
       </c>
       <c r="C134" t="n">
-        <v>0.346195</v>
+        <v>0.406294</v>
       </c>
       <c r="D134" t="n">
-        <v>0.300662</v>
+        <v>0.320513</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.416748</v>
+        <v>0.418535</v>
       </c>
       <c r="C135" t="n">
-        <v>0.387109</v>
+        <v>0.429674</v>
       </c>
       <c r="D135" t="n">
-        <v>0.324432</v>
+        <v>0.336685</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.452641</v>
+        <v>0.463237</v>
       </c>
       <c r="C136" t="n">
-        <v>0.427598</v>
+        <v>0.410175</v>
       </c>
       <c r="D136" t="n">
-        <v>0.361443</v>
+        <v>0.361772</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.535918</v>
+        <v>0.534799</v>
       </c>
       <c r="C137" t="n">
-        <v>0.510718</v>
+        <v>0.40592</v>
       </c>
       <c r="D137" t="n">
-        <v>0.293058</v>
+        <v>0.306904</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.379923</v>
+        <v>0.384783</v>
       </c>
       <c r="C138" t="n">
-        <v>0.3325</v>
+        <v>0.414311</v>
       </c>
       <c r="D138" t="n">
-        <v>0.297357</v>
+        <v>0.310277</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.386703</v>
+        <v>0.385689</v>
       </c>
       <c r="C139" t="n">
-        <v>0.334378</v>
+        <v>0.416396</v>
       </c>
       <c r="D139" t="n">
-        <v>0.297041</v>
+        <v>0.305117</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.380869</v>
+        <v>0.398264</v>
       </c>
       <c r="C140" t="n">
-        <v>0.336405</v>
+        <v>0.420018</v>
       </c>
       <c r="D140" t="n">
-        <v>0.311273</v>
+        <v>0.313584</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.389178</v>
+        <v>0.401287</v>
       </c>
       <c r="C141" t="n">
-        <v>0.344682</v>
+        <v>0.424252</v>
       </c>
       <c r="D141" t="n">
-        <v>0.314121</v>
+        <v>0.314781</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.403013</v>
+        <v>0.393815</v>
       </c>
       <c r="C142" t="n">
-        <v>0.344418</v>
+        <v>0.423951</v>
       </c>
       <c r="D142" t="n">
-        <v>0.31645</v>
+        <v>0.32221</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.403923</v>
+        <v>0.404813</v>
       </c>
       <c r="C143" t="n">
-        <v>0.345409</v>
+        <v>0.422797</v>
       </c>
       <c r="D143" t="n">
-        <v>0.316076</v>
+        <v>0.320875</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered unsuccessful looukp.xlsx
+++ b/vs-x64/Scattered unsuccessful looukp.xlsx
@@ -93,7 +93,15 @@
           <idx val="3"/>
           <order val="0"/>
           <tx>
-            <v>absl::flat_hash_map</v>
+            <strRef>
+              <f>plot!$B$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>absl::flat_hash_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -553,430 +561,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0199746</v>
+                  <v>0.0177347</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0223711</v>
+                  <v>0.0188852</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0279843</v>
+                  <v>0.0234555</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0374557</v>
+                  <v>0.0338857</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0541003</v>
+                  <v>0.0472317</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0739308</v>
+                  <v>0.0575473</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0908332</v>
+                  <v>0.0891636</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.119418</v>
+                  <v>0.114971</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0160955</v>
+                  <v>0.0165384</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0165233</v>
+                  <v>0.0169788</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0170052</v>
+                  <v>0.017486</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0176545</v>
+                  <v>0.0179473</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.018734</v>
+                  <v>0.0190006</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.020118</v>
+                  <v>0.0210354</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0231423</v>
+                  <v>0.0232111</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0275752</v>
+                  <v>0.0273704</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0337269</v>
+                  <v>0.033242</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0441174</v>
+                  <v>0.0424186</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0560327</v>
+                  <v>0.0554736</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0735251</v>
+                  <v>0.0712052</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.09810720000000001</v>
+                  <v>0.095737</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.118682</v>
+                  <v>0.120816</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0168617</v>
+                  <v>0.0166553</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.017117</v>
+                  <v>0.0171951</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0179684</v>
+                  <v>0.0178482</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.018842</v>
+                  <v>0.0186904</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.020762</v>
+                  <v>0.0199208</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0229493</v>
+                  <v>0.0220798</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0261253</v>
+                  <v>0.0261723</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0299548</v>
+                  <v>0.0299174</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0351932</v>
+                  <v>0.0360282</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0437828</v>
+                  <v>0.0442657</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0554948</v>
+                  <v>0.0555848</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.07231650000000001</v>
+                  <v>0.07283770000000001</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.09074749999999999</v>
+                  <v>0.0951668</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.117374</v>
+                  <v>0.118945</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0170956</v>
+                  <v>0.0173426</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0178543</v>
+                  <v>0.0180617</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0189841</v>
+                  <v>0.018949</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0200948</v>
+                  <v>0.020392</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0217684</v>
+                  <v>0.0223588</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0244338</v>
+                  <v>0.024542</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0277674</v>
+                  <v>0.0279483</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0324631</v>
+                  <v>0.0324731</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0387566</v>
+                  <v>0.0380715</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.044976</v>
+                  <v>0.0466525</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0559175</v>
+                  <v>0.056909</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0710027</v>
+                  <v>0.0714974</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0908212</v>
+                  <v>0.0912895</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.117424</v>
+                  <v>0.117883</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.140864</v>
+                  <v>0.142422</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0189027</v>
+                  <v>0.019195</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0201008</v>
+                  <v>0.0203607</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.021583</v>
+                  <v>0.0218136</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0235148</v>
+                  <v>0.0236284</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0261005</v>
+                  <v>0.0264708</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0293833</v>
+                  <v>0.0297098</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0337692</v>
+                  <v>0.0338513</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0392899</v>
+                  <v>0.0398965</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.046662</v>
+                  <v>0.0472513</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0562823</v>
+                  <v>0.0571737</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0701638</v>
+                  <v>0.0718768</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0890341</v>
+                  <v>0.09075809999999999</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.114833</v>
+                  <v>0.116281</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.144939</v>
+                  <v>0.146073</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0197502</v>
+                  <v>0.0198702</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0210028</v>
+                  <v>0.0212214</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0227789</v>
+                  <v>0.0226574</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0246593</v>
+                  <v>0.0247929</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0270269</v>
+                  <v>0.0271637</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0302493</v>
+                  <v>0.0304312</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0342455</v>
+                  <v>0.0345894</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0395435</v>
+                  <v>0.0396103</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0466214</v>
+                  <v>0.0467754</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0559597</v>
+                  <v>0.0560361</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0685593</v>
+                  <v>0.0688766</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0867699</v>
+                  <v>0.08715820000000001</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.111201</v>
+                  <v>0.111126</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.141494</v>
+                  <v>0.142408</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0200207</v>
+                  <v>0.0204979</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0212269</v>
+                  <v>0.021371</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0226945</v>
+                  <v>0.0231017</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0246895</v>
+                  <v>0.0250312</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0274303</v>
+                  <v>0.0273671</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0301632</v>
+                  <v>0.030302</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0343383</v>
+                  <v>0.0342767</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0393209</v>
+                  <v>0.0392133</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0454285</v>
+                  <v>0.0459474</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0543419</v>
+                  <v>0.0545635</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.06590409999999999</v>
+                  <v>0.066873</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.08316999999999999</v>
+                  <v>0.08354640000000001</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.106615</v>
+                  <v>0.106964</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.136838</v>
+                  <v>0.137477</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0207148</v>
+                  <v>0.0212266</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0218231</v>
+                  <v>0.0219642</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0235618</v>
+                  <v>0.0233059</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0254205</v>
+                  <v>0.024965</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0277238</v>
+                  <v>0.027507</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0309717</v>
+                  <v>0.0303621</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.034493</v>
+                  <v>0.0349354</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0401348</v>
+                  <v>0.0402101</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0464552</v>
+                  <v>0.0463648</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0546064</v>
+                  <v>0.0548707</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.065411</v>
+                  <v>0.0654704</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.08111790000000001</v>
+                  <v>0.0815046</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.10261</v>
+                  <v>0.103387</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.131855</v>
+                  <v>0.132347</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.167859</v>
+                  <v>0.16884</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0308739</v>
+                  <v>0.031373</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.032613</v>
+                  <v>0.032779</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.034221</v>
+                  <v>0.0342392</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0360225</v>
+                  <v>0.036179</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0383657</v>
+                  <v>0.0382276</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0408546</v>
+                  <v>0.0406218</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0441552</v>
+                  <v>0.0440363</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0485179</v>
+                  <v>0.0485942</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0552273</v>
+                  <v>0.0553814</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.06492580000000001</v>
+                  <v>0.06523229999999999</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.0791367</v>
+                  <v>0.0794011</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.0999347</v>
+                  <v>0.100166</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.128094</v>
+                  <v>0.128268</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.163548</v>
+                  <v>0.163701</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0346339</v>
+                  <v>0.0346198</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.0355354</v>
+                  <v>0.0354654</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.0372352</v>
+                  <v>0.0366085</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.0385047</v>
+                  <v>0.0388945</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.0411049</v>
+                  <v>0.0409798</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.0439798</v>
+                  <v>0.0433231</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.04739</v>
+                  <v>0.0478824</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.0521658</v>
+                  <v>0.0522531</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0586895</v>
+                  <v>0.0589284</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.0680711</v>
+                  <v>0.0684761</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.0820838</v>
+                  <v>0.08256520000000001</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.101855</v>
+                  <v>0.102351</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.12951</v>
+                  <v>0.129668</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.163867</v>
+                  <v>0.164095</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0468922</v>
+                  <v>0.0467531</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.0482012</v>
+                  <v>0.0489469</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.0491648</v>
+                  <v>0.0492735</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.0527207</v>
+                  <v>0.0513704</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.0528154</v>
+                  <v>0.0529331</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.055782</v>
+                  <v>0.0552064</v>
                 </pt>
               </numCache>
             </numRef>
@@ -987,7 +995,15 @@
           <idx val="4"/>
           <order val="1"/>
           <tx>
-            <v>foa_unordered_rc16_map</v>
+            <strRef>
+              <f>plot!$C$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>ankerl::unordered_dense::map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -1447,430 +1463,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0185839</v>
+                  <v>0.0281637</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0180835</v>
+                  <v>0.0303387</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0186575</v>
+                  <v>0.0343874</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0219409</v>
+                  <v>0.0402264</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0348619</v>
+                  <v>0.0512406</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.046746</v>
+                  <v>0.0595602</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0887013</v>
+                  <v>0.0203069</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.119804</v>
+                  <v>0.0208109</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0180709</v>
+                  <v>0.0212582</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0184204</v>
+                  <v>0.0219184</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0189457</v>
+                  <v>0.0229526</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0193755</v>
+                  <v>0.0241664</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0198448</v>
+                  <v>0.0254836</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.020306</v>
+                  <v>0.0273195</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0209034</v>
+                  <v>0.0296545</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0227075</v>
+                  <v>0.0332014</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0253999</v>
+                  <v>0.0379014</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0319034</v>
+                  <v>0.0448099</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0383341</v>
+                  <v>0.0539658</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0568493</v>
+                  <v>0.06603249999999999</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0838647</v>
+                  <v>0.020671</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.131653</v>
+                  <v>0.0211785</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0187591</v>
+                  <v>0.0218233</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0191409</v>
+                  <v>0.0225927</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0197405</v>
+                  <v>0.0234831</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.020439</v>
+                  <v>0.0247358</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0212415</v>
+                  <v>0.0261932</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0219892</v>
+                  <v>0.0277728</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0234121</v>
+                  <v>0.0302705</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0264304</v>
+                  <v>0.0337553</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0302305</v>
+                  <v>0.038208</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0366198</v>
+                  <v>0.0438485</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0459437</v>
+                  <v>0.053142</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0594599</v>
+                  <v>0.06538140000000001</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0878531</v>
+                  <v>0.081438</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.129282</v>
+                  <v>0.0211673</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0198852</v>
+                  <v>0.0217646</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0203496</v>
+                  <v>0.0225445</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0210131</v>
+                  <v>0.0235978</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0216736</v>
+                  <v>0.0247356</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0228112</v>
+                  <v>0.0261785</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0240973</v>
+                  <v>0.028181</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0257658</v>
+                  <v>0.0306195</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0290975</v>
+                  <v>0.0343078</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0349767</v>
+                  <v>0.0390459</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0398391</v>
+                  <v>0.0453654</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0491529</v>
+                  <v>0.0534848</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.06340750000000001</v>
+                  <v>0.0640006</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0843724</v>
+                  <v>0.0778128</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.121267</v>
+                  <v>0.0213048</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.167097</v>
+                  <v>0.0219901</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0213247</v>
+                  <v>0.0226809</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0219345</v>
+                  <v>0.0235119</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.022889</v>
+                  <v>0.0248035</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0238477</v>
+                  <v>0.0261888</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0253224</v>
+                  <v>0.0281</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0275992</v>
+                  <v>0.0307155</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0302451</v>
+                  <v>0.0340517</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0345438</v>
+                  <v>0.039017</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0408319</v>
+                  <v>0.0450472</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0492235</v>
+                  <v>0.0537333</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.061553</v>
+                  <v>0.0640087</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0805206</v>
+                  <v>0.0761191</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.113447</v>
+                  <v>0.0215671</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.161291</v>
+                  <v>0.022204</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0217627</v>
+                  <v>0.0229249</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.022553</v>
+                  <v>0.0238263</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0235574</v>
+                  <v>0.0250022</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0246975</v>
+                  <v>0.0265029</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0260874</v>
+                  <v>0.0283501</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0279758</v>
+                  <v>0.0309632</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.030811</v>
+                  <v>0.0342816</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.034622</v>
+                  <v>0.0384953</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0402214</v>
+                  <v>0.0444329</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.047952</v>
+                  <v>0.0524612</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0592906</v>
+                  <v>0.0624264</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.07559440000000001</v>
+                  <v>0.0748988</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.103124</v>
+                  <v>0.025562</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.148399</v>
+                  <v>0.0275782</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0223391</v>
+                  <v>0.0280806</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0231769</v>
+                  <v>0.0285806</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0241129</v>
+                  <v>0.0282565</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0252673</v>
+                  <v>0.0294624</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0268372</v>
+                  <v>0.0308743</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0286828</v>
+                  <v>0.0341176</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0310672</v>
+                  <v>0.0361708</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0345672</v>
+                  <v>0.0410182</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0394295</v>
+                  <v>0.0463375</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0468561</v>
+                  <v>0.0537404</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0569589</v>
+                  <v>0.06263730000000001</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.07245</v>
+                  <v>0.0750686</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.09784569999999999</v>
+                  <v>0.09099740000000001</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.139669</v>
+                  <v>0.0543355</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0237499</v>
+                  <v>0.055378</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0249294</v>
+                  <v>0.0553167</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0266465</v>
+                  <v>0.0560005</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0293475</v>
+                  <v>0.0571877</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0325618</v>
+                  <v>0.0572869</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0359918</v>
+                  <v>0.059316</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0391962</v>
+                  <v>0.0627822</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0423199</v>
+                  <v>0.0641979</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0459227</v>
+                  <v>0.0676554</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0516739</v>
+                  <v>0.0737056</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0586182</v>
+                  <v>0.0815784</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.07141210000000001</v>
+                  <v>0.0931374</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.09303640000000001</v>
+                  <v>0.108481</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.131746</v>
+                  <v>0.0822619</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.183631</v>
+                  <v>0.082784</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0382801</v>
+                  <v>0.08355269999999999</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0392846</v>
+                  <v>0.08275150000000001</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.040221</v>
+                  <v>0.0835095</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0413197</v>
+                  <v>0.0843792</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0426685</v>
+                  <v>0.0856725</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0443478</v>
+                  <v>0.0874267</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0465075</v>
+                  <v>0.0900903</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0495102</v>
+                  <v>0.093279</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0538235</v>
+                  <v>0.09896530000000001</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.0601526</v>
+                  <v>0.106256</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.0710412</v>
+                  <v>0.117781</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.0895113</v>
+                  <v>0.133615</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.122948</v>
+                  <v>0.093722</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.172866</v>
+                  <v>0.094073</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0424721</v>
+                  <v>0.0945521</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.0434258</v>
+                  <v>0.0951642</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.044818</v>
+                  <v>0.09592340000000001</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.0458006</v>
+                  <v>0.09669759999999999</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.0473031</v>
+                  <v>0.100979</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.0493497</v>
+                  <v>0.0998585</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.0516778</v>
+                  <v>0.106291</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.0546998</v>
+                  <v>0.106045</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0591634</v>
+                  <v>0.114325</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.0653265</v>
+                  <v>0.118703</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.0752591</v>
+                  <v>0.132586</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.0919177</v>
+                  <v>0.144449</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.121142</v>
+                  <v>0.100829</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.1684</v>
+                  <v>0.101255</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0552701</v>
+                  <v>0.101684</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.0564094</v>
+                  <v>0.102426</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.0574369</v>
+                  <v>0.103294</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.0586381</v>
+                  <v>0.104327</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.0601686</v>
+                  <v>0.108111</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.0620335</v>
+                  <v>0.107678</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1881,7 +1897,15 @@
           <idx val="5"/>
           <order val="2"/>
           <tx>
-            <v>foa_unordered_rc15_map</v>
+            <strRef>
+              <f>plot!$D$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>foa_unordered_rc15_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -2341,430 +2365,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0201621</v>
+                  <v>0.0250893</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0205927</v>
+                  <v>0.026459</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0213328</v>
+                  <v>0.0281826</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0224255</v>
+                  <v>0.0301669</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0228236</v>
+                  <v>0.0330464</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0246502</v>
+                  <v>0.0400324</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0289321</v>
+                  <v>0.0515425</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0176491</v>
+                  <v>0.0219549</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0179043</v>
+                  <v>0.0220185</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0181965</v>
+                  <v>0.0223959</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0185586</v>
+                  <v>0.0226063</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0189253</v>
+                  <v>0.022828</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0192987</v>
+                  <v>0.0232419</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0198485</v>
+                  <v>0.0238637</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0203825</v>
+                  <v>0.0243176</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0208815</v>
+                  <v>0.0252184</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0220019</v>
+                  <v>0.0262676</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.022769</v>
+                  <v>0.0283896</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0243123</v>
+                  <v>0.0314271</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0273683</v>
+                  <v>0.0373705</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0323586</v>
+                  <v>0.0483472</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.017563</v>
+                  <v>0.0216108</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0179077</v>
+                  <v>0.0218212</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0181191</v>
+                  <v>0.0221418</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0185128</v>
+                  <v>0.0223588</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0188997</v>
+                  <v>0.0227307</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0193475</v>
+                  <v>0.0232391</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0197701</v>
+                  <v>0.0238749</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0202878</v>
+                  <v>0.0245752</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0211156</v>
+                  <v>0.0255408</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0221556</v>
+                  <v>0.026853</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0232419</v>
+                  <v>0.0288755</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0249746</v>
+                  <v>0.0325576</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0282488</v>
+                  <v>0.0370074</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0352729</v>
+                  <v>0.0451778</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.017949</v>
+                  <v>0.0225246</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0182123</v>
+                  <v>0.022845</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0184241</v>
+                  <v>0.0231005</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0187582</v>
+                  <v>0.0234427</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0191191</v>
+                  <v>0.0238108</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0195615</v>
+                  <v>0.0242156</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0201191</v>
+                  <v>0.0247109</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0206961</v>
+                  <v>0.0253455</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0215587</v>
+                  <v>0.0263488</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0226734</v>
+                  <v>0.0275133</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0242101</v>
+                  <v>0.0294802</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0265092</v>
+                  <v>0.0325566</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0299203</v>
+                  <v>0.0372371</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0362318</v>
+                  <v>0.0445091</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.018616</v>
+                  <v>0.0233299</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0188728</v>
+                  <v>0.0235644</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0191354</v>
+                  <v>0.0237683</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0194676</v>
+                  <v>0.0240722</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0198285</v>
+                  <v>0.0244168</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0202084</v>
+                  <v>0.0249086</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0207233</v>
+                  <v>0.0254511</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0213995</v>
+                  <v>0.0261448</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0222513</v>
+                  <v>0.027135</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.023328</v>
+                  <v>0.0284505</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0249404</v>
+                  <v>0.0303024</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.027529</v>
+                  <v>0.0330686</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0313116</v>
+                  <v>0.0376382</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0376983</v>
+                  <v>0.0447934</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0489477</v>
+                  <v>0.057162</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.019011</v>
+                  <v>0.024014</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0193203</v>
+                  <v>0.0243849</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0197232</v>
+                  <v>0.02468</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0201442</v>
+                  <v>0.0250072</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0205764</v>
+                  <v>0.02551</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0210852</v>
+                  <v>0.0259831</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0217122</v>
+                  <v>0.0267313</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.022629</v>
+                  <v>0.0276698</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0237333</v>
+                  <v>0.0288476</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0254197</v>
+                  <v>0.0307247</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0277608</v>
+                  <v>0.0333151</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0313383</v>
+                  <v>0.0375379</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.037026</v>
+                  <v>0.043859</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0465119</v>
+                  <v>0.0545188</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0192382</v>
+                  <v>0.0242604</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0195643</v>
+                  <v>0.0245599</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0199296</v>
+                  <v>0.0248882</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0204282</v>
+                  <v>0.025275</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0208927</v>
+                  <v>0.0257971</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.021538</v>
+                  <v>0.02637</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0222851</v>
+                  <v>0.027152</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0232149</v>
+                  <v>0.0281046</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0244507</v>
+                  <v>0.0295407</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0259784</v>
+                  <v>0.0311837</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0282943</v>
+                  <v>0.0336176</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0314579</v>
+                  <v>0.0371264</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0365879</v>
+                  <v>0.0426593</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0450952</v>
+                  <v>0.0519684</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0208871</v>
+                  <v>0.0258587</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0214555</v>
+                  <v>0.0264334</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0220137</v>
+                  <v>0.0269028</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0225922</v>
+                  <v>0.0275923</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0232915</v>
+                  <v>0.0285702</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0246113</v>
+                  <v>0.0300087</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0266287</v>
+                  <v>0.0323097</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0293725</v>
+                  <v>0.0365878</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0323838</v>
+                  <v>0.0391818</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0353862</v>
+                  <v>0.0416919</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0384466</v>
+                  <v>0.0450736</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0416202</v>
+                  <v>0.0484289</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0456443</v>
+                  <v>0.0531234</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0519131</v>
+                  <v>0.059985</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0324166</v>
+                  <v>0.0387026</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0334394</v>
+                  <v>0.039979</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0342435</v>
+                  <v>0.0407366</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0350556</v>
+                  <v>0.0414101</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.0358717</v>
+                  <v>0.0421872</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0366873</v>
+                  <v>0.0431039</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0376708</v>
+                  <v>0.0440965</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0386302</v>
+                  <v>0.0454494</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0398146</v>
+                  <v>0.046805</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0412212</v>
+                  <v>0.0482005</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0429427</v>
+                  <v>0.0502533</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.0455556</v>
+                  <v>0.0531382</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.0491536</v>
+                  <v>0.0571138</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.054736</v>
+                  <v>0.0631661</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.0644487</v>
+                  <v>0.0734669</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.0379716</v>
+                  <v>0.045661</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0387374</v>
+                  <v>0.0461072</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.039425</v>
+                  <v>0.047175</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.0400483</v>
+                  <v>0.0476817</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.0410584</v>
+                  <v>0.0488919</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.0419449</v>
+                  <v>0.0497329</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.0429313</v>
+                  <v>0.0514961</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.0441977</v>
+                  <v>0.0522748</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.0457638</v>
+                  <v>0.0539706</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0475294</v>
+                  <v>0.0561519</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.0500786</v>
+                  <v>0.0589165</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.0536186</v>
+                  <v>0.0627973</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.0591599</v>
+                  <v>0.06854</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.0689019</v>
+                  <v>0.0781154</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.0534654</v>
+                  <v>0.0641977</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0539555</v>
+                  <v>0.0653511</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.0548494</v>
+                  <v>0.0658188</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.0553747</v>
+                  <v>0.0669466</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.0561235</v>
+                  <v>0.0672373</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.0611306</v>
+                  <v>0.0686155</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.0579442</v>
+                  <v>0.0692349</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3216,14 +3240,14 @@
   </sheetPr>
   <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="5" min="1" style="1" width="11.42578125"/>
-    <col customWidth="1" max="16384" min="6" style="1" width="11.42578125"/>
+    <col customWidth="1" max="6" min="1" style="1" width="11.42578125"/>
+    <col customWidth="1" max="16384" min="7" style="1" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3234,7 +3258,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc16_map</t>
+          <t>ankerl::unordered_dense::map</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">

--- a/vs-x64/Scattered unsuccessful looukp.xlsx
+++ b/vs-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0412964</v>
+        <v>0.042198</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0409744</v>
+        <v>0.037359</v>
       </c>
       <c r="D2" t="n">
-        <v>0.035451</v>
+        <v>0.0350557</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0435791</v>
+        <v>0.0433413</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0438917</v>
+        <v>0.0393513</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0383512</v>
+        <v>0.0373403</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0465893</v>
+        <v>0.0467682</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0500454</v>
+        <v>0.0438683</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0444852</v>
+        <v>0.0433426</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0502356</v>
+        <v>0.0505632</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0550649</v>
+        <v>0.0513039</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0514843</v>
+        <v>0.0502083</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0572138</v>
+        <v>0.0605906</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06462039999999999</v>
+        <v>0.0613794</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0546115</v>
+        <v>0.0570659</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.06817289999999999</v>
+        <v>0.073257</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08026469999999999</v>
+        <v>0.0763607</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0706248</v>
+        <v>0.0685485</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0905136</v>
+        <v>0.0939021</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0999992</v>
+        <v>0.0927867</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0836899</v>
+        <v>0.0908535</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.12272</v>
+        <v>0.120277</v>
       </c>
       <c r="C9" t="n">
-        <v>0.135165</v>
+        <v>0.127088</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0319317</v>
+        <v>0.0290271</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0387136</v>
+        <v>0.0404655</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0348245</v>
+        <v>0.0334045</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0326672</v>
+        <v>0.0301412</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0394536</v>
+        <v>0.0398292</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0355092</v>
+        <v>0.0353798</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0331486</v>
+        <v>0.0308799</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0421343</v>
+        <v>0.0407037</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0368343</v>
+        <v>0.0353223</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0332414</v>
+        <v>0.0308196</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0420774</v>
+        <v>0.0420485</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0384881</v>
+        <v>0.0357157</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0334307</v>
+        <v>0.031592</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0421286</v>
+        <v>0.0418844</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0396113</v>
+        <v>0.0367037</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0349085</v>
+        <v>0.0337345</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0427863</v>
+        <v>0.0432771</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0406089</v>
+        <v>0.0387653</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0381181</v>
+        <v>0.0337561</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0452552</v>
+        <v>0.0446104</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0446619</v>
+        <v>0.0410327</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0399544</v>
+        <v>0.037952</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0457687</v>
+        <v>0.0470314</v>
       </c>
       <c r="C17" t="n">
-        <v>0.046201</v>
+        <v>0.0429839</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0403501</v>
+        <v>0.0384065</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0495031</v>
+        <v>0.0516066</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0534393</v>
+        <v>0.0490081</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0466774</v>
+        <v>0.0433322</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0557274</v>
+        <v>0.0597048</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0577451</v>
+        <v>0.0538421</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0500036</v>
+        <v>0.0475929</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0630421</v>
+        <v>0.0638288</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0653191</v>
+        <v>0.0618288</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0563666</v>
+        <v>0.0570296</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0739037</v>
+        <v>0.0801216</v>
       </c>
       <c r="C21" t="n">
-        <v>0.08027819999999999</v>
+        <v>0.0756114</v>
       </c>
       <c r="D21" t="n">
-        <v>0.06766179999999999</v>
+        <v>0.06975339999999999</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0923224</v>
+        <v>0.0944788</v>
       </c>
       <c r="C22" t="n">
-        <v>0.102995</v>
+        <v>0.0951253</v>
       </c>
       <c r="D22" t="n">
-        <v>0.08908099999999999</v>
+        <v>0.0856678</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.119326</v>
+        <v>0.122943</v>
       </c>
       <c r="C23" t="n">
-        <v>0.135625</v>
+        <v>0.12625</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0326509</v>
+        <v>0.0303014</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0436154</v>
+        <v>0.0422611</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0368581</v>
+        <v>0.036035</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0338108</v>
+        <v>0.0307568</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.043839</v>
+        <v>0.0420285</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0375345</v>
+        <v>0.0364018</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0341353</v>
+        <v>0.0308575</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0439088</v>
+        <v>0.0436239</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0396756</v>
+        <v>0.0369038</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0351849</v>
+        <v>0.032215</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0447362</v>
+        <v>0.0442336</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0406408</v>
+        <v>0.0374535</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0358761</v>
+        <v>0.0331009</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0457624</v>
+        <v>0.0437942</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0429102</v>
+        <v>0.0393117</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0366058</v>
+        <v>0.0346058</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0466124</v>
+        <v>0.0467812</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0435963</v>
+        <v>0.0395049</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0375361</v>
+        <v>0.0352245</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.050609</v>
+        <v>0.0471256</v>
       </c>
       <c r="C30" t="n">
-        <v>0.045318</v>
+        <v>0.0428719</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0401308</v>
+        <v>0.0374438</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0494635</v>
+        <v>0.0520202</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0474867</v>
+        <v>0.0449827</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0412015</v>
+        <v>0.0405752</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0538206</v>
+        <v>0.0528134</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0527179</v>
+        <v>0.052734</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0459598</v>
+        <v>0.0453736</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0577053</v>
+        <v>0.0586213</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0569058</v>
+        <v>0.0543022</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0504629</v>
+        <v>0.050032</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.06797010000000001</v>
+        <v>0.0645838</v>
       </c>
       <c r="C34" t="n">
-        <v>0.06670329999999999</v>
+        <v>0.06267250000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>0.057715</v>
+        <v>0.0570174</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0789537</v>
+        <v>0.07492070000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0782234</v>
+        <v>0.07502540000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0691822</v>
+        <v>0.0674139</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0921241</v>
+        <v>0.0900842</v>
       </c>
       <c r="C36" t="n">
-        <v>0.09810339999999999</v>
+        <v>0.0993221</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0870167</v>
+        <v>0.0888862</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.122033</v>
+        <v>0.117977</v>
       </c>
       <c r="C37" t="n">
-        <v>0.131574</v>
+        <v>0.124986</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0348304</v>
+        <v>0.0344662</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0472479</v>
+        <v>0.0469867</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0414922</v>
+        <v>0.0389876</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0353896</v>
+        <v>0.0329284</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0481714</v>
+        <v>0.0458835</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0418729</v>
+        <v>0.0424679</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0379298</v>
+        <v>0.0335196</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0478921</v>
+        <v>0.0489949</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0422378</v>
+        <v>0.0409645</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0361678</v>
+        <v>0.0345841</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0501631</v>
+        <v>0.0490204</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0435765</v>
+        <v>0.0431932</v>
       </c>
       <c r="D41" t="n">
-        <v>0.038615</v>
+        <v>0.036582</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0499441</v>
+        <v>0.0498077</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0450469</v>
+        <v>0.0431194</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0389455</v>
+        <v>0.0372806</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0509223</v>
+        <v>0.0504786</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0465022</v>
+        <v>0.0458646</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0404867</v>
+        <v>0.0382433</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0536616</v>
+        <v>0.0532401</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0480512</v>
+        <v>0.0464438</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0421017</v>
+        <v>0.0394809</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0546545</v>
+        <v>0.0555286</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0521034</v>
+        <v>0.0496902</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0448793</v>
+        <v>0.044327</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.060906</v>
+        <v>0.0592009</v>
       </c>
       <c r="C46" t="n">
-        <v>0.056736</v>
+        <v>0.0537162</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0491689</v>
+        <v>0.0479618</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0614776</v>
+        <v>0.0619084</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0615551</v>
+        <v>0.0588524</v>
       </c>
       <c r="D47" t="n">
-        <v>0.053247</v>
+        <v>0.0522196</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.06614630000000001</v>
+        <v>0.0694726</v>
       </c>
       <c r="C48" t="n">
-        <v>0.070288</v>
+        <v>0.0651997</v>
       </c>
       <c r="D48" t="n">
-        <v>0.059552</v>
+        <v>0.0588218</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0780246</v>
+        <v>0.0774755</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0811426</v>
+        <v>0.0763419</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0713521</v>
+        <v>0.07208009999999999</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0945677</v>
+        <v>0.0929203</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0976476</v>
+        <v>0.0940551</v>
       </c>
       <c r="D50" t="n">
-        <v>0.08714239999999999</v>
+        <v>0.0853399</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.116504</v>
+        <v>0.121489</v>
       </c>
       <c r="C51" t="n">
-        <v>0.126</v>
+        <v>0.123506</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0422658</v>
+        <v>0.0387646</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.15424</v>
+        <v>0.152501</v>
       </c>
       <c r="C52" t="n">
-        <v>0.165579</v>
+        <v>0.156716</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0429227</v>
+        <v>0.0391239</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0582893</v>
+        <v>0.0560365</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0496967</v>
+        <v>0.048963</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0430702</v>
+        <v>0.0391203</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0601902</v>
+        <v>0.0570504</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0524276</v>
+        <v>0.0508978</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0429934</v>
+        <v>0.0411318</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0619907</v>
+        <v>0.0603142</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0530377</v>
+        <v>0.0515138</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0436533</v>
+        <v>0.0423659</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0618869</v>
+        <v>0.0596589</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0557684</v>
+        <v>0.0538812</v>
       </c>
       <c r="D56" t="n">
-        <v>0.046926</v>
+        <v>0.0427693</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0634743</v>
+        <v>0.0638379</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0558009</v>
+        <v>0.0563317</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0463697</v>
+        <v>0.0438687</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.06368360000000001</v>
+        <v>0.063418</v>
       </c>
       <c r="C58" t="n">
-        <v>0.058685</v>
+        <v>0.0572653</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0482207</v>
+        <v>0.0474016</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.06609</v>
+        <v>0.0666703</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0594845</v>
+        <v>0.0608172</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0502091</v>
+        <v>0.0497462</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0678734</v>
+        <v>0.0701358</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0664377</v>
+        <v>0.0645975</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0535776</v>
+        <v>0.0528107</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0720614</v>
+        <v>0.07481690000000001</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0690238</v>
+        <v>0.06917470000000001</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0607758</v>
+        <v>0.0571925</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.080063</v>
+        <v>0.0781613</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0788069</v>
+        <v>0.0776251</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0648643</v>
+        <v>0.0628577</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0889741</v>
+        <v>0.0870017</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0896241</v>
+        <v>0.08840870000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>0.07469720000000001</v>
+        <v>0.0729947</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.105515</v>
+        <v>0.102144</v>
       </c>
       <c r="C64" t="n">
-        <v>0.107785</v>
+        <v>0.102629</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0884418</v>
+        <v>0.08652120000000001</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.126326</v>
+        <v>0.12294</v>
       </c>
       <c r="C65" t="n">
-        <v>0.132951</v>
+        <v>0.12875</v>
       </c>
       <c r="D65" t="n">
-        <v>0.111269</v>
+        <v>0.110351</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.159734</v>
+        <v>0.164597</v>
       </c>
       <c r="C66" t="n">
-        <v>0.176885</v>
+        <v>0.171032</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0490612</v>
+        <v>0.0450769</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0667953</v>
+        <v>0.0661414</v>
       </c>
       <c r="C67" t="n">
-        <v>0.057302</v>
+        <v>0.0604852</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0497828</v>
+        <v>0.0455158</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.067846</v>
+        <v>0.0662522</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0624915</v>
+        <v>0.0609303</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0503225</v>
+        <v>0.0454183</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0705776</v>
+        <v>0.0701948</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0645811</v>
+        <v>0.06209</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0492505</v>
+        <v>0.0466302</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.06890309999999999</v>
+        <v>0.0709164</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0663103</v>
+        <v>0.063692</v>
       </c>
       <c r="D70" t="n">
-        <v>0.050683</v>
+        <v>0.0479115</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.07203900000000001</v>
+        <v>0.071718</v>
       </c>
       <c r="C71" t="n">
-        <v>0.068241</v>
+        <v>0.066575</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0526685</v>
+        <v>0.049557</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0738357</v>
+        <v>0.0742486</v>
       </c>
       <c r="C72" t="n">
-        <v>0.07164810000000001</v>
+        <v>0.067853</v>
       </c>
       <c r="D72" t="n">
-        <v>0.057409</v>
+        <v>0.0516252</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0782214</v>
+        <v>0.07741149999999999</v>
       </c>
       <c r="C73" t="n">
-        <v>0.07494869999999999</v>
+        <v>0.0751798</v>
       </c>
       <c r="D73" t="n">
-        <v>0.058082</v>
+        <v>0.0552854</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0811568</v>
+        <v>0.08294840000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0767258</v>
+        <v>0.0798841</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0633968</v>
+        <v>0.0587807</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0893201</v>
+        <v>0.091573</v>
       </c>
       <c r="C75" t="n">
-        <v>0.08366170000000001</v>
+        <v>0.08570410000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0681031</v>
+        <v>0.0657819</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.09520480000000001</v>
+        <v>0.0949652</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0922616</v>
+        <v>0.0895788</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0770178</v>
+        <v>0.0709386</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.104732</v>
+        <v>0.104351</v>
       </c>
       <c r="C77" t="n">
-        <v>0.103741</v>
+        <v>0.0991219</v>
       </c>
       <c r="D77" t="n">
-        <v>0.08334850000000001</v>
+        <v>0.0828537</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.119477</v>
+        <v>0.114063</v>
       </c>
       <c r="C78" t="n">
-        <v>0.122958</v>
+        <v>0.116409</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0963035</v>
+        <v>0.09462189999999999</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.137617</v>
+        <v>0.144728</v>
       </c>
       <c r="C79" t="n">
-        <v>0.143605</v>
+        <v>0.142764</v>
       </c>
       <c r="D79" t="n">
-        <v>0.119872</v>
+        <v>0.11701</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.176092</v>
+        <v>0.179297</v>
       </c>
       <c r="C80" t="n">
-        <v>0.190534</v>
+        <v>0.183991</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0572031</v>
+        <v>0.0542349</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0814551</v>
+        <v>0.0796544</v>
       </c>
       <c r="C81" t="n">
-        <v>0.07189769999999999</v>
+        <v>0.0722015</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0595338</v>
+        <v>0.0545348</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0874192</v>
+        <v>0.0837666</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0737449</v>
+        <v>0.0726803</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0605917</v>
+        <v>0.0570933</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0835471</v>
+        <v>0.08569930000000001</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0766753</v>
+        <v>0.07643129999999999</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0588984</v>
+        <v>0.0600004</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0879437</v>
+        <v>0.08758870000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0819786</v>
+        <v>0.084767</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0619251</v>
+        <v>0.0616092</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.09154089999999999</v>
+        <v>0.089048</v>
       </c>
       <c r="C85" t="n">
-        <v>0.08374959999999999</v>
+        <v>0.0814135</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0636504</v>
+        <v>0.0604401</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0947157</v>
+        <v>0.0939459</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0872127</v>
+        <v>0.0826171</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0645061</v>
+        <v>0.0600731</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0967871</v>
+        <v>0.0910512</v>
       </c>
       <c r="C87" t="n">
-        <v>0.08977980000000001</v>
+        <v>0.0854014</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0692178</v>
+        <v>0.0666288</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.101866</v>
+        <v>0.105183</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0961897</v>
+        <v>0.09572369999999999</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0737009</v>
+        <v>0.0692565</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.105359</v>
+        <v>0.10634</v>
       </c>
       <c r="C89" t="n">
-        <v>0.103072</v>
+        <v>0.103638</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0812967</v>
+        <v>0.0743414</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.112745</v>
+        <v>0.117926</v>
       </c>
       <c r="C90" t="n">
-        <v>0.110512</v>
+        <v>0.110548</v>
       </c>
       <c r="D90" t="n">
-        <v>0.08470800000000001</v>
+        <v>0.08377610000000001</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.125405</v>
+        <v>0.127861</v>
       </c>
       <c r="C91" t="n">
-        <v>0.124775</v>
+        <v>0.123269</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0949373</v>
+        <v>0.0947717</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.139118</v>
+        <v>0.140006</v>
       </c>
       <c r="C92" t="n">
-        <v>0.141676</v>
+        <v>0.138705</v>
       </c>
       <c r="D92" t="n">
-        <v>0.109821</v>
+        <v>0.108142</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.162819</v>
+        <v>0.159568</v>
       </c>
       <c r="C93" t="n">
-        <v>0.166942</v>
+        <v>0.16482</v>
       </c>
       <c r="D93" t="n">
-        <v>0.126606</v>
+        <v>0.129033</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.193607</v>
+        <v>0.189171</v>
       </c>
       <c r="C94" t="n">
-        <v>0.205594</v>
+        <v>0.202946</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0761421</v>
+        <v>0.0740054</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.110426</v>
+        <v>0.107484</v>
       </c>
       <c r="C95" t="n">
-        <v>0.100982</v>
+        <v>0.0976417</v>
       </c>
       <c r="D95" t="n">
-        <v>0.07985879999999999</v>
+        <v>0.0748061</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.113589</v>
+        <v>0.109447</v>
       </c>
       <c r="C96" t="n">
-        <v>0.10259</v>
+        <v>0.09880510000000001</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0798942</v>
+        <v>0.07479239999999999</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.111387</v>
+        <v>0.115106</v>
       </c>
       <c r="C97" t="n">
-        <v>0.102768</v>
+        <v>0.103552</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0796673</v>
+        <v>0.07660989999999999</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.117018</v>
+        <v>0.114264</v>
       </c>
       <c r="C98" t="n">
-        <v>0.106596</v>
+        <v>0.105148</v>
       </c>
       <c r="D98" t="n">
-        <v>0.08108369999999999</v>
+        <v>0.0783668</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.125997</v>
+        <v>0.121435</v>
       </c>
       <c r="C99" t="n">
-        <v>0.109073</v>
+        <v>0.112039</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0860822</v>
+        <v>0.0835385</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.12553</v>
+        <v>0.12503</v>
       </c>
       <c r="C100" t="n">
-        <v>0.119392</v>
+        <v>0.112498</v>
       </c>
       <c r="D100" t="n">
-        <v>0.08581519999999999</v>
+        <v>0.08653669999999999</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.124765</v>
+        <v>0.128194</v>
       </c>
       <c r="C101" t="n">
-        <v>0.118144</v>
+        <v>0.117172</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0920702</v>
+        <v>0.0930742</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.13666</v>
+        <v>0.132553</v>
       </c>
       <c r="C102" t="n">
-        <v>0.12289</v>
+        <v>0.126001</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0955743</v>
+        <v>0.0898887</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.135141</v>
+        <v>0.140302</v>
       </c>
       <c r="C103" t="n">
-        <v>0.131928</v>
+        <v>0.135298</v>
       </c>
       <c r="D103" t="n">
-        <v>0.09922980000000001</v>
+        <v>0.103303</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.143714</v>
+        <v>0.143852</v>
       </c>
       <c r="C104" t="n">
-        <v>0.139754</v>
+        <v>0.137843</v>
       </c>
       <c r="D104" t="n">
-        <v>0.106889</v>
+        <v>0.108072</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.156376</v>
+        <v>0.162086</v>
       </c>
       <c r="C105" t="n">
-        <v>0.149933</v>
+        <v>0.157766</v>
       </c>
       <c r="D105" t="n">
-        <v>0.115001</v>
+        <v>0.110334</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.165562</v>
+        <v>0.17014</v>
       </c>
       <c r="C106" t="n">
-        <v>0.181428</v>
+        <v>0.17161</v>
       </c>
       <c r="D106" t="n">
-        <v>0.128437</v>
+        <v>0.12876</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.184507</v>
+        <v>0.194178</v>
       </c>
       <c r="C107" t="n">
-        <v>0.193174</v>
+        <v>0.192319</v>
       </c>
       <c r="D107" t="n">
-        <v>0.147942</v>
+        <v>0.140735</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.218501</v>
+        <v>0.214122</v>
       </c>
       <c r="C108" t="n">
-        <v>0.231059</v>
+        <v>0.224205</v>
       </c>
       <c r="D108" t="n">
-        <v>0.15499</v>
+        <v>0.159257</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.27381</v>
+        <v>0.285418</v>
       </c>
       <c r="C109" t="n">
-        <v>0.300769</v>
+        <v>0.309759</v>
       </c>
       <c r="D109" t="n">
-        <v>0.158371</v>
+        <v>0.157623</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.20124</v>
+        <v>0.206459</v>
       </c>
       <c r="C110" t="n">
-        <v>0.180079</v>
+        <v>0.184216</v>
       </c>
       <c r="D110" t="n">
-        <v>0.1626</v>
+        <v>0.163806</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.197708</v>
+        <v>0.201594</v>
       </c>
       <c r="C111" t="n">
-        <v>0.180554</v>
+        <v>0.179198</v>
       </c>
       <c r="D111" t="n">
-        <v>0.161168</v>
+        <v>0.158477</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.201421</v>
+        <v>0.20027</v>
       </c>
       <c r="C112" t="n">
-        <v>0.183243</v>
+        <v>0.196859</v>
       </c>
       <c r="D112" t="n">
-        <v>0.162974</v>
+        <v>0.165625</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.222319</v>
+        <v>0.209477</v>
       </c>
       <c r="C113" t="n">
-        <v>0.184916</v>
+        <v>0.184481</v>
       </c>
       <c r="D113" t="n">
-        <v>0.16857</v>
+        <v>0.155886</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.208547</v>
+        <v>0.213256</v>
       </c>
       <c r="C114" t="n">
-        <v>0.194417</v>
+        <v>0.187744</v>
       </c>
       <c r="D114" t="n">
-        <v>0.166116</v>
+        <v>0.174442</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.211484</v>
+        <v>0.210063</v>
       </c>
       <c r="C115" t="n">
-        <v>0.19657</v>
+        <v>0.20483</v>
       </c>
       <c r="D115" t="n">
-        <v>0.170216</v>
+        <v>0.16754</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.211557</v>
+        <v>0.222396</v>
       </c>
       <c r="C116" t="n">
-        <v>0.202374</v>
+        <v>0.205194</v>
       </c>
       <c r="D116" t="n">
-        <v>0.171618</v>
+        <v>0.180785</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.222721</v>
+        <v>0.215591</v>
       </c>
       <c r="C117" t="n">
-        <v>0.209935</v>
+        <v>0.218774</v>
       </c>
       <c r="D117" t="n">
-        <v>0.183087</v>
+        <v>0.174047</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.233224</v>
+        <v>0.226219</v>
       </c>
       <c r="C118" t="n">
-        <v>0.217764</v>
+        <v>0.22844</v>
       </c>
       <c r="D118" t="n">
-        <v>0.183715</v>
+        <v>0.177268</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.260588</v>
+        <v>0.234901</v>
       </c>
       <c r="C119" t="n">
-        <v>0.228446</v>
+        <v>0.224885</v>
       </c>
       <c r="D119" t="n">
-        <v>0.192278</v>
+        <v>0.187416</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.254869</v>
+        <v>0.256735</v>
       </c>
       <c r="C120" t="n">
-        <v>0.247252</v>
+        <v>0.245637</v>
       </c>
       <c r="D120" t="n">
-        <v>0.204824</v>
+        <v>0.202995</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.286271</v>
+        <v>0.294389</v>
       </c>
       <c r="C121" t="n">
-        <v>0.272669</v>
+        <v>0.269232</v>
       </c>
       <c r="D121" t="n">
-        <v>0.223022</v>
+        <v>0.233799</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.315497</v>
+        <v>0.304333</v>
       </c>
       <c r="C122" t="n">
-        <v>0.308424</v>
+        <v>0.301495</v>
       </c>
       <c r="D122" t="n">
-        <v>0.259892</v>
+        <v>0.243356</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.373282</v>
+        <v>0.361722</v>
       </c>
       <c r="C123" t="n">
-        <v>0.37747</v>
+        <v>0.361502</v>
       </c>
       <c r="D123" t="n">
-        <v>0.244619</v>
+        <v>0.237923</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.301968</v>
+        <v>0.305163</v>
       </c>
       <c r="C124" t="n">
-        <v>0.273702</v>
+        <v>0.25773</v>
       </c>
       <c r="D124" t="n">
-        <v>0.243679</v>
+        <v>0.245822</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.317416</v>
+        <v>0.312174</v>
       </c>
       <c r="C125" t="n">
-        <v>0.278986</v>
+        <v>0.278789</v>
       </c>
       <c r="D125" t="n">
-        <v>0.246444</v>
+        <v>0.237077</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.315646</v>
+        <v>0.318613</v>
       </c>
       <c r="C126" t="n">
-        <v>0.283841</v>
+        <v>0.280485</v>
       </c>
       <c r="D126" t="n">
-        <v>0.253079</v>
+        <v>0.246403</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.316948</v>
+        <v>0.319836</v>
       </c>
       <c r="C127" t="n">
-        <v>0.27669</v>
+        <v>0.273495</v>
       </c>
       <c r="D127" t="n">
-        <v>0.258571</v>
+        <v>0.246631</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.326654</v>
+        <v>0.322091</v>
       </c>
       <c r="C128" t="n">
-        <v>0.282094</v>
+        <v>0.2884</v>
       </c>
       <c r="D128" t="n">
-        <v>0.251502</v>
+        <v>0.244186</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.337808</v>
+        <v>0.332612</v>
       </c>
       <c r="C129" t="n">
-        <v>0.287419</v>
+        <v>0.289934</v>
       </c>
       <c r="D129" t="n">
-        <v>0.259813</v>
+        <v>0.259009</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.339562</v>
+        <v>0.340485</v>
       </c>
       <c r="C130" t="n">
-        <v>0.30197</v>
+        <v>0.295181</v>
       </c>
       <c r="D130" t="n">
-        <v>0.263335</v>
+        <v>0.25487</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.338968</v>
+        <v>0.341462</v>
       </c>
       <c r="C131" t="n">
-        <v>0.308103</v>
+        <v>0.292318</v>
       </c>
       <c r="D131" t="n">
-        <v>0.26621</v>
+        <v>0.264959</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.358065</v>
+        <v>0.345921</v>
       </c>
       <c r="C132" t="n">
-        <v>0.317817</v>
+        <v>0.315941</v>
       </c>
       <c r="D132" t="n">
-        <v>0.283234</v>
+        <v>0.256643</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.362023</v>
+        <v>0.367026</v>
       </c>
       <c r="C133" t="n">
-        <v>0.337887</v>
+        <v>0.334195</v>
       </c>
       <c r="D133" t="n">
-        <v>0.292193</v>
+        <v>0.265764</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.382073</v>
+        <v>0.375112</v>
       </c>
       <c r="C134" t="n">
-        <v>0.346195</v>
+        <v>0.337036</v>
       </c>
       <c r="D134" t="n">
-        <v>0.300662</v>
+        <v>0.287066</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.416748</v>
+        <v>0.410018</v>
       </c>
       <c r="C135" t="n">
-        <v>0.387109</v>
+        <v>0.38227</v>
       </c>
       <c r="D135" t="n">
-        <v>0.324432</v>
+        <v>0.32171</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.452641</v>
+        <v>0.446866</v>
       </c>
       <c r="C136" t="n">
-        <v>0.427598</v>
+        <v>0.409123</v>
       </c>
       <c r="D136" t="n">
-        <v>0.361443</v>
+        <v>0.34006</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.535918</v>
+        <v>0.512025</v>
       </c>
       <c r="C137" t="n">
-        <v>0.510718</v>
+        <v>0.516745</v>
       </c>
       <c r="D137" t="n">
-        <v>0.293058</v>
+        <v>0.295229</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.379923</v>
+        <v>0.371695</v>
       </c>
       <c r="C138" t="n">
-        <v>0.3325</v>
+        <v>0.327012</v>
       </c>
       <c r="D138" t="n">
-        <v>0.297357</v>
+        <v>0.286662</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.386703</v>
+        <v>0.370108</v>
       </c>
       <c r="C139" t="n">
-        <v>0.334378</v>
+        <v>0.322584</v>
       </c>
       <c r="D139" t="n">
-        <v>0.297041</v>
+        <v>0.293734</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.380869</v>
+        <v>0.390057</v>
       </c>
       <c r="C140" t="n">
-        <v>0.336405</v>
+        <v>0.333321</v>
       </c>
       <c r="D140" t="n">
-        <v>0.311273</v>
+        <v>0.295732</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.389178</v>
+        <v>0.371025</v>
       </c>
       <c r="C141" t="n">
-        <v>0.344682</v>
+        <v>0.332473</v>
       </c>
       <c r="D141" t="n">
-        <v>0.314121</v>
+        <v>0.293707</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.403013</v>
+        <v>0.389055</v>
       </c>
       <c r="C142" t="n">
-        <v>0.344418</v>
+        <v>0.33065</v>
       </c>
       <c r="D142" t="n">
-        <v>0.31645</v>
+        <v>0.307279</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.403923</v>
+        <v>0.383328</v>
       </c>
       <c r="C143" t="n">
-        <v>0.345409</v>
+        <v>0.35192</v>
       </c>
       <c r="D143" t="n">
-        <v>0.316076</v>
+        <v>0.305969</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered unsuccessful looukp.xlsx
+++ b/vs-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.042198</v>
+        <v>0.0427852</v>
       </c>
       <c r="C2" t="n">
-        <v>0.037359</v>
+        <v>0.0377005</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0350557</v>
+        <v>0.0358695</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0433413</v>
+        <v>0.0440421</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0393513</v>
+        <v>0.0406411</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0373403</v>
+        <v>0.0384124</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0467682</v>
+        <v>0.047011</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0438683</v>
+        <v>0.0448181</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0433426</v>
+        <v>0.0418328</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0505632</v>
+        <v>0.0518515</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0513039</v>
+        <v>0.0529188</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0502083</v>
+        <v>0.049727</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0605906</v>
+        <v>0.0587775</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0613794</v>
+        <v>0.06340320000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0570659</v>
+        <v>0.0603865</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.073257</v>
+        <v>0.0711623</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0763607</v>
+        <v>0.0753569</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0685485</v>
+        <v>0.069354</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0939021</v>
+        <v>0.097307</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0927867</v>
+        <v>0.0935592</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0908535</v>
+        <v>0.0856415</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.120277</v>
+        <v>0.122782</v>
       </c>
       <c r="C9" t="n">
-        <v>0.127088</v>
+        <v>0.127429</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0290271</v>
+        <v>0.0297469</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0404655</v>
+        <v>0.0396814</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0334045</v>
+        <v>0.0339935</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0301412</v>
+        <v>0.0296204</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0398292</v>
+        <v>0.0401885</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0353798</v>
+        <v>0.0349672</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0308799</v>
+        <v>0.0299417</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0407037</v>
+        <v>0.0405455</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0353223</v>
+        <v>0.0350602</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0308196</v>
+        <v>0.0321243</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0420485</v>
+        <v>0.0424448</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0357157</v>
+        <v>0.0373579</v>
       </c>
       <c r="D13" t="n">
-        <v>0.031592</v>
+        <v>0.0320594</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0418844</v>
+        <v>0.0425711</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0367037</v>
+        <v>0.0369945</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0337345</v>
+        <v>0.0325329</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0432771</v>
+        <v>0.0441456</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0387653</v>
+        <v>0.038846</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0337561</v>
+        <v>0.0339199</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0446104</v>
+        <v>0.044972</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0410327</v>
+        <v>0.0413617</v>
       </c>
       <c r="D16" t="n">
-        <v>0.037952</v>
+        <v>0.0375113</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0470314</v>
+        <v>0.0469404</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0429839</v>
+        <v>0.0451664</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0384065</v>
+        <v>0.0400143</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0516066</v>
+        <v>0.0522931</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0490081</v>
+        <v>0.0497048</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0433322</v>
+        <v>0.0437763</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0597048</v>
+        <v>0.0556309</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0538421</v>
+        <v>0.0538769</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0475929</v>
+        <v>0.0492299</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0638288</v>
+        <v>0.06528249999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0618288</v>
+        <v>0.0624161</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0570296</v>
+        <v>0.0573834</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0801216</v>
+        <v>0.0770772</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0756114</v>
+        <v>0.0788128</v>
       </c>
       <c r="D21" t="n">
-        <v>0.06975339999999999</v>
+        <v>0.0689037</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0944788</v>
+        <v>0.100059</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0951253</v>
+        <v>0.0970111</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0856678</v>
+        <v>0.0861748</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.122943</v>
+        <v>0.128569</v>
       </c>
       <c r="C23" t="n">
-        <v>0.12625</v>
+        <v>0.129857</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0303014</v>
+        <v>0.0299679</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0422611</v>
+        <v>0.0426988</v>
       </c>
       <c r="C24" t="n">
-        <v>0.036035</v>
+        <v>0.0365084</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0307568</v>
+        <v>0.0309421</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0420285</v>
+        <v>0.0432392</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0364018</v>
+        <v>0.0360866</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0308575</v>
+        <v>0.0310403</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0436239</v>
+        <v>0.044705</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0369038</v>
+        <v>0.0381669</v>
       </c>
       <c r="D26" t="n">
-        <v>0.032215</v>
+        <v>0.0321466</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0442336</v>
+        <v>0.0442777</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0374535</v>
+        <v>0.0377614</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0331009</v>
+        <v>0.0325817</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0437942</v>
+        <v>0.0477724</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0393117</v>
+        <v>0.0400559</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0346058</v>
+        <v>0.0338783</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0467812</v>
+        <v>0.0465325</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0395049</v>
+        <v>0.0410389</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0352245</v>
+        <v>0.0371668</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0471256</v>
+        <v>0.0485774</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0428719</v>
+        <v>0.0456816</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0374438</v>
+        <v>0.0369637</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0520202</v>
+        <v>0.0517882</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0449827</v>
+        <v>0.0455639</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0405752</v>
+        <v>0.0403616</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0528134</v>
+        <v>0.0533753</v>
       </c>
       <c r="C32" t="n">
-        <v>0.052734</v>
+        <v>0.0489048</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0453736</v>
+        <v>0.0434722</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0586213</v>
+        <v>0.0600743</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0543022</v>
+        <v>0.0549735</v>
       </c>
       <c r="D33" t="n">
-        <v>0.050032</v>
+        <v>0.0487296</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0645838</v>
+        <v>0.0671109</v>
       </c>
       <c r="C34" t="n">
-        <v>0.06267250000000001</v>
+        <v>0.06333419999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0570174</v>
+        <v>0.0562622</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.07492070000000001</v>
+        <v>0.0799971</v>
       </c>
       <c r="C35" t="n">
-        <v>0.07502540000000001</v>
+        <v>0.0745147</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0674139</v>
+        <v>0.0692026</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0900842</v>
+        <v>0.0944813</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0993221</v>
+        <v>0.0961882</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0888862</v>
+        <v>0.08529390000000001</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.117977</v>
+        <v>0.12857</v>
       </c>
       <c r="C37" t="n">
-        <v>0.124986</v>
+        <v>0.124821</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0344662</v>
+        <v>0.0329392</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0469867</v>
+        <v>0.0480411</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0389876</v>
+        <v>0.0396931</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0329284</v>
+        <v>0.033694</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0458835</v>
+        <v>0.0482708</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0424679</v>
+        <v>0.0411881</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0335196</v>
+        <v>0.033671</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0489949</v>
+        <v>0.0479572</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0409645</v>
+        <v>0.0419473</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0345841</v>
+        <v>0.0355635</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0490204</v>
+        <v>0.049618</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0431932</v>
+        <v>0.0424703</v>
       </c>
       <c r="D41" t="n">
-        <v>0.036582</v>
+        <v>0.0359386</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0498077</v>
+        <v>0.0492451</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0431194</v>
+        <v>0.0465856</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0372806</v>
+        <v>0.0365149</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0504786</v>
+        <v>0.0498104</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0458646</v>
+        <v>0.0444071</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0382433</v>
+        <v>0.0380315</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0532401</v>
+        <v>0.0538369</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0464438</v>
+        <v>0.0476474</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0394809</v>
+        <v>0.0397949</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0555286</v>
+        <v>0.0550234</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0496902</v>
+        <v>0.0513446</v>
       </c>
       <c r="D45" t="n">
-        <v>0.044327</v>
+        <v>0.0425509</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0592009</v>
+        <v>0.0580983</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0537162</v>
+        <v>0.0551131</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0479618</v>
+        <v>0.0478587</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0619084</v>
+        <v>0.0625197</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0588524</v>
+        <v>0.0598688</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0522196</v>
+        <v>0.0526614</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0694726</v>
+        <v>0.0696638</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0651997</v>
+        <v>0.0677349</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0588218</v>
+        <v>0.0599565</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0774755</v>
+        <v>0.0764957</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0763419</v>
+        <v>0.0770869</v>
       </c>
       <c r="D49" t="n">
-        <v>0.07208009999999999</v>
+        <v>0.0701456</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0929203</v>
+        <v>0.0901788</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0940551</v>
+        <v>0.0949716</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0853399</v>
+        <v>0.08424420000000001</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.121489</v>
+        <v>0.115012</v>
       </c>
       <c r="C51" t="n">
-        <v>0.123506</v>
+        <v>0.121057</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0387646</v>
+        <v>0.0389304</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.152501</v>
+        <v>0.152792</v>
       </c>
       <c r="C52" t="n">
-        <v>0.156716</v>
+        <v>0.158209</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0391239</v>
+        <v>0.039985</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0560365</v>
+        <v>0.0600889</v>
       </c>
       <c r="C53" t="n">
-        <v>0.048963</v>
+        <v>0.0502282</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0391203</v>
+        <v>0.0414702</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0570504</v>
+        <v>0.0579587</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0508978</v>
+        <v>0.0509454</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0411318</v>
+        <v>0.0416445</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0603142</v>
+        <v>0.0602945</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0515138</v>
+        <v>0.0519905</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0423659</v>
+        <v>0.0427475</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0596589</v>
+        <v>0.0595017</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0538812</v>
+        <v>0.0536805</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0427693</v>
+        <v>0.0424509</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0638379</v>
+        <v>0.06321209999999999</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0563317</v>
+        <v>0.0573652</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0438687</v>
+        <v>0.0446704</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.063418</v>
+        <v>0.0619583</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0572653</v>
+        <v>0.0575005</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0474016</v>
+        <v>0.046126</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0666703</v>
+        <v>0.066092</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0608172</v>
+        <v>0.06002</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0497462</v>
+        <v>0.0498242</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0701358</v>
+        <v>0.07030409999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0645975</v>
+        <v>0.0672967</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0528107</v>
+        <v>0.051453</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.07481690000000001</v>
+        <v>0.07324319999999999</v>
       </c>
       <c r="C61" t="n">
-        <v>0.06917470000000001</v>
+        <v>0.0697599</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0571925</v>
+        <v>0.0576179</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0781613</v>
+        <v>0.0777967</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0776251</v>
+        <v>0.07641290000000001</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0628577</v>
+        <v>0.0643933</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0870017</v>
+        <v>0.087407</v>
       </c>
       <c r="C63" t="n">
-        <v>0.08840870000000001</v>
+        <v>0.0867165</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0729947</v>
+        <v>0.0732473</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.102144</v>
+        <v>0.09864059999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>0.102629</v>
+        <v>0.101444</v>
       </c>
       <c r="D64" t="n">
-        <v>0.08652120000000001</v>
+        <v>0.0872732</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.12294</v>
+        <v>0.124913</v>
       </c>
       <c r="C65" t="n">
-        <v>0.12875</v>
+        <v>0.132343</v>
       </c>
       <c r="D65" t="n">
-        <v>0.110351</v>
+        <v>0.108134</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.164597</v>
+        <v>0.158538</v>
       </c>
       <c r="C66" t="n">
-        <v>0.171032</v>
+        <v>0.167629</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0450769</v>
+        <v>0.0461399</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0661414</v>
+        <v>0.0666822</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0604852</v>
+        <v>0.058267</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0455158</v>
+        <v>0.0469646</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0662522</v>
+        <v>0.0660974</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0609303</v>
+        <v>0.0612769</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0454183</v>
+        <v>0.0466477</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0701948</v>
+        <v>0.06913999999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>0.06209</v>
+        <v>0.063101</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0466302</v>
+        <v>0.047387</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0709164</v>
+        <v>0.0725896</v>
       </c>
       <c r="C70" t="n">
-        <v>0.063692</v>
+        <v>0.0654909</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0479115</v>
+        <v>0.0497041</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.071718</v>
+        <v>0.0715126</v>
       </c>
       <c r="C71" t="n">
-        <v>0.066575</v>
+        <v>0.066383</v>
       </c>
       <c r="D71" t="n">
-        <v>0.049557</v>
+        <v>0.0506606</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0742486</v>
+        <v>0.0737545</v>
       </c>
       <c r="C72" t="n">
-        <v>0.067853</v>
+        <v>0.0699428</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0516252</v>
+        <v>0.0532767</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.07741149999999999</v>
+        <v>0.07697610000000001</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0751798</v>
+        <v>0.0737428</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0552854</v>
+        <v>0.0579951</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.08294840000000001</v>
+        <v>0.08088289999999999</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0798841</v>
+        <v>0.0793599</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0587807</v>
+        <v>0.0577466</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.091573</v>
+        <v>0.0874104</v>
       </c>
       <c r="C75" t="n">
-        <v>0.08570410000000001</v>
+        <v>0.08662160000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0657819</v>
+        <v>0.0655809</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0949652</v>
+        <v>0.0932263</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0895788</v>
+        <v>0.0936979</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0709386</v>
+        <v>0.072854</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.104351</v>
+        <v>0.103922</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0991219</v>
+        <v>0.104822</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0828537</v>
+        <v>0.0819527</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.114063</v>
+        <v>0.123503</v>
       </c>
       <c r="C78" t="n">
-        <v>0.116409</v>
+        <v>0.120821</v>
       </c>
       <c r="D78" t="n">
-        <v>0.09462189999999999</v>
+        <v>0.100575</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.144728</v>
+        <v>0.149253</v>
       </c>
       <c r="C79" t="n">
-        <v>0.142764</v>
+        <v>0.153116</v>
       </c>
       <c r="D79" t="n">
-        <v>0.11701</v>
+        <v>0.117093</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.179297</v>
+        <v>0.183411</v>
       </c>
       <c r="C80" t="n">
-        <v>0.183991</v>
+        <v>0.187927</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0542349</v>
+        <v>0.0553633</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0796544</v>
+        <v>0.0851692</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0722015</v>
+        <v>0.0809653</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0545348</v>
+        <v>0.0568026</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0837666</v>
+        <v>0.0875315</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0726803</v>
+        <v>0.080903</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0570933</v>
+        <v>0.0587404</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.08569930000000001</v>
+        <v>0.09322519999999999</v>
       </c>
       <c r="C83" t="n">
-        <v>0.07643129999999999</v>
+        <v>0.085482</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0600004</v>
+        <v>0.0592355</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.08758870000000001</v>
+        <v>0.0964604</v>
       </c>
       <c r="C84" t="n">
-        <v>0.084767</v>
+        <v>0.09272909999999999</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0616092</v>
+        <v>0.0624989</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.089048</v>
+        <v>0.0979024</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0814135</v>
+        <v>0.09363779999999999</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0604401</v>
+        <v>0.0664667</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0939459</v>
+        <v>0.098622</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0826171</v>
+        <v>0.0964551</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0600731</v>
+        <v>0.07217510000000001</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0910512</v>
+        <v>0.110145</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0854014</v>
+        <v>0.0989553</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0666288</v>
+        <v>0.07256659999999999</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.105183</v>
+        <v>0.112093</v>
       </c>
       <c r="C88" t="n">
-        <v>0.09572369999999999</v>
+        <v>0.09475509999999999</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0692565</v>
+        <v>0.0784671</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.10634</v>
+        <v>0.112564</v>
       </c>
       <c r="C89" t="n">
-        <v>0.103638</v>
+        <v>0.103833</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0743414</v>
+        <v>0.0758561</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.117926</v>
+        <v>0.117215</v>
       </c>
       <c r="C90" t="n">
-        <v>0.110548</v>
+        <v>0.115102</v>
       </c>
       <c r="D90" t="n">
-        <v>0.08377610000000001</v>
+        <v>0.08343059999999999</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.127861</v>
+        <v>0.125697</v>
       </c>
       <c r="C91" t="n">
-        <v>0.123269</v>
+        <v>0.130922</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0947717</v>
+        <v>0.0932321</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.140006</v>
+        <v>0.140426</v>
       </c>
       <c r="C92" t="n">
-        <v>0.138705</v>
+        <v>0.14115</v>
       </c>
       <c r="D92" t="n">
-        <v>0.108142</v>
+        <v>0.106729</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.159568</v>
+        <v>0.157647</v>
       </c>
       <c r="C93" t="n">
-        <v>0.16482</v>
+        <v>0.170008</v>
       </c>
       <c r="D93" t="n">
-        <v>0.129033</v>
+        <v>0.12565</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.189171</v>
+        <v>0.197188</v>
       </c>
       <c r="C94" t="n">
-        <v>0.202946</v>
+        <v>0.200488</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0740054</v>
+        <v>0.0737066</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.107484</v>
+        <v>0.110559</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0976417</v>
+        <v>0.0998901</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0748061</v>
+        <v>0.07336289999999999</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.109447</v>
+        <v>0.115687</v>
       </c>
       <c r="C96" t="n">
-        <v>0.09880510000000001</v>
+        <v>0.103169</v>
       </c>
       <c r="D96" t="n">
-        <v>0.07479239999999999</v>
+        <v>0.07695299999999999</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.115106</v>
+        <v>0.110799</v>
       </c>
       <c r="C97" t="n">
-        <v>0.103552</v>
+        <v>0.102484</v>
       </c>
       <c r="D97" t="n">
-        <v>0.07660989999999999</v>
+        <v>0.0778736</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.114264</v>
+        <v>0.117353</v>
       </c>
       <c r="C98" t="n">
-        <v>0.105148</v>
+        <v>0.107038</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0783668</v>
+        <v>0.0812611</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.121435</v>
+        <v>0.121551</v>
       </c>
       <c r="C99" t="n">
-        <v>0.112039</v>
+        <v>0.111588</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0835385</v>
+        <v>0.0820613</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.12503</v>
+        <v>0.12149</v>
       </c>
       <c r="C100" t="n">
-        <v>0.112498</v>
+        <v>0.115097</v>
       </c>
       <c r="D100" t="n">
-        <v>0.08653669999999999</v>
+        <v>0.0843149</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.128194</v>
+        <v>0.128435</v>
       </c>
       <c r="C101" t="n">
-        <v>0.117172</v>
+        <v>0.118262</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0930742</v>
+        <v>0.0876097</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.132553</v>
+        <v>0.129682</v>
       </c>
       <c r="C102" t="n">
-        <v>0.126001</v>
+        <v>0.126016</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0898887</v>
+        <v>0.09161329999999999</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.140302</v>
+        <v>0.135382</v>
       </c>
       <c r="C103" t="n">
-        <v>0.135298</v>
+        <v>0.129937</v>
       </c>
       <c r="D103" t="n">
-        <v>0.103303</v>
+        <v>0.0956663</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.143852</v>
+        <v>0.140868</v>
       </c>
       <c r="C104" t="n">
-        <v>0.137843</v>
+        <v>0.137365</v>
       </c>
       <c r="D104" t="n">
-        <v>0.108072</v>
+        <v>0.103596</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.162086</v>
+        <v>0.155029</v>
       </c>
       <c r="C105" t="n">
-        <v>0.157766</v>
+        <v>0.149409</v>
       </c>
       <c r="D105" t="n">
-        <v>0.110334</v>
+        <v>0.110897</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.17014</v>
+        <v>0.166932</v>
       </c>
       <c r="C106" t="n">
-        <v>0.17161</v>
+        <v>0.169143</v>
       </c>
       <c r="D106" t="n">
-        <v>0.12876</v>
+        <v>0.127093</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.194178</v>
+        <v>0.192201</v>
       </c>
       <c r="C107" t="n">
-        <v>0.192319</v>
+        <v>0.191936</v>
       </c>
       <c r="D107" t="n">
-        <v>0.140735</v>
+        <v>0.147495</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.214122</v>
+        <v>0.219498</v>
       </c>
       <c r="C108" t="n">
-        <v>0.224205</v>
+        <v>0.236845</v>
       </c>
       <c r="D108" t="n">
-        <v>0.159257</v>
+        <v>0.154999</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.285418</v>
+        <v>0.287732</v>
       </c>
       <c r="C109" t="n">
-        <v>0.309759</v>
+        <v>0.31371</v>
       </c>
       <c r="D109" t="n">
-        <v>0.157623</v>
+        <v>0.162927</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.206459</v>
+        <v>0.20976</v>
       </c>
       <c r="C110" t="n">
-        <v>0.184216</v>
+        <v>0.189046</v>
       </c>
       <c r="D110" t="n">
-        <v>0.163806</v>
+        <v>0.163657</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.201594</v>
+        <v>0.19838</v>
       </c>
       <c r="C111" t="n">
-        <v>0.179198</v>
+        <v>0.191386</v>
       </c>
       <c r="D111" t="n">
-        <v>0.158477</v>
+        <v>0.167037</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.20027</v>
+        <v>0.202813</v>
       </c>
       <c r="C112" t="n">
-        <v>0.196859</v>
+        <v>0.184903</v>
       </c>
       <c r="D112" t="n">
-        <v>0.165625</v>
+        <v>0.169031</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.209477</v>
+        <v>0.215078</v>
       </c>
       <c r="C113" t="n">
-        <v>0.184481</v>
+        <v>0.194225</v>
       </c>
       <c r="D113" t="n">
-        <v>0.155886</v>
+        <v>0.175259</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.213256</v>
+        <v>0.218423</v>
       </c>
       <c r="C114" t="n">
-        <v>0.187744</v>
+        <v>0.193289</v>
       </c>
       <c r="D114" t="n">
-        <v>0.174442</v>
+        <v>0.165869</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.210063</v>
+        <v>0.225199</v>
       </c>
       <c r="C115" t="n">
-        <v>0.20483</v>
+        <v>0.212656</v>
       </c>
       <c r="D115" t="n">
-        <v>0.16754</v>
+        <v>0.175811</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.222396</v>
+        <v>0.217682</v>
       </c>
       <c r="C116" t="n">
-        <v>0.205194</v>
+        <v>0.219799</v>
       </c>
       <c r="D116" t="n">
-        <v>0.180785</v>
+        <v>0.173702</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.215591</v>
+        <v>0.233166</v>
       </c>
       <c r="C117" t="n">
-        <v>0.218774</v>
+        <v>0.212899</v>
       </c>
       <c r="D117" t="n">
-        <v>0.174047</v>
+        <v>0.181116</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.226219</v>
+        <v>0.237426</v>
       </c>
       <c r="C118" t="n">
-        <v>0.22844</v>
+        <v>0.227496</v>
       </c>
       <c r="D118" t="n">
-        <v>0.177268</v>
+        <v>0.186465</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.234901</v>
+        <v>0.241592</v>
       </c>
       <c r="C119" t="n">
-        <v>0.224885</v>
+        <v>0.254913</v>
       </c>
       <c r="D119" t="n">
-        <v>0.187416</v>
+        <v>0.209048</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.256735</v>
+        <v>0.256809</v>
       </c>
       <c r="C120" t="n">
-        <v>0.245637</v>
+        <v>0.254338</v>
       </c>
       <c r="D120" t="n">
-        <v>0.202995</v>
+        <v>0.20874</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.294389</v>
+        <v>0.275608</v>
       </c>
       <c r="C121" t="n">
-        <v>0.269232</v>
+        <v>0.278824</v>
       </c>
       <c r="D121" t="n">
-        <v>0.233799</v>
+        <v>0.227796</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.304333</v>
+        <v>0.306932</v>
       </c>
       <c r="C122" t="n">
-        <v>0.301495</v>
+        <v>0.311694</v>
       </c>
       <c r="D122" t="n">
-        <v>0.243356</v>
+        <v>0.266021</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.361722</v>
+        <v>0.375348</v>
       </c>
       <c r="C123" t="n">
-        <v>0.361502</v>
+        <v>0.412166</v>
       </c>
       <c r="D123" t="n">
-        <v>0.237923</v>
+        <v>0.24528</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.305163</v>
+        <v>0.317147</v>
       </c>
       <c r="C124" t="n">
-        <v>0.25773</v>
+        <v>0.270719</v>
       </c>
       <c r="D124" t="n">
-        <v>0.245822</v>
+        <v>0.249707</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.312174</v>
+        <v>0.314131</v>
       </c>
       <c r="C125" t="n">
-        <v>0.278789</v>
+        <v>0.27502</v>
       </c>
       <c r="D125" t="n">
-        <v>0.237077</v>
+        <v>0.249565</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.318613</v>
+        <v>0.316219</v>
       </c>
       <c r="C126" t="n">
-        <v>0.280485</v>
+        <v>0.286636</v>
       </c>
       <c r="D126" t="n">
-        <v>0.246403</v>
+        <v>0.255491</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.319836</v>
+        <v>0.323933</v>
       </c>
       <c r="C127" t="n">
-        <v>0.273495</v>
+        <v>0.294961</v>
       </c>
       <c r="D127" t="n">
-        <v>0.246631</v>
+        <v>0.252346</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.322091</v>
+        <v>0.324803</v>
       </c>
       <c r="C128" t="n">
-        <v>0.2884</v>
+        <v>0.28001</v>
       </c>
       <c r="D128" t="n">
-        <v>0.244186</v>
+        <v>0.249213</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.332612</v>
+        <v>0.342613</v>
       </c>
       <c r="C129" t="n">
-        <v>0.289934</v>
+        <v>0.305337</v>
       </c>
       <c r="D129" t="n">
-        <v>0.259009</v>
+        <v>0.253254</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.340485</v>
+        <v>0.34277</v>
       </c>
       <c r="C130" t="n">
-        <v>0.295181</v>
+        <v>0.294153</v>
       </c>
       <c r="D130" t="n">
-        <v>0.25487</v>
+        <v>0.261254</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.341462</v>
+        <v>0.343699</v>
       </c>
       <c r="C131" t="n">
-        <v>0.292318</v>
+        <v>0.320501</v>
       </c>
       <c r="D131" t="n">
-        <v>0.264959</v>
+        <v>0.264506</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.345921</v>
+        <v>0.353172</v>
       </c>
       <c r="C132" t="n">
-        <v>0.315941</v>
+        <v>0.32767</v>
       </c>
       <c r="D132" t="n">
-        <v>0.256643</v>
+        <v>0.27949</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.367026</v>
+        <v>0.367626</v>
       </c>
       <c r="C133" t="n">
-        <v>0.334195</v>
+        <v>0.338467</v>
       </c>
       <c r="D133" t="n">
-        <v>0.265764</v>
+        <v>0.289201</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.375112</v>
+        <v>0.390406</v>
       </c>
       <c r="C134" t="n">
-        <v>0.337036</v>
+        <v>0.373303</v>
       </c>
       <c r="D134" t="n">
-        <v>0.287066</v>
+        <v>0.302325</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.410018</v>
+        <v>0.411339</v>
       </c>
       <c r="C135" t="n">
-        <v>0.38227</v>
+        <v>0.383704</v>
       </c>
       <c r="D135" t="n">
-        <v>0.32171</v>
+        <v>0.324295</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.446866</v>
+        <v>0.466346</v>
       </c>
       <c r="C136" t="n">
-        <v>0.409123</v>
+        <v>0.432844</v>
       </c>
       <c r="D136" t="n">
-        <v>0.34006</v>
+        <v>0.370585</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.512025</v>
+        <v>0.533435</v>
       </c>
       <c r="C137" t="n">
-        <v>0.516745</v>
+        <v>0.5111790000000001</v>
       </c>
       <c r="D137" t="n">
-        <v>0.295229</v>
+        <v>0.296788</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.371695</v>
+        <v>0.385218</v>
       </c>
       <c r="C138" t="n">
-        <v>0.327012</v>
+        <v>0.330972</v>
       </c>
       <c r="D138" t="n">
-        <v>0.286662</v>
+        <v>0.297722</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.370108</v>
+        <v>0.380783</v>
       </c>
       <c r="C139" t="n">
-        <v>0.322584</v>
+        <v>0.360156</v>
       </c>
       <c r="D139" t="n">
-        <v>0.293734</v>
+        <v>0.304663</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.390057</v>
+        <v>0.381816</v>
       </c>
       <c r="C140" t="n">
-        <v>0.333321</v>
+        <v>0.340777</v>
       </c>
       <c r="D140" t="n">
-        <v>0.295732</v>
+        <v>0.309163</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.371025</v>
+        <v>0.390353</v>
       </c>
       <c r="C141" t="n">
-        <v>0.332473</v>
+        <v>0.344227</v>
       </c>
       <c r="D141" t="n">
-        <v>0.293707</v>
+        <v>0.306201</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.389055</v>
+        <v>0.403321</v>
       </c>
       <c r="C142" t="n">
-        <v>0.33065</v>
+        <v>0.351494</v>
       </c>
       <c r="D142" t="n">
-        <v>0.307279</v>
+        <v>0.316406</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.383328</v>
+        <v>0.410405</v>
       </c>
       <c r="C143" t="n">
-        <v>0.35192</v>
+        <v>0.366193</v>
       </c>
       <c r="D143" t="n">
-        <v>0.305969</v>
+        <v>0.321428</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered unsuccessful looukp.xlsx
+++ b/vs-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0427852</v>
+        <v>0.0417668</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0377005</v>
+        <v>0.0381722</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0358695</v>
+        <v>0.0341285</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0440421</v>
+        <v>0.044448</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0406411</v>
+        <v>0.0411792</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0384124</v>
+        <v>0.0359296</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.047011</v>
+        <v>0.0458853</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0448181</v>
+        <v>0.0454477</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0418328</v>
+        <v>0.0398318</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0518515</v>
+        <v>0.0513111</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0529188</v>
+        <v>0.0522698</v>
       </c>
       <c r="D5" t="n">
-        <v>0.049727</v>
+        <v>0.0456252</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0587775</v>
+        <v>0.0618631</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06340320000000001</v>
+        <v>0.0598023</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0603865</v>
+        <v>0.0547053</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0711623</v>
+        <v>0.0749425</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0753569</v>
+        <v>0.0751062</v>
       </c>
       <c r="D7" t="n">
-        <v>0.069354</v>
+        <v>0.0667523</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.097307</v>
+        <v>0.0985634</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0935592</v>
+        <v>0.0949474</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0856415</v>
+        <v>0.085558</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.122782</v>
+        <v>0.130988</v>
       </c>
       <c r="C9" t="n">
-        <v>0.127429</v>
+        <v>0.12856</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0297469</v>
+        <v>0.0274435</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0396814</v>
+        <v>0.0399947</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0339935</v>
+        <v>0.0339925</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0296204</v>
+        <v>0.0279016</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0401885</v>
+        <v>0.0401978</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0349672</v>
+        <v>0.0344201</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0299417</v>
+        <v>0.0285989</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0405455</v>
+        <v>0.0408962</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0350602</v>
+        <v>0.0354733</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0321243</v>
+        <v>0.0312366</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0424448</v>
+        <v>0.0415564</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0373579</v>
+        <v>0.037061</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0320594</v>
+        <v>0.0293922</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0425711</v>
+        <v>0.0422213</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0369945</v>
+        <v>0.0385847</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0325329</v>
+        <v>0.0308876</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0441456</v>
+        <v>0.0434812</v>
       </c>
       <c r="C15" t="n">
-        <v>0.038846</v>
+        <v>0.0401489</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0339199</v>
+        <v>0.033554</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.044972</v>
+        <v>0.0456823</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0413617</v>
+        <v>0.0415506</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0375113</v>
+        <v>0.0360327</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0469404</v>
+        <v>0.0491872</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0451664</v>
+        <v>0.0437837</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0400143</v>
+        <v>0.0379505</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0522931</v>
+        <v>0.0545737</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0497048</v>
+        <v>0.0495713</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0437763</v>
+        <v>0.0442291</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0556309</v>
+        <v>0.0599328</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0538769</v>
+        <v>0.0542991</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0492299</v>
+        <v>0.0478144</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.06528249999999999</v>
+        <v>0.0673527</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0624161</v>
+        <v>0.0625711</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0573834</v>
+        <v>0.0561434</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0770772</v>
+        <v>0.0748124</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0788128</v>
+        <v>0.0770194</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0689037</v>
+        <v>0.067884</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.100059</v>
+        <v>0.09517630000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0970111</v>
+        <v>0.0985482</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0861748</v>
+        <v>0.08593820000000001</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.128569</v>
+        <v>0.123248</v>
       </c>
       <c r="C23" t="n">
-        <v>0.129857</v>
+        <v>0.132485</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0299679</v>
+        <v>0.0283065</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0426988</v>
+        <v>0.0441155</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0365084</v>
+        <v>0.0384858</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0309421</v>
+        <v>0.0300936</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0432392</v>
+        <v>0.0434927</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0360866</v>
+        <v>0.0368645</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0310403</v>
+        <v>0.0316984</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.044705</v>
+        <v>0.0447536</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0381669</v>
+        <v>0.0384452</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0321466</v>
+        <v>0.0305279</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0442777</v>
+        <v>0.0457625</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0377614</v>
+        <v>0.0396287</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0325817</v>
+        <v>0.0304218</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0477724</v>
+        <v>0.0462073</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0400559</v>
+        <v>0.0397259</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0338783</v>
+        <v>0.0315116</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0465325</v>
+        <v>0.045555</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0410389</v>
+        <v>0.0407704</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0371668</v>
+        <v>0.0340173</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0485774</v>
+        <v>0.0478021</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0456816</v>
+        <v>0.0437009</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0369637</v>
+        <v>0.0362915</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0517882</v>
+        <v>0.0506085</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0455639</v>
+        <v>0.0456399</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0403616</v>
+        <v>0.038217</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0533753</v>
+        <v>0.0538897</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0489048</v>
+        <v>0.0534497</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0434722</v>
+        <v>0.0436617</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0600743</v>
+        <v>0.0589271</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0549735</v>
+        <v>0.0564892</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0487296</v>
+        <v>0.0472323</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0671109</v>
+        <v>0.0659169</v>
       </c>
       <c r="C34" t="n">
-        <v>0.06333419999999999</v>
+        <v>0.0630975</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0562622</v>
+        <v>0.0549812</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0799971</v>
+        <v>0.0785859</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0745147</v>
+        <v>0.07350660000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0692026</v>
+        <v>0.0702749</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0944813</v>
+        <v>0.0953871</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0961882</v>
+        <v>0.0965409</v>
       </c>
       <c r="D36" t="n">
-        <v>0.08529390000000001</v>
+        <v>0.0901054</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.12857</v>
+        <v>0.124948</v>
       </c>
       <c r="C37" t="n">
-        <v>0.124821</v>
+        <v>0.126629</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0329392</v>
+        <v>0.0312647</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0480411</v>
+        <v>0.0475585</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0396931</v>
+        <v>0.0410972</v>
       </c>
       <c r="D38" t="n">
-        <v>0.033694</v>
+        <v>0.0316655</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0482708</v>
+        <v>0.046583</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0411881</v>
+        <v>0.0415144</v>
       </c>
       <c r="D39" t="n">
-        <v>0.033671</v>
+        <v>0.0322423</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0479572</v>
+        <v>0.047104</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0419473</v>
+        <v>0.0425964</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0355635</v>
+        <v>0.0321216</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.049618</v>
+        <v>0.0490479</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0424703</v>
+        <v>0.0432371</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0359386</v>
+        <v>0.0344105</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0492451</v>
+        <v>0.0508427</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0465856</v>
+        <v>0.0443331</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0365149</v>
+        <v>0.0346449</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0498104</v>
+        <v>0.051724</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0444071</v>
+        <v>0.045309</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0380315</v>
+        <v>0.0367361</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0538369</v>
+        <v>0.0540147</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0476474</v>
+        <v>0.0477615</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0397949</v>
+        <v>0.0374506</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0550234</v>
+        <v>0.0561007</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0513446</v>
+        <v>0.0509327</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0425509</v>
+        <v>0.0412407</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0580983</v>
+        <v>0.057386</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0551131</v>
+        <v>0.0544347</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0478587</v>
+        <v>0.0442411</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0625197</v>
+        <v>0.0619616</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0598688</v>
+        <v>0.0577092</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0526614</v>
+        <v>0.0499417</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0696638</v>
+        <v>0.0709081</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0677349</v>
+        <v>0.0651328</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0599565</v>
+        <v>0.0575093</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0764957</v>
+        <v>0.0800628</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0770869</v>
+        <v>0.0766143</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0701456</v>
+        <v>0.0687373</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0901788</v>
+        <v>0.0925233</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0949716</v>
+        <v>0.0976482</v>
       </c>
       <c r="D50" t="n">
-        <v>0.08424420000000001</v>
+        <v>0.0834096</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.115012</v>
+        <v>0.11716</v>
       </c>
       <c r="C51" t="n">
-        <v>0.121057</v>
+        <v>0.121849</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0389304</v>
+        <v>0.0372115</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.152792</v>
+        <v>0.157807</v>
       </c>
       <c r="C52" t="n">
-        <v>0.158209</v>
+        <v>0.16224</v>
       </c>
       <c r="D52" t="n">
-        <v>0.039985</v>
+        <v>0.0379061</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0600889</v>
+        <v>0.0580115</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0502282</v>
+        <v>0.0509891</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0414702</v>
+        <v>0.0401783</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0579587</v>
+        <v>0.0586289</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0509454</v>
+        <v>0.050487</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0416445</v>
+        <v>0.0399068</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0602945</v>
+        <v>0.05928</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0519905</v>
+        <v>0.0534311</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0427475</v>
+        <v>0.0399078</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0595017</v>
+        <v>0.0603023</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0536805</v>
+        <v>0.0525037</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0424509</v>
+        <v>0.0409274</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.06321209999999999</v>
+        <v>0.0636845</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0573652</v>
+        <v>0.0555539</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0446704</v>
+        <v>0.0427189</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0619583</v>
+        <v>0.0650101</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0575005</v>
+        <v>0.0600929</v>
       </c>
       <c r="D58" t="n">
-        <v>0.046126</v>
+        <v>0.0443192</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.066092</v>
+        <v>0.06479559999999999</v>
       </c>
       <c r="C59" t="n">
-        <v>0.06002</v>
+        <v>0.0590597</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0498242</v>
+        <v>0.0460587</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.07030409999999999</v>
+        <v>0.0698333</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0672967</v>
+        <v>0.0640104</v>
       </c>
       <c r="D60" t="n">
-        <v>0.051453</v>
+        <v>0.0512014</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.07324319999999999</v>
+        <v>0.07358339999999999</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0697599</v>
+        <v>0.0697999</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0576179</v>
+        <v>0.0540263</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0777967</v>
+        <v>0.0775917</v>
       </c>
       <c r="C62" t="n">
-        <v>0.07641290000000001</v>
+        <v>0.0759167</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0643933</v>
+        <v>0.0621187</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.087407</v>
+        <v>0.08692179999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0867165</v>
+        <v>0.0881371</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0732473</v>
+        <v>0.07160850000000001</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.09864059999999999</v>
+        <v>0.0993329</v>
       </c>
       <c r="C64" t="n">
-        <v>0.101444</v>
+        <v>0.104739</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0872732</v>
+        <v>0.0857252</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.124913</v>
+        <v>0.124084</v>
       </c>
       <c r="C65" t="n">
-        <v>0.132343</v>
+        <v>0.130374</v>
       </c>
       <c r="D65" t="n">
-        <v>0.108134</v>
+        <v>0.109336</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.158538</v>
+        <v>0.158685</v>
       </c>
       <c r="C66" t="n">
-        <v>0.167629</v>
+        <v>0.169317</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0461399</v>
+        <v>0.0430995</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0666822</v>
+        <v>0.0664672</v>
       </c>
       <c r="C67" t="n">
-        <v>0.058267</v>
+        <v>0.0600703</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0469646</v>
+        <v>0.0442141</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0660974</v>
+        <v>0.06868050000000001</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0612769</v>
+        <v>0.0588308</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0466477</v>
+        <v>0.0443206</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.06913999999999999</v>
+        <v>0.06938329999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>0.063101</v>
+        <v>0.0619179</v>
       </c>
       <c r="D69" t="n">
-        <v>0.047387</v>
+        <v>0.0463388</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0725896</v>
+        <v>0.0694109</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0654909</v>
+        <v>0.0645708</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0497041</v>
+        <v>0.047255</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0715126</v>
+        <v>0.07318379999999999</v>
       </c>
       <c r="C71" t="n">
-        <v>0.066383</v>
+        <v>0.06755360000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0506606</v>
+        <v>0.0508297</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0737545</v>
+        <v>0.0761597</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0699428</v>
+        <v>0.06825249999999999</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0532767</v>
+        <v>0.0510333</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.07697610000000001</v>
+        <v>0.0784096</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0737428</v>
+        <v>0.0717879</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0579951</v>
+        <v>0.0538698</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.08088289999999999</v>
+        <v>0.0820988</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0793599</v>
+        <v>0.0774661</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0577466</v>
+        <v>0.0576617</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0874104</v>
+        <v>0.0887351</v>
       </c>
       <c r="C75" t="n">
-        <v>0.08662160000000001</v>
+        <v>0.0831606</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0655809</v>
+        <v>0.0614825</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0932263</v>
+        <v>0.0946225</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0936979</v>
+        <v>0.0951753</v>
       </c>
       <c r="D76" t="n">
-        <v>0.072854</v>
+        <v>0.06872780000000001</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.103922</v>
+        <v>0.109183</v>
       </c>
       <c r="C77" t="n">
-        <v>0.104822</v>
+        <v>0.104977</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0819527</v>
+        <v>0.08030329999999999</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.123503</v>
+        <v>0.121622</v>
       </c>
       <c r="C78" t="n">
-        <v>0.120821</v>
+        <v>0.128428</v>
       </c>
       <c r="D78" t="n">
-        <v>0.100575</v>
+        <v>0.0959462</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.149253</v>
+        <v>0.149542</v>
       </c>
       <c r="C79" t="n">
-        <v>0.153116</v>
+        <v>0.153389</v>
       </c>
       <c r="D79" t="n">
-        <v>0.117093</v>
+        <v>0.116684</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.183411</v>
+        <v>0.183582</v>
       </c>
       <c r="C80" t="n">
-        <v>0.187927</v>
+        <v>0.188809</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0553633</v>
+        <v>0.0520857</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0851692</v>
+        <v>0.08714</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0809653</v>
+        <v>0.0709182</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0568026</v>
+        <v>0.0523464</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0875315</v>
+        <v>0.085156</v>
       </c>
       <c r="C82" t="n">
-        <v>0.080903</v>
+        <v>0.0768793</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0587404</v>
+        <v>0.0527269</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.09322519999999999</v>
+        <v>0.0889421</v>
       </c>
       <c r="C83" t="n">
-        <v>0.085482</v>
+        <v>0.07773629999999999</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0592355</v>
+        <v>0.0552974</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0964604</v>
+        <v>0.0911529</v>
       </c>
       <c r="C84" t="n">
-        <v>0.09272909999999999</v>
+        <v>0.0797726</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0624989</v>
+        <v>0.0571152</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0979024</v>
+        <v>0.089452</v>
       </c>
       <c r="C85" t="n">
-        <v>0.09363779999999999</v>
+        <v>0.0830639</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0664667</v>
+        <v>0.0599405</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.098622</v>
+        <v>0.09618259999999999</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0964551</v>
+        <v>0.0868704</v>
       </c>
       <c r="D86" t="n">
-        <v>0.07217510000000001</v>
+        <v>0.06316670000000001</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.110145</v>
+        <v>0.0995601</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0989553</v>
+        <v>0.09187679999999999</v>
       </c>
       <c r="D87" t="n">
-        <v>0.07256659999999999</v>
+        <v>0.06693739999999999</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.112093</v>
+        <v>0.100274</v>
       </c>
       <c r="C88" t="n">
-        <v>0.09475509999999999</v>
+        <v>0.0953102</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0784671</v>
+        <v>0.06970759999999999</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.112564</v>
+        <v>0.111271</v>
       </c>
       <c r="C89" t="n">
-        <v>0.103833</v>
+        <v>0.104955</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0758561</v>
+        <v>0.0753407</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.117215</v>
+        <v>0.116545</v>
       </c>
       <c r="C90" t="n">
-        <v>0.115102</v>
+        <v>0.114699</v>
       </c>
       <c r="D90" t="n">
-        <v>0.08343059999999999</v>
+        <v>0.0822522</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.125697</v>
+        <v>0.13114</v>
       </c>
       <c r="C91" t="n">
-        <v>0.130922</v>
+        <v>0.123609</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0932321</v>
+        <v>0.0895306</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.140426</v>
+        <v>0.137585</v>
       </c>
       <c r="C92" t="n">
-        <v>0.14115</v>
+        <v>0.136324</v>
       </c>
       <c r="D92" t="n">
-        <v>0.106729</v>
+        <v>0.105718</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.157647</v>
+        <v>0.160566</v>
       </c>
       <c r="C93" t="n">
-        <v>0.170008</v>
+        <v>0.161288</v>
       </c>
       <c r="D93" t="n">
-        <v>0.12565</v>
+        <v>0.123039</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.197188</v>
+        <v>0.19688</v>
       </c>
       <c r="C94" t="n">
-        <v>0.200488</v>
+        <v>0.213468</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0737066</v>
+        <v>0.0707156</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.110559</v>
+        <v>0.10696</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0998901</v>
+        <v>0.0981672</v>
       </c>
       <c r="D95" t="n">
-        <v>0.07336289999999999</v>
+        <v>0.07177749999999999</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.115687</v>
+        <v>0.108893</v>
       </c>
       <c r="C96" t="n">
-        <v>0.103169</v>
+        <v>0.101356</v>
       </c>
       <c r="D96" t="n">
-        <v>0.07695299999999999</v>
+        <v>0.0737073</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.110799</v>
+        <v>0.111564</v>
       </c>
       <c r="C97" t="n">
-        <v>0.102484</v>
+        <v>0.104667</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0778736</v>
+        <v>0.0751583</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.117353</v>
+        <v>0.117051</v>
       </c>
       <c r="C98" t="n">
-        <v>0.107038</v>
+        <v>0.105347</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0812611</v>
+        <v>0.07962089999999999</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.121551</v>
+        <v>0.118511</v>
       </c>
       <c r="C99" t="n">
-        <v>0.111588</v>
+        <v>0.115282</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0820613</v>
+        <v>0.07883800000000001</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.12149</v>
+        <v>0.123942</v>
       </c>
       <c r="C100" t="n">
-        <v>0.115097</v>
+        <v>0.115033</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0843149</v>
+        <v>0.0868028</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.128435</v>
+        <v>0.128646</v>
       </c>
       <c r="C101" t="n">
-        <v>0.118262</v>
+        <v>0.12381</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0876097</v>
+        <v>0.0860843</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.129682</v>
+        <v>0.127228</v>
       </c>
       <c r="C102" t="n">
-        <v>0.126016</v>
+        <v>0.127165</v>
       </c>
       <c r="D102" t="n">
-        <v>0.09161329999999999</v>
+        <v>0.089616</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.135382</v>
+        <v>0.135653</v>
       </c>
       <c r="C103" t="n">
-        <v>0.129937</v>
+        <v>0.137295</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0956663</v>
+        <v>0.09259779999999999</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.140868</v>
+        <v>0.146364</v>
       </c>
       <c r="C104" t="n">
-        <v>0.137365</v>
+        <v>0.141215</v>
       </c>
       <c r="D104" t="n">
-        <v>0.103596</v>
+        <v>0.105924</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.155029</v>
+        <v>0.156032</v>
       </c>
       <c r="C105" t="n">
-        <v>0.149409</v>
+        <v>0.152386</v>
       </c>
       <c r="D105" t="n">
-        <v>0.110897</v>
+        <v>0.112025</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.166932</v>
+        <v>0.170456</v>
       </c>
       <c r="C106" t="n">
-        <v>0.169143</v>
+        <v>0.175638</v>
       </c>
       <c r="D106" t="n">
-        <v>0.127093</v>
+        <v>0.12445</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.192201</v>
+        <v>0.188326</v>
       </c>
       <c r="C107" t="n">
-        <v>0.191936</v>
+        <v>0.195622</v>
       </c>
       <c r="D107" t="n">
-        <v>0.147495</v>
+        <v>0.149991</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.219498</v>
+        <v>0.22777</v>
       </c>
       <c r="C108" t="n">
-        <v>0.236845</v>
+        <v>0.242808</v>
       </c>
       <c r="D108" t="n">
-        <v>0.154999</v>
+        <v>0.157172</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.287732</v>
+        <v>0.28229</v>
       </c>
       <c r="C109" t="n">
-        <v>0.31371</v>
+        <v>0.304255</v>
       </c>
       <c r="D109" t="n">
-        <v>0.162927</v>
+        <v>0.15771</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.20976</v>
+        <v>0.200004</v>
       </c>
       <c r="C110" t="n">
-        <v>0.189046</v>
+        <v>0.190779</v>
       </c>
       <c r="D110" t="n">
-        <v>0.163657</v>
+        <v>0.161942</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.19838</v>
+        <v>0.195272</v>
       </c>
       <c r="C111" t="n">
-        <v>0.191386</v>
+        <v>0.184148</v>
       </c>
       <c r="D111" t="n">
-        <v>0.167037</v>
+        <v>0.159984</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.202813</v>
+        <v>0.210842</v>
       </c>
       <c r="C112" t="n">
-        <v>0.184903</v>
+        <v>0.18804</v>
       </c>
       <c r="D112" t="n">
-        <v>0.169031</v>
+        <v>0.156955</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.215078</v>
+        <v>0.218882</v>
       </c>
       <c r="C113" t="n">
-        <v>0.194225</v>
+        <v>0.202288</v>
       </c>
       <c r="D113" t="n">
-        <v>0.175259</v>
+        <v>0.172338</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.218423</v>
+        <v>0.211157</v>
       </c>
       <c r="C114" t="n">
-        <v>0.193289</v>
+        <v>0.189099</v>
       </c>
       <c r="D114" t="n">
-        <v>0.165869</v>
+        <v>0.168398</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.225199</v>
+        <v>0.22565</v>
       </c>
       <c r="C115" t="n">
-        <v>0.212656</v>
+        <v>0.198476</v>
       </c>
       <c r="D115" t="n">
-        <v>0.175811</v>
+        <v>0.173569</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.217682</v>
+        <v>0.218604</v>
       </c>
       <c r="C116" t="n">
-        <v>0.219799</v>
+        <v>0.202292</v>
       </c>
       <c r="D116" t="n">
-        <v>0.173702</v>
+        <v>0.171977</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.233166</v>
+        <v>0.232168</v>
       </c>
       <c r="C117" t="n">
-        <v>0.212899</v>
+        <v>0.209531</v>
       </c>
       <c r="D117" t="n">
-        <v>0.181116</v>
+        <v>0.176016</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.237426</v>
+        <v>0.23757</v>
       </c>
       <c r="C118" t="n">
-        <v>0.227496</v>
+        <v>0.221646</v>
       </c>
       <c r="D118" t="n">
-        <v>0.186465</v>
+        <v>0.19538</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.241592</v>
+        <v>0.252889</v>
       </c>
       <c r="C119" t="n">
-        <v>0.254913</v>
+        <v>0.228864</v>
       </c>
       <c r="D119" t="n">
-        <v>0.209048</v>
+        <v>0.185047</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.256809</v>
+        <v>0.262661</v>
       </c>
       <c r="C120" t="n">
-        <v>0.254338</v>
+        <v>0.247912</v>
       </c>
       <c r="D120" t="n">
-        <v>0.20874</v>
+        <v>0.218476</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.275608</v>
+        <v>0.292525</v>
       </c>
       <c r="C121" t="n">
-        <v>0.278824</v>
+        <v>0.289378</v>
       </c>
       <c r="D121" t="n">
-        <v>0.227796</v>
+        <v>0.235886</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.306932</v>
+        <v>0.307019</v>
       </c>
       <c r="C122" t="n">
-        <v>0.311694</v>
+        <v>0.31291</v>
       </c>
       <c r="D122" t="n">
-        <v>0.266021</v>
+        <v>0.268718</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.375348</v>
+        <v>0.375602</v>
       </c>
       <c r="C123" t="n">
-        <v>0.412166</v>
+        <v>0.389679</v>
       </c>
       <c r="D123" t="n">
-        <v>0.24528</v>
+        <v>0.24201</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.317147</v>
+        <v>0.312569</v>
       </c>
       <c r="C124" t="n">
-        <v>0.270719</v>
+        <v>0.271774</v>
       </c>
       <c r="D124" t="n">
-        <v>0.249707</v>
+        <v>0.250709</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.314131</v>
+        <v>0.317121</v>
       </c>
       <c r="C125" t="n">
-        <v>0.27502</v>
+        <v>0.273689</v>
       </c>
       <c r="D125" t="n">
-        <v>0.249565</v>
+        <v>0.246802</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.316219</v>
+        <v>0.320493</v>
       </c>
       <c r="C126" t="n">
-        <v>0.286636</v>
+        <v>0.278802</v>
       </c>
       <c r="D126" t="n">
-        <v>0.255491</v>
+        <v>0.24482</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.323933</v>
+        <v>0.325001</v>
       </c>
       <c r="C127" t="n">
-        <v>0.294961</v>
+        <v>0.289038</v>
       </c>
       <c r="D127" t="n">
-        <v>0.252346</v>
+        <v>0.249733</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.324803</v>
+        <v>0.326568</v>
       </c>
       <c r="C128" t="n">
-        <v>0.28001</v>
+        <v>0.290198</v>
       </c>
       <c r="D128" t="n">
-        <v>0.249213</v>
+        <v>0.24848</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.342613</v>
+        <v>0.33347</v>
       </c>
       <c r="C129" t="n">
-        <v>0.305337</v>
+        <v>0.28738</v>
       </c>
       <c r="D129" t="n">
-        <v>0.253254</v>
+        <v>0.255361</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.34277</v>
+        <v>0.337307</v>
       </c>
       <c r="C130" t="n">
-        <v>0.294153</v>
+        <v>0.298161</v>
       </c>
       <c r="D130" t="n">
-        <v>0.261254</v>
+        <v>0.257407</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.343699</v>
+        <v>0.344003</v>
       </c>
       <c r="C131" t="n">
-        <v>0.320501</v>
+        <v>0.303025</v>
       </c>
       <c r="D131" t="n">
-        <v>0.264506</v>
+        <v>0.267919</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.353172</v>
+        <v>0.355874</v>
       </c>
       <c r="C132" t="n">
-        <v>0.32767</v>
+        <v>0.321674</v>
       </c>
       <c r="D132" t="n">
-        <v>0.27949</v>
+        <v>0.268676</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.367626</v>
+        <v>0.374105</v>
       </c>
       <c r="C133" t="n">
-        <v>0.338467</v>
+        <v>0.341239</v>
       </c>
       <c r="D133" t="n">
-        <v>0.289201</v>
+        <v>0.277828</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.390406</v>
+        <v>0.391278</v>
       </c>
       <c r="C134" t="n">
-        <v>0.373303</v>
+        <v>0.352713</v>
       </c>
       <c r="D134" t="n">
-        <v>0.302325</v>
+        <v>0.296254</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.411339</v>
+        <v>0.408138</v>
       </c>
       <c r="C135" t="n">
-        <v>0.383704</v>
+        <v>0.378924</v>
       </c>
       <c r="D135" t="n">
-        <v>0.324295</v>
+        <v>0.323171</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.466346</v>
+        <v>0.451062</v>
       </c>
       <c r="C136" t="n">
-        <v>0.432844</v>
+        <v>0.424924</v>
       </c>
       <c r="D136" t="n">
-        <v>0.370585</v>
+        <v>0.350384</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.533435</v>
+        <v>0.550251</v>
       </c>
       <c r="C137" t="n">
-        <v>0.5111790000000001</v>
+        <v>0.518232</v>
       </c>
       <c r="D137" t="n">
-        <v>0.296788</v>
+        <v>0.297715</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.385218</v>
+        <v>0.385468</v>
       </c>
       <c r="C138" t="n">
-        <v>0.330972</v>
+        <v>0.332985</v>
       </c>
       <c r="D138" t="n">
-        <v>0.297722</v>
+        <v>0.298357</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.380783</v>
+        <v>0.382587</v>
       </c>
       <c r="C139" t="n">
-        <v>0.360156</v>
+        <v>0.329954</v>
       </c>
       <c r="D139" t="n">
-        <v>0.304663</v>
+        <v>0.30145</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.381816</v>
+        <v>0.393825</v>
       </c>
       <c r="C140" t="n">
-        <v>0.340777</v>
+        <v>0.34395</v>
       </c>
       <c r="D140" t="n">
-        <v>0.309163</v>
+        <v>0.301119</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.390353</v>
+        <v>0.391879</v>
       </c>
       <c r="C141" t="n">
-        <v>0.344227</v>
+        <v>0.333663</v>
       </c>
       <c r="D141" t="n">
-        <v>0.306201</v>
+        <v>0.301535</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.403321</v>
+        <v>0.397789</v>
       </c>
       <c r="C142" t="n">
-        <v>0.351494</v>
+        <v>0.346233</v>
       </c>
       <c r="D142" t="n">
-        <v>0.316406</v>
+        <v>0.308878</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.410405</v>
+        <v>0.401341</v>
       </c>
       <c r="C143" t="n">
-        <v>0.366193</v>
+        <v>0.354312</v>
       </c>
       <c r="D143" t="n">
-        <v>0.321428</v>
+        <v>0.311855</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered unsuccessful looukp.xlsx
+++ b/vs-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0417668</v>
+        <v>0.0425493</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0381722</v>
+        <v>0.0395492</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0341285</v>
+        <v>0.0336901</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.044448</v>
+        <v>0.0439871</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0411792</v>
+        <v>0.0432463</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0359296</v>
+        <v>0.0362958</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0458853</v>
+        <v>0.0448289</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0454477</v>
+        <v>0.0463592</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0398318</v>
+        <v>0.0428695</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0513111</v>
+        <v>0.0506938</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0522698</v>
+        <v>0.0528493</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0456252</v>
+        <v>0.0459603</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0618631</v>
+        <v>0.0593878</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0598023</v>
+        <v>0.0614755</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0547053</v>
+        <v>0.053797</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0749425</v>
+        <v>0.0715689</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0751062</v>
+        <v>0.0762746</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0667523</v>
+        <v>0.066147</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0985634</v>
+        <v>0.0918166</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0949474</v>
+        <v>0.0981677</v>
       </c>
       <c r="D8" t="n">
-        <v>0.085558</v>
+        <v>0.0837923</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.130988</v>
+        <v>0.122594</v>
       </c>
       <c r="C9" t="n">
-        <v>0.12856</v>
+        <v>0.131227</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0274435</v>
+        <v>0.0274211</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0399947</v>
+        <v>0.0404204</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0339925</v>
+        <v>0.0340765</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0279016</v>
+        <v>0.0284162</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0401978</v>
+        <v>0.0392351</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0344201</v>
+        <v>0.0344527</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0285989</v>
+        <v>0.0289599</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0408962</v>
+        <v>0.039893</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0354733</v>
+        <v>0.0359842</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0312366</v>
+        <v>0.0307497</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0415564</v>
+        <v>0.0408559</v>
       </c>
       <c r="C13" t="n">
-        <v>0.037061</v>
+        <v>0.0363818</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0293922</v>
+        <v>0.0310581</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0422213</v>
+        <v>0.0415471</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0385847</v>
+        <v>0.0367848</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0308876</v>
+        <v>0.0318081</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0434812</v>
+        <v>0.0428509</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0401489</v>
+        <v>0.0391388</v>
       </c>
       <c r="D15" t="n">
-        <v>0.033554</v>
+        <v>0.0325348</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0456823</v>
+        <v>0.0450396</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0415506</v>
+        <v>0.0416111</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0360327</v>
+        <v>0.036673</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0491872</v>
+        <v>0.0463521</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0437837</v>
+        <v>0.0445294</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0379505</v>
+        <v>0.0374458</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0545737</v>
+        <v>0.048597</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0495713</v>
+        <v>0.0508917</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0442291</v>
+        <v>0.0448923</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0599328</v>
+        <v>0.0546205</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0542991</v>
+        <v>0.0553469</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0478144</v>
+        <v>0.0465443</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0673527</v>
+        <v>0.0631423</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0625711</v>
+        <v>0.0616966</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0561434</v>
+        <v>0.0565709</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0748124</v>
+        <v>0.07408629999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0770194</v>
+        <v>0.0804612</v>
       </c>
       <c r="D21" t="n">
-        <v>0.067884</v>
+        <v>0.0681943</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.09517630000000001</v>
+        <v>0.0927748</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0985482</v>
+        <v>0.0950038</v>
       </c>
       <c r="D22" t="n">
-        <v>0.08593820000000001</v>
+        <v>0.0858811</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.123248</v>
+        <v>0.123354</v>
       </c>
       <c r="C23" t="n">
-        <v>0.132485</v>
+        <v>0.12909</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0283065</v>
+        <v>0.0284111</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0441155</v>
+        <v>0.0424897</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0384858</v>
+        <v>0.0373134</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0300936</v>
+        <v>0.028415</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0434927</v>
+        <v>0.0429353</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0368645</v>
+        <v>0.0384058</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0316984</v>
+        <v>0.0297175</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0447536</v>
+        <v>0.0455769</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0384452</v>
+        <v>0.0376812</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0305279</v>
+        <v>0.0302115</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0457625</v>
+        <v>0.0454604</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0396287</v>
+        <v>0.0392006</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0304218</v>
+        <v>0.0317555</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0462073</v>
+        <v>0.0460403</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0397259</v>
+        <v>0.0399252</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0315116</v>
+        <v>0.0324221</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.045555</v>
+        <v>0.0471305</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0407704</v>
+        <v>0.0407308</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0340173</v>
+        <v>0.0344196</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0478021</v>
+        <v>0.0514236</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0437009</v>
+        <v>0.0451058</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0362915</v>
+        <v>0.0354999</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0506085</v>
+        <v>0.0521906</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0456399</v>
+        <v>0.0471559</v>
       </c>
       <c r="D31" t="n">
-        <v>0.038217</v>
+        <v>0.0385649</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0538897</v>
+        <v>0.0538829</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0534497</v>
+        <v>0.0501814</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0436617</v>
+        <v>0.0427093</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0589271</v>
+        <v>0.0570913</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0564892</v>
+        <v>0.0558676</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0472323</v>
+        <v>0.0484424</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0659169</v>
+        <v>0.0657541</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0630975</v>
+        <v>0.0633952</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0549812</v>
+        <v>0.0553242</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0785859</v>
+        <v>0.0759881</v>
       </c>
       <c r="C35" t="n">
-        <v>0.07350660000000001</v>
+        <v>0.07493089999999999</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0702749</v>
+        <v>0.0692422</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0953871</v>
+        <v>0.09163259999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0965409</v>
+        <v>0.0957532</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0901054</v>
+        <v>0.08666210000000001</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.124948</v>
+        <v>0.12588</v>
       </c>
       <c r="C37" t="n">
-        <v>0.126629</v>
+        <v>0.12981</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0312647</v>
+        <v>0.0315742</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0475585</v>
+        <v>0.0465293</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0410972</v>
+        <v>0.0413756</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0316655</v>
+        <v>0.0329218</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.046583</v>
+        <v>0.0479241</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0415144</v>
+        <v>0.0429027</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0322423</v>
+        <v>0.031816</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.047104</v>
+        <v>0.048368</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0425964</v>
+        <v>0.0422473</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0321216</v>
+        <v>0.0336797</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0490479</v>
+        <v>0.0513671</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0432371</v>
+        <v>0.0438863</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0344105</v>
+        <v>0.0333855</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0508427</v>
+        <v>0.0514618</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0443331</v>
+        <v>0.0433084</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0346449</v>
+        <v>0.0354109</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.051724</v>
+        <v>0.0513576</v>
       </c>
       <c r="C43" t="n">
-        <v>0.045309</v>
+        <v>0.044587</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0367361</v>
+        <v>0.0358478</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0540147</v>
+        <v>0.0529065</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0477615</v>
+        <v>0.0485738</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0374506</v>
+        <v>0.0387807</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0561007</v>
+        <v>0.0565088</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0509327</v>
+        <v>0.0516586</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0412407</v>
+        <v>0.0408284</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.057386</v>
+        <v>0.0575136</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0544347</v>
+        <v>0.0557259</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0442411</v>
+        <v>0.0460022</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0619616</v>
+        <v>0.0638928</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0577092</v>
+        <v>0.0586082</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0499417</v>
+        <v>0.0512956</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0709081</v>
+        <v>0.0695335</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0651328</v>
+        <v>0.06714299999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0575093</v>
+        <v>0.0569577</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0800628</v>
+        <v>0.0777943</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0766143</v>
+        <v>0.08021490000000001</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0687373</v>
+        <v>0.069843</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0925233</v>
+        <v>0.09658460000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0976482</v>
+        <v>0.0943095</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0834096</v>
+        <v>0.0852041</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.11716</v>
+        <v>0.119887</v>
       </c>
       <c r="C51" t="n">
-        <v>0.121849</v>
+        <v>0.126909</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0372115</v>
+        <v>0.0386776</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.157807</v>
+        <v>0.158128</v>
       </c>
       <c r="C52" t="n">
-        <v>0.16224</v>
+        <v>0.160338</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0379061</v>
+        <v>0.0385112</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0580115</v>
+        <v>0.0566881</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0509891</v>
+        <v>0.0496695</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0401783</v>
+        <v>0.0390318</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0586289</v>
+        <v>0.0583099</v>
       </c>
       <c r="C54" t="n">
-        <v>0.050487</v>
+        <v>0.0520604</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0399068</v>
+        <v>0.0396401</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.05928</v>
+        <v>0.0599116</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0534311</v>
+        <v>0.0529904</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0399078</v>
+        <v>0.0406861</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0603023</v>
+        <v>0.0606611</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0525037</v>
+        <v>0.0532649</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0409274</v>
+        <v>0.042461</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0636845</v>
+        <v>0.0623242</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0555539</v>
+        <v>0.0564108</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0427189</v>
+        <v>0.0436777</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0650101</v>
+        <v>0.0642747</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0600929</v>
+        <v>0.0579535</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0443192</v>
+        <v>0.0444992</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.06479559999999999</v>
+        <v>0.0670559</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0590597</v>
+        <v>0.0589699</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0460587</v>
+        <v>0.047766</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0698333</v>
+        <v>0.0697203</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0640104</v>
+        <v>0.063189</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0512014</v>
+        <v>0.0495737</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.07358339999999999</v>
+        <v>0.0712468</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0697999</v>
+        <v>0.07130590000000001</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0540263</v>
+        <v>0.0565972</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0775917</v>
+        <v>0.0788488</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0759167</v>
+        <v>0.07584200000000001</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0621187</v>
+        <v>0.0611214</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.08692179999999999</v>
+        <v>0.0894987</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0881371</v>
+        <v>0.0858348</v>
       </c>
       <c r="D63" t="n">
-        <v>0.07160850000000001</v>
+        <v>0.072757</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0993329</v>
+        <v>0.102652</v>
       </c>
       <c r="C64" t="n">
-        <v>0.104739</v>
+        <v>0.103317</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0857252</v>
+        <v>0.0913702</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.124084</v>
+        <v>0.122611</v>
       </c>
       <c r="C65" t="n">
-        <v>0.130374</v>
+        <v>0.13097</v>
       </c>
       <c r="D65" t="n">
-        <v>0.109336</v>
+        <v>0.109905</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.158685</v>
+        <v>0.163521</v>
       </c>
       <c r="C66" t="n">
-        <v>0.169317</v>
+        <v>0.170634</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0430995</v>
+        <v>0.0422463</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0664672</v>
+        <v>0.0682905</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0600703</v>
+        <v>0.0594602</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0442141</v>
+        <v>0.0443129</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.06868050000000001</v>
+        <v>0.0688264</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0588308</v>
+        <v>0.06295539999999999</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0443206</v>
+        <v>0.0446651</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.06938329999999999</v>
+        <v>0.0737524</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0619179</v>
+        <v>0.0634299</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0463388</v>
+        <v>0.0452287</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0694109</v>
+        <v>0.07145269999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0645708</v>
+        <v>0.0651535</v>
       </c>
       <c r="D70" t="n">
-        <v>0.047255</v>
+        <v>0.0460495</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.07318379999999999</v>
+        <v>0.07301530000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>0.06755360000000001</v>
+        <v>0.0678763</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0508297</v>
+        <v>0.0486004</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0761597</v>
+        <v>0.0742091</v>
       </c>
       <c r="C72" t="n">
-        <v>0.06825249999999999</v>
+        <v>0.07054340000000001</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0510333</v>
+        <v>0.0508346</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0784096</v>
+        <v>0.0775371</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0717879</v>
+        <v>0.071896</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0538698</v>
+        <v>0.0533015</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0820988</v>
+        <v>0.0807312</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0774661</v>
+        <v>0.0779111</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0576617</v>
+        <v>0.0583024</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0887351</v>
+        <v>0.0882483</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0831606</v>
+        <v>0.086496</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0614825</v>
+        <v>0.06396159999999999</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0946225</v>
+        <v>0.0981722</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0951753</v>
+        <v>0.0921853</v>
       </c>
       <c r="D76" t="n">
-        <v>0.06872780000000001</v>
+        <v>0.0702771</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.109183</v>
+        <v>0.105828</v>
       </c>
       <c r="C77" t="n">
-        <v>0.104977</v>
+        <v>0.103294</v>
       </c>
       <c r="D77" t="n">
-        <v>0.08030329999999999</v>
+        <v>0.0812372</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.121622</v>
+        <v>0.11838</v>
       </c>
       <c r="C78" t="n">
-        <v>0.128428</v>
+        <v>0.116522</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0959462</v>
+        <v>0.09260069999999999</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.149542</v>
+        <v>0.146094</v>
       </c>
       <c r="C79" t="n">
-        <v>0.153389</v>
+        <v>0.150553</v>
       </c>
       <c r="D79" t="n">
-        <v>0.116684</v>
+        <v>0.117741</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.183582</v>
+        <v>0.173796</v>
       </c>
       <c r="C80" t="n">
-        <v>0.188809</v>
+        <v>0.184302</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0520857</v>
+        <v>0.0490117</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.08714</v>
+        <v>0.0840757</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0709182</v>
+        <v>0.072349</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0523464</v>
+        <v>0.0541777</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.085156</v>
+        <v>0.0830311</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0768793</v>
+        <v>0.0762409</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0527269</v>
+        <v>0.0565148</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0889421</v>
+        <v>0.0847069</v>
       </c>
       <c r="C83" t="n">
-        <v>0.07773629999999999</v>
+        <v>0.0766155</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0552974</v>
+        <v>0.0550405</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0911529</v>
+        <v>0.0871802</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0797726</v>
+        <v>0.08203009999999999</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0571152</v>
+        <v>0.0563762</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.089452</v>
+        <v>0.09021469999999999</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0830639</v>
+        <v>0.0820636</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0599405</v>
+        <v>0.0598724</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.09618259999999999</v>
+        <v>0.09456249999999999</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0868704</v>
+        <v>0.0858487</v>
       </c>
       <c r="D86" t="n">
-        <v>0.06316670000000001</v>
+        <v>0.0618726</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0995601</v>
+        <v>0.0976383</v>
       </c>
       <c r="C87" t="n">
-        <v>0.09187679999999999</v>
+        <v>0.0911053</v>
       </c>
       <c r="D87" t="n">
-        <v>0.06693739999999999</v>
+        <v>0.0636114</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.100274</v>
+        <v>0.102734</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0953102</v>
+        <v>0.0972919</v>
       </c>
       <c r="D88" t="n">
-        <v>0.06970759999999999</v>
+        <v>0.0691368</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.111271</v>
+        <v>0.10699</v>
       </c>
       <c r="C89" t="n">
-        <v>0.104955</v>
+        <v>0.100965</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0753407</v>
+        <v>0.0756023</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.116545</v>
+        <v>0.117913</v>
       </c>
       <c r="C90" t="n">
-        <v>0.114699</v>
+        <v>0.111793</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0822522</v>
+        <v>0.0819517</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.13114</v>
+        <v>0.126219</v>
       </c>
       <c r="C91" t="n">
-        <v>0.123609</v>
+        <v>0.122239</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0895306</v>
+        <v>0.08994820000000001</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.137585</v>
+        <v>0.14314</v>
       </c>
       <c r="C92" t="n">
-        <v>0.136324</v>
+        <v>0.140118</v>
       </c>
       <c r="D92" t="n">
-        <v>0.105718</v>
+        <v>0.10134</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.160566</v>
+        <v>0.1602</v>
       </c>
       <c r="C93" t="n">
-        <v>0.161288</v>
+        <v>0.160988</v>
       </c>
       <c r="D93" t="n">
-        <v>0.123039</v>
+        <v>0.123794</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.19688</v>
+        <v>0.191599</v>
       </c>
       <c r="C94" t="n">
-        <v>0.213468</v>
+        <v>0.202497</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0707156</v>
+        <v>0.0709712</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.10696</v>
+        <v>0.110122</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0981672</v>
+        <v>0.100217</v>
       </c>
       <c r="D95" t="n">
-        <v>0.07177749999999999</v>
+        <v>0.0717653</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.108893</v>
+        <v>0.112573</v>
       </c>
       <c r="C96" t="n">
-        <v>0.101356</v>
+        <v>0.0997456</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0737073</v>
+        <v>0.072642</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.111564</v>
+        <v>0.113535</v>
       </c>
       <c r="C97" t="n">
-        <v>0.104667</v>
+        <v>0.101819</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0751583</v>
+        <v>0.0746599</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.117051</v>
+        <v>0.115762</v>
       </c>
       <c r="C98" t="n">
-        <v>0.105347</v>
+        <v>0.107153</v>
       </c>
       <c r="D98" t="n">
-        <v>0.07962089999999999</v>
+        <v>0.07877190000000001</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.118511</v>
+        <v>0.119207</v>
       </c>
       <c r="C99" t="n">
-        <v>0.115282</v>
+        <v>0.110208</v>
       </c>
       <c r="D99" t="n">
-        <v>0.07883800000000001</v>
+        <v>0.07876039999999999</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.123942</v>
+        <v>0.121267</v>
       </c>
       <c r="C100" t="n">
-        <v>0.115033</v>
+        <v>0.113475</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0868028</v>
+        <v>0.08132010000000001</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.128646</v>
+        <v>0.123475</v>
       </c>
       <c r="C101" t="n">
-        <v>0.12381</v>
+        <v>0.11744</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0860843</v>
+        <v>0.0854757</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.127228</v>
+        <v>0.128856</v>
       </c>
       <c r="C102" t="n">
-        <v>0.127165</v>
+        <v>0.122591</v>
       </c>
       <c r="D102" t="n">
-        <v>0.089616</v>
+        <v>0.0864584</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.135653</v>
+        <v>0.135716</v>
       </c>
       <c r="C103" t="n">
-        <v>0.137295</v>
+        <v>0.128677</v>
       </c>
       <c r="D103" t="n">
-        <v>0.09259779999999999</v>
+        <v>0.0972541</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.146364</v>
+        <v>0.142509</v>
       </c>
       <c r="C104" t="n">
-        <v>0.141215</v>
+        <v>0.140399</v>
       </c>
       <c r="D104" t="n">
-        <v>0.105924</v>
+        <v>0.101496</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.156032</v>
+        <v>0.150411</v>
       </c>
       <c r="C105" t="n">
-        <v>0.152386</v>
+        <v>0.150718</v>
       </c>
       <c r="D105" t="n">
-        <v>0.112025</v>
+        <v>0.109909</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.170456</v>
+        <v>0.165325</v>
       </c>
       <c r="C106" t="n">
-        <v>0.175638</v>
+        <v>0.166311</v>
       </c>
       <c r="D106" t="n">
-        <v>0.12445</v>
+        <v>0.1245</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.188326</v>
+        <v>0.192017</v>
       </c>
       <c r="C107" t="n">
-        <v>0.195622</v>
+        <v>0.191967</v>
       </c>
       <c r="D107" t="n">
-        <v>0.149991</v>
+        <v>0.15048</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.22777</v>
+        <v>0.222929</v>
       </c>
       <c r="C108" t="n">
-        <v>0.242808</v>
+        <v>0.234915</v>
       </c>
       <c r="D108" t="n">
-        <v>0.157172</v>
+        <v>0.157001</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.28229</v>
+        <v>0.284076</v>
       </c>
       <c r="C109" t="n">
-        <v>0.304255</v>
+        <v>0.304793</v>
       </c>
       <c r="D109" t="n">
-        <v>0.15771</v>
+        <v>0.156106</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.200004</v>
+        <v>0.203929</v>
       </c>
       <c r="C110" t="n">
-        <v>0.190779</v>
+        <v>0.182839</v>
       </c>
       <c r="D110" t="n">
-        <v>0.161942</v>
+        <v>0.156386</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.195272</v>
+        <v>0.206777</v>
       </c>
       <c r="C111" t="n">
-        <v>0.184148</v>
+        <v>0.18355</v>
       </c>
       <c r="D111" t="n">
-        <v>0.159984</v>
+        <v>0.159478</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.210842</v>
+        <v>0.207563</v>
       </c>
       <c r="C112" t="n">
-        <v>0.18804</v>
+        <v>0.185648</v>
       </c>
       <c r="D112" t="n">
-        <v>0.156955</v>
+        <v>0.158203</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.218882</v>
+        <v>0.204638</v>
       </c>
       <c r="C113" t="n">
-        <v>0.202288</v>
+        <v>0.189219</v>
       </c>
       <c r="D113" t="n">
-        <v>0.172338</v>
+        <v>0.164184</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.211157</v>
+        <v>0.210416</v>
       </c>
       <c r="C114" t="n">
-        <v>0.189099</v>
+        <v>0.190626</v>
       </c>
       <c r="D114" t="n">
-        <v>0.168398</v>
+        <v>0.163515</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.22565</v>
+        <v>0.224182</v>
       </c>
       <c r="C115" t="n">
-        <v>0.198476</v>
+        <v>0.2039</v>
       </c>
       <c r="D115" t="n">
-        <v>0.173569</v>
+        <v>0.166584</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.218604</v>
+        <v>0.23235</v>
       </c>
       <c r="C116" t="n">
-        <v>0.202292</v>
+        <v>0.203549</v>
       </c>
       <c r="D116" t="n">
-        <v>0.171977</v>
+        <v>0.171443</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.232168</v>
+        <v>0.2255</v>
       </c>
       <c r="C117" t="n">
-        <v>0.209531</v>
+        <v>0.220468</v>
       </c>
       <c r="D117" t="n">
-        <v>0.176016</v>
+        <v>0.175065</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.23757</v>
+        <v>0.231563</v>
       </c>
       <c r="C118" t="n">
-        <v>0.221646</v>
+        <v>0.223001</v>
       </c>
       <c r="D118" t="n">
-        <v>0.19538</v>
+        <v>0.181271</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.252889</v>
+        <v>0.248429</v>
       </c>
       <c r="C119" t="n">
-        <v>0.228864</v>
+        <v>0.230875</v>
       </c>
       <c r="D119" t="n">
-        <v>0.185047</v>
+        <v>0.192275</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.262661</v>
+        <v>0.257699</v>
       </c>
       <c r="C120" t="n">
-        <v>0.247912</v>
+        <v>0.248263</v>
       </c>
       <c r="D120" t="n">
-        <v>0.218476</v>
+        <v>0.209931</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.292525</v>
+        <v>0.281776</v>
       </c>
       <c r="C121" t="n">
-        <v>0.289378</v>
+        <v>0.293712</v>
       </c>
       <c r="D121" t="n">
-        <v>0.235886</v>
+        <v>0.23419</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.307019</v>
+        <v>0.319784</v>
       </c>
       <c r="C122" t="n">
-        <v>0.31291</v>
+        <v>0.311697</v>
       </c>
       <c r="D122" t="n">
-        <v>0.268718</v>
+        <v>0.26172</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.375602</v>
+        <v>0.378413</v>
       </c>
       <c r="C123" t="n">
-        <v>0.389679</v>
+        <v>0.386257</v>
       </c>
       <c r="D123" t="n">
-        <v>0.24201</v>
+        <v>0.236469</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.312569</v>
+        <v>0.308089</v>
       </c>
       <c r="C124" t="n">
-        <v>0.271774</v>
+        <v>0.269898</v>
       </c>
       <c r="D124" t="n">
-        <v>0.250709</v>
+        <v>0.240805</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.317121</v>
+        <v>0.320682</v>
       </c>
       <c r="C125" t="n">
-        <v>0.273689</v>
+        <v>0.281479</v>
       </c>
       <c r="D125" t="n">
-        <v>0.246802</v>
+        <v>0.248815</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.320493</v>
+        <v>0.316994</v>
       </c>
       <c r="C126" t="n">
-        <v>0.278802</v>
+        <v>0.284664</v>
       </c>
       <c r="D126" t="n">
-        <v>0.24482</v>
+        <v>0.248861</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.325001</v>
+        <v>0.325204</v>
       </c>
       <c r="C127" t="n">
-        <v>0.289038</v>
+        <v>0.280008</v>
       </c>
       <c r="D127" t="n">
-        <v>0.249733</v>
+        <v>0.244129</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.326568</v>
+        <v>0.320447</v>
       </c>
       <c r="C128" t="n">
-        <v>0.290198</v>
+        <v>0.283585</v>
       </c>
       <c r="D128" t="n">
-        <v>0.24848</v>
+        <v>0.251868</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.33347</v>
+        <v>0.33199</v>
       </c>
       <c r="C129" t="n">
-        <v>0.28738</v>
+        <v>0.297415</v>
       </c>
       <c r="D129" t="n">
-        <v>0.255361</v>
+        <v>0.250408</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.337307</v>
+        <v>0.33472</v>
       </c>
       <c r="C130" t="n">
-        <v>0.298161</v>
+        <v>0.29871</v>
       </c>
       <c r="D130" t="n">
-        <v>0.257407</v>
+        <v>0.261399</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.344003</v>
+        <v>0.340197</v>
       </c>
       <c r="C131" t="n">
-        <v>0.303025</v>
+        <v>0.305253</v>
       </c>
       <c r="D131" t="n">
-        <v>0.267919</v>
+        <v>0.256022</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.355874</v>
+        <v>0.35515</v>
       </c>
       <c r="C132" t="n">
-        <v>0.321674</v>
+        <v>0.310091</v>
       </c>
       <c r="D132" t="n">
-        <v>0.268676</v>
+        <v>0.266503</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.374105</v>
+        <v>0.367732</v>
       </c>
       <c r="C133" t="n">
-        <v>0.341239</v>
+        <v>0.334501</v>
       </c>
       <c r="D133" t="n">
-        <v>0.277828</v>
+        <v>0.286463</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.391278</v>
+        <v>0.379745</v>
       </c>
       <c r="C134" t="n">
-        <v>0.352713</v>
+        <v>0.345818</v>
       </c>
       <c r="D134" t="n">
-        <v>0.296254</v>
+        <v>0.293843</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.408138</v>
+        <v>0.410856</v>
       </c>
       <c r="C135" t="n">
-        <v>0.378924</v>
+        <v>0.390018</v>
       </c>
       <c r="D135" t="n">
-        <v>0.323171</v>
+        <v>0.318621</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.451062</v>
+        <v>0.452257</v>
       </c>
       <c r="C136" t="n">
-        <v>0.424924</v>
+        <v>0.427639</v>
       </c>
       <c r="D136" t="n">
-        <v>0.350384</v>
+        <v>0.347199</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.550251</v>
+        <v>0.539243</v>
       </c>
       <c r="C137" t="n">
-        <v>0.518232</v>
+        <v>0.5107660000000001</v>
       </c>
       <c r="D137" t="n">
-        <v>0.297715</v>
+        <v>0.28943</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.385468</v>
+        <v>0.387654</v>
       </c>
       <c r="C138" t="n">
-        <v>0.332985</v>
+        <v>0.335188</v>
       </c>
       <c r="D138" t="n">
-        <v>0.298357</v>
+        <v>0.293804</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.382587</v>
+        <v>0.390375</v>
       </c>
       <c r="C139" t="n">
-        <v>0.329954</v>
+        <v>0.322706</v>
       </c>
       <c r="D139" t="n">
-        <v>0.30145</v>
+        <v>0.305615</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.393825</v>
+        <v>0.383881</v>
       </c>
       <c r="C140" t="n">
-        <v>0.34395</v>
+        <v>0.338794</v>
       </c>
       <c r="D140" t="n">
-        <v>0.301119</v>
+        <v>0.301453</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.391879</v>
+        <v>0.405232</v>
       </c>
       <c r="C141" t="n">
-        <v>0.333663</v>
+        <v>0.348366</v>
       </c>
       <c r="D141" t="n">
-        <v>0.301535</v>
+        <v>0.305423</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.397789</v>
+        <v>0.414107</v>
       </c>
       <c r="C142" t="n">
-        <v>0.346233</v>
+        <v>0.343107</v>
       </c>
       <c r="D142" t="n">
-        <v>0.308878</v>
+        <v>0.304796</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.401341</v>
+        <v>0.402416</v>
       </c>
       <c r="C143" t="n">
-        <v>0.354312</v>
+        <v>0.350759</v>
       </c>
       <c r="D143" t="n">
-        <v>0.311855</v>
+        <v>0.311285</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered unsuccessful looukp.xlsx
+++ b/vs-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0425493</v>
+        <v>0.0420021</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0395492</v>
+        <v>0.0406424</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0336901</v>
+        <v>0.0336841</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0439871</v>
+        <v>0.0433507</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0432463</v>
+        <v>0.0431325</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0362958</v>
+        <v>0.0376275</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0448289</v>
+        <v>0.0456954</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0463592</v>
+        <v>0.0484025</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0428695</v>
+        <v>0.0406864</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0506938</v>
+        <v>0.0508643</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0528493</v>
+        <v>0.0573295</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0459603</v>
+        <v>0.0453907</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0593878</v>
+        <v>0.0612044</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0614755</v>
+        <v>0.0667413</v>
       </c>
       <c r="D6" t="n">
-        <v>0.053797</v>
+        <v>0.0537486</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0715689</v>
+        <v>0.0738166</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0762746</v>
+        <v>0.07950840000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>0.066147</v>
+        <v>0.06762650000000001</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0918166</v>
+        <v>0.0947064</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0981677</v>
+        <v>0.09908599999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0837923</v>
+        <v>0.0831807</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.122594</v>
+        <v>0.120912</v>
       </c>
       <c r="C9" t="n">
-        <v>0.131227</v>
+        <v>0.135416</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0274211</v>
+        <v>0.112069</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0404204</v>
+        <v>0.0390562</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0340765</v>
+        <v>0.0370044</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0284162</v>
+        <v>0.0282152</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0392351</v>
+        <v>0.0409381</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0344527</v>
+        <v>0.036816</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0289599</v>
+        <v>0.0281359</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.039893</v>
+        <v>0.0397086</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0359842</v>
+        <v>0.0380083</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0307497</v>
+        <v>0.0300917</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0408559</v>
+        <v>0.0408285</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0363818</v>
+        <v>0.0378172</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0310581</v>
+        <v>0.0305392</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0415471</v>
+        <v>0.0422273</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0367848</v>
+        <v>0.0397031</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0318081</v>
+        <v>0.031973</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0428509</v>
+        <v>0.0421242</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0391388</v>
+        <v>0.0417173</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0325348</v>
+        <v>0.0331197</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0450396</v>
+        <v>0.0443741</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0416111</v>
+        <v>0.0445593</v>
       </c>
       <c r="D16" t="n">
-        <v>0.036673</v>
+        <v>0.0363263</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0463521</v>
+        <v>0.045353</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0445294</v>
+        <v>0.0468172</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0374458</v>
+        <v>0.0383818</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.048597</v>
+        <v>0.0497661</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0508917</v>
+        <v>0.0531962</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0448923</v>
+        <v>0.0437159</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0546205</v>
+        <v>0.0533726</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0553469</v>
+        <v>0.0587297</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0465443</v>
+        <v>0.0477984</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0631423</v>
+        <v>0.0633001</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0616966</v>
+        <v>0.06787020000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0565709</v>
+        <v>0.0557396</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.07408629999999999</v>
+        <v>0.0727505</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0804612</v>
+        <v>0.08141470000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0681943</v>
+        <v>0.06721920000000001</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0927748</v>
+        <v>0.0913798</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0950038</v>
+        <v>0.0982319</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0858811</v>
+        <v>0.08831219999999999</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.123354</v>
+        <v>0.120016</v>
       </c>
       <c r="C23" t="n">
-        <v>0.12909</v>
+        <v>0.136755</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0284111</v>
+        <v>0.115736</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0424897</v>
+        <v>0.043577</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0373134</v>
+        <v>0.0369845</v>
       </c>
       <c r="D24" t="n">
-        <v>0.028415</v>
+        <v>0.0290622</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0429353</v>
+        <v>0.042973</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0384058</v>
+        <v>0.0373905</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0297175</v>
+        <v>0.0293587</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0455769</v>
+        <v>0.0432881</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0376812</v>
+        <v>0.0405946</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0302115</v>
+        <v>0.0308759</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0454604</v>
+        <v>0.0441657</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0392006</v>
+        <v>0.0402306</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0317555</v>
+        <v>0.0313647</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0460403</v>
+        <v>0.045273</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0399252</v>
+        <v>0.0415115</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0324221</v>
+        <v>0.0324633</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0471305</v>
+        <v>0.0455759</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0407308</v>
+        <v>0.0429594</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0344196</v>
+        <v>0.0345756</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0514236</v>
+        <v>0.0485945</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0451058</v>
+        <v>0.0472563</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0354999</v>
+        <v>0.0356919</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0521906</v>
+        <v>0.050617</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0471559</v>
+        <v>0.049436</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0385649</v>
+        <v>0.0382661</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0538829</v>
+        <v>0.0542561</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0501814</v>
+        <v>0.0533353</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0427093</v>
+        <v>0.0431072</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0570913</v>
+        <v>0.0606425</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0558676</v>
+        <v>0.0585202</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0484424</v>
+        <v>0.0478281</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0657541</v>
+        <v>0.06731040000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0633952</v>
+        <v>0.0683257</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0553242</v>
+        <v>0.0567172</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0759881</v>
+        <v>0.07856109999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>0.07493089999999999</v>
+        <v>0.078316</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0692422</v>
+        <v>0.0688035</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.09163259999999999</v>
+        <v>0.09406929999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0957532</v>
+        <v>0.100542</v>
       </c>
       <c r="D36" t="n">
-        <v>0.08666210000000001</v>
+        <v>0.0880745</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.12588</v>
+        <v>0.121288</v>
       </c>
       <c r="C37" t="n">
-        <v>0.12981</v>
+        <v>0.136064</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0315742</v>
+        <v>0.114523</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0465293</v>
+        <v>0.0477256</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0413756</v>
+        <v>0.0409831</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0329218</v>
+        <v>0.0322673</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0479241</v>
+        <v>0.0477355</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0429027</v>
+        <v>0.0423308</v>
       </c>
       <c r="D39" t="n">
-        <v>0.031816</v>
+        <v>0.0365313</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.048368</v>
+        <v>0.049132</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0422473</v>
+        <v>0.0431849</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0336797</v>
+        <v>0.0343355</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0513671</v>
+        <v>0.0493482</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0438863</v>
+        <v>0.0454785</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0333855</v>
+        <v>0.0340732</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0514618</v>
+        <v>0.0504865</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0433084</v>
+        <v>0.0447649</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0354109</v>
+        <v>0.0355306</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0513576</v>
+        <v>0.052868</v>
       </c>
       <c r="C43" t="n">
-        <v>0.044587</v>
+        <v>0.0463927</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0358478</v>
+        <v>0.0372938</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0529065</v>
+        <v>0.0539458</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0485738</v>
+        <v>0.0493715</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0387807</v>
+        <v>0.0400065</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0565088</v>
+        <v>0.0571533</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0516586</v>
+        <v>0.0525954</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0408284</v>
+        <v>0.0408788</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0575136</v>
+        <v>0.0589754</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0557259</v>
+        <v>0.0568996</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0460022</v>
+        <v>0.0460945</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0638928</v>
+        <v>0.0621415</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0586082</v>
+        <v>0.0614868</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0512956</v>
+        <v>0.0509665</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0695335</v>
+        <v>0.0700535</v>
       </c>
       <c r="C48" t="n">
-        <v>0.06714299999999999</v>
+        <v>0.0695984</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0569577</v>
+        <v>0.0577982</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0777943</v>
+        <v>0.08050789999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>0.08021490000000001</v>
+        <v>0.08158609999999999</v>
       </c>
       <c r="D49" t="n">
-        <v>0.069843</v>
+        <v>0.0692784</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.09658460000000001</v>
+        <v>0.09898609999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0943095</v>
+        <v>0.0992725</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0852041</v>
+        <v>0.0872233</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.119887</v>
+        <v>0.123351</v>
       </c>
       <c r="C51" t="n">
-        <v>0.126909</v>
+        <v>0.12612</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0386776</v>
+        <v>0.107132</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.158128</v>
+        <v>0.162984</v>
       </c>
       <c r="C52" t="n">
-        <v>0.160338</v>
+        <v>0.166869</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0385112</v>
+        <v>0.146497</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0566881</v>
+        <v>0.0575221</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0496695</v>
+        <v>0.0498733</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0390318</v>
+        <v>0.0378989</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0583099</v>
+        <v>0.0583624</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0520604</v>
+        <v>0.0516687</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0396401</v>
+        <v>0.0399988</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0599116</v>
+        <v>0.0597235</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0529904</v>
+        <v>0.0529005</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0406861</v>
+        <v>0.0404698</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0606611</v>
+        <v>0.0597304</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0532649</v>
+        <v>0.0531375</v>
       </c>
       <c r="D56" t="n">
-        <v>0.042461</v>
+        <v>0.0410791</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0623242</v>
+        <v>0.0623983</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0564108</v>
+        <v>0.057102</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0436777</v>
+        <v>0.0436257</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0642747</v>
+        <v>0.065787</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0579535</v>
+        <v>0.0577269</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0444992</v>
+        <v>0.0445187</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0670559</v>
+        <v>0.06589399999999999</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0589699</v>
+        <v>0.0605905</v>
       </c>
       <c r="D59" t="n">
-        <v>0.047766</v>
+        <v>0.0458659</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0697203</v>
+        <v>0.06889140000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>0.063189</v>
+        <v>0.0654168</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0495737</v>
+        <v>0.0490714</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0712468</v>
+        <v>0.0722037</v>
       </c>
       <c r="C61" t="n">
-        <v>0.07130590000000001</v>
+        <v>0.068828</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0565972</v>
+        <v>0.0568642</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0788488</v>
+        <v>0.08046490000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>0.07584200000000001</v>
+        <v>0.0770078</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0611214</v>
+        <v>0.0612273</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0894987</v>
+        <v>0.0859664</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0858348</v>
+        <v>0.0888134</v>
       </c>
       <c r="D63" t="n">
-        <v>0.072757</v>
+        <v>0.0720826</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.102652</v>
+        <v>0.100537</v>
       </c>
       <c r="C64" t="n">
-        <v>0.103317</v>
+        <v>0.103297</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0913702</v>
+        <v>0.0893843</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.122611</v>
+        <v>0.125479</v>
       </c>
       <c r="C65" t="n">
-        <v>0.13097</v>
+        <v>0.133087</v>
       </c>
       <c r="D65" t="n">
-        <v>0.109905</v>
+        <v>0.109165</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.163521</v>
+        <v>0.162375</v>
       </c>
       <c r="C66" t="n">
-        <v>0.170634</v>
+        <v>0.172625</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0422463</v>
+        <v>0.145281</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0682905</v>
+        <v>0.065832</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0594602</v>
+        <v>0.0584559</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0443129</v>
+        <v>0.0440327</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0688264</v>
+        <v>0.0668052</v>
       </c>
       <c r="C68" t="n">
-        <v>0.06295539999999999</v>
+        <v>0.0585077</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0446651</v>
+        <v>0.0467732</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0737524</v>
+        <v>0.06683210000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0634299</v>
+        <v>0.06337189999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0452287</v>
+        <v>0.045511</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.07145269999999999</v>
+        <v>0.0677801</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0651535</v>
+        <v>0.0640809</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0460495</v>
+        <v>0.0466642</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.07301530000000001</v>
+        <v>0.07406740000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0678763</v>
+        <v>0.0668193</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0486004</v>
+        <v>0.0500718</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0742091</v>
+        <v>0.0736874</v>
       </c>
       <c r="C72" t="n">
-        <v>0.07054340000000001</v>
+        <v>0.0682282</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0508346</v>
+        <v>0.0519099</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0775371</v>
+        <v>0.0759311</v>
       </c>
       <c r="C73" t="n">
-        <v>0.071896</v>
+        <v>0.0721521</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0533015</v>
+        <v>0.0545024</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0807312</v>
+        <v>0.0822426</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0779111</v>
+        <v>0.07616050000000001</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0583024</v>
+        <v>0.0566522</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0882483</v>
+        <v>0.08841010000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>0.086496</v>
+        <v>0.08271100000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>0.06396159999999999</v>
+        <v>0.0615972</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0981722</v>
+        <v>0.09503399999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0921853</v>
+        <v>0.0929798</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0702771</v>
+        <v>0.0686006</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.105828</v>
+        <v>0.102614</v>
       </c>
       <c r="C77" t="n">
-        <v>0.103294</v>
+        <v>0.106111</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0812372</v>
+        <v>0.0792612</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.11838</v>
+        <v>0.116388</v>
       </c>
       <c r="C78" t="n">
-        <v>0.116522</v>
+        <v>0.122672</v>
       </c>
       <c r="D78" t="n">
-        <v>0.09260069999999999</v>
+        <v>0.0919746</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.146094</v>
+        <v>0.14423</v>
       </c>
       <c r="C79" t="n">
-        <v>0.150553</v>
+        <v>0.146318</v>
       </c>
       <c r="D79" t="n">
-        <v>0.117741</v>
+        <v>0.11572</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.173796</v>
+        <v>0.176654</v>
       </c>
       <c r="C80" t="n">
-        <v>0.184302</v>
+        <v>0.189137</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0490117</v>
+        <v>0.147178</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0840757</v>
+        <v>0.0823237</v>
       </c>
       <c r="C81" t="n">
-        <v>0.072349</v>
+        <v>0.0698009</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0541777</v>
+        <v>0.0505067</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0830311</v>
+        <v>0.0841992</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0762409</v>
+        <v>0.074462</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0565148</v>
+        <v>0.0523338</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0847069</v>
+        <v>0.088418</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0766155</v>
+        <v>0.07758909999999999</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0550405</v>
+        <v>0.0555534</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0871802</v>
+        <v>0.08833290000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>0.08203009999999999</v>
+        <v>0.078906</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0563762</v>
+        <v>0.0569632</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.09021469999999999</v>
+        <v>0.08970409999999999</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0820636</v>
+        <v>0.0806838</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0598724</v>
+        <v>0.0587009</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.09456249999999999</v>
+        <v>0.0942708</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0858487</v>
+        <v>0.08580069999999999</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0618726</v>
+        <v>0.0615905</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0976383</v>
+        <v>0.0973058</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0911053</v>
+        <v>0.09046129999999999</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0636114</v>
+        <v>0.06711540000000001</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.102734</v>
+        <v>0.102677</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0972919</v>
+        <v>0.09670189999999999</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0691368</v>
+        <v>0.06858690000000001</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.10699</v>
+        <v>0.108227</v>
       </c>
       <c r="C89" t="n">
-        <v>0.100965</v>
+        <v>0.101858</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0756023</v>
+        <v>0.0736533</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.117913</v>
+        <v>0.11736</v>
       </c>
       <c r="C90" t="n">
-        <v>0.111793</v>
+        <v>0.109505</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0819517</v>
+        <v>0.081513</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.126219</v>
+        <v>0.125122</v>
       </c>
       <c r="C91" t="n">
-        <v>0.122239</v>
+        <v>0.126419</v>
       </c>
       <c r="D91" t="n">
-        <v>0.08994820000000001</v>
+        <v>0.0908269</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.14314</v>
+        <v>0.139111</v>
       </c>
       <c r="C92" t="n">
-        <v>0.140118</v>
+        <v>0.142974</v>
       </c>
       <c r="D92" t="n">
-        <v>0.10134</v>
+        <v>0.101778</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.1602</v>
+        <v>0.160937</v>
       </c>
       <c r="C93" t="n">
-        <v>0.160988</v>
+        <v>0.167353</v>
       </c>
       <c r="D93" t="n">
-        <v>0.123794</v>
+        <v>0.124779</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.191599</v>
+        <v>0.191678</v>
       </c>
       <c r="C94" t="n">
-        <v>0.202497</v>
+        <v>0.206246</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0709712</v>
+        <v>0.157645</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.110122</v>
+        <v>0.111902</v>
       </c>
       <c r="C95" t="n">
-        <v>0.100217</v>
+        <v>0.0975278</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0717653</v>
+        <v>0.07353800000000001</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.112573</v>
+        <v>0.110462</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0997456</v>
+        <v>0.102703</v>
       </c>
       <c r="D96" t="n">
-        <v>0.072642</v>
+        <v>0.0731272</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.113535</v>
+        <v>0.109903</v>
       </c>
       <c r="C97" t="n">
-        <v>0.101819</v>
+        <v>0.10317</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0746599</v>
+        <v>0.07774880000000001</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.115762</v>
+        <v>0.116247</v>
       </c>
       <c r="C98" t="n">
-        <v>0.107153</v>
+        <v>0.107025</v>
       </c>
       <c r="D98" t="n">
-        <v>0.07877190000000001</v>
+        <v>0.07725659999999999</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.119207</v>
+        <v>0.119296</v>
       </c>
       <c r="C99" t="n">
-        <v>0.110208</v>
+        <v>0.109779</v>
       </c>
       <c r="D99" t="n">
-        <v>0.07876039999999999</v>
+        <v>0.0788901</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.121267</v>
+        <v>0.12489</v>
       </c>
       <c r="C100" t="n">
-        <v>0.113475</v>
+        <v>0.112654</v>
       </c>
       <c r="D100" t="n">
-        <v>0.08132010000000001</v>
+        <v>0.082236</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.123475</v>
+        <v>0.127301</v>
       </c>
       <c r="C101" t="n">
-        <v>0.11744</v>
+        <v>0.118189</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0854757</v>
+        <v>0.0840133</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.128856</v>
+        <v>0.125686</v>
       </c>
       <c r="C102" t="n">
-        <v>0.122591</v>
+        <v>0.119725</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0864584</v>
+        <v>0.0906882</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.135716</v>
+        <v>0.134331</v>
       </c>
       <c r="C103" t="n">
-        <v>0.128677</v>
+        <v>0.134637</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0972541</v>
+        <v>0.09494379999999999</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.142509</v>
+        <v>0.147001</v>
       </c>
       <c r="C104" t="n">
-        <v>0.140399</v>
+        <v>0.136484</v>
       </c>
       <c r="D104" t="n">
-        <v>0.101496</v>
+        <v>0.105434</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.150411</v>
+        <v>0.151906</v>
       </c>
       <c r="C105" t="n">
-        <v>0.150718</v>
+        <v>0.155333</v>
       </c>
       <c r="D105" t="n">
-        <v>0.109909</v>
+        <v>0.110612</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.165325</v>
+        <v>0.168563</v>
       </c>
       <c r="C106" t="n">
-        <v>0.166311</v>
+        <v>0.175587</v>
       </c>
       <c r="D106" t="n">
-        <v>0.1245</v>
+        <v>0.123059</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.192017</v>
+        <v>0.186738</v>
       </c>
       <c r="C107" t="n">
-        <v>0.191967</v>
+        <v>0.194673</v>
       </c>
       <c r="D107" t="n">
-        <v>0.15048</v>
+        <v>0.144756</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.222929</v>
+        <v>0.227481</v>
       </c>
       <c r="C108" t="n">
-        <v>0.234915</v>
+        <v>0.23695</v>
       </c>
       <c r="D108" t="n">
-        <v>0.157001</v>
+        <v>0.174531</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.284076</v>
+        <v>0.279967</v>
       </c>
       <c r="C109" t="n">
-        <v>0.304793</v>
+        <v>0.303509</v>
       </c>
       <c r="D109" t="n">
-        <v>0.156106</v>
+        <v>0.220483</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.203929</v>
+        <v>0.195295</v>
       </c>
       <c r="C110" t="n">
-        <v>0.182839</v>
+        <v>0.178629</v>
       </c>
       <c r="D110" t="n">
-        <v>0.156386</v>
+        <v>0.155314</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.206777</v>
+        <v>0.205702</v>
       </c>
       <c r="C111" t="n">
-        <v>0.18355</v>
+        <v>0.183691</v>
       </c>
       <c r="D111" t="n">
-        <v>0.159478</v>
+        <v>0.162157</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.207563</v>
+        <v>0.204916</v>
       </c>
       <c r="C112" t="n">
-        <v>0.185648</v>
+        <v>0.18499</v>
       </c>
       <c r="D112" t="n">
-        <v>0.158203</v>
+        <v>0.162595</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.204638</v>
+        <v>0.204837</v>
       </c>
       <c r="C113" t="n">
-        <v>0.189219</v>
+        <v>0.201799</v>
       </c>
       <c r="D113" t="n">
-        <v>0.164184</v>
+        <v>0.168035</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.210416</v>
+        <v>0.212385</v>
       </c>
       <c r="C114" t="n">
-        <v>0.190626</v>
+        <v>0.187275</v>
       </c>
       <c r="D114" t="n">
-        <v>0.163515</v>
+        <v>0.163857</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.224182</v>
+        <v>0.213672</v>
       </c>
       <c r="C115" t="n">
-        <v>0.2039</v>
+        <v>0.196558</v>
       </c>
       <c r="D115" t="n">
-        <v>0.166584</v>
+        <v>0.162299</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.23235</v>
+        <v>0.212365</v>
       </c>
       <c r="C116" t="n">
-        <v>0.203549</v>
+        <v>0.202483</v>
       </c>
       <c r="D116" t="n">
-        <v>0.171443</v>
+        <v>0.164606</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.2255</v>
+        <v>0.232183</v>
       </c>
       <c r="C117" t="n">
-        <v>0.220468</v>
+        <v>0.213053</v>
       </c>
       <c r="D117" t="n">
-        <v>0.175065</v>
+        <v>0.179576</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.231563</v>
+        <v>0.23637</v>
       </c>
       <c r="C118" t="n">
-        <v>0.223001</v>
+        <v>0.217358</v>
       </c>
       <c r="D118" t="n">
-        <v>0.181271</v>
+        <v>0.17922</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.248429</v>
+        <v>0.243201</v>
       </c>
       <c r="C119" t="n">
-        <v>0.230875</v>
+        <v>0.236295</v>
       </c>
       <c r="D119" t="n">
-        <v>0.192275</v>
+        <v>0.186591</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.257699</v>
+        <v>0.264362</v>
       </c>
       <c r="C120" t="n">
-        <v>0.248263</v>
+        <v>0.246084</v>
       </c>
       <c r="D120" t="n">
-        <v>0.209931</v>
+        <v>0.203759</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.281776</v>
+        <v>0.275296</v>
       </c>
       <c r="C121" t="n">
-        <v>0.293712</v>
+        <v>0.273715</v>
       </c>
       <c r="D121" t="n">
-        <v>0.23419</v>
+        <v>0.222069</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.319784</v>
+        <v>0.307131</v>
       </c>
       <c r="C122" t="n">
-        <v>0.311697</v>
+        <v>0.32191</v>
       </c>
       <c r="D122" t="n">
-        <v>0.26172</v>
+        <v>0.254466</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.378413</v>
+        <v>0.378257</v>
       </c>
       <c r="C123" t="n">
-        <v>0.386257</v>
+        <v>0.384491</v>
       </c>
       <c r="D123" t="n">
-        <v>0.236469</v>
+        <v>0.313602</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.308089</v>
+        <v>0.303855</v>
       </c>
       <c r="C124" t="n">
-        <v>0.269898</v>
+        <v>0.27291</v>
       </c>
       <c r="D124" t="n">
-        <v>0.240805</v>
+        <v>0.241225</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.320682</v>
+        <v>0.312087</v>
       </c>
       <c r="C125" t="n">
-        <v>0.281479</v>
+        <v>0.273816</v>
       </c>
       <c r="D125" t="n">
-        <v>0.248815</v>
+        <v>0.246006</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.316994</v>
+        <v>0.317921</v>
       </c>
       <c r="C126" t="n">
-        <v>0.284664</v>
+        <v>0.283831</v>
       </c>
       <c r="D126" t="n">
-        <v>0.248861</v>
+        <v>0.244562</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.325204</v>
+        <v>0.319968</v>
       </c>
       <c r="C127" t="n">
-        <v>0.280008</v>
+        <v>0.277226</v>
       </c>
       <c r="D127" t="n">
-        <v>0.244129</v>
+        <v>0.246915</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.320447</v>
+        <v>0.322368</v>
       </c>
       <c r="C128" t="n">
-        <v>0.283585</v>
+        <v>0.285945</v>
       </c>
       <c r="D128" t="n">
-        <v>0.251868</v>
+        <v>0.256113</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.33199</v>
+        <v>0.326456</v>
       </c>
       <c r="C129" t="n">
-        <v>0.297415</v>
+        <v>0.290612</v>
       </c>
       <c r="D129" t="n">
-        <v>0.250408</v>
+        <v>0.252062</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.33472</v>
+        <v>0.335141</v>
       </c>
       <c r="C130" t="n">
-        <v>0.29871</v>
+        <v>0.296235</v>
       </c>
       <c r="D130" t="n">
-        <v>0.261399</v>
+        <v>0.260793</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.340197</v>
+        <v>0.349176</v>
       </c>
       <c r="C131" t="n">
-        <v>0.305253</v>
+        <v>0.308521</v>
       </c>
       <c r="D131" t="n">
-        <v>0.256022</v>
+        <v>0.262995</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.35515</v>
+        <v>0.355843</v>
       </c>
       <c r="C132" t="n">
-        <v>0.310091</v>
+        <v>0.324581</v>
       </c>
       <c r="D132" t="n">
-        <v>0.266503</v>
+        <v>0.267564</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.367732</v>
+        <v>0.371579</v>
       </c>
       <c r="C133" t="n">
-        <v>0.334501</v>
+        <v>0.336759</v>
       </c>
       <c r="D133" t="n">
-        <v>0.286463</v>
+        <v>0.289114</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.379745</v>
+        <v>0.380254</v>
       </c>
       <c r="C134" t="n">
-        <v>0.345818</v>
+        <v>0.353804</v>
       </c>
       <c r="D134" t="n">
-        <v>0.293843</v>
+        <v>0.290173</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.410856</v>
+        <v>0.42188</v>
       </c>
       <c r="C135" t="n">
-        <v>0.390018</v>
+        <v>0.388997</v>
       </c>
       <c r="D135" t="n">
-        <v>0.318621</v>
+        <v>0.316662</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.452257</v>
+        <v>0.45702</v>
       </c>
       <c r="C136" t="n">
-        <v>0.427639</v>
+        <v>0.43006</v>
       </c>
       <c r="D136" t="n">
-        <v>0.347199</v>
+        <v>0.348279</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.539243</v>
+        <v>0.543449</v>
       </c>
       <c r="C137" t="n">
-        <v>0.5107660000000001</v>
+        <v>0.510479</v>
       </c>
       <c r="D137" t="n">
-        <v>0.28943</v>
+        <v>0.41464</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.387654</v>
+        <v>0.384092</v>
       </c>
       <c r="C138" t="n">
-        <v>0.335188</v>
+        <v>0.33143</v>
       </c>
       <c r="D138" t="n">
-        <v>0.293804</v>
+        <v>0.292709</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.390375</v>
+        <v>0.379222</v>
       </c>
       <c r="C139" t="n">
-        <v>0.322706</v>
+        <v>0.333671</v>
       </c>
       <c r="D139" t="n">
-        <v>0.305615</v>
+        <v>0.296122</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.383881</v>
+        <v>0.391855</v>
       </c>
       <c r="C140" t="n">
-        <v>0.338794</v>
+        <v>0.335898</v>
       </c>
       <c r="D140" t="n">
-        <v>0.301453</v>
+        <v>0.302683</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.405232</v>
+        <v>0.395822</v>
       </c>
       <c r="C141" t="n">
-        <v>0.348366</v>
+        <v>0.336241</v>
       </c>
       <c r="D141" t="n">
-        <v>0.305423</v>
+        <v>0.311159</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.414107</v>
+        <v>0.401939</v>
       </c>
       <c r="C142" t="n">
-        <v>0.343107</v>
+        <v>0.352437</v>
       </c>
       <c r="D142" t="n">
-        <v>0.304796</v>
+        <v>0.303527</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.402416</v>
+        <v>0.405555</v>
       </c>
       <c r="C143" t="n">
-        <v>0.350759</v>
+        <v>0.34809</v>
       </c>
       <c r="D143" t="n">
-        <v>0.311285</v>
+        <v>0.315304</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered unsuccessful looukp.xlsx
+++ b/vs-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0420021</v>
+        <v>0.0415172</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0406424</v>
+        <v>0.0374722</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0336841</v>
+        <v>0.041183</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0433507</v>
+        <v>0.0450511</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0431325</v>
+        <v>0.0408515</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0376275</v>
+        <v>0.0439964</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0456954</v>
+        <v>0.0471854</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0484025</v>
+        <v>0.0460401</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0406864</v>
+        <v>0.0488744</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0508643</v>
+        <v>0.0558375</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0573295</v>
+        <v>0.0520802</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0453907</v>
+        <v>0.053336</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0612044</v>
+        <v>0.0614309</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0667413</v>
+        <v>0.061518</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0537486</v>
+        <v>0.0591819</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0738166</v>
+        <v>0.07591870000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07950840000000001</v>
+        <v>0.07733760000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>0.06762650000000001</v>
+        <v>0.0755256</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0947064</v>
+        <v>0.0990656</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09908599999999999</v>
+        <v>0.0973971</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0831807</v>
+        <v>0.0938034</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.120912</v>
+        <v>0.137796</v>
       </c>
       <c r="C9" t="n">
-        <v>0.135416</v>
+        <v>0.129778</v>
       </c>
       <c r="D9" t="n">
-        <v>0.112069</v>
+        <v>0.117491</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0390562</v>
+        <v>0.0409209</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0370044</v>
+        <v>0.0344902</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0282152</v>
+        <v>0.0332293</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0409381</v>
+        <v>0.0400991</v>
       </c>
       <c r="C11" t="n">
-        <v>0.036816</v>
+        <v>0.0342075</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0281359</v>
+        <v>0.0349048</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0397086</v>
+        <v>0.0421076</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0380083</v>
+        <v>0.036493</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0300917</v>
+        <v>0.0357955</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0408285</v>
+        <v>0.0410466</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0378172</v>
+        <v>0.0359566</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0305392</v>
+        <v>0.0369795</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0422273</v>
+        <v>0.042498</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0397031</v>
+        <v>0.0377627</v>
       </c>
       <c r="D14" t="n">
-        <v>0.031973</v>
+        <v>0.0376202</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0421242</v>
+        <v>0.0448254</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0417173</v>
+        <v>0.039288</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0331197</v>
+        <v>0.0396533</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0443741</v>
+        <v>0.0442707</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0445593</v>
+        <v>0.0410744</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0363263</v>
+        <v>0.0457484</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.045353</v>
+        <v>0.0481669</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0468172</v>
+        <v>0.0443471</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0383818</v>
+        <v>0.0452935</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0497661</v>
+        <v>0.0511079</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0531962</v>
+        <v>0.0496256</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0437159</v>
+        <v>0.0503658</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0533726</v>
+        <v>0.0559641</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0587297</v>
+        <v>0.0548922</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0477984</v>
+        <v>0.0557144</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0633001</v>
+        <v>0.0636231</v>
       </c>
       <c r="C20" t="n">
-        <v>0.06787020000000001</v>
+        <v>0.063273</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0557396</v>
+        <v>0.0645285</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0727505</v>
+        <v>0.0735556</v>
       </c>
       <c r="C21" t="n">
-        <v>0.08141470000000001</v>
+        <v>0.0782296</v>
       </c>
       <c r="D21" t="n">
-        <v>0.06721920000000001</v>
+        <v>0.0763881</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0913798</v>
+        <v>0.0938283</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0982319</v>
+        <v>0.0968604</v>
       </c>
       <c r="D22" t="n">
-        <v>0.08831219999999999</v>
+        <v>0.09424979999999999</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.120016</v>
+        <v>0.127641</v>
       </c>
       <c r="C23" t="n">
-        <v>0.136755</v>
+        <v>0.130695</v>
       </c>
       <c r="D23" t="n">
-        <v>0.115736</v>
+        <v>0.124304</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.043577</v>
+        <v>0.0428716</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0369845</v>
+        <v>0.0369747</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0290622</v>
+        <v>0.0359782</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.042973</v>
+        <v>0.0430364</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0373905</v>
+        <v>0.036231</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0293587</v>
+        <v>0.0365149</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0432881</v>
+        <v>0.0447301</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0405946</v>
+        <v>0.0376472</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0308759</v>
+        <v>0.0363841</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0441657</v>
+        <v>0.044483</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0402306</v>
+        <v>0.0387112</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0313647</v>
+        <v>0.0391349</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.045273</v>
+        <v>0.0463937</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0415115</v>
+        <v>0.0400467</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0324633</v>
+        <v>0.0417117</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0455759</v>
+        <v>0.0460823</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0429594</v>
+        <v>0.0416562</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0345756</v>
+        <v>0.0414089</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0485945</v>
+        <v>0.0474564</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0472563</v>
+        <v>0.0434784</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0356919</v>
+        <v>0.0442338</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.050617</v>
+        <v>0.0513546</v>
       </c>
       <c r="C31" t="n">
-        <v>0.049436</v>
+        <v>0.0467331</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0382661</v>
+        <v>0.0468662</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0542561</v>
+        <v>0.0524477</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0533353</v>
+        <v>0.0533583</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0431072</v>
+        <v>0.0500988</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0606425</v>
+        <v>0.0594251</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0585202</v>
+        <v>0.0576419</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0478281</v>
+        <v>0.0564363</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.06731040000000001</v>
+        <v>0.0648089</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0683257</v>
+        <v>0.06324200000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0567172</v>
+        <v>0.0638561</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.07856109999999999</v>
+        <v>0.0758282</v>
       </c>
       <c r="C35" t="n">
-        <v>0.078316</v>
+        <v>0.075575</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0688035</v>
+        <v>0.0750657</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.09406929999999999</v>
+        <v>0.09092</v>
       </c>
       <c r="C36" t="n">
-        <v>0.100542</v>
+        <v>0.0961858</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0880745</v>
+        <v>0.09337239999999999</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.121288</v>
+        <v>0.117188</v>
       </c>
       <c r="C37" t="n">
-        <v>0.136064</v>
+        <v>0.125428</v>
       </c>
       <c r="D37" t="n">
-        <v>0.114523</v>
+        <v>0.123704</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0477256</v>
+        <v>0.0477937</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0409831</v>
+        <v>0.0414087</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0322673</v>
+        <v>0.0409643</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0477355</v>
+        <v>0.0473381</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0423308</v>
+        <v>0.0411922</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0365313</v>
+        <v>0.0405021</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.049132</v>
+        <v>0.0490027</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0431849</v>
+        <v>0.041756</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0343355</v>
+        <v>0.0417288</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0493482</v>
+        <v>0.0485093</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0454785</v>
+        <v>0.0427159</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0340732</v>
+        <v>0.041811</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0504865</v>
+        <v>0.0519975</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0447649</v>
+        <v>0.0455575</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0355306</v>
+        <v>0.0433142</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.052868</v>
+        <v>0.0518707</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0463927</v>
+        <v>0.0474093</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0372938</v>
+        <v>0.0448127</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0539458</v>
+        <v>0.0538042</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0493715</v>
+        <v>0.0480292</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0400065</v>
+        <v>0.0471488</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0571533</v>
+        <v>0.0563251</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0525954</v>
+        <v>0.0518129</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0408788</v>
+        <v>0.0509786</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0589754</v>
+        <v>0.058768</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0568996</v>
+        <v>0.0540422</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0460945</v>
+        <v>0.0551922</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0621415</v>
+        <v>0.0614064</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0614868</v>
+        <v>0.0589266</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0509665</v>
+        <v>0.0581523</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0700535</v>
+        <v>0.06893829999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0695984</v>
+        <v>0.06683989999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0577982</v>
+        <v>0.06663769999999999</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.08050789999999999</v>
+        <v>0.0795194</v>
       </c>
       <c r="C49" t="n">
-        <v>0.08158609999999999</v>
+        <v>0.080318</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0692784</v>
+        <v>0.07633810000000001</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.09898609999999999</v>
+        <v>0.091194</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0992725</v>
+        <v>0.09571209999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0872233</v>
+        <v>0.09243700000000001</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.123351</v>
+        <v>0.118103</v>
       </c>
       <c r="C51" t="n">
-        <v>0.12612</v>
+        <v>0.124921</v>
       </c>
       <c r="D51" t="n">
-        <v>0.107132</v>
+        <v>0.120913</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.162984</v>
+        <v>0.155362</v>
       </c>
       <c r="C52" t="n">
-        <v>0.166869</v>
+        <v>0.159471</v>
       </c>
       <c r="D52" t="n">
-        <v>0.146497</v>
+        <v>0.151328</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0575221</v>
+        <v>0.0606311</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0498733</v>
+        <v>0.0519135</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0378989</v>
+        <v>0.0493416</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0583624</v>
+        <v>0.0585446</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0516687</v>
+        <v>0.0527979</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0399988</v>
+        <v>0.0492174</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0597235</v>
+        <v>0.0601638</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0529005</v>
+        <v>0.0527583</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0404698</v>
+        <v>0.0511502</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0597304</v>
+        <v>0.0615909</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0531375</v>
+        <v>0.0526858</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0410791</v>
+        <v>0.0514984</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0623983</v>
+        <v>0.0607584</v>
       </c>
       <c r="C57" t="n">
-        <v>0.057102</v>
+        <v>0.055255</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0436257</v>
+        <v>0.0557288</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.065787</v>
+        <v>0.0651105</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0577269</v>
+        <v>0.0586989</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0445187</v>
+        <v>0.0560398</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.06589399999999999</v>
+        <v>0.0676808</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0605905</v>
+        <v>0.0596676</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0458659</v>
+        <v>0.058571</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.06889140000000001</v>
+        <v>0.0702057</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0654168</v>
+        <v>0.0638828</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0490714</v>
+        <v>0.0649793</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0722037</v>
+        <v>0.07491349999999999</v>
       </c>
       <c r="C61" t="n">
-        <v>0.068828</v>
+        <v>0.0691692</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0568642</v>
+        <v>0.06696879999999999</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.08046490000000001</v>
+        <v>0.0798165</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0770078</v>
+        <v>0.07602589999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0612273</v>
+        <v>0.07352300000000001</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0859664</v>
+        <v>0.089894</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0888134</v>
+        <v>0.0881624</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0720826</v>
+        <v>0.08463469999999999</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.100537</v>
+        <v>0.103303</v>
       </c>
       <c r="C64" t="n">
-        <v>0.103297</v>
+        <v>0.102228</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0893843</v>
+        <v>0.09951500000000001</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.125479</v>
+        <v>0.123824</v>
       </c>
       <c r="C65" t="n">
-        <v>0.133087</v>
+        <v>0.131003</v>
       </c>
       <c r="D65" t="n">
-        <v>0.109165</v>
+        <v>0.120424</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.162375</v>
+        <v>0.161274</v>
       </c>
       <c r="C66" t="n">
-        <v>0.172625</v>
+        <v>0.168689</v>
       </c>
       <c r="D66" t="n">
-        <v>0.145281</v>
+        <v>0.157627</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.065832</v>
+        <v>0.0663086</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0584559</v>
+        <v>0.0603848</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0440327</v>
+        <v>0.0579155</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0668052</v>
+        <v>0.0690547</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0585077</v>
+        <v>0.0594724</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0467732</v>
+        <v>0.0584609</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.06683210000000001</v>
+        <v>0.07019069999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>0.06337189999999999</v>
+        <v>0.06426610000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>0.045511</v>
+        <v>0.0598446</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0677801</v>
+        <v>0.06986879999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0640809</v>
+        <v>0.0644232</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0466642</v>
+        <v>0.0638802</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.07406740000000001</v>
+        <v>0.0741127</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0668193</v>
+        <v>0.06740939999999999</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0500718</v>
+        <v>0.06402140000000001</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0736874</v>
+        <v>0.0734147</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0682282</v>
+        <v>0.0682093</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0519099</v>
+        <v>0.0688425</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0759311</v>
+        <v>0.0812343</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0721521</v>
+        <v>0.0738486</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0545024</v>
+        <v>0.07125479999999999</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0822426</v>
+        <v>0.08238819999999999</v>
       </c>
       <c r="C74" t="n">
-        <v>0.07616050000000001</v>
+        <v>0.0778059</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0566522</v>
+        <v>0.07620200000000001</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.08841010000000001</v>
+        <v>0.0879708</v>
       </c>
       <c r="C75" t="n">
-        <v>0.08271100000000001</v>
+        <v>0.0849679</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0615972</v>
+        <v>0.0810478</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.09503399999999999</v>
+        <v>0.09872880000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0929798</v>
+        <v>0.0925363</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0686006</v>
+        <v>0.0913062</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.102614</v>
+        <v>0.108506</v>
       </c>
       <c r="C77" t="n">
-        <v>0.106111</v>
+        <v>0.106086</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0792612</v>
+        <v>0.0990622</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.116388</v>
+        <v>0.12238</v>
       </c>
       <c r="C78" t="n">
-        <v>0.122672</v>
+        <v>0.123436</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0919746</v>
+        <v>0.117517</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.14423</v>
+        <v>0.146948</v>
       </c>
       <c r="C79" t="n">
-        <v>0.146318</v>
+        <v>0.1508</v>
       </c>
       <c r="D79" t="n">
-        <v>0.11572</v>
+        <v>0.136167</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.176654</v>
+        <v>0.183481</v>
       </c>
       <c r="C80" t="n">
-        <v>0.189137</v>
+        <v>0.191412</v>
       </c>
       <c r="D80" t="n">
-        <v>0.147178</v>
+        <v>0.174833</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0823237</v>
+        <v>0.0839978</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0698009</v>
+        <v>0.08045049999999999</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0505067</v>
+        <v>0.0742525</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0841992</v>
+        <v>0.0860578</v>
       </c>
       <c r="C82" t="n">
-        <v>0.074462</v>
+        <v>0.0751515</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0523338</v>
+        <v>0.0728138</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.088418</v>
+        <v>0.0888031</v>
       </c>
       <c r="C83" t="n">
-        <v>0.07758909999999999</v>
+        <v>0.0795964</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0555534</v>
+        <v>0.07472090000000001</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.08833290000000001</v>
+        <v>0.0868746</v>
       </c>
       <c r="C84" t="n">
-        <v>0.078906</v>
+        <v>0.0806255</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0569632</v>
+        <v>0.07985879999999999</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.08970409999999999</v>
+        <v>0.0936355</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0806838</v>
+        <v>0.0839854</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0587009</v>
+        <v>0.0810526</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0942708</v>
+        <v>0.0942581</v>
       </c>
       <c r="C86" t="n">
-        <v>0.08580069999999999</v>
+        <v>0.0880692</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0615905</v>
+        <v>0.08578429999999999</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0973058</v>
+        <v>0.09681099999999999</v>
       </c>
       <c r="C87" t="n">
-        <v>0.09046129999999999</v>
+        <v>0.0899054</v>
       </c>
       <c r="D87" t="n">
-        <v>0.06711540000000001</v>
+        <v>0.0861219</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.102677</v>
+        <v>0.102267</v>
       </c>
       <c r="C88" t="n">
-        <v>0.09670189999999999</v>
+        <v>0.0988796</v>
       </c>
       <c r="D88" t="n">
-        <v>0.06858690000000001</v>
+        <v>0.0936902</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.108227</v>
+        <v>0.107113</v>
       </c>
       <c r="C89" t="n">
-        <v>0.101858</v>
+        <v>0.104341</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0736533</v>
+        <v>0.09649099999999999</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.11736</v>
+        <v>0.116283</v>
       </c>
       <c r="C90" t="n">
-        <v>0.109505</v>
+        <v>0.114244</v>
       </c>
       <c r="D90" t="n">
-        <v>0.081513</v>
+        <v>0.107901</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.125122</v>
+        <v>0.121741</v>
       </c>
       <c r="C91" t="n">
-        <v>0.126419</v>
+        <v>0.124853</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0908269</v>
+        <v>0.116723</v>
       </c>
     </row>
     <row r="92">
@@ -4511,10 +4511,10 @@
         <v>0.139111</v>
       </c>
       <c r="C92" t="n">
-        <v>0.142974</v>
+        <v>0.14654</v>
       </c>
       <c r="D92" t="n">
-        <v>0.101778</v>
+        <v>0.130865</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.160937</v>
+        <v>0.154728</v>
       </c>
       <c r="C93" t="n">
-        <v>0.167353</v>
+        <v>0.160071</v>
       </c>
       <c r="D93" t="n">
-        <v>0.124779</v>
+        <v>0.150506</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.191678</v>
+        <v>0.196116</v>
       </c>
       <c r="C94" t="n">
-        <v>0.206246</v>
+        <v>0.209325</v>
       </c>
       <c r="D94" t="n">
-        <v>0.157645</v>
+        <v>0.180592</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.111902</v>
+        <v>0.109837</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0975278</v>
+        <v>0.10032</v>
       </c>
       <c r="D95" t="n">
-        <v>0.07353800000000001</v>
+        <v>0.094844</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.110462</v>
+        <v>0.112116</v>
       </c>
       <c r="C96" t="n">
-        <v>0.102703</v>
+        <v>0.101746</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0731272</v>
+        <v>0.0984106</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.109903</v>
+        <v>0.114736</v>
       </c>
       <c r="C97" t="n">
-        <v>0.10317</v>
+        <v>0.103447</v>
       </c>
       <c r="D97" t="n">
-        <v>0.07774880000000001</v>
+        <v>0.102395</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.116247</v>
+        <v>0.120692</v>
       </c>
       <c r="C98" t="n">
-        <v>0.107025</v>
+        <v>0.10785</v>
       </c>
       <c r="D98" t="n">
-        <v>0.07725659999999999</v>
+        <v>0.109528</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.119296</v>
+        <v>0.123019</v>
       </c>
       <c r="C99" t="n">
-        <v>0.109779</v>
+        <v>0.117347</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0788901</v>
+        <v>0.112117</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.12489</v>
+        <v>0.122074</v>
       </c>
       <c r="C100" t="n">
-        <v>0.112654</v>
+        <v>0.115872</v>
       </c>
       <c r="D100" t="n">
-        <v>0.082236</v>
+        <v>0.115376</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.127301</v>
+        <v>0.124556</v>
       </c>
       <c r="C101" t="n">
-        <v>0.118189</v>
+        <v>0.117144</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0840133</v>
+        <v>0.115736</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.125686</v>
+        <v>0.133795</v>
       </c>
       <c r="C102" t="n">
-        <v>0.119725</v>
+        <v>0.132019</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0906882</v>
+        <v>0.120084</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.134331</v>
+        <v>0.143774</v>
       </c>
       <c r="C103" t="n">
-        <v>0.134637</v>
+        <v>0.135577</v>
       </c>
       <c r="D103" t="n">
-        <v>0.09494379999999999</v>
+        <v>0.132557</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.147001</v>
+        <v>0.146295</v>
       </c>
       <c r="C104" t="n">
-        <v>0.136484</v>
+        <v>0.142208</v>
       </c>
       <c r="D104" t="n">
-        <v>0.105434</v>
+        <v>0.136771</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.151906</v>
+        <v>0.155517</v>
       </c>
       <c r="C105" t="n">
-        <v>0.155333</v>
+        <v>0.162119</v>
       </c>
       <c r="D105" t="n">
-        <v>0.110612</v>
+        <v>0.144347</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.168563</v>
+        <v>0.178959</v>
       </c>
       <c r="C106" t="n">
-        <v>0.175587</v>
+        <v>0.165138</v>
       </c>
       <c r="D106" t="n">
-        <v>0.123059</v>
+        <v>0.162499</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.186738</v>
+        <v>0.211984</v>
       </c>
       <c r="C107" t="n">
-        <v>0.194673</v>
+        <v>0.190319</v>
       </c>
       <c r="D107" t="n">
-        <v>0.144756</v>
+        <v>0.184043</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.227481</v>
+        <v>0.222585</v>
       </c>
       <c r="C108" t="n">
-        <v>0.23695</v>
+        <v>0.243307</v>
       </c>
       <c r="D108" t="n">
-        <v>0.174531</v>
+        <v>0.218615</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.279967</v>
+        <v>0.279343</v>
       </c>
       <c r="C109" t="n">
-        <v>0.303509</v>
+        <v>0.302388</v>
       </c>
       <c r="D109" t="n">
-        <v>0.220483</v>
+        <v>0.275741</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.195295</v>
+        <v>0.196338</v>
       </c>
       <c r="C110" t="n">
-        <v>0.178629</v>
+        <v>0.184019</v>
       </c>
       <c r="D110" t="n">
-        <v>0.155314</v>
+        <v>0.190581</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.205702</v>
+        <v>0.208725</v>
       </c>
       <c r="C111" t="n">
-        <v>0.183691</v>
+        <v>0.17979</v>
       </c>
       <c r="D111" t="n">
-        <v>0.162157</v>
+        <v>0.18744</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.204916</v>
+        <v>0.203786</v>
       </c>
       <c r="C112" t="n">
-        <v>0.18499</v>
+        <v>0.188782</v>
       </c>
       <c r="D112" t="n">
-        <v>0.162595</v>
+        <v>0.189178</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.204837</v>
+        <v>0.217514</v>
       </c>
       <c r="C113" t="n">
-        <v>0.201799</v>
+        <v>0.200759</v>
       </c>
       <c r="D113" t="n">
-        <v>0.168035</v>
+        <v>0.190564</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.212385</v>
+        <v>0.208001</v>
       </c>
       <c r="C114" t="n">
-        <v>0.187275</v>
+        <v>0.191036</v>
       </c>
       <c r="D114" t="n">
-        <v>0.163857</v>
+        <v>0.189458</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.213672</v>
+        <v>0.223639</v>
       </c>
       <c r="C115" t="n">
-        <v>0.196558</v>
+        <v>0.198214</v>
       </c>
       <c r="D115" t="n">
-        <v>0.162299</v>
+        <v>0.200814</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.212365</v>
+        <v>0.219005</v>
       </c>
       <c r="C116" t="n">
-        <v>0.202483</v>
+        <v>0.200768</v>
       </c>
       <c r="D116" t="n">
-        <v>0.164606</v>
+        <v>0.208531</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.232183</v>
+        <v>0.21919</v>
       </c>
       <c r="C117" t="n">
-        <v>0.213053</v>
+        <v>0.207816</v>
       </c>
       <c r="D117" t="n">
-        <v>0.179576</v>
+        <v>0.213379</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.23637</v>
+        <v>0.232094</v>
       </c>
       <c r="C118" t="n">
-        <v>0.217358</v>
+        <v>0.222131</v>
       </c>
       <c r="D118" t="n">
-        <v>0.17922</v>
+        <v>0.213188</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.243201</v>
+        <v>0.241143</v>
       </c>
       <c r="C119" t="n">
-        <v>0.236295</v>
+        <v>0.235743</v>
       </c>
       <c r="D119" t="n">
-        <v>0.186591</v>
+        <v>0.219896</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.264362</v>
+        <v>0.257701</v>
       </c>
       <c r="C120" t="n">
-        <v>0.246084</v>
+        <v>0.24353</v>
       </c>
       <c r="D120" t="n">
-        <v>0.203759</v>
+        <v>0.243482</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.275296</v>
+        <v>0.291974</v>
       </c>
       <c r="C121" t="n">
-        <v>0.273715</v>
+        <v>0.28955</v>
       </c>
       <c r="D121" t="n">
-        <v>0.222069</v>
+        <v>0.262113</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.307131</v>
+        <v>0.309873</v>
       </c>
       <c r="C122" t="n">
-        <v>0.32191</v>
+        <v>0.3244</v>
       </c>
       <c r="D122" t="n">
-        <v>0.254466</v>
+        <v>0.307373</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.378257</v>
+        <v>0.372261</v>
       </c>
       <c r="C123" t="n">
-        <v>0.384491</v>
+        <v>0.379561</v>
       </c>
       <c r="D123" t="n">
-        <v>0.313602</v>
+        <v>0.360416</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.303855</v>
+        <v>0.307616</v>
       </c>
       <c r="C124" t="n">
-        <v>0.27291</v>
+        <v>0.277904</v>
       </c>
       <c r="D124" t="n">
-        <v>0.241225</v>
+        <v>0.273389</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.312087</v>
+        <v>0.317383</v>
       </c>
       <c r="C125" t="n">
-        <v>0.273816</v>
+        <v>0.277606</v>
       </c>
       <c r="D125" t="n">
-        <v>0.246006</v>
+        <v>0.272508</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.317921</v>
+        <v>0.315477</v>
       </c>
       <c r="C126" t="n">
-        <v>0.283831</v>
+        <v>0.283496</v>
       </c>
       <c r="D126" t="n">
-        <v>0.244562</v>
+        <v>0.275918</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.319968</v>
+        <v>0.319448</v>
       </c>
       <c r="C127" t="n">
-        <v>0.277226</v>
+        <v>0.290644</v>
       </c>
       <c r="D127" t="n">
-        <v>0.246915</v>
+        <v>0.282549</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.322368</v>
+        <v>0.33361</v>
       </c>
       <c r="C128" t="n">
-        <v>0.285945</v>
+        <v>0.28883</v>
       </c>
       <c r="D128" t="n">
-        <v>0.256113</v>
+        <v>0.284569</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.326456</v>
+        <v>0.332839</v>
       </c>
       <c r="C129" t="n">
-        <v>0.290612</v>
+        <v>0.297644</v>
       </c>
       <c r="D129" t="n">
-        <v>0.252062</v>
+        <v>0.292339</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.335141</v>
+        <v>0.335941</v>
       </c>
       <c r="C130" t="n">
-        <v>0.296235</v>
+        <v>0.298868</v>
       </c>
       <c r="D130" t="n">
-        <v>0.260793</v>
+        <v>0.305804</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.349176</v>
+        <v>0.348992</v>
       </c>
       <c r="C131" t="n">
-        <v>0.308521</v>
+        <v>0.313327</v>
       </c>
       <c r="D131" t="n">
-        <v>0.262995</v>
+        <v>0.298575</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.355843</v>
+        <v>0.350405</v>
       </c>
       <c r="C132" t="n">
-        <v>0.324581</v>
+        <v>0.320135</v>
       </c>
       <c r="D132" t="n">
-        <v>0.267564</v>
+        <v>0.315761</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.371579</v>
+        <v>0.363604</v>
       </c>
       <c r="C133" t="n">
-        <v>0.336759</v>
+        <v>0.336755</v>
       </c>
       <c r="D133" t="n">
-        <v>0.289114</v>
+        <v>0.325824</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.380254</v>
+        <v>0.383087</v>
       </c>
       <c r="C134" t="n">
-        <v>0.353804</v>
+        <v>0.35149</v>
       </c>
       <c r="D134" t="n">
-        <v>0.290173</v>
+        <v>0.341078</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.42188</v>
+        <v>0.420234</v>
       </c>
       <c r="C135" t="n">
-        <v>0.388997</v>
+        <v>0.388366</v>
       </c>
       <c r="D135" t="n">
-        <v>0.316662</v>
+        <v>0.361775</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.45702</v>
+        <v>0.452235</v>
       </c>
       <c r="C136" t="n">
-        <v>0.43006</v>
+        <v>0.443389</v>
       </c>
       <c r="D136" t="n">
-        <v>0.348279</v>
+        <v>0.403205</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.543449</v>
+        <v>0.537674</v>
       </c>
       <c r="C137" t="n">
-        <v>0.510479</v>
+        <v>0.514913</v>
       </c>
       <c r="D137" t="n">
-        <v>0.41464</v>
+        <v>0.474266</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.384092</v>
+        <v>0.380899</v>
       </c>
       <c r="C138" t="n">
-        <v>0.33143</v>
+        <v>0.329131</v>
       </c>
       <c r="D138" t="n">
-        <v>0.292709</v>
+        <v>0.32939</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.379222</v>
+        <v>0.392278</v>
       </c>
       <c r="C139" t="n">
-        <v>0.333671</v>
+        <v>0.322767</v>
       </c>
       <c r="D139" t="n">
-        <v>0.296122</v>
+        <v>0.331722</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.391855</v>
+        <v>0.387815</v>
       </c>
       <c r="C140" t="n">
-        <v>0.335898</v>
+        <v>0.34359</v>
       </c>
       <c r="D140" t="n">
-        <v>0.302683</v>
+        <v>0.339147</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.395822</v>
+        <v>0.397417</v>
       </c>
       <c r="C141" t="n">
-        <v>0.336241</v>
+        <v>0.351413</v>
       </c>
       <c r="D141" t="n">
-        <v>0.311159</v>
+        <v>0.343598</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.401939</v>
+        <v>0.397584</v>
       </c>
       <c r="C142" t="n">
-        <v>0.352437</v>
+        <v>0.350944</v>
       </c>
       <c r="D142" t="n">
-        <v>0.303527</v>
+        <v>0.34418</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.405555</v>
+        <v>0.4017</v>
       </c>
       <c r="C143" t="n">
-        <v>0.34809</v>
+        <v>0.354368</v>
       </c>
       <c r="D143" t="n">
-        <v>0.315304</v>
+        <v>0.352348</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered unsuccessful looukp.xlsx
+++ b/vs-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0415172</v>
+        <v>0.0456463</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0374722</v>
+        <v>0.0415634</v>
       </c>
       <c r="D2" t="n">
-        <v>0.041183</v>
+        <v>0.0420892</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0450511</v>
+        <v>0.0464288</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0408515</v>
+        <v>0.0440223</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0439964</v>
+        <v>0.0448977</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0471854</v>
+        <v>0.0497611</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0460401</v>
+        <v>0.0484153</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0488744</v>
+        <v>0.0497926</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0558375</v>
+        <v>0.0557438</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0520802</v>
+        <v>0.05801</v>
       </c>
       <c r="D5" t="n">
-        <v>0.053336</v>
+        <v>0.054617</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0614309</v>
+        <v>0.0618931</v>
       </c>
       <c r="C6" t="n">
-        <v>0.061518</v>
+        <v>0.07041509999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0591819</v>
+        <v>0.0645058</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.07591870000000001</v>
+        <v>0.0778591</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07733760000000001</v>
+        <v>0.082219</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0755256</v>
+        <v>0.07777920000000001</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0990656</v>
+        <v>0.0942728</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0973971</v>
+        <v>0.106347</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0938034</v>
+        <v>0.098523</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.137796</v>
+        <v>0.124589</v>
       </c>
       <c r="C9" t="n">
-        <v>0.129778</v>
+        <v>0.140649</v>
       </c>
       <c r="D9" t="n">
-        <v>0.117491</v>
+        <v>0.122923</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0409209</v>
+        <v>0.0406398</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0344902</v>
+        <v>0.0378876</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0332293</v>
+        <v>0.0383373</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0400991</v>
+        <v>0.0416335</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0342075</v>
+        <v>0.0382156</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0349048</v>
+        <v>0.0386042</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0421076</v>
+        <v>0.0412853</v>
       </c>
       <c r="C12" t="n">
-        <v>0.036493</v>
+        <v>0.0398822</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0357955</v>
+        <v>0.039852</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0410466</v>
+        <v>0.0433738</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0359566</v>
+        <v>0.0396342</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0369795</v>
+        <v>0.040585</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.042498</v>
+        <v>0.0429366</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0377627</v>
+        <v>0.0406623</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0376202</v>
+        <v>0.0424783</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0448254</v>
+        <v>0.0446422</v>
       </c>
       <c r="C15" t="n">
-        <v>0.039288</v>
+        <v>0.0424707</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0396533</v>
+        <v>0.0424827</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0442707</v>
+        <v>0.0482293</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0410744</v>
+        <v>0.0446399</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0457484</v>
+        <v>0.0461524</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0481669</v>
+        <v>0.0498744</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0443471</v>
+        <v>0.0490836</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0452935</v>
+        <v>0.0482789</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0511079</v>
+        <v>0.0555366</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0496256</v>
+        <v>0.0533914</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0503658</v>
+        <v>0.0525117</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0559641</v>
+        <v>0.0585513</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0548922</v>
+        <v>0.0601055</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0557144</v>
+        <v>0.0584714</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0636231</v>
+        <v>0.0646664</v>
       </c>
       <c r="C20" t="n">
-        <v>0.063273</v>
+        <v>0.0665524</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0645285</v>
+        <v>0.0654491</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0735556</v>
+        <v>0.0742029</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0782296</v>
+        <v>0.0825777</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0763881</v>
+        <v>0.07707749999999999</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0938283</v>
+        <v>0.095067</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0968604</v>
+        <v>0.102704</v>
       </c>
       <c r="D22" t="n">
-        <v>0.09424979999999999</v>
+        <v>0.0974759</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.127641</v>
+        <v>0.121501</v>
       </c>
       <c r="C23" t="n">
-        <v>0.130695</v>
+        <v>0.144414</v>
       </c>
       <c r="D23" t="n">
-        <v>0.124304</v>
+        <v>0.127954</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0428716</v>
+        <v>0.0442717</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0369747</v>
+        <v>0.0400014</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0359782</v>
+        <v>0.0408998</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0430364</v>
+        <v>0.0423267</v>
       </c>
       <c r="C25" t="n">
-        <v>0.036231</v>
+        <v>0.0397323</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0365149</v>
+        <v>0.0402172</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0447301</v>
+        <v>0.0455245</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0376472</v>
+        <v>0.0434473</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0363841</v>
+        <v>0.0413859</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.044483</v>
+        <v>0.0461599</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0387112</v>
+        <v>0.0405021</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0391349</v>
+        <v>0.0434844</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0463937</v>
+        <v>0.0463042</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0400467</v>
+        <v>0.0432399</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0417117</v>
+        <v>0.0434883</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0460823</v>
+        <v>0.0485131</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0416562</v>
+        <v>0.0457249</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0414089</v>
+        <v>0.0451831</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0474564</v>
+        <v>0.0496264</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0434784</v>
+        <v>0.0492138</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0442338</v>
+        <v>0.0468744</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0513546</v>
+        <v>0.0508425</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0467331</v>
+        <v>0.0498286</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0468662</v>
+        <v>0.0481696</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0524477</v>
+        <v>0.0530737</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0533583</v>
+        <v>0.0544067</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0500988</v>
+        <v>0.0528054</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0594251</v>
+        <v>0.0590173</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0576419</v>
+        <v>0.0602969</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0564363</v>
+        <v>0.0585559</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0648089</v>
+        <v>0.0665505</v>
       </c>
       <c r="C34" t="n">
-        <v>0.06324200000000001</v>
+        <v>0.06913329999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0638561</v>
+        <v>0.0664585</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0758282</v>
+        <v>0.07935730000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>0.075575</v>
+        <v>0.07962039999999999</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0750657</v>
+        <v>0.0795777</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.09092</v>
+        <v>0.0956795</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0961858</v>
+        <v>0.102689</v>
       </c>
       <c r="D36" t="n">
-        <v>0.09337239999999999</v>
+        <v>0.101472</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.117188</v>
+        <v>0.121675</v>
       </c>
       <c r="C37" t="n">
-        <v>0.125428</v>
+        <v>0.13718</v>
       </c>
       <c r="D37" t="n">
-        <v>0.123704</v>
+        <v>0.124612</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0477937</v>
+        <v>0.0480895</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0414087</v>
+        <v>0.0435699</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0409643</v>
+        <v>0.0442853</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0473381</v>
+        <v>0.0488872</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0411922</v>
+        <v>0.0448007</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0405021</v>
+        <v>0.0449089</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0490027</v>
+        <v>0.0505568</v>
       </c>
       <c r="C40" t="n">
-        <v>0.041756</v>
+        <v>0.0455095</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0417288</v>
+        <v>0.0465757</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0485093</v>
+        <v>0.0493577</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0427159</v>
+        <v>0.0457852</v>
       </c>
       <c r="D41" t="n">
-        <v>0.041811</v>
+        <v>0.0463317</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0519975</v>
+        <v>0.0489313</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0455575</v>
+        <v>0.0471244</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0433142</v>
+        <v>0.047136</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0518707</v>
+        <v>0.0518709</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0474093</v>
+        <v>0.048263</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0448127</v>
+        <v>0.049291</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0538042</v>
+        <v>0.0529422</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0480292</v>
+        <v>0.050958</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0471488</v>
+        <v>0.0501842</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0563251</v>
+        <v>0.0549023</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0518129</v>
+        <v>0.0554228</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0509786</v>
+        <v>0.0523434</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.058768</v>
+        <v>0.0592181</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0540422</v>
+        <v>0.0591846</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0551922</v>
+        <v>0.0567544</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0614064</v>
+        <v>0.0623823</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0589266</v>
+        <v>0.0640834</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0581523</v>
+        <v>0.0620858</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.06893829999999999</v>
+        <v>0.0711725</v>
       </c>
       <c r="C48" t="n">
-        <v>0.06683989999999999</v>
+        <v>0.0720618</v>
       </c>
       <c r="D48" t="n">
-        <v>0.06663769999999999</v>
+        <v>0.0692247</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0795194</v>
+        <v>0.07869760000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>0.080318</v>
+        <v>0.084617</v>
       </c>
       <c r="D49" t="n">
-        <v>0.07633810000000001</v>
+        <v>0.0813704</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.091194</v>
+        <v>0.0945471</v>
       </c>
       <c r="C50" t="n">
-        <v>0.09571209999999999</v>
+        <v>0.100852</v>
       </c>
       <c r="D50" t="n">
-        <v>0.09243700000000001</v>
+        <v>0.09727379999999999</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.118103</v>
+        <v>0.124462</v>
       </c>
       <c r="C51" t="n">
-        <v>0.124921</v>
+        <v>0.134174</v>
       </c>
       <c r="D51" t="n">
-        <v>0.120913</v>
+        <v>0.120569</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.155362</v>
+        <v>0.157715</v>
       </c>
       <c r="C52" t="n">
-        <v>0.159471</v>
+        <v>0.175542</v>
       </c>
       <c r="D52" t="n">
-        <v>0.151328</v>
+        <v>0.154731</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0606311</v>
+        <v>0.059511</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0519135</v>
+        <v>0.0528261</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0493416</v>
+        <v>0.0519049</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0585446</v>
+        <v>0.0592332</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0527979</v>
+        <v>0.0542382</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0492174</v>
+        <v>0.0552072</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0601638</v>
+        <v>0.0612032</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0527583</v>
+        <v>0.0557402</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0511502</v>
+        <v>0.0566373</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0615909</v>
+        <v>0.0607523</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0526858</v>
+        <v>0.0556035</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0514984</v>
+        <v>0.0562063</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0607584</v>
+        <v>0.0622458</v>
       </c>
       <c r="C57" t="n">
-        <v>0.055255</v>
+        <v>0.0589644</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0557288</v>
+        <v>0.0577163</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0651105</v>
+        <v>0.06447840000000001</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0586989</v>
+        <v>0.0634531</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0560398</v>
+        <v>0.0612787</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0676808</v>
+        <v>0.06450500000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0596676</v>
+        <v>0.0640915</v>
       </c>
       <c r="D59" t="n">
-        <v>0.058571</v>
+        <v>0.062668</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0702057</v>
+        <v>0.0683028</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0638828</v>
+        <v>0.0668421</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0649793</v>
+        <v>0.06609760000000001</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.07491349999999999</v>
+        <v>0.07158109999999999</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0691692</v>
+        <v>0.0726159</v>
       </c>
       <c r="D61" t="n">
-        <v>0.06696879999999999</v>
+        <v>0.0704582</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0798165</v>
+        <v>0.0791626</v>
       </c>
       <c r="C62" t="n">
-        <v>0.07602589999999999</v>
+        <v>0.0812046</v>
       </c>
       <c r="D62" t="n">
-        <v>0.07352300000000001</v>
+        <v>0.0777582</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.089894</v>
+        <v>0.0890542</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0881624</v>
+        <v>0.0915267</v>
       </c>
       <c r="D63" t="n">
-        <v>0.08463469999999999</v>
+        <v>0.0890701</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.103303</v>
+        <v>0.104294</v>
       </c>
       <c r="C64" t="n">
-        <v>0.102228</v>
+        <v>0.109491</v>
       </c>
       <c r="D64" t="n">
-        <v>0.09951500000000001</v>
+        <v>0.105929</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.123824</v>
+        <v>0.124891</v>
       </c>
       <c r="C65" t="n">
-        <v>0.131003</v>
+        <v>0.136021</v>
       </c>
       <c r="D65" t="n">
-        <v>0.120424</v>
+        <v>0.125822</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.161274</v>
+        <v>0.157618</v>
       </c>
       <c r="C66" t="n">
-        <v>0.168689</v>
+        <v>0.176792</v>
       </c>
       <c r="D66" t="n">
-        <v>0.157627</v>
+        <v>0.162906</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0663086</v>
+        <v>0.0661635</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0603848</v>
+        <v>0.0620577</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0579155</v>
+        <v>0.0617179</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0690547</v>
+        <v>0.0676725</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0594724</v>
+        <v>0.0632505</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0584609</v>
+        <v>0.06284090000000001</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.07019069999999999</v>
+        <v>0.0694861</v>
       </c>
       <c r="C69" t="n">
-        <v>0.06426610000000001</v>
+        <v>0.06496739999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0598446</v>
+        <v>0.06469129999999999</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.06986879999999999</v>
+        <v>0.0691983</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0644232</v>
+        <v>0.0668258</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0638802</v>
+        <v>0.0659888</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0741127</v>
+        <v>0.0728438</v>
       </c>
       <c r="C71" t="n">
-        <v>0.06740939999999999</v>
+        <v>0.07264</v>
       </c>
       <c r="D71" t="n">
-        <v>0.06402140000000001</v>
+        <v>0.0687865</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0734147</v>
+        <v>0.07660019999999999</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0682093</v>
+        <v>0.0733308</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0688425</v>
+        <v>0.0730528</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0812343</v>
+        <v>0.0776714</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0738486</v>
+        <v>0.07905760000000001</v>
       </c>
       <c r="D73" t="n">
-        <v>0.07125479999999999</v>
+        <v>0.0758785</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.08238819999999999</v>
+        <v>0.08360819999999999</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0778059</v>
+        <v>0.0830317</v>
       </c>
       <c r="D74" t="n">
-        <v>0.07620200000000001</v>
+        <v>0.08276409999999999</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0879708</v>
+        <v>0.0876291</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0849679</v>
+        <v>0.0890537</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0810478</v>
+        <v>0.08758349999999999</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.09872880000000001</v>
+        <v>0.0953702</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0925363</v>
+        <v>0.0979531</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0913062</v>
+        <v>0.09039179999999999</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.108506</v>
+        <v>0.104926</v>
       </c>
       <c r="C77" t="n">
-        <v>0.106086</v>
+        <v>0.11346</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0990622</v>
+        <v>0.109305</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.12238</v>
+        <v>0.123323</v>
       </c>
       <c r="C78" t="n">
-        <v>0.123436</v>
+        <v>0.127517</v>
       </c>
       <c r="D78" t="n">
-        <v>0.117517</v>
+        <v>0.121477</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.146948</v>
+        <v>0.144433</v>
       </c>
       <c r="C79" t="n">
-        <v>0.1508</v>
+        <v>0.156191</v>
       </c>
       <c r="D79" t="n">
-        <v>0.136167</v>
+        <v>0.142077</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.183481</v>
+        <v>0.18134</v>
       </c>
       <c r="C80" t="n">
-        <v>0.191412</v>
+        <v>0.201416</v>
       </c>
       <c r="D80" t="n">
-        <v>0.174833</v>
+        <v>0.1823</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0839978</v>
+        <v>0.083801</v>
       </c>
       <c r="C81" t="n">
-        <v>0.08045049999999999</v>
+        <v>0.0838793</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0742525</v>
+        <v>0.0779478</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0860578</v>
+        <v>0.0872768</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0751515</v>
+        <v>0.0789345</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0728138</v>
+        <v>0.0804848</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0888031</v>
+        <v>0.08773209999999999</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0795964</v>
+        <v>0.0858693</v>
       </c>
       <c r="D83" t="n">
-        <v>0.07472090000000001</v>
+        <v>0.07988969999999999</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0868746</v>
+        <v>0.0944485</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0806255</v>
+        <v>0.0912919</v>
       </c>
       <c r="D84" t="n">
-        <v>0.07985879999999999</v>
+        <v>0.08975279999999999</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0936355</v>
+        <v>0.09745379999999999</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0839854</v>
+        <v>0.0871466</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0810526</v>
+        <v>0.0876601</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0942581</v>
+        <v>0.0973521</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0880692</v>
+        <v>0.0994405</v>
       </c>
       <c r="D86" t="n">
-        <v>0.08578429999999999</v>
+        <v>0.0897269</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.09681099999999999</v>
+        <v>0.105891</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0899054</v>
+        <v>0.0970934</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0861219</v>
+        <v>0.100991</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.102267</v>
+        <v>0.109183</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0988796</v>
+        <v>0.113418</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0936902</v>
+        <v>0.102327</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.107113</v>
+        <v>0.111377</v>
       </c>
       <c r="C89" t="n">
-        <v>0.104341</v>
+        <v>0.107187</v>
       </c>
       <c r="D89" t="n">
-        <v>0.09649099999999999</v>
+        <v>0.104839</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.116283</v>
+        <v>0.119003</v>
       </c>
       <c r="C90" t="n">
-        <v>0.114244</v>
+        <v>0.120457</v>
       </c>
       <c r="D90" t="n">
-        <v>0.107901</v>
+        <v>0.1093</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.121741</v>
+        <v>0.126597</v>
       </c>
       <c r="C91" t="n">
-        <v>0.124853</v>
+        <v>0.125216</v>
       </c>
       <c r="D91" t="n">
-        <v>0.116723</v>
+        <v>0.122709</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.139111</v>
+        <v>0.139804</v>
       </c>
       <c r="C92" t="n">
-        <v>0.14654</v>
+        <v>0.143072</v>
       </c>
       <c r="D92" t="n">
-        <v>0.130865</v>
+        <v>0.134816</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.154728</v>
+        <v>0.158055</v>
       </c>
       <c r="C93" t="n">
-        <v>0.160071</v>
+        <v>0.172364</v>
       </c>
       <c r="D93" t="n">
-        <v>0.150506</v>
+        <v>0.155812</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.196116</v>
+        <v>0.201766</v>
       </c>
       <c r="C94" t="n">
-        <v>0.209325</v>
+        <v>0.216123</v>
       </c>
       <c r="D94" t="n">
-        <v>0.180592</v>
+        <v>0.188507</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.109837</v>
+        <v>0.110655</v>
       </c>
       <c r="C95" t="n">
-        <v>0.10032</v>
+        <v>0.111208</v>
       </c>
       <c r="D95" t="n">
-        <v>0.094844</v>
+        <v>0.102279</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.112116</v>
+        <v>0.109994</v>
       </c>
       <c r="C96" t="n">
-        <v>0.101746</v>
+        <v>0.106763</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0984106</v>
+        <v>0.106088</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.114736</v>
+        <v>0.113999</v>
       </c>
       <c r="C97" t="n">
-        <v>0.103447</v>
+        <v>0.109275</v>
       </c>
       <c r="D97" t="n">
-        <v>0.102395</v>
+        <v>0.110298</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.120692</v>
+        <v>0.119048</v>
       </c>
       <c r="C98" t="n">
-        <v>0.10785</v>
+        <v>0.112127</v>
       </c>
       <c r="D98" t="n">
-        <v>0.109528</v>
+        <v>0.110579</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.123019</v>
+        <v>0.117642</v>
       </c>
       <c r="C99" t="n">
-        <v>0.117347</v>
+        <v>0.1195</v>
       </c>
       <c r="D99" t="n">
-        <v>0.112117</v>
+        <v>0.114548</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.122074</v>
+        <v>0.119761</v>
       </c>
       <c r="C100" t="n">
-        <v>0.115872</v>
+        <v>0.119157</v>
       </c>
       <c r="D100" t="n">
-        <v>0.115376</v>
+        <v>0.118728</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.124556</v>
+        <v>0.132805</v>
       </c>
       <c r="C101" t="n">
-        <v>0.117144</v>
+        <v>0.127201</v>
       </c>
       <c r="D101" t="n">
-        <v>0.115736</v>
+        <v>0.128661</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.133795</v>
+        <v>0.13365</v>
       </c>
       <c r="C102" t="n">
-        <v>0.132019</v>
+        <v>0.132412</v>
       </c>
       <c r="D102" t="n">
-        <v>0.120084</v>
+        <v>0.128921</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.143774</v>
+        <v>0.139839</v>
       </c>
       <c r="C103" t="n">
-        <v>0.135577</v>
+        <v>0.135559</v>
       </c>
       <c r="D103" t="n">
-        <v>0.132557</v>
+        <v>0.13556</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.146295</v>
+        <v>0.152864</v>
       </c>
       <c r="C104" t="n">
-        <v>0.142208</v>
+        <v>0.153709</v>
       </c>
       <c r="D104" t="n">
-        <v>0.136771</v>
+        <v>0.142754</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.155517</v>
+        <v>0.1654</v>
       </c>
       <c r="C105" t="n">
-        <v>0.162119</v>
+        <v>0.163869</v>
       </c>
       <c r="D105" t="n">
-        <v>0.144347</v>
+        <v>0.148538</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.178959</v>
+        <v>0.165103</v>
       </c>
       <c r="C106" t="n">
-        <v>0.165138</v>
+        <v>0.180053</v>
       </c>
       <c r="D106" t="n">
-        <v>0.162499</v>
+        <v>0.164524</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.211984</v>
+        <v>0.18958</v>
       </c>
       <c r="C107" t="n">
-        <v>0.190319</v>
+        <v>0.201313</v>
       </c>
       <c r="D107" t="n">
-        <v>0.184043</v>
+        <v>0.184622</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.222585</v>
+        <v>0.227275</v>
       </c>
       <c r="C108" t="n">
-        <v>0.243307</v>
+        <v>0.261769</v>
       </c>
       <c r="D108" t="n">
-        <v>0.218615</v>
+        <v>0.224418</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.279343</v>
+        <v>0.289052</v>
       </c>
       <c r="C109" t="n">
-        <v>0.302388</v>
+        <v>0.325856</v>
       </c>
       <c r="D109" t="n">
-        <v>0.275741</v>
+        <v>0.281038</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.196338</v>
+        <v>0.203567</v>
       </c>
       <c r="C110" t="n">
-        <v>0.184019</v>
+        <v>0.193367</v>
       </c>
       <c r="D110" t="n">
-        <v>0.190581</v>
+        <v>0.190871</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.208725</v>
+        <v>0.213974</v>
       </c>
       <c r="C111" t="n">
-        <v>0.17979</v>
+        <v>0.197943</v>
       </c>
       <c r="D111" t="n">
-        <v>0.18744</v>
+        <v>0.18865</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.203786</v>
+        <v>0.208688</v>
       </c>
       <c r="C112" t="n">
-        <v>0.188782</v>
+        <v>0.204031</v>
       </c>
       <c r="D112" t="n">
-        <v>0.189178</v>
+        <v>0.193493</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.217514</v>
+        <v>0.205279</v>
       </c>
       <c r="C113" t="n">
-        <v>0.200759</v>
+        <v>0.193195</v>
       </c>
       <c r="D113" t="n">
-        <v>0.190564</v>
+        <v>0.197704</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.208001</v>
+        <v>0.212407</v>
       </c>
       <c r="C114" t="n">
-        <v>0.191036</v>
+        <v>0.202195</v>
       </c>
       <c r="D114" t="n">
-        <v>0.189458</v>
+        <v>0.208811</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.223639</v>
+        <v>0.225846</v>
       </c>
       <c r="C115" t="n">
-        <v>0.198214</v>
+        <v>0.211894</v>
       </c>
       <c r="D115" t="n">
-        <v>0.200814</v>
+        <v>0.208143</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.219005</v>
+        <v>0.215768</v>
       </c>
       <c r="C116" t="n">
-        <v>0.200768</v>
+        <v>0.204569</v>
       </c>
       <c r="D116" t="n">
-        <v>0.208531</v>
+        <v>0.20556</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.21919</v>
+        <v>0.229522</v>
       </c>
       <c r="C117" t="n">
-        <v>0.207816</v>
+        <v>0.218789</v>
       </c>
       <c r="D117" t="n">
-        <v>0.213379</v>
+        <v>0.211656</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.232094</v>
+        <v>0.227439</v>
       </c>
       <c r="C118" t="n">
-        <v>0.222131</v>
+        <v>0.234575</v>
       </c>
       <c r="D118" t="n">
-        <v>0.213188</v>
+        <v>0.221408</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.241143</v>
+        <v>0.234858</v>
       </c>
       <c r="C119" t="n">
-        <v>0.235743</v>
+        <v>0.233457</v>
       </c>
       <c r="D119" t="n">
-        <v>0.219896</v>
+        <v>0.230386</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.257701</v>
+        <v>0.260537</v>
       </c>
       <c r="C120" t="n">
-        <v>0.24353</v>
+        <v>0.258929</v>
       </c>
       <c r="D120" t="n">
-        <v>0.243482</v>
+        <v>0.261498</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.291974</v>
+        <v>0.275973</v>
       </c>
       <c r="C121" t="n">
-        <v>0.28955</v>
+        <v>0.280165</v>
       </c>
       <c r="D121" t="n">
-        <v>0.262113</v>
+        <v>0.267405</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.309873</v>
+        <v>0.322338</v>
       </c>
       <c r="C122" t="n">
-        <v>0.3244</v>
+        <v>0.341871</v>
       </c>
       <c r="D122" t="n">
-        <v>0.307373</v>
+        <v>0.303084</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.372261</v>
+        <v>0.381182</v>
       </c>
       <c r="C123" t="n">
-        <v>0.379561</v>
+        <v>0.393605</v>
       </c>
       <c r="D123" t="n">
-        <v>0.360416</v>
+        <v>0.381949</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.307616</v>
+        <v>0.309508</v>
       </c>
       <c r="C124" t="n">
-        <v>0.277904</v>
+        <v>0.295847</v>
       </c>
       <c r="D124" t="n">
-        <v>0.273389</v>
+        <v>0.283183</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.317383</v>
+        <v>0.322726</v>
       </c>
       <c r="C125" t="n">
-        <v>0.277606</v>
+        <v>0.290183</v>
       </c>
       <c r="D125" t="n">
-        <v>0.272508</v>
+        <v>0.286583</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.315477</v>
+        <v>0.326643</v>
       </c>
       <c r="C126" t="n">
-        <v>0.283496</v>
+        <v>0.294833</v>
       </c>
       <c r="D126" t="n">
-        <v>0.275918</v>
+        <v>0.302654</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.319448</v>
+        <v>0.326258</v>
       </c>
       <c r="C127" t="n">
-        <v>0.290644</v>
+        <v>0.300929</v>
       </c>
       <c r="D127" t="n">
-        <v>0.282549</v>
+        <v>0.2941</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.33361</v>
+        <v>0.323532</v>
       </c>
       <c r="C128" t="n">
-        <v>0.28883</v>
+        <v>0.297261</v>
       </c>
       <c r="D128" t="n">
-        <v>0.284569</v>
+        <v>0.31582</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.332839</v>
+        <v>0.328241</v>
       </c>
       <c r="C129" t="n">
-        <v>0.297644</v>
+        <v>0.310463</v>
       </c>
       <c r="D129" t="n">
-        <v>0.292339</v>
+        <v>0.30855</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.335941</v>
+        <v>0.338649</v>
       </c>
       <c r="C130" t="n">
-        <v>0.298868</v>
+        <v>0.309428</v>
       </c>
       <c r="D130" t="n">
-        <v>0.305804</v>
+        <v>0.313587</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.348992</v>
+        <v>0.34854</v>
       </c>
       <c r="C131" t="n">
-        <v>0.313327</v>
+        <v>0.324461</v>
       </c>
       <c r="D131" t="n">
-        <v>0.298575</v>
+        <v>0.322021</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.350405</v>
+        <v>0.354401</v>
       </c>
       <c r="C132" t="n">
-        <v>0.320135</v>
+        <v>0.322909</v>
       </c>
       <c r="D132" t="n">
-        <v>0.315761</v>
+        <v>0.323373</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.363604</v>
+        <v>0.362809</v>
       </c>
       <c r="C133" t="n">
-        <v>0.336755</v>
+        <v>0.340335</v>
       </c>
       <c r="D133" t="n">
-        <v>0.325824</v>
+        <v>0.339403</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.383087</v>
+        <v>0.387305</v>
       </c>
       <c r="C134" t="n">
-        <v>0.35149</v>
+        <v>0.369283</v>
       </c>
       <c r="D134" t="n">
-        <v>0.341078</v>
+        <v>0.361816</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.420234</v>
+        <v>0.416463</v>
       </c>
       <c r="C135" t="n">
-        <v>0.388366</v>
+        <v>0.397069</v>
       </c>
       <c r="D135" t="n">
-        <v>0.361775</v>
+        <v>0.376856</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.452235</v>
+        <v>0.457882</v>
       </c>
       <c r="C136" t="n">
-        <v>0.443389</v>
+        <v>0.444204</v>
       </c>
       <c r="D136" t="n">
-        <v>0.403205</v>
+        <v>0.412847</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.537674</v>
+        <v>0.535921</v>
       </c>
       <c r="C137" t="n">
-        <v>0.514913</v>
+        <v>0.5351320000000001</v>
       </c>
       <c r="D137" t="n">
-        <v>0.474266</v>
+        <v>0.490952</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.380899</v>
+        <v>0.372667</v>
       </c>
       <c r="C138" t="n">
-        <v>0.329131</v>
+        <v>0.347592</v>
       </c>
       <c r="D138" t="n">
-        <v>0.32939</v>
+        <v>0.34973</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.392278</v>
+        <v>0.391746</v>
       </c>
       <c r="C139" t="n">
-        <v>0.322767</v>
+        <v>0.351792</v>
       </c>
       <c r="D139" t="n">
-        <v>0.331722</v>
+        <v>0.351477</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.387815</v>
+        <v>0.381611</v>
       </c>
       <c r="C140" t="n">
-        <v>0.34359</v>
+        <v>0.357948</v>
       </c>
       <c r="D140" t="n">
-        <v>0.339147</v>
+        <v>0.348472</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.397417</v>
+        <v>0.396792</v>
       </c>
       <c r="C141" t="n">
-        <v>0.351413</v>
+        <v>0.356432</v>
       </c>
       <c r="D141" t="n">
-        <v>0.343598</v>
+        <v>0.36802</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.397584</v>
+        <v>0.402513</v>
       </c>
       <c r="C142" t="n">
-        <v>0.350944</v>
+        <v>0.370353</v>
       </c>
       <c r="D142" t="n">
-        <v>0.34418</v>
+        <v>0.371463</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.4017</v>
+        <v>0.400692</v>
       </c>
       <c r="C143" t="n">
-        <v>0.354368</v>
+        <v>0.368675</v>
       </c>
       <c r="D143" t="n">
-        <v>0.352348</v>
+        <v>0.363203</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered unsuccessful looukp.xlsx
+++ b/vs-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0456463</v>
+        <v>0.0424159</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0415634</v>
+        <v>0.0405489</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0420892</v>
+        <v>0.04449</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0464288</v>
+        <v>0.0449849</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0440223</v>
+        <v>0.0447451</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0448977</v>
+        <v>0.0463997</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0497611</v>
+        <v>0.0480712</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0484153</v>
+        <v>0.0505359</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0497926</v>
+        <v>0.054209</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0557438</v>
+        <v>0.0525065</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05801</v>
+        <v>0.055966</v>
       </c>
       <c r="D5" t="n">
-        <v>0.054617</v>
+        <v>0.061206</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0618931</v>
+        <v>0.0610241</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07041509999999999</v>
+        <v>0.0666958</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0645058</v>
+        <v>0.0735389</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0778591</v>
+        <v>0.07431790000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.082219</v>
+        <v>0.0827579</v>
       </c>
       <c r="D7" t="n">
-        <v>0.07777920000000001</v>
+        <v>0.0958669</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0942728</v>
+        <v>0.0939178</v>
       </c>
       <c r="C8" t="n">
-        <v>0.106347</v>
+        <v>0.101855</v>
       </c>
       <c r="D8" t="n">
-        <v>0.098523</v>
+        <v>0.122532</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.124589</v>
+        <v>0.127145</v>
       </c>
       <c r="C9" t="n">
-        <v>0.140649</v>
+        <v>0.142723</v>
       </c>
       <c r="D9" t="n">
-        <v>0.122923</v>
+        <v>0.171803</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0406398</v>
+        <v>0.0399042</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0378876</v>
+        <v>0.0378517</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0383373</v>
+        <v>0.0363096</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0416335</v>
+        <v>0.04068</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0382156</v>
+        <v>0.0377232</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0386042</v>
+        <v>0.0386661</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0412853</v>
+        <v>0.041426</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0398822</v>
+        <v>0.0392182</v>
       </c>
       <c r="D12" t="n">
-        <v>0.039852</v>
+        <v>0.0391028</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0433738</v>
+        <v>0.0438733</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0396342</v>
+        <v>0.0393465</v>
       </c>
       <c r="D13" t="n">
-        <v>0.040585</v>
+        <v>0.0414827</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0429366</v>
+        <v>0.0440856</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0406623</v>
+        <v>0.0407134</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0424783</v>
+        <v>0.0408925</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0446422</v>
+        <v>0.0460924</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0424707</v>
+        <v>0.0421057</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0424827</v>
+        <v>0.0419425</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0482293</v>
+        <v>0.0462981</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0446399</v>
+        <v>0.0455138</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0461524</v>
+        <v>0.0479169</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0498744</v>
+        <v>0.0488687</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0490836</v>
+        <v>0.0482451</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0482789</v>
+        <v>0.050183</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0555366</v>
+        <v>0.053118</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0533914</v>
+        <v>0.05567</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0525117</v>
+        <v>0.0581061</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0585513</v>
+        <v>0.0583357</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0601055</v>
+        <v>0.0595857</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0584714</v>
+        <v>0.061103</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0646664</v>
+        <v>0.0638779</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0665524</v>
+        <v>0.0699743</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0654491</v>
+        <v>0.07568469999999999</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0742029</v>
+        <v>0.0771768</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0825777</v>
+        <v>0.0821307</v>
       </c>
       <c r="D21" t="n">
-        <v>0.07707749999999999</v>
+        <v>0.09337239999999999</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.095067</v>
+        <v>0.0959743</v>
       </c>
       <c r="C22" t="n">
-        <v>0.102704</v>
+        <v>0.102157</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0974759</v>
+        <v>0.126037</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.121501</v>
+        <v>0.127954</v>
       </c>
       <c r="C23" t="n">
-        <v>0.144414</v>
+        <v>0.140553</v>
       </c>
       <c r="D23" t="n">
-        <v>0.127954</v>
+        <v>0.172763</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0442717</v>
+        <v>0.0427551</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0400014</v>
+        <v>0.0397183</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0408998</v>
+        <v>0.0394362</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0423267</v>
+        <v>0.0446988</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0397323</v>
+        <v>0.0408924</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0402172</v>
+        <v>0.040841</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0455245</v>
+        <v>0.0439246</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0434473</v>
+        <v>0.041424</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0413859</v>
+        <v>0.0405654</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0461599</v>
+        <v>0.0448459</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0405021</v>
+        <v>0.0424077</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0434844</v>
+        <v>0.0414308</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0463042</v>
+        <v>0.0479544</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0432399</v>
+        <v>0.0440678</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0434883</v>
+        <v>0.0414346</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0485131</v>
+        <v>0.0473632</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0457249</v>
+        <v>0.0451492</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0451831</v>
+        <v>0.0448125</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0496264</v>
+        <v>0.0492317</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0492138</v>
+        <v>0.04663</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0468744</v>
+        <v>0.0469306</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0508425</v>
+        <v>0.0521697</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0498286</v>
+        <v>0.0494185</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0481696</v>
+        <v>0.0502164</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0530737</v>
+        <v>0.0551627</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0544067</v>
+        <v>0.0536904</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0528054</v>
+        <v>0.0568949</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0590173</v>
+        <v>0.0581916</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0602969</v>
+        <v>0.0589518</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0585559</v>
+        <v>0.061128</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0665505</v>
+        <v>0.0663991</v>
       </c>
       <c r="C34" t="n">
-        <v>0.06913329999999999</v>
+        <v>0.0687671</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0664585</v>
+        <v>0.07114429999999999</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.07935730000000001</v>
+        <v>0.08066379999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>0.07962039999999999</v>
+        <v>0.0819661</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0795777</v>
+        <v>0.0937013</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0956795</v>
+        <v>0.0951876</v>
       </c>
       <c r="C36" t="n">
-        <v>0.102689</v>
+        <v>0.101109</v>
       </c>
       <c r="D36" t="n">
-        <v>0.101472</v>
+        <v>0.119719</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.121675</v>
+        <v>0.127728</v>
       </c>
       <c r="C37" t="n">
-        <v>0.13718</v>
+        <v>0.135844</v>
       </c>
       <c r="D37" t="n">
-        <v>0.124612</v>
+        <v>0.165941</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0480895</v>
+        <v>0.047668</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0435699</v>
+        <v>0.0432819</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0442853</v>
+        <v>0.0442038</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0488872</v>
+        <v>0.0495734</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0448007</v>
+        <v>0.0449964</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0449089</v>
+        <v>0.0435253</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0505568</v>
+        <v>0.0473489</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0455095</v>
+        <v>0.0459585</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0465757</v>
+        <v>0.044075</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0493577</v>
+        <v>0.04823</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0457852</v>
+        <v>0.0457722</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0463317</v>
+        <v>0.046316</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0489313</v>
+        <v>0.0493302</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0471244</v>
+        <v>0.0465014</v>
       </c>
       <c r="D42" t="n">
-        <v>0.047136</v>
+        <v>0.047448</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0518709</v>
+        <v>0.0512492</v>
       </c>
       <c r="C43" t="n">
-        <v>0.048263</v>
+        <v>0.0485344</v>
       </c>
       <c r="D43" t="n">
-        <v>0.049291</v>
+        <v>0.0484274</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0529422</v>
+        <v>0.0533059</v>
       </c>
       <c r="C44" t="n">
-        <v>0.050958</v>
+        <v>0.0499793</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0501842</v>
+        <v>0.0497448</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0549023</v>
+        <v>0.0540463</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0554228</v>
+        <v>0.0546231</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0523434</v>
+        <v>0.0530872</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0592181</v>
+        <v>0.0590894</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0591846</v>
+        <v>0.0594709</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0567544</v>
+        <v>0.059767</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0623823</v>
+        <v>0.0610359</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0640834</v>
+        <v>0.0620626</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0620858</v>
+        <v>0.0662021</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0711725</v>
+        <v>0.0727095</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0720618</v>
+        <v>0.0749147</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0692247</v>
+        <v>0.07634920000000001</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.07869760000000001</v>
+        <v>0.07773869999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>0.084617</v>
+        <v>0.0821423</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0813704</v>
+        <v>0.0892874</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0945471</v>
+        <v>0.09330380000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>0.100852</v>
+        <v>0.103519</v>
       </c>
       <c r="D50" t="n">
-        <v>0.09727379999999999</v>
+        <v>0.113057</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.124462</v>
+        <v>0.11552</v>
       </c>
       <c r="C51" t="n">
-        <v>0.134174</v>
+        <v>0.132983</v>
       </c>
       <c r="D51" t="n">
-        <v>0.120569</v>
+        <v>0.160753</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.157715</v>
+        <v>0.156247</v>
       </c>
       <c r="C52" t="n">
-        <v>0.175542</v>
+        <v>0.179347</v>
       </c>
       <c r="D52" t="n">
-        <v>0.154731</v>
+        <v>0.210998</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.059511</v>
+        <v>0.0622536</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0528261</v>
+        <v>0.0540756</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0519049</v>
+        <v>0.0528423</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0592332</v>
+        <v>0.0592762</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0542382</v>
+        <v>0.0539531</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0552072</v>
+        <v>0.0535868</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0612032</v>
+        <v>0.061474</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0557402</v>
+        <v>0.055411</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0566373</v>
+        <v>0.0534222</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0607523</v>
+        <v>0.0602309</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0556035</v>
+        <v>0.0574796</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0562063</v>
+        <v>0.056754</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0622458</v>
+        <v>0.0615425</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0589644</v>
+        <v>0.0626462</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0577163</v>
+        <v>0.0576141</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.06447840000000001</v>
+        <v>0.0640626</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0634531</v>
+        <v>0.0640672</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0612787</v>
+        <v>0.0596547</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.06450500000000001</v>
+        <v>0.0668719</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0640915</v>
+        <v>0.0643526</v>
       </c>
       <c r="D59" t="n">
-        <v>0.062668</v>
+        <v>0.0634263</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0683028</v>
+        <v>0.0687719</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0668421</v>
+        <v>0.0672215</v>
       </c>
       <c r="D60" t="n">
-        <v>0.06609760000000001</v>
+        <v>0.0684792</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.07158109999999999</v>
+        <v>0.0733191</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0726159</v>
+        <v>0.0744056</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0704582</v>
+        <v>0.07282669999999999</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0791626</v>
+        <v>0.0791418</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0812046</v>
+        <v>0.0834903</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0777582</v>
+        <v>0.081524</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0890542</v>
+        <v>0.0909264</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0915267</v>
+        <v>0.0949628</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0890701</v>
+        <v>0.0977051</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.104294</v>
+        <v>0.104188</v>
       </c>
       <c r="C64" t="n">
-        <v>0.109491</v>
+        <v>0.108412</v>
       </c>
       <c r="D64" t="n">
-        <v>0.105929</v>
+        <v>0.12005</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.124891</v>
+        <v>0.126652</v>
       </c>
       <c r="C65" t="n">
-        <v>0.136021</v>
+        <v>0.140194</v>
       </c>
       <c r="D65" t="n">
-        <v>0.125822</v>
+        <v>0.163024</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.157618</v>
+        <v>0.161339</v>
       </c>
       <c r="C66" t="n">
-        <v>0.176792</v>
+        <v>0.183517</v>
       </c>
       <c r="D66" t="n">
-        <v>0.162906</v>
+        <v>0.220423</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0661635</v>
+        <v>0.0665413</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0620577</v>
+        <v>0.0608511</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0617179</v>
+        <v>0.0590706</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0676725</v>
+        <v>0.0677705</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0632505</v>
+        <v>0.061711</v>
       </c>
       <c r="D68" t="n">
-        <v>0.06284090000000001</v>
+        <v>0.0625782</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0694861</v>
+        <v>0.0681119</v>
       </c>
       <c r="C69" t="n">
-        <v>0.06496739999999999</v>
+        <v>0.0629393</v>
       </c>
       <c r="D69" t="n">
-        <v>0.06469129999999999</v>
+        <v>0.0622184</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0691983</v>
+        <v>0.0701228</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0668258</v>
+        <v>0.0664771</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0659888</v>
+        <v>0.0657334</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0728438</v>
+        <v>0.0736462</v>
       </c>
       <c r="C71" t="n">
-        <v>0.07264</v>
+        <v>0.07070949999999999</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0687865</v>
+        <v>0.0672306</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.07660019999999999</v>
+        <v>0.07631</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0733308</v>
+        <v>0.07052559999999999</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0730528</v>
+        <v>0.06991020000000001</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0776714</v>
+        <v>0.0770429</v>
       </c>
       <c r="C73" t="n">
-        <v>0.07905760000000001</v>
+        <v>0.07636270000000001</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0758785</v>
+        <v>0.0758617</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.08360819999999999</v>
+        <v>0.081409</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0830317</v>
+        <v>0.079483</v>
       </c>
       <c r="D74" t="n">
-        <v>0.08276409999999999</v>
+        <v>0.081358</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0876291</v>
+        <v>0.0910015</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0890537</v>
+        <v>0.08599710000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>0.08758349999999999</v>
+        <v>0.0875633</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0953702</v>
+        <v>0.0932341</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0979531</v>
+        <v>0.0936085</v>
       </c>
       <c r="D76" t="n">
-        <v>0.09039179999999999</v>
+        <v>0.0949927</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.104926</v>
+        <v>0.105648</v>
       </c>
       <c r="C77" t="n">
-        <v>0.11346</v>
+        <v>0.106021</v>
       </c>
       <c r="D77" t="n">
-        <v>0.109305</v>
+        <v>0.111451</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.123323</v>
+        <v>0.12157</v>
       </c>
       <c r="C78" t="n">
-        <v>0.127517</v>
+        <v>0.123256</v>
       </c>
       <c r="D78" t="n">
-        <v>0.121477</v>
+        <v>0.131897</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.144433</v>
+        <v>0.138095</v>
       </c>
       <c r="C79" t="n">
-        <v>0.156191</v>
+        <v>0.15104</v>
       </c>
       <c r="D79" t="n">
-        <v>0.142077</v>
+        <v>0.167594</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.18134</v>
+        <v>0.176381</v>
       </c>
       <c r="C80" t="n">
-        <v>0.201416</v>
+        <v>0.200464</v>
       </c>
       <c r="D80" t="n">
-        <v>0.1823</v>
+        <v>0.234527</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.083801</v>
+        <v>0.0836792</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0838793</v>
+        <v>0.07666249999999999</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0779478</v>
+        <v>0.0717935</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0872768</v>
+        <v>0.08558979999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0789345</v>
+        <v>0.0768556</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0804848</v>
+        <v>0.0784498</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.08773209999999999</v>
+        <v>0.0851111</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0858693</v>
+        <v>0.0799995</v>
       </c>
       <c r="D83" t="n">
-        <v>0.07988969999999999</v>
+        <v>0.0763387</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0944485</v>
+        <v>0.0886195</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0912919</v>
+        <v>0.0815548</v>
       </c>
       <c r="D84" t="n">
-        <v>0.08975279999999999</v>
+        <v>0.0800044</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.09745379999999999</v>
+        <v>0.0915335</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0871466</v>
+        <v>0.08792179999999999</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0876601</v>
+        <v>0.0833598</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0973521</v>
+        <v>0.09133040000000001</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0994405</v>
+        <v>0.0892076</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0897269</v>
+        <v>0.08567619999999999</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.105891</v>
+        <v>0.0966158</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0970934</v>
+        <v>0.0927964</v>
       </c>
       <c r="D87" t="n">
-        <v>0.100991</v>
+        <v>0.09111950000000001</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.109183</v>
+        <v>0.10232</v>
       </c>
       <c r="C88" t="n">
-        <v>0.113418</v>
+        <v>0.0984863</v>
       </c>
       <c r="D88" t="n">
-        <v>0.102327</v>
+        <v>0.09756570000000001</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.111377</v>
+        <v>0.107841</v>
       </c>
       <c r="C89" t="n">
-        <v>0.107187</v>
+        <v>0.10493</v>
       </c>
       <c r="D89" t="n">
-        <v>0.104839</v>
+        <v>0.105086</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.119003</v>
+        <v>0.115847</v>
       </c>
       <c r="C90" t="n">
-        <v>0.120457</v>
+        <v>0.118852</v>
       </c>
       <c r="D90" t="n">
-        <v>0.1093</v>
+        <v>0.114507</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.126597</v>
+        <v>0.125742</v>
       </c>
       <c r="C91" t="n">
-        <v>0.125216</v>
+        <v>0.129031</v>
       </c>
       <c r="D91" t="n">
-        <v>0.122709</v>
+        <v>0.129194</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.139804</v>
+        <v>0.144749</v>
       </c>
       <c r="C92" t="n">
-        <v>0.143072</v>
+        <v>0.147993</v>
       </c>
       <c r="D92" t="n">
-        <v>0.134816</v>
+        <v>0.152163</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.158055</v>
+        <v>0.158968</v>
       </c>
       <c r="C93" t="n">
-        <v>0.172364</v>
+        <v>0.170515</v>
       </c>
       <c r="D93" t="n">
-        <v>0.155812</v>
+        <v>0.187661</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.201766</v>
+        <v>0.18978</v>
       </c>
       <c r="C94" t="n">
-        <v>0.216123</v>
+        <v>0.226527</v>
       </c>
       <c r="D94" t="n">
-        <v>0.188507</v>
+        <v>0.259902</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.110655</v>
+        <v>0.106569</v>
       </c>
       <c r="C95" t="n">
-        <v>0.111208</v>
+        <v>0.101447</v>
       </c>
       <c r="D95" t="n">
-        <v>0.102279</v>
+        <v>0.09754409999999999</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.109994</v>
+        <v>0.112739</v>
       </c>
       <c r="C96" t="n">
-        <v>0.106763</v>
+        <v>0.104953</v>
       </c>
       <c r="D96" t="n">
-        <v>0.106088</v>
+        <v>0.102912</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.113999</v>
+        <v>0.111586</v>
       </c>
       <c r="C97" t="n">
-        <v>0.109275</v>
+        <v>0.108299</v>
       </c>
       <c r="D97" t="n">
-        <v>0.110298</v>
+        <v>0.105066</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.119048</v>
+        <v>0.114384</v>
       </c>
       <c r="C98" t="n">
-        <v>0.112127</v>
+        <v>0.112052</v>
       </c>
       <c r="D98" t="n">
-        <v>0.110579</v>
+        <v>0.106873</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.117642</v>
+        <v>0.120231</v>
       </c>
       <c r="C99" t="n">
-        <v>0.1195</v>
+        <v>0.117968</v>
       </c>
       <c r="D99" t="n">
-        <v>0.114548</v>
+        <v>0.11337</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.119761</v>
+        <v>0.120947</v>
       </c>
       <c r="C100" t="n">
-        <v>0.119157</v>
+        <v>0.120873</v>
       </c>
       <c r="D100" t="n">
-        <v>0.118728</v>
+        <v>0.114731</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.132805</v>
+        <v>0.125513</v>
       </c>
       <c r="C101" t="n">
-        <v>0.127201</v>
+        <v>0.123492</v>
       </c>
       <c r="D101" t="n">
-        <v>0.128661</v>
+        <v>0.11712</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.13365</v>
+        <v>0.129315</v>
       </c>
       <c r="C102" t="n">
-        <v>0.132412</v>
+        <v>0.128113</v>
       </c>
       <c r="D102" t="n">
-        <v>0.128921</v>
+        <v>0.128217</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.139839</v>
+        <v>0.132871</v>
       </c>
       <c r="C103" t="n">
-        <v>0.135559</v>
+        <v>0.145067</v>
       </c>
       <c r="D103" t="n">
-        <v>0.13556</v>
+        <v>0.136015</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.152864</v>
+        <v>0.138363</v>
       </c>
       <c r="C104" t="n">
-        <v>0.153709</v>
+        <v>0.144181</v>
       </c>
       <c r="D104" t="n">
-        <v>0.142754</v>
+        <v>0.143271</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.1654</v>
+        <v>0.157331</v>
       </c>
       <c r="C105" t="n">
-        <v>0.163869</v>
+        <v>0.162828</v>
       </c>
       <c r="D105" t="n">
-        <v>0.148538</v>
+        <v>0.161618</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.165103</v>
+        <v>0.169279</v>
       </c>
       <c r="C106" t="n">
-        <v>0.180053</v>
+        <v>0.175904</v>
       </c>
       <c r="D106" t="n">
-        <v>0.164524</v>
+        <v>0.180431</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.18958</v>
+        <v>0.193075</v>
       </c>
       <c r="C107" t="n">
-        <v>0.201313</v>
+        <v>0.206139</v>
       </c>
       <c r="D107" t="n">
-        <v>0.184622</v>
+        <v>0.220458</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.227275</v>
+        <v>0.223889</v>
       </c>
       <c r="C108" t="n">
-        <v>0.261769</v>
+        <v>0.255905</v>
       </c>
       <c r="D108" t="n">
-        <v>0.224418</v>
+        <v>0.297193</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.289052</v>
+        <v>0.281673</v>
       </c>
       <c r="C109" t="n">
-        <v>0.325856</v>
+        <v>0.325018</v>
       </c>
       <c r="D109" t="n">
-        <v>0.281038</v>
+        <v>0.445621</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.203567</v>
+        <v>0.210868</v>
       </c>
       <c r="C110" t="n">
-        <v>0.193367</v>
+        <v>0.19312</v>
       </c>
       <c r="D110" t="n">
-        <v>0.190871</v>
+        <v>0.18023</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.213974</v>
+        <v>0.207536</v>
       </c>
       <c r="C111" t="n">
-        <v>0.197943</v>
+        <v>0.195407</v>
       </c>
       <c r="D111" t="n">
-        <v>0.18865</v>
+        <v>0.185978</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.208688</v>
+        <v>0.200333</v>
       </c>
       <c r="C112" t="n">
-        <v>0.204031</v>
+        <v>0.207618</v>
       </c>
       <c r="D112" t="n">
-        <v>0.193493</v>
+        <v>0.186315</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.205279</v>
+        <v>0.200357</v>
       </c>
       <c r="C113" t="n">
-        <v>0.193195</v>
+        <v>0.189958</v>
       </c>
       <c r="D113" t="n">
-        <v>0.197704</v>
+        <v>0.193329</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.212407</v>
+        <v>0.217338</v>
       </c>
       <c r="C114" t="n">
-        <v>0.202195</v>
+        <v>0.196736</v>
       </c>
       <c r="D114" t="n">
-        <v>0.208811</v>
+        <v>0.197514</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.225846</v>
+        <v>0.229444</v>
       </c>
       <c r="C115" t="n">
-        <v>0.211894</v>
+        <v>0.224689</v>
       </c>
       <c r="D115" t="n">
-        <v>0.208143</v>
+        <v>0.203889</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.215768</v>
+        <v>0.21739</v>
       </c>
       <c r="C116" t="n">
-        <v>0.204569</v>
+        <v>0.212758</v>
       </c>
       <c r="D116" t="n">
-        <v>0.20556</v>
+        <v>0.20325</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.229522</v>
+        <v>0.243427</v>
       </c>
       <c r="C117" t="n">
-        <v>0.218789</v>
+        <v>0.221126</v>
       </c>
       <c r="D117" t="n">
-        <v>0.211656</v>
+        <v>0.215402</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.227439</v>
+        <v>0.239269</v>
       </c>
       <c r="C118" t="n">
-        <v>0.234575</v>
+        <v>0.225546</v>
       </c>
       <c r="D118" t="n">
-        <v>0.221408</v>
+        <v>0.221455</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.234858</v>
+        <v>0.237547</v>
       </c>
       <c r="C119" t="n">
-        <v>0.233457</v>
+        <v>0.233146</v>
       </c>
       <c r="D119" t="n">
-        <v>0.230386</v>
+        <v>0.23993</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.260537</v>
+        <v>0.268397</v>
       </c>
       <c r="C120" t="n">
-        <v>0.258929</v>
+        <v>0.251808</v>
       </c>
       <c r="D120" t="n">
-        <v>0.261498</v>
+        <v>0.27027</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.275973</v>
+        <v>0.280994</v>
       </c>
       <c r="C121" t="n">
-        <v>0.280165</v>
+        <v>0.282553</v>
       </c>
       <c r="D121" t="n">
-        <v>0.267405</v>
+        <v>0.302175</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.322338</v>
+        <v>0.333537</v>
       </c>
       <c r="C122" t="n">
-        <v>0.341871</v>
+        <v>0.326916</v>
       </c>
       <c r="D122" t="n">
-        <v>0.303084</v>
+        <v>0.391308</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.381182</v>
+        <v>0.385139</v>
       </c>
       <c r="C123" t="n">
-        <v>0.393605</v>
+        <v>0.398317</v>
       </c>
       <c r="D123" t="n">
-        <v>0.381949</v>
+        <v>0.532045</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.309508</v>
+        <v>0.307827</v>
       </c>
       <c r="C124" t="n">
-        <v>0.295847</v>
+        <v>0.29705</v>
       </c>
       <c r="D124" t="n">
-        <v>0.283183</v>
+        <v>0.279749</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.322726</v>
+        <v>0.31699</v>
       </c>
       <c r="C125" t="n">
-        <v>0.290183</v>
+        <v>0.295672</v>
       </c>
       <c r="D125" t="n">
-        <v>0.286583</v>
+        <v>0.272923</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.326643</v>
+        <v>0.313199</v>
       </c>
       <c r="C126" t="n">
-        <v>0.294833</v>
+        <v>0.294206</v>
       </c>
       <c r="D126" t="n">
-        <v>0.302654</v>
+        <v>0.278876</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.326258</v>
+        <v>0.322074</v>
       </c>
       <c r="C127" t="n">
-        <v>0.300929</v>
+        <v>0.305465</v>
       </c>
       <c r="D127" t="n">
-        <v>0.2941</v>
+        <v>0.290717</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.323532</v>
+        <v>0.325051</v>
       </c>
       <c r="C128" t="n">
-        <v>0.297261</v>
+        <v>0.305026</v>
       </c>
       <c r="D128" t="n">
-        <v>0.31582</v>
+        <v>0.290015</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.328241</v>
+        <v>0.327656</v>
       </c>
       <c r="C129" t="n">
-        <v>0.310463</v>
+        <v>0.306285</v>
       </c>
       <c r="D129" t="n">
-        <v>0.30855</v>
+        <v>0.291462</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.338649</v>
+        <v>0.335538</v>
       </c>
       <c r="C130" t="n">
-        <v>0.309428</v>
+        <v>0.311166</v>
       </c>
       <c r="D130" t="n">
-        <v>0.313587</v>
+        <v>0.304148</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.34854</v>
+        <v>0.343163</v>
       </c>
       <c r="C131" t="n">
-        <v>0.324461</v>
+        <v>0.325087</v>
       </c>
       <c r="D131" t="n">
-        <v>0.322021</v>
+        <v>0.313392</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.354401</v>
+        <v>0.362255</v>
       </c>
       <c r="C132" t="n">
-        <v>0.322909</v>
+        <v>0.324886</v>
       </c>
       <c r="D132" t="n">
-        <v>0.323373</v>
+        <v>0.320003</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.362809</v>
+        <v>0.369642</v>
       </c>
       <c r="C133" t="n">
-        <v>0.340335</v>
+        <v>0.350915</v>
       </c>
       <c r="D133" t="n">
-        <v>0.339403</v>
+        <v>0.347631</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.387305</v>
+        <v>0.393855</v>
       </c>
       <c r="C134" t="n">
-        <v>0.369283</v>
+        <v>0.361403</v>
       </c>
       <c r="D134" t="n">
-        <v>0.361816</v>
+        <v>0.382617</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.416463</v>
+        <v>0.4102</v>
       </c>
       <c r="C135" t="n">
-        <v>0.397069</v>
+        <v>0.400961</v>
       </c>
       <c r="D135" t="n">
-        <v>0.376856</v>
+        <v>0.411329</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.457882</v>
+        <v>0.454103</v>
       </c>
       <c r="C136" t="n">
-        <v>0.444204</v>
+        <v>0.446583</v>
       </c>
       <c r="D136" t="n">
-        <v>0.412847</v>
+        <v>0.500027</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.535921</v>
+        <v>0.530303</v>
       </c>
       <c r="C137" t="n">
-        <v>0.5351320000000001</v>
+        <v>0.5346649999999999</v>
       </c>
       <c r="D137" t="n">
-        <v>0.490952</v>
+        <v>0.664289</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.372667</v>
+        <v>0.382153</v>
       </c>
       <c r="C138" t="n">
-        <v>0.347592</v>
+        <v>0.334235</v>
       </c>
       <c r="D138" t="n">
-        <v>0.34973</v>
+        <v>0.328966</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.391746</v>
+        <v>0.373794</v>
       </c>
       <c r="C139" t="n">
-        <v>0.351792</v>
+        <v>0.355229</v>
       </c>
       <c r="D139" t="n">
-        <v>0.351477</v>
+        <v>0.352053</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.381611</v>
+        <v>0.389731</v>
       </c>
       <c r="C140" t="n">
-        <v>0.357948</v>
+        <v>0.358282</v>
       </c>
       <c r="D140" t="n">
-        <v>0.348472</v>
+        <v>0.346069</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.396792</v>
+        <v>0.394026</v>
       </c>
       <c r="C141" t="n">
-        <v>0.356432</v>
+        <v>0.357555</v>
       </c>
       <c r="D141" t="n">
-        <v>0.36802</v>
+        <v>0.348616</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.402513</v>
+        <v>0.397428</v>
       </c>
       <c r="C142" t="n">
-        <v>0.370353</v>
+        <v>0.358929</v>
       </c>
       <c r="D142" t="n">
-        <v>0.371463</v>
+        <v>0.353397</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.400692</v>
+        <v>0.400527</v>
       </c>
       <c r="C143" t="n">
-        <v>0.368675</v>
+        <v>0.371932</v>
       </c>
       <c r="D143" t="n">
-        <v>0.363203</v>
+        <v>0.357844</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered unsuccessful looukp.xlsx
+++ b/vs-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0424159</v>
+        <v>0.0422002</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0405489</v>
+        <v>0.0423191</v>
       </c>
       <c r="D2" t="n">
-        <v>0.04449</v>
+        <v>0.0358215</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0449849</v>
+        <v>0.0445274</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0447451</v>
+        <v>0.0439967</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0463997</v>
+        <v>0.0385908</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0480712</v>
+        <v>0.0491472</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0505359</v>
+        <v>0.0486946</v>
       </c>
       <c r="D4" t="n">
-        <v>0.054209</v>
+        <v>0.0428263</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0525065</v>
+        <v>0.0507367</v>
       </c>
       <c r="C5" t="n">
-        <v>0.055966</v>
+        <v>0.0566711</v>
       </c>
       <c r="D5" t="n">
-        <v>0.061206</v>
+        <v>0.0490385</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0610241</v>
+        <v>0.0575595</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0666958</v>
+        <v>0.06622599999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0735389</v>
+        <v>0.0545973</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.07431790000000001</v>
+        <v>0.06741419999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0827579</v>
+        <v>0.0852309</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0958669</v>
+        <v>0.0690679</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0939178</v>
+        <v>0.0895686</v>
       </c>
       <c r="C8" t="n">
-        <v>0.101855</v>
+        <v>0.102473</v>
       </c>
       <c r="D8" t="n">
-        <v>0.122532</v>
+        <v>0.088839</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.127145</v>
+        <v>0.119854</v>
       </c>
       <c r="C9" t="n">
-        <v>0.142723</v>
+        <v>0.14035</v>
       </c>
       <c r="D9" t="n">
-        <v>0.171803</v>
+        <v>0.0309021</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0399042</v>
+        <v>0.0391169</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0378517</v>
+        <v>0.0371097</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0363096</v>
+        <v>0.0319711</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.04068</v>
+        <v>0.0396832</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0377232</v>
+        <v>0.038412</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0386661</v>
+        <v>0.031414</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.041426</v>
+        <v>0.0400448</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0392182</v>
+        <v>0.0392892</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0391028</v>
+        <v>0.0324417</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0438733</v>
+        <v>0.0415339</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0393465</v>
+        <v>0.039245</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0414827</v>
+        <v>0.0321037</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0440856</v>
+        <v>0.0427527</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0407134</v>
+        <v>0.0414082</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0408925</v>
+        <v>0.0345843</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0460924</v>
+        <v>0.0428363</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0421057</v>
+        <v>0.0418721</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0419425</v>
+        <v>0.0356352</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0462981</v>
+        <v>0.0454669</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0455138</v>
+        <v>0.0449768</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0479169</v>
+        <v>0.0378016</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0488687</v>
+        <v>0.0476758</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0482451</v>
+        <v>0.0496585</v>
       </c>
       <c r="D17" t="n">
-        <v>0.050183</v>
+        <v>0.0397666</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.053118</v>
+        <v>0.0512614</v>
       </c>
       <c r="C18" t="n">
-        <v>0.05567</v>
+        <v>0.0533956</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0581061</v>
+        <v>0.0456565</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0583357</v>
+        <v>0.0571145</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0595857</v>
+        <v>0.0579955</v>
       </c>
       <c r="D19" t="n">
-        <v>0.061103</v>
+        <v>0.0484418</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0638779</v>
+        <v>0.0640438</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0699743</v>
+        <v>0.0674216</v>
       </c>
       <c r="D20" t="n">
-        <v>0.07568469999999999</v>
+        <v>0.0583864</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0771768</v>
+        <v>0.0732018</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0821307</v>
+        <v>0.0849091</v>
       </c>
       <c r="D21" t="n">
-        <v>0.09337239999999999</v>
+        <v>0.0719622</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0959743</v>
+        <v>0.09055009999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>0.102157</v>
+        <v>0.104616</v>
       </c>
       <c r="D22" t="n">
-        <v>0.126037</v>
+        <v>0.0892632</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.127954</v>
+        <v>0.121956</v>
       </c>
       <c r="C23" t="n">
-        <v>0.140553</v>
+        <v>0.13725</v>
       </c>
       <c r="D23" t="n">
-        <v>0.172763</v>
+        <v>0.0327799</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0427551</v>
+        <v>0.0427016</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0397183</v>
+        <v>0.0404234</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0394362</v>
+        <v>0.0323686</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0446988</v>
+        <v>0.0433909</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0408924</v>
+        <v>0.0398731</v>
       </c>
       <c r="D25" t="n">
-        <v>0.040841</v>
+        <v>0.0327165</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0439246</v>
+        <v>0.0433039</v>
       </c>
       <c r="C26" t="n">
-        <v>0.041424</v>
+        <v>0.0428564</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0405654</v>
+        <v>0.0348217</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0448459</v>
+        <v>0.0446219</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0424077</v>
+        <v>0.0450172</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0414308</v>
+        <v>0.0344617</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0479544</v>
+        <v>0.0445711</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0440678</v>
+        <v>0.0424447</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0414346</v>
+        <v>0.0345232</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0473632</v>
+        <v>0.0462364</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0451492</v>
+        <v>0.0442269</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0448125</v>
+        <v>0.0371099</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0492317</v>
+        <v>0.049142</v>
       </c>
       <c r="C30" t="n">
-        <v>0.04663</v>
+        <v>0.0464885</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0469306</v>
+        <v>0.03865</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0521697</v>
+        <v>0.0532358</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0494185</v>
+        <v>0.0502023</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0502164</v>
+        <v>0.0406627</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0551627</v>
+        <v>0.053363</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0536904</v>
+        <v>0.0542463</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0568949</v>
+        <v>0.0453956</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0581916</v>
+        <v>0.0611531</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0589518</v>
+        <v>0.0601609</v>
       </c>
       <c r="D33" t="n">
-        <v>0.061128</v>
+        <v>0.0517579</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0663991</v>
+        <v>0.0655497</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0687671</v>
+        <v>0.0689948</v>
       </c>
       <c r="D34" t="n">
-        <v>0.07114429999999999</v>
+        <v>0.0594167</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.08066379999999999</v>
+        <v>0.0790458</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0819661</v>
+        <v>0.0786261</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0937013</v>
+        <v>0.0701777</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0951876</v>
+        <v>0.0959107</v>
       </c>
       <c r="C36" t="n">
-        <v>0.101109</v>
+        <v>0.103743</v>
       </c>
       <c r="D36" t="n">
-        <v>0.119719</v>
+        <v>0.08765969999999999</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.127728</v>
+        <v>0.118691</v>
       </c>
       <c r="C37" t="n">
-        <v>0.135844</v>
+        <v>0.139317</v>
       </c>
       <c r="D37" t="n">
-        <v>0.165941</v>
+        <v>0.0353591</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.047668</v>
+        <v>0.0472621</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0432819</v>
+        <v>0.0435446</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0442038</v>
+        <v>0.0349326</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0495734</v>
+        <v>0.047825</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0449964</v>
+        <v>0.043819</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0435253</v>
+        <v>0.0361823</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0473489</v>
+        <v>0.0508132</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0459585</v>
+        <v>0.0450342</v>
       </c>
       <c r="D40" t="n">
-        <v>0.044075</v>
+        <v>0.0381387</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.04823</v>
+        <v>0.0487</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0457722</v>
+        <v>0.0461005</v>
       </c>
       <c r="D41" t="n">
-        <v>0.046316</v>
+        <v>0.0371403</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0493302</v>
+        <v>0.0502414</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0465014</v>
+        <v>0.0479925</v>
       </c>
       <c r="D42" t="n">
-        <v>0.047448</v>
+        <v>0.0375726</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0512492</v>
+        <v>0.0534705</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0485344</v>
+        <v>0.0488431</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0484274</v>
+        <v>0.0404266</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0533059</v>
+        <v>0.0533238</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0499793</v>
+        <v>0.0513784</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0497448</v>
+        <v>0.0419049</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0540463</v>
+        <v>0.0545793</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0546231</v>
+        <v>0.053654</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0530872</v>
+        <v>0.0429474</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0590894</v>
+        <v>0.0595921</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0594709</v>
+        <v>0.059287</v>
       </c>
       <c r="D46" t="n">
-        <v>0.059767</v>
+        <v>0.0470391</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0610359</v>
+        <v>0.0645791</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0620626</v>
+        <v>0.0627075</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0662021</v>
+        <v>0.0567152</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0727095</v>
+        <v>0.0720668</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0749147</v>
+        <v>0.07414270000000001</v>
       </c>
       <c r="D48" t="n">
-        <v>0.07634920000000001</v>
+        <v>0.0610115</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.07773869999999999</v>
+        <v>0.0773538</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0821423</v>
+        <v>0.082999</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0892874</v>
+        <v>0.07134169999999999</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.09330380000000001</v>
+        <v>0.09533850000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>0.103519</v>
+        <v>0.101995</v>
       </c>
       <c r="D50" t="n">
-        <v>0.113057</v>
+        <v>0.08844200000000001</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.11552</v>
+        <v>0.120364</v>
       </c>
       <c r="C51" t="n">
-        <v>0.132983</v>
+        <v>0.129362</v>
       </c>
       <c r="D51" t="n">
-        <v>0.160753</v>
+        <v>0.0419853</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.156247</v>
+        <v>0.158402</v>
       </c>
       <c r="C52" t="n">
-        <v>0.179347</v>
+        <v>0.175704</v>
       </c>
       <c r="D52" t="n">
-        <v>0.210998</v>
+        <v>0.0413959</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0622536</v>
+        <v>0.0574072</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0540756</v>
+        <v>0.0552207</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0528423</v>
+        <v>0.0426461</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0592762</v>
+        <v>0.0583449</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0539531</v>
+        <v>0.0551993</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0535868</v>
+        <v>0.0436463</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.061474</v>
+        <v>0.0592014</v>
       </c>
       <c r="C55" t="n">
-        <v>0.055411</v>
+        <v>0.0565993</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0534222</v>
+        <v>0.0440838</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0602309</v>
+        <v>0.0620499</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0574796</v>
+        <v>0.0579584</v>
       </c>
       <c r="D56" t="n">
-        <v>0.056754</v>
+        <v>0.0446955</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0615425</v>
+        <v>0.0629931</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0626462</v>
+        <v>0.0599611</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0576141</v>
+        <v>0.0456953</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0640626</v>
+        <v>0.0655891</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0640672</v>
+        <v>0.0610083</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0596547</v>
+        <v>0.0481264</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0668719</v>
+        <v>0.06686590000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0643526</v>
+        <v>0.0640868</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0634263</v>
+        <v>0.0514628</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0687719</v>
+        <v>0.0701792</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0672215</v>
+        <v>0.0692787</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0684792</v>
+        <v>0.0536965</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0733191</v>
+        <v>0.0725976</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0744056</v>
+        <v>0.07278370000000001</v>
       </c>
       <c r="D61" t="n">
-        <v>0.07282669999999999</v>
+        <v>0.0585304</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0791418</v>
+        <v>0.0777513</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0834903</v>
+        <v>0.081791</v>
       </c>
       <c r="D62" t="n">
-        <v>0.081524</v>
+        <v>0.0650365</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0909264</v>
+        <v>0.0867933</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0949628</v>
+        <v>0.0928026</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0977051</v>
+        <v>0.07389039999999999</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.104188</v>
+        <v>0.0997439</v>
       </c>
       <c r="C64" t="n">
-        <v>0.108412</v>
+        <v>0.109488</v>
       </c>
       <c r="D64" t="n">
-        <v>0.12005</v>
+        <v>0.0898733</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.126652</v>
+        <v>0.12161</v>
       </c>
       <c r="C65" t="n">
-        <v>0.140194</v>
+        <v>0.132965</v>
       </c>
       <c r="D65" t="n">
-        <v>0.163024</v>
+        <v>0.115609</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.161339</v>
+        <v>0.162326</v>
       </c>
       <c r="C66" t="n">
-        <v>0.183517</v>
+        <v>0.178231</v>
       </c>
       <c r="D66" t="n">
-        <v>0.220423</v>
+        <v>0.0470382</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0665413</v>
+        <v>0.0659064</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0608511</v>
+        <v>0.0646692</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0590706</v>
+        <v>0.0476078</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0677705</v>
+        <v>0.06733119999999999</v>
       </c>
       <c r="C68" t="n">
-        <v>0.061711</v>
+        <v>0.0642252</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0625782</v>
+        <v>0.0494333</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0681119</v>
+        <v>0.0688318</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0629393</v>
+        <v>0.06610190000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0622184</v>
+        <v>0.0487091</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0701228</v>
+        <v>0.0721823</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0664771</v>
+        <v>0.0675457</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0657334</v>
+        <v>0.0512737</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0736462</v>
+        <v>0.07421609999999999</v>
       </c>
       <c r="C71" t="n">
-        <v>0.07070949999999999</v>
+        <v>0.0693414</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0672306</v>
+        <v>0.0536871</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.07631</v>
+        <v>0.0740715</v>
       </c>
       <c r="C72" t="n">
-        <v>0.07052559999999999</v>
+        <v>0.0740929</v>
       </c>
       <c r="D72" t="n">
-        <v>0.06991020000000001</v>
+        <v>0.0553428</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0770429</v>
+        <v>0.0767641</v>
       </c>
       <c r="C73" t="n">
-        <v>0.07636270000000001</v>
+        <v>0.0804266</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0758617</v>
+        <v>0.0593161</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.081409</v>
+        <v>0.082247</v>
       </c>
       <c r="C74" t="n">
-        <v>0.079483</v>
+        <v>0.081707</v>
       </c>
       <c r="D74" t="n">
-        <v>0.081358</v>
+        <v>0.0620064</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0910015</v>
+        <v>0.0845756</v>
       </c>
       <c r="C75" t="n">
-        <v>0.08599710000000001</v>
+        <v>0.0877952</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0875633</v>
+        <v>0.06505660000000001</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0932341</v>
+        <v>0.09267789999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0936085</v>
+        <v>0.0967408</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0949927</v>
+        <v>0.0742708</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.105648</v>
+        <v>0.104737</v>
       </c>
       <c r="C77" t="n">
-        <v>0.106021</v>
+        <v>0.108754</v>
       </c>
       <c r="D77" t="n">
-        <v>0.111451</v>
+        <v>0.0862332</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.12157</v>
+        <v>0.11774</v>
       </c>
       <c r="C78" t="n">
-        <v>0.123256</v>
+        <v>0.126804</v>
       </c>
       <c r="D78" t="n">
-        <v>0.131897</v>
+        <v>0.0973266</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.138095</v>
+        <v>0.147519</v>
       </c>
       <c r="C79" t="n">
-        <v>0.15104</v>
+        <v>0.152017</v>
       </c>
       <c r="D79" t="n">
-        <v>0.167594</v>
+        <v>0.125006</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.176381</v>
+        <v>0.176887</v>
       </c>
       <c r="C80" t="n">
-        <v>0.200464</v>
+        <v>0.199164</v>
       </c>
       <c r="D80" t="n">
-        <v>0.234527</v>
+        <v>0.0544465</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0836792</v>
+        <v>0.0834394</v>
       </c>
       <c r="C81" t="n">
-        <v>0.07666249999999999</v>
+        <v>0.07668609999999999</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0717935</v>
+        <v>0.0555192</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.08558979999999999</v>
+        <v>0.0879909</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0768556</v>
+        <v>0.0792728</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0784498</v>
+        <v>0.059637</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0851111</v>
+        <v>0.0854878</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0799995</v>
+        <v>0.07940270000000001</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0763387</v>
+        <v>0.0585762</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0886195</v>
+        <v>0.0878519</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0815548</v>
+        <v>0.08309950000000001</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0800044</v>
+        <v>0.0606945</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0915335</v>
+        <v>0.0894142</v>
       </c>
       <c r="C85" t="n">
-        <v>0.08792179999999999</v>
+        <v>0.0854535</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0833598</v>
+        <v>0.0610104</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.09133040000000001</v>
+        <v>0.0930844</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0892076</v>
+        <v>0.0893492</v>
       </c>
       <c r="D86" t="n">
-        <v>0.08567619999999999</v>
+        <v>0.0644044</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0966158</v>
+        <v>0.102959</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0927964</v>
+        <v>0.0949253</v>
       </c>
       <c r="D87" t="n">
-        <v>0.09111950000000001</v>
+        <v>0.06893630000000001</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.10232</v>
+        <v>0.102625</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0984863</v>
+        <v>0.0998168</v>
       </c>
       <c r="D88" t="n">
-        <v>0.09756570000000001</v>
+        <v>0.0727406</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.107841</v>
+        <v>0.107592</v>
       </c>
       <c r="C89" t="n">
-        <v>0.10493</v>
+        <v>0.107086</v>
       </c>
       <c r="D89" t="n">
-        <v>0.105086</v>
+        <v>0.07892730000000001</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.115847</v>
+        <v>0.113034</v>
       </c>
       <c r="C90" t="n">
-        <v>0.118852</v>
+        <v>0.116907</v>
       </c>
       <c r="D90" t="n">
-        <v>0.114507</v>
+        <v>0.0862392</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.125742</v>
+        <v>0.121378</v>
       </c>
       <c r="C91" t="n">
-        <v>0.129031</v>
+        <v>0.129078</v>
       </c>
       <c r="D91" t="n">
-        <v>0.129194</v>
+        <v>0.09450070000000001</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.144749</v>
+        <v>0.141009</v>
       </c>
       <c r="C92" t="n">
-        <v>0.147993</v>
+        <v>0.141957</v>
       </c>
       <c r="D92" t="n">
-        <v>0.152163</v>
+        <v>0.109158</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.158968</v>
+        <v>0.158338</v>
       </c>
       <c r="C93" t="n">
-        <v>0.170515</v>
+        <v>0.171484</v>
       </c>
       <c r="D93" t="n">
-        <v>0.187661</v>
+        <v>0.132733</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.18978</v>
+        <v>0.190206</v>
       </c>
       <c r="C94" t="n">
-        <v>0.226527</v>
+        <v>0.212123</v>
       </c>
       <c r="D94" t="n">
-        <v>0.259902</v>
+        <v>0.076096</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.106569</v>
+        <v>0.105663</v>
       </c>
       <c r="C95" t="n">
-        <v>0.101447</v>
+        <v>0.104421</v>
       </c>
       <c r="D95" t="n">
-        <v>0.09754409999999999</v>
+        <v>0.07627109999999999</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.112739</v>
+        <v>0.1135</v>
       </c>
       <c r="C96" t="n">
-        <v>0.104953</v>
+        <v>0.111276</v>
       </c>
       <c r="D96" t="n">
-        <v>0.102912</v>
+        <v>0.0801842</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.111586</v>
+        <v>0.111898</v>
       </c>
       <c r="C97" t="n">
-        <v>0.108299</v>
+        <v>0.110654</v>
       </c>
       <c r="D97" t="n">
-        <v>0.105066</v>
+        <v>0.079836</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.114384</v>
+        <v>0.116733</v>
       </c>
       <c r="C98" t="n">
-        <v>0.112052</v>
+        <v>0.112607</v>
       </c>
       <c r="D98" t="n">
-        <v>0.106873</v>
+        <v>0.0823547</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.120231</v>
+        <v>0.120571</v>
       </c>
       <c r="C99" t="n">
-        <v>0.117968</v>
+        <v>0.112536</v>
       </c>
       <c r="D99" t="n">
-        <v>0.11337</v>
+        <v>0.085705</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.120947</v>
+        <v>0.122584</v>
       </c>
       <c r="C100" t="n">
-        <v>0.120873</v>
+        <v>0.118604</v>
       </c>
       <c r="D100" t="n">
-        <v>0.114731</v>
+        <v>0.08591600000000001</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.125513</v>
+        <v>0.127818</v>
       </c>
       <c r="C101" t="n">
-        <v>0.123492</v>
+        <v>0.124542</v>
       </c>
       <c r="D101" t="n">
-        <v>0.11712</v>
+        <v>0.0905272</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.129315</v>
+        <v>0.126421</v>
       </c>
       <c r="C102" t="n">
-        <v>0.128113</v>
+        <v>0.131291</v>
       </c>
       <c r="D102" t="n">
-        <v>0.128217</v>
+        <v>0.0951089</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.132871</v>
+        <v>0.136046</v>
       </c>
       <c r="C103" t="n">
-        <v>0.145067</v>
+        <v>0.13746</v>
       </c>
       <c r="D103" t="n">
-        <v>0.136015</v>
+        <v>0.09670040000000001</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.138363</v>
+        <v>0.140286</v>
       </c>
       <c r="C104" t="n">
-        <v>0.144181</v>
+        <v>0.145653</v>
       </c>
       <c r="D104" t="n">
-        <v>0.143271</v>
+        <v>0.106711</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.157331</v>
+        <v>0.149792</v>
       </c>
       <c r="C105" t="n">
-        <v>0.162828</v>
+        <v>0.160183</v>
       </c>
       <c r="D105" t="n">
-        <v>0.161618</v>
+        <v>0.116671</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.169279</v>
+        <v>0.170062</v>
       </c>
       <c r="C106" t="n">
-        <v>0.175904</v>
+        <v>0.176965</v>
       </c>
       <c r="D106" t="n">
-        <v>0.180431</v>
+        <v>0.127665</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.193075</v>
+        <v>0.187089</v>
       </c>
       <c r="C107" t="n">
-        <v>0.206139</v>
+        <v>0.199358</v>
       </c>
       <c r="D107" t="n">
-        <v>0.220458</v>
+        <v>0.148589</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.223889</v>
+        <v>0.225044</v>
       </c>
       <c r="C108" t="n">
-        <v>0.255905</v>
+        <v>0.243267</v>
       </c>
       <c r="D108" t="n">
-        <v>0.297193</v>
+        <v>0.156663</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.281673</v>
+        <v>0.28525</v>
       </c>
       <c r="C109" t="n">
-        <v>0.325018</v>
+        <v>0.321247</v>
       </c>
       <c r="D109" t="n">
-        <v>0.445621</v>
+        <v>0.159522</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.210868</v>
+        <v>0.215351</v>
       </c>
       <c r="C110" t="n">
-        <v>0.19312</v>
+        <v>0.191052</v>
       </c>
       <c r="D110" t="n">
-        <v>0.18023</v>
+        <v>0.159138</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.207536</v>
+        <v>0.200501</v>
       </c>
       <c r="C111" t="n">
-        <v>0.195407</v>
+        <v>0.1914</v>
       </c>
       <c r="D111" t="n">
-        <v>0.185978</v>
+        <v>0.168935</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.200333</v>
+        <v>0.20842</v>
       </c>
       <c r="C112" t="n">
-        <v>0.207618</v>
+        <v>0.187474</v>
       </c>
       <c r="D112" t="n">
-        <v>0.186315</v>
+        <v>0.163187</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.200357</v>
+        <v>0.209132</v>
       </c>
       <c r="C113" t="n">
-        <v>0.189958</v>
+        <v>0.204028</v>
       </c>
       <c r="D113" t="n">
-        <v>0.193329</v>
+        <v>0.163944</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.217338</v>
+        <v>0.206415</v>
       </c>
       <c r="C114" t="n">
-        <v>0.196736</v>
+        <v>0.198404</v>
       </c>
       <c r="D114" t="n">
-        <v>0.197514</v>
+        <v>0.164907</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.229444</v>
+        <v>0.221289</v>
       </c>
       <c r="C115" t="n">
-        <v>0.224689</v>
+        <v>0.207782</v>
       </c>
       <c r="D115" t="n">
-        <v>0.203889</v>
+        <v>0.171779</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.21739</v>
+        <v>0.227644</v>
       </c>
       <c r="C116" t="n">
-        <v>0.212758</v>
+        <v>0.212108</v>
       </c>
       <c r="D116" t="n">
-        <v>0.20325</v>
+        <v>0.172487</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.243427</v>
+        <v>0.221341</v>
       </c>
       <c r="C117" t="n">
-        <v>0.221126</v>
+        <v>0.226519</v>
       </c>
       <c r="D117" t="n">
-        <v>0.215402</v>
+        <v>0.179995</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.239269</v>
+        <v>0.226874</v>
       </c>
       <c r="C118" t="n">
-        <v>0.225546</v>
+        <v>0.225841</v>
       </c>
       <c r="D118" t="n">
-        <v>0.221455</v>
+        <v>0.197449</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.237547</v>
+        <v>0.233391</v>
       </c>
       <c r="C119" t="n">
-        <v>0.233146</v>
+        <v>0.233597</v>
       </c>
       <c r="D119" t="n">
-        <v>0.23993</v>
+        <v>0.191845</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.268397</v>
+        <v>0.254034</v>
       </c>
       <c r="C120" t="n">
-        <v>0.251808</v>
+        <v>0.250392</v>
       </c>
       <c r="D120" t="n">
-        <v>0.27027</v>
+        <v>0.208617</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.280994</v>
+        <v>0.271066</v>
       </c>
       <c r="C121" t="n">
-        <v>0.282553</v>
+        <v>0.283615</v>
       </c>
       <c r="D121" t="n">
-        <v>0.302175</v>
+        <v>0.222125</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.333537</v>
+        <v>0.315783</v>
       </c>
       <c r="C122" t="n">
-        <v>0.326916</v>
+        <v>0.328722</v>
       </c>
       <c r="D122" t="n">
-        <v>0.391308</v>
+        <v>0.261827</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.385139</v>
+        <v>0.379677</v>
       </c>
       <c r="C123" t="n">
-        <v>0.398317</v>
+        <v>0.401675</v>
       </c>
       <c r="D123" t="n">
-        <v>0.532045</v>
+        <v>0.242915</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.307827</v>
+        <v>0.318139</v>
       </c>
       <c r="C124" t="n">
-        <v>0.29705</v>
+        <v>0.290176</v>
       </c>
       <c r="D124" t="n">
-        <v>0.279749</v>
+        <v>0.251966</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.31699</v>
+        <v>0.307902</v>
       </c>
       <c r="C125" t="n">
-        <v>0.295672</v>
+        <v>0.297365</v>
       </c>
       <c r="D125" t="n">
-        <v>0.272923</v>
+        <v>0.251277</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.313199</v>
+        <v>0.320009</v>
       </c>
       <c r="C126" t="n">
-        <v>0.294206</v>
+        <v>0.28875</v>
       </c>
       <c r="D126" t="n">
-        <v>0.278876</v>
+        <v>0.248511</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.322074</v>
+        <v>0.315716</v>
       </c>
       <c r="C127" t="n">
-        <v>0.305465</v>
+        <v>0.294041</v>
       </c>
       <c r="D127" t="n">
-        <v>0.290717</v>
+        <v>0.253842</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.325051</v>
+        <v>0.323176</v>
       </c>
       <c r="C128" t="n">
-        <v>0.305026</v>
+        <v>0.294913</v>
       </c>
       <c r="D128" t="n">
-        <v>0.290015</v>
+        <v>0.249976</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.327656</v>
+        <v>0.329629</v>
       </c>
       <c r="C129" t="n">
-        <v>0.306285</v>
+        <v>0.304136</v>
       </c>
       <c r="D129" t="n">
-        <v>0.291462</v>
+        <v>0.257667</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.335538</v>
+        <v>0.336027</v>
       </c>
       <c r="C130" t="n">
-        <v>0.311166</v>
+        <v>0.30778</v>
       </c>
       <c r="D130" t="n">
-        <v>0.304148</v>
+        <v>0.256718</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.343163</v>
+        <v>0.342451</v>
       </c>
       <c r="C131" t="n">
-        <v>0.325087</v>
+        <v>0.33291</v>
       </c>
       <c r="D131" t="n">
-        <v>0.313392</v>
+        <v>0.271779</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.362255</v>
+        <v>0.356442</v>
       </c>
       <c r="C132" t="n">
-        <v>0.324886</v>
+        <v>0.333294</v>
       </c>
       <c r="D132" t="n">
-        <v>0.320003</v>
+        <v>0.278355</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.369642</v>
+        <v>0.373195</v>
       </c>
       <c r="C133" t="n">
-        <v>0.350915</v>
+        <v>0.345397</v>
       </c>
       <c r="D133" t="n">
-        <v>0.347631</v>
+        <v>0.290359</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.393855</v>
+        <v>0.377652</v>
       </c>
       <c r="C134" t="n">
-        <v>0.361403</v>
+        <v>0.362234</v>
       </c>
       <c r="D134" t="n">
-        <v>0.382617</v>
+        <v>0.302671</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.4102</v>
+        <v>0.415742</v>
       </c>
       <c r="C135" t="n">
-        <v>0.400961</v>
+        <v>0.391744</v>
       </c>
       <c r="D135" t="n">
-        <v>0.411329</v>
+        <v>0.322473</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.454103</v>
+        <v>0.458873</v>
       </c>
       <c r="C136" t="n">
-        <v>0.446583</v>
+        <v>0.440425</v>
       </c>
       <c r="D136" t="n">
-        <v>0.500027</v>
+        <v>0.368503</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.530303</v>
+        <v>0.534258</v>
       </c>
       <c r="C137" t="n">
-        <v>0.5346649999999999</v>
+        <v>0.549534</v>
       </c>
       <c r="D137" t="n">
-        <v>0.664289</v>
+        <v>0.299768</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.382153</v>
+        <v>0.376131</v>
       </c>
       <c r="C138" t="n">
-        <v>0.334235</v>
+        <v>0.34315</v>
       </c>
       <c r="D138" t="n">
-        <v>0.328966</v>
+        <v>0.303463</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.373794</v>
+        <v>0.383487</v>
       </c>
       <c r="C139" t="n">
-        <v>0.355229</v>
+        <v>0.350248</v>
       </c>
       <c r="D139" t="n">
-        <v>0.352053</v>
+        <v>0.311251</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.389731</v>
+        <v>0.388027</v>
       </c>
       <c r="C140" t="n">
-        <v>0.358282</v>
+        <v>0.355011</v>
       </c>
       <c r="D140" t="n">
-        <v>0.346069</v>
+        <v>0.307843</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.394026</v>
+        <v>0.395158</v>
       </c>
       <c r="C141" t="n">
-        <v>0.357555</v>
+        <v>0.3581</v>
       </c>
       <c r="D141" t="n">
-        <v>0.348616</v>
+        <v>0.309727</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.397428</v>
+        <v>0.398629</v>
       </c>
       <c r="C142" t="n">
-        <v>0.358929</v>
+        <v>0.362548</v>
       </c>
       <c r="D142" t="n">
-        <v>0.353397</v>
+        <v>0.319252</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.400527</v>
+        <v>0.403115</v>
       </c>
       <c r="C143" t="n">
-        <v>0.371932</v>
+        <v>0.365455</v>
       </c>
       <c r="D143" t="n">
-        <v>0.357844</v>
+        <v>0.308737</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered unsuccessful looukp.xlsx
+++ b/vs-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0422002</v>
+        <v>0.043522</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0423191</v>
+        <v>0.0410295</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0358215</v>
+        <v>0.0307233</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0445274</v>
+        <v>0.0449226</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0439967</v>
+        <v>0.0422779</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0385908</v>
+        <v>0.0320164</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0491472</v>
+        <v>0.0474142</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0486946</v>
+        <v>0.0487721</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0428263</v>
+        <v>0.0333749</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0507367</v>
+        <v>0.0532165</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0566711</v>
+        <v>0.0569867</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0490385</v>
+        <v>0.0360337</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0575595</v>
+        <v>0.0620785</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06622599999999999</v>
+        <v>0.0734554</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0545973</v>
+        <v>0.0394061</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.06741419999999999</v>
+        <v>0.0753619</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0852309</v>
+        <v>0.08155850000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0690679</v>
+        <v>0.045395</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0895686</v>
+        <v>0.103291</v>
       </c>
       <c r="C8" t="n">
-        <v>0.102473</v>
+        <v>0.101626</v>
       </c>
       <c r="D8" t="n">
-        <v>0.088839</v>
+        <v>0.0547065</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.119854</v>
+        <v>0.129216</v>
       </c>
       <c r="C9" t="n">
-        <v>0.14035</v>
+        <v>0.134794</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0309021</v>
+        <v>0.0283166</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0391169</v>
+        <v>0.040329</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0371097</v>
+        <v>0.0358608</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0319711</v>
+        <v>0.0285537</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0396832</v>
+        <v>0.0405355</v>
       </c>
       <c r="C11" t="n">
-        <v>0.038412</v>
+        <v>0.0372487</v>
       </c>
       <c r="D11" t="n">
-        <v>0.031414</v>
+        <v>0.030219</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0400448</v>
+        <v>0.0401098</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0392892</v>
+        <v>0.0377743</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0324417</v>
+        <v>0.0299497</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0415339</v>
+        <v>0.040936</v>
       </c>
       <c r="C13" t="n">
-        <v>0.039245</v>
+        <v>0.0387004</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0321037</v>
+        <v>0.029721</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0427527</v>
+        <v>0.0428656</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0414082</v>
+        <v>0.0399646</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0345843</v>
+        <v>0.0306101</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0428363</v>
+        <v>0.0440618</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0418721</v>
+        <v>0.0413086</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0356352</v>
+        <v>0.0312622</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0454669</v>
+        <v>0.0462397</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0449768</v>
+        <v>0.0444056</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0378016</v>
+        <v>0.0318729</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0476758</v>
+        <v>0.048238</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0496585</v>
+        <v>0.0477287</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0397666</v>
+        <v>0.0328621</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0512614</v>
+        <v>0.0522788</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0533956</v>
+        <v>0.0541486</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0456565</v>
+        <v>0.0341444</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0571145</v>
+        <v>0.0562748</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0579955</v>
+        <v>0.0581326</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0484418</v>
+        <v>0.0367581</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0640438</v>
+        <v>0.06928570000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0674216</v>
+        <v>0.0652716</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0583864</v>
+        <v>0.0403214</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0732018</v>
+        <v>0.0799521</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0849091</v>
+        <v>0.081342</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0719622</v>
+        <v>0.0462745</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.09055009999999999</v>
+        <v>0.101369</v>
       </c>
       <c r="C22" t="n">
-        <v>0.104616</v>
+        <v>0.101154</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0892632</v>
+        <v>0.0554549</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.121956</v>
+        <v>0.13358</v>
       </c>
       <c r="C23" t="n">
-        <v>0.13725</v>
+        <v>0.147387</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0327799</v>
+        <v>0.0300691</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0427016</v>
+        <v>0.0419779</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0404234</v>
+        <v>0.0405162</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0323686</v>
+        <v>0.0296791</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0433909</v>
+        <v>0.0434615</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0398731</v>
+        <v>0.039112</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0327165</v>
+        <v>0.0301162</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0433039</v>
+        <v>0.0435701</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0428564</v>
+        <v>0.041082</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0348217</v>
+        <v>0.0311397</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0446219</v>
+        <v>0.0449379</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0450172</v>
+        <v>0.0440433</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0344617</v>
+        <v>0.0324916</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0445711</v>
+        <v>0.0469344</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0424447</v>
+        <v>0.0433377</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0345232</v>
+        <v>0.0318428</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0462364</v>
+        <v>0.0460022</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0442269</v>
+        <v>0.0436204</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0371099</v>
+        <v>0.0321023</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.049142</v>
+        <v>0.0486712</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0464885</v>
+        <v>0.046792</v>
       </c>
       <c r="D30" t="n">
-        <v>0.03865</v>
+        <v>0.0335716</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0532358</v>
+        <v>0.0509003</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0502023</v>
+        <v>0.0478924</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0406627</v>
+        <v>0.0339216</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.053363</v>
+        <v>0.0540188</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0542463</v>
+        <v>0.0527721</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0453956</v>
+        <v>0.0353748</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0611531</v>
+        <v>0.0605576</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0601609</v>
+        <v>0.0632984</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0517579</v>
+        <v>0.0375916</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0655497</v>
+        <v>0.0661403</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0689948</v>
+        <v>0.068157</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0594167</v>
+        <v>0.0419226</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0790458</v>
+        <v>0.0780213</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0786261</v>
+        <v>0.0774484</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0701777</v>
+        <v>0.0472971</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0959107</v>
+        <v>0.09659</v>
       </c>
       <c r="C36" t="n">
-        <v>0.103743</v>
+        <v>0.101742</v>
       </c>
       <c r="D36" t="n">
-        <v>0.08765969999999999</v>
+        <v>0.0565263</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.118691</v>
+        <v>0.124994</v>
       </c>
       <c r="C37" t="n">
-        <v>0.139317</v>
+        <v>0.131486</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0353591</v>
+        <v>0.0330257</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0472621</v>
+        <v>0.0466237</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0435446</v>
+        <v>0.0435688</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0349326</v>
+        <v>0.0331599</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.047825</v>
+        <v>0.0485428</v>
       </c>
       <c r="C39" t="n">
-        <v>0.043819</v>
+        <v>0.043767</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0361823</v>
+        <v>0.0343527</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0508132</v>
+        <v>0.0481849</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0450342</v>
+        <v>0.0437232</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0381387</v>
+        <v>0.0345408</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0487</v>
+        <v>0.0488615</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0461005</v>
+        <v>0.0459101</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0371403</v>
+        <v>0.0350593</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0502414</v>
+        <v>0.0526949</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0479925</v>
+        <v>0.0469507</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0375726</v>
+        <v>0.0354873</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0534705</v>
+        <v>0.0539035</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0488431</v>
+        <v>0.0498144</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0404266</v>
+        <v>0.0375689</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0533238</v>
+        <v>0.0543371</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0513784</v>
+        <v>0.0510712</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0419049</v>
+        <v>0.0368006</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0545793</v>
+        <v>0.0542775</v>
       </c>
       <c r="C45" t="n">
-        <v>0.053654</v>
+        <v>0.0527896</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0429474</v>
+        <v>0.0372173</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0595921</v>
+        <v>0.0579993</v>
       </c>
       <c r="C46" t="n">
-        <v>0.059287</v>
+        <v>0.0593228</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0470391</v>
+        <v>0.0387512</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0645791</v>
+        <v>0.0633291</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0627075</v>
+        <v>0.06309140000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0567152</v>
+        <v>0.0417073</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0720668</v>
+        <v>0.07075380000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>0.07414270000000001</v>
+        <v>0.07031949999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0610115</v>
+        <v>0.0444329</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0773538</v>
+        <v>0.0777863</v>
       </c>
       <c r="C49" t="n">
-        <v>0.082999</v>
+        <v>0.0811405</v>
       </c>
       <c r="D49" t="n">
-        <v>0.07134169999999999</v>
+        <v>0.0489945</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.09533850000000001</v>
+        <v>0.09006749999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>0.101995</v>
+        <v>0.099316</v>
       </c>
       <c r="D50" t="n">
-        <v>0.08844200000000001</v>
+        <v>0.0550787</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.120364</v>
+        <v>0.122577</v>
       </c>
       <c r="C51" t="n">
-        <v>0.129362</v>
+        <v>0.128917</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0419853</v>
+        <v>0.0404744</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.158402</v>
+        <v>0.157423</v>
       </c>
       <c r="C52" t="n">
-        <v>0.175704</v>
+        <v>0.172413</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0413959</v>
+        <v>0.0412028</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0574072</v>
+        <v>0.0569909</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0552207</v>
+        <v>0.0533885</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0426461</v>
+        <v>0.0404717</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0583449</v>
+        <v>0.0586198</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0551993</v>
+        <v>0.0540739</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0436463</v>
+        <v>0.0418442</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0592014</v>
+        <v>0.060973</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0565993</v>
+        <v>0.0560916</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0440838</v>
+        <v>0.0423663</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0620499</v>
+        <v>0.0610429</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0579584</v>
+        <v>0.0566326</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0446955</v>
+        <v>0.0423538</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0629931</v>
+        <v>0.0620419</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0599611</v>
+        <v>0.059258</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0456953</v>
+        <v>0.045336</v>
       </c>
     </row>